--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -165,13 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>無職</t>
     <rPh sb="0" eb="2">
       <t>ムショク</t>
@@ -595,10 +588,6 @@
     <rPh sb="0" eb="2">
       <t>シボウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発熱あり</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1055,7 +1044,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1090,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1229,7 +1218,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1311,7 +1300,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1350,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1366,32 +1355,32 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
         <v>43909</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>43909</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1407,32 +1396,32 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
         <v>43915</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>43915</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>37</v>
@@ -1450,32 +1439,32 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
         <v>43917</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>43917</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1491,32 +1480,32 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B11" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5">
         <v>43917</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>43917</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1532,32 +1521,32 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B12" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
         <v>43918</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>43918</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1573,32 +1562,32 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B13" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
         <v>43919</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>43919</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1614,32 +1603,32 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B14" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5">
         <v>43920</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>43920</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -1655,32 +1644,32 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5">
         <v>43920</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>43920</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1696,42 +1685,40 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5">
         <v>43922</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>43922</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6">
         <v>0</v>
       </c>
       <c r="N16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2"/>
     </row>
@@ -1739,32 +1726,32 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5">
         <v>43924</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>43924</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -1780,32 +1767,32 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B18" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5">
         <v>43924</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>43924</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1821,32 +1808,32 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="B19" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5">
         <v>43924</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>43924</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1862,30 +1849,30 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="B20" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="5">
         <v>43926</v>
       </c>
       <c r="F20" s="5">
         <v>43926</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="21"/>
@@ -1901,30 +1888,30 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="B21" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="5">
         <v>43927</v>
       </c>
       <c r="F21" s="5">
         <v>43927</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="9"/>
@@ -1940,13 +1927,13 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="5">
@@ -1955,17 +1942,17 @@
       <c r="F22" s="5">
         <v>43928</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1981,30 +1968,30 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2"/>
+      <c r="B23" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="5">
         <v>43929</v>
       </c>
       <c r="F23" s="5">
         <v>43929</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -2020,13 +2007,13 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="B24" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="5">
@@ -2035,17 +2022,17 @@
       <c r="F24" s="5">
         <v>43930</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -2061,13 +2048,13 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B25" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="5">
@@ -2076,17 +2063,17 @@
       <c r="F25" s="5">
         <v>43931</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -2102,13 +2089,13 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="B26" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="5">
@@ -2117,20 +2104,20 @@
       <c r="F26" s="5">
         <v>43932</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="6">
@@ -2145,13 +2132,13 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="B27" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="5">
@@ -2160,17 +2147,17 @@
       <c r="F27" s="5">
         <v>43933</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -2186,30 +2173,30 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2"/>
+      <c r="B28" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="5">
         <v>43933</v>
       </c>
       <c r="F28" s="5">
         <v>43933</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="9"/>
@@ -2225,13 +2212,13 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="B29" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="5">
@@ -2240,17 +2227,17 @@
       <c r="F29" s="5">
         <v>43934</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -2266,13 +2253,13 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="B30" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="5">
@@ -2281,17 +2268,17 @@
       <c r="F30" s="5">
         <v>43935</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -2307,13 +2294,13 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="B31" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="5">
@@ -2322,17 +2309,17 @@
       <c r="F31" s="5">
         <v>43935</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="G31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -2348,30 +2335,30 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="2"/>
+      <c r="B32" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="5">
         <v>43935</v>
       </c>
       <c r="F32" s="5">
         <v>43935</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -2387,13 +2374,13 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="B33" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="5">
@@ -2402,17 +2389,17 @@
       <c r="F33" s="5">
         <v>43936</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>37</v>
@@ -2430,30 +2417,30 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2"/>
+      <c r="B34" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="5">
         <v>43936</v>
       </c>
       <c r="F34" s="5">
         <v>43936</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="H34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -2469,13 +2456,13 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="B35" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="5">
@@ -2484,17 +2471,17 @@
       <c r="F35" s="5">
         <v>43938</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J35" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>36</v>
@@ -2512,13 +2499,13 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="B36" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="5">
@@ -2527,17 +2514,17 @@
       <c r="F36" s="5">
         <v>43938</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -2553,13 +2540,13 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="B37" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="5">
@@ -2568,17 +2555,17 @@
       <c r="F37" s="5">
         <v>43939</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>66</v>
+      <c r="G37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>36</v>
@@ -2596,13 +2583,13 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="B38" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="5">
@@ -2611,17 +2598,17 @@
       <c r="F38" s="5">
         <v>43939</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>78</v>
+      <c r="G38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -2637,13 +2624,13 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="B39" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="5">
@@ -2652,27 +2639,25 @@
       <c r="F39" s="5">
         <v>43940</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>66</v>
+      <c r="G39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6">
         <v>0</v>
       </c>
       <c r="N39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="2"/>
     </row>
@@ -2680,13 +2665,13 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="B40" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="5">
@@ -2695,17 +2680,17 @@
       <c r="F40" s="5">
         <v>43940</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>78</v>
+      <c r="G40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -2721,13 +2706,13 @@
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="B41" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="5">
@@ -2736,17 +2721,17 @@
       <c r="F41" s="5">
         <v>43940</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>66</v>
+      <c r="G41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
@@ -2762,13 +2747,13 @@
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="B42" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="5">
@@ -2777,17 +2762,17 @@
       <c r="F42" s="5">
         <v>43941</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="J42" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -2803,13 +2788,13 @@
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="12">
-        <v>430005</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="B43" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="13">
@@ -2818,24 +2803,22 @@
       <c r="F43" s="5">
         <v>43942</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>73</v>
+      <c r="G43" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="H43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="K43" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>99</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L43" s="22"/>
       <c r="M43" s="11">
         <v>0</v>
       </c>
@@ -2848,13 +2831,13 @@
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="B44" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="5">
@@ -2863,17 +2846,17 @@
       <c r="F44" s="5">
         <v>43943</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>73</v>
+      <c r="G44" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I44" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -2889,13 +2872,13 @@
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="B45" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="5">
@@ -2904,17 +2887,17 @@
       <c r="F45" s="5">
         <v>43944</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="I45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J45" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
@@ -2930,13 +2913,13 @@
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
-        <v>430005</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="B46" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="5">
@@ -2945,27 +2928,25 @@
       <c r="F46" s="5">
         <v>43945</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="I46" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6">
         <v>0</v>
       </c>
       <c r="N46" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="15"/>
     </row>
@@ -2992,13 +2973,13 @@
         <v>16</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K47" s="6"/>
       <c r="M47" s="6">
@@ -3032,13 +3013,13 @@
         <v>16</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -3049,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="16" customFormat="1">
@@ -3075,13 +3056,13 @@
         <v>16</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -1044,7 +1044,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K37" sqref="K37:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1355,28 +1355,28 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="B8" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
         <v>43909</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>43909</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -1396,28 +1396,28 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B9" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4">
         <v>43915</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>43915</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -1439,28 +1439,28 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="B10" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
         <v>43917</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>43917</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -1480,28 +1480,28 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="B11" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
         <v>43917</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>43917</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -1521,28 +1521,28 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="B12" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4">
         <v>43918</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>43918</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -1562,28 +1562,28 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="B13" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
         <v>43919</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>43919</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -1603,28 +1603,28 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="B14" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4">
         <v>43920</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>43920</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -1644,28 +1644,28 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="B15" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4">
         <v>43920</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>43920</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -1685,28 +1685,28 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="B16" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4">
         <v>43922</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>43922</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="9" t="s">
@@ -1726,28 +1726,28 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="B17" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4">
         <v>43924</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>43924</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -1767,28 +1767,28 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="B18" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
         <v>43924</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>43924</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
@@ -1808,28 +1808,28 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="B19" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4">
         <v>43924</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>43924</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -1849,26 +1849,26 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="6"/>
+      <c r="B20" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="5">
         <v>43926</v>
       </c>
       <c r="F20" s="5">
         <v>43926</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -1888,26 +1888,26 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="B21" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="5">
         <v>43927</v>
       </c>
       <c r="F21" s="5">
         <v>43927</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="9" t="s">
@@ -1927,13 +1927,13 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="5">
@@ -1942,13 +1942,13 @@
       <c r="F22" s="5">
         <v>43928</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -1968,26 +1968,26 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="6"/>
+      <c r="B23" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="5">
         <v>43929</v>
       </c>
       <c r="F23" s="5">
         <v>43929</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -2007,13 +2007,13 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="5">
@@ -2022,13 +2022,13 @@
       <c r="F24" s="5">
         <v>43930</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -2048,13 +2048,13 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="5">
@@ -2063,13 +2063,13 @@
       <c r="F25" s="5">
         <v>43931</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J25" s="9" t="s">
@@ -2089,13 +2089,13 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="5">
@@ -2104,13 +2104,13 @@
       <c r="F26" s="5">
         <v>43932</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="9" t="s">
@@ -2132,13 +2132,13 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="B27" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="5">
@@ -2147,13 +2147,13 @@
       <c r="F27" s="5">
         <v>43933</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J27" s="9" t="s">
@@ -2173,26 +2173,26 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="6"/>
+      <c r="B28" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="5">
         <v>43933</v>
       </c>
       <c r="F28" s="5">
         <v>43933</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -2212,13 +2212,13 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="5">
@@ -2227,13 +2227,13 @@
       <c r="F29" s="5">
         <v>43934</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J29" s="9" t="s">
@@ -2253,13 +2253,13 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="B30" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="5">
@@ -2268,13 +2268,13 @@
       <c r="F30" s="5">
         <v>43935</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="9" t="s">
@@ -2294,13 +2294,13 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="5">
@@ -2309,13 +2309,13 @@
       <c r="F31" s="5">
         <v>43935</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="9" t="s">
@@ -2335,26 +2335,26 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="6"/>
+      <c r="B32" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="5">
         <v>43935</v>
       </c>
       <c r="F32" s="5">
         <v>43935</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="9" t="s">
@@ -2374,13 +2374,13 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="B33" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="5">
@@ -2389,13 +2389,13 @@
       <c r="F33" s="5">
         <v>43936</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="9" t="s">
@@ -2417,26 +2417,26 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="6"/>
+      <c r="B34" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="5">
         <v>43936</v>
       </c>
       <c r="F34" s="5">
         <v>43936</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="9" t="s">
@@ -2456,13 +2456,13 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="B35" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="5">
@@ -2471,13 +2471,13 @@
       <c r="F35" s="5">
         <v>43938</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J35" s="9" t="s">
@@ -2499,13 +2499,13 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="B36" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="5">
@@ -2514,13 +2514,13 @@
       <c r="F36" s="5">
         <v>43938</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J36" s="9" t="s">
@@ -2540,13 +2540,13 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="B37" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="5">
@@ -2555,27 +2555,25 @@
       <c r="F37" s="5">
         <v>43939</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6">
         <v>0</v>
       </c>
       <c r="N37" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="2"/>
     </row>
@@ -2583,13 +2581,13 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="5">
@@ -2598,13 +2596,13 @@
       <c r="F38" s="5">
         <v>43939</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="2" t="s">
         <v>77</v>
       </c>
       <c r="J38" s="9" t="s">
@@ -2624,13 +2622,13 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="B39" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="5">
@@ -2639,13 +2637,13 @@
       <c r="F39" s="5">
         <v>43940</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J39" s="9" t="s">
@@ -2665,13 +2663,13 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="5">
@@ -2680,13 +2678,13 @@
       <c r="F40" s="5">
         <v>43940</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="2" t="s">
         <v>77</v>
       </c>
       <c r="J40" s="9" t="s">
@@ -2706,13 +2704,13 @@
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="B41" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="5">
@@ -2721,13 +2719,13 @@
       <c r="F41" s="5">
         <v>43940</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J41" s="9" t="s">
@@ -2747,13 +2745,13 @@
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="B42" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="5">
@@ -2762,7 +2760,7 @@
       <c r="F42" s="5">
         <v>43941</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H42" s="6" t="s">
@@ -2788,13 +2786,13 @@
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="B43" s="12">
+        <v>430005</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="13">
@@ -2803,7 +2801,7 @@
       <c r="F43" s="5">
         <v>43942</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H43" s="11" t="s">
@@ -2831,13 +2829,13 @@
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="B44" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="5">
@@ -2846,7 +2844,7 @@
       <c r="F44" s="5">
         <v>43943</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -2872,13 +2870,13 @@
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="B45" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="5">
@@ -2887,7 +2885,7 @@
       <c r="F45" s="5">
         <v>43944</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H45" s="6" t="s">
@@ -2913,13 +2911,13 @@
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="B46" s="2">
+        <v>430005</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="5">
@@ -2928,7 +2926,7 @@
       <c r="F46" s="5">
         <v>43945</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H46" s="6" t="s">

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -1044,7 +1044,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K37" sqref="K37:N37"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -147,13 +147,6 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>サギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1044,7 +1037,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1079,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1218,7 +1211,7 @@
         <v>28</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1300,7 +1293,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1339,7 +1332,7 @@
         <v>26</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1380,7 +1373,7 @@
         <v>26</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1421,10 +1414,10 @@
         <v>28</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6">
@@ -1464,7 +1457,7 @@
         <v>28</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1505,7 +1498,7 @@
         <v>28</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1546,7 +1539,7 @@
         <v>26</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1587,7 +1580,7 @@
         <v>28</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -1628,7 +1621,7 @@
         <v>26</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -1669,7 +1662,7 @@
         <v>26</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1710,7 +1703,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1751,7 +1744,7 @@
         <v>26</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -1792,7 +1785,7 @@
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1833,7 +1826,7 @@
         <v>26</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1872,7 +1865,7 @@
         <v>26</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="21"/>
@@ -1911,7 +1904,7 @@
         <v>26</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="9"/>
@@ -1952,7 +1945,7 @@
         <v>28</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1991,7 +1984,7 @@
         <v>26</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -2032,7 +2025,7 @@
         <v>28</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -2073,7 +2066,7 @@
         <v>28</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -2114,10 +2107,10 @@
         <v>28</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="6">
@@ -2157,7 +2150,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -2196,7 +2189,7 @@
         <v>28</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="9"/>
@@ -2228,7 +2221,7 @@
         <v>43934</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>25</v>
@@ -2237,7 +2230,7 @@
         <v>26</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -2269,16 +2262,16 @@
         <v>43935</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -2310,16 +2303,16 @@
         <v>43935</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -2352,13 +2345,13 @@
         <v>24</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -2390,19 +2383,19 @@
         <v>43936</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6">
@@ -2434,13 +2427,13 @@
         <v>24</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -2472,26 +2465,24 @@
         <v>43938</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="J35" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6">
         <v>0</v>
       </c>
       <c r="N35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="2"/>
     </row>
@@ -2515,16 +2506,16 @@
         <v>43938</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -2556,16 +2547,16 @@
         <v>43939</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -2597,16 +2588,16 @@
         <v>43939</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -2638,16 +2629,16 @@
         <v>43940</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -2679,16 +2670,16 @@
         <v>43940</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -2720,16 +2711,16 @@
         <v>43940</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
@@ -2761,16 +2752,16 @@
         <v>43941</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="J42" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -2802,19 +2793,19 @@
         <v>43942</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="K43" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L43" s="22"/>
       <c r="M43" s="11">
@@ -2845,16 +2836,16 @@
         <v>43943</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -2886,16 +2877,16 @@
         <v>43944</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="I45" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
@@ -2927,16 +2918,16 @@
         <v>43945</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="I46" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -2971,13 +2962,13 @@
         <v>16</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K47" s="6"/>
       <c r="M47" s="6">
@@ -3011,13 +3002,13 @@
         <v>16</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -3028,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="16" customFormat="1">
@@ -3054,13 +3045,13 @@
         <v>16</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -1037,7 +1037,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -1037,7 +1037,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -1034,10 +1034,10 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$48</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -453,16 +453,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>熊本市東区</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
@@ -580,6 +570,13 @@
     <t>死亡</t>
     <rPh sb="0" eb="2">
       <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1034,7 +1031,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
@@ -2110,7 +2107,7 @@
         <v>45</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="6">
@@ -2312,7 +2309,7 @@
         <v>28</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -2752,13 +2749,13 @@
         <v>43941</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>60</v>
@@ -2805,7 +2802,7 @@
         <v>60</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="L43" s="22"/>
       <c r="M43" s="11">
@@ -2842,10 +2839,10 @@
         <v>59</v>
       </c>
       <c r="I44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -2877,16 +2874,16 @@
         <v>43944</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>64</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
@@ -2918,10 +2915,10 @@
         <v>43945</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>62</v>
@@ -2962,13 +2959,13 @@
         <v>16</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K47" s="6"/>
       <c r="M47" s="6">
@@ -3002,13 +2999,13 @@
         <v>16</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -3019,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="16" customFormat="1">
@@ -3045,13 +3042,13 @@
         <v>16</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>62</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$48</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="96">
   <si>
     <t>No</t>
   </si>
@@ -570,13 +570,6 @@
     <t>死亡</t>
     <rPh sb="0" eb="2">
       <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -619,7 +612,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +623,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF009A2C"/>
         <bgColor rgb="FFDADADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -699,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -744,7 +743,9 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1031,10 +1032,10 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43:N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2801,15 +2802,13 @@
       <c r="J43" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="11">
-        <v>0</v>
-      </c>
-      <c r="N43" s="11">
-        <v>0</v>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24">
+        <v>0</v>
+      </c>
+      <c r="N43" s="24">
+        <v>1</v>
       </c>
       <c r="O43" s="12"/>
     </row>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -612,7 +612,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,12 +623,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF009A2C"/>
         <bgColor rgb="FFDADADA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -698,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -743,9 +737,7 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1032,10 +1024,10 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43:N43"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2802,12 +2794,12 @@
       <c r="J43" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="24">
-        <v>0</v>
-      </c>
-      <c r="N43" s="24">
+      <c r="K43" s="6"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
         <v>1</v>
       </c>
       <c r="O43" s="12"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -1027,7 +1027,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -1027,7 +1027,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -1027,7 +1027,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -570,6 +570,24 @@
     <t>死亡</t>
     <rPh sb="0" eb="2">
       <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天草保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>アマクサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1021,13 +1039,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3033,7 +3051,7 @@
         <v>16</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>62</v>
@@ -3051,10 +3069,51 @@
       </c>
       <c r="O49" s="18"/>
     </row>
+    <row r="50" spans="1:15" s="16" customFormat="1">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="19">
+        <v>44004</v>
+      </c>
+      <c r="F50" s="19">
+        <v>44004</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="18">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C陽性患者属性</oddHeader>
   </headerFooter>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -585,9 +585,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1042,10 +1042,10 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -1042,10 +1042,10 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -582,13 +582,6 @@
   </si>
   <si>
     <t>90代</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1042,10 +1035,10 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomRight" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3098,15 +3091,13 @@
       <c r="J50" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="18">
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="18"/>
     </row>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="104">
   <si>
     <t>No</t>
   </si>
@@ -582,6 +582,42 @@
   </si>
   <si>
     <t>90代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報道関係者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症者</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発熱</t>
+    <rPh sb="0" eb="2">
+      <t>ハツネツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <rPh sb="0" eb="4">
+      <t>カナガワケン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1032,13 +1068,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N50" sqref="N50"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3101,10 +3137,53 @@
       </c>
       <c r="O50" s="18"/>
     </row>
+    <row r="51" spans="1:15" s="16" customFormat="1">
+      <c r="A51" s="17">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19">
+        <v>44028</v>
+      </c>
+      <c r="F51" s="19">
+        <v>44028</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M51" s="18">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C陽性患者属性</oddHeader>
   </headerFooter>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -607,16 +607,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発熱</t>
-    <rPh sb="0" eb="2">
-      <t>ハツネツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>神奈川県</t>
     <rPh sb="0" eb="4">
       <t>カナガワケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>咳、痰</t>
+    <rPh sb="0" eb="1">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1074,7 +1077,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3155,7 +3158,7 @@
         <v>44028</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>98</v>
@@ -3170,7 +3173,7 @@
         <v>101</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M51" s="18">
         <v>0</v>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -620,6 +620,23 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本県</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1071,13 +1088,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3183,10 +3200,56 @@
       </c>
       <c r="O51" s="18"/>
     </row>
+    <row r="52" spans="1:15" s="16" customFormat="1">
+      <c r="A52" s="17">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="19">
+        <v>44032</v>
+      </c>
+      <c r="F52" s="19">
+        <v>44032</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="18">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="O52" s="18"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="E54" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C陽性患者属性</oddHeader>
   </headerFooter>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -597,16 +597,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>軽症者</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>神奈川県</t>
     <rPh sb="0" eb="4">
       <t>カナガワケン</t>
@@ -637,6 +627,13 @@
     <t>熊本県</t>
     <rPh sb="0" eb="3">
       <t>クマモトケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1094,7 +1091,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3175,7 +3172,7 @@
         <v>44028</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>98</v>
@@ -3187,10 +3184,10 @@
         <v>100</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M51" s="18">
         <v>0</v>
@@ -3208,7 +3205,7 @@
         <v>430005</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>15</v>
@@ -3220,7 +3217,7 @@
         <v>44032</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>54</v>
@@ -3232,7 +3229,7 @@
         <v>68</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="18">

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -557,16 +557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>18の再陽性</t>
-    <rPh sb="3" eb="4">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>死亡</t>
     <rPh sb="0" eb="2">
       <t>シボウ</t>
@@ -604,16 +594,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>咳、痰</t>
-    <rPh sb="0" eb="1">
-      <t>セキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>熊本市南区</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
@@ -634,6 +614,20 @@
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>咳</t>
+    <rPh sb="0" eb="1">
+      <t>セキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1088,10 +1082,10 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomRight" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2164,7 +2158,7 @@
         <v>45</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="6">
@@ -3070,9 +3064,7 @@
       <c r="N48" s="6">
         <v>1</v>
       </c>
-      <c r="O48" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" s="16" customFormat="1">
       <c r="A49" s="17">
@@ -3133,10 +3125,10 @@
         <v>44004</v>
       </c>
       <c r="G50" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>26</v>
@@ -3172,22 +3164,22 @@
         <v>44028</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H51" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="J51" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="K51" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L51" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="M51" s="18">
         <v>0</v>
@@ -3205,7 +3197,7 @@
         <v>430005</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>15</v>
@@ -3217,7 +3209,7 @@
         <v>44032</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>54</v>
@@ -3226,10 +3218,10 @@
         <v>62</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="18">
@@ -3239,6 +3231,49 @@
         <v>0</v>
       </c>
       <c r="O52" s="18"/>
+    </row>
+    <row r="53" spans="1:15" s="16" customFormat="1">
+      <c r="A53" s="17">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="19">
+        <v>44033</v>
+      </c>
+      <c r="F53" s="19">
+        <v>44033</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="18">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0</v>
+      </c>
+      <c r="O53" s="18"/>
     </row>
     <row r="54" spans="1:15">
       <c r="E54" s="16"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -10,7 +10,7 @@
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$162</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="170">
   <si>
     <t>No</t>
   </si>
@@ -621,6 +621,499 @@
     <t>女性</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有明保健所管内</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有明保健所管内</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマガ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホケンジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池保健所菅内</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホケンショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>ヤツシロ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホケンショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有明保健所管内</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="5">
+      <t>イリョウジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設職員</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公務員</t>
+    <rPh sb="0" eb="3">
+      <t>コウムイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介護職</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="5">
+      <t>シセツニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教職員</t>
+    <rPh sb="0" eb="3">
+      <t>キョウショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設職員</t>
+    <rPh sb="0" eb="4">
+      <t>シセツショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発熱</t>
+    <rPh sb="0" eb="2">
+      <t>ハツネツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全身倦怠感</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンタイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全身倦怠感、胃痛</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンタイカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発熱、全身倦怠感</t>
+    <rPh sb="0" eb="2">
+      <t>ハツネツ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>ゼンシンケンタイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医師</t>
+    <rPh sb="0" eb="2">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有明保健所管内</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全身倦怠感、消化器症状</t>
+    <rPh sb="0" eb="5">
+      <t>ゼンシンケンタイカン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショウカキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -639,7 +1132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,6 +1157,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -750,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -796,6 +1296,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1079,18 +1582,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomRight" activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.75" bestFit="1" customWidth="1"/>
@@ -3175,17 +3678,13 @@
       <c r="J51" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
       <c r="M51" s="18">
         <v>0</v>
       </c>
       <c r="N51" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="18"/>
     </row>
@@ -3228,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="18"/>
     </row>
@@ -3276,12 +3775,4426 @@
       <c r="O53" s="18"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="E54" s="16"/>
+      <c r="A54" s="17">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="19">
+        <v>44034</v>
+      </c>
+      <c r="F54" s="19">
+        <v>44034</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="18">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="17">
+        <v>54</v>
+      </c>
+      <c r="B55" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="19">
+        <v>44034</v>
+      </c>
+      <c r="F55" s="19">
+        <v>44034</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="18">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="17">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="19">
+        <v>44035</v>
+      </c>
+      <c r="F56" s="19">
+        <v>44035</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="18">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="17">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="19">
+        <v>44035</v>
+      </c>
+      <c r="F57" s="19">
+        <v>44035</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L57" s="6"/>
+      <c r="M57" s="18">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="17">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="19">
+        <v>44035</v>
+      </c>
+      <c r="F58" s="19">
+        <v>44035</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="18">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="17">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="19">
+        <v>44036</v>
+      </c>
+      <c r="F59" s="19">
+        <v>44036</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L59" s="6"/>
+      <c r="M59" s="18">
+        <v>0</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="17">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="19">
+        <v>44037</v>
+      </c>
+      <c r="F60" s="19">
+        <v>44037</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M60" s="18">
+        <v>0</v>
+      </c>
+      <c r="N60" s="6">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="17">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="19">
+        <v>44037</v>
+      </c>
+      <c r="F61" s="19">
+        <v>44037</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="18">
+        <v>0</v>
+      </c>
+      <c r="N61" s="6">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="17">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F62" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M62" s="18">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="17">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F63" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="18">
+        <v>0</v>
+      </c>
+      <c r="N63" s="6">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="17">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F64" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M64" s="18">
+        <v>0</v>
+      </c>
+      <c r="N64" s="6">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="17">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F65" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L65" s="6"/>
+      <c r="M65" s="18">
+        <v>0</v>
+      </c>
+      <c r="N65" s="6">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="17">
+        <v>65</v>
+      </c>
+      <c r="B66" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F66" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="18">
+        <v>0</v>
+      </c>
+      <c r="N66" s="6">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="17">
+        <v>66</v>
+      </c>
+      <c r="B67" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F67" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L67" s="6"/>
+      <c r="M67" s="18">
+        <v>0</v>
+      </c>
+      <c r="N67" s="6">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="17">
+        <v>67</v>
+      </c>
+      <c r="B68" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F68" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L68" s="6"/>
+      <c r="M68" s="18">
+        <v>0</v>
+      </c>
+      <c r="N68" s="6">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="17">
+        <v>68</v>
+      </c>
+      <c r="B69" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F69" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M69" s="18">
+        <v>0</v>
+      </c>
+      <c r="N69" s="6">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="17">
+        <v>69</v>
+      </c>
+      <c r="B70" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F70" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="18">
+        <v>0</v>
+      </c>
+      <c r="N70" s="6">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="17">
+        <v>70</v>
+      </c>
+      <c r="B71" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F71" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L71" s="6"/>
+      <c r="M71" s="18">
+        <v>0</v>
+      </c>
+      <c r="N71" s="6">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="17">
+        <v>71</v>
+      </c>
+      <c r="B72" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F72" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M72" s="18">
+        <v>0</v>
+      </c>
+      <c r="N72" s="6">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="17">
+        <v>72</v>
+      </c>
+      <c r="B73" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F73" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L73" s="6"/>
+      <c r="M73" s="18">
+        <v>0</v>
+      </c>
+      <c r="N73" s="6">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="17">
+        <v>73</v>
+      </c>
+      <c r="B74" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F74" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M74" s="18">
+        <v>0</v>
+      </c>
+      <c r="N74" s="6">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="17">
+        <v>74</v>
+      </c>
+      <c r="B75" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F75" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L75" s="6"/>
+      <c r="M75" s="18">
+        <v>0</v>
+      </c>
+      <c r="N75" s="6">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="17">
+        <v>75</v>
+      </c>
+      <c r="B76" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F76" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L76" s="6"/>
+      <c r="M76" s="18">
+        <v>0</v>
+      </c>
+      <c r="N76" s="6">
+        <v>0</v>
+      </c>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="17">
+        <v>76</v>
+      </c>
+      <c r="B77" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F77" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L77" s="6"/>
+      <c r="M77" s="18">
+        <v>0</v>
+      </c>
+      <c r="N77" s="6">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="17">
+        <v>77</v>
+      </c>
+      <c r="B78" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F78" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L78" s="6"/>
+      <c r="M78" s="18">
+        <v>0</v>
+      </c>
+      <c r="N78" s="6">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="17">
+        <v>78</v>
+      </c>
+      <c r="B79" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F79" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L79" s="6"/>
+      <c r="M79" s="18">
+        <v>0</v>
+      </c>
+      <c r="N79" s="6">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="17">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F80" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L80" s="6"/>
+      <c r="M80" s="18">
+        <v>0</v>
+      </c>
+      <c r="N80" s="6">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="17">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F81" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L81" s="6"/>
+      <c r="M81" s="18">
+        <v>0</v>
+      </c>
+      <c r="N81" s="6">
+        <v>0</v>
+      </c>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="17">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="19">
+        <v>44038</v>
+      </c>
+      <c r="F82" s="19">
+        <v>44038</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="18">
+        <v>0</v>
+      </c>
+      <c r="N82" s="6">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="17">
+        <v>82</v>
+      </c>
+      <c r="B83" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F83" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="18">
+        <v>0</v>
+      </c>
+      <c r="N83" s="6">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="17">
+        <v>83</v>
+      </c>
+      <c r="B84" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F84" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L84" s="6"/>
+      <c r="M84" s="18">
+        <v>0</v>
+      </c>
+      <c r="N84" s="6">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="17">
+        <v>84</v>
+      </c>
+      <c r="B85" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F85" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L85" s="6"/>
+      <c r="M85" s="18">
+        <v>0</v>
+      </c>
+      <c r="N85" s="6">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="17">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F86" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M86" s="18">
+        <v>0</v>
+      </c>
+      <c r="N86" s="6">
+        <v>0</v>
+      </c>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="17">
+        <v>86</v>
+      </c>
+      <c r="B87" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F87" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I87" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L87" s="6"/>
+      <c r="M87" s="18">
+        <v>0</v>
+      </c>
+      <c r="N87" s="6">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="17">
+        <v>87</v>
+      </c>
+      <c r="B88" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F88" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L88" s="6"/>
+      <c r="M88" s="18">
+        <v>0</v>
+      </c>
+      <c r="N88" s="6">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="17">
+        <v>88</v>
+      </c>
+      <c r="B89" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F89" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="18">
+        <v>0</v>
+      </c>
+      <c r="N89" s="6">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="17">
+        <v>89</v>
+      </c>
+      <c r="B90" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F90" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="18">
+        <v>0</v>
+      </c>
+      <c r="N90" s="6">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="17">
+        <v>90</v>
+      </c>
+      <c r="B91" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F91" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L91" s="6"/>
+      <c r="M91" s="18">
+        <v>0</v>
+      </c>
+      <c r="N91" s="6">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="17">
+        <v>91</v>
+      </c>
+      <c r="B92" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F92" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="18">
+        <v>0</v>
+      </c>
+      <c r="N92" s="6">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="17">
+        <v>92</v>
+      </c>
+      <c r="B93" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F93" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I93" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="18">
+        <v>0</v>
+      </c>
+      <c r="N93" s="6">
+        <v>0</v>
+      </c>
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="17">
+        <v>93</v>
+      </c>
+      <c r="B94" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F94" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="18">
+        <v>0</v>
+      </c>
+      <c r="N94" s="6">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="17">
+        <v>94</v>
+      </c>
+      <c r="B95" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F95" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="18">
+        <v>0</v>
+      </c>
+      <c r="N95" s="6">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="17">
+        <v>95</v>
+      </c>
+      <c r="B96" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F96" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L96" s="6"/>
+      <c r="M96" s="18">
+        <v>0</v>
+      </c>
+      <c r="N96" s="6">
+        <v>0</v>
+      </c>
+      <c r="O96" s="2"/>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="17">
+        <v>96</v>
+      </c>
+      <c r="B97" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F97" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L97" s="6"/>
+      <c r="M97" s="18">
+        <v>0</v>
+      </c>
+      <c r="N97" s="6">
+        <v>0</v>
+      </c>
+      <c r="O97" s="2"/>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="17">
+        <v>97</v>
+      </c>
+      <c r="B98" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F98" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I98" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L98" s="6"/>
+      <c r="M98" s="18">
+        <v>0</v>
+      </c>
+      <c r="N98" s="6">
+        <v>0</v>
+      </c>
+      <c r="O98" s="2"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="17">
+        <v>98</v>
+      </c>
+      <c r="B99" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F99" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H99" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I99" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L99" s="6"/>
+      <c r="M99" s="18">
+        <v>0</v>
+      </c>
+      <c r="N99" s="6">
+        <v>0</v>
+      </c>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="17">
+        <v>99</v>
+      </c>
+      <c r="B100" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F100" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I100" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L100" s="6"/>
+      <c r="M100" s="18">
+        <v>0</v>
+      </c>
+      <c r="N100" s="6">
+        <v>0</v>
+      </c>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="17">
+        <v>100</v>
+      </c>
+      <c r="B101" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F101" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L101" s="6"/>
+      <c r="M101" s="18">
+        <v>0</v>
+      </c>
+      <c r="N101" s="6">
+        <v>0</v>
+      </c>
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="17">
+        <v>101</v>
+      </c>
+      <c r="B102" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F102" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="18">
+        <v>0</v>
+      </c>
+      <c r="N102" s="6">
+        <v>0</v>
+      </c>
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="17">
+        <v>102</v>
+      </c>
+      <c r="B103" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F103" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I103" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="18">
+        <v>0</v>
+      </c>
+      <c r="N103" s="6">
+        <v>0</v>
+      </c>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="17">
+        <v>103</v>
+      </c>
+      <c r="B104" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F104" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="18">
+        <v>0</v>
+      </c>
+      <c r="N104" s="6">
+        <v>0</v>
+      </c>
+      <c r="O104" s="2"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="17">
+        <v>104</v>
+      </c>
+      <c r="B105" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F105" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="18">
+        <v>0</v>
+      </c>
+      <c r="N105" s="6">
+        <v>0</v>
+      </c>
+      <c r="O105" s="2"/>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="17">
+        <v>105</v>
+      </c>
+      <c r="B106" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F106" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="18">
+        <v>0</v>
+      </c>
+      <c r="N106" s="6">
+        <v>0</v>
+      </c>
+      <c r="O106" s="2"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="17">
+        <v>106</v>
+      </c>
+      <c r="B107" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F107" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L107" s="6"/>
+      <c r="M107" s="18">
+        <v>0</v>
+      </c>
+      <c r="N107" s="6">
+        <v>0</v>
+      </c>
+      <c r="O107" s="2"/>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="17">
+        <v>107</v>
+      </c>
+      <c r="B108" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F108" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="18">
+        <v>0</v>
+      </c>
+      <c r="N108" s="6">
+        <v>0</v>
+      </c>
+      <c r="O108" s="2"/>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="17">
+        <v>108</v>
+      </c>
+      <c r="B109" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F109" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="18">
+        <v>0</v>
+      </c>
+      <c r="N109" s="6">
+        <v>0</v>
+      </c>
+      <c r="O109" s="2"/>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="17">
+        <v>109</v>
+      </c>
+      <c r="B110" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F110" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I110" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="18">
+        <v>0</v>
+      </c>
+      <c r="N110" s="6">
+        <v>0</v>
+      </c>
+      <c r="O110" s="2"/>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="17">
+        <v>110</v>
+      </c>
+      <c r="B111" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F111" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I111" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="18">
+        <v>0</v>
+      </c>
+      <c r="N111" s="6">
+        <v>0</v>
+      </c>
+      <c r="O111" s="2"/>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="17">
+        <v>111</v>
+      </c>
+      <c r="B112" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F112" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I112" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="18">
+        <v>0</v>
+      </c>
+      <c r="N112" s="6">
+        <v>0</v>
+      </c>
+      <c r="O112" s="2"/>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="17">
+        <v>112</v>
+      </c>
+      <c r="B113" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F113" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I113" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="18">
+        <v>0</v>
+      </c>
+      <c r="N113" s="6">
+        <v>0</v>
+      </c>
+      <c r="O113" s="2"/>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="17">
+        <v>113</v>
+      </c>
+      <c r="B114" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F114" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="18">
+        <v>0</v>
+      </c>
+      <c r="N114" s="6">
+        <v>0</v>
+      </c>
+      <c r="O114" s="2"/>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="17">
+        <v>114</v>
+      </c>
+      <c r="B115" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="19">
+        <v>44039</v>
+      </c>
+      <c r="F115" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I115" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="18">
+        <v>0</v>
+      </c>
+      <c r="N115" s="6">
+        <v>0</v>
+      </c>
+      <c r="O115" s="2"/>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="17">
+        <v>115</v>
+      </c>
+      <c r="B116" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F116" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I116" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L116" s="6"/>
+      <c r="M116" s="18">
+        <v>0</v>
+      </c>
+      <c r="N116" s="6">
+        <v>0</v>
+      </c>
+      <c r="O116" s="2"/>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="17">
+        <v>116</v>
+      </c>
+      <c r="B117" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F117" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I117" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M117" s="18">
+        <v>0</v>
+      </c>
+      <c r="N117" s="6">
+        <v>0</v>
+      </c>
+      <c r="O117" s="2"/>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="17">
+        <v>117</v>
+      </c>
+      <c r="B118" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F118" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I118" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="18">
+        <v>0</v>
+      </c>
+      <c r="N118" s="6">
+        <v>0</v>
+      </c>
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="17">
+        <v>118</v>
+      </c>
+      <c r="B119" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F119" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I119" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="18">
+        <v>0</v>
+      </c>
+      <c r="N119" s="6">
+        <v>0</v>
+      </c>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="17">
+        <v>119</v>
+      </c>
+      <c r="B120" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F120" s="19">
+        <v>44039</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="18">
+        <v>0</v>
+      </c>
+      <c r="N120" s="6">
+        <v>0</v>
+      </c>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="17">
+        <v>120</v>
+      </c>
+      <c r="B121" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F121" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I121" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="18">
+        <v>0</v>
+      </c>
+      <c r="N121" s="6">
+        <v>0</v>
+      </c>
+      <c r="O121" s="2"/>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="17">
+        <v>121</v>
+      </c>
+      <c r="B122" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F122" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I122" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="18">
+        <v>0</v>
+      </c>
+      <c r="N122" s="6">
+        <v>0</v>
+      </c>
+      <c r="O122" s="2"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="17">
+        <v>122</v>
+      </c>
+      <c r="B123" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F123" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I123" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="18">
+        <v>0</v>
+      </c>
+      <c r="N123" s="6">
+        <v>0</v>
+      </c>
+      <c r="O123" s="2"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="17">
+        <v>123</v>
+      </c>
+      <c r="B124" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F124" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I124" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="18">
+        <v>0</v>
+      </c>
+      <c r="N124" s="6">
+        <v>0</v>
+      </c>
+      <c r="O124" s="2"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="17">
+        <v>124</v>
+      </c>
+      <c r="B125" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F125" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I125" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="18">
+        <v>0</v>
+      </c>
+      <c r="N125" s="6">
+        <v>0</v>
+      </c>
+      <c r="O125" s="2"/>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="17">
+        <v>125</v>
+      </c>
+      <c r="B126" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F126" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H126" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I126" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L126" s="6"/>
+      <c r="M126" s="18">
+        <v>0</v>
+      </c>
+      <c r="N126" s="6">
+        <v>0</v>
+      </c>
+      <c r="O126" s="2"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="17">
+        <v>126</v>
+      </c>
+      <c r="B127" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F127" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I127" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="18">
+        <v>0</v>
+      </c>
+      <c r="N127" s="6">
+        <v>0</v>
+      </c>
+      <c r="O127" s="2"/>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="17">
+        <v>127</v>
+      </c>
+      <c r="B128" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F128" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I128" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="18">
+        <v>0</v>
+      </c>
+      <c r="N128" s="6">
+        <v>0</v>
+      </c>
+      <c r="O128" s="2"/>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="17">
+        <v>128</v>
+      </c>
+      <c r="B129" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F129" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I129" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="18">
+        <v>0</v>
+      </c>
+      <c r="N129" s="6">
+        <v>0</v>
+      </c>
+      <c r="O129" s="2"/>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="17">
+        <v>129</v>
+      </c>
+      <c r="B130" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F130" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H130" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I130" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="18">
+        <v>0</v>
+      </c>
+      <c r="N130" s="6">
+        <v>0</v>
+      </c>
+      <c r="O130" s="2"/>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="17">
+        <v>130</v>
+      </c>
+      <c r="B131" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F131" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H131" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I131" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="18">
+        <v>0</v>
+      </c>
+      <c r="N131" s="6">
+        <v>0</v>
+      </c>
+      <c r="O131" s="2"/>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="17">
+        <v>131</v>
+      </c>
+      <c r="B132" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F132" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I132" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L132" s="6"/>
+      <c r="M132" s="18">
+        <v>0</v>
+      </c>
+      <c r="N132" s="6">
+        <v>0</v>
+      </c>
+      <c r="O132" s="2"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="17">
+        <v>132</v>
+      </c>
+      <c r="B133" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F133" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I133" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="18">
+        <v>0</v>
+      </c>
+      <c r="N133" s="6">
+        <v>0</v>
+      </c>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="17">
+        <v>133</v>
+      </c>
+      <c r="B134" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F134" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H134" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I134" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M134" s="18">
+        <v>0</v>
+      </c>
+      <c r="N134" s="6">
+        <v>0</v>
+      </c>
+      <c r="O134" s="2"/>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="17">
+        <v>134</v>
+      </c>
+      <c r="B135" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F135" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H135" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I135" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L135" s="6"/>
+      <c r="M135" s="18">
+        <v>0</v>
+      </c>
+      <c r="N135" s="6">
+        <v>0</v>
+      </c>
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="17">
+        <v>135</v>
+      </c>
+      <c r="B136" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F136" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I136" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M136" s="18">
+        <v>0</v>
+      </c>
+      <c r="N136" s="6">
+        <v>0</v>
+      </c>
+      <c r="O136" s="2"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="17">
+        <v>136</v>
+      </c>
+      <c r="B137" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="19">
+        <v>44040</v>
+      </c>
+      <c r="F137" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I137" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="M137" s="18">
+        <v>0</v>
+      </c>
+      <c r="N137" s="6">
+        <v>0</v>
+      </c>
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="17">
+        <v>137</v>
+      </c>
+      <c r="B138" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F138" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I138" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="18">
+        <v>0</v>
+      </c>
+      <c r="N138" s="6">
+        <v>0</v>
+      </c>
+      <c r="O138" s="2"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="17">
+        <v>138</v>
+      </c>
+      <c r="B139" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F139" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I139" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="18">
+        <v>0</v>
+      </c>
+      <c r="N139" s="6">
+        <v>0</v>
+      </c>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="17">
+        <v>139</v>
+      </c>
+      <c r="B140" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F140" s="19">
+        <v>44040</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H140" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I140" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="18">
+        <v>0</v>
+      </c>
+      <c r="N140" s="6">
+        <v>0</v>
+      </c>
+      <c r="O140" s="2"/>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="17">
+        <v>140</v>
+      </c>
+      <c r="B141" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F141" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K141" s="6"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2">
+        <v>0</v>
+      </c>
+      <c r="N141" s="2">
+        <v>0</v>
+      </c>
+      <c r="O141" s="2"/>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="17">
+        <v>141</v>
+      </c>
+      <c r="B142" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F142" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K142" s="6"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2">
+        <v>0</v>
+      </c>
+      <c r="N142" s="2">
+        <v>0</v>
+      </c>
+      <c r="O142" s="2"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="17">
+        <v>142</v>
+      </c>
+      <c r="B143" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F143" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K143" s="6"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2">
+        <v>0</v>
+      </c>
+      <c r="N143" s="2">
+        <v>0</v>
+      </c>
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="17">
+        <v>143</v>
+      </c>
+      <c r="B144" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F144" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K144" s="6"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2">
+        <v>0</v>
+      </c>
+      <c r="N144" s="2">
+        <v>0</v>
+      </c>
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="17">
+        <v>144</v>
+      </c>
+      <c r="B145" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F145" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K145" s="6"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2">
+        <v>0</v>
+      </c>
+      <c r="N145" s="2">
+        <v>0</v>
+      </c>
+      <c r="O145" s="2"/>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="17">
+        <v>145</v>
+      </c>
+      <c r="B146" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F146" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K146" s="6"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2">
+        <v>0</v>
+      </c>
+      <c r="N146" s="2">
+        <v>0</v>
+      </c>
+      <c r="O146" s="2"/>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="17">
+        <v>146</v>
+      </c>
+      <c r="B147" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F147" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K147" s="6"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2">
+        <v>0</v>
+      </c>
+      <c r="N147" s="2">
+        <v>0</v>
+      </c>
+      <c r="O147" s="2"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="17">
+        <v>147</v>
+      </c>
+      <c r="B148" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F148" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J148" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K148" s="6"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2">
+        <v>0</v>
+      </c>
+      <c r="N148" s="2">
+        <v>0</v>
+      </c>
+      <c r="O148" s="2"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="17">
+        <v>148</v>
+      </c>
+      <c r="B149" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F149" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K149" s="6"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2">
+        <v>0</v>
+      </c>
+      <c r="N149" s="2">
+        <v>0</v>
+      </c>
+      <c r="O149" s="2"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="17">
+        <v>149</v>
+      </c>
+      <c r="B150" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F150" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J150" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K150" s="6"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2">
+        <v>0</v>
+      </c>
+      <c r="N150" s="2">
+        <v>0</v>
+      </c>
+      <c r="O150" s="2"/>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="17">
+        <v>150</v>
+      </c>
+      <c r="B151" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F151" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K151" s="6"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2">
+        <v>0</v>
+      </c>
+      <c r="N151" s="2">
+        <v>0</v>
+      </c>
+      <c r="O151" s="2"/>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="17">
+        <v>151</v>
+      </c>
+      <c r="B152" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F152" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K152" s="6"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2">
+        <v>0</v>
+      </c>
+      <c r="N152" s="2">
+        <v>0</v>
+      </c>
+      <c r="O152" s="2"/>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="17">
+        <v>152</v>
+      </c>
+      <c r="B153" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F153" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J153" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K153" s="6"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2">
+        <v>0</v>
+      </c>
+      <c r="N153" s="2">
+        <v>0</v>
+      </c>
+      <c r="O153" s="2"/>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="17">
+        <v>153</v>
+      </c>
+      <c r="B154" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F154" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J154" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K154" s="6"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2">
+        <v>0</v>
+      </c>
+      <c r="N154" s="2">
+        <v>0</v>
+      </c>
+      <c r="O154" s="2"/>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="17">
+        <v>154</v>
+      </c>
+      <c r="B155" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F155" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K155" s="6"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2">
+        <v>0</v>
+      </c>
+      <c r="N155" s="2">
+        <v>0</v>
+      </c>
+      <c r="O155" s="2"/>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="17">
+        <v>155</v>
+      </c>
+      <c r="B156" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F156" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K156" s="6"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2">
+        <v>0</v>
+      </c>
+      <c r="N156" s="2">
+        <v>0</v>
+      </c>
+      <c r="O156" s="2"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="17">
+        <v>156</v>
+      </c>
+      <c r="B157" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="19">
+        <v>44041</v>
+      </c>
+      <c r="F157" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K157" s="6"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2">
+        <v>0</v>
+      </c>
+      <c r="N157" s="2">
+        <v>0</v>
+      </c>
+      <c r="O157" s="2"/>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="17">
+        <v>157</v>
+      </c>
+      <c r="B158" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="19">
+        <v>44042</v>
+      </c>
+      <c r="F158" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K158" s="6"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2">
+        <v>0</v>
+      </c>
+      <c r="N158" s="2">
+        <v>0</v>
+      </c>
+      <c r="O158" s="2"/>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="17">
+        <v>158</v>
+      </c>
+      <c r="B159" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" s="19">
+        <v>44042</v>
+      </c>
+      <c r="F159" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K159" s="6"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2">
+        <v>0</v>
+      </c>
+      <c r="N159" s="2">
+        <v>0</v>
+      </c>
+      <c r="O159" s="2"/>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="17">
+        <v>159</v>
+      </c>
+      <c r="B160" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="19">
+        <v>44042</v>
+      </c>
+      <c r="F160" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K160" s="6"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2">
+        <v>0</v>
+      </c>
+      <c r="N160" s="2">
+        <v>0</v>
+      </c>
+      <c r="O160" s="2"/>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="17">
+        <v>160</v>
+      </c>
+      <c r="B161" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="19">
+        <v>44042</v>
+      </c>
+      <c r="F161" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K161" s="6"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2">
+        <v>0</v>
+      </c>
+      <c r="N161" s="2">
+        <v>0</v>
+      </c>
+      <c r="O161" s="2"/>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="19">
+        <v>44042</v>
+      </c>
+      <c r="F162" s="19">
+        <v>44041</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J162" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K162" s="6"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2">
+        <v>0</v>
+      </c>
+      <c r="N162" s="2">
+        <v>0</v>
+      </c>
+      <c r="O162" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C陽性患者属性</oddHeader>
   </headerFooter>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="8205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="308">
   <si>
     <t>No</t>
   </si>
@@ -2174,6 +2174,10 @@
     <rPh sb="0" eb="3">
       <t>チョウサチュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2222,7 +2226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2232,6 +2236,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2302,7 +2318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2346,12 +2362,19 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2629,13 +2652,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O352"/>
+  <dimension ref="A1:O355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C341" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="F356" sqref="F356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5130,12 +5153,14 @@
       <c r="J61" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K61" s="2"/>
+      <c r="K61" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L61" s="2"/>
       <c r="M61" s="9">
         <v>0</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61" s="22">
         <v>1</v>
       </c>
       <c r="O61" s="2"/>
@@ -5409,12 +5434,14 @@
       <c r="J68" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K68" s="2"/>
+      <c r="K68" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L68" s="2"/>
       <c r="M68" s="9">
         <v>0</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68" s="22">
         <v>1</v>
       </c>
       <c r="O68" s="2"/>
@@ -6447,8 +6474,8 @@
       <c r="J94" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K94" s="2" t="s">
-        <v>144</v>
+      <c r="K94" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="9">
@@ -6529,15 +6556,13 @@
       <c r="J96" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K96" s="21"/>
       <c r="L96" s="2"/>
       <c r="M96" s="9">
         <v>0</v>
       </c>
-      <c r="N96" s="2">
-        <v>0</v>
+      <c r="N96" s="21">
+        <v>1</v>
       </c>
       <c r="O96" s="2"/>
     </row>
@@ -6820,8 +6845,8 @@
       <c r="J103" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>182</v>
+      <c r="K103" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="9">
@@ -7144,8 +7169,8 @@
       <c r="J111" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>182</v>
+      <c r="K111" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="9">
@@ -7423,8 +7448,8 @@
       <c r="J118" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K118" s="2" t="s">
-        <v>144</v>
+      <c r="K118" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="9">
@@ -8479,12 +8504,14 @@
       <c r="J144" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K144" s="2"/>
+      <c r="K144" s="21" t="s">
+        <v>182</v>
+      </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2">
         <v>0</v>
       </c>
-      <c r="N144" s="2">
+      <c r="N144" s="22">
         <v>1</v>
       </c>
       <c r="O144" s="2"/>
@@ -8764,12 +8791,14 @@
       <c r="J151" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K151" s="2"/>
+      <c r="K151" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2">
         <v>0</v>
       </c>
-      <c r="N151" s="2">
+      <c r="N151" s="22">
         <v>1</v>
       </c>
       <c r="O151" s="2"/>
@@ -9088,8 +9117,8 @@
       <c r="J159" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K159" s="2" t="s">
-        <v>274</v>
+      <c r="K159" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2">
@@ -10630,8 +10659,8 @@
       <c r="J197" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K197" s="2" t="s">
-        <v>103</v>
+      <c r="K197" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="L197" s="2"/>
       <c r="M197" s="2">
@@ -12074,8 +12103,8 @@
       <c r="J233" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K233" s="2" t="s">
-        <v>103</v>
+      <c r="K233" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="L233" s="2"/>
       <c r="M233" s="2">
@@ -12437,7 +12466,9 @@
       <c r="J242" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K242" s="2"/>
+      <c r="K242" s="21" t="s">
+        <v>182</v>
+      </c>
       <c r="L242" s="2"/>
       <c r="M242" s="2">
         <v>0</v>
@@ -12604,8 +12635,8 @@
       <c r="M246" s="2">
         <v>0</v>
       </c>
-      <c r="N246" s="2">
-        <v>0</v>
+      <c r="N246" s="21">
+        <v>1</v>
       </c>
       <c r="O246" s="2"/>
     </row>
@@ -12802,7 +12833,9 @@
       <c r="J251" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K251" s="2"/>
+      <c r="K251" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L251" s="2"/>
       <c r="M251" s="2">
         <v>0</v>
@@ -12841,7 +12874,9 @@
       <c r="J252" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="K252" s="2"/>
+      <c r="K252" s="21" t="s">
+        <v>182</v>
+      </c>
       <c r="L252" s="2"/>
       <c r="M252" s="2">
         <v>0</v>
@@ -12880,7 +12915,9 @@
       <c r="J253" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K253" s="2"/>
+      <c r="K253" s="21" t="s">
+        <v>182</v>
+      </c>
       <c r="L253" s="2"/>
       <c r="M253" s="2">
         <v>0</v>
@@ -12919,12 +12956,14 @@
       <c r="J254" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K254" s="2"/>
+      <c r="K254" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L254" s="2"/>
       <c r="M254" s="2">
         <v>0</v>
       </c>
-      <c r="N254" s="2">
+      <c r="N254" s="22">
         <v>1</v>
       </c>
       <c r="O254" s="2"/>
@@ -12958,8 +12997,8 @@
       <c r="J255" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K255" s="2" t="s">
-        <v>182</v>
+      <c r="K255" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="L255" s="2"/>
       <c r="M255" s="2">
@@ -14049,7 +14088,9 @@
       <c r="J282" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="K282" s="2"/>
+      <c r="K282" s="21" t="s">
+        <v>182</v>
+      </c>
       <c r="L282" s="2"/>
       <c r="M282" s="2">
         <v>0</v>
@@ -14088,7 +14129,9 @@
       <c r="J283" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K283" s="2"/>
+      <c r="K283" s="21" t="s">
+        <v>182</v>
+      </c>
       <c r="L283" s="2"/>
       <c r="M283" s="2">
         <v>0</v>
@@ -14248,7 +14291,9 @@
       <c r="J287" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K287" s="2"/>
+      <c r="K287" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L287" s="2"/>
       <c r="M287" s="2">
         <v>0</v>
@@ -14287,7 +14332,9 @@
       <c r="J288" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="K288" s="2"/>
+      <c r="K288" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L288" s="2"/>
       <c r="M288" s="2">
         <v>0</v>
@@ -14367,8 +14414,8 @@
       <c r="J290" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K290" s="2" t="s">
-        <v>103</v>
+      <c r="K290" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="L290" s="2"/>
       <c r="M290" s="2">
@@ -14449,7 +14496,9 @@
       <c r="J292" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K292" s="2"/>
+      <c r="K292" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L292" s="2"/>
       <c r="M292" s="2">
         <v>0</v>
@@ -14488,7 +14537,9 @@
       <c r="J293" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K293" s="2"/>
+      <c r="K293" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L293" s="2"/>
       <c r="M293" s="2">
         <v>0</v>
@@ -15909,7 +15960,9 @@
       <c r="J328" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K328" s="2"/>
+      <c r="K328" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="L328" s="2"/>
       <c r="M328" s="2">
         <v>0</v>
@@ -16204,7 +16257,9 @@
       <c r="J335" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="K335" s="2"/>
+      <c r="K335" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L335" s="2"/>
       <c r="M335" s="2">
         <v>0</v>
@@ -16282,8 +16337,8 @@
       <c r="J337" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="K337" s="2" t="s">
-        <v>103</v>
+      <c r="K337" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="L337" s="2"/>
       <c r="M337" s="2">
@@ -16323,7 +16378,9 @@
       <c r="J338" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K338" s="2"/>
+      <c r="K338" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L338" s="2"/>
       <c r="M338" s="2">
         <v>0</v>
@@ -16444,7 +16501,9 @@
       <c r="J341" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K341" s="2"/>
+      <c r="K341" s="21" t="s">
+        <v>182</v>
+      </c>
       <c r="L341" s="2"/>
       <c r="M341" s="2">
         <v>0</v>
@@ -16561,7 +16620,9 @@
       <c r="J344" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="K344" s="2"/>
+      <c r="K344" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L344" s="2"/>
       <c r="M344" s="2">
         <v>0</v>
@@ -16678,7 +16739,9 @@
       <c r="J347" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="K347" s="2"/>
+      <c r="K347" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="L347" s="2"/>
       <c r="M347" s="2">
         <v>0</v>
@@ -16886,6 +16949,125 @@
         <v>0</v>
       </c>
       <c r="O352" s="2"/>
+    </row>
+    <row r="353" spans="1:15">
+      <c r="A353" s="2">
+        <v>352</v>
+      </c>
+      <c r="B353" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D353" s="2"/>
+      <c r="E353" s="10">
+        <v>44052</v>
+      </c>
+      <c r="F353" s="10">
+        <v>44051</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J353" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K353" s="2"/>
+      <c r="L353" s="2"/>
+      <c r="M353" s="2">
+        <v>0</v>
+      </c>
+      <c r="N353" s="2">
+        <v>0</v>
+      </c>
+      <c r="O353" s="2"/>
+    </row>
+    <row r="354" spans="1:15">
+      <c r="A354" s="2">
+        <v>353</v>
+      </c>
+      <c r="B354" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D354" s="2"/>
+      <c r="E354" s="10">
+        <v>44052</v>
+      </c>
+      <c r="F354" s="10">
+        <v>44051</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I354" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K354" s="2"/>
+      <c r="L354" s="2"/>
+      <c r="M354" s="2">
+        <v>0</v>
+      </c>
+      <c r="N354" s="2">
+        <v>0</v>
+      </c>
+      <c r="O354" s="2"/>
+    </row>
+    <row r="355" spans="1:15">
+      <c r="A355" s="2">
+        <v>354</v>
+      </c>
+      <c r="B355" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E355" s="10">
+        <v>44052</v>
+      </c>
+      <c r="F355" s="10">
+        <v>44052</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J355" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K355" s="2"/>
+      <c r="L355" s="2"/>
+      <c r="M355" s="2">
+        <v>0</v>
+      </c>
+      <c r="N355" s="2">
+        <v>0</v>
+      </c>
+      <c r="O355" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O352"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$352</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$358</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="317">
   <si>
     <t>No</t>
   </si>
@@ -1910,13 +1910,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中等症</t>
     <rPh sb="0" eb="2">
       <t>チュウトウ</t>
@@ -2170,14 +2163,96 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>調査中</t>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
     <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2226,7 +2301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2239,20 +2314,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2314,11 +2377,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2362,8 +2438,9 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2652,25 +2729,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O355"/>
+  <dimension ref="A1:O358"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C341" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B322" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F356" sqref="F356"/>
+      <selection pane="bottomRight" activeCell="D351" sqref="D351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="7" customWidth="1"/>
+    <col min="3" max="4" width="11.625" style="7" customWidth="1"/>
+    <col min="5" max="7" width="12.75" style="7" customWidth="1"/>
+    <col min="8" max="9" width="10.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="16" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="21.375" style="7" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="7" customWidth="1"/>
     <col min="14" max="14" width="19.375" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" style="7" bestFit="1" customWidth="1"/>
@@ -2724,7 +2801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" customFormat="1">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2765,7 +2842,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" customFormat="1">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2806,7 +2883,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" customFormat="1">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2845,7 +2922,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" customFormat="1">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2886,7 +2963,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" customFormat="1">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2927,7 +3004,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" customFormat="1">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2966,7 +3043,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" customFormat="1">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3007,7 +3084,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" customFormat="1">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3050,7 +3127,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" customFormat="1">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3091,7 +3168,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" customFormat="1">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3132,7 +3209,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" customFormat="1">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3173,7 +3250,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" customFormat="1">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3214,7 +3291,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" customFormat="1">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3255,7 +3332,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" customFormat="1">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3296,7 +3373,7 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" customFormat="1">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3337,7 +3414,7 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" customFormat="1">
+    <row r="17" spans="1:15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3378,7 +3455,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" customFormat="1">
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3419,7 +3496,7 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" customFormat="1">
+    <row r="19" spans="1:15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3460,7 +3537,7 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" customFormat="1">
+    <row r="20" spans="1:15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3499,7 +3576,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" customFormat="1">
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3538,7 +3615,7 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" customFormat="1">
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3579,7 +3656,7 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" customFormat="1">
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3618,7 +3695,7 @@
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" customFormat="1">
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3659,7 +3736,7 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" customFormat="1">
+    <row r="25" spans="1:15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3700,7 +3777,7 @@
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" customFormat="1">
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3743,7 +3820,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" customFormat="1">
+    <row r="27" spans="1:15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3784,7 +3861,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" customFormat="1">
+    <row r="28" spans="1:15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3823,7 +3900,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" customFormat="1">
+    <row r="29" spans="1:15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3864,7 +3941,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" customFormat="1">
+    <row r="30" spans="1:15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3905,7 +3982,7 @@
       </c>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" customFormat="1">
+    <row r="31" spans="1:15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3946,7 +4023,7 @@
       </c>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" customFormat="1">
+    <row r="32" spans="1:15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3985,7 +4062,7 @@
       </c>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" customFormat="1">
+    <row r="33" spans="1:15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4028,7 +4105,7 @@
       </c>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" customFormat="1">
+    <row r="34" spans="1:15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4067,7 +4144,7 @@
       </c>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" customFormat="1">
+    <row r="35" spans="1:15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4108,7 +4185,7 @@
       </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" customFormat="1">
+    <row r="36" spans="1:15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4149,7 +4226,7 @@
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" customFormat="1">
+    <row r="37" spans="1:15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4190,7 +4267,7 @@
       </c>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" customFormat="1">
+    <row r="38" spans="1:15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4231,7 +4308,7 @@
       </c>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" customFormat="1">
+    <row r="39" spans="1:15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4272,7 +4349,7 @@
       </c>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" customFormat="1">
+    <row r="40" spans="1:15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4313,7 +4390,7 @@
       </c>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" customFormat="1">
+    <row r="41" spans="1:15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4354,7 +4431,7 @@
       </c>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" customFormat="1">
+    <row r="42" spans="1:15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4395,7 +4472,7 @@
       </c>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" customFormat="1">
+    <row r="43" spans="1:15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4436,7 +4513,7 @@
       </c>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" customFormat="1">
+    <row r="44" spans="1:15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4477,7 +4554,7 @@
       </c>
       <c r="O44" s="19"/>
     </row>
-    <row r="45" spans="1:15" customFormat="1">
+    <row r="45" spans="1:15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4518,7 +4595,7 @@
       </c>
       <c r="O45" s="19"/>
     </row>
-    <row r="46" spans="1:15" customFormat="1">
+    <row r="46" spans="1:15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5113,7 +5190,7 @@
         <v>135</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="9">
@@ -5153,14 +5230,12 @@
       <c r="J61" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K61" s="21" t="s">
-        <v>103</v>
-      </c>
+      <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="9">
         <v>0</v>
       </c>
-      <c r="N61" s="22">
+      <c r="N61" s="2">
         <v>1</v>
       </c>
       <c r="O61" s="2"/>
@@ -5434,14 +5509,12 @@
       <c r="J68" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K68" s="21" t="s">
-        <v>103</v>
-      </c>
+      <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="9">
         <v>0</v>
       </c>
-      <c r="N68" s="22">
+      <c r="N68" s="2">
         <v>1</v>
       </c>
       <c r="O68" s="2"/>
@@ -6107,15 +6180,13 @@
       <c r="J85" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="9">
         <v>0</v>
       </c>
       <c r="N85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" s="2"/>
     </row>
@@ -6137,7 +6208,7 @@
         <v>44039</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H86" s="15" t="s">
         <v>126</v>
@@ -6474,8 +6545,8 @@
       <c r="J94" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K94" s="21" t="s">
-        <v>103</v>
+      <c r="K94" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="9">
@@ -6516,7 +6587,7 @@
         <v>141</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="9">
@@ -6556,12 +6627,12 @@
       <c r="J96" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K96" s="21"/>
+      <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="9">
         <v>0</v>
       </c>
-      <c r="N96" s="21">
+      <c r="N96" s="2">
         <v>1</v>
       </c>
       <c r="O96" s="2"/>
@@ -6639,7 +6710,7 @@
         <v>135</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="9">
@@ -6682,7 +6753,7 @@
         <v>38</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="9">
@@ -6845,8 +6916,8 @@
       <c r="J103" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K103" s="21" t="s">
-        <v>103</v>
+      <c r="K103" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="9">
@@ -6928,7 +6999,7 @@
         <v>141</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="9">
@@ -6969,7 +7040,7 @@
         <v>141</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="9">
@@ -7169,15 +7240,13 @@
       <c r="J111" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K111" s="21" t="s">
-        <v>103</v>
-      </c>
+      <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="9">
         <v>0</v>
       </c>
       <c r="N111" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O111" s="2"/>
     </row>
@@ -7199,7 +7268,7 @@
         <v>44039</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H112" s="15" t="s">
         <v>127</v>
@@ -7448,8 +7517,8 @@
       <c r="J118" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K118" s="21" t="s">
-        <v>103</v>
+      <c r="K118" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="9">
@@ -7478,7 +7547,7 @@
         <v>44039</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H119" s="15" t="s">
         <v>122</v>
@@ -7517,7 +7586,7 @@
         <v>44039</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H120" s="15" t="s">
         <v>123</v>
@@ -7569,15 +7638,13 @@
       <c r="J121" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K121" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="9">
         <v>0</v>
       </c>
       <c r="N121" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" s="2"/>
     </row>
@@ -7690,15 +7757,13 @@
       <c r="J124" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K124" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="9">
         <v>0</v>
       </c>
       <c r="N124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124" s="2"/>
     </row>
@@ -8343,7 +8408,7 @@
         <v>140</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140" s="9">
@@ -8504,14 +8569,12 @@
       <c r="J144" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K144" s="21" t="s">
-        <v>182</v>
-      </c>
+      <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2">
         <v>0</v>
       </c>
-      <c r="N144" s="22">
+      <c r="N144" s="2">
         <v>1</v>
       </c>
       <c r="O144" s="2"/>
@@ -8586,15 +8649,13 @@
       <c r="J146" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K146" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2">
         <v>0</v>
       </c>
       <c r="N146" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O146" s="2"/>
     </row>
@@ -8627,15 +8688,13 @@
       <c r="J147" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K147" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2">
         <v>0</v>
       </c>
       <c r="N147" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147" s="2"/>
     </row>
@@ -8750,15 +8809,13 @@
       <c r="J150" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K150" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2">
         <v>0</v>
       </c>
       <c r="N150" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O150" s="2"/>
     </row>
@@ -8791,14 +8848,12 @@
       <c r="J151" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K151" s="21" t="s">
-        <v>103</v>
-      </c>
+      <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2">
         <v>0</v>
       </c>
-      <c r="N151" s="22">
+      <c r="N151" s="2">
         <v>1</v>
       </c>
       <c r="O151" s="2"/>
@@ -8832,15 +8887,13 @@
       <c r="J152" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K152" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2">
         <v>0</v>
       </c>
       <c r="N152" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O152" s="2"/>
     </row>
@@ -8959,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="N155" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O155" s="2"/>
     </row>
@@ -9117,7 +9170,7 @@
       <c r="J159" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K159" s="21" t="s">
+      <c r="K159" s="2" t="s">
         <v>182</v>
       </c>
       <c r="L159" s="2"/>
@@ -9238,7 +9291,9 @@
       <c r="J162" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K162" s="2"/>
+      <c r="K162" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2">
         <v>0</v>
@@ -9399,7 +9454,7 @@
         <v>179</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2">
@@ -9439,15 +9494,13 @@
       <c r="J167" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="K167" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2">
         <v>0</v>
       </c>
       <c r="N167" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O167" s="2"/>
     </row>
@@ -9480,15 +9533,13 @@
       <c r="J168" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="K168" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2">
         <v>0</v>
       </c>
       <c r="N168" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O168" s="2"/>
     </row>
@@ -9769,15 +9820,13 @@
       <c r="J175" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K175" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2">
         <v>0</v>
       </c>
       <c r="N175" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O175" s="2"/>
     </row>
@@ -9810,15 +9859,13 @@
       <c r="J176" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K176" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2">
         <v>0</v>
       </c>
       <c r="N176" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O176" s="2"/>
     </row>
@@ -9974,15 +10021,13 @@
       <c r="J180" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K180" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2">
         <v>0</v>
       </c>
       <c r="N180" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O180" s="2"/>
     </row>
@@ -10015,15 +10060,13 @@
       <c r="J181" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K181" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2">
         <v>0</v>
       </c>
       <c r="N181" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O181" s="2"/>
     </row>
@@ -10577,15 +10620,13 @@
       <c r="J195" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K195" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2">
         <v>0</v>
       </c>
       <c r="N195" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195" s="2"/>
     </row>
@@ -10659,8 +10700,8 @@
       <c r="J197" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K197" s="21" t="s">
-        <v>144</v>
+      <c r="K197" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="L197" s="2"/>
       <c r="M197" s="2">
@@ -10701,7 +10742,7 @@
         <v>245</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L198" s="2"/>
       <c r="M198" s="2">
@@ -10783,7 +10824,7 @@
         <v>245</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L200" s="2"/>
       <c r="M200" s="2">
@@ -11738,15 +11779,13 @@
       <c r="J224" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K224" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K224" s="2"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2">
         <v>0</v>
       </c>
       <c r="N224" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O224" s="2"/>
     </row>
@@ -11821,7 +11860,7 @@
         <v>247</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L226" s="2"/>
       <c r="M226" s="2">
@@ -11862,7 +11901,7 @@
         <v>245</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L227" s="2"/>
       <c r="M227" s="2">
@@ -11903,7 +11942,7 @@
         <v>239</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L228" s="2"/>
       <c r="M228" s="2">
@@ -12103,7 +12142,7 @@
       <c r="J233" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K233" s="21" t="s">
+      <c r="K233" s="2" t="s">
         <v>182</v>
       </c>
       <c r="L233" s="2"/>
@@ -12303,7 +12342,7 @@
         <v>38</v>
       </c>
       <c r="K238" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L238" s="2"/>
       <c r="M238" s="2">
@@ -12344,7 +12383,7 @@
         <v>245</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L239" s="2"/>
       <c r="M239" s="2">
@@ -12466,7 +12505,7 @@
       <c r="J242" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K242" s="21" t="s">
+      <c r="K242" s="2" t="s">
         <v>182</v>
       </c>
       <c r="L242" s="2"/>
@@ -12590,7 +12629,7 @@
         <v>251</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L245" s="2"/>
       <c r="M245" s="2">
@@ -12635,7 +12674,7 @@
       <c r="M246" s="2">
         <v>0</v>
       </c>
-      <c r="N246" s="21">
+      <c r="N246" s="2">
         <v>1</v>
       </c>
       <c r="O246" s="2"/>
@@ -12752,7 +12791,7 @@
         <v>245</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L249" s="2"/>
       <c r="M249" s="2">
@@ -12833,7 +12872,7 @@
       <c r="J251" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K251" s="21" t="s">
+      <c r="K251" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L251" s="2"/>
@@ -12874,7 +12913,7 @@
       <c r="J252" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="K252" s="21" t="s">
+      <c r="K252" s="2" t="s">
         <v>182</v>
       </c>
       <c r="L252" s="2"/>
@@ -12915,7 +12954,7 @@
       <c r="J253" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K253" s="21" t="s">
+      <c r="K253" s="2" t="s">
         <v>182</v>
       </c>
       <c r="L253" s="2"/>
@@ -12954,16 +12993,14 @@
         <v>104</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="K254" s="21" t="s">
-        <v>103</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K254" s="2"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2">
         <v>0</v>
       </c>
-      <c r="N254" s="22">
+      <c r="N254" s="2">
         <v>1</v>
       </c>
       <c r="O254" s="2"/>
@@ -12997,8 +13034,8 @@
       <c r="J255" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K255" s="21" t="s">
-        <v>103</v>
+      <c r="K255" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="L255" s="2"/>
       <c r="M255" s="2">
@@ -13079,15 +13116,13 @@
       <c r="J257" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K257" s="2" t="s">
-        <v>274</v>
-      </c>
+      <c r="K257" s="2"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2">
         <v>0</v>
       </c>
       <c r="N257" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O257" s="2"/>
     </row>
@@ -13589,7 +13624,7 @@
         <v>251</v>
       </c>
       <c r="K270" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L270" s="2"/>
       <c r="M270" s="2">
@@ -13834,15 +13869,13 @@
       <c r="J276" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K276" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="K276" s="2"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2">
         <v>0</v>
       </c>
       <c r="N276" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O276" s="2"/>
     </row>
@@ -14088,7 +14121,7 @@
       <c r="J282" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="K282" s="21" t="s">
+      <c r="K282" s="2" t="s">
         <v>182</v>
       </c>
       <c r="L282" s="2"/>
@@ -14129,7 +14162,7 @@
       <c r="J283" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K283" s="21" t="s">
+      <c r="K283" s="2" t="s">
         <v>182</v>
       </c>
       <c r="L283" s="2"/>
@@ -14212,7 +14245,7 @@
         <v>258</v>
       </c>
       <c r="K285" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L285" s="2"/>
       <c r="M285" s="2">
@@ -14291,7 +14324,7 @@
       <c r="J287" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K287" s="21" t="s">
+      <c r="K287" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L287" s="2"/>
@@ -14332,7 +14365,7 @@
       <c r="J288" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="K288" s="21" t="s">
+      <c r="K288" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L288" s="2"/>
@@ -14374,7 +14407,7 @@
         <v>239</v>
       </c>
       <c r="K289" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L289" s="2"/>
       <c r="M289" s="2">
@@ -14414,8 +14447,8 @@
       <c r="J290" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K290" s="21" t="s">
-        <v>182</v>
+      <c r="K290" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="L290" s="2"/>
       <c r="M290" s="2">
@@ -14496,7 +14529,7 @@
       <c r="J292" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K292" s="21" t="s">
+      <c r="K292" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L292" s="2"/>
@@ -14537,7 +14570,7 @@
       <c r="J293" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K293" s="21" t="s">
+      <c r="K293" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L293" s="2"/>
@@ -14737,7 +14770,7 @@
         <v>240</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L298" s="2"/>
       <c r="M298" s="2">
@@ -15288,15 +15321,13 @@
       <c r="J312" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K312" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K312" s="2"/>
       <c r="L312" s="2"/>
       <c r="M312" s="2">
         <v>0</v>
       </c>
       <c r="N312" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O312" s="2"/>
     </row>
@@ -15414,7 +15445,7 @@
         <v>37</v>
       </c>
       <c r="K315" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L315" s="2"/>
       <c r="M315" s="2">
@@ -15584,7 +15615,7 @@
         <v>38</v>
       </c>
       <c r="K319" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L319" s="2"/>
       <c r="M319" s="2">
@@ -15920,7 +15951,7 @@
         <v>38</v>
       </c>
       <c r="K327" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L327" s="2"/>
       <c r="M327" s="2">
@@ -15958,9 +15989,9 @@
         <v>104</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K328" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K328" s="2" t="s">
         <v>144</v>
       </c>
       <c r="L328" s="2"/>
@@ -16087,7 +16118,7 @@
         <v>104</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="K331" s="2" t="s">
         <v>103</v>
@@ -16130,7 +16161,7 @@
         <v>104</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="K332" s="2" t="s">
         <v>103</v>
@@ -16173,7 +16204,7 @@
         <v>132</v>
       </c>
       <c r="J333" s="16" t="s">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="K333" s="2" t="s">
         <v>103</v>
@@ -16205,13 +16236,13 @@
         <v>44049</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J334" s="3" t="s">
         <v>140</v>
@@ -16246,18 +16277,18 @@
         <v>44049</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="K335" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="K335" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L335" s="2"/>
@@ -16290,15 +16321,17 @@
         <v>166</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I336" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="K336" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="K336" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="L336" s="2"/>
       <c r="M336" s="2">
         <v>0</v>
@@ -16326,7 +16359,7 @@
         <v>44049</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>121</v>
@@ -16335,9 +16368,9 @@
         <v>132</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="K337" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="K337" s="2" t="s">
         <v>182</v>
       </c>
       <c r="L337" s="2"/>
@@ -16367,7 +16400,7 @@
         <v>44049</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>129</v>
@@ -16376,9 +16409,9 @@
         <v>104</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="K338" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="K338" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L338" s="2"/>
@@ -16411,7 +16444,7 @@
         <v>166</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>132</v>
@@ -16458,7 +16491,7 @@
         <v>132</v>
       </c>
       <c r="J340" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K340" s="2" t="s">
         <v>182</v>
@@ -16490,7 +16523,7 @@
         <v>44050</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>127</v>
@@ -16499,9 +16532,9 @@
         <v>104</v>
       </c>
       <c r="J341" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="K341" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K341" s="2" t="s">
         <v>182</v>
       </c>
       <c r="L341" s="2"/>
@@ -16531,7 +16564,7 @@
         <v>44050</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>121</v>
@@ -16540,7 +16573,7 @@
         <v>104</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
@@ -16570,7 +16603,7 @@
         <v>44050</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>121</v>
@@ -16609,7 +16642,7 @@
         <v>44050</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>123</v>
@@ -16618,9 +16651,9 @@
         <v>104</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="K344" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="K344" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L344" s="2"/>
@@ -16650,7 +16683,7 @@
         <v>44050</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>129</v>
@@ -16661,7 +16694,9 @@
       <c r="J345" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K345" s="2"/>
+      <c r="K345" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="L345" s="2"/>
       <c r="M345" s="2">
         <v>0</v>
@@ -16689,7 +16724,7 @@
         <v>44050</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>128</v>
@@ -16700,7 +16735,9 @@
       <c r="J346" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K346" s="2"/>
+      <c r="K346" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="L346" s="2"/>
       <c r="M346" s="2">
         <v>0</v>
@@ -16728,7 +16765,7 @@
         <v>44050</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>127</v>
@@ -16737,9 +16774,9 @@
         <v>132</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="K347" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="K347" s="2" t="s">
         <v>103</v>
       </c>
       <c r="L347" s="2"/>
@@ -16769,16 +16806,16 @@
         <v>44051</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
@@ -16808,18 +16845,20 @@
         <v>44051</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="K349" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="K349" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="L349" s="2"/>
       <c r="M349" s="2">
         <v>0</v>
@@ -16847,16 +16886,16 @@
         <v>44051</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
@@ -16894,12 +16933,14 @@
         <v>123</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J351" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="K351" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="K351" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="L351" s="2"/>
       <c r="M351" s="2">
         <v>0</v>
@@ -16932,15 +16973,17 @@
         <v>120</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J352" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K352" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="K352" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="L352" s="2"/>
       <c r="M352" s="2">
         <v>0</v>
@@ -16977,7 +17020,7 @@
         <v>132</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
@@ -17018,7 +17061,9 @@
       <c r="J354" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K354" s="2"/>
+      <c r="K354" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="L354" s="2"/>
       <c r="M354" s="2">
         <v>0</v>
@@ -17048,7 +17093,7 @@
         <v>44052</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>121</v>
@@ -17069,8 +17114,127 @@
       </c>
       <c r="O355" s="2"/>
     </row>
+    <row r="356" spans="1:15">
+      <c r="A356" s="2">
+        <v>355</v>
+      </c>
+      <c r="B356" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D356" s="2"/>
+      <c r="E356" s="10">
+        <v>44053</v>
+      </c>
+      <c r="F356" s="21">
+        <v>44052</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I356" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K356" s="2"/>
+      <c r="L356" s="2"/>
+      <c r="M356" s="2">
+        <v>0</v>
+      </c>
+      <c r="N356" s="2">
+        <v>0</v>
+      </c>
+      <c r="O356" s="2"/>
+    </row>
+    <row r="357" spans="1:15">
+      <c r="A357" s="2">
+        <v>356</v>
+      </c>
+      <c r="B357" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D357" s="2"/>
+      <c r="E357" s="10">
+        <v>44053</v>
+      </c>
+      <c r="F357" s="21">
+        <v>44052</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I357" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="K357" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L357" s="2"/>
+      <c r="M357" s="2">
+        <v>0</v>
+      </c>
+      <c r="N357" s="2">
+        <v>0</v>
+      </c>
+      <c r="O357" s="2"/>
+    </row>
+    <row r="358" spans="1:15">
+      <c r="A358" s="2">
+        <v>357</v>
+      </c>
+      <c r="B358" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D358" s="2"/>
+      <c r="E358" s="10">
+        <v>44053</v>
+      </c>
+      <c r="F358" s="21">
+        <v>44052</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I358" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J358" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="K358" s="2"/>
+      <c r="L358" s="2"/>
+      <c r="M358" s="2">
+        <v>0</v>
+      </c>
+      <c r="N358" s="2">
+        <v>0</v>
+      </c>
+      <c r="O358" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O352"/>
+  <autoFilter ref="A1:O358"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="317">
   <si>
     <t>No</t>
   </si>
@@ -2301,7 +2301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2311,6 +2311,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,7 +2400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2419,7 +2425,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2441,6 +2446,8 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2732,10 +2739,10 @@
   <dimension ref="A1:O358"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B322" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B341" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D351" sqref="D351"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:O358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2745,63 +2752,63 @@
     <col min="3" max="4" width="11.625" style="7" customWidth="1"/>
     <col min="5" max="7" width="12.75" style="7" customWidth="1"/>
     <col min="8" max="9" width="10.5" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="16" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="21.375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="15" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="21" customWidth="1"/>
+    <col min="12" max="12" width="21.375" style="21" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="21" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2820,7 +2827,7 @@
       <c r="F2" s="1">
         <v>43882</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2842,7 +2849,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" customFormat="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2883,7 +2890,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" customFormat="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2922,7 +2929,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" customFormat="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2963,7 +2970,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" customFormat="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3004,7 +3011,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" customFormat="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3043,7 +3050,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" customFormat="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3084,7 +3091,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" customFormat="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3127,7 +3134,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" customFormat="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3168,7 +3175,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" customFormat="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3209,7 +3216,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" customFormat="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3250,7 +3257,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" customFormat="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3291,7 +3298,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" customFormat="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3332,7 +3339,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" customFormat="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3373,7 +3380,7 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" customFormat="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3414,7 +3421,7 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" customFormat="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3455,7 +3462,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" customFormat="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3496,7 +3503,7 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" customFormat="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3537,7 +3544,7 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" customFormat="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3567,7 +3574,7 @@
         <v>42</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="22"/>
       <c r="M20" s="2">
         <v>0</v>
       </c>
@@ -3576,7 +3583,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" customFormat="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3615,7 +3622,7 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" customFormat="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3656,7 +3663,7 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" customFormat="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3695,7 +3702,7 @@
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" customFormat="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3736,7 +3743,7 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" customFormat="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3777,7 +3784,7 @@
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" customFormat="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3820,7 +3827,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" customFormat="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3861,7 +3868,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" customFormat="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3900,7 +3907,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" customFormat="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3941,7 +3948,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" customFormat="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3982,7 +3989,7 @@
       </c>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" customFormat="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4023,7 +4030,7 @@
       </c>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" customFormat="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4062,7 +4069,7 @@
       </c>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" customFormat="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4105,7 +4112,7 @@
       </c>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" customFormat="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4144,7 +4151,7 @@
       </c>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" customFormat="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4185,7 +4192,7 @@
       </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" customFormat="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4226,7 +4233,7 @@
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" customFormat="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4267,7 +4274,7 @@
       </c>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" customFormat="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4308,7 +4315,7 @@
       </c>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" customFormat="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4349,7 +4356,7 @@
       </c>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" customFormat="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4390,7 +4397,7 @@
       </c>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" customFormat="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4431,7 +4438,7 @@
       </c>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" customFormat="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4472,7 +4479,7 @@
       </c>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" customFormat="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4504,7 +4511,7 @@
         <v>60</v>
       </c>
       <c r="K43" s="2"/>
-      <c r="L43" s="13"/>
+      <c r="L43" s="12"/>
       <c r="M43" s="4">
         <v>0</v>
       </c>
@@ -4513,7 +4520,7 @@
       </c>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" customFormat="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4552,9 +4559,9 @@
       <c r="N44" s="2">
         <v>1</v>
       </c>
-      <c r="O44" s="19"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="O44" s="18"/>
+    </row>
+    <row r="45" spans="1:15" customFormat="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4593,9 +4600,9 @@
       <c r="N45" s="2">
         <v>1</v>
       </c>
-      <c r="O45" s="19"/>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="O45" s="18"/>
+    </row>
+    <row r="46" spans="1:15" customFormat="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4634,7 +4641,7 @@
       <c r="N46" s="2">
         <v>1</v>
       </c>
-      <c r="O46" s="19"/>
+      <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2">
@@ -4668,6 +4675,7 @@
         <v>92</v>
       </c>
       <c r="K47" s="2"/>
+      <c r="L47" s="7"/>
       <c r="M47" s="2">
         <v>0</v>
       </c>
@@ -4940,10 +4948,10 @@
       <c r="G54" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J54" s="3" t="s">
@@ -4979,10 +4987,10 @@
       <c r="G55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J55" s="3" t="s">
@@ -5018,10 +5026,10 @@
       <c r="G56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J56" s="3" t="s">
@@ -5059,10 +5067,10 @@
       <c r="G57" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J57" s="3" t="s">
@@ -5100,10 +5108,10 @@
       <c r="G58" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J58" s="3" t="s">
@@ -5139,10 +5147,10 @@
       <c r="G59" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J59" s="3" t="s">
@@ -5180,10 +5188,10 @@
       <c r="G60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="I60" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -5221,10 +5229,10 @@
       <c r="G61" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I61" s="15" t="s">
+      <c r="I61" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -5262,10 +5270,10 @@
       <c r="G62" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I62" s="15" t="s">
+      <c r="I62" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J62" s="3" t="s">
@@ -5301,10 +5309,10 @@
       <c r="G63" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I63" s="15" t="s">
+      <c r="I63" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J63" s="3" t="s">
@@ -5344,10 +5352,10 @@
       <c r="G64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I64" s="15" t="s">
+      <c r="I64" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J64" s="3" t="s">
@@ -5383,10 +5391,10 @@
       <c r="G65" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I65" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J65" s="3" t="s">
@@ -5422,10 +5430,10 @@
       <c r="G66" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="I66" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J66" s="3" t="s">
@@ -5461,10 +5469,10 @@
       <c r="G67" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I67" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J67" s="3" t="s">
@@ -5500,10 +5508,10 @@
       <c r="G68" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J68" s="3" t="s">
@@ -5539,10 +5547,10 @@
       <c r="G69" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="I69" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J69" s="3" t="s">
@@ -5578,10 +5586,10 @@
       <c r="G70" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="H70" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J70" s="3" t="s">
@@ -5617,10 +5625,10 @@
       <c r="G71" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J71" s="3" t="s">
@@ -5656,10 +5664,10 @@
       <c r="G72" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J72" s="3" t="s">
@@ -5697,10 +5705,10 @@
       <c r="G73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J73" s="3" t="s">
@@ -5738,10 +5746,10 @@
       <c r="G74" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H74" s="15" t="s">
+      <c r="H74" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I74" s="15" t="s">
+      <c r="I74" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J74" s="3" t="s">
@@ -5777,10 +5785,10 @@
       <c r="G75" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I75" s="15" t="s">
+      <c r="I75" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J75" s="3" t="s">
@@ -5816,10 +5824,10 @@
       <c r="G76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I76" s="15" t="s">
+      <c r="I76" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J76" s="3" t="s">
@@ -5855,10 +5863,10 @@
       <c r="G77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H77" s="15" t="s">
+      <c r="H77" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I77" s="15" t="s">
+      <c r="I77" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J77" s="3" t="s">
@@ -5894,10 +5902,10 @@
       <c r="G78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H78" s="15" t="s">
+      <c r="H78" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I78" s="15" t="s">
+      <c r="I78" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J78" s="3" t="s">
@@ -5933,10 +5941,10 @@
       <c r="G79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="H79" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I79" s="15" t="s">
+      <c r="I79" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J79" s="3" t="s">
@@ -5972,10 +5980,10 @@
       <c r="G80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H80" s="15" t="s">
+      <c r="H80" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I80" s="15" t="s">
+      <c r="I80" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J80" s="3" t="s">
@@ -6011,10 +6019,10 @@
       <c r="G81" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H81" s="15" t="s">
+      <c r="H81" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J81" s="3" t="s">
@@ -6052,10 +6060,10 @@
       <c r="G82" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="H82" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I82" s="15" t="s">
+      <c r="I82" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J82" s="3" t="s">
@@ -6091,24 +6099,22 @@
       <c r="G83" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H83" s="15" t="s">
+      <c r="H83" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="I83" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K83" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="9">
         <v>0</v>
       </c>
       <c r="N83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" s="2"/>
     </row>
@@ -6132,10 +6138,10 @@
       <c r="G84" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H84" s="15" t="s">
+      <c r="H84" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I84" s="15" t="s">
+      <c r="I84" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J84" s="3" t="s">
@@ -6171,10 +6177,10 @@
       <c r="G85" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="H85" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I85" s="15" t="s">
+      <c r="I85" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J85" s="3" t="s">
@@ -6210,10 +6216,10 @@
       <c r="G86" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H86" s="15" t="s">
+      <c r="H86" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="I86" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J86" s="3" t="s">
@@ -6253,10 +6259,10 @@
       <c r="G87" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H87" s="15" t="s">
+      <c r="H87" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I87" s="15" t="s">
+      <c r="I87" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J87" s="3" t="s">
@@ -6292,10 +6298,10 @@
       <c r="G88" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H88" s="15" t="s">
+      <c r="H88" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I88" s="15" t="s">
+      <c r="I88" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J88" s="3" t="s">
@@ -6331,17 +6337,17 @@
       <c r="G89" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H89" s="15" t="s">
+      <c r="H89" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I89" s="15" t="s">
+      <c r="I89" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>140</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="9">
@@ -6372,17 +6378,17 @@
       <c r="G90" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H90" s="15" t="s">
+      <c r="H90" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I90" s="15" t="s">
+      <c r="I90" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>140</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="9">
@@ -6413,10 +6419,10 @@
       <c r="G91" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H91" s="15" t="s">
+      <c r="H91" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I91" s="15" t="s">
+      <c r="I91" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J91" s="3" t="s">
@@ -6456,10 +6462,10 @@
       <c r="G92" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H92" s="15" t="s">
+      <c r="H92" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I92" s="15" t="s">
+      <c r="I92" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J92" s="3" t="s">
@@ -6495,10 +6501,10 @@
       <c r="G93" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H93" s="15" t="s">
+      <c r="H93" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I93" s="15" t="s">
+      <c r="I93" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J93" s="3" t="s">
@@ -6536,10 +6542,10 @@
       <c r="G94" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H94" s="15" t="s">
+      <c r="H94" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I94" s="15" t="s">
+      <c r="I94" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J94" s="3" t="s">
@@ -6577,17 +6583,17 @@
       <c r="G95" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H95" s="15" t="s">
+      <c r="H95" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I95" s="15" t="s">
+      <c r="I95" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>141</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="9">
@@ -6618,10 +6624,10 @@
       <c r="G96" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H96" s="15" t="s">
+      <c r="H96" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I96" s="15" t="s">
+      <c r="I96" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J96" s="3" t="s">
@@ -6659,10 +6665,10 @@
       <c r="G97" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H97" s="15" t="s">
+      <c r="H97" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I97" s="15" t="s">
+      <c r="I97" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J97" s="3" t="s">
@@ -6700,10 +6706,10 @@
       <c r="G98" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H98" s="15" t="s">
+      <c r="H98" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I98" s="15" t="s">
+      <c r="I98" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J98" s="3" t="s">
@@ -6743,10 +6749,10 @@
       <c r="G99" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H99" s="15" t="s">
+      <c r="H99" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I99" s="15" t="s">
+      <c r="I99" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J99" s="3" t="s">
@@ -6786,10 +6792,10 @@
       <c r="G100" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H100" s="15" t="s">
+      <c r="H100" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I100" s="15" t="s">
+      <c r="I100" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J100" s="3" t="s">
@@ -6827,10 +6833,10 @@
       <c r="G101" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H101" s="15" t="s">
+      <c r="H101" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I101" s="15" t="s">
+      <c r="I101" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J101" s="3" t="s">
@@ -6866,10 +6872,10 @@
       <c r="G102" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H102" s="15" t="s">
+      <c r="H102" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I102" s="15" t="s">
+      <c r="I102" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J102" s="3" t="s">
@@ -6907,10 +6913,10 @@
       <c r="G103" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H103" s="15" t="s">
+      <c r="H103" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I103" s="15" t="s">
+      <c r="I103" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J103" s="3" t="s">
@@ -6948,17 +6954,17 @@
       <c r="G104" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H104" s="15" t="s">
+      <c r="H104" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I104" s="15" t="s">
+      <c r="I104" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>141</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="9">
@@ -6989,10 +6995,10 @@
       <c r="G105" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H105" s="15" t="s">
+      <c r="H105" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I105" s="15" t="s">
+      <c r="I105" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J105" s="3" t="s">
@@ -7030,10 +7036,10 @@
       <c r="G106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H106" s="15" t="s">
+      <c r="H106" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I106" s="15" t="s">
+      <c r="I106" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J106" s="3" t="s">
@@ -7071,10 +7077,10 @@
       <c r="G107" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H107" s="15" t="s">
+      <c r="H107" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I107" s="15" t="s">
+      <c r="I107" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J107" s="3" t="s">
@@ -7110,10 +7116,10 @@
       <c r="G108" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H108" s="15" t="s">
+      <c r="H108" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I108" s="15" t="s">
+      <c r="I108" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J108" s="3" t="s">
@@ -7151,10 +7157,10 @@
       <c r="G109" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H109" s="15" t="s">
+      <c r="H109" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I109" s="15" t="s">
+      <c r="I109" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J109" s="3" t="s">
@@ -7190,10 +7196,10 @@
       <c r="G110" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H110" s="15" t="s">
+      <c r="H110" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I110" s="15" t="s">
+      <c r="I110" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J110" s="3" t="s">
@@ -7231,10 +7237,10 @@
       <c r="G111" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H111" s="15" t="s">
+      <c r="H111" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I111" s="15" t="s">
+      <c r="I111" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J111" s="3" t="s">
@@ -7270,10 +7276,10 @@
       <c r="G112" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H112" s="15" t="s">
+      <c r="H112" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I112" s="15" t="s">
+      <c r="I112" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J112" s="3" t="s">
@@ -7311,24 +7317,22 @@
       <c r="G113" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H113" s="15" t="s">
+      <c r="H113" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I113" s="15" t="s">
+      <c r="I113" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K113" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="9">
         <v>0</v>
       </c>
       <c r="N113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" s="2"/>
     </row>
@@ -7352,10 +7356,10 @@
       <c r="G114" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H114" s="15" t="s">
+      <c r="H114" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I114" s="15" t="s">
+      <c r="I114" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J114" s="3" t="s">
@@ -7391,10 +7395,10 @@
       <c r="G115" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H115" s="15" t="s">
+      <c r="H115" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I115" s="15" t="s">
+      <c r="I115" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J115" s="3" t="s">
@@ -7430,10 +7434,10 @@
       <c r="G116" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H116" s="15" t="s">
+      <c r="H116" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I116" s="15" t="s">
+      <c r="I116" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J116" s="3" t="s">
@@ -7469,10 +7473,10 @@
       <c r="G117" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H117" s="15" t="s">
+      <c r="H117" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I117" s="15" t="s">
+      <c r="I117" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J117" s="3" t="s">
@@ -7508,10 +7512,10 @@
       <c r="G118" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H118" s="15" t="s">
+      <c r="H118" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I118" s="15" t="s">
+      <c r="I118" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J118" s="3" t="s">
@@ -7549,10 +7553,10 @@
       <c r="G119" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H119" s="15" t="s">
+      <c r="H119" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I119" s="15" t="s">
+      <c r="I119" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J119" s="3" t="s">
@@ -7588,17 +7592,17 @@
       <c r="G120" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H120" s="15" t="s">
+      <c r="H120" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I120" s="15" t="s">
+      <c r="I120" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>143</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="9">
@@ -7629,10 +7633,10 @@
       <c r="G121" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H121" s="15" t="s">
+      <c r="H121" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I121" s="15" t="s">
+      <c r="I121" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J121" s="3" t="s">
@@ -7668,10 +7672,10 @@
       <c r="G122" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H122" s="15" t="s">
+      <c r="H122" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I122" s="15" t="s">
+      <c r="I122" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J122" s="3" t="s">
@@ -7707,17 +7711,17 @@
       <c r="G123" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H123" s="15" t="s">
+      <c r="H123" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I123" s="15" t="s">
+      <c r="I123" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="9">
@@ -7748,10 +7752,10 @@
       <c r="G124" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H124" s="15" t="s">
+      <c r="H124" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I124" s="15" t="s">
+      <c r="I124" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J124" s="3" t="s">
@@ -7787,10 +7791,10 @@
       <c r="G125" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H125" s="15" t="s">
+      <c r="H125" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I125" s="15" t="s">
+      <c r="I125" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J125" s="3" t="s">
@@ -7828,10 +7832,10 @@
       <c r="G126" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H126" s="15" t="s">
+      <c r="H126" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I126" s="15" t="s">
+      <c r="I126" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J126" s="3" t="s">
@@ -7869,24 +7873,22 @@
       <c r="G127" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H127" s="15" t="s">
+      <c r="H127" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I127" s="15" t="s">
+      <c r="I127" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K127" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="9">
         <v>0</v>
       </c>
       <c r="N127" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127" s="2"/>
     </row>
@@ -7910,17 +7912,17 @@
       <c r="G128" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H128" s="15" t="s">
+      <c r="H128" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I128" s="15" t="s">
+      <c r="I128" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J128" s="3" t="s">
         <v>135</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="9">
@@ -7951,10 +7953,10 @@
       <c r="G129" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H129" s="15" t="s">
+      <c r="H129" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I129" s="15" t="s">
+      <c r="I129" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J129" s="3" t="s">
@@ -7992,10 +7994,10 @@
       <c r="G130" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H130" s="15" t="s">
+      <c r="H130" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I130" s="15" t="s">
+      <c r="I130" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J130" s="3" t="s">
@@ -8031,10 +8033,10 @@
       <c r="G131" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H131" s="15" t="s">
+      <c r="H131" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I131" s="15" t="s">
+      <c r="I131" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J131" s="3" t="s">
@@ -8072,10 +8074,10 @@
       <c r="G132" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H132" s="15" t="s">
+      <c r="H132" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I132" s="15" t="s">
+      <c r="I132" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J132" s="3" t="s">
@@ -8113,10 +8115,10 @@
       <c r="G133" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H133" s="15" t="s">
+      <c r="H133" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I133" s="15" t="s">
+      <c r="I133" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J133" s="3" t="s">
@@ -8154,10 +8156,10 @@
       <c r="G134" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H134" s="15" t="s">
+      <c r="H134" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I134" s="15" t="s">
+      <c r="I134" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J134" s="3" t="s">
@@ -8195,10 +8197,10 @@
       <c r="G135" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H135" s="15" t="s">
+      <c r="H135" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I135" s="15" t="s">
+      <c r="I135" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J135" s="3" t="s">
@@ -8234,10 +8236,10 @@
       <c r="G136" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H136" s="15" t="s">
+      <c r="H136" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I136" s="15" t="s">
+      <c r="I136" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J136" s="3" t="s">
@@ -8275,10 +8277,10 @@
       <c r="G137" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H137" s="15" t="s">
+      <c r="H137" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I137" s="15" t="s">
+      <c r="I137" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J137" s="3" t="s">
@@ -8316,10 +8318,10 @@
       <c r="G138" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H138" s="15" t="s">
+      <c r="H138" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I138" s="15" t="s">
+      <c r="I138" s="14" t="s">
         <v>76</v>
       </c>
       <c r="J138" s="3" t="s">
@@ -8357,10 +8359,10 @@
       <c r="G139" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H139" s="15" t="s">
+      <c r="H139" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I139" s="15" t="s">
+      <c r="I139" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J139" s="3" t="s">
@@ -8398,10 +8400,10 @@
       <c r="G140" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H140" s="15" t="s">
+      <c r="H140" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I140" s="15" t="s">
+      <c r="I140" s="14" t="s">
         <v>104</v>
       </c>
       <c r="J140" s="3" t="s">
@@ -9130,7 +9132,7 @@
         <v>47</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L158" s="2"/>
       <c r="M158" s="2">
@@ -9334,15 +9336,13 @@
       <c r="J163" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K163" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2">
         <v>0</v>
       </c>
       <c r="N163" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O163" s="2"/>
     </row>
@@ -9978,17 +9978,15 @@
         <v>104</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="K179" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2">
         <v>0</v>
       </c>
       <c r="N179" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O179" s="2"/>
     </row>
@@ -10946,15 +10944,13 @@
       <c r="J203" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K203" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K203" s="2"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2">
         <v>0</v>
       </c>
       <c r="N203" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O203" s="2"/>
     </row>
@@ -11457,15 +11453,13 @@
       <c r="J216" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K216" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K216" s="2"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2">
         <v>0</v>
       </c>
       <c r="N216" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O216" s="2"/>
     </row>
@@ -12342,7 +12336,7 @@
         <v>38</v>
       </c>
       <c r="K238" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L238" s="2"/>
       <c r="M238" s="2">
@@ -13076,7 +13070,7 @@
         <v>253</v>
       </c>
       <c r="K256" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L256" s="2"/>
       <c r="M256" s="2">
@@ -13623,15 +13617,13 @@
       <c r="J270" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="K270" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="K270" s="2"/>
       <c r="L270" s="2"/>
       <c r="M270" s="2">
         <v>0</v>
       </c>
       <c r="N270" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O270" s="2"/>
     </row>
@@ -14037,15 +14029,13 @@
       <c r="J280" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K280" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K280" s="2"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2">
         <v>0</v>
       </c>
       <c r="N280" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O280" s="2"/>
     </row>
@@ -14080,15 +14070,13 @@
       <c r="J281" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K281" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="K281" s="2"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2">
         <v>0</v>
       </c>
       <c r="N281" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O281" s="2"/>
     </row>
@@ -14244,15 +14232,13 @@
       <c r="J285" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="K285" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="K285" s="2"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2">
         <v>0</v>
       </c>
       <c r="N285" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O285" s="2"/>
     </row>
@@ -14285,7 +14271,9 @@
       <c r="J286" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K286" s="2"/>
+      <c r="K286" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L286" s="2"/>
       <c r="M286" s="2">
         <v>0</v>
@@ -14448,7 +14436,7 @@
         <v>269</v>
       </c>
       <c r="K290" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L290" s="2"/>
       <c r="M290" s="2">
@@ -15615,7 +15603,7 @@
         <v>38</v>
       </c>
       <c r="K319" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L319" s="2"/>
       <c r="M319" s="2">
@@ -16035,7 +16023,7 @@
         <v>43</v>
       </c>
       <c r="K329" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L329" s="2"/>
       <c r="M329" s="2">
@@ -16078,7 +16066,7 @@
         <v>43</v>
       </c>
       <c r="K330" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L330" s="2"/>
       <c r="M330" s="2">
@@ -16179,7 +16167,7 @@
       <c r="A333" s="4">
         <v>332</v>
       </c>
-      <c r="B333" s="13">
+      <c r="B333" s="12">
         <v>430005</v>
       </c>
       <c r="C333" s="4" t="s">
@@ -16188,10 +16176,10 @@
       <c r="D333" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E333" s="20">
+      <c r="E333" s="19">
         <v>44049</v>
       </c>
-      <c r="F333" s="20">
+      <c r="F333" s="19">
         <v>44049</v>
       </c>
       <c r="G333" s="4" t="s">
@@ -16203,18 +16191,16 @@
       <c r="I333" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J333" s="16" t="s">
+      <c r="J333" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K333" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K333" s="2"/>
       <c r="L333" s="4"/>
       <c r="M333" s="2">
         <v>0</v>
       </c>
       <c r="N333" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O333" s="4"/>
     </row>
@@ -16222,14 +16208,14 @@
       <c r="A334" s="2">
         <v>333</v>
       </c>
-      <c r="B334" s="13">
+      <c r="B334" s="12">
         <v>430005</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D334" s="2"/>
-      <c r="E334" s="20">
+      <c r="E334" s="19">
         <v>44050</v>
       </c>
       <c r="F334" s="10">
@@ -16263,17 +16249,17 @@
       <c r="A335" s="2">
         <v>334</v>
       </c>
-      <c r="B335" s="13">
+      <c r="B335" s="12">
         <v>430005</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D335" s="2"/>
-      <c r="E335" s="20">
+      <c r="E335" s="19">
         <v>44050</v>
       </c>
-      <c r="F335" s="20">
+      <c r="F335" s="19">
         <v>44049</v>
       </c>
       <c r="G335" s="2" t="s">
@@ -16304,14 +16290,14 @@
       <c r="A336" s="2">
         <v>335</v>
       </c>
-      <c r="B336" s="13">
+      <c r="B336" s="12">
         <v>430005</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D336" s="2"/>
-      <c r="E336" s="20">
+      <c r="E336" s="19">
         <v>44050</v>
       </c>
       <c r="F336" s="10">
@@ -16345,17 +16331,17 @@
       <c r="A337" s="2">
         <v>336</v>
       </c>
-      <c r="B337" s="13">
+      <c r="B337" s="12">
         <v>430005</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D337" s="2"/>
-      <c r="E337" s="20">
+      <c r="E337" s="19">
         <v>44050</v>
       </c>
-      <c r="F337" s="20">
+      <c r="F337" s="19">
         <v>44049</v>
       </c>
       <c r="G337" s="2" t="s">
@@ -16371,7 +16357,7 @@
         <v>284</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L337" s="2"/>
       <c r="M337" s="2">
@@ -16386,14 +16372,14 @@
       <c r="A338" s="2">
         <v>337</v>
       </c>
-      <c r="B338" s="13">
+      <c r="B338" s="12">
         <v>430005</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D338" s="2"/>
-      <c r="E338" s="20">
+      <c r="E338" s="19">
         <v>44050</v>
       </c>
       <c r="F338" s="10">
@@ -16427,14 +16413,14 @@
       <c r="A339" s="2">
         <v>338</v>
       </c>
-      <c r="B339" s="13">
+      <c r="B339" s="12">
         <v>430005</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D339" s="2"/>
-      <c r="E339" s="20">
+      <c r="E339" s="19">
         <v>44050</v>
       </c>
       <c r="F339" s="10">
@@ -16468,14 +16454,14 @@
       <c r="A340" s="2">
         <v>339</v>
       </c>
-      <c r="B340" s="13">
+      <c r="B340" s="12">
         <v>430005</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D340" s="2"/>
-      <c r="E340" s="20">
+      <c r="E340" s="19">
         <v>44050</v>
       </c>
       <c r="F340" s="10">
@@ -16550,7 +16536,7 @@
       <c r="A342" s="2">
         <v>341</v>
       </c>
-      <c r="B342" s="13">
+      <c r="B342" s="12">
         <v>430005</v>
       </c>
       <c r="C342" s="4" t="s">
@@ -16628,7 +16614,7 @@
       <c r="A344" s="2">
         <v>343</v>
       </c>
-      <c r="B344" s="13">
+      <c r="B344" s="12">
         <v>430005</v>
       </c>
       <c r="C344" s="4" t="s">
@@ -16710,7 +16696,7 @@
       <c r="A346" s="2">
         <v>345</v>
       </c>
-      <c r="B346" s="13">
+      <c r="B346" s="12">
         <v>430005</v>
       </c>
       <c r="C346" s="4" t="s">
@@ -16792,7 +16778,7 @@
       <c r="A348" s="2">
         <v>347</v>
       </c>
-      <c r="B348" s="13">
+      <c r="B348" s="12">
         <v>430005</v>
       </c>
       <c r="C348" s="4" t="s">
@@ -17128,7 +17114,7 @@
       <c r="E356" s="10">
         <v>44053</v>
       </c>
-      <c r="F356" s="21">
+      <c r="F356" s="20">
         <v>44052</v>
       </c>
       <c r="G356" s="2" t="s">
@@ -17167,7 +17153,7 @@
       <c r="E357" s="10">
         <v>44053</v>
       </c>
-      <c r="F357" s="21">
+      <c r="F357" s="20">
         <v>44052</v>
       </c>
       <c r="G357" s="2" t="s">
@@ -17208,7 +17194,7 @@
       <c r="E358" s="10">
         <v>44053</v>
       </c>
-      <c r="F358" s="21">
+      <c r="F358" s="20">
         <v>44052</v>
       </c>
       <c r="G358" s="2" t="s">
@@ -17223,7 +17209,9 @@
       <c r="J358" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="K358" s="2"/>
+      <c r="K358" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L358" s="2"/>
       <c r="M358" s="2">
         <v>0</v>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -10,7 +10,7 @@
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$358</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$372</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="331">
   <si>
     <t>No</t>
   </si>
@@ -2128,13 +2128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
@@ -2252,6 +2245,123 @@
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2736,16 +2846,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O358"/>
+  <dimension ref="A1:O372"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B341" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B364" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:O358"/>
+      <selection pane="bottomRight" activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="25" style="7" customWidth="1"/>
@@ -6225,15 +6335,13 @@
       <c r="J86" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="9">
         <v>0</v>
       </c>
       <c r="N86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" s="2"/>
     </row>
@@ -6346,15 +6454,13 @@
       <c r="J89" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K89" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="9">
         <v>0</v>
       </c>
       <c r="N89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" s="2"/>
     </row>
@@ -6388,7 +6494,7 @@
         <v>140</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="9">
@@ -6510,15 +6616,13 @@
       <c r="J93" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K93" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="9">
         <v>0</v>
       </c>
       <c r="N93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93" s="2"/>
     </row>
@@ -6758,15 +6862,13 @@
       <c r="J99" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="9">
         <v>0</v>
       </c>
       <c r="N99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" s="2"/>
     </row>
@@ -6922,15 +7024,13 @@
       <c r="J103" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="9">
         <v>0</v>
       </c>
       <c r="N103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" s="2"/>
     </row>
@@ -6963,15 +7063,13 @@
       <c r="J104" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="9">
         <v>0</v>
       </c>
       <c r="N104" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104" s="2"/>
     </row>
@@ -7126,7 +7224,7 @@
         <v>141</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="9">
@@ -7602,7 +7700,7 @@
         <v>143</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="9">
@@ -8771,7 +8869,7 @@
         <v>135</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2">
@@ -9131,15 +9229,13 @@
       <c r="J158" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K158" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2">
         <v>0</v>
       </c>
       <c r="N158" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O158" s="2"/>
     </row>
@@ -9172,15 +9268,13 @@
       <c r="J159" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K159" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2">
         <v>0</v>
       </c>
       <c r="N159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O159" s="2"/>
     </row>
@@ -9294,7 +9388,7 @@
         <v>141</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2">
@@ -9940,7 +10034,7 @@
         <v>240</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="2">
@@ -10097,15 +10191,13 @@
       <c r="J182" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K182" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2">
         <v>0</v>
       </c>
       <c r="N182" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O182" s="2"/>
     </row>
@@ -10740,7 +10832,7 @@
         <v>245</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="L198" s="2"/>
       <c r="M198" s="2">
@@ -11494,15 +11586,13 @@
       <c r="J217" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K217" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K217" s="2"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2">
         <v>0</v>
       </c>
       <c r="N217" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O217" s="2"/>
     </row>
@@ -11935,15 +12025,13 @@
       <c r="J228" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K228" s="2" t="s">
-        <v>300</v>
-      </c>
+      <c r="K228" s="2"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2">
         <v>0</v>
       </c>
       <c r="N228" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O228" s="2"/>
     </row>
@@ -13818,15 +13906,13 @@
       <c r="J275" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K275" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K275" s="2"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2">
         <v>0</v>
       </c>
       <c r="N275" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O275" s="2"/>
     </row>
@@ -14109,15 +14195,13 @@
       <c r="J282" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="K282" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K282" s="2"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2">
         <v>0</v>
       </c>
       <c r="N282" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O282" s="2"/>
     </row>
@@ -14150,15 +14234,13 @@
       <c r="J283" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K283" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K283" s="2"/>
       <c r="L283" s="2"/>
       <c r="M283" s="2">
         <v>0</v>
       </c>
       <c r="N283" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O283" s="2"/>
     </row>
@@ -15602,15 +15684,13 @@
       <c r="J319" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K319" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K319" s="2"/>
       <c r="L319" s="2"/>
       <c r="M319" s="2">
         <v>0</v>
       </c>
       <c r="N319" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O319" s="2"/>
     </row>
@@ -15856,15 +15936,13 @@
       <c r="J325" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K325" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K325" s="2"/>
       <c r="L325" s="2"/>
       <c r="M325" s="2">
         <v>0</v>
       </c>
       <c r="N325" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O325" s="2"/>
     </row>
@@ -15897,15 +15975,13 @@
       <c r="J326" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K326" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K326" s="2"/>
       <c r="L326" s="2"/>
       <c r="M326" s="2">
         <v>0</v>
       </c>
       <c r="N326" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O326" s="2"/>
     </row>
@@ -16316,7 +16392,7 @@
         <v>284</v>
       </c>
       <c r="K336" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L336" s="2"/>
       <c r="M336" s="2">
@@ -16357,7 +16433,7 @@
         <v>284</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L337" s="2"/>
       <c r="M337" s="2">
@@ -16637,7 +16713,7 @@
         <v>104</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K344" s="2" t="s">
         <v>103</v>
@@ -16681,7 +16757,7 @@
         <v>140</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L345" s="2"/>
       <c r="M345" s="2">
@@ -16722,7 +16798,7 @@
         <v>140</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L346" s="2"/>
       <c r="M346" s="2">
@@ -16760,7 +16836,7 @@
         <v>132</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K347" s="2" t="s">
         <v>103</v>
@@ -16801,7 +16877,7 @@
         <v>104</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
@@ -16809,7 +16885,7 @@
         <v>0</v>
       </c>
       <c r="N348" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O348" s="2"/>
     </row>
@@ -16840,10 +16916,10 @@
         <v>132</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L349" s="2"/>
       <c r="M349" s="2">
@@ -16881,7 +16957,7 @@
         <v>132</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
@@ -16922,10 +16998,10 @@
         <v>299</v>
       </c>
       <c r="J351" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L351" s="2"/>
       <c r="M351" s="2">
@@ -16959,7 +17035,7 @@
         <v>120</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I352" s="2" t="s">
         <v>299</v>
@@ -16968,7 +17044,7 @@
         <v>40</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L352" s="2"/>
       <c r="M352" s="2">
@@ -17008,7 +17084,9 @@
       <c r="J353" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K353" s="2"/>
+      <c r="K353" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L353" s="2"/>
       <c r="M353" s="2">
         <v>0</v>
@@ -17048,7 +17126,7 @@
         <v>162</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L354" s="2"/>
       <c r="M354" s="2">
@@ -17079,7 +17157,7 @@
         <v>44052</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>121</v>
@@ -17118,16 +17196,16 @@
         <v>44052</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H356" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="I356" s="2" t="s">
+      <c r="J356" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="J356" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
@@ -17157,7 +17235,7 @@
         <v>44052</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>130</v>
@@ -17166,10 +17244,10 @@
         <v>104</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L357" s="2"/>
       <c r="M357" s="2">
@@ -17198,7 +17276,7 @@
         <v>44052</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>122</v>
@@ -17207,7 +17285,7 @@
         <v>104</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K358" s="2" t="s">
         <v>103</v>
@@ -17221,11 +17299,575 @@
       </c>
       <c r="O358" s="2"/>
     </row>
+    <row r="359" spans="1:15">
+      <c r="A359" s="2">
+        <v>358</v>
+      </c>
+      <c r="B359" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D359" s="2"/>
+      <c r="E359" s="20">
+        <v>44054</v>
+      </c>
+      <c r="F359" s="20">
+        <v>44053</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J359" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K359" s="2"/>
+      <c r="L359" s="2"/>
+      <c r="M359" s="2">
+        <v>0</v>
+      </c>
+      <c r="N359" s="2">
+        <v>0</v>
+      </c>
+      <c r="O359" s="2"/>
+    </row>
+    <row r="360" spans="1:15">
+      <c r="A360" s="2">
+        <v>359</v>
+      </c>
+      <c r="B360" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E360" s="20">
+        <v>44054</v>
+      </c>
+      <c r="F360" s="20">
+        <v>44054</v>
+      </c>
+      <c r="G360" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I360" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J360" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K360" s="2"/>
+      <c r="L360" s="2"/>
+      <c r="M360" s="2">
+        <v>0</v>
+      </c>
+      <c r="N360" s="2">
+        <v>0</v>
+      </c>
+      <c r="O360" s="2"/>
+    </row>
+    <row r="361" spans="1:15">
+      <c r="A361" s="2">
+        <v>360</v>
+      </c>
+      <c r="B361" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E361" s="20">
+        <v>44054</v>
+      </c>
+      <c r="F361" s="20">
+        <v>44054</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I361" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J361" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K361" s="2"/>
+      <c r="L361" s="2"/>
+      <c r="M361" s="2">
+        <v>0</v>
+      </c>
+      <c r="N361" s="2">
+        <v>0</v>
+      </c>
+      <c r="O361" s="2"/>
+    </row>
+    <row r="362" spans="1:15">
+      <c r="A362" s="2">
+        <v>361</v>
+      </c>
+      <c r="B362" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E362" s="20">
+        <v>44054</v>
+      </c>
+      <c r="F362" s="20">
+        <v>44054</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I362" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J362" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K362" s="2"/>
+      <c r="L362" s="2"/>
+      <c r="M362" s="2">
+        <v>0</v>
+      </c>
+      <c r="N362" s="2">
+        <v>0</v>
+      </c>
+      <c r="O362" s="2"/>
+    </row>
+    <row r="363" spans="1:15">
+      <c r="A363" s="2">
+        <v>362</v>
+      </c>
+      <c r="B363" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D363" s="2"/>
+      <c r="E363" s="20">
+        <v>44055</v>
+      </c>
+      <c r="F363" s="20">
+        <v>44054</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I363" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J363" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K363" s="2"/>
+      <c r="L363" s="2"/>
+      <c r="M363" s="2">
+        <v>0</v>
+      </c>
+      <c r="N363" s="2">
+        <v>0</v>
+      </c>
+      <c r="O363" s="2"/>
+    </row>
+    <row r="364" spans="1:15">
+      <c r="A364" s="2">
+        <v>363</v>
+      </c>
+      <c r="B364" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D364" s="2"/>
+      <c r="E364" s="20">
+        <v>44055</v>
+      </c>
+      <c r="F364" s="20">
+        <v>44054</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H364" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J364" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K364" s="2"/>
+      <c r="L364" s="2"/>
+      <c r="M364" s="2">
+        <v>0</v>
+      </c>
+      <c r="N364" s="2">
+        <v>0</v>
+      </c>
+      <c r="O364" s="2"/>
+    </row>
+    <row r="365" spans="1:15">
+      <c r="A365" s="2">
+        <v>364</v>
+      </c>
+      <c r="B365" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D365" s="2"/>
+      <c r="E365" s="20">
+        <v>44055</v>
+      </c>
+      <c r="F365" s="20">
+        <v>44054</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H365" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I365" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J365" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K365" s="2"/>
+      <c r="L365" s="2"/>
+      <c r="M365" s="2">
+        <v>0</v>
+      </c>
+      <c r="N365" s="2">
+        <v>0</v>
+      </c>
+      <c r="O365" s="2"/>
+    </row>
+    <row r="366" spans="1:15">
+      <c r="A366" s="2">
+        <v>365</v>
+      </c>
+      <c r="B366" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D366" s="2"/>
+      <c r="E366" s="20">
+        <v>44055</v>
+      </c>
+      <c r="F366" s="20">
+        <v>44054</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I366" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J366" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K366" s="2"/>
+      <c r="L366" s="2"/>
+      <c r="M366" s="2">
+        <v>0</v>
+      </c>
+      <c r="N366" s="2">
+        <v>0</v>
+      </c>
+      <c r="O366" s="2"/>
+    </row>
+    <row r="367" spans="1:15">
+      <c r="A367" s="2">
+        <v>366</v>
+      </c>
+      <c r="B367" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E367" s="10">
+        <v>44055</v>
+      </c>
+      <c r="F367" s="10">
+        <v>44055</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H367" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I367" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J367" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K367" s="2"/>
+      <c r="L367" s="2"/>
+      <c r="M367" s="2">
+        <v>0</v>
+      </c>
+      <c r="N367" s="2">
+        <v>0</v>
+      </c>
+      <c r="O367" s="2"/>
+    </row>
+    <row r="368" spans="1:15">
+      <c r="A368" s="2">
+        <v>367</v>
+      </c>
+      <c r="B368" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E368" s="10">
+        <v>44055</v>
+      </c>
+      <c r="F368" s="10">
+        <v>44055</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J368" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K368" s="2"/>
+      <c r="L368" s="2"/>
+      <c r="M368" s="2">
+        <v>0</v>
+      </c>
+      <c r="N368" s="2">
+        <v>0</v>
+      </c>
+      <c r="O368" s="2"/>
+    </row>
+    <row r="369" spans="1:15">
+      <c r="A369" s="2">
+        <v>368</v>
+      </c>
+      <c r="B369" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E369" s="10">
+        <v>44055</v>
+      </c>
+      <c r="F369" s="10">
+        <v>44055</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I369" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J369" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K369" s="2"/>
+      <c r="L369" s="2"/>
+      <c r="M369" s="2">
+        <v>0</v>
+      </c>
+      <c r="N369" s="2">
+        <v>0</v>
+      </c>
+      <c r="O369" s="2"/>
+    </row>
+    <row r="370" spans="1:15">
+      <c r="A370" s="2">
+        <v>369</v>
+      </c>
+      <c r="B370" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E370" s="10">
+        <v>44055</v>
+      </c>
+      <c r="F370" s="10">
+        <v>44055</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H370" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I370" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J370" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K370" s="2"/>
+      <c r="L370" s="2"/>
+      <c r="M370" s="2">
+        <v>0</v>
+      </c>
+      <c r="N370" s="2">
+        <v>0</v>
+      </c>
+      <c r="O370" s="2"/>
+    </row>
+    <row r="371" spans="1:15">
+      <c r="A371" s="2">
+        <v>370</v>
+      </c>
+      <c r="B371" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E371" s="10">
+        <v>44055</v>
+      </c>
+      <c r="F371" s="10">
+        <v>44055</v>
+      </c>
+      <c r="G371" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J371" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K371" s="2"/>
+      <c r="L371" s="2"/>
+      <c r="M371" s="2">
+        <v>0</v>
+      </c>
+      <c r="N371" s="2">
+        <v>0</v>
+      </c>
+      <c r="O371" s="2"/>
+    </row>
+    <row r="372" spans="1:15">
+      <c r="A372" s="2">
+        <v>371</v>
+      </c>
+      <c r="B372" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E372" s="10">
+        <v>44055</v>
+      </c>
+      <c r="F372" s="10">
+        <v>44055</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H372" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I372" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J372" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K372" s="2"/>
+      <c r="L372" s="2"/>
+      <c r="M372" s="2">
+        <v>0</v>
+      </c>
+      <c r="N372" s="2">
+        <v>0</v>
+      </c>
+      <c r="O372" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O358"/>
+  <autoFilter ref="A1:O372"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C陽性患者属性</oddHeader>
   </headerFooter>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$372</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$393</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="351">
   <si>
     <t>No</t>
   </si>
@@ -2232,16 +2232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -2345,23 +2335,185 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘉島町</t>
+    <rPh sb="0" eb="3">
+      <t>カシママチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>留学生</t>
+    <rPh sb="0" eb="3">
+      <t>リュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="4">
+      <t>カイシャヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>熊本市南区</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="2">
+      <t>ホイク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2846,13 +2998,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O372"/>
+  <dimension ref="A1:O393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B364" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B332" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B367" sqref="B367"/>
+      <selection pane="bottomRight" activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -6493,15 +6645,13 @@
       <c r="J90" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K90" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="9">
         <v>0</v>
       </c>
       <c r="N90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" s="2"/>
     </row>
@@ -6696,15 +6846,13 @@
       <c r="J95" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K95" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="9">
         <v>0</v>
       </c>
       <c r="N95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" s="2"/>
     </row>
@@ -7102,15 +7250,13 @@
       <c r="J105" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="9">
         <v>0</v>
       </c>
       <c r="N105" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" s="2"/>
     </row>
@@ -7303,15 +7449,13 @@
       <c r="J110" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="9">
         <v>0</v>
       </c>
       <c r="N110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" s="2"/>
     </row>
@@ -7384,7 +7528,7 @@
         <v>136</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="9">
@@ -7818,15 +7962,13 @@
       <c r="J123" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K123" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="9">
         <v>0</v>
       </c>
       <c r="N123" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O123" s="2"/>
     </row>
@@ -8019,15 +8161,13 @@
       <c r="J128" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K128" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="9">
         <v>0</v>
       </c>
       <c r="N128" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O128" s="2"/>
     </row>
@@ -8384,15 +8524,13 @@
       <c r="J137" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K137" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="9">
         <v>0</v>
       </c>
       <c r="N137" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137" s="2"/>
     </row>
@@ -8426,7 +8564,7 @@
         <v>140</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="9">
@@ -8507,15 +8645,13 @@
       <c r="J140" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K140" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="9">
         <v>0</v>
       </c>
       <c r="N140" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" s="2"/>
     </row>
@@ -8708,15 +8844,13 @@
       <c r="J145" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K145" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2">
         <v>0</v>
       </c>
       <c r="N145" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O145" s="2"/>
     </row>
@@ -8868,15 +9002,13 @@
       <c r="J149" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2">
         <v>0</v>
       </c>
       <c r="N149" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O149" s="2"/>
     </row>
@@ -9388,7 +9520,7 @@
         <v>141</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2">
@@ -9547,15 +9679,13 @@
       <c r="J166" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="K166" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2">
         <v>0</v>
       </c>
       <c r="N166" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166" s="2"/>
     </row>
@@ -9707,15 +9837,13 @@
       <c r="J170" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K170" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2">
         <v>0</v>
       </c>
       <c r="N170" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O170" s="2"/>
     </row>
@@ -10034,7 +10162,7 @@
         <v>240</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="2">
@@ -10631,7 +10759,7 @@
         <v>38</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L193" s="2"/>
       <c r="M193" s="2">
@@ -10677,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="N194" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194" s="2"/>
     </row>
@@ -10913,15 +11041,13 @@
       <c r="J200" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K200" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="K200" s="2"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2">
         <v>0</v>
       </c>
       <c r="N200" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O200" s="2"/>
     </row>
@@ -11830,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="N223" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O223" s="2"/>
     </row>
@@ -12065,7 +12191,7 @@
         <v>240</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L229" s="2"/>
       <c r="M229" s="2">
@@ -12106,7 +12232,7 @@
         <v>38</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L230" s="2"/>
       <c r="M230" s="2">
@@ -12152,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="N231" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O231" s="2"/>
     </row>
@@ -12191,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="N232" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O232" s="2"/>
     </row>
@@ -12587,15 +12713,13 @@
       <c r="J242" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K242" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K242" s="2"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2">
         <v>0</v>
       </c>
       <c r="N242" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O242" s="2"/>
     </row>
@@ -12710,15 +12834,13 @@
       <c r="J245" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="K245" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K245" s="2"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2">
         <v>0</v>
       </c>
       <c r="N245" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O245" s="2"/>
     </row>
@@ -12790,15 +12912,13 @@
       <c r="J247" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K247" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K247" s="2"/>
       <c r="L247" s="2"/>
       <c r="M247" s="2">
         <v>0</v>
       </c>
       <c r="N247" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O247" s="2"/>
     </row>
@@ -12831,15 +12951,13 @@
       <c r="J248" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K248" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K248" s="2"/>
       <c r="L248" s="2"/>
       <c r="M248" s="2">
         <v>0</v>
       </c>
       <c r="N248" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O248" s="2"/>
     </row>
@@ -12954,15 +13072,13 @@
       <c r="J251" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K251" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K251" s="2"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2">
         <v>0</v>
       </c>
       <c r="N251" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O251" s="2"/>
     </row>
@@ -13036,15 +13152,13 @@
       <c r="J253" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K253" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K253" s="2"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2">
         <v>0</v>
       </c>
       <c r="N253" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O253" s="2"/>
     </row>
@@ -13116,15 +13230,13 @@
       <c r="J255" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K255" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K255" s="2"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2">
         <v>0</v>
       </c>
       <c r="N255" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O255" s="2"/>
     </row>
@@ -13157,15 +13269,13 @@
       <c r="J256" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K256" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K256" s="2"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2">
         <v>0</v>
       </c>
       <c r="N256" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O256" s="2"/>
     </row>
@@ -13746,15 +13856,13 @@
       <c r="J271" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K271" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K271" s="2"/>
       <c r="L271" s="2"/>
       <c r="M271" s="2">
         <v>0</v>
       </c>
       <c r="N271" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O271" s="2"/>
     </row>
@@ -14029,15 +14137,13 @@
       <c r="J278" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="K278" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K278" s="2"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2">
         <v>0</v>
       </c>
       <c r="N278" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O278" s="2"/>
     </row>
@@ -14353,15 +14459,13 @@
       <c r="J286" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K286" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K286" s="2"/>
       <c r="L286" s="2"/>
       <c r="M286" s="2">
         <v>0</v>
       </c>
       <c r="N286" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O286" s="2"/>
     </row>
@@ -14477,7 +14581,7 @@
         <v>239</v>
       </c>
       <c r="K289" s="2" t="s">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="L289" s="2"/>
       <c r="M289" s="2">
@@ -14599,15 +14703,13 @@
       <c r="J292" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K292" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K292" s="2"/>
       <c r="L292" s="2"/>
       <c r="M292" s="2">
         <v>0</v>
       </c>
       <c r="N292" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O292" s="2"/>
     </row>
@@ -14640,15 +14742,13 @@
       <c r="J293" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K293" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K293" s="2"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2">
         <v>0</v>
       </c>
       <c r="N293" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O293" s="2"/>
     </row>
@@ -14720,7 +14820,9 @@
       <c r="J295" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K295" s="2"/>
+      <c r="K295" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="L295" s="2"/>
       <c r="M295" s="2">
         <v>0</v>
@@ -14798,15 +14900,13 @@
       <c r="J297" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="K297" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K297" s="2"/>
       <c r="L297" s="2"/>
       <c r="M297" s="2">
         <v>0</v>
       </c>
       <c r="N297" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O297" s="2"/>
     </row>
@@ -15557,15 +15657,13 @@
       <c r="J316" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K316" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K316" s="2"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2">
         <v>0</v>
       </c>
       <c r="N316" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O316" s="2"/>
     </row>
@@ -15725,15 +15823,13 @@
       <c r="J320" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K320" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K320" s="2"/>
       <c r="L320" s="2"/>
       <c r="M320" s="2">
         <v>0</v>
       </c>
       <c r="N320" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O320" s="2"/>
     </row>
@@ -15769,7 +15865,7 @@
         <v>40</v>
       </c>
       <c r="K321" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L321" s="2"/>
       <c r="M321" s="2">
@@ -15896,7 +15992,7 @@
         <v>38</v>
       </c>
       <c r="K324" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L324" s="2"/>
       <c r="M324" s="2">
@@ -16098,15 +16194,13 @@
       <c r="J329" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K329" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K329" s="2"/>
       <c r="L329" s="2"/>
       <c r="M329" s="2">
         <v>0</v>
       </c>
       <c r="N329" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O329" s="2"/>
     </row>
@@ -16185,7 +16279,7 @@
         <v>40</v>
       </c>
       <c r="K331" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L331" s="2"/>
       <c r="M331" s="2">
@@ -16392,7 +16486,7 @@
         <v>284</v>
       </c>
       <c r="K336" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L336" s="2"/>
       <c r="M336" s="2">
@@ -16596,15 +16690,13 @@
       <c r="J341" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K341" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K341" s="2"/>
       <c r="L341" s="2"/>
       <c r="M341" s="2">
         <v>0</v>
       </c>
       <c r="N341" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O341" s="2"/>
     </row>
@@ -16959,7 +17051,9 @@
       <c r="J350" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="K350" s="2"/>
+      <c r="K350" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="L350" s="2"/>
       <c r="M350" s="2">
         <v>0</v>
@@ -17126,7 +17220,7 @@
         <v>162</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L354" s="2"/>
       <c r="M354" s="2">
@@ -17207,7 +17301,9 @@
       <c r="J356" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="K356" s="2"/>
+      <c r="K356" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="L356" s="2"/>
       <c r="M356" s="2">
         <v>0</v>
@@ -17317,10 +17413,10 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H359" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
@@ -17328,7 +17424,9 @@
       <c r="J359" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K359" s="2"/>
+      <c r="K359" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="L359" s="2"/>
       <c r="M359" s="2">
         <v>0</v>
@@ -17358,7 +17456,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -17408,7 +17506,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -17449,7 +17547,7 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
@@ -17482,15 +17580,17 @@
         <v>216</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K363" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="K363" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="L363" s="2"/>
       <c r="M363" s="2">
         <v>0</v>
@@ -17521,15 +17621,17 @@
         <v>192</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K364" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="K364" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="L364" s="2"/>
       <c r="M364" s="2">
         <v>0</v>
@@ -17560,15 +17662,17 @@
         <v>192</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K365" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="K365" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="L365" s="2"/>
       <c r="M365" s="2">
         <v>0</v>
@@ -17599,13 +17703,13 @@
         <v>164</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -17646,7 +17750,7 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
@@ -17678,7 +17782,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -17687,9 +17791,11 @@
         <v>132</v>
       </c>
       <c r="J368" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K368" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="K368" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L368" s="2"/>
       <c r="M368" s="2">
         <v>0</v>
@@ -17719,7 +17825,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -17728,7 +17834,7 @@
         <v>132</v>
       </c>
       <c r="J369" s="3" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="2"/>
@@ -17769,9 +17875,11 @@
         <v>132</v>
       </c>
       <c r="J370" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K370" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="K370" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="L370" s="2"/>
       <c r="M370" s="2">
         <v>0</v>
@@ -17810,9 +17918,11 @@
         <v>132</v>
       </c>
       <c r="J371" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K371" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="K371" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L371" s="2"/>
       <c r="M371" s="2">
         <v>0</v>
@@ -17842,16 +17952,16 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="H372" s="2" t="s">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>330</v>
+        <v>132</v>
       </c>
       <c r="J372" s="3" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="K372" s="2"/>
       <c r="L372" s="2"/>
@@ -17863,11 +17973,834 @@
       </c>
       <c r="O372" s="2"/>
     </row>
+    <row r="373" spans="1:15">
+      <c r="A373" s="2">
+        <v>372</v>
+      </c>
+      <c r="B373" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D373" s="2"/>
+      <c r="E373" s="10">
+        <v>44056</v>
+      </c>
+      <c r="F373" s="10">
+        <v>44055</v>
+      </c>
+      <c r="G373" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I373" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J373" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K373" s="2"/>
+      <c r="L373" s="2"/>
+      <c r="M373" s="2">
+        <v>0</v>
+      </c>
+      <c r="N373" s="2">
+        <v>0</v>
+      </c>
+      <c r="O373" s="2"/>
+    </row>
+    <row r="374" spans="1:15">
+      <c r="A374" s="2">
+        <v>373</v>
+      </c>
+      <c r="B374" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D374" s="2"/>
+      <c r="E374" s="10">
+        <v>44056</v>
+      </c>
+      <c r="F374" s="10">
+        <v>44055</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H374" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I374" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J374" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K374" s="2"/>
+      <c r="L374" s="2"/>
+      <c r="M374" s="2">
+        <v>0</v>
+      </c>
+      <c r="N374" s="2">
+        <v>0</v>
+      </c>
+      <c r="O374" s="2"/>
+    </row>
+    <row r="375" spans="1:15">
+      <c r="A375" s="2">
+        <v>374</v>
+      </c>
+      <c r="B375" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D375" s="2"/>
+      <c r="E375" s="10">
+        <v>44056</v>
+      </c>
+      <c r="F375" s="10">
+        <v>44055</v>
+      </c>
+      <c r="G375" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H375" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I375" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J375" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K375" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L375" s="2"/>
+      <c r="M375" s="2">
+        <v>0</v>
+      </c>
+      <c r="N375" s="2">
+        <v>0</v>
+      </c>
+      <c r="O375" s="2"/>
+    </row>
+    <row r="376" spans="1:15">
+      <c r="A376" s="2">
+        <v>375</v>
+      </c>
+      <c r="B376" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D376" s="2"/>
+      <c r="E376" s="10">
+        <v>44056</v>
+      </c>
+      <c r="F376" s="10">
+        <v>44055</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H376" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I376" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J376" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K376" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L376" s="2"/>
+      <c r="M376" s="2">
+        <v>0</v>
+      </c>
+      <c r="N376" s="2">
+        <v>0</v>
+      </c>
+      <c r="O376" s="2"/>
+    </row>
+    <row r="377" spans="1:15">
+      <c r="A377" s="2">
+        <v>376</v>
+      </c>
+      <c r="B377" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E377" s="10">
+        <v>44056</v>
+      </c>
+      <c r="F377" s="10">
+        <v>44056</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H377" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I377" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J377" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K377" s="2"/>
+      <c r="L377" s="2"/>
+      <c r="M377" s="2">
+        <v>0</v>
+      </c>
+      <c r="N377" s="2">
+        <v>0</v>
+      </c>
+      <c r="O377" s="2"/>
+    </row>
+    <row r="378" spans="1:15">
+      <c r="A378" s="2">
+        <v>377</v>
+      </c>
+      <c r="B378" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" s="10">
+        <v>44056</v>
+      </c>
+      <c r="F378" s="10">
+        <v>44056</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H378" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I378" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J378" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K378" s="2"/>
+      <c r="L378" s="2"/>
+      <c r="M378" s="2">
+        <v>0</v>
+      </c>
+      <c r="N378" s="2">
+        <v>0</v>
+      </c>
+      <c r="O378" s="2"/>
+    </row>
+    <row r="379" spans="1:15">
+      <c r="A379" s="2">
+        <v>378</v>
+      </c>
+      <c r="B379" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E379" s="10">
+        <v>44056</v>
+      </c>
+      <c r="F379" s="10">
+        <v>44056</v>
+      </c>
+      <c r="G379" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H379" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I379" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J379" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K379" s="2"/>
+      <c r="L379" s="2"/>
+      <c r="M379" s="2">
+        <v>0</v>
+      </c>
+      <c r="N379" s="2">
+        <v>0</v>
+      </c>
+      <c r="O379" s="2"/>
+    </row>
+    <row r="380" spans="1:15">
+      <c r="A380" s="2">
+        <v>379</v>
+      </c>
+      <c r="B380" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E380" s="10">
+        <v>44056</v>
+      </c>
+      <c r="F380" s="10">
+        <v>44056</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H380" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I380" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J380" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K380" s="2"/>
+      <c r="L380" s="2"/>
+      <c r="M380" s="2">
+        <v>0</v>
+      </c>
+      <c r="N380" s="2">
+        <v>0</v>
+      </c>
+      <c r="O380" s="2"/>
+    </row>
+    <row r="381" spans="1:15">
+      <c r="A381" s="2">
+        <v>380</v>
+      </c>
+      <c r="B381" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E381" s="10">
+        <v>44056</v>
+      </c>
+      <c r="F381" s="10">
+        <v>44056</v>
+      </c>
+      <c r="G381" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H381" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I381" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J381" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K381" s="2"/>
+      <c r="L381" s="2"/>
+      <c r="M381" s="2">
+        <v>0</v>
+      </c>
+      <c r="N381" s="2">
+        <v>0</v>
+      </c>
+      <c r="O381" s="2"/>
+    </row>
+    <row r="382" spans="1:15">
+      <c r="A382" s="2">
+        <v>381</v>
+      </c>
+      <c r="B382" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E382" s="10">
+        <v>44057</v>
+      </c>
+      <c r="F382" s="10">
+        <v>44056</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H382" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I382" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J382" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K382" s="2"/>
+      <c r="L382" s="2"/>
+      <c r="M382" s="2">
+        <v>0</v>
+      </c>
+      <c r="N382" s="2">
+        <v>0</v>
+      </c>
+      <c r="O382" s="2"/>
+    </row>
+    <row r="383" spans="1:15">
+      <c r="A383" s="2">
+        <v>382</v>
+      </c>
+      <c r="B383" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E383" s="10">
+        <v>44057</v>
+      </c>
+      <c r="F383" s="10">
+        <v>44056</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H383" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I383" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J383" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K383" s="2"/>
+      <c r="L383" s="2"/>
+      <c r="M383" s="2">
+        <v>0</v>
+      </c>
+      <c r="N383" s="2">
+        <v>0</v>
+      </c>
+      <c r="O383" s="2"/>
+    </row>
+    <row r="384" spans="1:15">
+      <c r="A384" s="2">
+        <v>383</v>
+      </c>
+      <c r="B384" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D384" s="2"/>
+      <c r="E384" s="10">
+        <v>44057</v>
+      </c>
+      <c r="F384" s="10">
+        <v>44056</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H384" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I384" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J384" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K384" s="2"/>
+      <c r="L384" s="2"/>
+      <c r="M384" s="2">
+        <v>0</v>
+      </c>
+      <c r="N384" s="2">
+        <v>0</v>
+      </c>
+      <c r="O384" s="2"/>
+    </row>
+    <row r="385" spans="1:15">
+      <c r="A385" s="2">
+        <v>384</v>
+      </c>
+      <c r="B385" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D385" s="2"/>
+      <c r="E385" s="10">
+        <v>44057</v>
+      </c>
+      <c r="F385" s="10">
+        <v>44056</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H385" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I385" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J385" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K385" s="2"/>
+      <c r="L385" s="2"/>
+      <c r="M385" s="2">
+        <v>0</v>
+      </c>
+      <c r="N385" s="2">
+        <v>0</v>
+      </c>
+      <c r="O385" s="2"/>
+    </row>
+    <row r="386" spans="1:15">
+      <c r="A386" s="2">
+        <v>385</v>
+      </c>
+      <c r="B386" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D386" s="2"/>
+      <c r="E386" s="10">
+        <v>44057</v>
+      </c>
+      <c r="F386" s="10">
+        <v>44056</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H386" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I386" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J386" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K386" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L386" s="2"/>
+      <c r="M386" s="2">
+        <v>0</v>
+      </c>
+      <c r="N386" s="2">
+        <v>0</v>
+      </c>
+      <c r="O386" s="2"/>
+    </row>
+    <row r="387" spans="1:15">
+      <c r="A387" s="2">
+        <v>386</v>
+      </c>
+      <c r="B387" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D387" s="2"/>
+      <c r="E387" s="10">
+        <v>44057</v>
+      </c>
+      <c r="F387" s="10">
+        <v>44056</v>
+      </c>
+      <c r="G387" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H387" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I387" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J387" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K387" s="2"/>
+      <c r="L387" s="2"/>
+      <c r="M387" s="2">
+        <v>0</v>
+      </c>
+      <c r="N387" s="2">
+        <v>0</v>
+      </c>
+      <c r="O387" s="2"/>
+    </row>
+    <row r="388" spans="1:15">
+      <c r="A388" s="2">
+        <v>387</v>
+      </c>
+      <c r="B388" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E388" s="10">
+        <v>44057</v>
+      </c>
+      <c r="F388" s="10">
+        <v>44057</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H388" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J388" s="3"/>
+      <c r="K388" s="2"/>
+      <c r="L388" s="2"/>
+      <c r="M388" s="2">
+        <v>0</v>
+      </c>
+      <c r="N388" s="2">
+        <v>0</v>
+      </c>
+      <c r="O388" s="2"/>
+    </row>
+    <row r="389" spans="1:15">
+      <c r="A389" s="2">
+        <v>388</v>
+      </c>
+      <c r="B389" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E389" s="10">
+        <v>44057</v>
+      </c>
+      <c r="F389" s="10">
+        <v>44057</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H389" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I389" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J389" s="3"/>
+      <c r="K389" s="2"/>
+      <c r="L389" s="2"/>
+      <c r="M389" s="2">
+        <v>0</v>
+      </c>
+      <c r="N389" s="2">
+        <v>0</v>
+      </c>
+      <c r="O389" s="2"/>
+    </row>
+    <row r="390" spans="1:15">
+      <c r="A390" s="2">
+        <v>389</v>
+      </c>
+      <c r="B390" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E390" s="10">
+        <v>44057</v>
+      </c>
+      <c r="F390" s="10">
+        <v>44057</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H390" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I390" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J390" s="3"/>
+      <c r="K390" s="2"/>
+      <c r="L390" s="2"/>
+      <c r="M390" s="2">
+        <v>0</v>
+      </c>
+      <c r="N390" s="2">
+        <v>0</v>
+      </c>
+      <c r="O390" s="2"/>
+    </row>
+    <row r="391" spans="1:15">
+      <c r="A391" s="2">
+        <v>390</v>
+      </c>
+      <c r="B391" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E391" s="10">
+        <v>44057</v>
+      </c>
+      <c r="F391" s="10">
+        <v>44057</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H391" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I391" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J391" s="3"/>
+      <c r="K391" s="2"/>
+      <c r="L391" s="2"/>
+      <c r="M391" s="2">
+        <v>0</v>
+      </c>
+      <c r="N391" s="2">
+        <v>0</v>
+      </c>
+      <c r="O391" s="2"/>
+    </row>
+    <row r="392" spans="1:15">
+      <c r="A392" s="2">
+        <v>391</v>
+      </c>
+      <c r="B392" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E392" s="10"/>
+      <c r="F392" s="10">
+        <v>44057</v>
+      </c>
+      <c r="G392" s="2"/>
+      <c r="H392" s="2"/>
+      <c r="I392" s="2"/>
+      <c r="J392" s="3"/>
+      <c r="K392" s="2"/>
+      <c r="L392" s="2"/>
+      <c r="M392" s="2">
+        <v>0</v>
+      </c>
+      <c r="N392" s="2">
+        <v>0</v>
+      </c>
+      <c r="O392" s="2"/>
+    </row>
+    <row r="393" spans="1:15">
+      <c r="A393" s="2">
+        <v>392</v>
+      </c>
+      <c r="B393" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E393" s="10"/>
+      <c r="F393" s="10">
+        <v>44057</v>
+      </c>
+      <c r="G393" s="2"/>
+      <c r="H393" s="2"/>
+      <c r="I393" s="2"/>
+      <c r="J393" s="3"/>
+      <c r="K393" s="2"/>
+      <c r="L393" s="2"/>
+      <c r="M393" s="2">
+        <v>0</v>
+      </c>
+      <c r="N393" s="2">
+        <v>0</v>
+      </c>
+      <c r="O393" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O372"/>
+  <autoFilter ref="A1:O393"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C陽性患者属性</oddHeader>
   </headerFooter>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -10,7 +10,7 @@
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$404</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="377">
   <si>
     <t>No</t>
   </si>
@@ -2215,16 +2215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -2514,6 +2504,216 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2525,7 +2725,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2560,6 +2760,12 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2662,7 +2868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2710,6 +2916,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2998,13 +3205,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O393"/>
+  <dimension ref="A1:O1063"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B332" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B332" sqref="B332"/>
+      <selection pane="bottomRight" activeCell="L1061" sqref="L1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -5459,15 +5666,13 @@
       <c r="J60" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K60" s="23"/>
       <c r="L60" s="2"/>
       <c r="M60" s="9">
         <v>0</v>
       </c>
       <c r="N60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="2"/>
     </row>
@@ -6967,15 +7172,13 @@
       <c r="J98" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="9">
         <v>0</v>
       </c>
       <c r="N98" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" s="2"/>
     </row>
@@ -7369,15 +7572,13 @@
       <c r="J108" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="9">
         <v>0</v>
       </c>
       <c r="N108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" s="2"/>
     </row>
@@ -9318,15 +9519,13 @@
       <c r="J157" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K157" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2">
         <v>0</v>
       </c>
       <c r="N157" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O157" s="2"/>
     </row>
@@ -9486,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="N161" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" s="2"/>
     </row>
@@ -9796,15 +9995,13 @@
       <c r="J169" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="K169" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="K169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2">
         <v>0</v>
       </c>
       <c r="N169" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O169" s="2"/>
     </row>
@@ -9878,15 +10075,13 @@
       <c r="J171" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K171" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2">
         <v>0</v>
       </c>
       <c r="N171" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O171" s="2"/>
     </row>
@@ -10758,15 +10953,13 @@
       <c r="J193" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K193" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2">
         <v>0</v>
       </c>
       <c r="N193" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O193" s="2"/>
     </row>
@@ -10878,14 +11071,14 @@
         <v>245</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>144</v>
+        <v>351</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
         <v>0</v>
       </c>
       <c r="N196" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O196" s="2"/>
     </row>
@@ -11753,15 +11946,13 @@
       <c r="J218" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K218" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="K218" s="2"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2">
         <v>0</v>
       </c>
       <c r="N218" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O218" s="2"/>
     </row>
@@ -12190,15 +12381,13 @@
       <c r="J229" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K229" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K229" s="2"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2">
         <v>0</v>
       </c>
       <c r="N229" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O229" s="2"/>
     </row>
@@ -12350,15 +12539,13 @@
       <c r="J233" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K233" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K233" s="2"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2">
         <v>0</v>
       </c>
       <c r="N233" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O233" s="2"/>
     </row>
@@ -12549,15 +12736,13 @@
       <c r="J238" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K238" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K238" s="2"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2">
         <v>0</v>
       </c>
       <c r="N238" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O238" s="2"/>
     </row>
@@ -13032,7 +13217,7 @@
         <v>239</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="L250" s="2"/>
       <c r="M250" s="2">
@@ -13072,13 +13257,15 @@
       <c r="J251" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K251" s="2"/>
+      <c r="K251" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="L251" s="2"/>
       <c r="M251" s="2">
         <v>0</v>
       </c>
       <c r="N251" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O251" s="2"/>
     </row>
@@ -13111,15 +13298,13 @@
       <c r="J252" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="K252" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K252" s="2"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2">
         <v>0</v>
       </c>
       <c r="N252" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O252" s="2"/>
     </row>
@@ -14178,15 +14363,13 @@
       <c r="J279" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K279" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="K279" s="2"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2">
         <v>0</v>
       </c>
       <c r="N279" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O279" s="2"/>
     </row>
@@ -14379,15 +14562,13 @@
       <c r="J284" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K284" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K284" s="2"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2">
         <v>0</v>
       </c>
       <c r="N284" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O284" s="2"/>
     </row>
@@ -14539,15 +14720,13 @@
       <c r="J288" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="K288" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K288" s="2"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2">
         <v>0</v>
       </c>
       <c r="N288" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O288" s="2"/>
     </row>
@@ -14821,7 +15000,7 @@
         <v>239</v>
       </c>
       <c r="K295" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L295" s="2"/>
       <c r="M295" s="2">
@@ -15530,15 +15709,13 @@
         <v>132</v>
       </c>
       <c r="J313" s="3"/>
-      <c r="K313" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K313" s="2"/>
       <c r="L313" s="2"/>
       <c r="M313" s="2">
         <v>0</v>
       </c>
       <c r="N313" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O313" s="2"/>
     </row>
@@ -15614,15 +15791,13 @@
       <c r="J315" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K315" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="K315" s="2"/>
       <c r="L315" s="2"/>
       <c r="M315" s="2">
         <v>0</v>
       </c>
       <c r="N315" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O315" s="2"/>
     </row>
@@ -15739,15 +15914,13 @@
       <c r="J318" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K318" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K318" s="2"/>
       <c r="L318" s="2"/>
       <c r="M318" s="2">
         <v>0</v>
       </c>
       <c r="N318" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O318" s="2"/>
     </row>
@@ -15907,15 +16080,13 @@
       <c r="J322" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K322" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K322" s="2"/>
       <c r="L322" s="2"/>
       <c r="M322" s="2">
         <v>0</v>
       </c>
       <c r="N322" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O322" s="2"/>
     </row>
@@ -16152,7 +16323,7 @@
         <v>37</v>
       </c>
       <c r="K328" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L328" s="2"/>
       <c r="M328" s="2">
@@ -16486,14 +16657,14 @@
         <v>284</v>
       </c>
       <c r="K336" s="2" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
       <c r="L336" s="2"/>
       <c r="M336" s="2">
         <v>0</v>
       </c>
       <c r="N336" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O336" s="2"/>
     </row>
@@ -16526,15 +16697,13 @@
       <c r="J337" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="K337" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K337" s="2"/>
       <c r="L337" s="2"/>
       <c r="M337" s="2">
         <v>0</v>
       </c>
       <c r="N337" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O337" s="2"/>
     </row>
@@ -16774,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="N343" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O343" s="2"/>
     </row>
@@ -16849,7 +17018,7 @@
         <v>140</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="L345" s="2"/>
       <c r="M345" s="2">
@@ -16890,7 +17059,7 @@
         <v>140</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L346" s="2"/>
       <c r="M346" s="2">
@@ -17011,7 +17180,7 @@
         <v>302</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L349" s="2"/>
       <c r="M349" s="2">
@@ -17052,7 +17221,7 @@
         <v>300</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L350" s="2"/>
       <c r="M350" s="2">
@@ -17094,15 +17263,13 @@
       <c r="J351" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="K351" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="K351" s="2"/>
       <c r="L351" s="2"/>
       <c r="M351" s="2">
         <v>0</v>
       </c>
       <c r="N351" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O351" s="2"/>
     </row>
@@ -17137,15 +17304,13 @@
       <c r="J352" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K352" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="K352" s="2"/>
       <c r="L352" s="2"/>
       <c r="M352" s="2">
         <v>0</v>
       </c>
       <c r="N352" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O352" s="2"/>
     </row>
@@ -17220,7 +17385,7 @@
         <v>162</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L354" s="2"/>
       <c r="M354" s="2">
@@ -17262,7 +17427,9 @@
       <c r="J355" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K355" s="2"/>
+      <c r="K355" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L355" s="2"/>
       <c r="M355" s="2">
         <v>0</v>
@@ -17302,7 +17469,7 @@
         <v>309</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L356" s="2"/>
       <c r="M356" s="2">
@@ -17343,7 +17510,7 @@
         <v>310</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L357" s="2"/>
       <c r="M357" s="2">
@@ -17413,10 +17580,10 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H359" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
@@ -17456,7 +17623,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -17467,7 +17634,9 @@
       <c r="J360" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K360" s="2"/>
+      <c r="K360" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L360" s="2"/>
       <c r="M360" s="2">
         <v>0</v>
@@ -17506,7 +17675,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -17547,9 +17716,11 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="K362" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="K362" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L362" s="2"/>
       <c r="M362" s="2">
         <v>0</v>
@@ -17580,13 +17751,13 @@
         <v>216</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K363" s="2" t="s">
         <v>182</v>
@@ -17621,16 +17792,16 @@
         <v>192</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L364" s="2"/>
       <c r="M364" s="2">
@@ -17662,16 +17833,16 @@
         <v>192</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L365" s="2"/>
       <c r="M365" s="2">
@@ -17703,13 +17874,13 @@
         <v>164</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -17750,9 +17921,11 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K367" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="K367" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L367" s="2"/>
       <c r="M367" s="2">
         <v>0</v>
@@ -17782,7 +17955,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -17825,7 +17998,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -17836,7 +18009,9 @@
       <c r="J369" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K369" s="2"/>
+      <c r="K369" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L369" s="2"/>
       <c r="M369" s="2">
         <v>0</v>
@@ -17878,7 +18053,7 @@
         <v>38</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L370" s="2"/>
       <c r="M370" s="2">
@@ -17921,7 +18096,7 @@
         <v>38</v>
       </c>
       <c r="K371" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L371" s="2"/>
       <c r="M371" s="2">
@@ -17952,7 +18127,7 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>123</v>
@@ -17963,7 +18138,9 @@
       <c r="J372" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K372" s="2"/>
+      <c r="K372" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L372" s="2"/>
       <c r="M372" s="2">
         <v>0</v>
@@ -17991,10 +18168,10 @@
         <v>44055</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>132</v>
@@ -18033,7 +18210,7 @@
         <v>222</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>132</v>
@@ -18069,7 +18246,7 @@
         <v>44055</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>122</v>
@@ -18110,7 +18287,7 @@
         <v>44055</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>122</v>
@@ -18153,18 +18330,20 @@
         <v>44056</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K377" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="K377" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L377" s="2"/>
       <c r="M377" s="2">
         <v>0</v>
@@ -18194,18 +18373,20 @@
         <v>44056</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K378" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="K378" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L378" s="2"/>
       <c r="M378" s="2">
         <v>0</v>
@@ -18235,7 +18416,7 @@
         <v>44056</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>121</v>
@@ -18244,9 +18425,11 @@
         <v>132</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K379" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="K379" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L379" s="2"/>
       <c r="M379" s="2">
         <v>0</v>
@@ -18276,18 +18459,20 @@
         <v>44056</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K380" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="K380" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L380" s="2"/>
       <c r="M380" s="2">
         <v>0</v>
@@ -18308,7 +18493,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E381" s="10">
         <v>44056</v>
@@ -18323,12 +18508,14 @@
         <v>123</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="K381" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="K381" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L381" s="2"/>
       <c r="M381" s="2">
         <v>0</v>
@@ -18349,7 +18536,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E382" s="10">
         <v>44057</v>
@@ -18364,12 +18551,14 @@
         <v>121</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K382" s="2"/>
+      <c r="K382" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L382" s="2"/>
       <c r="M382" s="2">
         <v>0</v>
@@ -18390,7 +18579,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E383" s="10">
         <v>44057</v>
@@ -18405,12 +18594,14 @@
         <v>121</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K383" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="K383" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L383" s="2"/>
       <c r="M383" s="2">
         <v>0</v>
@@ -18438,7 +18629,7 @@
         <v>44056</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>123</v>
@@ -18447,7 +18638,7 @@
         <v>132</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
@@ -18477,7 +18668,7 @@
         <v>44056</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>123</v>
@@ -18486,9 +18677,11 @@
         <v>132</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="K385" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="K385" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L385" s="2"/>
       <c r="M385" s="2">
         <v>0</v>
@@ -18516,7 +18709,7 @@
         <v>44056</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>121</v>
@@ -18525,10 +18718,10 @@
         <v>132</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K386" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L386" s="2"/>
       <c r="M386" s="2">
@@ -18557,7 +18750,7 @@
         <v>44056</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>127</v>
@@ -18566,9 +18759,11 @@
         <v>104</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="K387" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="K387" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="L387" s="2"/>
       <c r="M387" s="2">
         <v>0</v>
@@ -18598,16 +18793,20 @@
         <v>44057</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J388" s="3"/>
-      <c r="K388" s="2"/>
+      <c r="J388" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="K388" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L388" s="2"/>
       <c r="M388" s="2">
         <v>0</v>
@@ -18628,7 +18827,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E389" s="10">
         <v>44057</v>
@@ -18643,10 +18842,14 @@
         <v>123</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J389" s="3"/>
-      <c r="K389" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="J389" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K389" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L389" s="2"/>
       <c r="M389" s="2">
         <v>0</v>
@@ -18667,7 +18870,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E390" s="10">
         <v>44057</v>
@@ -18682,10 +18885,14 @@
         <v>55</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J390" s="3"/>
-      <c r="K390" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="J390" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K390" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="L390" s="2"/>
       <c r="M390" s="2">
         <v>0</v>
@@ -18706,7 +18913,7 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E391" s="10">
         <v>44057</v>
@@ -18721,10 +18928,14 @@
         <v>123</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J391" s="3"/>
-      <c r="K391" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="J391" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K391" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L391" s="2"/>
       <c r="M391" s="2">
         <v>0</v>
@@ -18747,14 +18958,24 @@
       <c r="D392" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E392" s="10"/>
+      <c r="E392" s="10">
+        <v>44057</v>
+      </c>
       <c r="F392" s="10">
         <v>44057</v>
       </c>
-      <c r="G392" s="2"/>
-      <c r="H392" s="2"/>
-      <c r="I392" s="2"/>
-      <c r="J392" s="3"/>
+      <c r="G392" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H392" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I392" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J392" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
       <c r="M392" s="2">
@@ -18778,14 +18999,24 @@
       <c r="D393" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E393" s="10"/>
+      <c r="E393" s="10">
+        <v>44057</v>
+      </c>
       <c r="F393" s="10">
         <v>44057</v>
       </c>
-      <c r="G393" s="2"/>
-      <c r="H393" s="2"/>
-      <c r="I393" s="2"/>
-      <c r="J393" s="3"/>
+      <c r="G393" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I393" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J393" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
       <c r="M393" s="2">
@@ -18796,8 +19027,4470 @@
       </c>
       <c r="O393" s="2"/>
     </row>
+    <row r="394" spans="1:15">
+      <c r="A394" s="2">
+        <v>393</v>
+      </c>
+      <c r="B394" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D394" s="2"/>
+      <c r="E394" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F394" s="10">
+        <v>44057</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H394" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J394" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="K394" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L394" s="2"/>
+      <c r="M394" s="2">
+        <v>0</v>
+      </c>
+      <c r="N394" s="2">
+        <v>0</v>
+      </c>
+      <c r="O394" s="2"/>
+    </row>
+    <row r="395" spans="1:15">
+      <c r="A395" s="2">
+        <v>394</v>
+      </c>
+      <c r="B395" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="2"/>
+      <c r="E395" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F395" s="10">
+        <v>44057</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H395" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I395" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J395" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K395" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L395" s="2"/>
+      <c r="M395" s="2">
+        <v>0</v>
+      </c>
+      <c r="N395" s="2">
+        <v>0</v>
+      </c>
+      <c r="O395" s="2"/>
+    </row>
+    <row r="396" spans="1:15">
+      <c r="A396" s="2">
+        <v>395</v>
+      </c>
+      <c r="B396" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E396" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F396" s="10">
+        <v>44058</v>
+      </c>
+      <c r="G396" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H396" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I396" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J396" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K396" s="2"/>
+      <c r="L396" s="2"/>
+      <c r="M396" s="2">
+        <v>0</v>
+      </c>
+      <c r="N396" s="2">
+        <v>0</v>
+      </c>
+      <c r="O396" s="2"/>
+    </row>
+    <row r="397" spans="1:15">
+      <c r="A397" s="2">
+        <v>396</v>
+      </c>
+      <c r="B397" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E397" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F397" s="10">
+        <v>44058</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H397" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J397" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K397" s="2"/>
+      <c r="L397" s="2"/>
+      <c r="M397" s="2">
+        <v>0</v>
+      </c>
+      <c r="N397" s="2">
+        <v>0</v>
+      </c>
+      <c r="O397" s="2"/>
+    </row>
+    <row r="398" spans="1:15">
+      <c r="A398" s="2">
+        <v>397</v>
+      </c>
+      <c r="B398" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E398" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F398" s="10">
+        <v>44058</v>
+      </c>
+      <c r="G398" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H398" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I398" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J398" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K398" s="4"/>
+      <c r="L398" s="4"/>
+      <c r="M398" s="4">
+        <v>0</v>
+      </c>
+      <c r="N398" s="4">
+        <v>0</v>
+      </c>
+      <c r="O398" s="4"/>
+    </row>
+    <row r="399" spans="1:15">
+      <c r="A399" s="2">
+        <v>398</v>
+      </c>
+      <c r="B399" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E399" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F399" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I399" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J399" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K399" s="2"/>
+      <c r="L399" s="2"/>
+      <c r="M399" s="4">
+        <v>0</v>
+      </c>
+      <c r="N399" s="4">
+        <v>0</v>
+      </c>
+      <c r="O399" s="2"/>
+    </row>
+    <row r="400" spans="1:15">
+      <c r="A400" s="2">
+        <v>399</v>
+      </c>
+      <c r="B400" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F400" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H400" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I400" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J400" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K400" s="2"/>
+      <c r="L400" s="2"/>
+      <c r="M400" s="4">
+        <v>0</v>
+      </c>
+      <c r="N400" s="4">
+        <v>0</v>
+      </c>
+      <c r="O400" s="2"/>
+    </row>
+    <row r="401" spans="1:15">
+      <c r="A401" s="2">
+        <v>400</v>
+      </c>
+      <c r="B401" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E401" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F401" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I401" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J401" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K401" s="2"/>
+      <c r="L401" s="2"/>
+      <c r="M401" s="4">
+        <v>0</v>
+      </c>
+      <c r="N401" s="4">
+        <v>0</v>
+      </c>
+      <c r="O401" s="2"/>
+    </row>
+    <row r="402" spans="1:15">
+      <c r="A402" s="2">
+        <v>401</v>
+      </c>
+      <c r="B402" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E402" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F402" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G402" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H402" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I402" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J402" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K402" s="2"/>
+      <c r="L402" s="2"/>
+      <c r="M402" s="4">
+        <v>0</v>
+      </c>
+      <c r="N402" s="4">
+        <v>0</v>
+      </c>
+      <c r="O402" s="2"/>
+    </row>
+    <row r="403" spans="1:15">
+      <c r="A403" s="2">
+        <v>402</v>
+      </c>
+      <c r="B403" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E403" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F403" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H403" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I403" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J403" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K403" s="2"/>
+      <c r="L403" s="2"/>
+      <c r="M403" s="4">
+        <v>0</v>
+      </c>
+      <c r="N403" s="4">
+        <v>0</v>
+      </c>
+      <c r="O403" s="2"/>
+    </row>
+    <row r="404" spans="1:15">
+      <c r="A404" s="2">
+        <v>403</v>
+      </c>
+      <c r="B404" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E404" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F404" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G404" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H404" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I404" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J404" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K404" s="2"/>
+      <c r="L404" s="2"/>
+      <c r="M404" s="2">
+        <v>0</v>
+      </c>
+      <c r="N404" s="2">
+        <v>0</v>
+      </c>
+      <c r="O404" s="2"/>
+    </row>
+    <row r="405" spans="1:15">
+      <c r="A405" s="2">
+        <v>404</v>
+      </c>
+      <c r="B405" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D405" s="2"/>
+      <c r="E405" s="10"/>
+      <c r="F405" s="20"/>
+      <c r="G405" s="2"/>
+      <c r="H405" s="2"/>
+      <c r="I405" s="2"/>
+      <c r="J405" s="3"/>
+      <c r="K405" s="2"/>
+      <c r="L405" s="2"/>
+      <c r="M405" s="4"/>
+      <c r="N405" s="4"/>
+      <c r="O405" s="2"/>
+    </row>
+    <row r="406" spans="1:15">
+      <c r="A406" s="2">
+        <v>405</v>
+      </c>
+      <c r="B406" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D406" s="2"/>
+      <c r="E406" s="10"/>
+      <c r="F406" s="20"/>
+      <c r="G406" s="2"/>
+      <c r="H406" s="2"/>
+      <c r="I406" s="2"/>
+      <c r="J406" s="3"/>
+      <c r="K406" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L406" s="2"/>
+      <c r="M406" s="4"/>
+      <c r="N406" s="4"/>
+      <c r="O406" s="2"/>
+    </row>
+    <row r="407" spans="1:15">
+      <c r="A407" s="2">
+        <v>406</v>
+      </c>
+      <c r="B407" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D407" s="2"/>
+      <c r="E407" s="10"/>
+      <c r="F407" s="20"/>
+      <c r="G407" s="2"/>
+      <c r="H407" s="2"/>
+      <c r="I407" s="2"/>
+      <c r="J407" s="3"/>
+      <c r="K407" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L407" s="2"/>
+      <c r="M407" s="2"/>
+      <c r="N407" s="2">
+        <v>0</v>
+      </c>
+      <c r="O407" s="2"/>
+    </row>
+    <row r="408" spans="1:15">
+      <c r="K408" s="7"/>
+      <c r="L408" s="7"/>
+      <c r="M408" s="7"/>
+      <c r="N408" s="7"/>
+    </row>
+    <row r="409" spans="1:15">
+      <c r="K409" s="7"/>
+      <c r="L409" s="7"/>
+      <c r="M409" s="7"/>
+      <c r="N409" s="7"/>
+    </row>
+    <row r="410" spans="1:15">
+      <c r="K410" s="7"/>
+      <c r="L410" s="7"/>
+      <c r="M410" s="7"/>
+      <c r="N410" s="7"/>
+    </row>
+    <row r="411" spans="1:15">
+      <c r="K411" s="7"/>
+      <c r="L411" s="7"/>
+      <c r="M411" s="7"/>
+      <c r="N411" s="7"/>
+    </row>
+    <row r="412" spans="1:15">
+      <c r="K412" s="7"/>
+      <c r="L412" s="7"/>
+      <c r="M412" s="7"/>
+      <c r="N412" s="7"/>
+    </row>
+    <row r="413" spans="1:15">
+      <c r="K413" s="7"/>
+      <c r="L413" s="7"/>
+      <c r="M413" s="7"/>
+      <c r="N413" s="7"/>
+    </row>
+    <row r="414" spans="1:15">
+      <c r="K414" s="7"/>
+      <c r="L414" s="7"/>
+      <c r="M414" s="7"/>
+      <c r="N414" s="7"/>
+    </row>
+    <row r="415" spans="1:15">
+      <c r="K415" s="7"/>
+      <c r="L415" s="7"/>
+      <c r="M415" s="7"/>
+      <c r="N415" s="7"/>
+    </row>
+    <row r="416" spans="1:15">
+      <c r="K416" s="7"/>
+      <c r="L416" s="7"/>
+      <c r="M416" s="7"/>
+      <c r="N416" s="7"/>
+    </row>
+    <row r="417" spans="11:14">
+      <c r="K417" s="7"/>
+      <c r="L417" s="7"/>
+      <c r="M417" s="7"/>
+      <c r="N417" s="7"/>
+    </row>
+    <row r="418" spans="11:14">
+      <c r="K418" s="7"/>
+      <c r="L418" s="7"/>
+      <c r="M418" s="7"/>
+      <c r="N418" s="7"/>
+    </row>
+    <row r="419" spans="11:14">
+      <c r="K419" s="7"/>
+      <c r="L419" s="7"/>
+      <c r="M419" s="7"/>
+      <c r="N419" s="7"/>
+    </row>
+    <row r="420" spans="11:14">
+      <c r="K420" s="7"/>
+      <c r="L420" s="7"/>
+      <c r="M420" s="7"/>
+      <c r="N420" s="7"/>
+    </row>
+    <row r="421" spans="11:14">
+      <c r="K421" s="7"/>
+      <c r="L421" s="7"/>
+      <c r="M421" s="7"/>
+      <c r="N421" s="7"/>
+    </row>
+    <row r="422" spans="11:14">
+      <c r="K422" s="7"/>
+      <c r="L422" s="7"/>
+      <c r="M422" s="7"/>
+      <c r="N422" s="7"/>
+    </row>
+    <row r="423" spans="11:14">
+      <c r="K423" s="7"/>
+      <c r="L423" s="7"/>
+      <c r="M423" s="7"/>
+      <c r="N423" s="7"/>
+    </row>
+    <row r="424" spans="11:14">
+      <c r="K424" s="7"/>
+      <c r="L424" s="7"/>
+      <c r="M424" s="7"/>
+      <c r="N424" s="7"/>
+    </row>
+    <row r="425" spans="11:14">
+      <c r="K425" s="7"/>
+      <c r="L425" s="7"/>
+      <c r="M425" s="7"/>
+      <c r="N425" s="7"/>
+    </row>
+    <row r="426" spans="11:14">
+      <c r="K426" s="7"/>
+      <c r="L426" s="7"/>
+      <c r="M426" s="7"/>
+      <c r="N426" s="7"/>
+    </row>
+    <row r="427" spans="11:14">
+      <c r="K427" s="7"/>
+      <c r="L427" s="7"/>
+      <c r="M427" s="7"/>
+      <c r="N427" s="7"/>
+    </row>
+    <row r="428" spans="11:14">
+      <c r="K428" s="7"/>
+      <c r="L428" s="7"/>
+      <c r="M428" s="7"/>
+      <c r="N428" s="7"/>
+    </row>
+    <row r="429" spans="11:14">
+      <c r="K429" s="7"/>
+      <c r="L429" s="7"/>
+      <c r="M429" s="7"/>
+      <c r="N429" s="7"/>
+    </row>
+    <row r="430" spans="11:14">
+      <c r="K430" s="7"/>
+      <c r="L430" s="7"/>
+      <c r="M430" s="7"/>
+      <c r="N430" s="7"/>
+    </row>
+    <row r="431" spans="11:14">
+      <c r="K431" s="7"/>
+      <c r="L431" s="7"/>
+      <c r="M431" s="7"/>
+      <c r="N431" s="7"/>
+    </row>
+    <row r="432" spans="11:14">
+      <c r="K432" s="7"/>
+      <c r="L432" s="7"/>
+      <c r="M432" s="7"/>
+      <c r="N432" s="7"/>
+    </row>
+    <row r="433" spans="11:14">
+      <c r="K433" s="7"/>
+      <c r="L433" s="7"/>
+      <c r="M433" s="7"/>
+      <c r="N433" s="7"/>
+    </row>
+    <row r="434" spans="11:14">
+      <c r="K434" s="7"/>
+      <c r="L434" s="7"/>
+      <c r="M434" s="7"/>
+      <c r="N434" s="7"/>
+    </row>
+    <row r="435" spans="11:14">
+      <c r="K435" s="7"/>
+      <c r="L435" s="7"/>
+      <c r="M435" s="7"/>
+      <c r="N435" s="7"/>
+    </row>
+    <row r="436" spans="11:14">
+      <c r="K436" s="7"/>
+      <c r="L436" s="7"/>
+      <c r="M436" s="7"/>
+      <c r="N436" s="7"/>
+    </row>
+    <row r="437" spans="11:14">
+      <c r="K437" s="7"/>
+      <c r="L437" s="7"/>
+      <c r="M437" s="7"/>
+      <c r="N437" s="7"/>
+    </row>
+    <row r="438" spans="11:14">
+      <c r="K438" s="7"/>
+      <c r="L438" s="7"/>
+      <c r="M438" s="7"/>
+      <c r="N438" s="7"/>
+    </row>
+    <row r="439" spans="11:14">
+      <c r="K439" s="7"/>
+      <c r="L439" s="7"/>
+      <c r="M439" s="7"/>
+      <c r="N439" s="7"/>
+    </row>
+    <row r="440" spans="11:14">
+      <c r="K440" s="7"/>
+      <c r="L440" s="7"/>
+      <c r="M440" s="7"/>
+      <c r="N440" s="7"/>
+    </row>
+    <row r="441" spans="11:14">
+      <c r="K441" s="7"/>
+      <c r="L441" s="7"/>
+      <c r="M441" s="7"/>
+      <c r="N441" s="7"/>
+    </row>
+    <row r="442" spans="11:14">
+      <c r="K442" s="7"/>
+      <c r="L442" s="7"/>
+      <c r="M442" s="7"/>
+      <c r="N442" s="7"/>
+    </row>
+    <row r="443" spans="11:14">
+      <c r="K443" s="7"/>
+      <c r="L443" s="7"/>
+      <c r="M443" s="7"/>
+      <c r="N443" s="7"/>
+    </row>
+    <row r="444" spans="11:14">
+      <c r="K444" s="7"/>
+      <c r="L444" s="7"/>
+      <c r="M444" s="7"/>
+      <c r="N444" s="7"/>
+    </row>
+    <row r="445" spans="11:14">
+      <c r="K445" s="7"/>
+      <c r="L445" s="7"/>
+      <c r="M445" s="7"/>
+      <c r="N445" s="7"/>
+    </row>
+    <row r="446" spans="11:14">
+      <c r="K446" s="7"/>
+      <c r="L446" s="7"/>
+      <c r="M446" s="7"/>
+      <c r="N446" s="7"/>
+    </row>
+    <row r="447" spans="11:14">
+      <c r="K447" s="7"/>
+      <c r="L447" s="7"/>
+      <c r="M447" s="7"/>
+      <c r="N447" s="7"/>
+    </row>
+    <row r="448" spans="11:14">
+      <c r="K448" s="7"/>
+      <c r="L448" s="7"/>
+      <c r="M448" s="7"/>
+      <c r="N448" s="7"/>
+    </row>
+    <row r="449" spans="11:14">
+      <c r="K449" s="7"/>
+      <c r="L449" s="7"/>
+      <c r="M449" s="7"/>
+      <c r="N449" s="7"/>
+    </row>
+    <row r="450" spans="11:14">
+      <c r="K450" s="7"/>
+      <c r="L450" s="7"/>
+      <c r="M450" s="7"/>
+      <c r="N450" s="7"/>
+    </row>
+    <row r="451" spans="11:14">
+      <c r="K451" s="7"/>
+      <c r="L451" s="7"/>
+      <c r="M451" s="7"/>
+      <c r="N451" s="7"/>
+    </row>
+    <row r="452" spans="11:14">
+      <c r="K452" s="7"/>
+      <c r="L452" s="7"/>
+      <c r="M452" s="7"/>
+      <c r="N452" s="7"/>
+    </row>
+    <row r="453" spans="11:14">
+      <c r="K453" s="7"/>
+      <c r="L453" s="7"/>
+      <c r="M453" s="7"/>
+      <c r="N453" s="7"/>
+    </row>
+    <row r="454" spans="11:14">
+      <c r="K454" s="7"/>
+      <c r="L454" s="7"/>
+      <c r="M454" s="7"/>
+      <c r="N454" s="7"/>
+    </row>
+    <row r="455" spans="11:14">
+      <c r="K455" s="7"/>
+      <c r="L455" s="7"/>
+      <c r="M455" s="7"/>
+      <c r="N455" s="7"/>
+    </row>
+    <row r="456" spans="11:14">
+      <c r="K456" s="7"/>
+      <c r="L456" s="7"/>
+      <c r="M456" s="7"/>
+      <c r="N456" s="7"/>
+    </row>
+    <row r="457" spans="11:14">
+      <c r="K457" s="7"/>
+      <c r="L457" s="7"/>
+      <c r="M457" s="7"/>
+      <c r="N457" s="7"/>
+    </row>
+    <row r="458" spans="11:14">
+      <c r="K458" s="7"/>
+      <c r="L458" s="7"/>
+      <c r="M458" s="7"/>
+      <c r="N458" s="7"/>
+    </row>
+    <row r="459" spans="11:14">
+      <c r="K459" s="7"/>
+      <c r="L459" s="7"/>
+      <c r="M459" s="7"/>
+      <c r="N459" s="7"/>
+    </row>
+    <row r="460" spans="11:14">
+      <c r="K460" s="7"/>
+      <c r="L460" s="7"/>
+      <c r="M460" s="7"/>
+      <c r="N460" s="7"/>
+    </row>
+    <row r="461" spans="11:14">
+      <c r="K461" s="7"/>
+      <c r="L461" s="7"/>
+      <c r="M461" s="7"/>
+      <c r="N461" s="7"/>
+    </row>
+    <row r="462" spans="11:14">
+      <c r="K462" s="7"/>
+      <c r="L462" s="7"/>
+      <c r="M462" s="7"/>
+      <c r="N462" s="7"/>
+    </row>
+    <row r="463" spans="11:14">
+      <c r="K463" s="7"/>
+      <c r="L463" s="7"/>
+      <c r="M463" s="7"/>
+      <c r="N463" s="7"/>
+    </row>
+    <row r="464" spans="11:14">
+      <c r="K464" s="7"/>
+      <c r="L464" s="7"/>
+      <c r="M464" s="7"/>
+      <c r="N464" s="7"/>
+    </row>
+    <row r="465" spans="11:14">
+      <c r="K465" s="7"/>
+      <c r="L465" s="7"/>
+      <c r="M465" s="7"/>
+      <c r="N465" s="7"/>
+    </row>
+    <row r="466" spans="11:14">
+      <c r="K466" s="7"/>
+      <c r="L466" s="7"/>
+      <c r="M466" s="7"/>
+      <c r="N466" s="7"/>
+    </row>
+    <row r="467" spans="11:14">
+      <c r="K467" s="7"/>
+      <c r="L467" s="7"/>
+      <c r="M467" s="7"/>
+      <c r="N467" s="7"/>
+    </row>
+    <row r="468" spans="11:14">
+      <c r="K468" s="7"/>
+      <c r="L468" s="7"/>
+      <c r="M468" s="7"/>
+      <c r="N468" s="7"/>
+    </row>
+    <row r="469" spans="11:14">
+      <c r="K469" s="7"/>
+      <c r="L469" s="7"/>
+      <c r="M469" s="7"/>
+      <c r="N469" s="7"/>
+    </row>
+    <row r="470" spans="11:14">
+      <c r="K470" s="7"/>
+      <c r="L470" s="7"/>
+      <c r="M470" s="7"/>
+      <c r="N470" s="7"/>
+    </row>
+    <row r="471" spans="11:14">
+      <c r="K471" s="7"/>
+      <c r="L471" s="7"/>
+      <c r="M471" s="7"/>
+      <c r="N471" s="7"/>
+    </row>
+    <row r="472" spans="11:14">
+      <c r="K472" s="7"/>
+      <c r="L472" s="7"/>
+      <c r="M472" s="7"/>
+      <c r="N472" s="7"/>
+    </row>
+    <row r="473" spans="11:14">
+      <c r="K473" s="7"/>
+      <c r="L473" s="7"/>
+      <c r="M473" s="7"/>
+      <c r="N473" s="7"/>
+    </row>
+    <row r="474" spans="11:14">
+      <c r="K474" s="7"/>
+      <c r="L474" s="7"/>
+      <c r="M474" s="7"/>
+      <c r="N474" s="7"/>
+    </row>
+    <row r="475" spans="11:14">
+      <c r="K475" s="7"/>
+      <c r="L475" s="7"/>
+      <c r="M475" s="7"/>
+      <c r="N475" s="7"/>
+    </row>
+    <row r="476" spans="11:14">
+      <c r="K476" s="7"/>
+      <c r="L476" s="7"/>
+      <c r="M476" s="7"/>
+      <c r="N476" s="7"/>
+    </row>
+    <row r="477" spans="11:14">
+      <c r="K477" s="7"/>
+      <c r="L477" s="7"/>
+      <c r="M477" s="7"/>
+      <c r="N477" s="7"/>
+    </row>
+    <row r="478" spans="11:14">
+      <c r="K478" s="7"/>
+      <c r="L478" s="7"/>
+      <c r="M478" s="7"/>
+      <c r="N478" s="7"/>
+    </row>
+    <row r="479" spans="11:14">
+      <c r="K479" s="7"/>
+      <c r="L479" s="7"/>
+      <c r="M479" s="7"/>
+      <c r="N479" s="7"/>
+    </row>
+    <row r="480" spans="11:14">
+      <c r="K480" s="7"/>
+      <c r="L480" s="7"/>
+      <c r="M480" s="7"/>
+      <c r="N480" s="7"/>
+    </row>
+    <row r="481" spans="11:14">
+      <c r="K481" s="7"/>
+      <c r="L481" s="7"/>
+      <c r="M481" s="7"/>
+      <c r="N481" s="7"/>
+    </row>
+    <row r="482" spans="11:14">
+      <c r="K482" s="7"/>
+      <c r="L482" s="7"/>
+      <c r="M482" s="7"/>
+      <c r="N482" s="7"/>
+    </row>
+    <row r="483" spans="11:14">
+      <c r="K483" s="7"/>
+      <c r="L483" s="7"/>
+      <c r="M483" s="7"/>
+      <c r="N483" s="7"/>
+    </row>
+    <row r="484" spans="11:14">
+      <c r="K484" s="7"/>
+      <c r="L484" s="7"/>
+      <c r="M484" s="7"/>
+      <c r="N484" s="7"/>
+    </row>
+    <row r="485" spans="11:14">
+      <c r="K485" s="7"/>
+      <c r="L485" s="7"/>
+      <c r="M485" s="7"/>
+      <c r="N485" s="7"/>
+    </row>
+    <row r="486" spans="11:14">
+      <c r="K486" s="7"/>
+      <c r="L486" s="7"/>
+      <c r="M486" s="7"/>
+      <c r="N486" s="7"/>
+    </row>
+    <row r="487" spans="11:14">
+      <c r="K487" s="7"/>
+      <c r="L487" s="7"/>
+      <c r="M487" s="7"/>
+      <c r="N487" s="7"/>
+    </row>
+    <row r="488" spans="11:14">
+      <c r="K488" s="7"/>
+      <c r="L488" s="7"/>
+      <c r="M488" s="7"/>
+      <c r="N488" s="7"/>
+    </row>
+    <row r="489" spans="11:14">
+      <c r="K489" s="7"/>
+      <c r="L489" s="7"/>
+      <c r="M489" s="7"/>
+      <c r="N489" s="7"/>
+    </row>
+    <row r="490" spans="11:14">
+      <c r="K490" s="7"/>
+      <c r="L490" s="7"/>
+      <c r="M490" s="7"/>
+      <c r="N490" s="7"/>
+    </row>
+    <row r="491" spans="11:14">
+      <c r="K491" s="7"/>
+      <c r="L491" s="7"/>
+      <c r="M491" s="7"/>
+      <c r="N491" s="7"/>
+    </row>
+    <row r="492" spans="11:14">
+      <c r="K492" s="7"/>
+      <c r="L492" s="7"/>
+      <c r="M492" s="7"/>
+      <c r="N492" s="7"/>
+    </row>
+    <row r="493" spans="11:14">
+      <c r="K493" s="7"/>
+      <c r="L493" s="7"/>
+      <c r="M493" s="7"/>
+      <c r="N493" s="7"/>
+    </row>
+    <row r="494" spans="11:14">
+      <c r="K494" s="7"/>
+      <c r="L494" s="7"/>
+      <c r="M494" s="7"/>
+      <c r="N494" s="7"/>
+    </row>
+    <row r="495" spans="11:14">
+      <c r="K495" s="7"/>
+      <c r="L495" s="7"/>
+      <c r="M495" s="7"/>
+      <c r="N495" s="7"/>
+    </row>
+    <row r="496" spans="11:14">
+      <c r="K496" s="7"/>
+      <c r="L496" s="7"/>
+      <c r="M496" s="7"/>
+      <c r="N496" s="7"/>
+    </row>
+    <row r="497" spans="11:14">
+      <c r="K497" s="7"/>
+      <c r="L497" s="7"/>
+      <c r="M497" s="7"/>
+      <c r="N497" s="7"/>
+    </row>
+    <row r="498" spans="11:14">
+      <c r="K498" s="7"/>
+      <c r="L498" s="7"/>
+      <c r="M498" s="7"/>
+      <c r="N498" s="7"/>
+    </row>
+    <row r="499" spans="11:14">
+      <c r="K499" s="7"/>
+      <c r="L499" s="7"/>
+      <c r="M499" s="7"/>
+      <c r="N499" s="7"/>
+    </row>
+    <row r="500" spans="11:14">
+      <c r="K500" s="7"/>
+      <c r="L500" s="7"/>
+      <c r="M500" s="7"/>
+      <c r="N500" s="7"/>
+    </row>
+    <row r="501" spans="11:14">
+      <c r="K501" s="7"/>
+      <c r="L501" s="7"/>
+      <c r="M501" s="7"/>
+      <c r="N501" s="7"/>
+    </row>
+    <row r="502" spans="11:14">
+      <c r="K502" s="7"/>
+      <c r="L502" s="7"/>
+      <c r="M502" s="7"/>
+      <c r="N502" s="7"/>
+    </row>
+    <row r="503" spans="11:14">
+      <c r="K503" s="7"/>
+      <c r="L503" s="7"/>
+      <c r="M503" s="7"/>
+      <c r="N503" s="7"/>
+    </row>
+    <row r="504" spans="11:14">
+      <c r="K504" s="7"/>
+      <c r="L504" s="7"/>
+      <c r="M504" s="7"/>
+      <c r="N504" s="7"/>
+    </row>
+    <row r="505" spans="11:14">
+      <c r="K505" s="7"/>
+      <c r="L505" s="7"/>
+      <c r="M505" s="7"/>
+      <c r="N505" s="7"/>
+    </row>
+    <row r="506" spans="11:14">
+      <c r="K506" s="7"/>
+      <c r="L506" s="7"/>
+      <c r="M506" s="7"/>
+      <c r="N506" s="7"/>
+    </row>
+    <row r="507" spans="11:14">
+      <c r="K507" s="7"/>
+      <c r="L507" s="7"/>
+      <c r="M507" s="7"/>
+      <c r="N507" s="7"/>
+    </row>
+    <row r="508" spans="11:14">
+      <c r="K508" s="7"/>
+      <c r="L508" s="7"/>
+      <c r="M508" s="7"/>
+      <c r="N508" s="7"/>
+    </row>
+    <row r="509" spans="11:14">
+      <c r="K509" s="7"/>
+      <c r="L509" s="7"/>
+      <c r="M509" s="7"/>
+      <c r="N509" s="7"/>
+    </row>
+    <row r="510" spans="11:14">
+      <c r="K510" s="7"/>
+      <c r="L510" s="7"/>
+      <c r="M510" s="7"/>
+      <c r="N510" s="7"/>
+    </row>
+    <row r="511" spans="11:14">
+      <c r="K511" s="7"/>
+      <c r="L511" s="7"/>
+      <c r="M511" s="7"/>
+      <c r="N511" s="7"/>
+    </row>
+    <row r="512" spans="11:14">
+      <c r="K512" s="7"/>
+      <c r="L512" s="7"/>
+      <c r="M512" s="7"/>
+      <c r="N512" s="7"/>
+    </row>
+    <row r="513" spans="11:14">
+      <c r="K513" s="7"/>
+      <c r="L513" s="7"/>
+      <c r="M513" s="7"/>
+      <c r="N513" s="7"/>
+    </row>
+    <row r="514" spans="11:14">
+      <c r="K514" s="7"/>
+      <c r="L514" s="7"/>
+      <c r="M514" s="7"/>
+      <c r="N514" s="7"/>
+    </row>
+    <row r="515" spans="11:14">
+      <c r="K515" s="7"/>
+      <c r="L515" s="7"/>
+      <c r="M515" s="7"/>
+      <c r="N515" s="7"/>
+    </row>
+    <row r="516" spans="11:14">
+      <c r="K516" s="7"/>
+      <c r="L516" s="7"/>
+      <c r="M516" s="7"/>
+      <c r="N516" s="7"/>
+    </row>
+    <row r="517" spans="11:14">
+      <c r="K517" s="7"/>
+      <c r="L517" s="7"/>
+      <c r="M517" s="7"/>
+      <c r="N517" s="7"/>
+    </row>
+    <row r="518" spans="11:14">
+      <c r="K518" s="7"/>
+      <c r="L518" s="7"/>
+      <c r="M518" s="7"/>
+      <c r="N518" s="7"/>
+    </row>
+    <row r="519" spans="11:14">
+      <c r="K519" s="7"/>
+      <c r="L519" s="7"/>
+      <c r="M519" s="7"/>
+      <c r="N519" s="7"/>
+    </row>
+    <row r="520" spans="11:14">
+      <c r="K520" s="7"/>
+      <c r="L520" s="7"/>
+      <c r="M520" s="7"/>
+      <c r="N520" s="7"/>
+    </row>
+    <row r="521" spans="11:14">
+      <c r="K521" s="7"/>
+      <c r="L521" s="7"/>
+      <c r="M521" s="7"/>
+      <c r="N521" s="7"/>
+    </row>
+    <row r="522" spans="11:14">
+      <c r="K522" s="7"/>
+      <c r="L522" s="7"/>
+      <c r="M522" s="7"/>
+      <c r="N522" s="7"/>
+    </row>
+    <row r="523" spans="11:14">
+      <c r="K523" s="7"/>
+      <c r="L523" s="7"/>
+      <c r="M523" s="7"/>
+      <c r="N523" s="7"/>
+    </row>
+    <row r="524" spans="11:14">
+      <c r="K524" s="7"/>
+      <c r="L524" s="7"/>
+      <c r="M524" s="7"/>
+      <c r="N524" s="7"/>
+    </row>
+    <row r="525" spans="11:14">
+      <c r="K525" s="7"/>
+      <c r="L525" s="7"/>
+      <c r="M525" s="7"/>
+      <c r="N525" s="7"/>
+    </row>
+    <row r="526" spans="11:14">
+      <c r="K526" s="7"/>
+      <c r="L526" s="7"/>
+      <c r="M526" s="7"/>
+      <c r="N526" s="7"/>
+    </row>
+    <row r="527" spans="11:14">
+      <c r="K527" s="7"/>
+      <c r="L527" s="7"/>
+      <c r="M527" s="7"/>
+      <c r="N527" s="7"/>
+    </row>
+    <row r="528" spans="11:14">
+      <c r="K528" s="7"/>
+      <c r="L528" s="7"/>
+      <c r="M528" s="7"/>
+      <c r="N528" s="7"/>
+    </row>
+    <row r="529" spans="11:14">
+      <c r="K529" s="7"/>
+      <c r="L529" s="7"/>
+      <c r="M529" s="7"/>
+      <c r="N529" s="7"/>
+    </row>
+    <row r="530" spans="11:14">
+      <c r="K530" s="7"/>
+      <c r="L530" s="7"/>
+      <c r="M530" s="7"/>
+      <c r="N530" s="7"/>
+    </row>
+    <row r="531" spans="11:14">
+      <c r="K531" s="7"/>
+      <c r="L531" s="7"/>
+      <c r="M531" s="7"/>
+      <c r="N531" s="7"/>
+    </row>
+    <row r="532" spans="11:14">
+      <c r="K532" s="7"/>
+      <c r="L532" s="7"/>
+      <c r="M532" s="7"/>
+      <c r="N532" s="7"/>
+    </row>
+    <row r="533" spans="11:14">
+      <c r="K533" s="7"/>
+      <c r="L533" s="7"/>
+      <c r="M533" s="7"/>
+      <c r="N533" s="7"/>
+    </row>
+    <row r="534" spans="11:14">
+      <c r="K534" s="7"/>
+      <c r="L534" s="7"/>
+      <c r="M534" s="7"/>
+      <c r="N534" s="7"/>
+    </row>
+    <row r="535" spans="11:14">
+      <c r="K535" s="7"/>
+      <c r="L535" s="7"/>
+      <c r="M535" s="7"/>
+      <c r="N535" s="7"/>
+    </row>
+    <row r="536" spans="11:14">
+      <c r="K536" s="7"/>
+      <c r="L536" s="7"/>
+      <c r="M536" s="7"/>
+      <c r="N536" s="7"/>
+    </row>
+    <row r="537" spans="11:14">
+      <c r="K537" s="7"/>
+      <c r="L537" s="7"/>
+      <c r="M537" s="7"/>
+      <c r="N537" s="7"/>
+    </row>
+    <row r="538" spans="11:14">
+      <c r="K538" s="7"/>
+      <c r="L538" s="7"/>
+      <c r="M538" s="7"/>
+      <c r="N538" s="7"/>
+    </row>
+    <row r="539" spans="11:14">
+      <c r="K539" s="7"/>
+      <c r="L539" s="7"/>
+      <c r="M539" s="7"/>
+      <c r="N539" s="7"/>
+    </row>
+    <row r="540" spans="11:14">
+      <c r="K540" s="7"/>
+      <c r="L540" s="7"/>
+      <c r="M540" s="7"/>
+      <c r="N540" s="7"/>
+    </row>
+    <row r="541" spans="11:14">
+      <c r="K541" s="7"/>
+      <c r="L541" s="7"/>
+      <c r="M541" s="7"/>
+      <c r="N541" s="7"/>
+    </row>
+    <row r="542" spans="11:14">
+      <c r="K542" s="7"/>
+      <c r="L542" s="7"/>
+      <c r="M542" s="7"/>
+      <c r="N542" s="7"/>
+    </row>
+    <row r="543" spans="11:14">
+      <c r="K543" s="7"/>
+      <c r="L543" s="7"/>
+      <c r="M543" s="7"/>
+      <c r="N543" s="7"/>
+    </row>
+    <row r="544" spans="11:14">
+      <c r="K544" s="7"/>
+      <c r="L544" s="7"/>
+      <c r="M544" s="7"/>
+      <c r="N544" s="7"/>
+    </row>
+    <row r="545" spans="11:14">
+      <c r="K545" s="7"/>
+      <c r="L545" s="7"/>
+      <c r="M545" s="7"/>
+      <c r="N545" s="7"/>
+    </row>
+    <row r="546" spans="11:14">
+      <c r="K546" s="7"/>
+      <c r="L546" s="7"/>
+      <c r="M546" s="7"/>
+      <c r="N546" s="7"/>
+    </row>
+    <row r="547" spans="11:14">
+      <c r="K547" s="7"/>
+      <c r="L547" s="7"/>
+      <c r="M547" s="7"/>
+      <c r="N547" s="7"/>
+    </row>
+    <row r="548" spans="11:14">
+      <c r="K548" s="7"/>
+      <c r="L548" s="7"/>
+      <c r="M548" s="7"/>
+      <c r="N548" s="7"/>
+    </row>
+    <row r="549" spans="11:14">
+      <c r="K549" s="7"/>
+      <c r="L549" s="7"/>
+      <c r="M549" s="7"/>
+      <c r="N549" s="7"/>
+    </row>
+    <row r="550" spans="11:14">
+      <c r="K550" s="7"/>
+      <c r="L550" s="7"/>
+      <c r="M550" s="7"/>
+      <c r="N550" s="7"/>
+    </row>
+    <row r="551" spans="11:14">
+      <c r="K551" s="7"/>
+      <c r="L551" s="7"/>
+      <c r="M551" s="7"/>
+      <c r="N551" s="7"/>
+    </row>
+    <row r="552" spans="11:14">
+      <c r="K552" s="7"/>
+      <c r="L552" s="7"/>
+      <c r="M552" s="7"/>
+      <c r="N552" s="7"/>
+    </row>
+    <row r="553" spans="11:14">
+      <c r="K553" s="7"/>
+      <c r="L553" s="7"/>
+      <c r="M553" s="7"/>
+      <c r="N553" s="7"/>
+    </row>
+    <row r="554" spans="11:14">
+      <c r="K554" s="7"/>
+      <c r="L554" s="7"/>
+      <c r="M554" s="7"/>
+      <c r="N554" s="7"/>
+    </row>
+    <row r="555" spans="11:14">
+      <c r="K555" s="7"/>
+      <c r="L555" s="7"/>
+      <c r="M555" s="7"/>
+      <c r="N555" s="7"/>
+    </row>
+    <row r="556" spans="11:14">
+      <c r="K556" s="7"/>
+      <c r="L556" s="7"/>
+      <c r="M556" s="7"/>
+      <c r="N556" s="7"/>
+    </row>
+    <row r="557" spans="11:14">
+      <c r="K557" s="7"/>
+      <c r="L557" s="7"/>
+      <c r="M557" s="7"/>
+      <c r="N557" s="7"/>
+    </row>
+    <row r="558" spans="11:14">
+      <c r="K558" s="7"/>
+      <c r="L558" s="7"/>
+      <c r="M558" s="7"/>
+      <c r="N558" s="7"/>
+    </row>
+    <row r="559" spans="11:14">
+      <c r="K559" s="7"/>
+      <c r="L559" s="7"/>
+      <c r="M559" s="7"/>
+      <c r="N559" s="7"/>
+    </row>
+    <row r="560" spans="11:14">
+      <c r="K560" s="7"/>
+      <c r="L560" s="7"/>
+      <c r="M560" s="7"/>
+      <c r="N560" s="7"/>
+    </row>
+    <row r="561" spans="11:14">
+      <c r="K561" s="7"/>
+      <c r="L561" s="7"/>
+      <c r="M561" s="7"/>
+      <c r="N561" s="7"/>
+    </row>
+    <row r="562" spans="11:14">
+      <c r="K562" s="7"/>
+      <c r="L562" s="7"/>
+      <c r="M562" s="7"/>
+      <c r="N562" s="7"/>
+    </row>
+    <row r="563" spans="11:14">
+      <c r="K563" s="7"/>
+      <c r="L563" s="7"/>
+      <c r="M563" s="7"/>
+      <c r="N563" s="7"/>
+    </row>
+    <row r="564" spans="11:14">
+      <c r="K564" s="7"/>
+      <c r="L564" s="7"/>
+      <c r="M564" s="7"/>
+      <c r="N564" s="7"/>
+    </row>
+    <row r="565" spans="11:14">
+      <c r="K565" s="7"/>
+      <c r="L565" s="7"/>
+      <c r="M565" s="7"/>
+      <c r="N565" s="7"/>
+    </row>
+    <row r="566" spans="11:14">
+      <c r="K566" s="7"/>
+      <c r="L566" s="7"/>
+      <c r="M566" s="7"/>
+      <c r="N566" s="7"/>
+    </row>
+    <row r="567" spans="11:14">
+      <c r="K567" s="7"/>
+      <c r="L567" s="7"/>
+      <c r="M567" s="7"/>
+      <c r="N567" s="7"/>
+    </row>
+    <row r="568" spans="11:14">
+      <c r="K568" s="7"/>
+      <c r="L568" s="7"/>
+      <c r="M568" s="7"/>
+      <c r="N568" s="7"/>
+    </row>
+    <row r="569" spans="11:14">
+      <c r="K569" s="7"/>
+      <c r="L569" s="7"/>
+      <c r="M569" s="7"/>
+      <c r="N569" s="7"/>
+    </row>
+    <row r="570" spans="11:14">
+      <c r="K570" s="7"/>
+      <c r="L570" s="7"/>
+      <c r="M570" s="7"/>
+      <c r="N570" s="7"/>
+    </row>
+    <row r="571" spans="11:14">
+      <c r="K571" s="7"/>
+      <c r="L571" s="7"/>
+      <c r="M571" s="7"/>
+      <c r="N571" s="7"/>
+    </row>
+    <row r="572" spans="11:14">
+      <c r="K572" s="7"/>
+      <c r="L572" s="7"/>
+      <c r="M572" s="7"/>
+      <c r="N572" s="7"/>
+    </row>
+    <row r="573" spans="11:14">
+      <c r="K573" s="7"/>
+      <c r="L573" s="7"/>
+      <c r="M573" s="7"/>
+      <c r="N573" s="7"/>
+    </row>
+    <row r="574" spans="11:14">
+      <c r="K574" s="7"/>
+      <c r="L574" s="7"/>
+      <c r="M574" s="7"/>
+      <c r="N574" s="7"/>
+    </row>
+    <row r="575" spans="11:14">
+      <c r="K575" s="7"/>
+      <c r="L575" s="7"/>
+      <c r="M575" s="7"/>
+      <c r="N575" s="7"/>
+    </row>
+    <row r="576" spans="11:14">
+      <c r="K576" s="7"/>
+      <c r="L576" s="7"/>
+      <c r="M576" s="7"/>
+      <c r="N576" s="7"/>
+    </row>
+    <row r="577" spans="11:14">
+      <c r="K577" s="7"/>
+      <c r="L577" s="7"/>
+      <c r="M577" s="7"/>
+      <c r="N577" s="7"/>
+    </row>
+    <row r="578" spans="11:14">
+      <c r="K578" s="7"/>
+      <c r="L578" s="7"/>
+      <c r="M578" s="7"/>
+      <c r="N578" s="7"/>
+    </row>
+    <row r="579" spans="11:14">
+      <c r="K579" s="7"/>
+      <c r="L579" s="7"/>
+      <c r="M579" s="7"/>
+      <c r="N579" s="7"/>
+    </row>
+    <row r="580" spans="11:14">
+      <c r="K580" s="7"/>
+      <c r="L580" s="7"/>
+      <c r="M580" s="7"/>
+      <c r="N580" s="7"/>
+    </row>
+    <row r="581" spans="11:14">
+      <c r="K581" s="7"/>
+      <c r="L581" s="7"/>
+      <c r="M581" s="7"/>
+      <c r="N581" s="7"/>
+    </row>
+    <row r="582" spans="11:14">
+      <c r="K582" s="7"/>
+      <c r="L582" s="7"/>
+      <c r="M582" s="7"/>
+      <c r="N582" s="7"/>
+    </row>
+    <row r="583" spans="11:14">
+      <c r="K583" s="7"/>
+      <c r="L583" s="7"/>
+      <c r="M583" s="7"/>
+      <c r="N583" s="7"/>
+    </row>
+    <row r="584" spans="11:14">
+      <c r="K584" s="7"/>
+      <c r="L584" s="7"/>
+      <c r="M584" s="7"/>
+      <c r="N584" s="7"/>
+    </row>
+    <row r="585" spans="11:14">
+      <c r="K585" s="7"/>
+      <c r="L585" s="7"/>
+      <c r="M585" s="7"/>
+      <c r="N585" s="7"/>
+    </row>
+    <row r="586" spans="11:14">
+      <c r="K586" s="7"/>
+      <c r="L586" s="7"/>
+      <c r="M586" s="7"/>
+      <c r="N586" s="7"/>
+    </row>
+    <row r="587" spans="11:14">
+      <c r="K587" s="7"/>
+      <c r="L587" s="7"/>
+      <c r="M587" s="7"/>
+      <c r="N587" s="7"/>
+    </row>
+    <row r="588" spans="11:14">
+      <c r="K588" s="7"/>
+      <c r="L588" s="7"/>
+      <c r="M588" s="7"/>
+      <c r="N588" s="7"/>
+    </row>
+    <row r="589" spans="11:14">
+      <c r="K589" s="7"/>
+      <c r="L589" s="7"/>
+      <c r="M589" s="7"/>
+      <c r="N589" s="7"/>
+    </row>
+    <row r="590" spans="11:14">
+      <c r="K590" s="7"/>
+      <c r="L590" s="7"/>
+      <c r="M590" s="7"/>
+      <c r="N590" s="7"/>
+    </row>
+    <row r="591" spans="11:14">
+      <c r="K591" s="7"/>
+      <c r="L591" s="7"/>
+      <c r="M591" s="7"/>
+      <c r="N591" s="7"/>
+    </row>
+    <row r="592" spans="11:14">
+      <c r="K592" s="7"/>
+      <c r="L592" s="7"/>
+      <c r="M592" s="7"/>
+      <c r="N592" s="7"/>
+    </row>
+    <row r="593" spans="11:14">
+      <c r="K593" s="7"/>
+      <c r="L593" s="7"/>
+      <c r="M593" s="7"/>
+      <c r="N593" s="7"/>
+    </row>
+    <row r="594" spans="11:14">
+      <c r="K594" s="7"/>
+      <c r="L594" s="7"/>
+      <c r="M594" s="7"/>
+      <c r="N594" s="7"/>
+    </row>
+    <row r="595" spans="11:14">
+      <c r="K595" s="7"/>
+      <c r="L595" s="7"/>
+      <c r="M595" s="7"/>
+      <c r="N595" s="7"/>
+    </row>
+    <row r="596" spans="11:14">
+      <c r="K596" s="7"/>
+      <c r="L596" s="7"/>
+      <c r="M596" s="7"/>
+      <c r="N596" s="7"/>
+    </row>
+    <row r="597" spans="11:14">
+      <c r="K597" s="7"/>
+      <c r="L597" s="7"/>
+      <c r="M597" s="7"/>
+      <c r="N597" s="7"/>
+    </row>
+    <row r="598" spans="11:14">
+      <c r="K598" s="7"/>
+      <c r="L598" s="7"/>
+      <c r="M598" s="7"/>
+      <c r="N598" s="7"/>
+    </row>
+    <row r="599" spans="11:14">
+      <c r="K599" s="7"/>
+      <c r="L599" s="7"/>
+      <c r="M599" s="7"/>
+      <c r="N599" s="7"/>
+    </row>
+    <row r="600" spans="11:14">
+      <c r="K600" s="7"/>
+      <c r="L600" s="7"/>
+      <c r="M600" s="7"/>
+      <c r="N600" s="7"/>
+    </row>
+    <row r="601" spans="11:14">
+      <c r="K601" s="7"/>
+      <c r="L601" s="7"/>
+      <c r="M601" s="7"/>
+      <c r="N601" s="7"/>
+    </row>
+    <row r="602" spans="11:14">
+      <c r="K602" s="7"/>
+      <c r="L602" s="7"/>
+      <c r="M602" s="7"/>
+      <c r="N602" s="7"/>
+    </row>
+    <row r="603" spans="11:14">
+      <c r="K603" s="7"/>
+      <c r="L603" s="7"/>
+      <c r="M603" s="7"/>
+      <c r="N603" s="7"/>
+    </row>
+    <row r="604" spans="11:14">
+      <c r="K604" s="7"/>
+      <c r="L604" s="7"/>
+      <c r="M604" s="7"/>
+      <c r="N604" s="7"/>
+    </row>
+    <row r="605" spans="11:14">
+      <c r="K605" s="7"/>
+      <c r="L605" s="7"/>
+      <c r="M605" s="7"/>
+      <c r="N605" s="7"/>
+    </row>
+    <row r="606" spans="11:14">
+      <c r="K606" s="7"/>
+      <c r="L606" s="7"/>
+      <c r="M606" s="7"/>
+      <c r="N606" s="7"/>
+    </row>
+    <row r="607" spans="11:14">
+      <c r="K607" s="7"/>
+      <c r="L607" s="7"/>
+      <c r="M607" s="7"/>
+      <c r="N607" s="7"/>
+    </row>
+    <row r="608" spans="11:14">
+      <c r="K608" s="7"/>
+      <c r="L608" s="7"/>
+      <c r="M608" s="7"/>
+      <c r="N608" s="7"/>
+    </row>
+    <row r="609" spans="11:14">
+      <c r="K609" s="7"/>
+      <c r="L609" s="7"/>
+      <c r="M609" s="7"/>
+      <c r="N609" s="7"/>
+    </row>
+    <row r="610" spans="11:14">
+      <c r="K610" s="7"/>
+      <c r="L610" s="7"/>
+      <c r="M610" s="7"/>
+      <c r="N610" s="7"/>
+    </row>
+    <row r="611" spans="11:14">
+      <c r="K611" s="7"/>
+      <c r="L611" s="7"/>
+      <c r="M611" s="7"/>
+      <c r="N611" s="7"/>
+    </row>
+    <row r="612" spans="11:14">
+      <c r="K612" s="7"/>
+      <c r="L612" s="7"/>
+      <c r="M612" s="7"/>
+      <c r="N612" s="7"/>
+    </row>
+    <row r="613" spans="11:14">
+      <c r="K613" s="7"/>
+      <c r="L613" s="7"/>
+      <c r="M613" s="7"/>
+      <c r="N613" s="7"/>
+    </row>
+    <row r="614" spans="11:14">
+      <c r="K614" s="7"/>
+      <c r="L614" s="7"/>
+      <c r="M614" s="7"/>
+      <c r="N614" s="7"/>
+    </row>
+    <row r="615" spans="11:14">
+      <c r="K615" s="7"/>
+      <c r="L615" s="7"/>
+      <c r="M615" s="7"/>
+      <c r="N615" s="7"/>
+    </row>
+    <row r="616" spans="11:14">
+      <c r="K616" s="7"/>
+      <c r="L616" s="7"/>
+      <c r="M616" s="7"/>
+      <c r="N616" s="7"/>
+    </row>
+    <row r="617" spans="11:14">
+      <c r="K617" s="7"/>
+      <c r="L617" s="7"/>
+      <c r="M617" s="7"/>
+      <c r="N617" s="7"/>
+    </row>
+    <row r="618" spans="11:14">
+      <c r="K618" s="7"/>
+      <c r="L618" s="7"/>
+      <c r="M618" s="7"/>
+      <c r="N618" s="7"/>
+    </row>
+    <row r="619" spans="11:14">
+      <c r="K619" s="7"/>
+      <c r="L619" s="7"/>
+      <c r="M619" s="7"/>
+      <c r="N619" s="7"/>
+    </row>
+    <row r="620" spans="11:14">
+      <c r="K620" s="7"/>
+      <c r="L620" s="7"/>
+      <c r="M620" s="7"/>
+      <c r="N620" s="7"/>
+    </row>
+    <row r="621" spans="11:14">
+      <c r="K621" s="7"/>
+      <c r="L621" s="7"/>
+      <c r="M621" s="7"/>
+      <c r="N621" s="7"/>
+    </row>
+    <row r="622" spans="11:14">
+      <c r="K622" s="7"/>
+      <c r="L622" s="7"/>
+      <c r="M622" s="7"/>
+      <c r="N622" s="7"/>
+    </row>
+    <row r="623" spans="11:14">
+      <c r="K623" s="7"/>
+      <c r="L623" s="7"/>
+      <c r="M623" s="7"/>
+      <c r="N623" s="7"/>
+    </row>
+    <row r="624" spans="11:14">
+      <c r="K624" s="7"/>
+      <c r="L624" s="7"/>
+      <c r="M624" s="7"/>
+      <c r="N624" s="7"/>
+    </row>
+    <row r="625" spans="11:14">
+      <c r="K625" s="7"/>
+      <c r="L625" s="7"/>
+      <c r="M625" s="7"/>
+      <c r="N625" s="7"/>
+    </row>
+    <row r="626" spans="11:14">
+      <c r="K626" s="7"/>
+      <c r="L626" s="7"/>
+      <c r="M626" s="7"/>
+      <c r="N626" s="7"/>
+    </row>
+    <row r="627" spans="11:14">
+      <c r="K627" s="7"/>
+      <c r="L627" s="7"/>
+      <c r="M627" s="7"/>
+      <c r="N627" s="7"/>
+    </row>
+    <row r="628" spans="11:14">
+      <c r="K628" s="7"/>
+      <c r="L628" s="7"/>
+      <c r="M628" s="7"/>
+      <c r="N628" s="7"/>
+    </row>
+    <row r="629" spans="11:14">
+      <c r="K629" s="7"/>
+      <c r="L629" s="7"/>
+      <c r="M629" s="7"/>
+      <c r="N629" s="7"/>
+    </row>
+    <row r="630" spans="11:14">
+      <c r="K630" s="7"/>
+      <c r="L630" s="7"/>
+      <c r="M630" s="7"/>
+      <c r="N630" s="7"/>
+    </row>
+    <row r="631" spans="11:14">
+      <c r="K631" s="7"/>
+      <c r="L631" s="7"/>
+      <c r="M631" s="7"/>
+      <c r="N631" s="7"/>
+    </row>
+    <row r="632" spans="11:14">
+      <c r="K632" s="7"/>
+      <c r="L632" s="7"/>
+      <c r="M632" s="7"/>
+      <c r="N632" s="7"/>
+    </row>
+    <row r="633" spans="11:14">
+      <c r="K633" s="7"/>
+      <c r="L633" s="7"/>
+      <c r="M633" s="7"/>
+      <c r="N633" s="7"/>
+    </row>
+    <row r="634" spans="11:14">
+      <c r="K634" s="7"/>
+      <c r="L634" s="7"/>
+      <c r="M634" s="7"/>
+      <c r="N634" s="7"/>
+    </row>
+    <row r="635" spans="11:14">
+      <c r="K635" s="7"/>
+      <c r="L635" s="7"/>
+      <c r="M635" s="7"/>
+      <c r="N635" s="7"/>
+    </row>
+    <row r="636" spans="11:14">
+      <c r="K636" s="7"/>
+      <c r="L636" s="7"/>
+      <c r="M636" s="7"/>
+      <c r="N636" s="7"/>
+    </row>
+    <row r="637" spans="11:14">
+      <c r="K637" s="7"/>
+      <c r="L637" s="7"/>
+      <c r="M637" s="7"/>
+      <c r="N637" s="7"/>
+    </row>
+    <row r="638" spans="11:14">
+      <c r="K638" s="7"/>
+      <c r="L638" s="7"/>
+      <c r="M638" s="7"/>
+      <c r="N638" s="7"/>
+    </row>
+    <row r="639" spans="11:14">
+      <c r="K639" s="7"/>
+      <c r="L639" s="7"/>
+      <c r="M639" s="7"/>
+      <c r="N639" s="7"/>
+    </row>
+    <row r="640" spans="11:14">
+      <c r="K640" s="7"/>
+      <c r="L640" s="7"/>
+      <c r="M640" s="7"/>
+      <c r="N640" s="7"/>
+    </row>
+    <row r="641" spans="11:14">
+      <c r="K641" s="7"/>
+      <c r="L641" s="7"/>
+      <c r="M641" s="7"/>
+      <c r="N641" s="7"/>
+    </row>
+    <row r="642" spans="11:14">
+      <c r="K642" s="7"/>
+      <c r="L642" s="7"/>
+      <c r="M642" s="7"/>
+      <c r="N642" s="7"/>
+    </row>
+    <row r="643" spans="11:14">
+      <c r="K643" s="7"/>
+      <c r="L643" s="7"/>
+      <c r="M643" s="7"/>
+      <c r="N643" s="7"/>
+    </row>
+    <row r="644" spans="11:14">
+      <c r="K644" s="7"/>
+      <c r="L644" s="7"/>
+      <c r="M644" s="7"/>
+      <c r="N644" s="7"/>
+    </row>
+    <row r="645" spans="11:14">
+      <c r="K645" s="7"/>
+      <c r="L645" s="7"/>
+      <c r="M645" s="7"/>
+      <c r="N645" s="7"/>
+    </row>
+    <row r="646" spans="11:14">
+      <c r="K646" s="7"/>
+      <c r="L646" s="7"/>
+      <c r="M646" s="7"/>
+      <c r="N646" s="7"/>
+    </row>
+    <row r="647" spans="11:14">
+      <c r="K647" s="7"/>
+      <c r="L647" s="7"/>
+      <c r="M647" s="7"/>
+      <c r="N647" s="7"/>
+    </row>
+    <row r="648" spans="11:14">
+      <c r="K648" s="7"/>
+      <c r="L648" s="7"/>
+      <c r="M648" s="7"/>
+      <c r="N648" s="7"/>
+    </row>
+    <row r="649" spans="11:14">
+      <c r="K649" s="7"/>
+      <c r="L649" s="7"/>
+      <c r="M649" s="7"/>
+      <c r="N649" s="7"/>
+    </row>
+    <row r="650" spans="11:14">
+      <c r="K650" s="7"/>
+      <c r="L650" s="7"/>
+      <c r="M650" s="7"/>
+      <c r="N650" s="7"/>
+    </row>
+    <row r="651" spans="11:14">
+      <c r="K651" s="7"/>
+      <c r="L651" s="7"/>
+      <c r="M651" s="7"/>
+      <c r="N651" s="7"/>
+    </row>
+    <row r="652" spans="11:14">
+      <c r="K652" s="7"/>
+      <c r="L652" s="7"/>
+      <c r="M652" s="7"/>
+      <c r="N652" s="7"/>
+    </row>
+    <row r="653" spans="11:14">
+      <c r="K653" s="7"/>
+      <c r="L653" s="7"/>
+      <c r="M653" s="7"/>
+      <c r="N653" s="7"/>
+    </row>
+    <row r="654" spans="11:14">
+      <c r="K654" s="7"/>
+      <c r="L654" s="7"/>
+      <c r="M654" s="7"/>
+      <c r="N654" s="7"/>
+    </row>
+    <row r="655" spans="11:14">
+      <c r="K655" s="7"/>
+      <c r="L655" s="7"/>
+      <c r="M655" s="7"/>
+      <c r="N655" s="7"/>
+    </row>
+    <row r="656" spans="11:14">
+      <c r="K656" s="7"/>
+      <c r="L656" s="7"/>
+      <c r="M656" s="7"/>
+      <c r="N656" s="7"/>
+    </row>
+    <row r="657" spans="11:14">
+      <c r="K657" s="7"/>
+      <c r="L657" s="7"/>
+      <c r="M657" s="7"/>
+      <c r="N657" s="7"/>
+    </row>
+    <row r="658" spans="11:14">
+      <c r="K658" s="7"/>
+      <c r="L658" s="7"/>
+      <c r="M658" s="7"/>
+      <c r="N658" s="7"/>
+    </row>
+    <row r="659" spans="11:14">
+      <c r="K659" s="7"/>
+      <c r="L659" s="7"/>
+      <c r="M659" s="7"/>
+      <c r="N659" s="7"/>
+    </row>
+    <row r="660" spans="11:14">
+      <c r="K660" s="7"/>
+      <c r="L660" s="7"/>
+      <c r="M660" s="7"/>
+      <c r="N660" s="7"/>
+    </row>
+    <row r="661" spans="11:14">
+      <c r="K661" s="7"/>
+      <c r="L661" s="7"/>
+      <c r="M661" s="7"/>
+      <c r="N661" s="7"/>
+    </row>
+    <row r="662" spans="11:14">
+      <c r="K662" s="7"/>
+      <c r="L662" s="7"/>
+      <c r="M662" s="7"/>
+      <c r="N662" s="7"/>
+    </row>
+    <row r="663" spans="11:14">
+      <c r="K663" s="7"/>
+      <c r="L663" s="7"/>
+      <c r="M663" s="7"/>
+      <c r="N663" s="7"/>
+    </row>
+    <row r="664" spans="11:14">
+      <c r="K664" s="7"/>
+      <c r="L664" s="7"/>
+      <c r="M664" s="7"/>
+      <c r="N664" s="7"/>
+    </row>
+    <row r="665" spans="11:14">
+      <c r="K665" s="7"/>
+      <c r="L665" s="7"/>
+      <c r="M665" s="7"/>
+      <c r="N665" s="7"/>
+    </row>
+    <row r="666" spans="11:14">
+      <c r="K666" s="7"/>
+      <c r="L666" s="7"/>
+      <c r="M666" s="7"/>
+      <c r="N666" s="7"/>
+    </row>
+    <row r="667" spans="11:14">
+      <c r="K667" s="7"/>
+      <c r="L667" s="7"/>
+      <c r="M667" s="7"/>
+      <c r="N667" s="7"/>
+    </row>
+    <row r="668" spans="11:14">
+      <c r="K668" s="7"/>
+      <c r="L668" s="7"/>
+      <c r="M668" s="7"/>
+      <c r="N668" s="7"/>
+    </row>
+    <row r="669" spans="11:14">
+      <c r="K669" s="7"/>
+      <c r="L669" s="7"/>
+      <c r="M669" s="7"/>
+      <c r="N669" s="7"/>
+    </row>
+    <row r="670" spans="11:14">
+      <c r="K670" s="7"/>
+      <c r="L670" s="7"/>
+      <c r="M670" s="7"/>
+      <c r="N670" s="7"/>
+    </row>
+    <row r="671" spans="11:14">
+      <c r="K671" s="7"/>
+      <c r="L671" s="7"/>
+      <c r="M671" s="7"/>
+      <c r="N671" s="7"/>
+    </row>
+    <row r="672" spans="11:14">
+      <c r="K672" s="7"/>
+      <c r="L672" s="7"/>
+      <c r="M672" s="7"/>
+      <c r="N672" s="7"/>
+    </row>
+    <row r="673" spans="11:14">
+      <c r="K673" s="7"/>
+      <c r="L673" s="7"/>
+      <c r="M673" s="7"/>
+      <c r="N673" s="7"/>
+    </row>
+    <row r="674" spans="11:14">
+      <c r="K674" s="7"/>
+      <c r="L674" s="7"/>
+      <c r="M674" s="7"/>
+      <c r="N674" s="7"/>
+    </row>
+    <row r="675" spans="11:14">
+      <c r="K675" s="7"/>
+      <c r="L675" s="7"/>
+      <c r="M675" s="7"/>
+      <c r="N675" s="7"/>
+    </row>
+    <row r="676" spans="11:14">
+      <c r="K676" s="7"/>
+      <c r="L676" s="7"/>
+      <c r="M676" s="7"/>
+      <c r="N676" s="7"/>
+    </row>
+    <row r="677" spans="11:14">
+      <c r="K677" s="7"/>
+      <c r="L677" s="7"/>
+      <c r="M677" s="7"/>
+      <c r="N677" s="7"/>
+    </row>
+    <row r="678" spans="11:14">
+      <c r="K678" s="7"/>
+      <c r="L678" s="7"/>
+      <c r="M678" s="7"/>
+      <c r="N678" s="7"/>
+    </row>
+    <row r="679" spans="11:14">
+      <c r="K679" s="7"/>
+      <c r="L679" s="7"/>
+      <c r="M679" s="7"/>
+      <c r="N679" s="7"/>
+    </row>
+    <row r="680" spans="11:14">
+      <c r="K680" s="7"/>
+      <c r="L680" s="7"/>
+      <c r="M680" s="7"/>
+      <c r="N680" s="7"/>
+    </row>
+    <row r="681" spans="11:14">
+      <c r="K681" s="7"/>
+      <c r="L681" s="7"/>
+      <c r="M681" s="7"/>
+      <c r="N681" s="7"/>
+    </row>
+    <row r="682" spans="11:14">
+      <c r="K682" s="7"/>
+      <c r="L682" s="7"/>
+      <c r="M682" s="7"/>
+      <c r="N682" s="7"/>
+    </row>
+    <row r="683" spans="11:14">
+      <c r="K683" s="7"/>
+      <c r="L683" s="7"/>
+      <c r="M683" s="7"/>
+      <c r="N683" s="7"/>
+    </row>
+    <row r="684" spans="11:14">
+      <c r="K684" s="7"/>
+      <c r="L684" s="7"/>
+      <c r="M684" s="7"/>
+      <c r="N684" s="7"/>
+    </row>
+    <row r="685" spans="11:14">
+      <c r="K685" s="7"/>
+      <c r="L685" s="7"/>
+      <c r="M685" s="7"/>
+      <c r="N685" s="7"/>
+    </row>
+    <row r="686" spans="11:14">
+      <c r="K686" s="7"/>
+      <c r="L686" s="7"/>
+      <c r="M686" s="7"/>
+      <c r="N686" s="7"/>
+    </row>
+    <row r="687" spans="11:14">
+      <c r="K687" s="7"/>
+      <c r="L687" s="7"/>
+      <c r="M687" s="7"/>
+      <c r="N687" s="7"/>
+    </row>
+    <row r="688" spans="11:14">
+      <c r="K688" s="7"/>
+      <c r="L688" s="7"/>
+      <c r="M688" s="7"/>
+      <c r="N688" s="7"/>
+    </row>
+    <row r="689" spans="11:14">
+      <c r="K689" s="7"/>
+      <c r="L689" s="7"/>
+      <c r="M689" s="7"/>
+      <c r="N689" s="7"/>
+    </row>
+    <row r="690" spans="11:14">
+      <c r="K690" s="7"/>
+      <c r="L690" s="7"/>
+      <c r="M690" s="7"/>
+      <c r="N690" s="7"/>
+    </row>
+    <row r="691" spans="11:14">
+      <c r="K691" s="7"/>
+      <c r="L691" s="7"/>
+      <c r="M691" s="7"/>
+      <c r="N691" s="7"/>
+    </row>
+    <row r="692" spans="11:14">
+      <c r="K692" s="7"/>
+      <c r="L692" s="7"/>
+      <c r="M692" s="7"/>
+      <c r="N692" s="7"/>
+    </row>
+    <row r="693" spans="11:14">
+      <c r="K693" s="7"/>
+      <c r="L693" s="7"/>
+      <c r="M693" s="7"/>
+      <c r="N693" s="7"/>
+    </row>
+    <row r="694" spans="11:14">
+      <c r="K694" s="7"/>
+      <c r="L694" s="7"/>
+      <c r="M694" s="7"/>
+      <c r="N694" s="7"/>
+    </row>
+    <row r="695" spans="11:14">
+      <c r="K695" s="7"/>
+      <c r="L695" s="7"/>
+      <c r="M695" s="7"/>
+      <c r="N695" s="7"/>
+    </row>
+    <row r="696" spans="11:14">
+      <c r="K696" s="7"/>
+      <c r="L696" s="7"/>
+      <c r="M696" s="7"/>
+      <c r="N696" s="7"/>
+    </row>
+    <row r="697" spans="11:14">
+      <c r="K697" s="7"/>
+      <c r="L697" s="7"/>
+      <c r="M697" s="7"/>
+      <c r="N697" s="7"/>
+    </row>
+    <row r="698" spans="11:14">
+      <c r="K698" s="7"/>
+      <c r="L698" s="7"/>
+      <c r="M698" s="7"/>
+      <c r="N698" s="7"/>
+    </row>
+    <row r="699" spans="11:14">
+      <c r="K699" s="7"/>
+      <c r="L699" s="7"/>
+      <c r="M699" s="7"/>
+      <c r="N699" s="7"/>
+    </row>
+    <row r="700" spans="11:14">
+      <c r="K700" s="7"/>
+      <c r="L700" s="7"/>
+      <c r="M700" s="7"/>
+      <c r="N700" s="7"/>
+    </row>
+    <row r="701" spans="11:14">
+      <c r="K701" s="7"/>
+      <c r="L701" s="7"/>
+      <c r="M701" s="7"/>
+      <c r="N701" s="7"/>
+    </row>
+    <row r="702" spans="11:14">
+      <c r="K702" s="7"/>
+      <c r="L702" s="7"/>
+      <c r="M702" s="7"/>
+      <c r="N702" s="7"/>
+    </row>
+    <row r="703" spans="11:14">
+      <c r="K703" s="7"/>
+      <c r="L703" s="7"/>
+      <c r="M703" s="7"/>
+      <c r="N703" s="7"/>
+    </row>
+    <row r="704" spans="11:14">
+      <c r="K704" s="7"/>
+      <c r="L704" s="7"/>
+      <c r="M704" s="7"/>
+      <c r="N704" s="7"/>
+    </row>
+    <row r="705" spans="11:14">
+      <c r="K705" s="7"/>
+      <c r="L705" s="7"/>
+      <c r="M705" s="7"/>
+      <c r="N705" s="7"/>
+    </row>
+    <row r="706" spans="11:14">
+      <c r="K706" s="7"/>
+      <c r="L706" s="7"/>
+      <c r="M706" s="7"/>
+      <c r="N706" s="7"/>
+    </row>
+    <row r="707" spans="11:14">
+      <c r="K707" s="7"/>
+      <c r="L707" s="7"/>
+      <c r="M707" s="7"/>
+      <c r="N707" s="7"/>
+    </row>
+    <row r="708" spans="11:14">
+      <c r="K708" s="7"/>
+      <c r="L708" s="7"/>
+      <c r="M708" s="7"/>
+      <c r="N708" s="7"/>
+    </row>
+    <row r="709" spans="11:14">
+      <c r="K709" s="7"/>
+      <c r="L709" s="7"/>
+      <c r="M709" s="7"/>
+      <c r="N709" s="7"/>
+    </row>
+    <row r="710" spans="11:14">
+      <c r="K710" s="7"/>
+      <c r="L710" s="7"/>
+      <c r="M710" s="7"/>
+      <c r="N710" s="7"/>
+    </row>
+    <row r="711" spans="11:14">
+      <c r="K711" s="7"/>
+      <c r="L711" s="7"/>
+      <c r="M711" s="7"/>
+      <c r="N711" s="7"/>
+    </row>
+    <row r="712" spans="11:14">
+      <c r="K712" s="7"/>
+      <c r="L712" s="7"/>
+      <c r="M712" s="7"/>
+      <c r="N712" s="7"/>
+    </row>
+    <row r="713" spans="11:14">
+      <c r="K713" s="7"/>
+      <c r="L713" s="7"/>
+      <c r="M713" s="7"/>
+      <c r="N713" s="7"/>
+    </row>
+    <row r="714" spans="11:14">
+      <c r="K714" s="7"/>
+      <c r="L714" s="7"/>
+      <c r="M714" s="7"/>
+      <c r="N714" s="7"/>
+    </row>
+    <row r="715" spans="11:14">
+      <c r="K715" s="7"/>
+      <c r="L715" s="7"/>
+      <c r="M715" s="7"/>
+      <c r="N715" s="7"/>
+    </row>
+    <row r="716" spans="11:14">
+      <c r="K716" s="7"/>
+      <c r="L716" s="7"/>
+      <c r="M716" s="7"/>
+      <c r="N716" s="7"/>
+    </row>
+    <row r="717" spans="11:14">
+      <c r="K717" s="7"/>
+      <c r="L717" s="7"/>
+      <c r="M717" s="7"/>
+      <c r="N717" s="7"/>
+    </row>
+    <row r="718" spans="11:14">
+      <c r="K718" s="7"/>
+      <c r="L718" s="7"/>
+      <c r="M718" s="7"/>
+      <c r="N718" s="7"/>
+    </row>
+    <row r="719" spans="11:14">
+      <c r="K719" s="7"/>
+      <c r="L719" s="7"/>
+      <c r="M719" s="7"/>
+      <c r="N719" s="7"/>
+    </row>
+    <row r="720" spans="11:14">
+      <c r="K720" s="7"/>
+      <c r="L720" s="7"/>
+      <c r="M720" s="7"/>
+      <c r="N720" s="7"/>
+    </row>
+    <row r="721" spans="11:14">
+      <c r="K721" s="7"/>
+      <c r="L721" s="7"/>
+      <c r="M721" s="7"/>
+      <c r="N721" s="7"/>
+    </row>
+    <row r="722" spans="11:14">
+      <c r="K722" s="7"/>
+      <c r="L722" s="7"/>
+      <c r="M722" s="7"/>
+      <c r="N722" s="7"/>
+    </row>
+    <row r="723" spans="11:14">
+      <c r="K723" s="7"/>
+      <c r="L723" s="7"/>
+      <c r="M723" s="7"/>
+      <c r="N723" s="7"/>
+    </row>
+    <row r="724" spans="11:14">
+      <c r="K724" s="7"/>
+      <c r="L724" s="7"/>
+      <c r="M724" s="7"/>
+      <c r="N724" s="7"/>
+    </row>
+    <row r="725" spans="11:14">
+      <c r="K725" s="7"/>
+      <c r="L725" s="7"/>
+      <c r="M725" s="7"/>
+      <c r="N725" s="7"/>
+    </row>
+    <row r="726" spans="11:14">
+      <c r="K726" s="7"/>
+      <c r="L726" s="7"/>
+      <c r="M726" s="7"/>
+      <c r="N726" s="7"/>
+    </row>
+    <row r="727" spans="11:14">
+      <c r="K727" s="7"/>
+      <c r="L727" s="7"/>
+      <c r="M727" s="7"/>
+      <c r="N727" s="7"/>
+    </row>
+    <row r="728" spans="11:14">
+      <c r="K728" s="7"/>
+      <c r="L728" s="7"/>
+      <c r="M728" s="7"/>
+      <c r="N728" s="7"/>
+    </row>
+    <row r="729" spans="11:14">
+      <c r="K729" s="7"/>
+      <c r="L729" s="7"/>
+      <c r="M729" s="7"/>
+      <c r="N729" s="7"/>
+    </row>
+    <row r="730" spans="11:14">
+      <c r="K730" s="7"/>
+      <c r="L730" s="7"/>
+      <c r="M730" s="7"/>
+      <c r="N730" s="7"/>
+    </row>
+    <row r="731" spans="11:14">
+      <c r="K731" s="7"/>
+      <c r="L731" s="7"/>
+      <c r="M731" s="7"/>
+      <c r="N731" s="7"/>
+    </row>
+    <row r="732" spans="11:14">
+      <c r="K732" s="7"/>
+      <c r="L732" s="7"/>
+      <c r="M732" s="7"/>
+      <c r="N732" s="7"/>
+    </row>
+    <row r="733" spans="11:14">
+      <c r="K733" s="7"/>
+      <c r="L733" s="7"/>
+      <c r="M733" s="7"/>
+      <c r="N733" s="7"/>
+    </row>
+    <row r="734" spans="11:14">
+      <c r="K734" s="7"/>
+      <c r="L734" s="7"/>
+      <c r="M734" s="7"/>
+      <c r="N734" s="7"/>
+    </row>
+    <row r="735" spans="11:14">
+      <c r="K735" s="7"/>
+      <c r="L735" s="7"/>
+      <c r="M735" s="7"/>
+      <c r="N735" s="7"/>
+    </row>
+    <row r="736" spans="11:14">
+      <c r="K736" s="7"/>
+      <c r="L736" s="7"/>
+      <c r="M736" s="7"/>
+      <c r="N736" s="7"/>
+    </row>
+    <row r="737" spans="11:14">
+      <c r="K737" s="7"/>
+      <c r="L737" s="7"/>
+      <c r="M737" s="7"/>
+      <c r="N737" s="7"/>
+    </row>
+    <row r="738" spans="11:14">
+      <c r="K738" s="7"/>
+      <c r="L738" s="7"/>
+      <c r="M738" s="7"/>
+      <c r="N738" s="7"/>
+    </row>
+    <row r="739" spans="11:14">
+      <c r="K739" s="7"/>
+      <c r="L739" s="7"/>
+      <c r="M739" s="7"/>
+      <c r="N739" s="7"/>
+    </row>
+    <row r="740" spans="11:14">
+      <c r="K740" s="7"/>
+      <c r="L740" s="7"/>
+      <c r="M740" s="7"/>
+      <c r="N740" s="7"/>
+    </row>
+    <row r="741" spans="11:14">
+      <c r="K741" s="7"/>
+      <c r="L741" s="7"/>
+      <c r="M741" s="7"/>
+      <c r="N741" s="7"/>
+    </row>
+    <row r="742" spans="11:14">
+      <c r="K742" s="7"/>
+      <c r="L742" s="7"/>
+      <c r="M742" s="7"/>
+      <c r="N742" s="7"/>
+    </row>
+    <row r="743" spans="11:14">
+      <c r="K743" s="7"/>
+      <c r="L743" s="7"/>
+      <c r="M743" s="7"/>
+      <c r="N743" s="7"/>
+    </row>
+    <row r="744" spans="11:14">
+      <c r="K744" s="7"/>
+      <c r="L744" s="7"/>
+      <c r="M744" s="7"/>
+      <c r="N744" s="7"/>
+    </row>
+    <row r="745" spans="11:14">
+      <c r="K745" s="7"/>
+      <c r="L745" s="7"/>
+      <c r="M745" s="7"/>
+      <c r="N745" s="7"/>
+    </row>
+    <row r="746" spans="11:14">
+      <c r="K746" s="7"/>
+      <c r="L746" s="7"/>
+      <c r="M746" s="7"/>
+      <c r="N746" s="7"/>
+    </row>
+    <row r="747" spans="11:14">
+      <c r="K747" s="7"/>
+      <c r="L747" s="7"/>
+      <c r="M747" s="7"/>
+      <c r="N747" s="7"/>
+    </row>
+    <row r="748" spans="11:14">
+      <c r="K748" s="7"/>
+      <c r="L748" s="7"/>
+      <c r="M748" s="7"/>
+      <c r="N748" s="7"/>
+    </row>
+    <row r="749" spans="11:14">
+      <c r="K749" s="7"/>
+      <c r="L749" s="7"/>
+      <c r="M749" s="7"/>
+      <c r="N749" s="7"/>
+    </row>
+    <row r="750" spans="11:14">
+      <c r="K750" s="7"/>
+      <c r="L750" s="7"/>
+      <c r="M750" s="7"/>
+      <c r="N750" s="7"/>
+    </row>
+    <row r="751" spans="11:14">
+      <c r="K751" s="7"/>
+      <c r="L751" s="7"/>
+      <c r="M751" s="7"/>
+      <c r="N751" s="7"/>
+    </row>
+    <row r="752" spans="11:14">
+      <c r="K752" s="7"/>
+      <c r="L752" s="7"/>
+      <c r="M752" s="7"/>
+      <c r="N752" s="7"/>
+    </row>
+    <row r="753" spans="11:14">
+      <c r="K753" s="7"/>
+      <c r="L753" s="7"/>
+      <c r="M753" s="7"/>
+      <c r="N753" s="7"/>
+    </row>
+    <row r="754" spans="11:14">
+      <c r="K754" s="7"/>
+      <c r="L754" s="7"/>
+      <c r="M754" s="7"/>
+      <c r="N754" s="7"/>
+    </row>
+    <row r="755" spans="11:14">
+      <c r="K755" s="7"/>
+      <c r="L755" s="7"/>
+      <c r="M755" s="7"/>
+      <c r="N755" s="7"/>
+    </row>
+    <row r="756" spans="11:14">
+      <c r="K756" s="7"/>
+      <c r="L756" s="7"/>
+      <c r="M756" s="7"/>
+      <c r="N756" s="7"/>
+    </row>
+    <row r="757" spans="11:14">
+      <c r="K757" s="7"/>
+      <c r="L757" s="7"/>
+      <c r="M757" s="7"/>
+      <c r="N757" s="7"/>
+    </row>
+    <row r="758" spans="11:14">
+      <c r="K758" s="7"/>
+      <c r="L758" s="7"/>
+      <c r="M758" s="7"/>
+      <c r="N758" s="7"/>
+    </row>
+    <row r="759" spans="11:14">
+      <c r="K759" s="7"/>
+      <c r="L759" s="7"/>
+      <c r="M759" s="7"/>
+      <c r="N759" s="7"/>
+    </row>
+    <row r="760" spans="11:14">
+      <c r="K760" s="7"/>
+      <c r="L760" s="7"/>
+      <c r="M760" s="7"/>
+      <c r="N760" s="7"/>
+    </row>
+    <row r="761" spans="11:14">
+      <c r="K761" s="7"/>
+      <c r="L761" s="7"/>
+      <c r="M761" s="7"/>
+      <c r="N761" s="7"/>
+    </row>
+    <row r="762" spans="11:14">
+      <c r="K762" s="7"/>
+      <c r="L762" s="7"/>
+      <c r="M762" s="7"/>
+      <c r="N762" s="7"/>
+    </row>
+    <row r="763" spans="11:14">
+      <c r="K763" s="7"/>
+      <c r="L763" s="7"/>
+      <c r="M763" s="7"/>
+      <c r="N763" s="7"/>
+    </row>
+    <row r="764" spans="11:14">
+      <c r="K764" s="7"/>
+      <c r="L764" s="7"/>
+      <c r="M764" s="7"/>
+      <c r="N764" s="7"/>
+    </row>
+    <row r="765" spans="11:14">
+      <c r="K765" s="7"/>
+      <c r="L765" s="7"/>
+      <c r="M765" s="7"/>
+      <c r="N765" s="7"/>
+    </row>
+    <row r="766" spans="11:14">
+      <c r="K766" s="7"/>
+      <c r="L766" s="7"/>
+      <c r="M766" s="7"/>
+      <c r="N766" s="7"/>
+    </row>
+    <row r="767" spans="11:14">
+      <c r="K767" s="7"/>
+      <c r="L767" s="7"/>
+      <c r="M767" s="7"/>
+      <c r="N767" s="7"/>
+    </row>
+    <row r="768" spans="11:14">
+      <c r="K768" s="7"/>
+      <c r="L768" s="7"/>
+      <c r="M768" s="7"/>
+      <c r="N768" s="7"/>
+    </row>
+    <row r="769" spans="11:14">
+      <c r="K769" s="7"/>
+      <c r="L769" s="7"/>
+      <c r="M769" s="7"/>
+      <c r="N769" s="7"/>
+    </row>
+    <row r="770" spans="11:14">
+      <c r="K770" s="7"/>
+      <c r="L770" s="7"/>
+      <c r="M770" s="7"/>
+      <c r="N770" s="7"/>
+    </row>
+    <row r="771" spans="11:14">
+      <c r="K771" s="7"/>
+      <c r="L771" s="7"/>
+      <c r="M771" s="7"/>
+      <c r="N771" s="7"/>
+    </row>
+    <row r="772" spans="11:14">
+      <c r="K772" s="7"/>
+      <c r="L772" s="7"/>
+      <c r="M772" s="7"/>
+      <c r="N772" s="7"/>
+    </row>
+    <row r="773" spans="11:14">
+      <c r="K773" s="7"/>
+      <c r="L773" s="7"/>
+      <c r="M773" s="7"/>
+      <c r="N773" s="7"/>
+    </row>
+    <row r="774" spans="11:14">
+      <c r="K774" s="7"/>
+      <c r="L774" s="7"/>
+      <c r="M774" s="7"/>
+      <c r="N774" s="7"/>
+    </row>
+    <row r="775" spans="11:14">
+      <c r="K775" s="7"/>
+      <c r="L775" s="7"/>
+      <c r="M775" s="7"/>
+      <c r="N775" s="7"/>
+    </row>
+    <row r="776" spans="11:14">
+      <c r="K776" s="7"/>
+      <c r="L776" s="7"/>
+      <c r="M776" s="7"/>
+      <c r="N776" s="7"/>
+    </row>
+    <row r="777" spans="11:14">
+      <c r="K777" s="7"/>
+      <c r="L777" s="7"/>
+      <c r="M777" s="7"/>
+      <c r="N777" s="7"/>
+    </row>
+    <row r="778" spans="11:14">
+      <c r="K778" s="7"/>
+      <c r="L778" s="7"/>
+      <c r="M778" s="7"/>
+      <c r="N778" s="7"/>
+    </row>
+    <row r="779" spans="11:14">
+      <c r="K779" s="7"/>
+      <c r="L779" s="7"/>
+      <c r="M779" s="7"/>
+      <c r="N779" s="7"/>
+    </row>
+    <row r="780" spans="11:14">
+      <c r="K780" s="7"/>
+      <c r="L780" s="7"/>
+      <c r="M780" s="7"/>
+      <c r="N780" s="7"/>
+    </row>
+    <row r="781" spans="11:14">
+      <c r="K781" s="7"/>
+      <c r="L781" s="7"/>
+      <c r="M781" s="7"/>
+      <c r="N781" s="7"/>
+    </row>
+    <row r="782" spans="11:14">
+      <c r="K782" s="7"/>
+      <c r="L782" s="7"/>
+      <c r="M782" s="7"/>
+      <c r="N782" s="7"/>
+    </row>
+    <row r="783" spans="11:14">
+      <c r="K783" s="7"/>
+      <c r="L783" s="7"/>
+      <c r="M783" s="7"/>
+      <c r="N783" s="7"/>
+    </row>
+    <row r="784" spans="11:14">
+      <c r="K784" s="7"/>
+      <c r="L784" s="7"/>
+      <c r="M784" s="7"/>
+      <c r="N784" s="7"/>
+    </row>
+    <row r="785" spans="11:14">
+      <c r="K785" s="7"/>
+      <c r="L785" s="7"/>
+      <c r="M785" s="7"/>
+      <c r="N785" s="7"/>
+    </row>
+    <row r="786" spans="11:14">
+      <c r="K786" s="7"/>
+      <c r="L786" s="7"/>
+      <c r="M786" s="7"/>
+      <c r="N786" s="7"/>
+    </row>
+    <row r="787" spans="11:14">
+      <c r="K787" s="7"/>
+      <c r="L787" s="7"/>
+      <c r="M787" s="7"/>
+      <c r="N787" s="7"/>
+    </row>
+    <row r="788" spans="11:14">
+      <c r="K788" s="7"/>
+      <c r="L788" s="7"/>
+      <c r="M788" s="7"/>
+      <c r="N788" s="7"/>
+    </row>
+    <row r="789" spans="11:14">
+      <c r="K789" s="7"/>
+      <c r="L789" s="7"/>
+      <c r="M789" s="7"/>
+      <c r="N789" s="7"/>
+    </row>
+    <row r="790" spans="11:14">
+      <c r="K790" s="7"/>
+      <c r="L790" s="7"/>
+      <c r="M790" s="7"/>
+      <c r="N790" s="7"/>
+    </row>
+    <row r="791" spans="11:14">
+      <c r="K791" s="7"/>
+      <c r="L791" s="7"/>
+      <c r="M791" s="7"/>
+      <c r="N791" s="7"/>
+    </row>
+    <row r="792" spans="11:14">
+      <c r="K792" s="7"/>
+      <c r="L792" s="7"/>
+      <c r="M792" s="7"/>
+      <c r="N792" s="7"/>
+    </row>
+    <row r="793" spans="11:14">
+      <c r="K793" s="7"/>
+      <c r="L793" s="7"/>
+      <c r="M793" s="7"/>
+      <c r="N793" s="7"/>
+    </row>
+    <row r="794" spans="11:14">
+      <c r="K794" s="7"/>
+      <c r="L794" s="7"/>
+      <c r="M794" s="7"/>
+      <c r="N794" s="7"/>
+    </row>
+    <row r="795" spans="11:14">
+      <c r="K795" s="7"/>
+      <c r="L795" s="7"/>
+      <c r="M795" s="7"/>
+      <c r="N795" s="7"/>
+    </row>
+    <row r="796" spans="11:14">
+      <c r="K796" s="7"/>
+      <c r="L796" s="7"/>
+      <c r="M796" s="7"/>
+      <c r="N796" s="7"/>
+    </row>
+    <row r="797" spans="11:14">
+      <c r="K797" s="7"/>
+      <c r="L797" s="7"/>
+      <c r="M797" s="7"/>
+      <c r="N797" s="7"/>
+    </row>
+    <row r="798" spans="11:14">
+      <c r="K798" s="7"/>
+      <c r="L798" s="7"/>
+      <c r="M798" s="7"/>
+      <c r="N798" s="7"/>
+    </row>
+    <row r="799" spans="11:14">
+      <c r="K799" s="7"/>
+      <c r="L799" s="7"/>
+      <c r="M799" s="7"/>
+      <c r="N799" s="7"/>
+    </row>
+    <row r="800" spans="11:14">
+      <c r="K800" s="7"/>
+      <c r="L800" s="7"/>
+      <c r="M800" s="7"/>
+      <c r="N800" s="7"/>
+    </row>
+    <row r="801" spans="11:14">
+      <c r="K801" s="7"/>
+      <c r="L801" s="7"/>
+      <c r="M801" s="7"/>
+      <c r="N801" s="7"/>
+    </row>
+    <row r="802" spans="11:14">
+      <c r="K802" s="7"/>
+      <c r="L802" s="7"/>
+      <c r="M802" s="7"/>
+      <c r="N802" s="7"/>
+    </row>
+    <row r="803" spans="11:14">
+      <c r="K803" s="7"/>
+      <c r="L803" s="7"/>
+      <c r="M803" s="7"/>
+      <c r="N803" s="7"/>
+    </row>
+    <row r="804" spans="11:14">
+      <c r="K804" s="7"/>
+      <c r="L804" s="7"/>
+      <c r="M804" s="7"/>
+      <c r="N804" s="7"/>
+    </row>
+    <row r="805" spans="11:14">
+      <c r="K805" s="7"/>
+      <c r="L805" s="7"/>
+      <c r="M805" s="7"/>
+      <c r="N805" s="7"/>
+    </row>
+    <row r="806" spans="11:14">
+      <c r="K806" s="7"/>
+      <c r="L806" s="7"/>
+      <c r="M806" s="7"/>
+      <c r="N806" s="7"/>
+    </row>
+    <row r="807" spans="11:14">
+      <c r="K807" s="7"/>
+      <c r="L807" s="7"/>
+      <c r="M807" s="7"/>
+      <c r="N807" s="7"/>
+    </row>
+    <row r="808" spans="11:14">
+      <c r="K808" s="7"/>
+      <c r="L808" s="7"/>
+      <c r="M808" s="7"/>
+      <c r="N808" s="7"/>
+    </row>
+    <row r="809" spans="11:14">
+      <c r="K809" s="7"/>
+      <c r="L809" s="7"/>
+      <c r="M809" s="7"/>
+      <c r="N809" s="7"/>
+    </row>
+    <row r="810" spans="11:14">
+      <c r="K810" s="7"/>
+      <c r="L810" s="7"/>
+      <c r="M810" s="7"/>
+      <c r="N810" s="7"/>
+    </row>
+    <row r="811" spans="11:14">
+      <c r="K811" s="7"/>
+      <c r="L811" s="7"/>
+      <c r="M811" s="7"/>
+      <c r="N811" s="7"/>
+    </row>
+    <row r="812" spans="11:14">
+      <c r="K812" s="7"/>
+      <c r="L812" s="7"/>
+      <c r="M812" s="7"/>
+      <c r="N812" s="7"/>
+    </row>
+    <row r="813" spans="11:14">
+      <c r="K813" s="7"/>
+      <c r="L813" s="7"/>
+      <c r="M813" s="7"/>
+      <c r="N813" s="7"/>
+    </row>
+    <row r="814" spans="11:14">
+      <c r="K814" s="7"/>
+      <c r="L814" s="7"/>
+      <c r="M814" s="7"/>
+      <c r="N814" s="7"/>
+    </row>
+    <row r="815" spans="11:14">
+      <c r="K815" s="7"/>
+      <c r="L815" s="7"/>
+      <c r="M815" s="7"/>
+      <c r="N815" s="7"/>
+    </row>
+    <row r="816" spans="11:14">
+      <c r="K816" s="7"/>
+      <c r="L816" s="7"/>
+      <c r="M816" s="7"/>
+      <c r="N816" s="7"/>
+    </row>
+    <row r="817" spans="11:14">
+      <c r="K817" s="7"/>
+      <c r="L817" s="7"/>
+      <c r="M817" s="7"/>
+      <c r="N817" s="7"/>
+    </row>
+    <row r="818" spans="11:14">
+      <c r="K818" s="7"/>
+      <c r="L818" s="7"/>
+      <c r="M818" s="7"/>
+      <c r="N818" s="7"/>
+    </row>
+    <row r="819" spans="11:14">
+      <c r="K819" s="7"/>
+      <c r="L819" s="7"/>
+      <c r="M819" s="7"/>
+      <c r="N819" s="7"/>
+    </row>
+    <row r="820" spans="11:14">
+      <c r="K820" s="7"/>
+      <c r="L820" s="7"/>
+      <c r="M820" s="7"/>
+      <c r="N820" s="7"/>
+    </row>
+    <row r="821" spans="11:14">
+      <c r="K821" s="7"/>
+      <c r="L821" s="7"/>
+      <c r="M821" s="7"/>
+      <c r="N821" s="7"/>
+    </row>
+    <row r="822" spans="11:14">
+      <c r="K822" s="7"/>
+      <c r="L822" s="7"/>
+      <c r="M822" s="7"/>
+      <c r="N822" s="7"/>
+    </row>
+    <row r="823" spans="11:14">
+      <c r="K823" s="7"/>
+      <c r="L823" s="7"/>
+      <c r="M823" s="7"/>
+      <c r="N823" s="7"/>
+    </row>
+    <row r="824" spans="11:14">
+      <c r="K824" s="7"/>
+      <c r="L824" s="7"/>
+      <c r="M824" s="7"/>
+      <c r="N824" s="7"/>
+    </row>
+    <row r="825" spans="11:14">
+      <c r="K825" s="7"/>
+      <c r="L825" s="7"/>
+      <c r="M825" s="7"/>
+      <c r="N825" s="7"/>
+    </row>
+    <row r="826" spans="11:14">
+      <c r="K826" s="7"/>
+      <c r="L826" s="7"/>
+      <c r="M826" s="7"/>
+      <c r="N826" s="7"/>
+    </row>
+    <row r="827" spans="11:14">
+      <c r="K827" s="7"/>
+      <c r="L827" s="7"/>
+      <c r="M827" s="7"/>
+      <c r="N827" s="7"/>
+    </row>
+    <row r="828" spans="11:14">
+      <c r="K828" s="7"/>
+      <c r="L828" s="7"/>
+      <c r="M828" s="7"/>
+      <c r="N828" s="7"/>
+    </row>
+    <row r="829" spans="11:14">
+      <c r="K829" s="7"/>
+      <c r="L829" s="7"/>
+      <c r="M829" s="7"/>
+      <c r="N829" s="7"/>
+    </row>
+    <row r="830" spans="11:14">
+      <c r="K830" s="7"/>
+      <c r="L830" s="7"/>
+      <c r="M830" s="7"/>
+      <c r="N830" s="7"/>
+    </row>
+    <row r="831" spans="11:14">
+      <c r="K831" s="7"/>
+      <c r="L831" s="7"/>
+      <c r="M831" s="7"/>
+      <c r="N831" s="7"/>
+    </row>
+    <row r="832" spans="11:14">
+      <c r="K832" s="7"/>
+      <c r="L832" s="7"/>
+      <c r="M832" s="7"/>
+      <c r="N832" s="7"/>
+    </row>
+    <row r="833" spans="11:14">
+      <c r="K833" s="7"/>
+      <c r="L833" s="7"/>
+      <c r="M833" s="7"/>
+      <c r="N833" s="7"/>
+    </row>
+    <row r="834" spans="11:14">
+      <c r="K834" s="7"/>
+      <c r="L834" s="7"/>
+      <c r="M834" s="7"/>
+      <c r="N834" s="7"/>
+    </row>
+    <row r="835" spans="11:14">
+      <c r="K835" s="7"/>
+      <c r="L835" s="7"/>
+      <c r="M835" s="7"/>
+      <c r="N835" s="7"/>
+    </row>
+    <row r="836" spans="11:14">
+      <c r="K836" s="7"/>
+      <c r="L836" s="7"/>
+      <c r="M836" s="7"/>
+      <c r="N836" s="7"/>
+    </row>
+    <row r="837" spans="11:14">
+      <c r="K837" s="7"/>
+      <c r="L837" s="7"/>
+      <c r="M837" s="7"/>
+      <c r="N837" s="7"/>
+    </row>
+    <row r="838" spans="11:14">
+      <c r="K838" s="7"/>
+      <c r="L838" s="7"/>
+      <c r="M838" s="7"/>
+      <c r="N838" s="7"/>
+    </row>
+    <row r="839" spans="11:14">
+      <c r="K839" s="7"/>
+      <c r="L839" s="7"/>
+      <c r="M839" s="7"/>
+      <c r="N839" s="7"/>
+    </row>
+    <row r="840" spans="11:14">
+      <c r="K840" s="7"/>
+      <c r="L840" s="7"/>
+      <c r="M840" s="7"/>
+      <c r="N840" s="7"/>
+    </row>
+    <row r="841" spans="11:14">
+      <c r="K841" s="7"/>
+      <c r="L841" s="7"/>
+      <c r="M841" s="7"/>
+      <c r="N841" s="7"/>
+    </row>
+    <row r="842" spans="11:14">
+      <c r="K842" s="7"/>
+      <c r="L842" s="7"/>
+      <c r="M842" s="7"/>
+      <c r="N842" s="7"/>
+    </row>
+    <row r="843" spans="11:14">
+      <c r="K843" s="7"/>
+      <c r="L843" s="7"/>
+      <c r="M843" s="7"/>
+      <c r="N843" s="7"/>
+    </row>
+    <row r="844" spans="11:14">
+      <c r="K844" s="7"/>
+      <c r="L844" s="7"/>
+      <c r="M844" s="7"/>
+      <c r="N844" s="7"/>
+    </row>
+    <row r="845" spans="11:14">
+      <c r="K845" s="7"/>
+      <c r="L845" s="7"/>
+      <c r="M845" s="7"/>
+      <c r="N845" s="7"/>
+    </row>
+    <row r="846" spans="11:14">
+      <c r="K846" s="7"/>
+      <c r="L846" s="7"/>
+      <c r="M846" s="7"/>
+      <c r="N846" s="7"/>
+    </row>
+    <row r="847" spans="11:14">
+      <c r="K847" s="7"/>
+      <c r="L847" s="7"/>
+      <c r="M847" s="7"/>
+      <c r="N847" s="7"/>
+    </row>
+    <row r="848" spans="11:14">
+      <c r="K848" s="7"/>
+      <c r="L848" s="7"/>
+      <c r="M848" s="7"/>
+      <c r="N848" s="7"/>
+    </row>
+    <row r="849" spans="11:14">
+      <c r="K849" s="7"/>
+      <c r="L849" s="7"/>
+      <c r="M849" s="7"/>
+      <c r="N849" s="7"/>
+    </row>
+    <row r="850" spans="11:14">
+      <c r="K850" s="7"/>
+      <c r="L850" s="7"/>
+      <c r="M850" s="7"/>
+      <c r="N850" s="7"/>
+    </row>
+    <row r="851" spans="11:14">
+      <c r="K851" s="7"/>
+      <c r="L851" s="7"/>
+      <c r="M851" s="7"/>
+      <c r="N851" s="7"/>
+    </row>
+    <row r="852" spans="11:14">
+      <c r="K852" s="7"/>
+      <c r="L852" s="7"/>
+      <c r="M852" s="7"/>
+      <c r="N852" s="7"/>
+    </row>
+    <row r="853" spans="11:14">
+      <c r="K853" s="7"/>
+      <c r="L853" s="7"/>
+      <c r="M853" s="7"/>
+      <c r="N853" s="7"/>
+    </row>
+    <row r="854" spans="11:14">
+      <c r="K854" s="7"/>
+      <c r="L854" s="7"/>
+      <c r="M854" s="7"/>
+      <c r="N854" s="7"/>
+    </row>
+    <row r="855" spans="11:14">
+      <c r="K855" s="7"/>
+      <c r="L855" s="7"/>
+      <c r="M855" s="7"/>
+      <c r="N855" s="7"/>
+    </row>
+    <row r="856" spans="11:14">
+      <c r="K856" s="7"/>
+      <c r="L856" s="7"/>
+      <c r="M856" s="7"/>
+      <c r="N856" s="7"/>
+    </row>
+    <row r="857" spans="11:14">
+      <c r="K857" s="7"/>
+      <c r="L857" s="7"/>
+      <c r="M857" s="7"/>
+      <c r="N857" s="7"/>
+    </row>
+    <row r="858" spans="11:14">
+      <c r="K858" s="7"/>
+      <c r="L858" s="7"/>
+      <c r="M858" s="7"/>
+      <c r="N858" s="7"/>
+    </row>
+    <row r="859" spans="11:14">
+      <c r="K859" s="7"/>
+      <c r="L859" s="7"/>
+      <c r="M859" s="7"/>
+      <c r="N859" s="7"/>
+    </row>
+    <row r="860" spans="11:14">
+      <c r="K860" s="7"/>
+      <c r="L860" s="7"/>
+      <c r="M860" s="7"/>
+      <c r="N860" s="7"/>
+    </row>
+    <row r="861" spans="11:14">
+      <c r="K861" s="7"/>
+      <c r="L861" s="7"/>
+      <c r="M861" s="7"/>
+      <c r="N861" s="7"/>
+    </row>
+    <row r="862" spans="11:14">
+      <c r="K862" s="7"/>
+      <c r="L862" s="7"/>
+      <c r="M862" s="7"/>
+      <c r="N862" s="7"/>
+    </row>
+    <row r="863" spans="11:14">
+      <c r="K863" s="7"/>
+      <c r="L863" s="7"/>
+      <c r="M863" s="7"/>
+      <c r="N863" s="7"/>
+    </row>
+    <row r="864" spans="11:14">
+      <c r="K864" s="7"/>
+      <c r="L864" s="7"/>
+      <c r="M864" s="7"/>
+      <c r="N864" s="7"/>
+    </row>
+    <row r="865" spans="11:14">
+      <c r="K865" s="7"/>
+      <c r="L865" s="7"/>
+      <c r="M865" s="7"/>
+      <c r="N865" s="7"/>
+    </row>
+    <row r="866" spans="11:14">
+      <c r="K866" s="7"/>
+      <c r="L866" s="7"/>
+      <c r="M866" s="7"/>
+      <c r="N866" s="7"/>
+    </row>
+    <row r="867" spans="11:14">
+      <c r="K867" s="7"/>
+      <c r="L867" s="7"/>
+      <c r="M867" s="7"/>
+      <c r="N867" s="7"/>
+    </row>
+    <row r="868" spans="11:14">
+      <c r="K868" s="7"/>
+      <c r="L868" s="7"/>
+      <c r="M868" s="7"/>
+      <c r="N868" s="7"/>
+    </row>
+    <row r="869" spans="11:14">
+      <c r="K869" s="7"/>
+      <c r="L869" s="7"/>
+      <c r="M869" s="7"/>
+      <c r="N869" s="7"/>
+    </row>
+    <row r="870" spans="11:14">
+      <c r="K870" s="7"/>
+      <c r="L870" s="7"/>
+      <c r="M870" s="7"/>
+      <c r="N870" s="7"/>
+    </row>
+    <row r="871" spans="11:14">
+      <c r="K871" s="7"/>
+      <c r="L871" s="7"/>
+      <c r="M871" s="7"/>
+      <c r="N871" s="7"/>
+    </row>
+    <row r="872" spans="11:14">
+      <c r="K872" s="7"/>
+      <c r="L872" s="7"/>
+      <c r="M872" s="7"/>
+      <c r="N872" s="7"/>
+    </row>
+    <row r="873" spans="11:14">
+      <c r="K873" s="7"/>
+      <c r="L873" s="7"/>
+      <c r="M873" s="7"/>
+      <c r="N873" s="7"/>
+    </row>
+    <row r="874" spans="11:14">
+      <c r="K874" s="7"/>
+      <c r="L874" s="7"/>
+      <c r="M874" s="7"/>
+      <c r="N874" s="7"/>
+    </row>
+    <row r="875" spans="11:14">
+      <c r="K875" s="7"/>
+      <c r="L875" s="7"/>
+      <c r="M875" s="7"/>
+      <c r="N875" s="7"/>
+    </row>
+    <row r="876" spans="11:14">
+      <c r="K876" s="7"/>
+      <c r="L876" s="7"/>
+      <c r="M876" s="7"/>
+      <c r="N876" s="7"/>
+    </row>
+    <row r="877" spans="11:14">
+      <c r="K877" s="7"/>
+      <c r="L877" s="7"/>
+      <c r="M877" s="7"/>
+      <c r="N877" s="7"/>
+    </row>
+    <row r="878" spans="11:14">
+      <c r="K878" s="7"/>
+      <c r="L878" s="7"/>
+      <c r="M878" s="7"/>
+      <c r="N878" s="7"/>
+    </row>
+    <row r="879" spans="11:14">
+      <c r="K879" s="7"/>
+      <c r="L879" s="7"/>
+      <c r="M879" s="7"/>
+      <c r="N879" s="7"/>
+    </row>
+    <row r="880" spans="11:14">
+      <c r="K880" s="7"/>
+      <c r="L880" s="7"/>
+      <c r="M880" s="7"/>
+      <c r="N880" s="7"/>
+    </row>
+    <row r="881" spans="11:14">
+      <c r="K881" s="7"/>
+      <c r="L881" s="7"/>
+      <c r="M881" s="7"/>
+      <c r="N881" s="7"/>
+    </row>
+    <row r="882" spans="11:14">
+      <c r="K882" s="7"/>
+      <c r="L882" s="7"/>
+      <c r="M882" s="7"/>
+      <c r="N882" s="7"/>
+    </row>
+    <row r="883" spans="11:14">
+      <c r="K883" s="7"/>
+      <c r="L883" s="7"/>
+      <c r="M883" s="7"/>
+      <c r="N883" s="7"/>
+    </row>
+    <row r="884" spans="11:14">
+      <c r="K884" s="7"/>
+      <c r="L884" s="7"/>
+      <c r="M884" s="7"/>
+      <c r="N884" s="7"/>
+    </row>
+    <row r="885" spans="11:14">
+      <c r="K885" s="7"/>
+      <c r="L885" s="7"/>
+      <c r="M885" s="7"/>
+      <c r="N885" s="7"/>
+    </row>
+    <row r="886" spans="11:14">
+      <c r="K886" s="7"/>
+      <c r="L886" s="7"/>
+      <c r="M886" s="7"/>
+      <c r="N886" s="7"/>
+    </row>
+    <row r="887" spans="11:14">
+      <c r="K887" s="7"/>
+      <c r="L887" s="7"/>
+      <c r="M887" s="7"/>
+      <c r="N887" s="7"/>
+    </row>
+    <row r="888" spans="11:14">
+      <c r="K888" s="7"/>
+      <c r="L888" s="7"/>
+      <c r="M888" s="7"/>
+      <c r="N888" s="7"/>
+    </row>
+    <row r="889" spans="11:14">
+      <c r="K889" s="7"/>
+      <c r="L889" s="7"/>
+      <c r="M889" s="7"/>
+      <c r="N889" s="7"/>
+    </row>
+    <row r="890" spans="11:14">
+      <c r="K890" s="7"/>
+      <c r="L890" s="7"/>
+      <c r="M890" s="7"/>
+      <c r="N890" s="7"/>
+    </row>
+    <row r="891" spans="11:14">
+      <c r="K891" s="7"/>
+      <c r="L891" s="7"/>
+      <c r="M891" s="7"/>
+      <c r="N891" s="7"/>
+    </row>
+    <row r="892" spans="11:14">
+      <c r="K892" s="7"/>
+      <c r="L892" s="7"/>
+      <c r="M892" s="7"/>
+      <c r="N892" s="7"/>
+    </row>
+    <row r="893" spans="11:14">
+      <c r="K893" s="7"/>
+      <c r="L893" s="7"/>
+      <c r="M893" s="7"/>
+      <c r="N893" s="7"/>
+    </row>
+    <row r="894" spans="11:14">
+      <c r="K894" s="7"/>
+      <c r="L894" s="7"/>
+      <c r="M894" s="7"/>
+      <c r="N894" s="7"/>
+    </row>
+    <row r="895" spans="11:14">
+      <c r="K895" s="7"/>
+      <c r="L895" s="7"/>
+      <c r="M895" s="7"/>
+      <c r="N895" s="7"/>
+    </row>
+    <row r="896" spans="11:14">
+      <c r="K896" s="7"/>
+      <c r="L896" s="7"/>
+      <c r="M896" s="7"/>
+      <c r="N896" s="7"/>
+    </row>
+    <row r="897" spans="11:14">
+      <c r="K897" s="7"/>
+      <c r="L897" s="7"/>
+      <c r="M897" s="7"/>
+      <c r="N897" s="7"/>
+    </row>
+    <row r="898" spans="11:14">
+      <c r="K898" s="7"/>
+      <c r="L898" s="7"/>
+      <c r="M898" s="7"/>
+      <c r="N898" s="7"/>
+    </row>
+    <row r="899" spans="11:14">
+      <c r="K899" s="7"/>
+      <c r="L899" s="7"/>
+      <c r="M899" s="7"/>
+      <c r="N899" s="7"/>
+    </row>
+    <row r="900" spans="11:14">
+      <c r="K900" s="7"/>
+      <c r="L900" s="7"/>
+      <c r="M900" s="7"/>
+      <c r="N900" s="7"/>
+    </row>
+    <row r="901" spans="11:14">
+      <c r="K901" s="7"/>
+      <c r="L901" s="7"/>
+      <c r="M901" s="7"/>
+      <c r="N901" s="7"/>
+    </row>
+    <row r="902" spans="11:14">
+      <c r="K902" s="7"/>
+      <c r="L902" s="7"/>
+      <c r="M902" s="7"/>
+      <c r="N902" s="7"/>
+    </row>
+    <row r="903" spans="11:14">
+      <c r="K903" s="7"/>
+      <c r="L903" s="7"/>
+      <c r="M903" s="7"/>
+      <c r="N903" s="7"/>
+    </row>
+    <row r="904" spans="11:14">
+      <c r="K904" s="7"/>
+      <c r="L904" s="7"/>
+      <c r="M904" s="7"/>
+      <c r="N904" s="7"/>
+    </row>
+    <row r="905" spans="11:14">
+      <c r="K905" s="7"/>
+      <c r="L905" s="7"/>
+      <c r="M905" s="7"/>
+      <c r="N905" s="7"/>
+    </row>
+    <row r="906" spans="11:14">
+      <c r="K906" s="7"/>
+      <c r="L906" s="7"/>
+      <c r="M906" s="7"/>
+      <c r="N906" s="7"/>
+    </row>
+    <row r="907" spans="11:14">
+      <c r="K907" s="7"/>
+      <c r="L907" s="7"/>
+      <c r="M907" s="7"/>
+      <c r="N907" s="7"/>
+    </row>
+    <row r="908" spans="11:14">
+      <c r="K908" s="7"/>
+      <c r="L908" s="7"/>
+      <c r="M908" s="7"/>
+      <c r="N908" s="7"/>
+    </row>
+    <row r="909" spans="11:14">
+      <c r="K909" s="7"/>
+      <c r="L909" s="7"/>
+      <c r="M909" s="7"/>
+      <c r="N909" s="7"/>
+    </row>
+    <row r="910" spans="11:14">
+      <c r="K910" s="7"/>
+      <c r="L910" s="7"/>
+      <c r="M910" s="7"/>
+      <c r="N910" s="7"/>
+    </row>
+    <row r="911" spans="11:14">
+      <c r="K911" s="7"/>
+      <c r="L911" s="7"/>
+      <c r="M911" s="7"/>
+      <c r="N911" s="7"/>
+    </row>
+    <row r="912" spans="11:14">
+      <c r="K912" s="7"/>
+      <c r="L912" s="7"/>
+      <c r="M912" s="7"/>
+      <c r="N912" s="7"/>
+    </row>
+    <row r="913" spans="11:14">
+      <c r="K913" s="7"/>
+      <c r="L913" s="7"/>
+      <c r="M913" s="7"/>
+      <c r="N913" s="7"/>
+    </row>
+    <row r="914" spans="11:14">
+      <c r="K914" s="7"/>
+      <c r="L914" s="7"/>
+      <c r="M914" s="7"/>
+      <c r="N914" s="7"/>
+    </row>
+    <row r="915" spans="11:14">
+      <c r="K915" s="7"/>
+      <c r="L915" s="7"/>
+      <c r="M915" s="7"/>
+      <c r="N915" s="7"/>
+    </row>
+    <row r="916" spans="11:14">
+      <c r="K916" s="7"/>
+      <c r="L916" s="7"/>
+      <c r="M916" s="7"/>
+      <c r="N916" s="7"/>
+    </row>
+    <row r="917" spans="11:14">
+      <c r="K917" s="7"/>
+      <c r="L917" s="7"/>
+      <c r="M917" s="7"/>
+      <c r="N917" s="7"/>
+    </row>
+    <row r="918" spans="11:14">
+      <c r="K918" s="7"/>
+      <c r="L918" s="7"/>
+      <c r="M918" s="7"/>
+      <c r="N918" s="7"/>
+    </row>
+    <row r="919" spans="11:14">
+      <c r="K919" s="7"/>
+      <c r="L919" s="7"/>
+      <c r="M919" s="7"/>
+      <c r="N919" s="7"/>
+    </row>
+    <row r="920" spans="11:14">
+      <c r="K920" s="7"/>
+      <c r="L920" s="7"/>
+      <c r="M920" s="7"/>
+      <c r="N920" s="7"/>
+    </row>
+    <row r="921" spans="11:14">
+      <c r="K921" s="7"/>
+      <c r="L921" s="7"/>
+      <c r="M921" s="7"/>
+      <c r="N921" s="7"/>
+    </row>
+    <row r="922" spans="11:14">
+      <c r="K922" s="7"/>
+      <c r="L922" s="7"/>
+      <c r="M922" s="7"/>
+      <c r="N922" s="7"/>
+    </row>
+    <row r="923" spans="11:14">
+      <c r="K923" s="7"/>
+      <c r="L923" s="7"/>
+      <c r="M923" s="7"/>
+      <c r="N923" s="7"/>
+    </row>
+    <row r="924" spans="11:14">
+      <c r="K924" s="7"/>
+      <c r="L924" s="7"/>
+      <c r="M924" s="7"/>
+      <c r="N924" s="7"/>
+    </row>
+    <row r="925" spans="11:14">
+      <c r="K925" s="7"/>
+      <c r="L925" s="7"/>
+      <c r="M925" s="7"/>
+      <c r="N925" s="7"/>
+    </row>
+    <row r="926" spans="11:14">
+      <c r="K926" s="7"/>
+      <c r="L926" s="7"/>
+      <c r="M926" s="7"/>
+      <c r="N926" s="7"/>
+    </row>
+    <row r="927" spans="11:14">
+      <c r="K927" s="7"/>
+      <c r="L927" s="7"/>
+      <c r="M927" s="7"/>
+      <c r="N927" s="7"/>
+    </row>
+    <row r="928" spans="11:14">
+      <c r="K928" s="7"/>
+      <c r="L928" s="7"/>
+      <c r="M928" s="7"/>
+      <c r="N928" s="7"/>
+    </row>
+    <row r="929" spans="11:14">
+      <c r="K929" s="7"/>
+      <c r="L929" s="7"/>
+      <c r="M929" s="7"/>
+      <c r="N929" s="7"/>
+    </row>
+    <row r="930" spans="11:14">
+      <c r="K930" s="7"/>
+      <c r="L930" s="7"/>
+      <c r="M930" s="7"/>
+      <c r="N930" s="7"/>
+    </row>
+    <row r="931" spans="11:14">
+      <c r="K931" s="7"/>
+      <c r="L931" s="7"/>
+      <c r="M931" s="7"/>
+      <c r="N931" s="7"/>
+    </row>
+    <row r="932" spans="11:14">
+      <c r="K932" s="7"/>
+      <c r="L932" s="7"/>
+      <c r="M932" s="7"/>
+      <c r="N932" s="7"/>
+    </row>
+    <row r="933" spans="11:14">
+      <c r="K933" s="7"/>
+      <c r="L933" s="7"/>
+      <c r="M933" s="7"/>
+      <c r="N933" s="7"/>
+    </row>
+    <row r="934" spans="11:14">
+      <c r="K934" s="7"/>
+      <c r="L934" s="7"/>
+      <c r="M934" s="7"/>
+      <c r="N934" s="7"/>
+    </row>
+    <row r="935" spans="11:14">
+      <c r="K935" s="7"/>
+      <c r="L935" s="7"/>
+      <c r="M935" s="7"/>
+      <c r="N935" s="7"/>
+    </row>
+    <row r="936" spans="11:14">
+      <c r="K936" s="7"/>
+      <c r="L936" s="7"/>
+      <c r="M936" s="7"/>
+      <c r="N936" s="7"/>
+    </row>
+    <row r="937" spans="11:14">
+      <c r="K937" s="7"/>
+      <c r="L937" s="7"/>
+      <c r="M937" s="7"/>
+      <c r="N937" s="7"/>
+    </row>
+    <row r="938" spans="11:14">
+      <c r="K938" s="7"/>
+      <c r="L938" s="7"/>
+      <c r="M938" s="7"/>
+      <c r="N938" s="7"/>
+    </row>
+    <row r="939" spans="11:14">
+      <c r="K939" s="7"/>
+      <c r="L939" s="7"/>
+      <c r="M939" s="7"/>
+      <c r="N939" s="7"/>
+    </row>
+    <row r="940" spans="11:14">
+      <c r="K940" s="7"/>
+      <c r="L940" s="7"/>
+      <c r="M940" s="7"/>
+      <c r="N940" s="7"/>
+    </row>
+    <row r="941" spans="11:14">
+      <c r="K941" s="7"/>
+      <c r="L941" s="7"/>
+      <c r="M941" s="7"/>
+      <c r="N941" s="7"/>
+    </row>
+    <row r="942" spans="11:14">
+      <c r="K942" s="7"/>
+      <c r="L942" s="7"/>
+      <c r="M942" s="7"/>
+      <c r="N942" s="7"/>
+    </row>
+    <row r="943" spans="11:14">
+      <c r="K943" s="7"/>
+      <c r="L943" s="7"/>
+      <c r="M943" s="7"/>
+      <c r="N943" s="7"/>
+    </row>
+    <row r="944" spans="11:14">
+      <c r="K944" s="7"/>
+      <c r="L944" s="7"/>
+      <c r="M944" s="7"/>
+      <c r="N944" s="7"/>
+    </row>
+    <row r="945" spans="11:14">
+      <c r="K945" s="7"/>
+      <c r="L945" s="7"/>
+      <c r="M945" s="7"/>
+      <c r="N945" s="7"/>
+    </row>
+    <row r="946" spans="11:14">
+      <c r="K946" s="7"/>
+      <c r="L946" s="7"/>
+      <c r="M946" s="7"/>
+      <c r="N946" s="7"/>
+    </row>
+    <row r="947" spans="11:14">
+      <c r="K947" s="7"/>
+      <c r="L947" s="7"/>
+      <c r="M947" s="7"/>
+      <c r="N947" s="7"/>
+    </row>
+    <row r="948" spans="11:14">
+      <c r="K948" s="7"/>
+      <c r="L948" s="7"/>
+      <c r="M948" s="7"/>
+      <c r="N948" s="7"/>
+    </row>
+    <row r="949" spans="11:14">
+      <c r="K949" s="7"/>
+      <c r="L949" s="7"/>
+      <c r="M949" s="7"/>
+      <c r="N949" s="7"/>
+    </row>
+    <row r="950" spans="11:14">
+      <c r="K950" s="7"/>
+      <c r="L950" s="7"/>
+      <c r="M950" s="7"/>
+      <c r="N950" s="7"/>
+    </row>
+    <row r="951" spans="11:14">
+      <c r="K951" s="7"/>
+      <c r="L951" s="7"/>
+      <c r="M951" s="7"/>
+      <c r="N951" s="7"/>
+    </row>
+    <row r="952" spans="11:14">
+      <c r="K952" s="7"/>
+      <c r="L952" s="7"/>
+      <c r="M952" s="7"/>
+      <c r="N952" s="7"/>
+    </row>
+    <row r="953" spans="11:14">
+      <c r="K953" s="7"/>
+      <c r="L953" s="7"/>
+      <c r="M953" s="7"/>
+      <c r="N953" s="7"/>
+    </row>
+    <row r="954" spans="11:14">
+      <c r="K954" s="7"/>
+      <c r="L954" s="7"/>
+      <c r="M954" s="7"/>
+      <c r="N954" s="7"/>
+    </row>
+    <row r="955" spans="11:14">
+      <c r="K955" s="7"/>
+      <c r="L955" s="7"/>
+      <c r="M955" s="7"/>
+      <c r="N955" s="7"/>
+    </row>
+    <row r="956" spans="11:14">
+      <c r="K956" s="7"/>
+      <c r="L956" s="7"/>
+      <c r="M956" s="7"/>
+      <c r="N956" s="7"/>
+    </row>
+    <row r="957" spans="11:14">
+      <c r="K957" s="7"/>
+      <c r="L957" s="7"/>
+      <c r="M957" s="7"/>
+      <c r="N957" s="7"/>
+    </row>
+    <row r="958" spans="11:14">
+      <c r="K958" s="7"/>
+      <c r="L958" s="7"/>
+      <c r="M958" s="7"/>
+      <c r="N958" s="7"/>
+    </row>
+    <row r="959" spans="11:14">
+      <c r="K959" s="7"/>
+      <c r="L959" s="7"/>
+      <c r="M959" s="7"/>
+      <c r="N959" s="7"/>
+    </row>
+    <row r="960" spans="11:14">
+      <c r="K960" s="7"/>
+      <c r="L960" s="7"/>
+      <c r="M960" s="7"/>
+      <c r="N960" s="7"/>
+    </row>
+    <row r="961" spans="11:14">
+      <c r="K961" s="7"/>
+      <c r="L961" s="7"/>
+      <c r="M961" s="7"/>
+      <c r="N961" s="7"/>
+    </row>
+    <row r="962" spans="11:14">
+      <c r="K962" s="7"/>
+      <c r="L962" s="7"/>
+      <c r="M962" s="7"/>
+      <c r="N962" s="7"/>
+    </row>
+    <row r="963" spans="11:14">
+      <c r="K963" s="7"/>
+      <c r="L963" s="7"/>
+      <c r="M963" s="7"/>
+      <c r="N963" s="7"/>
+    </row>
+    <row r="964" spans="11:14">
+      <c r="K964" s="7"/>
+      <c r="L964" s="7"/>
+      <c r="M964" s="7"/>
+      <c r="N964" s="7"/>
+    </row>
+    <row r="965" spans="11:14">
+      <c r="K965" s="7"/>
+      <c r="L965" s="7"/>
+      <c r="M965" s="7"/>
+      <c r="N965" s="7"/>
+    </row>
+    <row r="966" spans="11:14">
+      <c r="K966" s="7"/>
+      <c r="L966" s="7"/>
+      <c r="M966" s="7"/>
+      <c r="N966" s="7"/>
+    </row>
+    <row r="967" spans="11:14">
+      <c r="K967" s="7"/>
+      <c r="L967" s="7"/>
+      <c r="M967" s="7"/>
+      <c r="N967" s="7"/>
+    </row>
+    <row r="968" spans="11:14">
+      <c r="K968" s="7"/>
+      <c r="L968" s="7"/>
+      <c r="M968" s="7"/>
+      <c r="N968" s="7"/>
+    </row>
+    <row r="969" spans="11:14">
+      <c r="K969" s="7"/>
+      <c r="L969" s="7"/>
+      <c r="M969" s="7"/>
+      <c r="N969" s="7"/>
+    </row>
+    <row r="970" spans="11:14">
+      <c r="K970" s="7"/>
+      <c r="L970" s="7"/>
+      <c r="M970" s="7"/>
+      <c r="N970" s="7"/>
+    </row>
+    <row r="971" spans="11:14">
+      <c r="K971" s="7"/>
+      <c r="L971" s="7"/>
+      <c r="M971" s="7"/>
+      <c r="N971" s="7"/>
+    </row>
+    <row r="972" spans="11:14">
+      <c r="K972" s="7"/>
+      <c r="L972" s="7"/>
+      <c r="M972" s="7"/>
+      <c r="N972" s="7"/>
+    </row>
+    <row r="973" spans="11:14">
+      <c r="K973" s="7"/>
+      <c r="L973" s="7"/>
+      <c r="M973" s="7"/>
+      <c r="N973" s="7"/>
+    </row>
+    <row r="974" spans="11:14">
+      <c r="K974" s="7"/>
+      <c r="L974" s="7"/>
+      <c r="M974" s="7"/>
+      <c r="N974" s="7"/>
+    </row>
+    <row r="975" spans="11:14">
+      <c r="K975" s="7"/>
+      <c r="L975" s="7"/>
+      <c r="M975" s="7"/>
+      <c r="N975" s="7"/>
+    </row>
+    <row r="976" spans="11:14">
+      <c r="K976" s="7"/>
+      <c r="L976" s="7"/>
+      <c r="M976" s="7"/>
+      <c r="N976" s="7"/>
+    </row>
+    <row r="977" spans="11:14">
+      <c r="K977" s="7"/>
+      <c r="L977" s="7"/>
+      <c r="M977" s="7"/>
+      <c r="N977" s="7"/>
+    </row>
+    <row r="978" spans="11:14">
+      <c r="K978" s="7"/>
+      <c r="L978" s="7"/>
+      <c r="M978" s="7"/>
+      <c r="N978" s="7"/>
+    </row>
+    <row r="979" spans="11:14">
+      <c r="K979" s="7"/>
+      <c r="L979" s="7"/>
+      <c r="M979" s="7"/>
+      <c r="N979" s="7"/>
+    </row>
+    <row r="980" spans="11:14">
+      <c r="K980" s="7"/>
+      <c r="L980" s="7"/>
+      <c r="M980" s="7"/>
+      <c r="N980" s="7"/>
+    </row>
+    <row r="981" spans="11:14">
+      <c r="K981" s="7"/>
+      <c r="L981" s="7"/>
+      <c r="M981" s="7"/>
+      <c r="N981" s="7"/>
+    </row>
+    <row r="982" spans="11:14">
+      <c r="K982" s="7"/>
+      <c r="L982" s="7"/>
+      <c r="M982" s="7"/>
+      <c r="N982" s="7"/>
+    </row>
+    <row r="983" spans="11:14">
+      <c r="K983" s="7"/>
+      <c r="L983" s="7"/>
+      <c r="M983" s="7"/>
+      <c r="N983" s="7"/>
+    </row>
+    <row r="984" spans="11:14">
+      <c r="K984" s="7"/>
+      <c r="L984" s="7"/>
+      <c r="M984" s="7"/>
+      <c r="N984" s="7"/>
+    </row>
+    <row r="985" spans="11:14">
+      <c r="K985" s="7"/>
+      <c r="L985" s="7"/>
+      <c r="M985" s="7"/>
+      <c r="N985" s="7"/>
+    </row>
+    <row r="986" spans="11:14">
+      <c r="K986" s="7"/>
+      <c r="L986" s="7"/>
+      <c r="M986" s="7"/>
+      <c r="N986" s="7"/>
+    </row>
+    <row r="987" spans="11:14">
+      <c r="K987" s="7"/>
+      <c r="L987" s="7"/>
+      <c r="M987" s="7"/>
+      <c r="N987" s="7"/>
+    </row>
+    <row r="988" spans="11:14">
+      <c r="K988" s="7"/>
+      <c r="L988" s="7"/>
+      <c r="M988" s="7"/>
+      <c r="N988" s="7"/>
+    </row>
+    <row r="989" spans="11:14">
+      <c r="K989" s="7"/>
+      <c r="L989" s="7"/>
+      <c r="M989" s="7"/>
+      <c r="N989" s="7"/>
+    </row>
+    <row r="990" spans="11:14">
+      <c r="K990" s="7"/>
+      <c r="L990" s="7"/>
+      <c r="M990" s="7"/>
+      <c r="N990" s="7"/>
+    </row>
+    <row r="991" spans="11:14">
+      <c r="K991" s="7"/>
+      <c r="L991" s="7"/>
+      <c r="M991" s="7"/>
+      <c r="N991" s="7"/>
+    </row>
+    <row r="992" spans="11:14">
+      <c r="K992" s="7"/>
+      <c r="L992" s="7"/>
+      <c r="M992" s="7"/>
+      <c r="N992" s="7"/>
+    </row>
+    <row r="993" spans="11:14">
+      <c r="K993" s="7"/>
+      <c r="L993" s="7"/>
+      <c r="M993" s="7"/>
+      <c r="N993" s="7"/>
+    </row>
+    <row r="994" spans="11:14">
+      <c r="K994" s="7"/>
+      <c r="L994" s="7"/>
+      <c r="M994" s="7"/>
+      <c r="N994" s="7"/>
+    </row>
+    <row r="995" spans="11:14">
+      <c r="K995" s="7"/>
+      <c r="L995" s="7"/>
+      <c r="M995" s="7"/>
+      <c r="N995" s="7"/>
+    </row>
+    <row r="996" spans="11:14">
+      <c r="K996" s="7"/>
+      <c r="L996" s="7"/>
+      <c r="M996" s="7"/>
+      <c r="N996" s="7"/>
+    </row>
+    <row r="997" spans="11:14">
+      <c r="K997" s="7"/>
+      <c r="L997" s="7"/>
+      <c r="M997" s="7"/>
+      <c r="N997" s="7"/>
+    </row>
+    <row r="998" spans="11:14">
+      <c r="K998" s="7"/>
+      <c r="L998" s="7"/>
+      <c r="M998" s="7"/>
+      <c r="N998" s="7"/>
+    </row>
+    <row r="999" spans="11:14">
+      <c r="K999" s="7"/>
+      <c r="L999" s="7"/>
+      <c r="M999" s="7"/>
+      <c r="N999" s="7"/>
+    </row>
+    <row r="1000" spans="11:14">
+      <c r="K1000" s="7"/>
+      <c r="L1000" s="7"/>
+      <c r="M1000" s="7"/>
+      <c r="N1000" s="7"/>
+    </row>
+    <row r="1001" spans="11:14">
+      <c r="K1001" s="7"/>
+      <c r="L1001" s="7"/>
+      <c r="M1001" s="7"/>
+      <c r="N1001" s="7"/>
+    </row>
+    <row r="1002" spans="11:14">
+      <c r="K1002" s="7"/>
+      <c r="L1002" s="7"/>
+      <c r="M1002" s="7"/>
+      <c r="N1002" s="7"/>
+    </row>
+    <row r="1003" spans="11:14">
+      <c r="K1003" s="7"/>
+      <c r="L1003" s="7"/>
+      <c r="M1003" s="7"/>
+      <c r="N1003" s="7"/>
+    </row>
+    <row r="1004" spans="11:14">
+      <c r="K1004" s="7"/>
+      <c r="L1004" s="7"/>
+      <c r="M1004" s="7"/>
+      <c r="N1004" s="7"/>
+    </row>
+    <row r="1005" spans="11:14">
+      <c r="K1005" s="7"/>
+      <c r="L1005" s="7"/>
+      <c r="M1005" s="7"/>
+      <c r="N1005" s="7"/>
+    </row>
+    <row r="1006" spans="11:14">
+      <c r="K1006" s="7"/>
+      <c r="L1006" s="7"/>
+      <c r="M1006" s="7"/>
+      <c r="N1006" s="7"/>
+    </row>
+    <row r="1007" spans="11:14">
+      <c r="K1007" s="7"/>
+      <c r="L1007" s="7"/>
+      <c r="M1007" s="7"/>
+      <c r="N1007" s="7"/>
+    </row>
+    <row r="1008" spans="11:14">
+      <c r="K1008" s="7"/>
+      <c r="L1008" s="7"/>
+      <c r="M1008" s="7"/>
+      <c r="N1008" s="7"/>
+    </row>
+    <row r="1009" spans="11:14">
+      <c r="K1009" s="7"/>
+      <c r="L1009" s="7"/>
+      <c r="M1009" s="7"/>
+      <c r="N1009" s="7"/>
+    </row>
+    <row r="1010" spans="11:14">
+      <c r="K1010" s="7"/>
+      <c r="L1010" s="7"/>
+      <c r="M1010" s="7"/>
+      <c r="N1010" s="7"/>
+    </row>
+    <row r="1011" spans="11:14">
+      <c r="K1011" s="7"/>
+      <c r="L1011" s="7"/>
+      <c r="M1011" s="7"/>
+      <c r="N1011" s="7"/>
+    </row>
+    <row r="1012" spans="11:14">
+      <c r="K1012" s="7"/>
+      <c r="L1012" s="7"/>
+      <c r="M1012" s="7"/>
+      <c r="N1012" s="7"/>
+    </row>
+    <row r="1013" spans="11:14">
+      <c r="K1013" s="7"/>
+      <c r="L1013" s="7"/>
+      <c r="M1013" s="7"/>
+      <c r="N1013" s="7"/>
+    </row>
+    <row r="1014" spans="11:14">
+      <c r="K1014" s="7"/>
+      <c r="L1014" s="7"/>
+      <c r="M1014" s="7"/>
+      <c r="N1014" s="7"/>
+    </row>
+    <row r="1015" spans="11:14">
+      <c r="K1015" s="7"/>
+      <c r="L1015" s="7"/>
+      <c r="M1015" s="7"/>
+      <c r="N1015" s="7"/>
+    </row>
+    <row r="1016" spans="11:14">
+      <c r="K1016" s="7"/>
+      <c r="L1016" s="7"/>
+      <c r="M1016" s="7"/>
+      <c r="N1016" s="7"/>
+    </row>
+    <row r="1017" spans="11:14">
+      <c r="K1017" s="7"/>
+      <c r="L1017" s="7"/>
+      <c r="M1017" s="7"/>
+      <c r="N1017" s="7"/>
+    </row>
+    <row r="1018" spans="11:14">
+      <c r="K1018" s="7"/>
+      <c r="L1018" s="7"/>
+      <c r="M1018" s="7"/>
+      <c r="N1018" s="7"/>
+    </row>
+    <row r="1019" spans="11:14">
+      <c r="K1019" s="7"/>
+      <c r="L1019" s="7"/>
+      <c r="M1019" s="7"/>
+      <c r="N1019" s="7"/>
+    </row>
+    <row r="1020" spans="11:14">
+      <c r="K1020" s="7"/>
+      <c r="L1020" s="7"/>
+      <c r="M1020" s="7"/>
+      <c r="N1020" s="7"/>
+    </row>
+    <row r="1021" spans="11:14">
+      <c r="K1021" s="7"/>
+      <c r="L1021" s="7"/>
+      <c r="M1021" s="7"/>
+      <c r="N1021" s="7"/>
+    </row>
+    <row r="1022" spans="11:14">
+      <c r="K1022" s="7"/>
+      <c r="L1022" s="7"/>
+      <c r="M1022" s="7"/>
+      <c r="N1022" s="7"/>
+    </row>
+    <row r="1023" spans="11:14">
+      <c r="K1023" s="7"/>
+      <c r="L1023" s="7"/>
+      <c r="M1023" s="7"/>
+      <c r="N1023" s="7"/>
+    </row>
+    <row r="1024" spans="11:14">
+      <c r="K1024" s="7"/>
+      <c r="L1024" s="7"/>
+      <c r="M1024" s="7"/>
+      <c r="N1024" s="7"/>
+    </row>
+    <row r="1025" spans="11:14">
+      <c r="K1025" s="7"/>
+      <c r="L1025" s="7"/>
+      <c r="M1025" s="7"/>
+      <c r="N1025" s="7"/>
+    </row>
+    <row r="1026" spans="11:14">
+      <c r="K1026" s="7"/>
+      <c r="L1026" s="7"/>
+      <c r="M1026" s="7"/>
+      <c r="N1026" s="7"/>
+    </row>
+    <row r="1027" spans="11:14">
+      <c r="K1027" s="7"/>
+      <c r="L1027" s="7"/>
+      <c r="M1027" s="7"/>
+      <c r="N1027" s="7"/>
+    </row>
+    <row r="1028" spans="11:14">
+      <c r="K1028" s="7"/>
+      <c r="L1028" s="7"/>
+      <c r="M1028" s="7"/>
+      <c r="N1028" s="7"/>
+    </row>
+    <row r="1029" spans="11:14">
+      <c r="K1029" s="7"/>
+      <c r="L1029" s="7"/>
+      <c r="M1029" s="7"/>
+      <c r="N1029" s="7"/>
+    </row>
+    <row r="1030" spans="11:14">
+      <c r="K1030" s="7"/>
+      <c r="L1030" s="7"/>
+      <c r="M1030" s="7"/>
+      <c r="N1030" s="7"/>
+    </row>
+    <row r="1031" spans="11:14">
+      <c r="K1031" s="7"/>
+      <c r="L1031" s="7"/>
+      <c r="M1031" s="7"/>
+      <c r="N1031" s="7"/>
+    </row>
+    <row r="1032" spans="11:14">
+      <c r="K1032" s="7"/>
+      <c r="L1032" s="7"/>
+      <c r="M1032" s="7"/>
+      <c r="N1032" s="7"/>
+    </row>
+    <row r="1033" spans="11:14">
+      <c r="K1033" s="7"/>
+      <c r="L1033" s="7"/>
+      <c r="M1033" s="7"/>
+      <c r="N1033" s="7"/>
+    </row>
+    <row r="1034" spans="11:14">
+      <c r="K1034" s="7"/>
+      <c r="L1034" s="7"/>
+      <c r="M1034" s="7"/>
+      <c r="N1034" s="7"/>
+    </row>
+    <row r="1035" spans="11:14">
+      <c r="K1035" s="7"/>
+      <c r="L1035" s="7"/>
+      <c r="M1035" s="7"/>
+      <c r="N1035" s="7"/>
+    </row>
+    <row r="1036" spans="11:14">
+      <c r="K1036" s="7"/>
+      <c r="L1036" s="7"/>
+      <c r="M1036" s="7"/>
+      <c r="N1036" s="7"/>
+    </row>
+    <row r="1037" spans="11:14">
+      <c r="K1037" s="7"/>
+      <c r="L1037" s="7"/>
+      <c r="M1037" s="7"/>
+      <c r="N1037" s="7"/>
+    </row>
+    <row r="1038" spans="11:14">
+      <c r="K1038" s="7"/>
+      <c r="L1038" s="7"/>
+      <c r="M1038" s="7"/>
+      <c r="N1038" s="7"/>
+    </row>
+    <row r="1039" spans="11:14">
+      <c r="K1039" s="7"/>
+      <c r="L1039" s="7"/>
+      <c r="M1039" s="7"/>
+      <c r="N1039" s="7"/>
+    </row>
+    <row r="1040" spans="11:14">
+      <c r="K1040" s="7"/>
+      <c r="L1040" s="7"/>
+      <c r="M1040" s="7"/>
+      <c r="N1040" s="7"/>
+    </row>
+    <row r="1041" spans="11:14">
+      <c r="K1041" s="7"/>
+      <c r="L1041" s="7"/>
+      <c r="M1041" s="7"/>
+      <c r="N1041" s="7"/>
+    </row>
+    <row r="1042" spans="11:14">
+      <c r="K1042" s="7"/>
+      <c r="L1042" s="7"/>
+      <c r="M1042" s="7"/>
+      <c r="N1042" s="7"/>
+    </row>
+    <row r="1043" spans="11:14">
+      <c r="K1043" s="7"/>
+      <c r="L1043" s="7"/>
+      <c r="M1043" s="7"/>
+      <c r="N1043" s="7"/>
+    </row>
+    <row r="1044" spans="11:14">
+      <c r="K1044" s="7"/>
+      <c r="L1044" s="7"/>
+      <c r="M1044" s="7"/>
+      <c r="N1044" s="7"/>
+    </row>
+    <row r="1045" spans="11:14">
+      <c r="K1045" s="7"/>
+      <c r="L1045" s="7"/>
+      <c r="M1045" s="7"/>
+      <c r="N1045" s="7"/>
+    </row>
+    <row r="1046" spans="11:14">
+      <c r="K1046" s="7"/>
+      <c r="L1046" s="7"/>
+      <c r="M1046" s="7"/>
+      <c r="N1046" s="7"/>
+    </row>
+    <row r="1047" spans="11:14">
+      <c r="K1047" s="7"/>
+      <c r="L1047" s="7"/>
+      <c r="M1047" s="7"/>
+      <c r="N1047" s="7"/>
+    </row>
+    <row r="1048" spans="11:14">
+      <c r="K1048" s="7"/>
+      <c r="L1048" s="7"/>
+      <c r="M1048" s="7"/>
+      <c r="N1048" s="7"/>
+    </row>
+    <row r="1049" spans="11:14">
+      <c r="K1049" s="7"/>
+      <c r="L1049" s="7"/>
+      <c r="M1049" s="7"/>
+      <c r="N1049" s="7"/>
+    </row>
+    <row r="1050" spans="11:14">
+      <c r="K1050" s="7"/>
+      <c r="L1050" s="7"/>
+      <c r="M1050" s="7"/>
+      <c r="N1050" s="7"/>
+    </row>
+    <row r="1051" spans="11:14">
+      <c r="K1051" s="7"/>
+      <c r="L1051" s="7"/>
+      <c r="M1051" s="7"/>
+      <c r="N1051" s="7"/>
+    </row>
+    <row r="1052" spans="11:14">
+      <c r="K1052" s="7"/>
+      <c r="L1052" s="7"/>
+      <c r="M1052" s="7"/>
+      <c r="N1052" s="7"/>
+    </row>
+    <row r="1053" spans="11:14">
+      <c r="K1053" s="7"/>
+      <c r="L1053" s="7"/>
+      <c r="M1053" s="7"/>
+      <c r="N1053" s="7"/>
+    </row>
+    <row r="1054" spans="11:14">
+      <c r="K1054" s="7"/>
+      <c r="L1054" s="7"/>
+      <c r="M1054" s="7"/>
+      <c r="N1054" s="7"/>
+    </row>
+    <row r="1055" spans="11:14">
+      <c r="K1055" s="7"/>
+      <c r="L1055" s="7"/>
+      <c r="M1055" s="7"/>
+      <c r="N1055" s="7"/>
+    </row>
+    <row r="1056" spans="11:14">
+      <c r="K1056" s="7"/>
+      <c r="L1056" s="7"/>
+      <c r="M1056" s="7"/>
+      <c r="N1056" s="7"/>
+    </row>
+    <row r="1057" spans="11:14">
+      <c r="K1057" s="7"/>
+      <c r="L1057" s="7"/>
+      <c r="M1057" s="7"/>
+      <c r="N1057" s="7"/>
+    </row>
+    <row r="1058" spans="11:14">
+      <c r="K1058" s="7"/>
+      <c r="L1058" s="7"/>
+      <c r="M1058" s="7"/>
+      <c r="N1058" s="7"/>
+    </row>
+    <row r="1059" spans="11:14">
+      <c r="K1059" s="7"/>
+      <c r="L1059" s="7"/>
+      <c r="M1059" s="7"/>
+      <c r="N1059" s="7"/>
+    </row>
+    <row r="1060" spans="11:14">
+      <c r="K1060" s="7"/>
+      <c r="L1060" s="7"/>
+      <c r="M1060" s="7"/>
+      <c r="N1060" s="7"/>
+    </row>
+    <row r="1061" spans="11:14">
+      <c r="K1061" s="7"/>
+      <c r="L1061" s="7"/>
+      <c r="M1061" s="7"/>
+      <c r="N1061" s="7"/>
+    </row>
+    <row r="1062" spans="11:14">
+      <c r="K1062" s="7"/>
+      <c r="L1062" s="7"/>
+      <c r="M1062" s="7"/>
+      <c r="N1062" s="7"/>
+    </row>
+    <row r="1063" spans="11:14">
+      <c r="K1063" s="7"/>
+      <c r="L1063" s="7"/>
+      <c r="M1063" s="7"/>
+      <c r="N1063" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O393"/>
+  <autoFilter ref="A1:O404"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -10,7 +10,7 @@
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$413</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$416</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="406">
   <si>
     <t>No</t>
   </si>
@@ -1900,985 +1900,1047 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホケンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒尾市</t>
+    <rPh sb="0" eb="3">
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南小国町</t>
+    <rPh sb="0" eb="4">
+      <t>ミナミオグニマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上天草市</t>
+    <rPh sb="0" eb="4">
+      <t>カミアマクサシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="3">
+      <t>キクチシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御船町</t>
+    <rPh sb="0" eb="2">
+      <t>ミフネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売員</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘉島町</t>
+    <rPh sb="0" eb="3">
+      <t>カシママチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>留学生</t>
+    <rPh sb="0" eb="3">
+      <t>リュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="4">
+      <t>カイシャヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="2">
+      <t>ホイク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="3">
+      <t>チュウトウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>中等症</t>
     <rPh sb="0" eb="2">
       <t>チュウトウ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池保健所管内</t>
-    <rPh sb="0" eb="2">
-      <t>キクチ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホケンショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荒尾市</t>
-    <rPh sb="0" eb="3">
-      <t>アラオシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南小国町</t>
-    <rPh sb="0" eb="4">
-      <t>ミナミオグニマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上天草市</t>
-    <rPh sb="0" eb="4">
-      <t>カミアマクサシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設入所者</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマガ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池市</t>
-    <rPh sb="0" eb="3">
-      <t>キクチシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>御船町</t>
-    <rPh sb="0" eb="2">
-      <t>ミフネ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊陽町</t>
-    <rPh sb="0" eb="3">
-      <t>キクヨウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>販売員</t>
-    <rPh sb="0" eb="3">
-      <t>ハンバイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高校生</t>
-    <rPh sb="0" eb="3">
-      <t>コウコウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設入所者</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長洲町</t>
-    <rPh sb="0" eb="3">
-      <t>ナガスマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>嘉島町</t>
-    <rPh sb="0" eb="3">
-      <t>カシママチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>留学生</t>
-    <rPh sb="0" eb="3">
-      <t>リュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="4">
-      <t>カイシャヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="2">
-      <t>ホイク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>埼玉県</t>
-    <rPh sb="0" eb="3">
-      <t>サイタマケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療事務</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店経営</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3363,13 +3425,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O413"/>
+  <dimension ref="A1:O416"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B323" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B408" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K415" sqref="K415"/>
+      <selection pane="bottomRight" activeCell="D419" sqref="D419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -6838,7 +6900,7 @@
         <v>44039</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>126</v>
@@ -7650,14 +7712,14 @@
         <v>141</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="9">
         <v>0</v>
       </c>
       <c r="N106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" s="2"/>
     </row>
@@ -7874,7 +7936,7 @@
         <v>44039</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H112" s="14" t="s">
         <v>127</v>
@@ -8149,7 +8211,7 @@
         <v>44039</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>122</v>
@@ -8188,7 +8250,7 @@
         <v>44039</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>123</v>
@@ -11224,7 +11286,7 @@
         <v>244</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
@@ -12414,7 +12476,7 @@
         <v>246</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="L226" s="2"/>
       <c r="M226" s="2">
@@ -12455,7 +12517,7 @@
         <v>244</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L227" s="2"/>
       <c r="M227" s="2">
@@ -12929,7 +12991,7 @@
         <v>244</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="L239" s="2"/>
       <c r="M239" s="2">
@@ -13370,7 +13432,7 @@
         <v>238</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L250" s="2"/>
       <c r="M250" s="2">
@@ -13411,7 +13473,7 @@
         <v>239</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L251" s="2"/>
       <c r="M251" s="2">
@@ -15151,7 +15213,7 @@
         <v>238</v>
       </c>
       <c r="K295" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L295" s="2"/>
       <c r="M295" s="2">
@@ -15270,7 +15332,7 @@
         <v>239</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L298" s="2"/>
       <c r="M298" s="2">
@@ -15311,7 +15373,7 @@
         <v>239</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L299" s="2"/>
       <c r="M299" s="2">
@@ -16431,7 +16493,7 @@
         <v>38</v>
       </c>
       <c r="K327" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L327" s="2"/>
       <c r="M327" s="2">
@@ -16596,15 +16658,13 @@
       <c r="J331" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K331" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K331" s="2"/>
       <c r="L331" s="2"/>
       <c r="M331" s="2">
         <v>0</v>
       </c>
       <c r="N331" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O331" s="2"/>
     </row>
@@ -16639,15 +16699,13 @@
       <c r="J332" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K332" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K332" s="2"/>
       <c r="L332" s="2"/>
       <c r="M332" s="2">
         <v>0</v>
       </c>
       <c r="N332" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O332" s="2"/>
     </row>
@@ -16710,13 +16768,13 @@
         <v>44049</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J334" s="3" t="s">
         <v>140</v>
@@ -16751,16 +16809,16 @@
         <v>44049</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
@@ -16793,13 +16851,13 @@
         <v>166</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I336" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
@@ -16829,7 +16887,7 @@
         <v>44049</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>121</v>
@@ -16838,7 +16896,7 @@
         <v>132</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
@@ -16868,7 +16926,7 @@
         <v>44049</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>129</v>
@@ -16877,17 +16935,15 @@
         <v>104</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K338" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="K338" s="2"/>
       <c r="L338" s="2"/>
       <c r="M338" s="2">
         <v>0</v>
       </c>
       <c r="N338" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O338" s="2"/>
     </row>
@@ -16912,7 +16968,7 @@
         <v>166</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>132</v>
@@ -16987,7 +17043,7 @@
         <v>44050</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>127</v>
@@ -17026,7 +17082,7 @@
         <v>44050</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>121</v>
@@ -17035,7 +17091,7 @@
         <v>104</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
@@ -17065,7 +17121,7 @@
         <v>44050</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>121</v>
@@ -17104,7 +17160,7 @@
         <v>44050</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>123</v>
@@ -17113,7 +17169,7 @@
         <v>104</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K344" s="2" t="s">
         <v>103</v>
@@ -17145,7 +17201,7 @@
         <v>44050</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>129</v>
@@ -17186,7 +17242,7 @@
         <v>44050</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>128</v>
@@ -17197,15 +17253,13 @@
       <c r="J346" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K346" s="2" t="s">
-        <v>310</v>
-      </c>
+      <c r="K346" s="2"/>
       <c r="L346" s="2"/>
       <c r="M346" s="2">
         <v>0</v>
       </c>
       <c r="N346" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O346" s="2"/>
     </row>
@@ -17227,7 +17281,7 @@
         <v>44050</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>127</v>
@@ -17236,7 +17290,7 @@
         <v>132</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K347" s="2" t="s">
         <v>103</v>
@@ -17268,16 +17322,16 @@
         <v>44051</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
@@ -17307,19 +17361,19 @@
         <v>44051</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L349" s="2"/>
       <c r="M349" s="2">
@@ -17348,16 +17402,16 @@
         <v>44051</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
@@ -17395,10 +17449,10 @@
         <v>123</v>
       </c>
       <c r="I351" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J351" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="J351" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
@@ -17433,10 +17487,10 @@
         <v>120</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J352" s="3" t="s">
         <v>40</v>
@@ -17522,7 +17576,7 @@
         <v>162</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L354" s="2"/>
       <c r="M354" s="2">
@@ -17553,7 +17607,7 @@
         <v>44052</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>121</v>
@@ -17592,19 +17646,19 @@
         <v>44052</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H356" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I356" s="2" t="s">
+      <c r="J356" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J356" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="K356" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L356" s="2"/>
       <c r="M356" s="2">
@@ -17633,7 +17687,7 @@
         <v>44052</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>130</v>
@@ -17642,17 +17696,15 @@
         <v>104</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="K357" s="2" t="s">
-        <v>310</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="K357" s="2"/>
       <c r="L357" s="2"/>
       <c r="M357" s="2">
         <v>0</v>
       </c>
       <c r="N357" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O357" s="2"/>
     </row>
@@ -17674,7 +17726,7 @@
         <v>44052</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>122</v>
@@ -17683,7 +17735,7 @@
         <v>104</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K358" s="2" t="s">
         <v>144</v>
@@ -17715,10 +17767,10 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H359" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
@@ -17758,7 +17810,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -17808,7 +17860,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -17849,7 +17901,7 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K362" s="2" t="s">
         <v>103</v>
@@ -17884,13 +17936,13 @@
         <v>215</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K363" s="2" t="s">
         <v>182</v>
@@ -17925,13 +17977,13 @@
         <v>191</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K364" s="2" t="s">
         <v>182</v>
@@ -17966,13 +18018,13 @@
         <v>191</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K365" s="2" t="s">
         <v>182</v>
@@ -18007,13 +18059,13 @@
         <v>164</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -18054,7 +18106,7 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K367" s="2" t="s">
         <v>103</v>
@@ -18088,7 +18140,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -18131,7 +18183,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -18143,7 +18195,7 @@
         <v>38</v>
       </c>
       <c r="K369" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L369" s="2"/>
       <c r="M369" s="2">
@@ -18186,7 +18238,7 @@
         <v>38</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>327</v>
+        <v>404</v>
       </c>
       <c r="L370" s="2"/>
       <c r="M370" s="2">
@@ -18260,7 +18312,7 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>123</v>
@@ -18301,10 +18353,10 @@
         <v>44055</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>132</v>
@@ -18345,7 +18397,7 @@
         <v>221</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>132</v>
@@ -18381,7 +18433,7 @@
         <v>44055</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>122</v>
@@ -18422,7 +18474,7 @@
         <v>44055</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>122</v>
@@ -18465,19 +18517,19 @@
         <v>44056</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K377" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L377" s="2"/>
       <c r="M377" s="2">
@@ -18508,19 +18560,19 @@
         <v>44056</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K378" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L378" s="2"/>
       <c r="M378" s="2">
@@ -18551,7 +18603,7 @@
         <v>44056</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>121</v>
@@ -18560,17 +18612,15 @@
         <v>132</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K379" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="K379" s="2"/>
       <c r="L379" s="2"/>
       <c r="M379" s="2">
         <v>0</v>
       </c>
       <c r="N379" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O379" s="2"/>
     </row>
@@ -18594,16 +18644,16 @@
         <v>44056</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I380" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J380" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="J380" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="K380" s="2" t="s">
         <v>103</v>
@@ -18628,7 +18678,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E381" s="10">
         <v>44056</v>
@@ -18643,10 +18693,10 @@
         <v>123</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K381" s="2" t="s">
         <v>103</v>
@@ -18671,7 +18721,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E382" s="10">
         <v>44057</v>
@@ -18686,7 +18736,7 @@
         <v>121</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>47</v>
@@ -18714,7 +18764,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E383" s="10">
         <v>44057</v>
@@ -18729,10 +18779,10 @@
         <v>121</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K383" s="2" t="s">
         <v>103</v>
@@ -18764,7 +18814,7 @@
         <v>44056</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>123</v>
@@ -18773,7 +18823,7 @@
         <v>132</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K384" s="2" t="s">
         <v>103</v>
@@ -18805,7 +18855,7 @@
         <v>44056</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>123</v>
@@ -18814,7 +18864,7 @@
         <v>132</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K385" s="2" t="s">
         <v>144</v>
@@ -18846,7 +18896,7 @@
         <v>44056</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>121</v>
@@ -18855,10 +18905,10 @@
         <v>132</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K386" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L386" s="2"/>
       <c r="M386" s="2">
@@ -18887,7 +18937,7 @@
         <v>44056</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>127</v>
@@ -18896,10 +18946,10 @@
         <v>104</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K387" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L387" s="2"/>
       <c r="M387" s="2">
@@ -18930,16 +18980,16 @@
         <v>44057</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K388" s="2" t="s">
         <v>103</v>
@@ -18964,7 +19014,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E389" s="10">
         <v>44057</v>
@@ -18979,13 +19029,13 @@
         <v>123</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L389" s="2"/>
       <c r="M389" s="2">
@@ -19007,7 +19057,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E390" s="10">
         <v>44057</v>
@@ -19022,13 +19072,13 @@
         <v>55</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L390" s="2"/>
       <c r="M390" s="2">
@@ -19050,7 +19100,7 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E391" s="10">
         <v>44057</v>
@@ -19065,10 +19115,10 @@
         <v>123</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K391" s="2" t="s">
         <v>103</v>
@@ -19102,16 +19152,16 @@
         <v>44057</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H392" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I392" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="I392" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="J392" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K392" s="2" t="s">
         <v>103</v>
@@ -19145,19 +19195,19 @@
         <v>44057</v>
       </c>
       <c r="G393" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I393" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H393" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I393" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="J393" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K393" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L393" s="2"/>
       <c r="M393" s="2">
@@ -19186,19 +19236,19 @@
         <v>44057</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H394" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J394" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I394" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J394" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="K394" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L394" s="2"/>
       <c r="M394" s="2">
@@ -19227,19 +19277,19 @@
         <v>44057</v>
       </c>
       <c r="G395" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H395" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H395" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="I395" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K395" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L395" s="2"/>
       <c r="M395" s="2">
@@ -19270,13 +19320,13 @@
         <v>44058</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J396" s="3" t="s">
         <v>38</v>
@@ -19313,13 +19363,13 @@
         <v>44058</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J397" s="3" t="s">
         <v>38</v>
@@ -19356,13 +19406,13 @@
         <v>44058</v>
       </c>
       <c r="G398" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I398" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J398" s="3" t="s">
         <v>38</v>
@@ -19399,16 +19449,16 @@
         <v>44058</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K399" s="2" t="s">
         <v>103</v>
@@ -19442,10 +19492,10 @@
         <v>44058</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>104</v>
@@ -19485,10 +19535,10 @@
         <v>44058</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>76</v>
@@ -19497,7 +19547,7 @@
         <v>47</v>
       </c>
       <c r="K401" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L401" s="2"/>
       <c r="M401" s="4">
@@ -19528,10 +19578,10 @@
         <v>44058</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>76</v>
@@ -19540,7 +19590,7 @@
         <v>47</v>
       </c>
       <c r="K402" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L402" s="2"/>
       <c r="M402" s="4">
@@ -19571,16 +19621,16 @@
         <v>44058</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K403" s="2" t="s">
         <v>103</v>
@@ -19614,16 +19664,16 @@
         <v>44058</v>
       </c>
       <c r="G404" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H404" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="H404" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K404" s="2" t="s">
         <v>103</v>
@@ -19655,18 +19705,20 @@
         <v>44058</v>
       </c>
       <c r="G405" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I405" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="H405" s="2" t="s">
+      <c r="J405" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I405" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J405" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="K405" s="2"/>
+      <c r="K405" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="L405" s="2"/>
       <c r="M405" s="2">
         <v>0</v>
@@ -19694,19 +19746,19 @@
         <v>44058</v>
       </c>
       <c r="G406" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I406" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J406" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H406" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I406" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J406" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="K406" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L406" s="2"/>
       <c r="M406" s="2">
@@ -19735,19 +19787,19 @@
         <v>44058</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I407" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J407" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K407" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L407" s="2"/>
       <c r="M407" s="2">
@@ -19778,18 +19830,20 @@
         <v>44059</v>
       </c>
       <c r="G408" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I408" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H408" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I408" s="2" t="s">
+      <c r="J408" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="J408" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="K408" s="3"/>
+      <c r="K408" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="L408" s="2"/>
       <c r="M408" s="2">
         <v>0</v>
@@ -19817,19 +19871,19 @@
         <v>44059</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H409" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J409" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="I409" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J409" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="K409" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L409" s="2"/>
       <c r="M409" s="2">
@@ -19858,19 +19912,19 @@
         <v>44059</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H410" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J410" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K410" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J410" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="K410" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="L410" s="2"/>
       <c r="M410" s="2">
@@ -19901,7 +19955,7 @@
         <v>44060</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>130</v>
@@ -19909,8 +19963,12 @@
       <c r="I411" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J411" s="3"/>
-      <c r="K411" s="3"/>
+      <c r="J411" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K411" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="L411" s="2"/>
       <c r="M411" s="2">
         <v>0</v>
@@ -19940,7 +19998,7 @@
         <v>44060</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>130</v>
@@ -19948,8 +20006,12 @@
       <c r="I412" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J412" s="3"/>
-      <c r="K412" s="3"/>
+      <c r="J412" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K412" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="L412" s="2"/>
       <c r="M412" s="2">
         <v>0</v>
@@ -19979,7 +20041,7 @@
         <v>44060</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>121</v>
@@ -19998,8 +20060,125 @@
       </c>
       <c r="O413" s="2"/>
     </row>
+    <row r="414" spans="1:15">
+      <c r="A414" s="2">
+        <v>413</v>
+      </c>
+      <c r="B414" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E414" s="10">
+        <v>44060</v>
+      </c>
+      <c r="F414" s="10">
+        <v>44060</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J414" s="3"/>
+      <c r="K414" s="2"/>
+      <c r="L414" s="2"/>
+      <c r="M414" s="2">
+        <v>0</v>
+      </c>
+      <c r="N414" s="2">
+        <v>0</v>
+      </c>
+      <c r="O414" s="2"/>
+    </row>
+    <row r="415" spans="1:15">
+      <c r="A415" s="2">
+        <v>414</v>
+      </c>
+      <c r="B415" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E415" s="10">
+        <v>44060</v>
+      </c>
+      <c r="F415" s="10">
+        <v>44060</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J415" s="3"/>
+      <c r="K415" s="2"/>
+      <c r="L415" s="2"/>
+      <c r="M415" s="2">
+        <v>0</v>
+      </c>
+      <c r="N415" s="2">
+        <v>0</v>
+      </c>
+      <c r="O415" s="2"/>
+    </row>
+    <row r="416" spans="1:15">
+      <c r="A416" s="2">
+        <v>415</v>
+      </c>
+      <c r="B416" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E416" s="10">
+        <v>44060</v>
+      </c>
+      <c r="F416" s="10">
+        <v>44060</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J416" s="3"/>
+      <c r="K416" s="2"/>
+      <c r="L416" s="2"/>
+      <c r="M416" s="2">
+        <v>0</v>
+      </c>
+      <c r="N416" s="2">
+        <v>0</v>
+      </c>
+      <c r="O416" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O413"/>
+  <autoFilter ref="A1:O416"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$416</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$420</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="419">
   <si>
     <t>No</t>
   </si>
@@ -1186,6 +1186,720 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>兵庫県</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウゴケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="3">
+      <t>キクチシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大津町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヅマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇土市</t>
+    <rPh sb="0" eb="3">
+      <t>ウトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇土市</t>
+    <rPh sb="0" eb="3">
+      <t>ウトシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>人吉市</t>
+    <rPh sb="0" eb="3">
+      <t>ヒトヨシシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>荒尾市</t>
+    <rPh sb="0" eb="3">
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>菊池保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホケンショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医師</t>
+    <rPh sb="0" eb="2">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パート従業員</t>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公務員</t>
+    <rPh sb="0" eb="3">
+      <t>コウムイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バス運転手</t>
+    <rPh sb="2" eb="5">
+      <t>ウンテンシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設職員</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理学療法士</t>
+    <rPh sb="0" eb="2">
+      <t>リガク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>リョウホウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療機関職員</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学生</t>
+    <rPh sb="0" eb="3">
+      <t>ダイガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学童保育指導員</t>
+    <rPh sb="0" eb="2">
+      <t>ガクドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホイク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シドウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自衛隊員</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主婦</t>
+    <rPh sb="0" eb="2">
+      <t>シュフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="5">
+      <t>イリョウジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学生</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設職員</t>
+    <rPh sb="0" eb="4">
+      <t>シセツショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業</t>
+    <rPh sb="0" eb="2">
+      <t>ノウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人吉市</t>
+    <rPh sb="0" eb="3">
+      <t>ヒトヨシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公務員（非常勤職員）</t>
+    <rPh sb="0" eb="3">
+      <t>コウムイン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒジョウキン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -1193,9 +1907,96 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>兵庫県</t>
+    <t>菊池保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホケンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
     <rPh sb="0" eb="3">
-      <t>ヒョウゴケン</t>
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒尾市</t>
+    <rPh sb="0" eb="3">
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南小国町</t>
+    <rPh sb="0" eb="4">
+      <t>ミナミオグニマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上天草市</t>
+    <rPh sb="0" eb="4">
+      <t>カミアマクサシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1210,6 +2011,737 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="3">
+      <t>キクチシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御船町</t>
+    <rPh sb="0" eb="2">
+      <t>ミフネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売員</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘉島町</t>
+    <rPh sb="0" eb="3">
+      <t>カシママチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>留学生</t>
+    <rPh sb="0" eb="3">
+      <t>リュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="4">
+      <t>カイシャヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="2">
+      <t>ホイク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>八代市</t>
     <rPh sb="0" eb="3">
       <t>ヤツシロシ</t>
@@ -1217,19 +2749,119 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>山鹿市</t>
+    <t>男性</t>
     <rPh sb="0" eb="2">
-      <t>ヤマガ</t>
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長洲町</t>
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
     <rPh sb="0" eb="3">
-      <t>ナガスマチ</t>
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1244,6 +2876,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>熊本市南区</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
@@ -1254,115 +2893,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池市</t>
-    <rPh sb="0" eb="3">
-      <t>キクチシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大津町</t>
-    <rPh sb="0" eb="3">
-      <t>オオヅマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇土市</t>
-    <rPh sb="0" eb="3">
-      <t>ウトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊陽町</t>
-    <rPh sb="0" eb="3">
-      <t>キクヨウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -1370,6 +2900,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="3">
+      <t>チュウトウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>80代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -1377,6 +2948,89 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高森町</t>
+    <rPh sb="0" eb="3">
+      <t>タカモリマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロスポーツ選手</t>
+    <rPh sb="6" eb="8">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -1384,1563 +3038,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇土市</t>
-    <rPh sb="0" eb="3">
-      <t>ウトシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>菊池市</t>
-    <rPh sb="0" eb="2">
-      <t>キクチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>人吉市</t>
-    <rPh sb="0" eb="3">
-      <t>ヒトヨシシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>荒尾市</t>
-    <rPh sb="0" eb="3">
-      <t>アラオシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>長洲町</t>
-    <rPh sb="0" eb="3">
-      <t>ナガスマチ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>菊池保健所管内</t>
-    <rPh sb="0" eb="2">
-      <t>キクチ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホケンショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医師</t>
-    <rPh sb="0" eb="2">
-      <t>イシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パート従業員</t>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公務員</t>
-    <rPh sb="0" eb="3">
-      <t>コウムイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設入所者</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バス運転手</t>
-    <rPh sb="2" eb="5">
-      <t>ウンテンシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設職員</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>理学療法士</t>
-    <rPh sb="0" eb="2">
-      <t>リガク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>リョウホウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療機関職員</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学生</t>
     <rPh sb="0" eb="2">
       <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大学生</t>
-    <rPh sb="0" eb="3">
-      <t>ダイガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学童保育指導員</t>
-    <rPh sb="0" eb="2">
-      <t>ガクドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホイク</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シドウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自衛隊員</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主婦</t>
-    <rPh sb="0" eb="2">
-      <t>シュフ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="5">
-      <t>イリョウジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中学生</t>
-    <rPh sb="0" eb="3">
-      <t>チュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設職員</t>
-    <rPh sb="0" eb="4">
-      <t>シセツショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>農業</t>
-    <rPh sb="0" eb="2">
-      <t>ノウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療事務</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人吉市</t>
-    <rPh sb="0" eb="3">
-      <t>ヒトヨシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ニシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公務員（非常勤職員）</t>
-    <rPh sb="0" eb="3">
-      <t>コウムイン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヒジョウキン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池保健所管内</t>
-    <rPh sb="0" eb="2">
-      <t>キクチ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホケンショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荒尾市</t>
-    <rPh sb="0" eb="3">
-      <t>アラオシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南小国町</t>
-    <rPh sb="0" eb="4">
-      <t>ミナミオグニマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上天草市</t>
-    <rPh sb="0" eb="4">
-      <t>カミアマクサシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設入所者</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマガ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池市</t>
-    <rPh sb="0" eb="3">
-      <t>キクチシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>御船町</t>
-    <rPh sb="0" eb="2">
-      <t>ミフネ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊陽町</t>
-    <rPh sb="0" eb="3">
-      <t>キクヨウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>販売員</t>
-    <rPh sb="0" eb="3">
-      <t>ハンバイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高校生</t>
-    <rPh sb="0" eb="3">
-      <t>コウコウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設入所者</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長洲町</t>
-    <rPh sb="0" eb="3">
-      <t>ナガスマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>嘉島町</t>
-    <rPh sb="0" eb="3">
-      <t>カシママチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>留学生</t>
-    <rPh sb="0" eb="3">
-      <t>リュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="4">
-      <t>カイシャヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="2">
-      <t>ホイク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>埼玉県</t>
-    <rPh sb="0" eb="3">
-      <t>サイタマケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療事務</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店経営</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="3">
-      <t>チュウトウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3425,13 +3525,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O416"/>
+  <dimension ref="A1:O420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B408" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B406" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D419" sqref="D419"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:O420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -6004,15 +6104,13 @@
       <c r="J63" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="9">
         <v>0</v>
       </c>
       <c r="N63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="2"/>
     </row>
@@ -6900,7 +6998,7 @@
         <v>44039</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>126</v>
@@ -7230,7 +7328,7 @@
         <v>141</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="9">
@@ -7936,7 +8034,7 @@
         <v>44039</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H112" s="14" t="s">
         <v>127</v>
@@ -8211,7 +8309,7 @@
         <v>44039</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>122</v>
@@ -8250,7 +8348,7 @@
         <v>44039</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>123</v>
@@ -8261,15 +8359,13 @@
       <c r="J120" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K120" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="9">
         <v>0</v>
       </c>
       <c r="N120" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120" s="2"/>
     </row>
@@ -8929,7 +9025,7 @@
         <v>44040</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H137" s="14" t="s">
         <v>122</v>
@@ -10370,7 +10466,7 @@
         <v>177</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
@@ -10402,7 +10498,7 @@
         <v>44042</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>170</v>
@@ -10444,13 +10540,13 @@
         <v>167</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
@@ -10480,7 +10576,7 @@
         <v>44043</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>121</v>
@@ -10489,7 +10585,7 @@
         <v>132</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
@@ -10521,7 +10617,7 @@
         <v>44043</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>121</v>
@@ -10530,7 +10626,7 @@
         <v>104</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
@@ -10569,7 +10665,7 @@
         <v>76</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>103</v>
@@ -10610,7 +10706,7 @@
         <v>104</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
@@ -10649,7 +10745,7 @@
         <v>104</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
@@ -10679,16 +10775,16 @@
         <v>44043</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
@@ -10718,16 +10814,16 @@
         <v>44043</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
@@ -10757,10 +10853,10 @@
         <v>44043</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>76</v>
@@ -10796,10 +10892,10 @@
         <v>44043</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>76</v>
@@ -10813,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="N184" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O184" s="2"/>
     </row>
@@ -10835,10 +10931,10 @@
         <v>44043</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>76</v>
@@ -10852,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="N185" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O185" s="2"/>
     </row>
@@ -10874,10 +10970,10 @@
         <v>44043</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>76</v>
@@ -10891,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="N186" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O186" s="2"/>
     </row>
@@ -10913,10 +11009,10 @@
         <v>44043</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>76</v>
@@ -10930,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="N187" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O187" s="2"/>
     </row>
@@ -10952,10 +11048,10 @@
         <v>44043</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>76</v>
@@ -10969,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="N188" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O188" s="2"/>
     </row>
@@ -10993,16 +11089,16 @@
         <v>44043</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I189" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>144</v>
@@ -11036,16 +11132,16 @@
         <v>44043</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
@@ -11077,7 +11173,7 @@
         <v>44043</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>121</v>
@@ -11086,7 +11182,7 @@
         <v>104</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
@@ -11118,16 +11214,16 @@
         <v>44043</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I192" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
@@ -11157,10 +11253,10 @@
         <v>44043</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>76</v>
@@ -11199,7 +11295,7 @@
         <v>166</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I194" s="2" t="s">
         <v>104</v>
@@ -11207,13 +11303,15 @@
       <c r="J194" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K194" s="2"/>
+      <c r="K194" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L194" s="2"/>
       <c r="M194" s="2">
         <v>0</v>
       </c>
       <c r="N194" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O194" s="2"/>
     </row>
@@ -11235,7 +11333,7 @@
         <v>44043</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>127</v>
@@ -11244,7 +11342,7 @@
         <v>76</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
@@ -11274,7 +11372,7 @@
         <v>44043</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>128</v>
@@ -11283,10 +11381,10 @@
         <v>104</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
@@ -11315,7 +11413,7 @@
         <v>44043</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>129</v>
@@ -11324,7 +11422,7 @@
         <v>104</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K197" s="2" t="s">
         <v>103</v>
@@ -11356,7 +11454,7 @@
         <v>44043</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>129</v>
@@ -11365,7 +11463,7 @@
         <v>104</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K198" s="2" t="s">
         <v>144</v>
@@ -11397,7 +11495,7 @@
         <v>44043</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>128</v>
@@ -11406,7 +11504,7 @@
         <v>104</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K199" s="2" t="s">
         <v>144</v>
@@ -11438,7 +11536,7 @@
         <v>44043</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>129</v>
@@ -11447,7 +11545,7 @@
         <v>104</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
@@ -11477,10 +11575,10 @@
         <v>44043</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>76</v>
@@ -11494,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="N201" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O201" s="2"/>
     </row>
@@ -11518,16 +11616,16 @@
         <v>44044</v>
       </c>
       <c r="G202" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H202" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
@@ -11559,10 +11657,10 @@
         <v>44044</v>
       </c>
       <c r="G203" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H203" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="I203" s="2" t="s">
         <v>104</v>
@@ -11598,16 +11696,16 @@
         <v>44044</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
@@ -11637,16 +11735,16 @@
         <v>44044</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I205" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
@@ -11654,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="N205" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O205" s="2"/>
     </row>
@@ -11676,16 +11774,16 @@
         <v>44044</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
@@ -11693,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="N206" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O206" s="2"/>
     </row>
@@ -11715,16 +11813,16 @@
         <v>44044</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I207" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
@@ -11732,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="N207" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O207" s="2"/>
     </row>
@@ -11754,16 +11852,16 @@
         <v>44044</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I208" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
@@ -11771,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="N208" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O208" s="2"/>
     </row>
@@ -11793,16 +11891,16 @@
         <v>44044</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I209" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
@@ -11810,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="N209" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O209" s="2"/>
     </row>
@@ -11832,16 +11930,16 @@
         <v>44044</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I210" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
@@ -11849,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="N210" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O210" s="2"/>
     </row>
@@ -11871,16 +11969,16 @@
         <v>44044</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
@@ -11888,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="N211" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O211" s="2"/>
     </row>
@@ -11910,16 +12008,16 @@
         <v>44044</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I212" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
@@ -11927,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="N212" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O212" s="2"/>
     </row>
@@ -11949,16 +12047,16 @@
         <v>44044</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I213" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
@@ -11966,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="N213" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O213" s="2"/>
     </row>
@@ -11988,16 +12086,16 @@
         <v>44044</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I214" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
@@ -12005,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="N214" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O214" s="2"/>
     </row>
@@ -12027,16 +12125,16 @@
         <v>44044</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I215" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
@@ -12044,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="N215" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O215" s="2"/>
     </row>
@@ -12068,7 +12166,7 @@
         <v>44044</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>121</v>
@@ -12077,7 +12175,7 @@
         <v>76</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
@@ -12109,7 +12207,7 @@
         <v>44044</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>121</v>
@@ -12150,7 +12248,7 @@
         <v>44044</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>129</v>
@@ -12159,7 +12257,7 @@
         <v>104</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
@@ -12189,10 +12287,10 @@
         <v>44044</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I219" s="2" t="s">
         <v>76</v>
@@ -12206,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="N219" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O219" s="2"/>
     </row>
@@ -12228,10 +12326,10 @@
         <v>44044</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>76</v>
@@ -12245,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="N220" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O220" s="2"/>
     </row>
@@ -12267,10 +12365,10 @@
         <v>44044</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>76</v>
@@ -12284,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="N221" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O221" s="2"/>
     </row>
@@ -12306,10 +12404,10 @@
         <v>44044</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I222" s="2" t="s">
         <v>76</v>
@@ -12323,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="N222" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O222" s="2"/>
     </row>
@@ -12345,10 +12443,10 @@
         <v>44044</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>104</v>
@@ -12384,16 +12482,16 @@
         <v>44044</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
@@ -12423,19 +12521,19 @@
         <v>44044</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I225" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L225" s="2"/>
       <c r="M225" s="2">
@@ -12464,26 +12562,24 @@
         <v>44044</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I226" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K226" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="K226" s="2"/>
       <c r="L226" s="2"/>
       <c r="M226" s="2">
         <v>0</v>
       </c>
       <c r="N226" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O226" s="2"/>
     </row>
@@ -12505,7 +12601,7 @@
         <v>44044</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>129</v>
@@ -12514,10 +12610,10 @@
         <v>76</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L227" s="2"/>
       <c r="M227" s="2">
@@ -12546,16 +12642,16 @@
         <v>44044</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
@@ -12585,16 +12681,16 @@
         <v>44044</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I229" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
@@ -12624,7 +12720,7 @@
         <v>44045</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>121</v>
@@ -12636,7 +12732,7 @@
         <v>38</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L230" s="2"/>
       <c r="M230" s="2">
@@ -12665,10 +12761,10 @@
         <v>44045</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I231" s="2" t="s">
         <v>76</v>
@@ -12707,7 +12803,7 @@
         <v>167</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I232" s="2" t="s">
         <v>76</v>
@@ -12743,16 +12839,16 @@
         <v>44045</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I233" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
@@ -12782,16 +12878,16 @@
         <v>44045</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I234" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
@@ -12824,13 +12920,13 @@
         <v>167</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I235" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
@@ -12860,16 +12956,16 @@
         <v>44045</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I236" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
@@ -12877,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="N236" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O236" s="2"/>
     </row>
@@ -12899,16 +12995,16 @@
         <v>44045</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I237" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
@@ -12916,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="N237" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O237" s="2"/>
     </row>
@@ -12943,7 +13039,7 @@
         <v>112</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I238" s="2" t="s">
         <v>132</v>
@@ -12979,26 +13075,24 @@
         <v>44045</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I239" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K239" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="K239" s="2"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2">
         <v>0</v>
       </c>
       <c r="N239" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O239" s="2"/>
     </row>
@@ -13020,7 +13114,7 @@
         <v>44045</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>129</v>
@@ -13029,7 +13123,7 @@
         <v>104</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K240" s="2" t="s">
         <v>144</v>
@@ -13061,7 +13155,7 @@
         <v>44045</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>122</v>
@@ -13070,7 +13164,7 @@
         <v>104</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K241" s="2" t="s">
         <v>144</v>
@@ -13102,7 +13196,7 @@
         <v>44046</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H242" s="2" t="s">
         <v>122</v>
@@ -13111,7 +13205,7 @@
         <v>76</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
@@ -13143,7 +13237,7 @@
         <v>44046</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>121</v>
@@ -13152,7 +13246,7 @@
         <v>104</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
@@ -13184,16 +13278,16 @@
         <v>44046</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I244" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
@@ -13223,16 +13317,16 @@
         <v>44046</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I245" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
@@ -13265,13 +13359,13 @@
         <v>166</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I246" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
@@ -13304,13 +13398,13 @@
         <v>167</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I247" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
@@ -13340,16 +13434,16 @@
         <v>44046</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I248" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
@@ -13379,16 +13473,16 @@
         <v>44046</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I249" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K249" s="2" t="s">
         <v>103</v>
@@ -13420,19 +13514,19 @@
         <v>44046</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I250" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L250" s="2"/>
       <c r="M250" s="2">
@@ -13461,7 +13555,7 @@
         <v>44046</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>121</v>
@@ -13470,10 +13564,10 @@
         <v>76</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L251" s="2"/>
       <c r="M251" s="2">
@@ -13502,7 +13596,7 @@
         <v>44046</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H252" s="2" t="s">
         <v>121</v>
@@ -13511,7 +13605,7 @@
         <v>76</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
@@ -13541,7 +13635,7 @@
         <v>44046</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>121</v>
@@ -13583,7 +13677,7 @@
         <v>167</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I254" s="2" t="s">
         <v>104</v>
@@ -13619,16 +13713,16 @@
         <v>44047</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I255" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
@@ -13658,16 +13752,16 @@
         <v>44047</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I256" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
@@ -13697,16 +13791,16 @@
         <v>44047</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I257" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
@@ -13736,16 +13830,16 @@
         <v>44047</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I258" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
@@ -13753,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="N258" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O258" s="2"/>
     </row>
@@ -13775,16 +13869,16 @@
         <v>44047</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I259" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
@@ -13792,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="N259" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O259" s="2"/>
     </row>
@@ -13814,16 +13908,16 @@
         <v>44047</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I260" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
@@ -13831,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="N260" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O260" s="2"/>
     </row>
@@ -13853,16 +13947,16 @@
         <v>44047</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I261" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
@@ -13870,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="N261" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O261" s="2"/>
     </row>
@@ -13892,16 +13986,16 @@
         <v>44047</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I262" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
@@ -13909,7 +14003,7 @@
         <v>0</v>
       </c>
       <c r="N262" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O262" s="2"/>
     </row>
@@ -13931,16 +14025,16 @@
         <v>44047</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I263" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
@@ -13948,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="N263" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O263" s="2"/>
     </row>
@@ -13970,16 +14064,16 @@
         <v>44047</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I264" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
@@ -13987,7 +14081,7 @@
         <v>0</v>
       </c>
       <c r="N264" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O264" s="2"/>
     </row>
@@ -14009,16 +14103,16 @@
         <v>44047</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I265" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
@@ -14026,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="N265" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O265" s="2"/>
     </row>
@@ -14048,16 +14142,16 @@
         <v>44047</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I266" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
@@ -14065,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="N266" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O266" s="2"/>
     </row>
@@ -14087,16 +14181,16 @@
         <v>44047</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I267" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
@@ -14104,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="N267" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O267" s="2"/>
     </row>
@@ -14126,16 +14220,16 @@
         <v>44047</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I268" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
@@ -14143,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="N268" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O268" s="2"/>
     </row>
@@ -14165,16 +14259,16 @@
         <v>44047</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I269" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
@@ -14182,7 +14276,7 @@
         <v>0</v>
       </c>
       <c r="N269" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O269" s="2"/>
     </row>
@@ -14204,16 +14298,16 @@
         <v>44047</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I270" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
@@ -14245,16 +14339,16 @@
         <v>44047</v>
       </c>
       <c r="G271" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H271" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="H271" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="I271" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
@@ -14284,16 +14378,16 @@
         <v>44047</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I272" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
@@ -14301,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="N272" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O272" s="2"/>
     </row>
@@ -14323,16 +14417,16 @@
         <v>44047</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I273" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
@@ -14340,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="N273" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O273" s="2"/>
     </row>
@@ -14362,16 +14456,16 @@
         <v>44047</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I274" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
@@ -14379,7 +14473,7 @@
         <v>0</v>
       </c>
       <c r="N274" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O274" s="2"/>
     </row>
@@ -14403,16 +14497,16 @@
         <v>44047</v>
       </c>
       <c r="G275" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H275" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="H275" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="I275" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
@@ -14444,16 +14538,16 @@
         <v>44047</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I276" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
@@ -14488,13 +14582,13 @@
         <v>58</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I277" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
@@ -14529,13 +14623,13 @@
         <v>58</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I278" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
@@ -14567,16 +14661,16 @@
         <v>44047</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I279" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
@@ -14608,16 +14702,16 @@
         <v>44047</v>
       </c>
       <c r="G280" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H280" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="H280" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="I280" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
@@ -14649,16 +14743,16 @@
         <v>44047</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I281" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
@@ -14688,7 +14782,7 @@
         <v>44047</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>121</v>
@@ -14697,7 +14791,7 @@
         <v>104</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
@@ -14727,7 +14821,7 @@
         <v>44047</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H283" s="2" t="s">
         <v>121</v>
@@ -14736,7 +14830,7 @@
         <v>132</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
@@ -14766,16 +14860,16 @@
         <v>44047</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I284" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
@@ -14805,16 +14899,16 @@
         <v>44047</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I285" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
@@ -14844,16 +14938,16 @@
         <v>44047</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I286" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
@@ -14883,26 +14977,24 @@
         <v>44047</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I287" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="K287" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="K287" s="2"/>
       <c r="L287" s="2"/>
       <c r="M287" s="2">
         <v>0</v>
       </c>
       <c r="N287" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O287" s="2"/>
     </row>
@@ -14924,16 +15016,16 @@
         <v>44047</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I288" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
@@ -14963,16 +15055,16 @@
         <v>44048</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I289" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K289" s="2" t="s">
         <v>103</v>
@@ -15004,16 +15096,16 @@
         <v>44048</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I290" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
@@ -15043,19 +15135,19 @@
         <v>44048</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I291" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K291" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L291" s="2"/>
       <c r="M291" s="2">
@@ -15084,16 +15176,16 @@
         <v>44048</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I292" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
@@ -15123,16 +15215,16 @@
         <v>44048</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I293" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
@@ -15162,16 +15254,16 @@
         <v>44048</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I294" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
@@ -15179,7 +15271,7 @@
         <v>0</v>
       </c>
       <c r="N294" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O294" s="2"/>
     </row>
@@ -15201,19 +15293,19 @@
         <v>44048</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I295" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K295" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L295" s="2"/>
       <c r="M295" s="2">
@@ -15242,16 +15334,16 @@
         <v>44048</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I296" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
@@ -15281,16 +15373,16 @@
         <v>44048</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I297" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
@@ -15320,19 +15412,19 @@
         <v>44048</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I298" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L298" s="2"/>
       <c r="M298" s="2">
@@ -15361,19 +15453,19 @@
         <v>44048</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I299" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L299" s="2"/>
       <c r="M299" s="2">
@@ -15402,16 +15494,16 @@
         <v>44048</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I300" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
@@ -15419,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="N300" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O300" s="2"/>
     </row>
@@ -15441,16 +15533,16 @@
         <v>44048</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I301" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
@@ -15458,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="N301" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O301" s="2"/>
     </row>
@@ -15480,16 +15572,16 @@
         <v>44048</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I302" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
@@ -15497,7 +15589,7 @@
         <v>0</v>
       </c>
       <c r="N302" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O302" s="2"/>
     </row>
@@ -15519,16 +15611,16 @@
         <v>44048</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I303" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
@@ -15536,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="N303" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O303" s="2"/>
     </row>
@@ -15558,16 +15650,16 @@
         <v>44048</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I304" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
@@ -15575,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="N304" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O304" s="2"/>
     </row>
@@ -15597,16 +15689,16 @@
         <v>44048</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I305" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
@@ -15614,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="N305" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O305" s="2"/>
     </row>
@@ -15636,16 +15728,16 @@
         <v>44048</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I306" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
@@ -15653,7 +15745,7 @@
         <v>0</v>
       </c>
       <c r="N306" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O306" s="2"/>
     </row>
@@ -15675,16 +15767,16 @@
         <v>44048</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I307" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
@@ -15692,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="N307" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O307" s="2"/>
     </row>
@@ -15714,16 +15806,16 @@
         <v>44048</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I308" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
@@ -15731,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="N308" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O308" s="2"/>
     </row>
@@ -15753,16 +15845,16 @@
         <v>44048</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I309" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
@@ -15770,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="N309" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O309" s="2"/>
     </row>
@@ -15792,16 +15884,16 @@
         <v>44048</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
@@ -15809,7 +15901,7 @@
         <v>0</v>
       </c>
       <c r="N310" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O310" s="2"/>
     </row>
@@ -15831,16 +15923,16 @@
         <v>44048</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I311" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
@@ -15848,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="N311" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O311" s="2"/>
     </row>
@@ -15875,7 +15967,7 @@
         <v>58</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I312" s="2" t="s">
         <v>132</v>
@@ -15913,7 +16005,7 @@
         <v>44048</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>172</v>
@@ -15952,7 +16044,7 @@
         <v>44048</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H314" s="2" t="s">
         <v>172</v>
@@ -15961,15 +16053,13 @@
         <v>104</v>
       </c>
       <c r="J314" s="3"/>
-      <c r="K314" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K314" s="2"/>
       <c r="L314" s="2"/>
       <c r="M314" s="2">
         <v>0</v>
       </c>
       <c r="N314" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O314" s="2"/>
     </row>
@@ -16116,7 +16206,7 @@
         <v>44048</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>123</v>
@@ -16157,7 +16247,7 @@
         <v>44048</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>124</v>
@@ -16198,7 +16288,7 @@
         <v>44048</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>55</v>
@@ -16239,7 +16329,7 @@
         <v>44048</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>122</v>
@@ -16282,7 +16372,7 @@
         <v>44048</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>121</v>
@@ -16362,7 +16452,7 @@
         <v>44048</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>121</v>
@@ -16451,7 +16541,7 @@
         <v>104</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
@@ -16481,7 +16571,7 @@
         <v>44048</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H327" s="2" t="s">
         <v>122</v>
@@ -16493,7 +16583,7 @@
         <v>38</v>
       </c>
       <c r="K327" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L327" s="2"/>
       <c r="M327" s="2">
@@ -16565,7 +16655,7 @@
         <v>44049</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H329" s="2" t="s">
         <v>121</v>
@@ -16606,10 +16696,10 @@
         <v>44049</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H330" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I330" s="2" t="s">
         <v>132</v>
@@ -16688,7 +16778,7 @@
         <v>44049</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H332" s="2" t="s">
         <v>123</v>
@@ -16732,7 +16822,7 @@
         <v>158</v>
       </c>
       <c r="H333" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I333" s="4" t="s">
         <v>132</v>
@@ -16768,19 +16858,19 @@
         <v>44049</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J334" s="3" t="s">
         <v>140</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L334" s="2"/>
       <c r="M334" s="2">
@@ -16809,16 +16899,16 @@
         <v>44049</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
@@ -16851,13 +16941,13 @@
         <v>166</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I336" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
@@ -16887,7 +16977,7 @@
         <v>44049</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>121</v>
@@ -16896,7 +16986,7 @@
         <v>132</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
@@ -16926,7 +17016,7 @@
         <v>44049</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>129</v>
@@ -16935,7 +17025,7 @@
         <v>104</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
@@ -16968,7 +17058,7 @@
         <v>166</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>132</v>
@@ -17043,7 +17133,7 @@
         <v>44050</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>127</v>
@@ -17082,7 +17172,7 @@
         <v>44050</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>121</v>
@@ -17091,7 +17181,7 @@
         <v>104</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
@@ -17121,7 +17211,7 @@
         <v>44050</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>121</v>
@@ -17160,7 +17250,7 @@
         <v>44050</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>123</v>
@@ -17169,10 +17259,10 @@
         <v>104</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L344" s="2"/>
       <c r="M344" s="2">
@@ -17201,7 +17291,7 @@
         <v>44050</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>129</v>
@@ -17212,15 +17302,13 @@
       <c r="J345" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K345" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K345" s="2"/>
       <c r="L345" s="2"/>
       <c r="M345" s="2">
         <v>0</v>
       </c>
       <c r="N345" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O345" s="2"/>
     </row>
@@ -17242,7 +17330,7 @@
         <v>44050</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>128</v>
@@ -17281,7 +17369,7 @@
         <v>44050</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>127</v>
@@ -17290,7 +17378,7 @@
         <v>132</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K347" s="2" t="s">
         <v>103</v>
@@ -17322,16 +17410,16 @@
         <v>44051</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
@@ -17361,19 +17449,19 @@
         <v>44051</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="L349" s="2"/>
       <c r="M349" s="2">
@@ -17402,16 +17490,16 @@
         <v>44051</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
@@ -17449,10 +17537,10 @@
         <v>123</v>
       </c>
       <c r="I351" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J351" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="J351" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
@@ -17487,10 +17575,10 @@
         <v>120</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J352" s="3" t="s">
         <v>40</v>
@@ -17523,7 +17611,7 @@
         <v>44051</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H353" s="2" t="s">
         <v>124</v>
@@ -17575,15 +17663,13 @@
       <c r="J354" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K354" s="2" t="s">
-        <v>310</v>
-      </c>
+      <c r="K354" s="2"/>
       <c r="L354" s="2"/>
       <c r="M354" s="2">
         <v>0</v>
       </c>
       <c r="N354" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O354" s="2"/>
     </row>
@@ -17607,7 +17693,7 @@
         <v>44052</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>121</v>
@@ -17646,19 +17732,19 @@
         <v>44052</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H356" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I356" s="2" t="s">
+      <c r="J356" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="J356" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="K356" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L356" s="2"/>
       <c r="M356" s="2">
@@ -17687,7 +17773,7 @@
         <v>44052</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>130</v>
@@ -17696,7 +17782,7 @@
         <v>104</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
@@ -17726,7 +17812,7 @@
         <v>44052</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>122</v>
@@ -17735,7 +17821,7 @@
         <v>104</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K358" s="2" t="s">
         <v>144</v>
@@ -17767,10 +17853,10 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
@@ -17810,7 +17896,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -17860,7 +17946,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -17901,7 +17987,7 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K362" s="2" t="s">
         <v>103</v>
@@ -17933,16 +18019,16 @@
         <v>44054</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K363" s="2" t="s">
         <v>182</v>
@@ -17974,16 +18060,16 @@
         <v>44054</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K364" s="2" t="s">
         <v>182</v>
@@ -18015,26 +18101,24 @@
         <v>44054</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K365" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="K365" s="2"/>
       <c r="L365" s="2"/>
       <c r="M365" s="2">
         <v>0</v>
       </c>
       <c r="N365" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O365" s="2"/>
     </row>
@@ -18059,13 +18143,13 @@
         <v>164</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -18073,7 +18157,7 @@
         <v>0</v>
       </c>
       <c r="N366" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O366" s="2"/>
     </row>
@@ -18106,7 +18190,7 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K367" s="2" t="s">
         <v>103</v>
@@ -18140,7 +18224,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -18183,7 +18267,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -18194,15 +18278,13 @@
       <c r="J369" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K369" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K369" s="2"/>
       <c r="L369" s="2"/>
       <c r="M369" s="2">
         <v>0</v>
       </c>
       <c r="N369" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O369" s="2"/>
     </row>
@@ -18238,7 +18320,7 @@
         <v>38</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L370" s="2"/>
       <c r="M370" s="2">
@@ -18280,15 +18362,13 @@
       <c r="J371" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K371" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K371" s="2"/>
       <c r="L371" s="2"/>
       <c r="M371" s="2">
         <v>0</v>
       </c>
       <c r="N371" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O371" s="2"/>
     </row>
@@ -18312,7 +18392,7 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>123</v>
@@ -18353,10 +18433,10 @@
         <v>44055</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>132</v>
@@ -18394,10 +18474,10 @@
         <v>44055</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>132</v>
@@ -18411,7 +18491,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O374" s="2"/>
     </row>
@@ -18433,7 +18513,7 @@
         <v>44055</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>122</v>
@@ -18474,7 +18554,7 @@
         <v>44055</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>122</v>
@@ -18517,19 +18597,19 @@
         <v>44056</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K377" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L377" s="2"/>
       <c r="M377" s="2">
@@ -18560,19 +18640,19 @@
         <v>44056</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K378" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L378" s="2"/>
       <c r="M378" s="2">
@@ -18603,7 +18683,7 @@
         <v>44056</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>121</v>
@@ -18612,7 +18692,7 @@
         <v>132</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
@@ -18644,16 +18724,16 @@
         <v>44056</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K380" s="2" t="s">
         <v>103</v>
@@ -18678,7 +18758,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E381" s="10">
         <v>44056</v>
@@ -18693,10 +18773,10 @@
         <v>123</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K381" s="2" t="s">
         <v>103</v>
@@ -18721,7 +18801,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E382" s="10">
         <v>44057</v>
@@ -18736,7 +18816,7 @@
         <v>121</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>47</v>
@@ -18764,7 +18844,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E383" s="10">
         <v>44057</v>
@@ -18779,10 +18859,10 @@
         <v>121</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K383" s="2" t="s">
         <v>103</v>
@@ -18814,7 +18894,7 @@
         <v>44056</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>123</v>
@@ -18823,7 +18903,7 @@
         <v>132</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K384" s="2" t="s">
         <v>103</v>
@@ -18855,7 +18935,7 @@
         <v>44056</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>123</v>
@@ -18864,7 +18944,7 @@
         <v>132</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K385" s="2" t="s">
         <v>144</v>
@@ -18896,7 +18976,7 @@
         <v>44056</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>121</v>
@@ -18905,7 +18985,7 @@
         <v>132</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K386" s="2" t="s">
         <v>182</v>
@@ -18937,7 +19017,7 @@
         <v>44056</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>127</v>
@@ -18946,10 +19026,10 @@
         <v>104</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K387" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L387" s="2"/>
       <c r="M387" s="2">
@@ -18980,16 +19060,16 @@
         <v>44057</v>
       </c>
       <c r="G388" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H388" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="H388" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K388" s="2" t="s">
         <v>103</v>
@@ -19014,7 +19094,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E389" s="10">
         <v>44057</v>
@@ -19029,13 +19109,13 @@
         <v>123</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L389" s="2"/>
       <c r="M389" s="2">
@@ -19057,7 +19137,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E390" s="10">
         <v>44057</v>
@@ -19072,13 +19152,13 @@
         <v>55</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L390" s="2"/>
       <c r="M390" s="2">
@@ -19100,7 +19180,7 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E391" s="10">
         <v>44057</v>
@@ -19115,10 +19195,10 @@
         <v>123</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K391" s="2" t="s">
         <v>103</v>
@@ -19152,16 +19232,16 @@
         <v>44057</v>
       </c>
       <c r="G392" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H392" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I392" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H392" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="I392" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="J392" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K392" s="2" t="s">
         <v>103</v>
@@ -19195,19 +19275,19 @@
         <v>44057</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J393" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K393" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L393" s="2"/>
       <c r="M393" s="2">
@@ -19236,19 +19316,19 @@
         <v>44057</v>
       </c>
       <c r="G394" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H394" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J394" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="H394" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="I394" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J394" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="K394" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L394" s="2"/>
       <c r="M394" s="2">
@@ -19277,19 +19357,19 @@
         <v>44057</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K395" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L395" s="2"/>
       <c r="M395" s="2">
@@ -19320,13 +19400,13 @@
         <v>44058</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J396" s="3" t="s">
         <v>38</v>
@@ -19363,13 +19443,13 @@
         <v>44058</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J397" s="3" t="s">
         <v>38</v>
@@ -19406,13 +19486,13 @@
         <v>44058</v>
       </c>
       <c r="G398" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I398" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J398" s="3" t="s">
         <v>38</v>
@@ -19449,16 +19529,16 @@
         <v>44058</v>
       </c>
       <c r="G399" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H399" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="H399" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K399" s="2" t="s">
         <v>103</v>
@@ -19492,10 +19572,10 @@
         <v>44058</v>
       </c>
       <c r="G400" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H400" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="H400" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>104</v>
@@ -19535,10 +19615,10 @@
         <v>44058</v>
       </c>
       <c r="G401" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H401" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="H401" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>76</v>
@@ -19578,10 +19658,10 @@
         <v>44058</v>
       </c>
       <c r="G402" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H402" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="H402" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>76</v>
@@ -19590,7 +19670,7 @@
         <v>47</v>
       </c>
       <c r="K402" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L402" s="2"/>
       <c r="M402" s="4">
@@ -19621,16 +19701,16 @@
         <v>44058</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K403" s="2" t="s">
         <v>103</v>
@@ -19664,16 +19744,16 @@
         <v>44058</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K404" s="2" t="s">
         <v>103</v>
@@ -19705,19 +19785,19 @@
         <v>44058</v>
       </c>
       <c r="G405" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I405" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J405" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="H405" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I405" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="J405" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="K405" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L405" s="2"/>
       <c r="M405" s="2">
@@ -19746,19 +19826,19 @@
         <v>44058</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J406" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K406" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L406" s="2"/>
       <c r="M406" s="2">
@@ -19787,19 +19867,19 @@
         <v>44058</v>
       </c>
       <c r="G407" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H407" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H407" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="I407" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J407" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="J407" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="K407" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L407" s="2"/>
       <c r="M407" s="2">
@@ -19830,19 +19910,19 @@
         <v>44059</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H408" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J408" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="I408" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="J408" s="3" t="s">
-        <v>378</v>
-      </c>
       <c r="K408" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L408" s="2"/>
       <c r="M408" s="2">
@@ -19871,19 +19951,19 @@
         <v>44059</v>
       </c>
       <c r="G409" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H409" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J409" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="H409" s="2" t="s">
+      <c r="K409" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="I409" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J409" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="K409" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="L409" s="2"/>
       <c r="M409" s="2">
@@ -19912,19 +19992,19 @@
         <v>44059</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I410" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J410" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="J410" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="K410" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L410" s="2"/>
       <c r="M410" s="2">
@@ -19955,7 +20035,7 @@
         <v>44060</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>130</v>
@@ -19964,10 +20044,10 @@
         <v>132</v>
       </c>
       <c r="J411" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K411" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L411" s="2"/>
       <c r="M411" s="2">
@@ -19998,7 +20078,7 @@
         <v>44060</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>130</v>
@@ -20007,10 +20087,10 @@
         <v>104</v>
       </c>
       <c r="J412" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K412" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L412" s="2"/>
       <c r="M412" s="2">
@@ -20041,7 +20121,7 @@
         <v>44060</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>121</v>
@@ -20050,7 +20130,9 @@
         <v>104</v>
       </c>
       <c r="J413" s="3"/>
-      <c r="K413" s="3"/>
+      <c r="K413" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="L413" s="2"/>
       <c r="M413" s="2">
         <v>0</v>
@@ -20074,22 +20156,26 @@
         <v>15</v>
       </c>
       <c r="E414" s="10">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="F414" s="10">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H414" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="J414" s="3"/>
-      <c r="K414" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="J414" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K414" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="L414" s="2"/>
       <c r="M414" s="2">
         <v>0</v>
@@ -20113,22 +20199,26 @@
         <v>15</v>
       </c>
       <c r="E415" s="10">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="F415" s="10">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="J415" s="3"/>
-      <c r="K415" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="J415" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K415" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="L415" s="2"/>
       <c r="M415" s="2">
         <v>0</v>
@@ -20152,22 +20242,26 @@
         <v>15</v>
       </c>
       <c r="E416" s="10">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="F416" s="10">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="G416" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H416" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H416" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="I416" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="J416" s="3"/>
-      <c r="K416" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="J416" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K416" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="L416" s="2"/>
       <c r="M416" s="2">
         <v>0</v>
@@ -20177,8 +20271,172 @@
       </c>
       <c r="O416" s="2"/>
     </row>
+    <row r="417" spans="1:15">
+      <c r="A417" s="2">
+        <v>416</v>
+      </c>
+      <c r="B417" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E417" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F417" s="10">
+        <v>44061</v>
+      </c>
+      <c r="G417" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J417" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K417" s="2"/>
+      <c r="L417" s="2"/>
+      <c r="M417" s="2">
+        <v>0</v>
+      </c>
+      <c r="N417" s="2">
+        <v>0</v>
+      </c>
+      <c r="O417" s="2"/>
+    </row>
+    <row r="418" spans="1:15">
+      <c r="A418" s="2">
+        <v>417</v>
+      </c>
+      <c r="B418" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E418" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F418" s="10">
+        <v>44061</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J418" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K418" s="2"/>
+      <c r="L418" s="2"/>
+      <c r="M418" s="2">
+        <v>0</v>
+      </c>
+      <c r="N418" s="2">
+        <v>0</v>
+      </c>
+      <c r="O418" s="2"/>
+    </row>
+    <row r="419" spans="1:15">
+      <c r="A419" s="2">
+        <v>418</v>
+      </c>
+      <c r="B419" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D419" s="2"/>
+      <c r="E419" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F419" s="10">
+        <v>44061</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H419" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I419" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J419" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K419" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L419" s="2"/>
+      <c r="M419" s="2">
+        <v>0</v>
+      </c>
+      <c r="N419" s="2">
+        <v>0</v>
+      </c>
+      <c r="O419" s="2"/>
+    </row>
+    <row r="420" spans="1:15">
+      <c r="A420" s="2">
+        <v>419</v>
+      </c>
+      <c r="B420" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D420" s="2"/>
+      <c r="E420" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F420" s="10">
+        <v>44061</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J420" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K420" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="L420" s="2"/>
+      <c r="M420" s="2">
+        <v>0</v>
+      </c>
+      <c r="N420" s="2">
+        <v>0</v>
+      </c>
+      <c r="O420" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O416"/>
+  <autoFilter ref="A1:O420"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$420</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$441</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="456">
   <si>
     <t>No</t>
   </si>
@@ -1024,10 +1024,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>有明保健所管内</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>90代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -2838,6 +2834,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -2845,6 +2896,423 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高森町</t>
+    <rPh sb="0" eb="3">
+      <t>タカモリマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロスポーツ選手</t>
+    <rPh sb="6" eb="8">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇土市</t>
+    <rPh sb="0" eb="3">
+      <t>ウトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町職員</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>園児</t>
+    <rPh sb="0" eb="2">
+      <t>エンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>重症</t>
     <rPh sb="0" eb="2">
       <t>ジュウショウ</t>
@@ -2852,197 +3320,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="3">
-      <t>チュウトウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高森町</t>
-    <rPh sb="0" eb="3">
-      <t>タカモリマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロスポーツ選手</t>
-    <rPh sb="6" eb="8">
-      <t>センシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>南関町</t>
+  </si>
+  <si>
+    <t>山鹿市</t>
   </si>
 </sst>
 </file>
@@ -3525,13 +3806,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O420"/>
+  <dimension ref="A1:O441"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B406" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:O420"/>
+      <selection pane="bottomRight" activeCell="G159" sqref="G159:G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -6998,7 +7279,7 @@
         <v>44039</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>126</v>
@@ -8034,7 +8315,7 @@
         <v>44039</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H112" s="14" t="s">
         <v>127</v>
@@ -8309,7 +8590,7 @@
         <v>44039</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>122</v>
@@ -8348,7 +8629,7 @@
         <v>44039</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>123</v>
@@ -9025,7 +9306,7 @@
         <v>44040</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H137" s="14" t="s">
         <v>122</v>
@@ -9315,7 +9596,7 @@
         <v>104</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
@@ -9354,7 +9635,7 @@
         <v>76</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
@@ -9899,7 +10180,7 @@
         <v>44041</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>159</v>
+        <v>454</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>153</v>
@@ -9938,7 +10219,7 @@
         <v>44041</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>159</v>
+        <v>454</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>150</v>
@@ -9979,10 +10260,10 @@
         <v>44041</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>111</v>
+        <v>455</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>76</v>
@@ -10018,10 +10299,10 @@
         <v>44041</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>111</v>
+        <v>455</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>104</v>
@@ -10030,7 +10311,7 @@
         <v>141</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2">
@@ -10052,7 +10333,7 @@
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E163" s="10">
         <v>44042</v>
@@ -10064,13 +10345,13 @@
         <v>156</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -10100,16 +10381,16 @@
         <v>44042</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
@@ -10139,16 +10420,16 @@
         <v>44042</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
@@ -10178,16 +10459,16 @@
         <v>44042</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
@@ -10217,16 +10498,16 @@
         <v>44042</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
@@ -10256,16 +10537,16 @@
         <v>44042</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
@@ -10295,16 +10576,16 @@
         <v>44042</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H169" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I169" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I169" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="J169" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
@@ -10334,13 +10615,13 @@
         <v>44042</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J170" s="3" t="s">
         <v>37</v>
@@ -10366,7 +10647,7 @@
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E171" s="10">
         <v>44042</v>
@@ -10378,10 +10659,10 @@
         <v>80</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J171" s="3" t="s">
         <v>40</v>
@@ -10416,13 +10697,13 @@
         <v>44042</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J172" s="3" t="s">
         <v>47</v>
@@ -10457,16 +10738,16 @@
         <v>44042</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
@@ -10498,13 +10779,13 @@
         <v>44042</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J174" s="3" t="s">
         <v>38</v>
@@ -10537,16 +10818,16 @@
         <v>44043</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
@@ -10576,7 +10857,7 @@
         <v>44043</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>121</v>
@@ -10585,7 +10866,7 @@
         <v>132</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
@@ -10617,7 +10898,7 @@
         <v>44043</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>121</v>
@@ -10626,7 +10907,7 @@
         <v>104</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
@@ -10656,7 +10937,7 @@
         <v>44043</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>124</v>
@@ -10665,7 +10946,7 @@
         <v>76</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>103</v>
@@ -10697,7 +10978,7 @@
         <v>44043</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>124</v>
@@ -10706,7 +10987,7 @@
         <v>104</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
@@ -10736,7 +11017,7 @@
         <v>44043</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>124</v>
@@ -10745,7 +11026,7 @@
         <v>104</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
@@ -10775,16 +11056,16 @@
         <v>44043</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
@@ -10814,16 +11095,16 @@
         <v>44043</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
@@ -10853,10 +11134,10 @@
         <v>44043</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>76</v>
@@ -10892,10 +11173,10 @@
         <v>44043</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>76</v>
@@ -10931,10 +11212,10 @@
         <v>44043</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>76</v>
@@ -10970,10 +11251,10 @@
         <v>44043</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>76</v>
@@ -11009,10 +11290,10 @@
         <v>44043</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>76</v>
@@ -11048,10 +11329,10 @@
         <v>44043</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>76</v>
@@ -11089,16 +11370,16 @@
         <v>44043</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I189" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>144</v>
@@ -11132,16 +11413,16 @@
         <v>44043</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
@@ -11173,7 +11454,7 @@
         <v>44043</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>121</v>
@@ -11182,7 +11463,7 @@
         <v>104</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
@@ -11214,16 +11495,16 @@
         <v>44043</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I192" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
@@ -11253,10 +11534,10 @@
         <v>44043</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>76</v>
@@ -11292,10 +11573,10 @@
         <v>44043</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I194" s="2" t="s">
         <v>104</v>
@@ -11333,7 +11614,7 @@
         <v>44043</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>127</v>
@@ -11342,7 +11623,7 @@
         <v>76</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
@@ -11372,7 +11653,7 @@
         <v>44043</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>128</v>
@@ -11381,10 +11662,10 @@
         <v>104</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
@@ -11413,7 +11694,7 @@
         <v>44043</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>129</v>
@@ -11422,10 +11703,10 @@
         <v>104</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L197" s="2"/>
       <c r="M197" s="2">
@@ -11454,7 +11735,7 @@
         <v>44043</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>129</v>
@@ -11463,7 +11744,7 @@
         <v>104</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K198" s="2" t="s">
         <v>144</v>
@@ -11495,7 +11776,7 @@
         <v>44043</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>128</v>
@@ -11504,7 +11785,7 @@
         <v>104</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K199" s="2" t="s">
         <v>144</v>
@@ -11536,7 +11817,7 @@
         <v>44043</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>129</v>
@@ -11545,7 +11826,7 @@
         <v>104</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
@@ -11575,10 +11856,10 @@
         <v>44043</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>76</v>
@@ -11616,16 +11897,16 @@
         <v>44044</v>
       </c>
       <c r="G202" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H202" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
@@ -11657,10 +11938,10 @@
         <v>44044</v>
       </c>
       <c r="G203" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H203" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="I203" s="2" t="s">
         <v>104</v>
@@ -11696,16 +11977,16 @@
         <v>44044</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
@@ -11735,16 +12016,16 @@
         <v>44044</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I205" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
@@ -11774,16 +12055,16 @@
         <v>44044</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
@@ -11813,16 +12094,16 @@
         <v>44044</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I207" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
@@ -11852,16 +12133,16 @@
         <v>44044</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I208" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
@@ -11891,16 +12172,16 @@
         <v>44044</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I209" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
@@ -11930,16 +12211,16 @@
         <v>44044</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I210" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
@@ -11969,16 +12250,16 @@
         <v>44044</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
@@ -12008,16 +12289,16 @@
         <v>44044</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I212" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
@@ -12047,16 +12328,16 @@
         <v>44044</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I213" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
@@ -12086,16 +12367,16 @@
         <v>44044</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I214" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
@@ -12125,16 +12406,16 @@
         <v>44044</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I215" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
@@ -12166,7 +12447,7 @@
         <v>44044</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>121</v>
@@ -12175,7 +12456,7 @@
         <v>76</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
@@ -12207,7 +12488,7 @@
         <v>44044</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>121</v>
@@ -12248,7 +12529,7 @@
         <v>44044</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>129</v>
@@ -12257,7 +12538,7 @@
         <v>104</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
@@ -12287,10 +12568,10 @@
         <v>44044</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I219" s="2" t="s">
         <v>76</v>
@@ -12326,10 +12607,10 @@
         <v>44044</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>76</v>
@@ -12365,10 +12646,10 @@
         <v>44044</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>76</v>
@@ -12404,10 +12685,10 @@
         <v>44044</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I222" s="2" t="s">
         <v>76</v>
@@ -12443,10 +12724,10 @@
         <v>44044</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>104</v>
@@ -12482,16 +12763,16 @@
         <v>44044</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
@@ -12521,19 +12802,19 @@
         <v>44044</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I225" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L225" s="2"/>
       <c r="M225" s="2">
@@ -12562,16 +12843,16 @@
         <v>44044</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I226" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
@@ -12601,7 +12882,7 @@
         <v>44044</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>129</v>
@@ -12610,10 +12891,10 @@
         <v>76</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="L227" s="2"/>
       <c r="M227" s="2">
@@ -12642,16 +12923,16 @@
         <v>44044</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
@@ -12681,16 +12962,16 @@
         <v>44044</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I229" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
@@ -12720,7 +13001,7 @@
         <v>44045</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>121</v>
@@ -12731,15 +13012,13 @@
       <c r="J230" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K230" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K230" s="2"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2">
         <v>0</v>
       </c>
       <c r="N230" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O230" s="2"/>
     </row>
@@ -12761,10 +13040,10 @@
         <v>44045</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I231" s="2" t="s">
         <v>76</v>
@@ -12800,10 +13079,10 @@
         <v>44045</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I232" s="2" t="s">
         <v>76</v>
@@ -12839,16 +13118,16 @@
         <v>44045</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I233" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
@@ -12878,16 +13157,16 @@
         <v>44045</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I234" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
@@ -12917,16 +13196,16 @@
         <v>44045</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I235" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
@@ -12956,16 +13235,16 @@
         <v>44045</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I236" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
@@ -12995,16 +13274,16 @@
         <v>44045</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I237" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
@@ -13039,7 +13318,7 @@
         <v>112</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I238" s="2" t="s">
         <v>132</v>
@@ -13075,16 +13354,16 @@
         <v>44045</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I239" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
@@ -13114,7 +13393,7 @@
         <v>44045</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>129</v>
@@ -13123,7 +13402,7 @@
         <v>104</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K240" s="2" t="s">
         <v>144</v>
@@ -13155,7 +13434,7 @@
         <v>44045</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>122</v>
@@ -13164,7 +13443,7 @@
         <v>104</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K241" s="2" t="s">
         <v>144</v>
@@ -13196,7 +13475,7 @@
         <v>44046</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H242" s="2" t="s">
         <v>122</v>
@@ -13205,7 +13484,7 @@
         <v>76</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
@@ -13237,7 +13516,7 @@
         <v>44046</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>121</v>
@@ -13246,7 +13525,7 @@
         <v>104</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
@@ -13278,16 +13557,16 @@
         <v>44046</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I244" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
@@ -13317,16 +13596,16 @@
         <v>44046</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I245" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
@@ -13356,16 +13635,16 @@
         <v>44046</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I246" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
@@ -13395,16 +13674,16 @@
         <v>44046</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I247" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
@@ -13434,16 +13713,16 @@
         <v>44046</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I248" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
@@ -13473,19 +13752,19 @@
         <v>44046</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I249" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L249" s="2"/>
       <c r="M249" s="2">
@@ -13514,19 +13793,19 @@
         <v>44046</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I250" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L250" s="2"/>
       <c r="M250" s="2">
@@ -13555,7 +13834,7 @@
         <v>44046</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>121</v>
@@ -13564,10 +13843,10 @@
         <v>76</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L251" s="2"/>
       <c r="M251" s="2">
@@ -13596,7 +13875,7 @@
         <v>44046</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H252" s="2" t="s">
         <v>121</v>
@@ -13605,7 +13884,7 @@
         <v>76</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
@@ -13635,7 +13914,7 @@
         <v>44046</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>121</v>
@@ -13674,10 +13953,10 @@
         <v>44047</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I254" s="2" t="s">
         <v>104</v>
@@ -13713,16 +13992,16 @@
         <v>44047</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I255" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
@@ -13752,16 +14031,16 @@
         <v>44047</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I256" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
@@ -13791,16 +14070,16 @@
         <v>44047</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I257" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
@@ -13830,16 +14109,16 @@
         <v>44047</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I258" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
@@ -13869,16 +14148,16 @@
         <v>44047</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I259" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
@@ -13908,16 +14187,16 @@
         <v>44047</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I260" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
@@ -13947,16 +14226,16 @@
         <v>44047</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I261" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
@@ -13986,16 +14265,16 @@
         <v>44047</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I262" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
@@ -14025,16 +14304,16 @@
         <v>44047</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I263" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
@@ -14064,16 +14343,16 @@
         <v>44047</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I264" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
@@ -14103,16 +14382,16 @@
         <v>44047</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I265" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
@@ -14142,16 +14421,16 @@
         <v>44047</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I266" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
@@ -14181,16 +14460,16 @@
         <v>44047</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I267" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
@@ -14220,16 +14499,16 @@
         <v>44047</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I268" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
@@ -14259,16 +14538,16 @@
         <v>44047</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I269" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
@@ -14298,16 +14577,16 @@
         <v>44047</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I270" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
@@ -14339,16 +14618,16 @@
         <v>44047</v>
       </c>
       <c r="G271" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H271" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="H271" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="I271" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
@@ -14378,16 +14657,16 @@
         <v>44047</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I272" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
@@ -14417,16 +14696,16 @@
         <v>44047</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I273" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
@@ -14456,16 +14735,16 @@
         <v>44047</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I274" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
@@ -14497,16 +14776,16 @@
         <v>44047</v>
       </c>
       <c r="G275" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H275" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="H275" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="I275" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
@@ -14538,16 +14817,16 @@
         <v>44047</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I276" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
@@ -14582,13 +14861,13 @@
         <v>58</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I277" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
@@ -14623,13 +14902,13 @@
         <v>58</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I278" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
@@ -14661,16 +14940,16 @@
         <v>44047</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I279" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
@@ -14702,16 +14981,16 @@
         <v>44047</v>
       </c>
       <c r="G280" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H280" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="H280" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="I280" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
@@ -14743,16 +15022,16 @@
         <v>44047</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I281" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
@@ -14782,7 +15061,7 @@
         <v>44047</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>121</v>
@@ -14791,7 +15070,7 @@
         <v>104</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
@@ -14821,7 +15100,7 @@
         <v>44047</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H283" s="2" t="s">
         <v>121</v>
@@ -14830,7 +15109,7 @@
         <v>132</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
@@ -14860,16 +15139,16 @@
         <v>44047</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I284" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
@@ -14899,16 +15178,16 @@
         <v>44047</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I285" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
@@ -14938,16 +15217,16 @@
         <v>44047</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I286" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
@@ -14977,16 +15256,16 @@
         <v>44047</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I287" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
@@ -15016,16 +15295,16 @@
         <v>44047</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I288" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
@@ -15055,26 +15334,24 @@
         <v>44048</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I289" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K289" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="K289" s="2"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2">
         <v>0</v>
       </c>
       <c r="N289" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O289" s="2"/>
     </row>
@@ -15096,16 +15373,16 @@
         <v>44048</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I290" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
@@ -15135,19 +15412,19 @@
         <v>44048</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I291" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K291" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L291" s="2"/>
       <c r="M291" s="2">
@@ -15176,16 +15453,16 @@
         <v>44048</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I292" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
@@ -15215,16 +15492,16 @@
         <v>44048</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I293" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
@@ -15254,16 +15531,16 @@
         <v>44048</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I294" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
@@ -15293,19 +15570,19 @@
         <v>44048</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I295" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K295" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L295" s="2"/>
       <c r="M295" s="2">
@@ -15334,16 +15611,16 @@
         <v>44048</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I296" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
@@ -15351,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="N296" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O296" s="2"/>
     </row>
@@ -15373,16 +15650,16 @@
         <v>44048</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I297" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
@@ -15412,19 +15689,19 @@
         <v>44048</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I298" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L298" s="2"/>
       <c r="M298" s="2">
@@ -15453,19 +15730,19 @@
         <v>44048</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I299" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L299" s="2"/>
       <c r="M299" s="2">
@@ -15494,16 +15771,16 @@
         <v>44048</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I300" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
@@ -15533,16 +15810,16 @@
         <v>44048</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I301" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
@@ -15572,16 +15849,16 @@
         <v>44048</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I302" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
@@ -15611,16 +15888,16 @@
         <v>44048</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I303" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
@@ -15650,16 +15927,16 @@
         <v>44048</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I304" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
@@ -15689,16 +15966,16 @@
         <v>44048</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I305" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
@@ -15728,16 +16005,16 @@
         <v>44048</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I306" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
@@ -15767,16 +16044,16 @@
         <v>44048</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I307" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
@@ -15806,16 +16083,16 @@
         <v>44048</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I308" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
@@ -15845,16 +16122,16 @@
         <v>44048</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I309" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
@@ -15884,16 +16161,16 @@
         <v>44048</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
@@ -15923,16 +16200,16 @@
         <v>44048</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I311" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
@@ -15967,7 +16244,7 @@
         <v>58</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I312" s="2" t="s">
         <v>132</v>
@@ -16005,10 +16282,10 @@
         <v>44048</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I313" s="2" t="s">
         <v>132</v>
@@ -16044,10 +16321,10 @@
         <v>44048</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I314" s="2" t="s">
         <v>104</v>
@@ -16206,7 +16483,7 @@
         <v>44048</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>123</v>
@@ -16247,7 +16524,7 @@
         <v>44048</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>124</v>
@@ -16288,7 +16565,7 @@
         <v>44048</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>55</v>
@@ -16329,7 +16606,7 @@
         <v>44048</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>122</v>
@@ -16372,7 +16649,7 @@
         <v>44048</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>121</v>
@@ -16452,7 +16729,7 @@
         <v>44048</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>121</v>
@@ -16493,7 +16770,7 @@
         <v>44048</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H325" s="2" t="s">
         <v>121</v>
@@ -16532,7 +16809,7 @@
         <v>44048</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H326" s="2" t="s">
         <v>121</v>
@@ -16541,7 +16818,7 @@
         <v>104</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
@@ -16571,7 +16848,7 @@
         <v>44048</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H327" s="2" t="s">
         <v>122</v>
@@ -16583,7 +16860,7 @@
         <v>38</v>
       </c>
       <c r="K327" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L327" s="2"/>
       <c r="M327" s="2">
@@ -16612,7 +16889,7 @@
         <v>44049</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H328" s="2" t="s">
         <v>130</v>
@@ -16623,15 +16900,13 @@
       <c r="J328" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K328" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K328" s="2"/>
       <c r="L328" s="2"/>
       <c r="M328" s="2">
         <v>0</v>
       </c>
       <c r="N328" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O328" s="2"/>
     </row>
@@ -16655,7 +16930,7 @@
         <v>44049</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H329" s="2" t="s">
         <v>121</v>
@@ -16696,10 +16971,10 @@
         <v>44049</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H330" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I330" s="2" t="s">
         <v>132</v>
@@ -16778,7 +17053,7 @@
         <v>44049</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H332" s="2" t="s">
         <v>123</v>
@@ -16822,7 +17097,7 @@
         <v>158</v>
       </c>
       <c r="H333" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I333" s="4" t="s">
         <v>132</v>
@@ -16858,19 +17133,19 @@
         <v>44049</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J334" s="3" t="s">
         <v>140</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L334" s="2"/>
       <c r="M334" s="2">
@@ -16899,16 +17174,16 @@
         <v>44049</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
@@ -16938,16 +17213,16 @@
         <v>44049</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I336" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
@@ -16977,7 +17252,7 @@
         <v>44049</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>121</v>
@@ -16986,7 +17261,7 @@
         <v>132</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
@@ -17016,7 +17291,7 @@
         <v>44049</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>129</v>
@@ -17025,7 +17300,7 @@
         <v>104</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
@@ -17055,16 +17330,16 @@
         <v>44050</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
@@ -17094,7 +17369,7 @@
         <v>44050</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H340" s="2" t="s">
         <v>127</v>
@@ -17133,7 +17408,7 @@
         <v>44050</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>127</v>
@@ -17172,7 +17447,7 @@
         <v>44050</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>121</v>
@@ -17181,7 +17456,7 @@
         <v>104</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
@@ -17189,7 +17464,7 @@
         <v>0</v>
       </c>
       <c r="N342" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O342" s="2"/>
     </row>
@@ -17211,7 +17486,7 @@
         <v>44050</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>121</v>
@@ -17250,7 +17525,7 @@
         <v>44050</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>123</v>
@@ -17259,10 +17534,10 @@
         <v>104</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L344" s="2"/>
       <c r="M344" s="2">
@@ -17291,7 +17566,7 @@
         <v>44050</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>129</v>
@@ -17330,7 +17605,7 @@
         <v>44050</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>128</v>
@@ -17369,7 +17644,7 @@
         <v>44050</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>127</v>
@@ -17378,7 +17653,7 @@
         <v>132</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K347" s="2" t="s">
         <v>103</v>
@@ -17410,16 +17685,16 @@
         <v>44051</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
@@ -17449,26 +17724,24 @@
         <v>44051</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="K349" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="K349" s="2"/>
       <c r="L349" s="2"/>
       <c r="M349" s="2">
         <v>0</v>
       </c>
       <c r="N349" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O349" s="2"/>
     </row>
@@ -17490,16 +17763,16 @@
         <v>44051</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
@@ -17537,10 +17810,10 @@
         <v>123</v>
       </c>
       <c r="I351" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J351" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="J351" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
@@ -17575,10 +17848,10 @@
         <v>120</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J352" s="3" t="s">
         <v>40</v>
@@ -17611,7 +17884,7 @@
         <v>44051</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H353" s="2" t="s">
         <v>124</v>
@@ -17622,15 +17895,13 @@
       <c r="J353" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K353" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K353" s="2"/>
       <c r="L353" s="2"/>
       <c r="M353" s="2">
         <v>0</v>
       </c>
       <c r="N353" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O353" s="2"/>
     </row>
@@ -17652,7 +17923,7 @@
         <v>44051</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H354" s="2" t="s">
         <v>55</v>
@@ -17661,7 +17932,7 @@
         <v>104</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K354" s="2"/>
       <c r="L354" s="2"/>
@@ -17693,7 +17964,7 @@
         <v>44052</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>121</v>
@@ -17702,7 +17973,7 @@
         <v>104</v>
       </c>
       <c r="J355" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
@@ -17732,19 +18003,19 @@
         <v>44052</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H356" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="I356" s="2" t="s">
+      <c r="J356" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="J356" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="K356" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L356" s="2"/>
       <c r="M356" s="2">
@@ -17773,7 +18044,7 @@
         <v>44052</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>130</v>
@@ -17782,7 +18053,7 @@
         <v>104</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
@@ -17812,7 +18083,7 @@
         <v>44052</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>122</v>
@@ -17821,7 +18092,7 @@
         <v>104</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K358" s="2" t="s">
         <v>144</v>
@@ -17853,19 +18124,19 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H359" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J359" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L359" s="2"/>
       <c r="M359" s="2">
@@ -17896,7 +18167,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -17946,7 +18217,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -17954,7 +18225,7 @@
         <v>0</v>
       </c>
       <c r="N361" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O361" s="2"/>
     </row>
@@ -17987,17 +18258,15 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="K362" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="K362" s="2"/>
       <c r="L362" s="2"/>
       <c r="M362" s="2">
         <v>0</v>
       </c>
       <c r="N362" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O362" s="2"/>
     </row>
@@ -18019,19 +18288,19 @@
         <v>44054</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L363" s="2"/>
       <c r="M363" s="2">
@@ -18060,19 +18329,19 @@
         <v>44054</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L364" s="2"/>
       <c r="M364" s="2">
@@ -18101,16 +18370,16 @@
         <v>44054</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
@@ -18140,16 +18409,16 @@
         <v>44054</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -18190,7 +18459,7 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K367" s="2" t="s">
         <v>103</v>
@@ -18224,7 +18493,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -18267,7 +18536,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -18320,7 +18589,7 @@
         <v>38</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="L370" s="2"/>
       <c r="M370" s="2">
@@ -18392,7 +18661,7 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>123</v>
@@ -18433,10 +18702,10 @@
         <v>44055</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>132</v>
@@ -18445,7 +18714,7 @@
         <v>38</v>
       </c>
       <c r="K373" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L373" s="2"/>
       <c r="M373" s="2">
@@ -18474,10 +18743,10 @@
         <v>44055</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>132</v>
@@ -18513,7 +18782,7 @@
         <v>44055</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>122</v>
@@ -18554,7 +18823,7 @@
         <v>44055</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>122</v>
@@ -18597,26 +18866,24 @@
         <v>44056</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="K377" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="K377" s="2"/>
       <c r="L377" s="2"/>
       <c r="M377" s="2">
         <v>0</v>
       </c>
       <c r="N377" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O377" s="2"/>
     </row>
@@ -18640,16 +18907,16 @@
         <v>44056</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K378" s="2" t="s">
         <v>103</v>
@@ -18683,7 +18950,7 @@
         <v>44056</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>121</v>
@@ -18692,7 +18959,7 @@
         <v>132</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
@@ -18724,16 +18991,16 @@
         <v>44056</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K380" s="2" t="s">
         <v>103</v>
@@ -18758,7 +19025,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E381" s="10">
         <v>44056</v>
@@ -18773,10 +19040,10 @@
         <v>123</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K381" s="2" t="s">
         <v>103</v>
@@ -18801,7 +19068,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E382" s="10">
         <v>44057</v>
@@ -18816,20 +19083,18 @@
         <v>121</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K382" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K382" s="2"/>
       <c r="L382" s="2"/>
       <c r="M382" s="2">
         <v>0</v>
       </c>
       <c r="N382" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O382" s="2"/>
     </row>
@@ -18844,7 +19109,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E383" s="10">
         <v>44057</v>
@@ -18859,10 +19124,10 @@
         <v>121</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K383" s="2" t="s">
         <v>103</v>
@@ -18894,7 +19159,7 @@
         <v>44056</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>123</v>
@@ -18903,7 +19168,7 @@
         <v>132</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K384" s="2" t="s">
         <v>103</v>
@@ -18935,7 +19200,7 @@
         <v>44056</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>123</v>
@@ -18944,10 +19209,10 @@
         <v>132</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K385" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L385" s="2"/>
       <c r="M385" s="2">
@@ -18976,7 +19241,7 @@
         <v>44056</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>121</v>
@@ -18985,10 +19250,10 @@
         <v>132</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K386" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L386" s="2"/>
       <c r="M386" s="2">
@@ -19017,7 +19282,7 @@
         <v>44056</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>127</v>
@@ -19026,10 +19291,10 @@
         <v>104</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K387" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L387" s="2"/>
       <c r="M387" s="2">
@@ -19060,16 +19325,16 @@
         <v>44057</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K388" s="2" t="s">
         <v>103</v>
@@ -19094,7 +19359,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E389" s="10">
         <v>44057</v>
@@ -19109,13 +19374,13 @@
         <v>123</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L389" s="2"/>
       <c r="M389" s="2">
@@ -19137,7 +19402,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E390" s="10">
         <v>44057</v>
@@ -19152,13 +19417,13 @@
         <v>55</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L390" s="2"/>
       <c r="M390" s="2">
@@ -19180,7 +19445,7 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E391" s="10">
         <v>44057</v>
@@ -19195,10 +19460,10 @@
         <v>123</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K391" s="2" t="s">
         <v>103</v>
@@ -19232,16 +19497,16 @@
         <v>44057</v>
       </c>
       <c r="G392" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H392" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H392" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="I392" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J392" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K392" s="2" t="s">
         <v>103</v>
@@ -19275,19 +19540,19 @@
         <v>44057</v>
       </c>
       <c r="G393" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H393" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H393" s="2" t="s">
+      <c r="I393" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="I393" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="J393" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K393" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L393" s="2"/>
       <c r="M393" s="2">
@@ -19316,19 +19581,19 @@
         <v>44057</v>
       </c>
       <c r="G394" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H394" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H394" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="I394" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J394" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K394" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L394" s="2"/>
       <c r="M394" s="2">
@@ -19357,19 +19622,19 @@
         <v>44057</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K395" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L395" s="2"/>
       <c r="M395" s="2">
@@ -19400,19 +19665,19 @@
         <v>44058</v>
       </c>
       <c r="G396" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H396" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H396" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="I396" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J396" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K396" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L396" s="2"/>
       <c r="M396" s="2">
@@ -19443,13 +19708,13 @@
         <v>44058</v>
       </c>
       <c r="G397" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H397" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H397" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="I397" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J397" s="3" t="s">
         <v>38</v>
@@ -19486,19 +19751,19 @@
         <v>44058</v>
       </c>
       <c r="G398" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I398" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J398" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K398" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L398" s="4"/>
       <c r="M398" s="4">
@@ -19529,16 +19794,16 @@
         <v>44058</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K399" s="2" t="s">
         <v>103</v>
@@ -19572,10 +19837,10 @@
         <v>44058</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>104</v>
@@ -19615,10 +19880,10 @@
         <v>44058</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>76</v>
@@ -19658,10 +19923,10 @@
         <v>44058</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>76</v>
@@ -19670,7 +19935,7 @@
         <v>47</v>
       </c>
       <c r="K402" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L402" s="2"/>
       <c r="M402" s="4">
@@ -19701,16 +19966,16 @@
         <v>44058</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K403" s="2" t="s">
         <v>103</v>
@@ -19744,26 +20009,24 @@
         <v>44058</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="K404" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="K404" s="2"/>
       <c r="L404" s="2"/>
       <c r="M404" s="2">
         <v>0</v>
       </c>
       <c r="N404" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O404" s="2"/>
     </row>
@@ -19785,26 +20048,24 @@
         <v>44058</v>
       </c>
       <c r="G405" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H405" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H405" s="2" t="s">
+      <c r="I405" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="I405" s="2" t="s">
+      <c r="J405" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="J405" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="K405" s="2" t="s">
-        <v>392</v>
-      </c>
+      <c r="K405" s="2"/>
       <c r="L405" s="2"/>
       <c r="M405" s="2">
         <v>0</v>
       </c>
       <c r="N405" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O405" s="2"/>
     </row>
@@ -19826,26 +20087,24 @@
         <v>44058</v>
       </c>
       <c r="G406" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I406" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="H406" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I406" s="2" t="s">
+      <c r="J406" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="J406" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="K406" s="2" t="s">
-        <v>369</v>
-      </c>
+      <c r="K406" s="2"/>
       <c r="L406" s="2"/>
       <c r="M406" s="2">
         <v>0</v>
       </c>
       <c r="N406" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O406" s="2"/>
     </row>
@@ -19867,19 +20126,19 @@
         <v>44058</v>
       </c>
       <c r="G407" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I407" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="H407" s="2" t="s">
+      <c r="J407" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I407" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="J407" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="K407" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L407" s="2"/>
       <c r="M407" s="2">
@@ -19910,19 +20169,19 @@
         <v>44059</v>
       </c>
       <c r="G408" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H408" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H408" s="2" t="s">
+      <c r="I408" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I408" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="J408" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K408" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L408" s="2"/>
       <c r="M408" s="2">
@@ -19951,19 +20210,19 @@
         <v>44059</v>
       </c>
       <c r="G409" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H409" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H409" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="I409" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J409" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K409" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="K409" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="L409" s="2"/>
       <c r="M409" s="2">
@@ -19992,19 +20251,19 @@
         <v>44059</v>
       </c>
       <c r="G410" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I410" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="H410" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="J410" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K410" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L410" s="2"/>
       <c r="M410" s="2">
@@ -20035,7 +20294,7 @@
         <v>44060</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>130</v>
@@ -20044,10 +20303,10 @@
         <v>132</v>
       </c>
       <c r="J411" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K411" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L411" s="2"/>
       <c r="M411" s="2">
@@ -20078,7 +20337,7 @@
         <v>44060</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>130</v>
@@ -20087,10 +20346,10 @@
         <v>104</v>
       </c>
       <c r="J412" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K412" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L412" s="2"/>
       <c r="M412" s="2">
@@ -20121,7 +20380,7 @@
         <v>44060</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>121</v>
@@ -20131,7 +20390,7 @@
       </c>
       <c r="J413" s="3"/>
       <c r="K413" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L413" s="2"/>
       <c r="M413" s="2">
@@ -20162,19 +20421,19 @@
         <v>44061</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H414" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K414" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L414" s="2"/>
       <c r="M414" s="2">
@@ -20205,19 +20464,19 @@
         <v>44061</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K415" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L415" s="2"/>
       <c r="M415" s="2">
@@ -20248,19 +20507,19 @@
         <v>44061</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J416" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K416" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L416" s="2"/>
       <c r="M416" s="2">
@@ -20285,24 +20544,26 @@
         <v>15</v>
       </c>
       <c r="E417" s="10">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="F417" s="10">
         <v>44061</v>
       </c>
       <c r="G417" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J417" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="H417" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I417" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J417" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="K417" s="2"/>
+      <c r="K417" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="L417" s="2"/>
       <c r="M417" s="2">
         <v>0</v>
@@ -20326,24 +20587,26 @@
         <v>15</v>
       </c>
       <c r="E418" s="10">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="F418" s="10">
         <v>44061</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H418" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I418" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J418" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="J418" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="K418" s="2"/>
+      <c r="K418" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="L418" s="2"/>
       <c r="M418" s="2">
         <v>0</v>
@@ -20371,16 +20634,16 @@
         <v>44061</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H419" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J419" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K419" s="2" t="s">
         <v>103</v>
@@ -20412,19 +20675,19 @@
         <v>44061</v>
       </c>
       <c r="G420" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J420" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="H420" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I420" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J420" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="K420" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L420" s="2"/>
       <c r="M420" s="2">
@@ -20435,8 +20698,859 @@
       </c>
       <c r="O420" s="2"/>
     </row>
+    <row r="421" spans="1:15">
+      <c r="A421" s="2">
+        <v>420</v>
+      </c>
+      <c r="B421" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E421" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F421" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J421" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K421" s="2"/>
+      <c r="L421" s="2"/>
+      <c r="M421" s="2">
+        <v>0</v>
+      </c>
+      <c r="N421" s="2">
+        <v>0</v>
+      </c>
+      <c r="O421" s="2"/>
+    </row>
+    <row r="422" spans="1:15">
+      <c r="A422" s="2">
+        <v>421</v>
+      </c>
+      <c r="B422" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E422" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F422" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J422" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K422" s="2"/>
+      <c r="L422" s="2"/>
+      <c r="M422" s="2">
+        <v>0</v>
+      </c>
+      <c r="N422" s="2">
+        <v>0</v>
+      </c>
+      <c r="O422" s="2"/>
+    </row>
+    <row r="423" spans="1:15">
+      <c r="A423" s="2">
+        <v>422</v>
+      </c>
+      <c r="B423" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E423" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F423" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J423" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="K423" s="2"/>
+      <c r="L423" s="2"/>
+      <c r="M423" s="2">
+        <v>0</v>
+      </c>
+      <c r="N423" s="2">
+        <v>0</v>
+      </c>
+      <c r="O423" s="2"/>
+    </row>
+    <row r="424" spans="1:15">
+      <c r="A424" s="2">
+        <v>423</v>
+      </c>
+      <c r="B424" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E424" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F424" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I424" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J424" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="K424" s="2"/>
+      <c r="L424" s="2"/>
+      <c r="M424" s="2">
+        <v>0</v>
+      </c>
+      <c r="N424" s="2">
+        <v>0</v>
+      </c>
+      <c r="O424" s="2"/>
+    </row>
+    <row r="425" spans="1:15">
+      <c r="A425" s="2">
+        <v>424</v>
+      </c>
+      <c r="B425" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E425" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F425" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G425" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I425" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J425" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="K425" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L425" s="2"/>
+      <c r="M425" s="2">
+        <v>0</v>
+      </c>
+      <c r="N425" s="2">
+        <v>0</v>
+      </c>
+      <c r="O425" s="2"/>
+    </row>
+    <row r="426" spans="1:15">
+      <c r="A426" s="2">
+        <v>425</v>
+      </c>
+      <c r="B426" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E426" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F426" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G426" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I426" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J426" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K426" s="2"/>
+      <c r="L426" s="2"/>
+      <c r="M426" s="2">
+        <v>0</v>
+      </c>
+      <c r="N426" s="2">
+        <v>0</v>
+      </c>
+      <c r="O426" s="2"/>
+    </row>
+    <row r="427" spans="1:15">
+      <c r="A427" s="2">
+        <v>426</v>
+      </c>
+      <c r="B427" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E427" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F427" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I427" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J427" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K427" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L427" s="2"/>
+      <c r="M427" s="2">
+        <v>0</v>
+      </c>
+      <c r="N427" s="2">
+        <v>0</v>
+      </c>
+      <c r="O427" s="2"/>
+    </row>
+    <row r="428" spans="1:15">
+      <c r="A428" s="2">
+        <v>427</v>
+      </c>
+      <c r="B428" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E428" s="10">
+        <v>44062</v>
+      </c>
+      <c r="F428" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G428" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J428" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K428" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L428" s="2"/>
+      <c r="M428" s="2">
+        <v>0</v>
+      </c>
+      <c r="N428" s="2">
+        <v>0</v>
+      </c>
+      <c r="O428" s="2"/>
+    </row>
+    <row r="429" spans="1:15">
+      <c r="A429" s="2">
+        <v>428</v>
+      </c>
+      <c r="B429" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D429" s="2"/>
+      <c r="E429" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F429" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G429" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H429" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I429" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J429" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K429" s="2"/>
+      <c r="L429" s="2"/>
+      <c r="M429" s="2">
+        <v>0</v>
+      </c>
+      <c r="N429" s="2">
+        <v>0</v>
+      </c>
+      <c r="O429" s="2"/>
+    </row>
+    <row r="430" spans="1:15">
+      <c r="A430" s="2">
+        <v>429</v>
+      </c>
+      <c r="B430" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D430" s="2"/>
+      <c r="E430" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F430" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I430" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J430" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="K430" s="2"/>
+      <c r="L430" s="2"/>
+      <c r="M430" s="2">
+        <v>0</v>
+      </c>
+      <c r="N430" s="2">
+        <v>0</v>
+      </c>
+      <c r="O430" s="2"/>
+    </row>
+    <row r="431" spans="1:15">
+      <c r="A431" s="2">
+        <v>430</v>
+      </c>
+      <c r="B431" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D431" s="2"/>
+      <c r="E431" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F431" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H431" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I431" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J431" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="K431" s="2"/>
+      <c r="L431" s="2"/>
+      <c r="M431" s="2">
+        <v>0</v>
+      </c>
+      <c r="N431" s="2">
+        <v>0</v>
+      </c>
+      <c r="O431" s="2"/>
+    </row>
+    <row r="432" spans="1:15">
+      <c r="A432" s="2">
+        <v>431</v>
+      </c>
+      <c r="B432" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D432" s="2"/>
+      <c r="E432" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F432" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G432" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I432" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J432" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K432" s="2"/>
+      <c r="L432" s="2"/>
+      <c r="M432" s="2">
+        <v>0</v>
+      </c>
+      <c r="N432" s="2">
+        <v>0</v>
+      </c>
+      <c r="O432" s="2"/>
+    </row>
+    <row r="433" spans="1:15">
+      <c r="A433" s="2">
+        <v>432</v>
+      </c>
+      <c r="B433" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D433" s="2"/>
+      <c r="E433" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F433" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I433" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J433" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K433" s="2"/>
+      <c r="L433" s="2"/>
+      <c r="M433" s="2">
+        <v>0</v>
+      </c>
+      <c r="N433" s="2">
+        <v>0</v>
+      </c>
+      <c r="O433" s="2"/>
+    </row>
+    <row r="434" spans="1:15">
+      <c r="A434" s="2">
+        <v>433</v>
+      </c>
+      <c r="B434" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D434" s="2"/>
+      <c r="E434" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F434" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G434" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H434" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I434" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J434" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="K434" s="2"/>
+      <c r="L434" s="2"/>
+      <c r="M434" s="2">
+        <v>0</v>
+      </c>
+      <c r="N434" s="2">
+        <v>0</v>
+      </c>
+      <c r="O434" s="2"/>
+    </row>
+    <row r="435" spans="1:15">
+      <c r="A435" s="2">
+        <v>434</v>
+      </c>
+      <c r="B435" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D435" s="2"/>
+      <c r="E435" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F435" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I435" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J435" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="K435" s="2"/>
+      <c r="L435" s="2"/>
+      <c r="M435" s="2">
+        <v>0</v>
+      </c>
+      <c r="N435" s="2">
+        <v>0</v>
+      </c>
+      <c r="O435" s="2"/>
+    </row>
+    <row r="436" spans="1:15">
+      <c r="A436" s="2">
+        <v>435</v>
+      </c>
+      <c r="B436" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D436" s="2"/>
+      <c r="E436" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F436" s="10">
+        <v>44062</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I436" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J436" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="K436" s="2"/>
+      <c r="L436" s="2"/>
+      <c r="M436" s="2">
+        <v>0</v>
+      </c>
+      <c r="N436" s="2">
+        <v>0</v>
+      </c>
+      <c r="O436" s="2"/>
+    </row>
+    <row r="437" spans="1:15">
+      <c r="A437" s="2">
+        <v>436</v>
+      </c>
+      <c r="B437" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E437" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F437" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G437" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H437" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I437" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J437" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K437" s="2"/>
+      <c r="L437" s="2"/>
+      <c r="M437" s="2">
+        <v>0</v>
+      </c>
+      <c r="N437" s="2">
+        <v>0</v>
+      </c>
+      <c r="O437" s="2"/>
+    </row>
+    <row r="438" spans="1:15">
+      <c r="A438" s="2">
+        <v>437</v>
+      </c>
+      <c r="B438" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E438" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F438" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H438" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I438" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J438" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K438" s="2"/>
+      <c r="L438" s="2"/>
+      <c r="M438" s="2">
+        <v>0</v>
+      </c>
+      <c r="N438" s="2">
+        <v>0</v>
+      </c>
+      <c r="O438" s="2"/>
+    </row>
+    <row r="439" spans="1:15">
+      <c r="A439" s="2">
+        <v>438</v>
+      </c>
+      <c r="B439" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E439" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F439" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I439" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J439" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K439" s="2"/>
+      <c r="L439" s="2"/>
+      <c r="M439" s="2">
+        <v>0</v>
+      </c>
+      <c r="N439" s="2">
+        <v>0</v>
+      </c>
+      <c r="O439" s="2"/>
+    </row>
+    <row r="440" spans="1:15">
+      <c r="A440" s="2">
+        <v>439</v>
+      </c>
+      <c r="B440" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E440" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F440" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H440" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I440" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J440" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K440" s="2"/>
+      <c r="L440" s="2"/>
+      <c r="M440" s="2">
+        <v>0</v>
+      </c>
+      <c r="N440" s="2">
+        <v>0</v>
+      </c>
+      <c r="O440" s="2"/>
+    </row>
+    <row r="441" spans="1:15">
+      <c r="A441" s="2">
+        <v>440</v>
+      </c>
+      <c r="B441" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E441" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F441" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H441" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I441" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J441" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K441" s="2"/>
+      <c r="L441" s="2"/>
+      <c r="M441" s="2">
+        <v>0</v>
+      </c>
+      <c r="N441" s="2">
+        <v>0</v>
+      </c>
+      <c r="O441" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O420"/>
+  <autoFilter ref="A1:O441"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$441</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$472</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="504">
   <si>
     <t>No</t>
   </si>
@@ -1990,6 +1990,640 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="3">
+      <t>キクチシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御船町</t>
+    <rPh sb="0" eb="2">
+      <t>ミフネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売員</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘉島町</t>
+    <rPh sb="0" eb="3">
+      <t>カシママチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>留学生</t>
+    <rPh sb="0" eb="3">
+      <t>リュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="4">
+      <t>カイシャヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="2">
+      <t>ホイク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -1997,6 +2631,164 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>熊本市中央区</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
@@ -2007,9 +2799,666 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>玉名市</t>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
     <rPh sb="0" eb="3">
-      <t>タマナシ</t>
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高森町</t>
+    <rPh sb="0" eb="3">
+      <t>タカモリマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロスポーツ選手</t>
+    <rPh sb="6" eb="8">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇土市</t>
+    <rPh sb="0" eb="3">
+      <t>ウトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町職員</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>園児</t>
+    <rPh sb="0" eb="2">
+      <t>エンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南関町</t>
+    <rPh sb="0" eb="3">
+      <t>ナンカンマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2021,43 +3470,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマガ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池市</t>
+    <t>水俣市</t>
     <rPh sb="0" eb="3">
-      <t>キクチシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>御船町</t>
-    <rPh sb="0" eb="2">
-      <t>ミフネ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊陽町</t>
+      <t>ミナマタシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
     <rPh sb="0" eb="3">
-      <t>キクヨウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
     <rPh sb="0" eb="3">
-      <t>コウシシ</t>
+      <t>ヤツシロシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2076,9 +3505,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>販売員</t>
-    <rPh sb="0" eb="3">
-      <t>ハンバイイン</t>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2090,6 +3526,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
@@ -2097,6 +3591,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>無職</t>
     <rPh sb="0" eb="2">
       <t>ムショク</t>
@@ -2104,6 +3608,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>高校生</t>
     <rPh sb="0" eb="3">
       <t>コウコウセイ</t>
@@ -2111,6 +3636,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>団体職員</t>
+    <rPh sb="0" eb="2">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介護職</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業</t>
+    <rPh sb="0" eb="2">
+      <t>ノウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -2118,1212 +3714,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設入所者</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学生</t>
     <rPh sb="0" eb="2">
       <t>ガクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長洲町</t>
-    <rPh sb="0" eb="3">
-      <t>ナガスマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>嘉島町</t>
-    <rPh sb="0" eb="3">
-      <t>カシママチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>留学生</t>
-    <rPh sb="0" eb="3">
-      <t>リュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="4">
-      <t>カイシャヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="2">
-      <t>ホイク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>埼玉県</t>
-    <rPh sb="0" eb="3">
-      <t>サイタマケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療事務</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店経営</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高森町</t>
-    <rPh sb="0" eb="3">
-      <t>タカモリマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロスポーツ選手</t>
-    <rPh sb="6" eb="8">
-      <t>センシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇土市</t>
-    <rPh sb="0" eb="3">
-      <t>ウトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町職員</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>園児</t>
-    <rPh sb="0" eb="2">
-      <t>エンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南関町</t>
-  </si>
-  <si>
-    <t>山鹿市</t>
   </si>
 </sst>
 </file>
@@ -3806,13 +4201,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O441"/>
+  <dimension ref="A1:O472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B454" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G159" sqref="G159:G162"/>
+      <selection pane="bottomRight" activeCell="J474" sqref="J474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7608,15 +8003,13 @@
       <c r="J94" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K94" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="9">
         <v>0</v>
       </c>
       <c r="N94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" s="2"/>
     </row>
@@ -9276,15 +9669,13 @@
       <c r="J136" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K136" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="9">
         <v>0</v>
       </c>
       <c r="N136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O136" s="2"/>
     </row>
@@ -9479,15 +9870,13 @@
       <c r="J141" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K141" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2">
         <v>0</v>
       </c>
       <c r="N141" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141" s="2"/>
     </row>
@@ -10180,7 +10569,7 @@
         <v>44041</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>153</v>
@@ -10219,7 +10608,7 @@
         <v>44041</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>150</v>
@@ -10260,7 +10649,7 @@
         <v>44041</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>455</v>
+        <v>191</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>159</v>
@@ -10299,7 +10688,7 @@
         <v>44041</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>455</v>
+        <v>191</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>159</v>
@@ -10311,7 +10700,7 @@
         <v>141</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2">
@@ -11665,7 +12054,7 @@
         <v>242</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
@@ -12893,15 +13282,13 @@
       <c r="J227" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K227" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K227" s="2"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2">
         <v>0</v>
       </c>
       <c r="N227" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O227" s="2"/>
     </row>
@@ -13764,7 +14151,7 @@
         <v>242</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L249" s="2"/>
       <c r="M249" s="2">
@@ -13845,15 +14232,13 @@
       <c r="J251" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K251" s="2" t="s">
-        <v>367</v>
-      </c>
+      <c r="K251" s="2"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2">
         <v>0</v>
       </c>
       <c r="N251" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O251" s="2"/>
     </row>
@@ -15581,15 +15966,13 @@
       <c r="J295" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K295" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="K295" s="2"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2">
         <v>0</v>
       </c>
       <c r="N295" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O295" s="2"/>
     </row>
@@ -16740,15 +17123,13 @@
       <c r="J324" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K324" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K324" s="2"/>
       <c r="L324" s="2"/>
       <c r="M324" s="2">
         <v>0</v>
       </c>
       <c r="N324" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O324" s="2"/>
     </row>
@@ -16859,15 +17240,13 @@
       <c r="J327" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K327" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="K327" s="2"/>
       <c r="L327" s="2"/>
       <c r="M327" s="2">
         <v>0</v>
       </c>
       <c r="N327" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O327" s="2"/>
     </row>
@@ -17145,7 +17524,7 @@
         <v>140</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L334" s="2"/>
       <c r="M334" s="2">
@@ -17447,7 +17826,7 @@
         <v>44050</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>121</v>
@@ -17456,7 +17835,7 @@
         <v>104</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
@@ -17486,7 +17865,7 @@
         <v>44050</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>121</v>
@@ -17525,7 +17904,7 @@
         <v>44050</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>123</v>
@@ -17534,17 +17913,15 @@
         <v>104</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="K344" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="K344" s="2"/>
       <c r="L344" s="2"/>
       <c r="M344" s="2">
         <v>0</v>
       </c>
       <c r="N344" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O344" s="2"/>
     </row>
@@ -17566,7 +17943,7 @@
         <v>44050</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>129</v>
@@ -17605,7 +17982,7 @@
         <v>44050</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>128</v>
@@ -17644,7 +18021,7 @@
         <v>44050</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>127</v>
@@ -17653,10 +18030,10 @@
         <v>132</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L347" s="2"/>
       <c r="M347" s="2">
@@ -17685,16 +18062,16 @@
         <v>44051</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
@@ -17724,16 +18101,16 @@
         <v>44051</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K349" s="2"/>
       <c r="L349" s="2"/>
@@ -17763,16 +18140,16 @@
         <v>44051</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
@@ -17810,10 +18187,10 @@
         <v>123</v>
       </c>
       <c r="I351" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J351" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="J351" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
@@ -17848,10 +18225,10 @@
         <v>120</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J352" s="3" t="s">
         <v>40</v>
@@ -17964,7 +18341,7 @@
         <v>44052</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>121</v>
@@ -18003,26 +18380,24 @@
         <v>44052</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H356" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="I356" s="2" t="s">
+      <c r="J356" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J356" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="K356" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="K356" s="2"/>
       <c r="L356" s="2"/>
       <c r="M356" s="2">
         <v>0</v>
       </c>
       <c r="N356" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O356" s="2"/>
     </row>
@@ -18044,7 +18419,7 @@
         <v>44052</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>130</v>
@@ -18053,7 +18428,7 @@
         <v>104</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
@@ -18083,7 +18458,7 @@
         <v>44052</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>122</v>
@@ -18092,7 +18467,7 @@
         <v>104</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K358" s="2" t="s">
         <v>144</v>
@@ -18124,10 +18499,10 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H359" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
@@ -18167,7 +18542,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -18217,7 +18592,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -18258,7 +18633,7 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
@@ -18291,13 +18666,13 @@
         <v>213</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K363" s="2" t="s">
         <v>181</v>
@@ -18332,23 +18707,21 @@
         <v>189</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="K364" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="K364" s="2"/>
       <c r="L364" s="2"/>
       <c r="M364" s="2">
         <v>0</v>
       </c>
       <c r="N364" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O364" s="2"/>
     </row>
@@ -18373,13 +18746,13 @@
         <v>189</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
@@ -18412,13 +18785,13 @@
         <v>163</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -18459,17 +18832,15 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K367" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="K367" s="2"/>
       <c r="L367" s="2"/>
       <c r="M367" s="2">
         <v>0</v>
       </c>
       <c r="N367" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O367" s="2"/>
     </row>
@@ -18493,7 +18864,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -18536,7 +18907,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -18589,7 +18960,7 @@
         <v>38</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>453</v>
+        <v>144</v>
       </c>
       <c r="L370" s="2"/>
       <c r="M370" s="2">
@@ -18661,7 +19032,7 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>123</v>
@@ -18702,10 +19073,10 @@
         <v>44055</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>132</v>
@@ -18713,15 +19084,13 @@
       <c r="J373" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K373" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K373" s="2"/>
       <c r="L373" s="2"/>
       <c r="M373" s="2">
         <v>0</v>
       </c>
       <c r="N373" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O373" s="2"/>
     </row>
@@ -18746,7 +19115,7 @@
         <v>219</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>132</v>
@@ -18782,7 +19151,7 @@
         <v>44055</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>122</v>
@@ -18823,7 +19192,7 @@
         <v>44055</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>122</v>
@@ -18834,15 +19203,13 @@
       <c r="J376" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K376" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K376" s="2"/>
       <c r="L376" s="2"/>
       <c r="M376" s="2">
         <v>0</v>
       </c>
       <c r="N376" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O376" s="2"/>
     </row>
@@ -18866,16 +19233,16 @@
         <v>44056</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
@@ -18907,16 +19274,16 @@
         <v>44056</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K378" s="2" t="s">
         <v>103</v>
@@ -18950,7 +19317,7 @@
         <v>44056</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>121</v>
@@ -18959,7 +19326,7 @@
         <v>132</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
@@ -18991,26 +19358,24 @@
         <v>44056</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I380" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J380" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="J380" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K380" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K380" s="2"/>
       <c r="L380" s="2"/>
       <c r="M380" s="2">
         <v>0</v>
       </c>
       <c r="N380" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O380" s="2"/>
     </row>
@@ -19025,7 +19390,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E381" s="10">
         <v>44056</v>
@@ -19040,10 +19405,10 @@
         <v>123</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K381" s="2" t="s">
         <v>103</v>
@@ -19068,7 +19433,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E382" s="10">
         <v>44057</v>
@@ -19083,7 +19448,7 @@
         <v>121</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>47</v>
@@ -19109,7 +19474,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E383" s="10">
         <v>44057</v>
@@ -19124,20 +19489,18 @@
         <v>121</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K383" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="K383" s="2"/>
       <c r="L383" s="2"/>
       <c r="M383" s="2">
         <v>0</v>
       </c>
       <c r="N383" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O383" s="2"/>
     </row>
@@ -19159,7 +19522,7 @@
         <v>44056</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>123</v>
@@ -19168,17 +19531,15 @@
         <v>132</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K384" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="K384" s="2"/>
       <c r="L384" s="2"/>
       <c r="M384" s="2">
         <v>0</v>
       </c>
       <c r="N384" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O384" s="2"/>
     </row>
@@ -19200,7 +19561,7 @@
         <v>44056</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>123</v>
@@ -19209,17 +19570,15 @@
         <v>132</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="K385" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="K385" s="2"/>
       <c r="L385" s="2"/>
       <c r="M385" s="2">
         <v>0</v>
       </c>
       <c r="N385" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O385" s="2"/>
     </row>
@@ -19241,7 +19600,7 @@
         <v>44056</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>121</v>
@@ -19250,17 +19609,15 @@
         <v>132</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="K386" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="K386" s="2"/>
       <c r="L386" s="2"/>
       <c r="M386" s="2">
         <v>0</v>
       </c>
       <c r="N386" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O386" s="2"/>
     </row>
@@ -19282,7 +19639,7 @@
         <v>44056</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>127</v>
@@ -19291,17 +19648,15 @@
         <v>104</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="K387" s="2" t="s">
-        <v>368</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="K387" s="2"/>
       <c r="L387" s="2"/>
       <c r="M387" s="2">
         <v>0</v>
       </c>
       <c r="N387" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O387" s="2"/>
     </row>
@@ -19325,16 +19680,16 @@
         <v>44057</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K388" s="2" t="s">
         <v>103</v>
@@ -19359,7 +19714,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E389" s="10">
         <v>44057</v>
@@ -19374,13 +19729,13 @@
         <v>123</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="L389" s="2"/>
       <c r="M389" s="2">
@@ -19402,7 +19757,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E390" s="10">
         <v>44057</v>
@@ -19417,10 +19772,10 @@
         <v>55</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K390" s="2" t="s">
         <v>181</v>
@@ -19445,7 +19800,7 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E391" s="10">
         <v>44057</v>
@@ -19460,10 +19815,10 @@
         <v>123</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K391" s="2" t="s">
         <v>103</v>
@@ -19497,16 +19852,16 @@
         <v>44057</v>
       </c>
       <c r="G392" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H392" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I392" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="H392" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I392" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="J392" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K392" s="2" t="s">
         <v>103</v>
@@ -19540,16 +19895,16 @@
         <v>44057</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J393" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K393" s="2" t="s">
         <v>181</v>
@@ -19581,26 +19936,24 @@
         <v>44057</v>
       </c>
       <c r="G394" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H394" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J394" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="H394" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="I394" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J394" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="K394" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="K394" s="2"/>
       <c r="L394" s="2"/>
       <c r="M394" s="2">
         <v>0</v>
       </c>
       <c r="N394" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O394" s="2"/>
     </row>
@@ -19622,26 +19975,24 @@
         <v>44057</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K395" s="2" t="s">
-        <v>342</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="K395" s="2"/>
       <c r="L395" s="2"/>
       <c r="M395" s="2">
         <v>0</v>
       </c>
       <c r="N395" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O395" s="2"/>
     </row>
@@ -19665,26 +20016,24 @@
         <v>44058</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J396" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K396" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K396" s="2"/>
       <c r="L396" s="2"/>
       <c r="M396" s="2">
         <v>0</v>
       </c>
       <c r="N396" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O396" s="2"/>
     </row>
@@ -19708,13 +20057,13 @@
         <v>44058</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J397" s="3" t="s">
         <v>38</v>
@@ -19751,13 +20100,13 @@
         <v>44058</v>
       </c>
       <c r="G398" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I398" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J398" s="3" t="s">
         <v>38</v>
@@ -19794,26 +20143,24 @@
         <v>44058</v>
       </c>
       <c r="G399" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H399" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="H399" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="K399" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="K399" s="2"/>
       <c r="L399" s="2"/>
       <c r="M399" s="4">
         <v>0</v>
       </c>
       <c r="N399" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O399" s="2"/>
     </row>
@@ -19837,10 +20184,10 @@
         <v>44058</v>
       </c>
       <c r="G400" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H400" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="H400" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>104</v>
@@ -19880,10 +20227,10 @@
         <v>44058</v>
       </c>
       <c r="G401" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H401" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="H401" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>76</v>
@@ -19923,10 +20270,10 @@
         <v>44058</v>
       </c>
       <c r="G402" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H402" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="H402" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>76</v>
@@ -19966,26 +20313,24 @@
         <v>44058</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="K403" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="K403" s="2"/>
       <c r="L403" s="2"/>
       <c r="M403" s="4">
         <v>0</v>
       </c>
       <c r="N403" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O403" s="2"/>
     </row>
@@ -20009,16 +20354,16 @@
         <v>44058</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
@@ -20048,16 +20393,16 @@
         <v>44058</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H405" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I405" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J405" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
@@ -20087,16 +20432,16 @@
         <v>44058</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H406" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I406" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I406" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="J406" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
@@ -20126,19 +20471,19 @@
         <v>44058</v>
       </c>
       <c r="G407" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I407" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J407" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="H407" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I407" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="J407" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="K407" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L407" s="2"/>
       <c r="M407" s="2">
@@ -20169,19 +20514,19 @@
         <v>44059</v>
       </c>
       <c r="G408" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J408" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="H408" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I408" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J408" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="K408" s="3" t="s">
-        <v>398</v>
+        <v>181</v>
       </c>
       <c r="L408" s="2"/>
       <c r="M408" s="2">
@@ -20210,26 +20555,24 @@
         <v>44059</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H409" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J409" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K409" s="3" t="s">
-        <v>388</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="K409" s="3"/>
       <c r="L409" s="2"/>
       <c r="M409" s="2">
         <v>0</v>
       </c>
       <c r="N409" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O409" s="2"/>
     </row>
@@ -20251,26 +20594,24 @@
         <v>44059</v>
       </c>
       <c r="G410" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J410" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="H410" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="J410" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="K410" s="3" t="s">
-        <v>388</v>
-      </c>
+      <c r="K410" s="2"/>
       <c r="L410" s="2"/>
       <c r="M410" s="2">
         <v>0</v>
       </c>
       <c r="N410" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O410" s="2"/>
     </row>
@@ -20294,7 +20635,7 @@
         <v>44060</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>130</v>
@@ -20303,10 +20644,10 @@
         <v>132</v>
       </c>
       <c r="J411" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K411" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="K411" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="L411" s="2"/>
       <c r="M411" s="2">
@@ -20337,7 +20678,7 @@
         <v>44060</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>130</v>
@@ -20346,10 +20687,10 @@
         <v>104</v>
       </c>
       <c r="J412" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K412" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L412" s="2"/>
       <c r="M412" s="2">
@@ -20380,7 +20721,7 @@
         <v>44060</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>121</v>
@@ -20388,9 +20729,11 @@
       <c r="I413" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J413" s="3"/>
+      <c r="J413" s="3" t="s">
+        <v>503</v>
+      </c>
       <c r="K413" s="3" t="s">
-        <v>408</v>
+        <v>181</v>
       </c>
       <c r="L413" s="2"/>
       <c r="M413" s="2">
@@ -20421,26 +20764,24 @@
         <v>44061</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H414" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="K414" s="3" t="s">
-        <v>408</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="K414" s="3"/>
       <c r="L414" s="2"/>
       <c r="M414" s="2">
         <v>0</v>
       </c>
       <c r="N414" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O414" s="2"/>
     </row>
@@ -20464,26 +20805,24 @@
         <v>44061</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="K415" s="3" t="s">
-        <v>408</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="K415" s="3"/>
       <c r="L415" s="2"/>
       <c r="M415" s="2">
         <v>0</v>
       </c>
       <c r="N415" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O415" s="2"/>
     </row>
@@ -20507,19 +20846,19 @@
         <v>44061</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J416" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K416" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L416" s="2"/>
       <c r="M416" s="2">
@@ -20550,19 +20889,19 @@
         <v>44061</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H417" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J417" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K417" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L417" s="2"/>
       <c r="M417" s="2">
@@ -20593,19 +20932,19 @@
         <v>44061</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H418" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J418" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K418" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L418" s="2"/>
       <c r="M418" s="2">
@@ -20634,16 +20973,16 @@
         <v>44061</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H419" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J419" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K419" s="2" t="s">
         <v>103</v>
@@ -20675,19 +21014,19 @@
         <v>44061</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J420" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K420" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L420" s="2"/>
       <c r="M420" s="2">
@@ -20718,18 +21057,20 @@
         <v>44062</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H421" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J421" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="K421" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="K421" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="L421" s="2"/>
       <c r="M421" s="2">
         <v>0</v>
@@ -20759,18 +21100,20 @@
         <v>44062</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I422" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J422" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="J422" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="K422" s="2"/>
+      <c r="K422" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="L422" s="2"/>
       <c r="M422" s="2">
         <v>0</v>
@@ -20800,18 +21143,20 @@
         <v>44062</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J423" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="K423" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="K423" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="L423" s="2"/>
       <c r="M423" s="2">
         <v>0</v>
@@ -20841,18 +21186,20 @@
         <v>44062</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J424" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="K424" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="K424" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L424" s="2"/>
       <c r="M424" s="2">
         <v>0</v>
@@ -20882,19 +21229,19 @@
         <v>44062</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J425" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K425" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L425" s="2"/>
       <c r="M425" s="2">
@@ -20925,18 +21272,20 @@
         <v>44062</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J426" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="K426" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="K426" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L426" s="2"/>
       <c r="M426" s="2">
         <v>0</v>
@@ -20966,19 +21315,19 @@
         <v>44062</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H427" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J427" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L427" s="2"/>
       <c r="M427" s="2">
@@ -21009,19 +21358,19 @@
         <v>44062</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H428" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I428" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J428" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K428" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L428" s="2"/>
       <c r="M428" s="2">
@@ -21050,18 +21399,20 @@
         <v>44062</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H429" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J429" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="K429" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="K429" s="2" t="s">
+        <v>468</v>
+      </c>
       <c r="L429" s="2"/>
       <c r="M429" s="2">
         <v>0</v>
@@ -21089,18 +21440,20 @@
         <v>44062</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J430" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="K430" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="K430" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L430" s="2"/>
       <c r="M430" s="2">
         <v>0</v>
@@ -21128,18 +21481,20 @@
         <v>44062</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J431" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="K431" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="K431" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L431" s="2"/>
       <c r="M431" s="2">
         <v>0</v>
@@ -21167,18 +21522,20 @@
         <v>44062</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="K432" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="K432" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L432" s="2"/>
       <c r="M432" s="2">
         <v>0</v>
@@ -21206,18 +21563,20 @@
         <v>44062</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J433" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="K433" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="K433" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L433" s="2"/>
       <c r="M433" s="2">
         <v>0</v>
@@ -21245,18 +21604,20 @@
         <v>44062</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J434" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="K434" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="K434" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L434" s="2"/>
       <c r="M434" s="2">
         <v>0</v>
@@ -21284,18 +21645,20 @@
         <v>44062</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="K435" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="K435" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L435" s="2"/>
       <c r="M435" s="2">
         <v>0</v>
@@ -21323,18 +21686,20 @@
         <v>44062</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J436" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="K436" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="K436" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L436" s="2"/>
       <c r="M436" s="2">
         <v>0</v>
@@ -21355,7 +21720,7 @@
         <v>14</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E437" s="10">
         <v>44063</v>
@@ -21364,18 +21729,20 @@
         <v>44063</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I437" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J437" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K437" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="K437" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L437" s="2"/>
       <c r="M437" s="2">
         <v>0</v>
@@ -21396,7 +21763,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E438" s="10">
         <v>44063</v>
@@ -21405,18 +21772,20 @@
         <v>44063</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J438" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K438" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="K438" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L438" s="2"/>
       <c r="M438" s="2">
         <v>0</v>
@@ -21437,7 +21806,7 @@
         <v>14</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E439" s="10">
         <v>44063</v>
@@ -21446,18 +21815,20 @@
         <v>44063</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J439" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K439" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="K439" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="L439" s="2"/>
       <c r="M439" s="2">
         <v>0</v>
@@ -21478,7 +21849,7 @@
         <v>14</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E440" s="10">
         <v>44063</v>
@@ -21487,18 +21858,20 @@
         <v>44063</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J440" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K440" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="K440" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L440" s="2"/>
       <c r="M440" s="2">
         <v>0</v>
@@ -21519,7 +21892,7 @@
         <v>14</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E441" s="10">
         <v>44063</v>
@@ -21528,18 +21901,20 @@
         <v>44063</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J441" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K441" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="K441" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="L441" s="2"/>
       <c r="M441" s="2">
         <v>0</v>
@@ -21549,8 +21924,1291 @@
       </c>
       <c r="O441" s="2"/>
     </row>
+    <row r="442" spans="1:15">
+      <c r="A442" s="2">
+        <v>441</v>
+      </c>
+      <c r="B442" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E442" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F442" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H442" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I442" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J442" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K442" s="2"/>
+      <c r="L442" s="2"/>
+      <c r="M442" s="2">
+        <v>0</v>
+      </c>
+      <c r="N442" s="2">
+        <v>1</v>
+      </c>
+      <c r="O442" s="2"/>
+    </row>
+    <row r="443" spans="1:15">
+      <c r="A443" s="2">
+        <v>442</v>
+      </c>
+      <c r="B443" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E443" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F443" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I443" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J443" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K443" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L443" s="2"/>
+      <c r="M443" s="2">
+        <v>0</v>
+      </c>
+      <c r="N443" s="2">
+        <v>0</v>
+      </c>
+      <c r="O443" s="2"/>
+    </row>
+    <row r="444" spans="1:15">
+      <c r="A444" s="2">
+        <v>443</v>
+      </c>
+      <c r="B444" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D444" s="2"/>
+      <c r="E444" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F444" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H444" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I444" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J444" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="K444" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="L444" s="2"/>
+      <c r="M444" s="2">
+        <v>0</v>
+      </c>
+      <c r="N444" s="2">
+        <v>0</v>
+      </c>
+      <c r="O444" s="2"/>
+    </row>
+    <row r="445" spans="1:15">
+      <c r="A445" s="2">
+        <v>444</v>
+      </c>
+      <c r="B445" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D445" s="2"/>
+      <c r="E445" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F445" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I445" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J445" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="K445" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L445" s="2"/>
+      <c r="M445" s="2">
+        <v>0</v>
+      </c>
+      <c r="N445" s="2">
+        <v>0</v>
+      </c>
+      <c r="O445" s="2"/>
+    </row>
+    <row r="446" spans="1:15">
+      <c r="A446" s="2">
+        <v>445</v>
+      </c>
+      <c r="B446" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D446" s="2"/>
+      <c r="E446" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F446" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H446" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I446" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J446" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K446" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L446" s="2"/>
+      <c r="M446" s="2">
+        <v>0</v>
+      </c>
+      <c r="N446" s="2">
+        <v>0</v>
+      </c>
+      <c r="O446" s="2"/>
+    </row>
+    <row r="447" spans="1:15">
+      <c r="A447" s="2">
+        <v>446</v>
+      </c>
+      <c r="B447" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E447" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F447" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H447" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I447" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J447" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K447" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L447" s="2"/>
+      <c r="M447" s="2">
+        <v>0</v>
+      </c>
+      <c r="N447" s="2">
+        <v>0</v>
+      </c>
+      <c r="O447" s="2"/>
+    </row>
+    <row r="448" spans="1:15">
+      <c r="A448" s="2">
+        <v>447</v>
+      </c>
+      <c r="B448" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E448" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F448" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I448" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J448" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K448" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L448" s="2"/>
+      <c r="M448" s="2">
+        <v>0</v>
+      </c>
+      <c r="N448" s="2">
+        <v>0</v>
+      </c>
+      <c r="O448" s="2"/>
+    </row>
+    <row r="449" spans="1:15">
+      <c r="A449" s="2">
+        <v>448</v>
+      </c>
+      <c r="B449" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D449" s="2"/>
+      <c r="E449" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F449" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H449" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I449" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J449" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K449" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L449" s="2"/>
+      <c r="M449" s="2">
+        <v>0</v>
+      </c>
+      <c r="N449" s="2">
+        <v>0</v>
+      </c>
+      <c r="O449" s="2"/>
+    </row>
+    <row r="450" spans="1:15">
+      <c r="A450" s="2">
+        <v>449</v>
+      </c>
+      <c r="B450" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D450" s="2"/>
+      <c r="E450" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F450" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H450" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I450" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J450" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="K450" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L450" s="2"/>
+      <c r="M450" s="2">
+        <v>0</v>
+      </c>
+      <c r="N450" s="2">
+        <v>0</v>
+      </c>
+      <c r="O450" s="2"/>
+    </row>
+    <row r="451" spans="1:15">
+      <c r="A451" s="2">
+        <v>450</v>
+      </c>
+      <c r="B451" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E451" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F451" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G451" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H451" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I451" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J451" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K451" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L451" s="2"/>
+      <c r="M451" s="2">
+        <v>0</v>
+      </c>
+      <c r="N451" s="2">
+        <v>0</v>
+      </c>
+      <c r="O451" s="2"/>
+    </row>
+    <row r="452" spans="1:15">
+      <c r="A452" s="2">
+        <v>451</v>
+      </c>
+      <c r="B452" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E452" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F452" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H452" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I452" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J452" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="K452" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L452" s="2"/>
+      <c r="M452" s="2">
+        <v>0</v>
+      </c>
+      <c r="N452" s="2">
+        <v>0</v>
+      </c>
+      <c r="O452" s="2"/>
+    </row>
+    <row r="453" spans="1:15">
+      <c r="A453" s="2">
+        <v>452</v>
+      </c>
+      <c r="B453" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E453" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F453" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="J453" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="K453" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L453" s="2"/>
+      <c r="M453" s="2">
+        <v>0</v>
+      </c>
+      <c r="N453" s="2">
+        <v>0</v>
+      </c>
+      <c r="O453" s="2"/>
+    </row>
+    <row r="454" spans="1:15">
+      <c r="A454" s="2">
+        <v>453</v>
+      </c>
+      <c r="B454" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E454" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F454" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H454" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I454" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J454" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="K454" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L454" s="2"/>
+      <c r="M454" s="2">
+        <v>0</v>
+      </c>
+      <c r="N454" s="2">
+        <v>0</v>
+      </c>
+      <c r="O454" s="2"/>
+    </row>
+    <row r="455" spans="1:15">
+      <c r="A455" s="2">
+        <v>454</v>
+      </c>
+      <c r="B455" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E455" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F455" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G455" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I455" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="J455" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="K455" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L455" s="2"/>
+      <c r="M455" s="2">
+        <v>0</v>
+      </c>
+      <c r="N455" s="2">
+        <v>0</v>
+      </c>
+      <c r="O455" s="2"/>
+    </row>
+    <row r="456" spans="1:15">
+      <c r="A456" s="2">
+        <v>455</v>
+      </c>
+      <c r="B456" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E456" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F456" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G456" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I456" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="J456" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K456" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L456" s="2"/>
+      <c r="M456" s="2">
+        <v>0</v>
+      </c>
+      <c r="N456" s="2">
+        <v>0</v>
+      </c>
+      <c r="O456" s="2"/>
+    </row>
+    <row r="457" spans="1:15">
+      <c r="A457" s="2">
+        <v>456</v>
+      </c>
+      <c r="B457" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D457" s="2"/>
+      <c r="E457" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F457" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H457" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I457" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J457" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="K457" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L457" s="2"/>
+      <c r="M457" s="2">
+        <v>0</v>
+      </c>
+      <c r="N457" s="2">
+        <v>0</v>
+      </c>
+      <c r="O457" s="2"/>
+    </row>
+    <row r="458" spans="1:15">
+      <c r="A458" s="2">
+        <v>457</v>
+      </c>
+      <c r="B458" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D458" s="2"/>
+      <c r="E458" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F458" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G458" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H458" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="I458" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J458" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="K458" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L458" s="2"/>
+      <c r="M458" s="2">
+        <v>0</v>
+      </c>
+      <c r="N458" s="2">
+        <v>0</v>
+      </c>
+      <c r="O458" s="2"/>
+    </row>
+    <row r="459" spans="1:15">
+      <c r="A459" s="2">
+        <v>458</v>
+      </c>
+      <c r="B459" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D459" s="2"/>
+      <c r="E459" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F459" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G459" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H459" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="I459" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J459" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K459" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L459" s="2"/>
+      <c r="M459" s="2">
+        <v>0</v>
+      </c>
+      <c r="N459" s="2">
+        <v>0</v>
+      </c>
+      <c r="O459" s="2"/>
+    </row>
+    <row r="460" spans="1:15">
+      <c r="A460" s="2">
+        <v>459</v>
+      </c>
+      <c r="B460" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D460" s="2"/>
+      <c r="E460" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F460" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G460" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H460" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I460" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J460" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="K460" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L460" s="2"/>
+      <c r="M460" s="2">
+        <v>0</v>
+      </c>
+      <c r="N460" s="2">
+        <v>0</v>
+      </c>
+      <c r="O460" s="2"/>
+    </row>
+    <row r="461" spans="1:15">
+      <c r="A461" s="2">
+        <v>460</v>
+      </c>
+      <c r="B461" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D461" s="2"/>
+      <c r="E461" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F461" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G461" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H461" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I461" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J461" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="K461" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L461" s="2"/>
+      <c r="M461" s="2">
+        <v>0</v>
+      </c>
+      <c r="N461" s="2">
+        <v>0</v>
+      </c>
+      <c r="O461" s="2"/>
+    </row>
+    <row r="462" spans="1:15">
+      <c r="A462" s="2">
+        <v>461</v>
+      </c>
+      <c r="B462" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D462" s="2"/>
+      <c r="E462" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F462" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G462" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H462" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I462" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J462" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K462" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L462" s="2"/>
+      <c r="M462" s="2">
+        <v>0</v>
+      </c>
+      <c r="N462" s="2">
+        <v>0</v>
+      </c>
+      <c r="O462" s="2"/>
+    </row>
+    <row r="463" spans="1:15">
+      <c r="A463" s="2">
+        <v>462</v>
+      </c>
+      <c r="B463" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D463" s="2"/>
+      <c r="E463" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F463" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H463" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I463" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J463" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K463" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L463" s="2"/>
+      <c r="M463" s="2">
+        <v>0</v>
+      </c>
+      <c r="N463" s="2">
+        <v>0</v>
+      </c>
+      <c r="O463" s="2"/>
+    </row>
+    <row r="464" spans="1:15">
+      <c r="A464" s="2">
+        <v>463</v>
+      </c>
+      <c r="B464" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E464" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F464" s="10">
+        <v>44065</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H464" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I464" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J464" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="K464" s="2"/>
+      <c r="L464" s="2"/>
+      <c r="M464" s="2">
+        <v>0</v>
+      </c>
+      <c r="N464" s="2">
+        <v>0</v>
+      </c>
+      <c r="O464" s="2"/>
+    </row>
+    <row r="465" spans="1:15">
+      <c r="A465" s="2">
+        <v>464</v>
+      </c>
+      <c r="B465" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E465" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F465" s="10">
+        <v>44065</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H465" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I465" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J465" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K465" s="2"/>
+      <c r="L465" s="2"/>
+      <c r="M465" s="2">
+        <v>0</v>
+      </c>
+      <c r="N465" s="2">
+        <v>0</v>
+      </c>
+      <c r="O465" s="2"/>
+    </row>
+    <row r="466" spans="1:15">
+      <c r="A466" s="2">
+        <v>465</v>
+      </c>
+      <c r="B466" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E466" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F466" s="10">
+        <v>44065</v>
+      </c>
+      <c r="G466" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H466" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I466" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J466" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="K466" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L466" s="2"/>
+      <c r="M466" s="2">
+        <v>0</v>
+      </c>
+      <c r="N466" s="2">
+        <v>0</v>
+      </c>
+      <c r="O466" s="2"/>
+    </row>
+    <row r="467" spans="1:15">
+      <c r="A467" s="2">
+        <v>466</v>
+      </c>
+      <c r="B467" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E467" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F467" s="10">
+        <v>44065</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H467" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I467" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="J467" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="K467" s="2"/>
+      <c r="L467" s="2"/>
+      <c r="M467" s="2">
+        <v>0</v>
+      </c>
+      <c r="N467" s="2">
+        <v>0</v>
+      </c>
+      <c r="O467" s="2"/>
+    </row>
+    <row r="468" spans="1:15">
+      <c r="A468" s="2">
+        <v>467</v>
+      </c>
+      <c r="B468" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D468" s="2"/>
+      <c r="E468" s="10">
+        <v>44066</v>
+      </c>
+      <c r="F468" s="10">
+        <v>44065</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H468" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I468" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J468" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="K468" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L468" s="2"/>
+      <c r="M468" s="2">
+        <v>0</v>
+      </c>
+      <c r="N468" s="2">
+        <v>0</v>
+      </c>
+      <c r="O468" s="2"/>
+    </row>
+    <row r="469" spans="1:15">
+      <c r="A469" s="2">
+        <v>468</v>
+      </c>
+      <c r="B469" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E469" s="10">
+        <v>44066</v>
+      </c>
+      <c r="F469" s="10">
+        <v>44066</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H469" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="I469" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J469" s="3"/>
+      <c r="K469" s="2"/>
+      <c r="L469" s="2"/>
+      <c r="M469" s="2">
+        <v>0</v>
+      </c>
+      <c r="N469" s="2">
+        <v>0</v>
+      </c>
+      <c r="O469" s="2"/>
+    </row>
+    <row r="470" spans="1:15">
+      <c r="A470" s="2">
+        <v>469</v>
+      </c>
+      <c r="B470" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E470" s="10">
+        <v>44066</v>
+      </c>
+      <c r="F470" s="10">
+        <v>44066</v>
+      </c>
+      <c r="G470" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H470" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I470" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J470" s="3"/>
+      <c r="K470" s="2"/>
+      <c r="L470" s="2"/>
+      <c r="M470" s="2">
+        <v>0</v>
+      </c>
+      <c r="N470" s="2">
+        <v>0</v>
+      </c>
+      <c r="O470" s="2"/>
+    </row>
+    <row r="471" spans="1:15">
+      <c r="A471" s="2">
+        <v>470</v>
+      </c>
+      <c r="B471" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E471" s="10">
+        <v>44066</v>
+      </c>
+      <c r="F471" s="10">
+        <v>44066</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H471" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I471" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J471" s="3"/>
+      <c r="K471" s="2"/>
+      <c r="L471" s="2"/>
+      <c r="M471" s="2">
+        <v>0</v>
+      </c>
+      <c r="N471" s="2">
+        <v>0</v>
+      </c>
+      <c r="O471" s="2"/>
+    </row>
+    <row r="472" spans="1:15">
+      <c r="A472" s="2">
+        <v>471</v>
+      </c>
+      <c r="B472" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E472" s="10">
+        <v>44066</v>
+      </c>
+      <c r="F472" s="10">
+        <v>44066</v>
+      </c>
+      <c r="G472" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H472" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I472" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J472" s="3"/>
+      <c r="K472" s="2"/>
+      <c r="L472" s="2"/>
+      <c r="M472" s="2">
+        <v>0</v>
+      </c>
+      <c r="N472" s="2">
+        <v>0</v>
+      </c>
+      <c r="O472" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O441"/>
+  <autoFilter ref="A1:O472"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$472</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$476</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="518">
   <si>
     <t>No</t>
   </si>
@@ -2916,9 +2916,329 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>調査中</t>
+    <t>プロスポーツ選手</t>
+    <rPh sb="6" eb="8">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
     <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇土市</t>
+    <rPh sb="0" eb="3">
+      <t>ウトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町職員</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>園児</t>
+    <rPh sb="0" eb="2">
+      <t>エンジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2930,9 +3250,129 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロスポーツ選手</t>
-    <rPh sb="6" eb="8">
-      <t>センシュ</t>
+    <t>南関町</t>
+    <rPh sb="0" eb="3">
+      <t>ナンカンマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2947,6 +3387,96 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水俣市</t>
+    <rPh sb="0" eb="3">
+      <t>ミナマタシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -2954,6 +3484,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
@@ -2961,12 +3498,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2978,6 +3539,68 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>学生</t>
     <rPh sb="0" eb="2">
       <t>ガクセイ</t>
@@ -2985,6 +3608,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体職員</t>
+    <rPh sb="0" eb="2">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介護職</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業</t>
+    <rPh sb="0" eb="2">
+      <t>ノウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>熊本市中央区</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
@@ -2995,6 +3676,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高森町</t>
+    <rPh sb="0" eb="3">
+      <t>タカモリマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -3002,6 +3721,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
@@ -3009,12 +3739,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熊本市東区</t>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3026,33 +3780,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>40代</t>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
     <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無色</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3070,276 +3817,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇土市</t>
-    <rPh sb="0" eb="3">
-      <t>ウトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町職員</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>園児</t>
-    <rPh sb="0" eb="2">
-      <t>エンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南関町</t>
-    <rPh sb="0" eb="3">
-      <t>ナンカンマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自営業</t>
     <rPh sb="0" eb="3">
       <t>ジエイギョウ</t>
@@ -3347,376 +3824,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熊本市北区</t>
+    <t>飲食業</t>
     <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水俣市</t>
-    <rPh sb="0" eb="3">
-      <t>ミナマタシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>甲佐町</t>
-    <rPh sb="0" eb="3">
-      <t>コウサマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高校生</t>
-    <rPh sb="0" eb="3">
-      <t>コウコウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>団体職員</t>
-    <rPh sb="0" eb="2">
-      <t>ダンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>介護職</t>
-    <rPh sb="0" eb="2">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>農業</t>
-    <rPh sb="0" eb="2">
-      <t>ノウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
+      <t>インショクギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3865,7 +3975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3913,6 +4023,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4201,13 +4315,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O472"/>
+  <dimension ref="A1:O476"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B454" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B463" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J474" sqref="J474"/>
+      <selection pane="bottomRight" activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -6140,6 +6254,7 @@
         <v>92</v>
       </c>
       <c r="K47" s="2"/>
+      <c r="L47" s="24"/>
       <c r="M47" s="2">
         <v>0</v>
       </c>
@@ -10143,15 +10258,13 @@
       <c r="J148" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K148" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2">
         <v>0</v>
       </c>
       <c r="N148" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O148" s="2"/>
     </row>
@@ -10569,7 +10682,7 @@
         <v>44041</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>153</v>
@@ -10608,7 +10721,7 @@
         <v>44041</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>150</v>
@@ -10619,15 +10732,13 @@
       <c r="J160" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K160" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2">
         <v>0</v>
       </c>
       <c r="N160" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O160" s="2"/>
     </row>
@@ -11337,15 +11448,13 @@
       <c r="J178" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K178" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2">
         <v>0</v>
       </c>
       <c r="N178" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O178" s="2"/>
     </row>
@@ -11973,15 +12082,13 @@
       <c r="J194" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K194" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2">
         <v>0</v>
       </c>
       <c r="N194" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194" s="2"/>
     </row>
@@ -17001,7 +17108,7 @@
         <v>40</v>
       </c>
       <c r="K321" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L321" s="2"/>
       <c r="M321" s="2">
@@ -17481,7 +17588,7 @@
       <c r="I333" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J333" s="15" t="s">
+      <c r="J333" s="23" t="s">
         <v>38</v>
       </c>
       <c r="K333" s="2"/>
@@ -18470,7 +18577,7 @@
         <v>305</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L358" s="2"/>
       <c r="M358" s="2">
@@ -18510,15 +18617,13 @@
       <c r="J359" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="K359" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K359" s="2"/>
       <c r="L359" s="2"/>
       <c r="M359" s="2">
         <v>0</v>
       </c>
       <c r="N359" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O359" s="2"/>
     </row>
@@ -18674,15 +18779,13 @@
       <c r="J363" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K363" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K363" s="2"/>
       <c r="L363" s="2"/>
       <c r="M363" s="2">
         <v>0</v>
       </c>
       <c r="N363" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O363" s="2"/>
     </row>
@@ -18876,7 +18979,7 @@
         <v>38</v>
       </c>
       <c r="K368" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L368" s="2"/>
       <c r="M368" s="2">
@@ -19410,15 +19513,13 @@
       <c r="J381" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="K381" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K381" s="2"/>
       <c r="L381" s="2"/>
       <c r="M381" s="2">
         <v>0</v>
       </c>
       <c r="N381" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O381" s="2"/>
     </row>
@@ -19863,15 +19964,13 @@
       <c r="J392" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="K392" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K392" s="2"/>
       <c r="L392" s="2"/>
       <c r="M392" s="2">
         <v>0</v>
       </c>
       <c r="N392" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O392" s="2"/>
     </row>
@@ -20526,7 +20625,7 @@
         <v>370</v>
       </c>
       <c r="K408" s="3" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L408" s="2"/>
       <c r="M408" s="2">
@@ -20730,10 +20829,10 @@
         <v>104</v>
       </c>
       <c r="J413" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K413" s="3" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L413" s="2"/>
       <c r="M413" s="2">
@@ -20773,7 +20872,7 @@
         <v>390</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K414" s="3"/>
       <c r="L414" s="2"/>
@@ -20814,7 +20913,7 @@
         <v>390</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K415" s="3"/>
       <c r="L415" s="2"/>
@@ -20855,17 +20954,15 @@
         <v>390</v>
       </c>
       <c r="J416" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="K416" s="3" t="s">
-        <v>402</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="K416" s="3"/>
       <c r="L416" s="2"/>
       <c r="M416" s="2">
         <v>0</v>
       </c>
       <c r="N416" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O416" s="2"/>
     </row>
@@ -20889,19 +20986,19 @@
         <v>44061</v>
       </c>
       <c r="G417" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I417" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H417" s="2" t="s">
+      <c r="J417" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="I417" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J417" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="K417" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L417" s="2"/>
       <c r="M417" s="2">
@@ -20932,19 +21029,19 @@
         <v>44061</v>
       </c>
       <c r="G418" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I418" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H418" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="I418" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="J418" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K418" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L418" s="2"/>
       <c r="M418" s="2">
@@ -20982,10 +21079,10 @@
         <v>397</v>
       </c>
       <c r="J419" s="3" t="s">
-        <v>401</v>
+        <v>514</v>
       </c>
       <c r="K419" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L419" s="2"/>
       <c r="M419" s="2">
@@ -21057,19 +21154,19 @@
         <v>44062</v>
       </c>
       <c r="G421" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I421" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H421" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I421" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="J421" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K421" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L421" s="2"/>
       <c r="M421" s="2">
@@ -21100,19 +21197,19 @@
         <v>44062</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J422" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K422" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L422" s="2"/>
       <c r="M422" s="2">
@@ -21143,19 +21240,19 @@
         <v>44062</v>
       </c>
       <c r="G423" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I423" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H423" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I423" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="J423" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K423" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L423" s="2"/>
       <c r="M423" s="2">
@@ -21186,19 +21283,19 @@
         <v>44062</v>
       </c>
       <c r="G424" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I424" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H424" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I424" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="J424" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K424" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L424" s="2"/>
       <c r="M424" s="2">
@@ -21229,19 +21326,19 @@
         <v>44062</v>
       </c>
       <c r="G425" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I425" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H425" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="I425" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="J425" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K425" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L425" s="2"/>
       <c r="M425" s="2">
@@ -21272,19 +21369,19 @@
         <v>44062</v>
       </c>
       <c r="G426" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I426" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H426" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="I426" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="J426" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K426" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L426" s="2"/>
       <c r="M426" s="2">
@@ -21315,19 +21412,19 @@
         <v>44062</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H427" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J427" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L427" s="2"/>
       <c r="M427" s="2">
@@ -21358,19 +21455,19 @@
         <v>44062</v>
       </c>
       <c r="G428" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H428" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H428" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="I428" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J428" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K428" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L428" s="2"/>
       <c r="M428" s="2">
@@ -21399,19 +21496,19 @@
         <v>44062</v>
       </c>
       <c r="G429" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H429" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I429" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H429" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I429" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="J429" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K429" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L429" s="2"/>
       <c r="M429" s="2">
@@ -21440,16 +21537,16 @@
         <v>44062</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J430" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K430" s="2" t="s">
         <v>103</v>
@@ -21481,16 +21578,16 @@
         <v>44062</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J431" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K431" s="2" t="s">
         <v>181</v>
@@ -21522,16 +21619,16 @@
         <v>44062</v>
       </c>
       <c r="G432" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H432" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H432" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="I432" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K432" s="2" t="s">
         <v>103</v>
@@ -21563,16 +21660,16 @@
         <v>44062</v>
       </c>
       <c r="G433" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H433" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H433" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="I433" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J433" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K433" s="2" t="s">
         <v>103</v>
@@ -21604,16 +21701,16 @@
         <v>44062</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J434" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K434" s="2" t="s">
         <v>103</v>
@@ -21645,16 +21742,16 @@
         <v>44062</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K435" s="2" t="s">
         <v>181</v>
@@ -21686,16 +21783,16 @@
         <v>44062</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J436" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K436" s="2" t="s">
         <v>103</v>
@@ -21720,7 +21817,7 @@
         <v>14</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E437" s="10">
         <v>44063</v>
@@ -21729,13 +21826,13 @@
         <v>44063</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I437" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J437" s="3" t="s">
         <v>47</v>
@@ -21763,7 +21860,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E438" s="10">
         <v>44063</v>
@@ -21772,26 +21869,24 @@
         <v>44063</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J438" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="K438" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K438" s="2"/>
       <c r="L438" s="2"/>
       <c r="M438" s="2">
         <v>0</v>
       </c>
       <c r="N438" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O438" s="2"/>
     </row>
@@ -21806,7 +21901,7 @@
         <v>14</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E439" s="10">
         <v>44063</v>
@@ -21815,19 +21910,19 @@
         <v>44063</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J439" s="3" t="s">
-        <v>439</v>
+        <v>38</v>
       </c>
       <c r="K439" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L439" s="2"/>
       <c r="M439" s="2">
@@ -21849,7 +21944,7 @@
         <v>14</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E440" s="10">
         <v>44063</v>
@@ -21858,16 +21953,16 @@
         <v>44063</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J440" s="3" t="s">
-        <v>439</v>
+        <v>38</v>
       </c>
       <c r="K440" s="2" t="s">
         <v>144</v>
@@ -21892,7 +21987,7 @@
         <v>14</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E441" s="10">
         <v>44063</v>
@@ -21901,19 +21996,19 @@
         <v>44063</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J441" s="3" t="s">
-        <v>439</v>
+        <v>37</v>
       </c>
       <c r="K441" s="2" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="L441" s="2"/>
       <c r="M441" s="2">
@@ -21953,7 +22048,7 @@
         <v>132</v>
       </c>
       <c r="J442" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
@@ -21985,20 +22080,18 @@
         <v>44063</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H443" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J443" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="K443" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="K443" s="2"/>
       <c r="L443" s="2"/>
       <c r="M443" s="2">
         <v>0</v>
@@ -22035,10 +22128,10 @@
         <v>76</v>
       </c>
       <c r="J444" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K444" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L444" s="2"/>
       <c r="M444" s="2">
@@ -22076,7 +22169,7 @@
         <v>104</v>
       </c>
       <c r="J445" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K445" s="2" t="s">
         <v>103</v>
@@ -22142,7 +22235,7 @@
         <v>14</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E447" s="10">
         <v>44064</v>
@@ -22151,16 +22244,16 @@
         <v>44064</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H447" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J447" s="3" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="K447" s="2" t="s">
         <v>103</v>
@@ -22194,16 +22287,16 @@
         <v>44064</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H448" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I448" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J448" s="3" t="s">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c r="K448" s="2" t="s">
         <v>103</v>
@@ -22285,7 +22378,7 @@
         <v>104</v>
       </c>
       <c r="J450" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K450" s="2" t="s">
         <v>103</v>
@@ -22319,16 +22412,16 @@
         <v>44064</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J451" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K451" s="2" t="s">
         <v>103</v>
@@ -22362,16 +22455,16 @@
         <v>44064</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J452" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K452" s="2" t="s">
         <v>103</v>
@@ -22405,16 +22498,16 @@
         <v>44064</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H453" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J453" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K453" s="2" t="s">
         <v>103</v>
@@ -22448,16 +22541,16 @@
         <v>44064</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H454" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J454" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K454" s="2" t="s">
         <v>103</v>
@@ -22491,16 +22584,16 @@
         <v>44064</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H455" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J455" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K455" s="2" t="s">
         <v>181</v>
@@ -22534,16 +22627,16 @@
         <v>44064</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H456" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J456" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K456" s="2" t="s">
         <v>181</v>
@@ -22575,16 +22668,16 @@
         <v>44064</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H457" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J457" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K457" s="2" t="s">
         <v>103</v>
@@ -22616,16 +22709,16 @@
         <v>44064</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J458" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K458" s="2" t="s">
         <v>103</v>
@@ -22657,16 +22750,16 @@
         <v>44064</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H459" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I459" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="I459" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="J459" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K459" s="2" t="s">
         <v>103</v>
@@ -22698,16 +22791,16 @@
         <v>44064</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H460" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J460" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K460" s="2" t="s">
         <v>144</v>
@@ -22739,16 +22832,16 @@
         <v>44064</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J461" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K461" s="2" t="s">
         <v>144</v>
@@ -22780,16 +22873,16 @@
         <v>44064</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H462" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J462" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K462" s="2" t="s">
         <v>103</v>
@@ -22824,10 +22917,10 @@
         <v>395</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J463" s="3" t="s">
         <v>179</v>
@@ -22864,18 +22957,20 @@
         <v>44065</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J464" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="K464" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="K464" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L464" s="2"/>
       <c r="M464" s="2">
         <v>0</v>
@@ -22905,18 +23000,20 @@
         <v>44065</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H465" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J465" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="K465" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="K465" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L465" s="2"/>
       <c r="M465" s="2">
         <v>0</v>
@@ -22946,16 +23043,16 @@
         <v>44065</v>
       </c>
       <c r="G466" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H466" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="H466" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="I466" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J466" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K466" s="2" t="s">
         <v>103</v>
@@ -22989,18 +23086,20 @@
         <v>44065</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H467" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J467" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="K467" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="K467" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="L467" s="2"/>
       <c r="M467" s="2">
         <v>0</v>
@@ -23037,7 +23136,7 @@
         <v>104</v>
       </c>
       <c r="J468" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K468" s="2" t="s">
         <v>103</v>
@@ -23071,15 +23170,17 @@
         <v>44066</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H469" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I469" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J469" s="3"/>
+      <c r="J469" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="K469" s="2"/>
       <c r="L469" s="2"/>
       <c r="M469" s="2">
@@ -23110,7 +23211,7 @@
         <v>44066</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H470" s="2" t="s">
         <v>123</v>
@@ -23118,7 +23219,9 @@
       <c r="I470" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J470" s="3"/>
+      <c r="J470" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="K470" s="2"/>
       <c r="L470" s="2"/>
       <c r="M470" s="2">
@@ -23149,7 +23252,7 @@
         <v>44066</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H471" s="2" t="s">
         <v>123</v>
@@ -23157,8 +23260,12 @@
       <c r="I471" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J471" s="3"/>
-      <c r="K471" s="2"/>
+      <c r="J471" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="K471" s="2" t="s">
+        <v>513</v>
+      </c>
       <c r="L471" s="2"/>
       <c r="M471" s="2">
         <v>0</v>
@@ -23188,7 +23295,7 @@
         <v>44066</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H472" s="2" t="s">
         <v>121</v>
@@ -23196,7 +23303,9 @@
       <c r="I472" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J472" s="3"/>
+      <c r="J472" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="K472" s="2"/>
       <c r="L472" s="2"/>
       <c r="M472" s="2">
@@ -23207,8 +23316,172 @@
       </c>
       <c r="O472" s="2"/>
     </row>
+    <row r="473" spans="1:15">
+      <c r="A473" s="2">
+        <v>472</v>
+      </c>
+      <c r="B473" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D473" s="2"/>
+      <c r="E473" s="10">
+        <v>44067</v>
+      </c>
+      <c r="F473" s="10">
+        <v>44066</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H473" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I473" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="J473" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="K473" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L473" s="2"/>
+      <c r="M473" s="2">
+        <v>0</v>
+      </c>
+      <c r="N473" s="2">
+        <v>0</v>
+      </c>
+      <c r="O473" s="2"/>
+    </row>
+    <row r="474" spans="1:15">
+      <c r="A474" s="2">
+        <v>473</v>
+      </c>
+      <c r="B474" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D474" s="2"/>
+      <c r="E474" s="10">
+        <v>44067</v>
+      </c>
+      <c r="F474" s="10">
+        <v>44066</v>
+      </c>
+      <c r="G474" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H474" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="I474" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J474" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="K474" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L474" s="2"/>
+      <c r="M474" s="2">
+        <v>0</v>
+      </c>
+      <c r="N474" s="2">
+        <v>0</v>
+      </c>
+      <c r="O474" s="2"/>
+    </row>
+    <row r="475" spans="1:15">
+      <c r="A475" s="2">
+        <v>474</v>
+      </c>
+      <c r="B475" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D475" s="2"/>
+      <c r="E475" s="10">
+        <v>44067</v>
+      </c>
+      <c r="F475" s="10">
+        <v>44066</v>
+      </c>
+      <c r="G475" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H475" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="I475" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J475" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="K475" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L475" s="2"/>
+      <c r="M475" s="2">
+        <v>0</v>
+      </c>
+      <c r="N475" s="2">
+        <v>0</v>
+      </c>
+      <c r="O475" s="2"/>
+    </row>
+    <row r="476" spans="1:15">
+      <c r="A476" s="2">
+        <v>475</v>
+      </c>
+      <c r="B476" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E476" s="10">
+        <v>44067</v>
+      </c>
+      <c r="F476" s="10">
+        <v>44067</v>
+      </c>
+      <c r="G476" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H476" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I476" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J476" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K476" s="2"/>
+      <c r="L476" s="2"/>
+      <c r="M476" s="2">
+        <v>0</v>
+      </c>
+      <c r="N476" s="2">
+        <v>0</v>
+      </c>
+      <c r="O476" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O472"/>
+  <autoFilter ref="A1:O476"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$476</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$479</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="517">
   <si>
     <t>No</t>
   </si>
@@ -2624,6 +2624,611 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高森町</t>
+    <rPh sb="0" eb="3">
+      <t>タカモリマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロスポーツ選手</t>
+    <rPh sb="6" eb="8">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇土市</t>
+    <rPh sb="0" eb="3">
+      <t>ウトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町職員</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>園児</t>
+    <rPh sb="0" eb="2">
+      <t>エンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -2631,6 +3236,570 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>南関町</t>
+    <rPh sb="0" eb="3">
+      <t>ナンカンマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水俣市</t>
+    <rPh sb="0" eb="3">
+      <t>ミナマタシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体職員</t>
+    <rPh sb="0" eb="2">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介護職</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業</t>
+    <rPh sb="0" eb="2">
+      <t>ノウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高森町</t>
+    <rPh sb="0" eb="3">
+      <t>タカモリマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無色</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>飲食業</t>
     <rPh sb="0" eb="3">
       <t>インショクギョウ</t>
@@ -2638,1195 +3807,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店経営</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高森町</t>
-    <rPh sb="0" eb="3">
-      <t>タカモリマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロスポーツ選手</t>
-    <rPh sb="6" eb="8">
-      <t>センシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇土市</t>
-    <rPh sb="0" eb="3">
-      <t>ウトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町職員</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>園児</t>
-    <rPh sb="0" eb="2">
-      <t>エンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南関町</t>
-    <rPh sb="0" eb="3">
-      <t>ナンカンマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水俣市</t>
-    <rPh sb="0" eb="3">
-      <t>ミナマタシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>甲佐町</t>
-    <rPh sb="0" eb="3">
-      <t>コウサマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高校生</t>
-    <rPh sb="0" eb="3">
-      <t>コウコウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>団体職員</t>
-    <rPh sb="0" eb="2">
-      <t>ダンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>介護職</t>
-    <rPh sb="0" eb="2">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>農業</t>
-    <rPh sb="0" eb="2">
-      <t>ノウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高森町</t>
-    <rPh sb="0" eb="3">
-      <t>タカモリマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療事務</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無色</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4315,13 +4317,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O476"/>
+  <dimension ref="A1:O479"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B463" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B457" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A476" sqref="A476"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -9863,7 +9865,7 @@
         <v>140</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="9">
@@ -10682,7 +10684,7 @@
         <v>44041</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>153</v>
@@ -10721,7 +10723,7 @@
         <v>44041</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>150</v>
@@ -14257,15 +14259,13 @@
       <c r="J249" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K249" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K249" s="2"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2">
         <v>0</v>
       </c>
       <c r="N249" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O249" s="2"/>
     </row>
@@ -16232,7 +16232,7 @@
         <v>237</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="L299" s="2"/>
       <c r="M299" s="2">
@@ -17630,15 +17630,13 @@
       <c r="J334" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K334" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K334" s="2"/>
       <c r="L334" s="2"/>
       <c r="M334" s="2">
         <v>0</v>
       </c>
       <c r="N334" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O334" s="2"/>
     </row>
@@ -19388,15 +19386,13 @@
       <c r="J378" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="K378" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K378" s="2"/>
       <c r="L378" s="2"/>
       <c r="M378" s="2">
         <v>0</v>
       </c>
       <c r="N378" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O378" s="2"/>
     </row>
@@ -19878,15 +19874,13 @@
       <c r="J390" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="K390" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K390" s="2"/>
       <c r="L390" s="2"/>
       <c r="M390" s="2">
         <v>0</v>
       </c>
       <c r="N390" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O390" s="2"/>
     </row>
@@ -19921,15 +19915,13 @@
       <c r="J391" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="K391" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K391" s="2"/>
       <c r="L391" s="2"/>
       <c r="M391" s="2">
         <v>0</v>
       </c>
       <c r="N391" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O391" s="2"/>
     </row>
@@ -20005,15 +19997,13 @@
       <c r="J393" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="K393" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K393" s="2"/>
       <c r="L393" s="2"/>
       <c r="M393" s="2">
         <v>0</v>
       </c>
       <c r="N393" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O393" s="2"/>
     </row>
@@ -20167,15 +20157,13 @@
       <c r="J397" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K397" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K397" s="2"/>
       <c r="L397" s="2"/>
       <c r="M397" s="2">
         <v>0</v>
       </c>
       <c r="N397" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O397" s="2"/>
     </row>
@@ -20210,15 +20198,13 @@
       <c r="J398" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K398" s="4" t="s">
-        <v>181</v>
-      </c>
+      <c r="K398" s="4"/>
       <c r="L398" s="4"/>
       <c r="M398" s="4">
         <v>0</v>
       </c>
       <c r="N398" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O398" s="4"/>
     </row>
@@ -20251,7 +20237,7 @@
         <v>76</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K399" s="2"/>
       <c r="L399" s="2"/>
@@ -20421,7 +20407,7 @@
         <v>76</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="2"/>
@@ -20462,7 +20448,7 @@
         <v>104</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
@@ -20492,16 +20478,16 @@
         <v>44058</v>
       </c>
       <c r="G405" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H405" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H405" s="2" t="s">
+      <c r="I405" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="I405" s="2" t="s">
+      <c r="J405" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="J405" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
@@ -20531,16 +20517,16 @@
         <v>44058</v>
       </c>
       <c r="G406" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I406" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H406" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I406" s="2" t="s">
+      <c r="J406" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="J406" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
@@ -20570,26 +20556,24 @@
         <v>44058</v>
       </c>
       <c r="G407" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I407" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H407" s="2" t="s">
+      <c r="J407" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="I407" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="J407" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="K407" s="2" t="s">
-        <v>364</v>
-      </c>
+      <c r="K407" s="2"/>
       <c r="L407" s="2"/>
       <c r="M407" s="2">
         <v>0</v>
       </c>
       <c r="N407" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O407" s="2"/>
     </row>
@@ -20613,16 +20597,16 @@
         <v>44059</v>
       </c>
       <c r="G408" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H408" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H408" s="2" t="s">
+      <c r="I408" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I408" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="J408" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K408" s="3" t="s">
         <v>103</v>
@@ -20654,16 +20638,16 @@
         <v>44059</v>
       </c>
       <c r="G409" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H409" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="H409" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="I409" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J409" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K409" s="3"/>
       <c r="L409" s="2"/>
@@ -20693,16 +20677,16 @@
         <v>44059</v>
       </c>
       <c r="G410" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I410" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H410" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>376</v>
-      </c>
       <c r="J410" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
@@ -20734,7 +20718,7 @@
         <v>44060</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>130</v>
@@ -20743,10 +20727,10 @@
         <v>132</v>
       </c>
       <c r="J411" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K411" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L411" s="2"/>
       <c r="M411" s="2">
@@ -20777,7 +20761,7 @@
         <v>44060</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>130</v>
@@ -20786,10 +20770,10 @@
         <v>104</v>
       </c>
       <c r="J412" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K412" s="3" t="s">
-        <v>386</v>
+        <v>144</v>
       </c>
       <c r="L412" s="2"/>
       <c r="M412" s="2">
@@ -20820,7 +20804,7 @@
         <v>44060</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>121</v>
@@ -20829,7 +20813,7 @@
         <v>104</v>
       </c>
       <c r="J413" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K413" s="3" t="s">
         <v>103</v>
@@ -20863,16 +20847,16 @@
         <v>44061</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H414" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K414" s="3"/>
       <c r="L414" s="2"/>
@@ -20904,16 +20888,16 @@
         <v>44061</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K415" s="3"/>
       <c r="L415" s="2"/>
@@ -20945,16 +20929,16 @@
         <v>44061</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J416" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K416" s="3"/>
       <c r="L416" s="2"/>
@@ -20986,19 +20970,19 @@
         <v>44061</v>
       </c>
       <c r="G417" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I417" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H417" s="2" t="s">
+      <c r="J417" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="I417" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="J417" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="K417" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L417" s="2"/>
       <c r="M417" s="2">
@@ -21029,19 +21013,19 @@
         <v>44061</v>
       </c>
       <c r="G418" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I418" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H418" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I418" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="J418" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K418" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L418" s="2"/>
       <c r="M418" s="2">
@@ -21070,16 +21054,16 @@
         <v>44061</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H419" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J419" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K419" s="2" t="s">
         <v>181</v>
@@ -21111,19 +21095,19 @@
         <v>44061</v>
       </c>
       <c r="G420" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I420" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H420" s="2" t="s">
+      <c r="J420" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="I420" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="J420" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="K420" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L420" s="2"/>
       <c r="M420" s="2">
@@ -21154,19 +21138,19 @@
         <v>44062</v>
       </c>
       <c r="G421" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I421" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H421" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I421" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="J421" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K421" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L421" s="2"/>
       <c r="M421" s="2">
@@ -21197,19 +21181,19 @@
         <v>44062</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J422" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K422" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L422" s="2"/>
       <c r="M422" s="2">
@@ -21240,26 +21224,24 @@
         <v>44062</v>
       </c>
       <c r="G423" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I423" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H423" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I423" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="J423" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="K423" s="2" t="s">
-        <v>467</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="K423" s="2"/>
       <c r="L423" s="2"/>
       <c r="M423" s="2">
         <v>0</v>
       </c>
       <c r="N423" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O423" s="2"/>
     </row>
@@ -21283,16 +21265,16 @@
         <v>44062</v>
       </c>
       <c r="G424" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I424" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H424" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I424" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="J424" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K424" s="2" t="s">
         <v>103</v>
@@ -21326,19 +21308,19 @@
         <v>44062</v>
       </c>
       <c r="G425" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I425" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H425" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I425" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="J425" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K425" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L425" s="2"/>
       <c r="M425" s="2">
@@ -21369,16 +21351,16 @@
         <v>44062</v>
       </c>
       <c r="G426" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I426" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H426" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I426" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="J426" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K426" s="2" t="s">
         <v>103</v>
@@ -21412,19 +21394,19 @@
         <v>44062</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H427" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J427" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L427" s="2"/>
       <c r="M427" s="2">
@@ -21455,19 +21437,19 @@
         <v>44062</v>
       </c>
       <c r="G428" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H428" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="H428" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="I428" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J428" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K428" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L428" s="2"/>
       <c r="M428" s="2">
@@ -21496,26 +21478,24 @@
         <v>44062</v>
       </c>
       <c r="G429" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H429" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I429" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H429" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="I429" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="J429" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="K429" s="2" t="s">
-        <v>465</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="K429" s="2"/>
       <c r="L429" s="2"/>
       <c r="M429" s="2">
         <v>0</v>
       </c>
       <c r="N429" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O429" s="2"/>
     </row>
@@ -21537,16 +21517,16 @@
         <v>44062</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J430" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K430" s="2" t="s">
         <v>103</v>
@@ -21578,16 +21558,16 @@
         <v>44062</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J431" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K431" s="2" t="s">
         <v>181</v>
@@ -21619,16 +21599,16 @@
         <v>44062</v>
       </c>
       <c r="G432" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H432" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H432" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="I432" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K432" s="2" t="s">
         <v>103</v>
@@ -21660,16 +21640,16 @@
         <v>44062</v>
       </c>
       <c r="G433" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H433" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H433" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="I433" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J433" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K433" s="2" t="s">
         <v>103</v>
@@ -21701,16 +21681,16 @@
         <v>44062</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J434" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K434" s="2" t="s">
         <v>103</v>
@@ -21742,19 +21722,19 @@
         <v>44062</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K435" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L435" s="2"/>
       <c r="M435" s="2">
@@ -21783,16 +21763,16 @@
         <v>44062</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J436" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K436" s="2" t="s">
         <v>103</v>
@@ -21817,7 +21797,7 @@
         <v>14</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E437" s="10">
         <v>44063</v>
@@ -21826,13 +21806,13 @@
         <v>44063</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I437" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J437" s="3" t="s">
         <v>47</v>
@@ -21860,7 +21840,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E438" s="10">
         <v>44063</v>
@@ -21869,13 +21849,13 @@
         <v>44063</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J438" s="3" t="s">
         <v>40</v>
@@ -21901,7 +21881,7 @@
         <v>14</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E439" s="10">
         <v>44063</v>
@@ -21910,19 +21890,19 @@
         <v>44063</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J439" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K439" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L439" s="2"/>
       <c r="M439" s="2">
@@ -21944,7 +21924,7 @@
         <v>14</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E440" s="10">
         <v>44063</v>
@@ -21953,13 +21933,13 @@
         <v>44063</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J440" s="3" t="s">
         <v>38</v>
@@ -21987,7 +21967,7 @@
         <v>14</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E441" s="10">
         <v>44063</v>
@@ -21996,19 +21976,19 @@
         <v>44063</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J441" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K441" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L441" s="2"/>
       <c r="M441" s="2">
@@ -22048,7 +22028,7 @@
         <v>132</v>
       </c>
       <c r="J442" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
@@ -22080,16 +22060,16 @@
         <v>44063</v>
       </c>
       <c r="G443" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I443" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H443" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I443" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="J443" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
@@ -22119,7 +22099,7 @@
         <v>44063</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H444" s="2" t="s">
         <v>129</v>
@@ -22128,10 +22108,10 @@
         <v>76</v>
       </c>
       <c r="J444" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K444" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L444" s="2"/>
       <c r="M444" s="2">
@@ -22169,17 +22149,15 @@
         <v>104</v>
       </c>
       <c r="J445" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="K445" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="K445" s="2"/>
       <c r="L445" s="2"/>
       <c r="M445" s="2">
         <v>0</v>
       </c>
       <c r="N445" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O445" s="2"/>
     </row>
@@ -22201,7 +22179,7 @@
         <v>44063</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H446" s="2" t="s">
         <v>130</v>
@@ -22235,7 +22213,7 @@
         <v>14</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E447" s="10">
         <v>44064</v>
@@ -22244,13 +22222,13 @@
         <v>44064</v>
       </c>
       <c r="G447" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H447" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I447" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="H447" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I447" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="J447" s="3" t="s">
         <v>37</v>
@@ -22287,13 +22265,13 @@
         <v>44064</v>
       </c>
       <c r="G448" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I448" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="H448" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="I448" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="J448" s="3" t="s">
         <v>248</v>
@@ -22328,7 +22306,7 @@
         <v>44064</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H449" s="2" t="s">
         <v>123</v>
@@ -22369,7 +22347,7 @@
         <v>44064</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H450" s="2" t="s">
         <v>124</v>
@@ -22378,7 +22356,7 @@
         <v>104</v>
       </c>
       <c r="J450" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K450" s="2" t="s">
         <v>103</v>
@@ -22412,16 +22390,16 @@
         <v>44064</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J451" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K451" s="2" t="s">
         <v>103</v>
@@ -22455,16 +22433,16 @@
         <v>44064</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J452" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K452" s="2" t="s">
         <v>103</v>
@@ -22498,16 +22476,16 @@
         <v>44064</v>
       </c>
       <c r="G453" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I453" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="H453" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I453" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="J453" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K453" s="2" t="s">
         <v>103</v>
@@ -22541,16 +22519,16 @@
         <v>44064</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H454" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J454" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K454" s="2" t="s">
         <v>103</v>
@@ -22584,16 +22562,16 @@
         <v>44064</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H455" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J455" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K455" s="2" t="s">
         <v>181</v>
@@ -22627,16 +22605,16 @@
         <v>44064</v>
       </c>
       <c r="G456" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I456" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="H456" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I456" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="J456" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K456" s="2" t="s">
         <v>181</v>
@@ -22668,16 +22646,16 @@
         <v>44064</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H457" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J457" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K457" s="2" t="s">
         <v>103</v>
@@ -22709,16 +22687,16 @@
         <v>44064</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J458" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K458" s="2" t="s">
         <v>103</v>
@@ -22750,16 +22728,16 @@
         <v>44064</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H459" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J459" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K459" s="2" t="s">
         <v>103</v>
@@ -22791,16 +22769,16 @@
         <v>44064</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H460" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I460" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="I460" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="J460" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K460" s="2" t="s">
         <v>144</v>
@@ -22832,16 +22810,16 @@
         <v>44064</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H461" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I461" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I461" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="J461" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K461" s="2" t="s">
         <v>144</v>
@@ -22873,16 +22851,16 @@
         <v>44064</v>
       </c>
       <c r="G462" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H462" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H462" s="2" t="s">
+      <c r="I462" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="I462" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="J462" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K462" s="2" t="s">
         <v>103</v>
@@ -22914,13 +22892,13 @@
         <v>44064</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J463" s="3" t="s">
         <v>179</v>
@@ -22957,16 +22935,16 @@
         <v>44065</v>
       </c>
       <c r="G464" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H464" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="H464" s="2" t="s">
+      <c r="I464" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I464" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="J464" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K464" s="2" t="s">
         <v>103</v>
@@ -23000,16 +22978,16 @@
         <v>44065</v>
       </c>
       <c r="G465" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H465" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="H465" s="2" t="s">
+      <c r="I465" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I465" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="J465" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K465" s="2" t="s">
         <v>103</v>
@@ -23043,16 +23021,16 @@
         <v>44065</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H466" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J466" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K466" s="2" t="s">
         <v>103</v>
@@ -23086,19 +23064,19 @@
         <v>44065</v>
       </c>
       <c r="G467" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H467" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H467" s="2" t="s">
+      <c r="I467" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="I467" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="J467" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K467" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L467" s="2"/>
       <c r="M467" s="2">
@@ -23127,7 +23105,7 @@
         <v>44065</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H468" s="2" t="s">
         <v>122</v>
@@ -23136,7 +23114,7 @@
         <v>104</v>
       </c>
       <c r="J468" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K468" s="2" t="s">
         <v>103</v>
@@ -23170,16 +23148,16 @@
         <v>44066</v>
       </c>
       <c r="G469" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="H469" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="H469" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="I469" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J469" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K469" s="2"/>
       <c r="L469" s="2"/>
@@ -23211,7 +23189,7 @@
         <v>44066</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H470" s="2" t="s">
         <v>123</v>
@@ -23220,7 +23198,7 @@
         <v>76</v>
       </c>
       <c r="J470" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K470" s="2"/>
       <c r="L470" s="2"/>
@@ -23252,7 +23230,7 @@
         <v>44066</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H471" s="2" t="s">
         <v>123</v>
@@ -23261,10 +23239,10 @@
         <v>76</v>
       </c>
       <c r="J471" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K471" s="2" t="s">
-        <v>513</v>
+        <v>268</v>
       </c>
       <c r="L471" s="2"/>
       <c r="M471" s="2">
@@ -23295,7 +23273,7 @@
         <v>44066</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H472" s="2" t="s">
         <v>121</v>
@@ -23304,7 +23282,7 @@
         <v>104</v>
       </c>
       <c r="J472" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K472" s="2"/>
       <c r="L472" s="2"/>
@@ -23334,19 +23312,19 @@
         <v>44066</v>
       </c>
       <c r="G473" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H473" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="H473" s="2" t="s">
+      <c r="I473" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="I473" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="J473" s="3" t="s">
         <v>336</v>
       </c>
       <c r="K473" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L473" s="2"/>
       <c r="M473" s="2">
@@ -23375,19 +23353,19 @@
         <v>44066</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H474" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I474" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J474" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K474" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L474" s="2"/>
       <c r="M474" s="2">
@@ -23416,19 +23394,19 @@
         <v>44066</v>
       </c>
       <c r="G475" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H475" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H475" s="2" t="s">
+      <c r="I475" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="I475" s="2" t="s">
+      <c r="J475" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="J475" s="3" t="s">
-        <v>508</v>
-      </c>
       <c r="K475" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L475" s="2"/>
       <c r="M475" s="2">
@@ -23459,16 +23437,16 @@
         <v>44067</v>
       </c>
       <c r="G476" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H476" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="I476" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H476" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="I476" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="J476" s="3" t="s">
-        <v>161</v>
+        <v>369</v>
       </c>
       <c r="K476" s="2"/>
       <c r="L476" s="2"/>
@@ -23480,8 +23458,131 @@
       </c>
       <c r="O476" s="2"/>
     </row>
+    <row r="477" spans="1:15">
+      <c r="A477" s="2">
+        <v>476</v>
+      </c>
+      <c r="B477" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E477" s="10">
+        <v>44068</v>
+      </c>
+      <c r="F477" s="10">
+        <v>44068</v>
+      </c>
+      <c r="G477" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H477" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I477" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J477" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K477" s="2"/>
+      <c r="L477" s="2"/>
+      <c r="M477" s="2">
+        <v>0</v>
+      </c>
+      <c r="N477" s="2">
+        <v>0</v>
+      </c>
+      <c r="O477" s="2"/>
+    </row>
+    <row r="478" spans="1:15">
+      <c r="A478" s="2">
+        <v>477</v>
+      </c>
+      <c r="B478" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E478" s="10">
+        <v>44068</v>
+      </c>
+      <c r="F478" s="10">
+        <v>44068</v>
+      </c>
+      <c r="G478" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H478" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I478" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J478" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K478" s="2"/>
+      <c r="L478" s="2"/>
+      <c r="M478" s="2">
+        <v>0</v>
+      </c>
+      <c r="N478" s="2">
+        <v>0</v>
+      </c>
+      <c r="O478" s="2"/>
+    </row>
+    <row r="479" spans="1:15">
+      <c r="A479" s="2">
+        <v>478</v>
+      </c>
+      <c r="B479" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E479" s="10">
+        <v>44068</v>
+      </c>
+      <c r="F479" s="10">
+        <v>44068</v>
+      </c>
+      <c r="G479" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="H479" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I479" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J479" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K479" s="2"/>
+      <c r="L479" s="2"/>
+      <c r="M479" s="2">
+        <v>0</v>
+      </c>
+      <c r="N479" s="2">
+        <v>0</v>
+      </c>
+      <c r="O479" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O476"/>
+  <autoFilter ref="A1:O479"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -10,7 +10,7 @@
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$479</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$483</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="519">
   <si>
     <t>No</t>
   </si>
@@ -1889,13 +1889,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -3829,6 +3822,33 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4317,13 +4337,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O479"/>
+  <dimension ref="A1:O483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B457" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D343" sqref="D343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7791,7 +7811,7 @@
         <v>44039</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>126</v>
@@ -8825,7 +8845,7 @@
         <v>44039</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H112" s="14" t="s">
         <v>127</v>
@@ -9100,7 +9120,7 @@
         <v>44039</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>122</v>
@@ -9139,7 +9159,7 @@
         <v>44039</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>123</v>
@@ -9864,15 +9884,13 @@
       <c r="J138" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K138" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="9">
         <v>0</v>
       </c>
       <c r="N138" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O138" s="2"/>
     </row>
@@ -10684,7 +10702,7 @@
         <v>44041</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>153</v>
@@ -10723,7 +10741,7 @@
         <v>44041</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>150</v>
@@ -12163,7 +12181,7 @@
         <v>242</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
@@ -13901,7 +13919,7 @@
         <v>242</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="L240" s="2"/>
       <c r="M240" s="2">
@@ -14299,7 +14317,7 @@
         <v>236</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="L250" s="2"/>
       <c r="M250" s="2">
@@ -16191,7 +16209,7 @@
         <v>237</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L298" s="2"/>
       <c r="M298" s="2">
@@ -17107,15 +17125,13 @@
       <c r="J321" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K321" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K321" s="2"/>
       <c r="L321" s="2"/>
       <c r="M321" s="2">
         <v>0</v>
       </c>
       <c r="N321" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O321" s="2"/>
     </row>
@@ -17619,13 +17635,13 @@
         <v>44049</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J334" s="3" t="s">
         <v>140</v>
@@ -17658,16 +17674,16 @@
         <v>44049</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
@@ -17700,13 +17716,13 @@
         <v>165</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I336" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
@@ -17736,7 +17752,7 @@
         <v>44049</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>121</v>
@@ -17745,7 +17761,7 @@
         <v>132</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
@@ -17775,7 +17791,7 @@
         <v>44049</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>129</v>
@@ -17784,7 +17800,7 @@
         <v>104</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
@@ -17817,7 +17833,7 @@
         <v>165</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>132</v>
@@ -17892,7 +17908,7 @@
         <v>44050</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>127</v>
@@ -17923,7 +17939,9 @@
       <c r="C342" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D342" s="2"/>
+      <c r="D342" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E342" s="10">
         <v>44050</v>
       </c>
@@ -17931,7 +17949,7 @@
         <v>44050</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>121</v>
@@ -17940,7 +17958,7 @@
         <v>104</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
@@ -17970,7 +17988,7 @@
         <v>44050</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>121</v>
@@ -18009,7 +18027,7 @@
         <v>44050</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>123</v>
@@ -18018,7 +18036,7 @@
         <v>104</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
@@ -18048,7 +18066,7 @@
         <v>44050</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>129</v>
@@ -18087,7 +18105,7 @@
         <v>44050</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>128</v>
@@ -18126,7 +18144,7 @@
         <v>44050</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>127</v>
@@ -18135,7 +18153,7 @@
         <v>132</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K347" s="2" t="s">
         <v>181</v>
@@ -18167,16 +18185,16 @@
         <v>44051</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
@@ -18206,16 +18224,16 @@
         <v>44051</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K349" s="2"/>
       <c r="L349" s="2"/>
@@ -18245,16 +18263,16 @@
         <v>44051</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
@@ -18292,10 +18310,10 @@
         <v>123</v>
       </c>
       <c r="I351" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J351" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="J351" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
@@ -18330,10 +18348,10 @@
         <v>120</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J352" s="3" t="s">
         <v>40</v>
@@ -18446,7 +18464,7 @@
         <v>44052</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>121</v>
@@ -18485,16 +18503,16 @@
         <v>44052</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H356" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I356" s="2" t="s">
+      <c r="J356" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="J356" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
@@ -18524,7 +18542,7 @@
         <v>44052</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>130</v>
@@ -18533,7 +18551,7 @@
         <v>104</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
@@ -18563,7 +18581,7 @@
         <v>44052</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>122</v>
@@ -18572,7 +18590,7 @@
         <v>104</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K358" s="2" t="s">
         <v>103</v>
@@ -18604,10 +18622,10 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H359" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
@@ -18645,7 +18663,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -18695,7 +18713,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -18736,7 +18754,7 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
@@ -18769,13 +18787,13 @@
         <v>213</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
@@ -18808,13 +18826,13 @@
         <v>189</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
@@ -18847,13 +18865,13 @@
         <v>189</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
@@ -18886,13 +18904,13 @@
         <v>163</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -18933,7 +18951,7 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
@@ -18965,7 +18983,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -19008,7 +19026,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -19133,7 +19151,7 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>123</v>
@@ -19174,10 +19192,10 @@
         <v>44055</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>132</v>
@@ -19216,7 +19234,7 @@
         <v>219</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>132</v>
@@ -19252,7 +19270,7 @@
         <v>44055</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>122</v>
@@ -19293,7 +19311,7 @@
         <v>44055</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>122</v>
@@ -19334,16 +19352,16 @@
         <v>44056</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
@@ -19375,16 +19393,16 @@
         <v>44056</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K378" s="2"/>
       <c r="L378" s="2"/>
@@ -19416,7 +19434,7 @@
         <v>44056</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>121</v>
@@ -19425,7 +19443,7 @@
         <v>132</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
@@ -19457,16 +19475,16 @@
         <v>44056</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K380" s="2"/>
       <c r="L380" s="2"/>
@@ -19489,7 +19507,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E381" s="10">
         <v>44056</v>
@@ -19504,10 +19522,10 @@
         <v>123</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K381" s="2"/>
       <c r="L381" s="2"/>
@@ -19530,7 +19548,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E382" s="10">
         <v>44057</v>
@@ -19545,7 +19563,7 @@
         <v>121</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>47</v>
@@ -19571,7 +19589,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E383" s="10">
         <v>44057</v>
@@ -19586,10 +19604,10 @@
         <v>121</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K383" s="2"/>
       <c r="L383" s="2"/>
@@ -19619,7 +19637,7 @@
         <v>44056</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>123</v>
@@ -19628,7 +19646,7 @@
         <v>132</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
@@ -19658,7 +19676,7 @@
         <v>44056</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>123</v>
@@ -19667,7 +19685,7 @@
         <v>132</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K385" s="2"/>
       <c r="L385" s="2"/>
@@ -19697,7 +19715,7 @@
         <v>44056</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>121</v>
@@ -19706,7 +19724,7 @@
         <v>132</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
@@ -19736,7 +19754,7 @@
         <v>44056</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>127</v>
@@ -19745,7 +19763,7 @@
         <v>104</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
@@ -19777,26 +19795,24 @@
         <v>44057</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K388" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="K388" s="2"/>
       <c r="L388" s="2"/>
       <c r="M388" s="2">
         <v>0</v>
       </c>
       <c r="N388" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O388" s="2"/>
     </row>
@@ -19811,7 +19827,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E389" s="10">
         <v>44057</v>
@@ -19826,10 +19842,10 @@
         <v>123</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K389" s="2" t="s">
         <v>144</v>
@@ -19854,7 +19870,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E390" s="10">
         <v>44057</v>
@@ -19869,10 +19885,10 @@
         <v>55</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="2"/>
@@ -19895,7 +19911,7 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E391" s="10">
         <v>44057</v>
@@ -19910,10 +19926,10 @@
         <v>123</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K391" s="2"/>
       <c r="L391" s="2"/>
@@ -19945,16 +19961,16 @@
         <v>44057</v>
       </c>
       <c r="G392" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H392" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H392" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="I392" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J392" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
@@ -19986,16 +20002,16 @@
         <v>44057</v>
       </c>
       <c r="G393" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H393" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H393" s="2" t="s">
+      <c r="I393" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I393" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="J393" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
@@ -20025,16 +20041,16 @@
         <v>44057</v>
       </c>
       <c r="G394" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H394" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H394" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="I394" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J394" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K394" s="2"/>
       <c r="L394" s="2"/>
@@ -20064,16 +20080,16 @@
         <v>44057</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K395" s="2"/>
       <c r="L395" s="2"/>
@@ -20105,13 +20121,13 @@
         <v>44058</v>
       </c>
       <c r="G396" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H396" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H396" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="I396" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J396" s="3" t="s">
         <v>38</v>
@@ -20146,13 +20162,13 @@
         <v>44058</v>
       </c>
       <c r="G397" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H397" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H397" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="I397" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J397" s="3" t="s">
         <v>38</v>
@@ -20187,13 +20203,13 @@
         <v>44058</v>
       </c>
       <c r="G398" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I398" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J398" s="3" t="s">
         <v>38</v>
@@ -20228,16 +20244,16 @@
         <v>44058</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K399" s="2"/>
       <c r="L399" s="2"/>
@@ -20269,10 +20285,10 @@
         <v>44058</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>104</v>
@@ -20312,10 +20328,10 @@
         <v>44058</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>76</v>
@@ -20323,15 +20339,13 @@
       <c r="J401" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K401" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K401" s="2"/>
       <c r="L401" s="2"/>
       <c r="M401" s="4">
         <v>0</v>
       </c>
       <c r="N401" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O401" s="2"/>
     </row>
@@ -20355,10 +20369,10 @@
         <v>44058</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>76</v>
@@ -20366,15 +20380,13 @@
       <c r="J402" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K402" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K402" s="2"/>
       <c r="L402" s="2"/>
       <c r="M402" s="4">
         <v>0</v>
       </c>
       <c r="N402" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O402" s="2"/>
     </row>
@@ -20398,16 +20410,16 @@
         <v>44058</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="2"/>
@@ -20439,16 +20451,16 @@
         <v>44058</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
@@ -20478,16 +20490,16 @@
         <v>44058</v>
       </c>
       <c r="G405" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H405" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H405" s="2" t="s">
+      <c r="I405" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I405" s="2" t="s">
+      <c r="J405" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="J405" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
@@ -20517,16 +20529,16 @@
         <v>44058</v>
       </c>
       <c r="G406" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I406" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H406" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I406" s="2" t="s">
+      <c r="J406" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="J406" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
@@ -20556,16 +20568,16 @@
         <v>44058</v>
       </c>
       <c r="G407" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I407" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H407" s="2" t="s">
+      <c r="J407" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="I407" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J407" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
@@ -20597,26 +20609,24 @@
         <v>44059</v>
       </c>
       <c r="G408" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H408" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H408" s="2" t="s">
+      <c r="I408" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="I408" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="J408" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K408" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="K408" s="3"/>
       <c r="L408" s="2"/>
       <c r="M408" s="2">
         <v>0</v>
       </c>
       <c r="N408" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O408" s="2"/>
     </row>
@@ -20638,16 +20648,16 @@
         <v>44059</v>
       </c>
       <c r="G409" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H409" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H409" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="I409" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J409" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K409" s="3"/>
       <c r="L409" s="2"/>
@@ -20677,16 +20687,16 @@
         <v>44059</v>
       </c>
       <c r="G410" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I410" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H410" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="J410" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
@@ -20718,7 +20728,7 @@
         <v>44060</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>130</v>
@@ -20727,10 +20737,10 @@
         <v>132</v>
       </c>
       <c r="J411" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K411" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L411" s="2"/>
       <c r="M411" s="2">
@@ -20761,7 +20771,7 @@
         <v>44060</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>130</v>
@@ -20770,7 +20780,7 @@
         <v>104</v>
       </c>
       <c r="J412" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K412" s="3" t="s">
         <v>144</v>
@@ -20804,7 +20814,7 @@
         <v>44060</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>121</v>
@@ -20813,7 +20823,7 @@
         <v>104</v>
       </c>
       <c r="J413" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K413" s="3" t="s">
         <v>103</v>
@@ -20847,16 +20857,16 @@
         <v>44061</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H414" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K414" s="3"/>
       <c r="L414" s="2"/>
@@ -20888,16 +20898,16 @@
         <v>44061</v>
       </c>
       <c r="G415" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H415" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H415" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="I415" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K415" s="3"/>
       <c r="L415" s="2"/>
@@ -20929,16 +20939,16 @@
         <v>44061</v>
       </c>
       <c r="G416" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I416" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H416" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I416" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="J416" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K416" s="3"/>
       <c r="L416" s="2"/>
@@ -20970,26 +20980,24 @@
         <v>44061</v>
       </c>
       <c r="G417" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H417" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H417" s="2" t="s">
+      <c r="I417" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="I417" s="2" t="s">
+      <c r="J417" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="J417" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="K417" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="K417" s="2"/>
       <c r="L417" s="2"/>
       <c r="M417" s="2">
         <v>0</v>
       </c>
       <c r="N417" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O417" s="2"/>
     </row>
@@ -21013,26 +21021,24 @@
         <v>44061</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H418" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J418" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="I418" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J418" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="K418" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="K418" s="2"/>
       <c r="L418" s="2"/>
       <c r="M418" s="2">
         <v>0</v>
       </c>
       <c r="N418" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O418" s="2"/>
     </row>
@@ -21054,16 +21060,16 @@
         <v>44061</v>
       </c>
       <c r="G419" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H419" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H419" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="I419" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J419" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K419" s="2" t="s">
         <v>181</v>
@@ -21095,19 +21101,19 @@
         <v>44061</v>
       </c>
       <c r="G420" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H420" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H420" s="2" t="s">
+      <c r="I420" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I420" s="2" t="s">
+      <c r="J420" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="J420" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="K420" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L420" s="2"/>
       <c r="M420" s="2">
@@ -21138,19 +21144,19 @@
         <v>44062</v>
       </c>
       <c r="G421" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H421" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H421" s="2" t="s">
+      <c r="I421" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I421" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="J421" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K421" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L421" s="2"/>
       <c r="M421" s="2">
@@ -21181,19 +21187,19 @@
         <v>44062</v>
       </c>
       <c r="G422" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I422" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H422" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I422" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="J422" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K422" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L422" s="2"/>
       <c r="M422" s="2">
@@ -21224,16 +21230,16 @@
         <v>44062</v>
       </c>
       <c r="G423" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H423" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H423" s="2" t="s">
+      <c r="I423" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I423" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="J423" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
@@ -21265,16 +21271,16 @@
         <v>44062</v>
       </c>
       <c r="G424" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H424" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H424" s="2" t="s">
+      <c r="I424" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I424" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="J424" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K424" s="2" t="s">
         <v>103</v>
@@ -21308,19 +21314,19 @@
         <v>44062</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J425" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K425" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L425" s="2"/>
       <c r="M425" s="2">
@@ -21351,26 +21357,24 @@
         <v>44062</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J426" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="K426" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="K426" s="2"/>
       <c r="L426" s="2"/>
       <c r="M426" s="2">
         <v>0</v>
       </c>
       <c r="N426" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O426" s="2"/>
     </row>
@@ -21394,19 +21398,19 @@
         <v>44062</v>
       </c>
       <c r="G427" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H427" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H427" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="I427" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J427" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L427" s="2"/>
       <c r="M427" s="2">
@@ -21437,19 +21441,19 @@
         <v>44062</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H428" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J428" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="I428" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J428" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="K428" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L428" s="2"/>
       <c r="M428" s="2">
@@ -21478,16 +21482,16 @@
         <v>44062</v>
       </c>
       <c r="G429" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H429" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H429" s="2" t="s">
+      <c r="I429" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I429" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="J429" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K429" s="2"/>
       <c r="L429" s="2"/>
@@ -21517,16 +21521,16 @@
         <v>44062</v>
       </c>
       <c r="G430" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I430" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H430" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="I430" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="J430" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K430" s="2" t="s">
         <v>103</v>
@@ -21558,16 +21562,16 @@
         <v>44062</v>
       </c>
       <c r="G431" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H431" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H431" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="I431" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J431" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K431" s="2" t="s">
         <v>181</v>
@@ -21599,16 +21603,16 @@
         <v>44062</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K432" s="2" t="s">
         <v>103</v>
@@ -21640,16 +21644,16 @@
         <v>44062</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J433" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K433" s="2" t="s">
         <v>103</v>
@@ -21681,16 +21685,16 @@
         <v>44062</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J434" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K434" s="2" t="s">
         <v>103</v>
@@ -21722,16 +21726,16 @@
         <v>44062</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K435" s="2" t="s">
         <v>103</v>
@@ -21763,16 +21767,16 @@
         <v>44062</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J436" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K436" s="2" t="s">
         <v>103</v>
@@ -21797,7 +21801,7 @@
         <v>14</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E437" s="10">
         <v>44063</v>
@@ -21806,13 +21810,13 @@
         <v>44063</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H437" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I437" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="I437" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="J437" s="3" t="s">
         <v>47</v>
@@ -21840,7 +21844,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E438" s="10">
         <v>44063</v>
@@ -21849,13 +21853,13 @@
         <v>44063</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J438" s="3" t="s">
         <v>40</v>
@@ -21881,7 +21885,7 @@
         <v>14</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E439" s="10">
         <v>44063</v>
@@ -21890,19 +21894,19 @@
         <v>44063</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J439" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K439" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L439" s="2"/>
       <c r="M439" s="2">
@@ -21924,7 +21928,7 @@
         <v>14</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E440" s="10">
         <v>44063</v>
@@ -21933,13 +21937,13 @@
         <v>44063</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J440" s="3" t="s">
         <v>38</v>
@@ -21967,7 +21971,7 @@
         <v>14</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E441" s="10">
         <v>44063</v>
@@ -21976,19 +21980,19 @@
         <v>44063</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H441" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I441" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="I441" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="J441" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K441" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L441" s="2"/>
       <c r="M441" s="2">
@@ -22028,7 +22032,7 @@
         <v>132</v>
       </c>
       <c r="J442" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
@@ -22060,16 +22064,16 @@
         <v>44063</v>
       </c>
       <c r="G443" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H443" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="H443" s="2" t="s">
+      <c r="I443" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="I443" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="J443" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
@@ -22099,7 +22103,7 @@
         <v>44063</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H444" s="2" t="s">
         <v>129</v>
@@ -22108,10 +22112,10 @@
         <v>76</v>
       </c>
       <c r="J444" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K444" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L444" s="2"/>
       <c r="M444" s="2">
@@ -22149,7 +22153,7 @@
         <v>104</v>
       </c>
       <c r="J445" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
@@ -22179,7 +22183,7 @@
         <v>44063</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H446" s="2" t="s">
         <v>130</v>
@@ -22213,7 +22217,7 @@
         <v>14</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E447" s="10">
         <v>44064</v>
@@ -22222,13 +22226,13 @@
         <v>44064</v>
       </c>
       <c r="G447" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H447" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="H447" s="2" t="s">
+      <c r="I447" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="I447" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="J447" s="3" t="s">
         <v>37</v>
@@ -22265,13 +22269,13 @@
         <v>44064</v>
       </c>
       <c r="G448" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H448" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="H448" s="2" t="s">
+      <c r="I448" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="I448" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="J448" s="3" t="s">
         <v>248</v>
@@ -22306,7 +22310,7 @@
         <v>44064</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H449" s="2" t="s">
         <v>123</v>
@@ -22347,7 +22351,7 @@
         <v>44064</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H450" s="2" t="s">
         <v>124</v>
@@ -22356,7 +22360,7 @@
         <v>104</v>
       </c>
       <c r="J450" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K450" s="2" t="s">
         <v>103</v>
@@ -22390,16 +22394,16 @@
         <v>44064</v>
       </c>
       <c r="G451" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H451" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="H451" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="I451" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J451" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K451" s="2" t="s">
         <v>103</v>
@@ -22433,16 +22437,16 @@
         <v>44064</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J452" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K452" s="2" t="s">
         <v>103</v>
@@ -22476,16 +22480,16 @@
         <v>44064</v>
       </c>
       <c r="G453" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H453" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="H453" s="2" t="s">
+      <c r="I453" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="I453" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="J453" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K453" s="2" t="s">
         <v>103</v>
@@ -22519,16 +22523,16 @@
         <v>44064</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H454" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J454" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K454" s="2" t="s">
         <v>103</v>
@@ -22562,16 +22566,16 @@
         <v>44064</v>
       </c>
       <c r="G455" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H455" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H455" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="I455" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J455" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K455" s="2" t="s">
         <v>181</v>
@@ -22605,16 +22609,16 @@
         <v>44064</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H456" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J456" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K456" s="2" t="s">
         <v>181</v>
@@ -22646,16 +22650,16 @@
         <v>44064</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H457" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J457" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K457" s="2" t="s">
         <v>103</v>
@@ -22687,16 +22691,16 @@
         <v>44064</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J458" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K458" s="2" t="s">
         <v>103</v>
@@ -22728,16 +22732,16 @@
         <v>44064</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H459" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J459" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K459" s="2" t="s">
         <v>103</v>
@@ -22769,16 +22773,16 @@
         <v>44064</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H460" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J460" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K460" s="2" t="s">
         <v>144</v>
@@ -22810,16 +22814,16 @@
         <v>44064</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J461" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K461" s="2" t="s">
         <v>144</v>
@@ -22851,16 +22855,16 @@
         <v>44064</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H462" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J462" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K462" s="2" t="s">
         <v>103</v>
@@ -22892,13 +22896,13 @@
         <v>44064</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J463" s="3" t="s">
         <v>179</v>
@@ -22935,16 +22939,16 @@
         <v>44065</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J464" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K464" s="2" t="s">
         <v>103</v>
@@ -22978,16 +22982,16 @@
         <v>44065</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H465" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J465" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K465" s="2" t="s">
         <v>103</v>
@@ -23021,16 +23025,16 @@
         <v>44065</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H466" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I466" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="I466" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="J466" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K466" s="2" t="s">
         <v>103</v>
@@ -23064,19 +23068,19 @@
         <v>44065</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H467" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J467" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K467" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L467" s="2"/>
       <c r="M467" s="2">
@@ -23105,7 +23109,7 @@
         <v>44065</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H468" s="2" t="s">
         <v>122</v>
@@ -23114,7 +23118,7 @@
         <v>104</v>
       </c>
       <c r="J468" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K468" s="2" t="s">
         <v>103</v>
@@ -23148,18 +23152,20 @@
         <v>44066</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H469" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I469" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J469" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="K469" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="K469" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L469" s="2"/>
       <c r="M469" s="2">
         <v>0</v>
@@ -23189,7 +23195,7 @@
         <v>44066</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H470" s="2" t="s">
         <v>123</v>
@@ -23198,9 +23204,11 @@
         <v>76</v>
       </c>
       <c r="J470" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="K470" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="K470" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L470" s="2"/>
       <c r="M470" s="2">
         <v>0</v>
@@ -23230,7 +23238,7 @@
         <v>44066</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H471" s="2" t="s">
         <v>123</v>
@@ -23239,10 +23247,10 @@
         <v>76</v>
       </c>
       <c r="J471" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K471" s="2" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="L471" s="2"/>
       <c r="M471" s="2">
@@ -23273,7 +23281,7 @@
         <v>44066</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H472" s="2" t="s">
         <v>121</v>
@@ -23282,9 +23290,11 @@
         <v>104</v>
       </c>
       <c r="J472" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="K472" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="K472" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L472" s="2"/>
       <c r="M472" s="2">
         <v>0</v>
@@ -23312,19 +23322,19 @@
         <v>44066</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H473" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I473" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J473" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K473" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L473" s="2"/>
       <c r="M473" s="2">
@@ -23353,19 +23363,19 @@
         <v>44066</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H474" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I474" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J474" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K474" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L474" s="2"/>
       <c r="M474" s="2">
@@ -23394,19 +23404,19 @@
         <v>44066</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H475" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I475" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J475" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K475" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L475" s="2"/>
       <c r="M475" s="2">
@@ -23437,18 +23447,20 @@
         <v>44067</v>
       </c>
       <c r="G476" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H476" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="H476" s="2" t="s">
+      <c r="I476" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="I476" s="2" t="s">
-        <v>509</v>
-      </c>
       <c r="J476" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K476" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="K476" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L476" s="2"/>
       <c r="M476" s="2">
         <v>0</v>
@@ -23478,7 +23490,7 @@
         <v>44068</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H477" s="2" t="s">
         <v>121</v>
@@ -23487,9 +23499,11 @@
         <v>76</v>
       </c>
       <c r="J477" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K477" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="K477" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L477" s="2"/>
       <c r="M477" s="2">
         <v>0</v>
@@ -23519,7 +23533,7 @@
         <v>44068</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H478" s="2" t="s">
         <v>121</v>
@@ -23528,9 +23542,11 @@
         <v>76</v>
       </c>
       <c r="J478" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K478" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="K478" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L478" s="2"/>
       <c r="M478" s="2">
         <v>0</v>
@@ -23560,7 +23576,7 @@
         <v>44068</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H479" s="2" t="s">
         <v>123</v>
@@ -23569,9 +23585,11 @@
         <v>76</v>
       </c>
       <c r="J479" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K479" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="K479" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L479" s="2"/>
       <c r="M479" s="2">
         <v>0</v>
@@ -23581,8 +23599,172 @@
       </c>
       <c r="O479" s="2"/>
     </row>
+    <row r="480" spans="1:15">
+      <c r="A480" s="2">
+        <v>479</v>
+      </c>
+      <c r="B480" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E480" s="10">
+        <v>44068</v>
+      </c>
+      <c r="F480" s="10">
+        <v>44068</v>
+      </c>
+      <c r="G480" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H480" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="I480" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J480" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="K480" s="2"/>
+      <c r="L480" s="2"/>
+      <c r="M480" s="2">
+        <v>0</v>
+      </c>
+      <c r="N480" s="2">
+        <v>0</v>
+      </c>
+      <c r="O480" s="2"/>
+    </row>
+    <row r="481" spans="1:15">
+      <c r="A481" s="2">
+        <v>480</v>
+      </c>
+      <c r="B481" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E481" s="10">
+        <v>44068</v>
+      </c>
+      <c r="F481" s="10">
+        <v>44068</v>
+      </c>
+      <c r="G481" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H481" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I481" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J481" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="K481" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L481" s="2"/>
+      <c r="M481" s="2">
+        <v>0</v>
+      </c>
+      <c r="N481" s="2">
+        <v>0</v>
+      </c>
+      <c r="O481" s="2"/>
+    </row>
+    <row r="482" spans="1:15">
+      <c r="A482" s="2">
+        <v>481</v>
+      </c>
+      <c r="B482" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D482" s="2"/>
+      <c r="E482" s="10">
+        <v>44069</v>
+      </c>
+      <c r="F482" s="10">
+        <v>44068</v>
+      </c>
+      <c r="G482" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H482" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I482" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J482" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="K482" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L482" s="2"/>
+      <c r="M482" s="2">
+        <v>0</v>
+      </c>
+      <c r="N482" s="2">
+        <v>0</v>
+      </c>
+      <c r="O482" s="2"/>
+    </row>
+    <row r="483" spans="1:15">
+      <c r="A483" s="2">
+        <v>482</v>
+      </c>
+      <c r="B483" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E483" s="10">
+        <v>44069</v>
+      </c>
+      <c r="F483" s="10">
+        <v>44069</v>
+      </c>
+      <c r="G483" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H483" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I483" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J483" s="3"/>
+      <c r="K483" s="2"/>
+      <c r="L483" s="2"/>
+      <c r="M483" s="2">
+        <v>0</v>
+      </c>
+      <c r="N483" s="2">
+        <v>0</v>
+      </c>
+      <c r="O483" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O479"/>
+  <autoFilter ref="A1:O483"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -10,7 +10,7 @@
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$483</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$492</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="527">
   <si>
     <t>No</t>
   </si>
@@ -1889,6 +1889,1332 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>菊池保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホケンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒尾市</t>
+    <rPh sb="0" eb="3">
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南小国町</t>
+    <rPh sb="0" eb="4">
+      <t>ミナミオグニマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上天草市</t>
+    <rPh sb="0" eb="4">
+      <t>カミアマクサシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="3">
+      <t>キクチシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御船町</t>
+    <rPh sb="0" eb="2">
+      <t>ミフネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売員</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘉島町</t>
+    <rPh sb="0" eb="3">
+      <t>カシママチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>留学生</t>
+    <rPh sb="0" eb="3">
+      <t>リュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="4">
+      <t>カイシャヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="2">
+      <t>ホイク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高森町</t>
+    <rPh sb="0" eb="3">
+      <t>タカモリマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロスポーツ選手</t>
+    <rPh sb="6" eb="8">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇土市</t>
+    <rPh sb="0" eb="3">
+      <t>ウトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町職員</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>園児</t>
+    <rPh sb="0" eb="2">
+      <t>エンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -1896,47 +3222,88 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>菊池保健所管内</t>
-    <rPh sb="0" eb="2">
-      <t>キクチ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホケンショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
+    <t>南関町</t>
     <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荒尾市</t>
+      <t>ナンカンマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
     <rPh sb="0" eb="3">
-      <t>アラオシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南小国町</t>
-    <rPh sb="0" eb="4">
-      <t>ミナミオグニマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上天草市</t>
-    <rPh sb="0" eb="4">
-      <t>カミアマクサシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1948,6 +3315,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -1955,14 +3366,172 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水俣市</t>
+    <rPh sb="0" eb="3">
+      <t>ミナマタシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
     <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
+      <t>ジュウジシャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1973,13 +3542,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>施設入所者</t>
+    <t>会社員</t>
     <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体職員</t>
+    <rPh sb="0" eb="2">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介護職</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業</t>
+    <rPh sb="0" eb="2">
+      <t>ノウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1993,57 +3648,227 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>玉名市</t>
+    <t>熊本市東区</t>
     <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高森町</t>
     <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
+      <t>タカモリマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
     <rPh sb="0" eb="2">
-      <t>ヤマガ</t>
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無色</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池市</t>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
     <rPh sb="0" eb="3">
-      <t>キクチシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>御船町</t>
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
     <rPh sb="0" eb="2">
-      <t>ミフネ</t>
+      <t>クマモト</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊陽町</t>
-    <rPh sb="0" eb="3">
-      <t>キクヨウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2062,27 +3887,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>販売員</t>
-    <rPh sb="0" eb="3">
-      <t>ハンバイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>無職</t>
     <rPh sb="0" eb="2">
       <t>ムショク</t>
@@ -2090,1765 +3894,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>高校生</t>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医師</t>
+    <rPh sb="0" eb="2">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学生</t>
     <rPh sb="0" eb="3">
-      <t>コウコウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設入所者</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長洲町</t>
-    <rPh sb="0" eb="3">
-      <t>ナガスマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>嘉島町</t>
-    <rPh sb="0" eb="3">
-      <t>カシママチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>留学生</t>
-    <rPh sb="0" eb="3">
-      <t>リュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="4">
-      <t>カイシャヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="2">
-      <t>ホイク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>埼玉県</t>
-    <rPh sb="0" eb="3">
-      <t>サイタマケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療事務</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店経営</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高森町</t>
-    <rPh sb="0" eb="3">
-      <t>タカモリマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロスポーツ選手</t>
-    <rPh sb="6" eb="8">
-      <t>センシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇土市</t>
-    <rPh sb="0" eb="3">
-      <t>ウトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町職員</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>園児</t>
-    <rPh sb="0" eb="2">
-      <t>エンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南関町</t>
-    <rPh sb="0" eb="3">
-      <t>ナンカンマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水俣市</t>
-    <rPh sb="0" eb="3">
-      <t>ミナマタシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>甲佐町</t>
-    <rPh sb="0" eb="3">
-      <t>コウサマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高校生</t>
-    <rPh sb="0" eb="3">
-      <t>コウコウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>団体職員</t>
-    <rPh sb="0" eb="2">
-      <t>ダンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>介護職</t>
-    <rPh sb="0" eb="2">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>農業</t>
-    <rPh sb="0" eb="2">
-      <t>ノウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高森町</t>
-    <rPh sb="0" eb="3">
-      <t>タカモリマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療事務</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無色</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
+      <t>チュウガクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4337,13 +4396,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O483"/>
+  <dimension ref="A1:O492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B329" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B475" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D343" sqref="D343"/>
+      <selection pane="bottomRight" activeCell="B493" sqref="B493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7811,7 +7870,7 @@
         <v>44039</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>126</v>
@@ -8845,7 +8904,7 @@
         <v>44039</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H112" s="14" t="s">
         <v>127</v>
@@ -9091,7 +9150,7 @@
         <v>140</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="9">
@@ -9120,7 +9179,7 @@
         <v>44039</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>122</v>
@@ -9159,7 +9218,7 @@
         <v>44039</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>123</v>
@@ -10702,7 +10761,7 @@
         <v>44041</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>153</v>
@@ -10741,7 +10800,7 @@
         <v>44041</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>150</v>
@@ -12181,7 +12240,7 @@
         <v>242</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
@@ -12303,15 +12362,13 @@
       <c r="J199" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K199" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="K199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2">
         <v>0</v>
       </c>
       <c r="N199" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O199" s="2"/>
     </row>
@@ -13960,7 +14017,7 @@
         <v>244</v>
       </c>
       <c r="K241" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="L241" s="2"/>
       <c r="M241" s="2">
@@ -16208,15 +16265,13 @@
       <c r="J298" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K298" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="K298" s="2"/>
       <c r="L298" s="2"/>
       <c r="M298" s="2">
         <v>0</v>
       </c>
       <c r="N298" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O298" s="2"/>
     </row>
@@ -17635,13 +17690,13 @@
         <v>44049</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J334" s="3" t="s">
         <v>140</v>
@@ -17674,16 +17729,16 @@
         <v>44049</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
@@ -17716,13 +17771,13 @@
         <v>165</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I336" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
@@ -17752,7 +17807,7 @@
         <v>44049</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>121</v>
@@ -17761,7 +17816,7 @@
         <v>132</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
@@ -17791,7 +17846,7 @@
         <v>44049</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>129</v>
@@ -17800,7 +17855,7 @@
         <v>104</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
@@ -17833,7 +17888,7 @@
         <v>165</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>132</v>
@@ -17908,7 +17963,7 @@
         <v>44050</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>127</v>
@@ -17939,9 +17994,7 @@
       <c r="C342" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D342" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D342" s="2"/>
       <c r="E342" s="10">
         <v>44050</v>
       </c>
@@ -17949,7 +18002,7 @@
         <v>44050</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>121</v>
@@ -17958,7 +18011,7 @@
         <v>104</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
@@ -17988,7 +18041,7 @@
         <v>44050</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>121</v>
@@ -18027,7 +18080,7 @@
         <v>44050</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>123</v>
@@ -18036,7 +18089,7 @@
         <v>104</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
@@ -18066,7 +18119,7 @@
         <v>44050</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>129</v>
@@ -18105,7 +18158,7 @@
         <v>44050</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>128</v>
@@ -18144,7 +18197,7 @@
         <v>44050</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>127</v>
@@ -18153,17 +18206,15 @@
         <v>132</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="K347" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="K347" s="2"/>
       <c r="L347" s="2"/>
       <c r="M347" s="2">
         <v>0</v>
       </c>
       <c r="N347" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O347" s="2"/>
     </row>
@@ -18185,16 +18236,16 @@
         <v>44051</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
@@ -18224,16 +18275,16 @@
         <v>44051</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K349" s="2"/>
       <c r="L349" s="2"/>
@@ -18263,16 +18314,16 @@
         <v>44051</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
@@ -18310,10 +18361,10 @@
         <v>123</v>
       </c>
       <c r="I351" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J351" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="J351" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
@@ -18348,10 +18399,10 @@
         <v>120</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J352" s="3" t="s">
         <v>40</v>
@@ -18464,7 +18515,7 @@
         <v>44052</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>121</v>
@@ -18503,16 +18554,16 @@
         <v>44052</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H356" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="I356" s="2" t="s">
+      <c r="J356" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="J356" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
@@ -18542,7 +18593,7 @@
         <v>44052</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>130</v>
@@ -18551,7 +18602,7 @@
         <v>104</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
@@ -18581,7 +18632,7 @@
         <v>44052</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>122</v>
@@ -18590,7 +18641,7 @@
         <v>104</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K358" s="2" t="s">
         <v>103</v>
@@ -18622,10 +18673,10 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H359" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
@@ -18663,7 +18714,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -18713,7 +18764,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -18754,7 +18805,7 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
@@ -18787,13 +18838,13 @@
         <v>213</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
@@ -18826,13 +18877,13 @@
         <v>189</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
@@ -18865,13 +18916,13 @@
         <v>189</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
@@ -18904,13 +18955,13 @@
         <v>163</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -18951,7 +19002,7 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
@@ -18983,7 +19034,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -18994,15 +19045,13 @@
       <c r="J368" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K368" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K368" s="2"/>
       <c r="L368" s="2"/>
       <c r="M368" s="2">
         <v>0</v>
       </c>
       <c r="N368" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O368" s="2"/>
     </row>
@@ -19026,7 +19075,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -19151,7 +19200,7 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>123</v>
@@ -19192,10 +19241,10 @@
         <v>44055</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>132</v>
@@ -19234,7 +19283,7 @@
         <v>219</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>132</v>
@@ -19270,7 +19319,7 @@
         <v>44055</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>122</v>
@@ -19311,7 +19360,7 @@
         <v>44055</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>122</v>
@@ -19352,16 +19401,16 @@
         <v>44056</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
@@ -19393,16 +19442,16 @@
         <v>44056</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K378" s="2"/>
       <c r="L378" s="2"/>
@@ -19434,7 +19483,7 @@
         <v>44056</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>121</v>
@@ -19443,7 +19492,7 @@
         <v>132</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
@@ -19475,16 +19524,16 @@
         <v>44056</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K380" s="2"/>
       <c r="L380" s="2"/>
@@ -19507,7 +19556,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E381" s="10">
         <v>44056</v>
@@ -19522,10 +19571,10 @@
         <v>123</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K381" s="2"/>
       <c r="L381" s="2"/>
@@ -19548,7 +19597,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E382" s="10">
         <v>44057</v>
@@ -19563,7 +19612,7 @@
         <v>121</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>47</v>
@@ -19589,7 +19638,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E383" s="10">
         <v>44057</v>
@@ -19604,10 +19653,10 @@
         <v>121</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K383" s="2"/>
       <c r="L383" s="2"/>
@@ -19637,7 +19686,7 @@
         <v>44056</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>123</v>
@@ -19646,7 +19695,7 @@
         <v>132</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
@@ -19676,7 +19725,7 @@
         <v>44056</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>123</v>
@@ -19685,7 +19734,7 @@
         <v>132</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K385" s="2"/>
       <c r="L385" s="2"/>
@@ -19715,7 +19764,7 @@
         <v>44056</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>121</v>
@@ -19724,7 +19773,7 @@
         <v>132</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
@@ -19754,7 +19803,7 @@
         <v>44056</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>127</v>
@@ -19763,7 +19812,7 @@
         <v>104</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
@@ -19795,16 +19844,16 @@
         <v>44057</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K388" s="2"/>
       <c r="L388" s="2"/>
@@ -19827,7 +19876,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E389" s="10">
         <v>44057</v>
@@ -19842,13 +19891,13 @@
         <v>123</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L389" s="2"/>
       <c r="M389" s="2">
@@ -19870,7 +19919,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E390" s="10">
         <v>44057</v>
@@ -19885,10 +19934,10 @@
         <v>55</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="2"/>
@@ -19911,7 +19960,7 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E391" s="10">
         <v>44057</v>
@@ -19926,10 +19975,10 @@
         <v>123</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K391" s="2"/>
       <c r="L391" s="2"/>
@@ -19961,16 +20010,16 @@
         <v>44057</v>
       </c>
       <c r="G392" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H392" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H392" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="I392" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J392" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
@@ -20002,16 +20051,16 @@
         <v>44057</v>
       </c>
       <c r="G393" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H393" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H393" s="2" t="s">
+      <c r="I393" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I393" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="J393" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
@@ -20041,16 +20090,16 @@
         <v>44057</v>
       </c>
       <c r="G394" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H394" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="H394" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="I394" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J394" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K394" s="2"/>
       <c r="L394" s="2"/>
@@ -20080,16 +20129,16 @@
         <v>44057</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K395" s="2"/>
       <c r="L395" s="2"/>
@@ -20121,13 +20170,13 @@
         <v>44058</v>
       </c>
       <c r="G396" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H396" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H396" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="I396" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J396" s="3" t="s">
         <v>38</v>
@@ -20162,13 +20211,13 @@
         <v>44058</v>
       </c>
       <c r="G397" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H397" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H397" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="I397" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J397" s="3" t="s">
         <v>38</v>
@@ -20203,13 +20252,13 @@
         <v>44058</v>
       </c>
       <c r="G398" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I398" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J398" s="3" t="s">
         <v>38</v>
@@ -20244,16 +20293,16 @@
         <v>44058</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K399" s="2"/>
       <c r="L399" s="2"/>
@@ -20285,10 +20334,10 @@
         <v>44058</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>104</v>
@@ -20328,10 +20377,10 @@
         <v>44058</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>76</v>
@@ -20369,10 +20418,10 @@
         <v>44058</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>76</v>
@@ -20410,16 +20459,16 @@
         <v>44058</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="2"/>
@@ -20451,16 +20500,16 @@
         <v>44058</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
@@ -20490,16 +20539,16 @@
         <v>44058</v>
       </c>
       <c r="G405" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H405" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H405" s="2" t="s">
+      <c r="I405" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I405" s="2" t="s">
+      <c r="J405" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="J405" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
@@ -20529,16 +20578,16 @@
         <v>44058</v>
       </c>
       <c r="G406" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I406" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H406" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I406" s="2" t="s">
+      <c r="J406" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="J406" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
@@ -20568,16 +20617,16 @@
         <v>44058</v>
       </c>
       <c r="G407" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I407" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H407" s="2" t="s">
+      <c r="J407" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="I407" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J407" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
@@ -20609,16 +20658,16 @@
         <v>44059</v>
       </c>
       <c r="G408" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H408" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H408" s="2" t="s">
+      <c r="I408" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I408" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="J408" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K408" s="3"/>
       <c r="L408" s="2"/>
@@ -20648,16 +20697,16 @@
         <v>44059</v>
       </c>
       <c r="G409" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H409" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H409" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="I409" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J409" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K409" s="3"/>
       <c r="L409" s="2"/>
@@ -20687,16 +20736,16 @@
         <v>44059</v>
       </c>
       <c r="G410" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I410" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H410" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="J410" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
@@ -20728,7 +20777,7 @@
         <v>44060</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>130</v>
@@ -20737,10 +20786,10 @@
         <v>132</v>
       </c>
       <c r="J411" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K411" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L411" s="2"/>
       <c r="M411" s="2">
@@ -20771,7 +20820,7 @@
         <v>44060</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>130</v>
@@ -20780,7 +20829,7 @@
         <v>104</v>
       </c>
       <c r="J412" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K412" s="3" t="s">
         <v>144</v>
@@ -20814,7 +20863,7 @@
         <v>44060</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>121</v>
@@ -20823,17 +20872,15 @@
         <v>104</v>
       </c>
       <c r="J413" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="K413" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="K413" s="3"/>
       <c r="L413" s="2"/>
       <c r="M413" s="2">
         <v>0</v>
       </c>
       <c r="N413" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O413" s="2"/>
     </row>
@@ -20857,16 +20904,16 @@
         <v>44061</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H414" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K414" s="3"/>
       <c r="L414" s="2"/>
@@ -20898,16 +20945,16 @@
         <v>44061</v>
       </c>
       <c r="G415" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H415" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H415" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="I415" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K415" s="3"/>
       <c r="L415" s="2"/>
@@ -20939,16 +20986,16 @@
         <v>44061</v>
       </c>
       <c r="G416" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I416" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H416" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I416" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="J416" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K416" s="3"/>
       <c r="L416" s="2"/>
@@ -20980,16 +21027,16 @@
         <v>44061</v>
       </c>
       <c r="G417" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H417" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H417" s="2" t="s">
+      <c r="I417" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I417" s="2" t="s">
+      <c r="J417" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="J417" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="K417" s="2"/>
       <c r="L417" s="2"/>
@@ -21021,16 +21068,16 @@
         <v>44061</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H418" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J418" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="I418" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J418" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="K418" s="2"/>
       <c r="L418" s="2"/>
@@ -21060,16 +21107,16 @@
         <v>44061</v>
       </c>
       <c r="G419" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H419" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H419" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="I419" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J419" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K419" s="2" t="s">
         <v>181</v>
@@ -21101,19 +21148,19 @@
         <v>44061</v>
       </c>
       <c r="G420" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H420" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H420" s="2" t="s">
+      <c r="I420" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I420" s="2" t="s">
+      <c r="J420" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="J420" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="K420" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L420" s="2"/>
       <c r="M420" s="2">
@@ -21144,19 +21191,19 @@
         <v>44062</v>
       </c>
       <c r="G421" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H421" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H421" s="2" t="s">
+      <c r="I421" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I421" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="J421" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K421" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L421" s="2"/>
       <c r="M421" s="2">
@@ -21187,19 +21234,19 @@
         <v>44062</v>
       </c>
       <c r="G422" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I422" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H422" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I422" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="J422" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K422" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L422" s="2"/>
       <c r="M422" s="2">
@@ -21230,16 +21277,16 @@
         <v>44062</v>
       </c>
       <c r="G423" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H423" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H423" s="2" t="s">
+      <c r="I423" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I423" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="J423" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
@@ -21271,16 +21318,16 @@
         <v>44062</v>
       </c>
       <c r="G424" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H424" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H424" s="2" t="s">
+      <c r="I424" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I424" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="J424" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K424" s="2" t="s">
         <v>103</v>
@@ -21314,19 +21361,19 @@
         <v>44062</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J425" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K425" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L425" s="2"/>
       <c r="M425" s="2">
@@ -21357,16 +21404,16 @@
         <v>44062</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J426" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K426" s="2"/>
       <c r="L426" s="2"/>
@@ -21398,19 +21445,19 @@
         <v>44062</v>
       </c>
       <c r="G427" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H427" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H427" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="I427" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J427" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L427" s="2"/>
       <c r="M427" s="2">
@@ -21441,19 +21488,19 @@
         <v>44062</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H428" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J428" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="I428" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="J428" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="K428" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L428" s="2"/>
       <c r="M428" s="2">
@@ -21482,16 +21529,16 @@
         <v>44062</v>
       </c>
       <c r="G429" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H429" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H429" s="2" t="s">
+      <c r="I429" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I429" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="J429" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K429" s="2"/>
       <c r="L429" s="2"/>
@@ -21521,16 +21568,16 @@
         <v>44062</v>
       </c>
       <c r="G430" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I430" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H430" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="I430" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="J430" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K430" s="2" t="s">
         <v>103</v>
@@ -21562,16 +21609,16 @@
         <v>44062</v>
       </c>
       <c r="G431" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H431" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H431" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="I431" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J431" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K431" s="2" t="s">
         <v>181</v>
@@ -21603,16 +21650,16 @@
         <v>44062</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K432" s="2" t="s">
         <v>103</v>
@@ -21644,16 +21691,16 @@
         <v>44062</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J433" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K433" s="2" t="s">
         <v>103</v>
@@ -21685,16 +21732,16 @@
         <v>44062</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J434" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K434" s="2" t="s">
         <v>103</v>
@@ -21726,16 +21773,16 @@
         <v>44062</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K435" s="2" t="s">
         <v>103</v>
@@ -21767,16 +21814,16 @@
         <v>44062</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J436" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K436" s="2" t="s">
         <v>103</v>
@@ -21801,7 +21848,7 @@
         <v>14</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E437" s="10">
         <v>44063</v>
@@ -21810,19 +21857,19 @@
         <v>44063</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H437" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I437" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="I437" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="J437" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K437" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L437" s="2"/>
       <c r="M437" s="2">
@@ -21844,7 +21891,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E438" s="10">
         <v>44063</v>
@@ -21853,13 +21900,13 @@
         <v>44063</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J438" s="3" t="s">
         <v>40</v>
@@ -21885,7 +21932,7 @@
         <v>14</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E439" s="10">
         <v>44063</v>
@@ -21894,19 +21941,19 @@
         <v>44063</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J439" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K439" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L439" s="2"/>
       <c r="M439" s="2">
@@ -21928,7 +21975,7 @@
         <v>14</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E440" s="10">
         <v>44063</v>
@@ -21937,19 +21984,19 @@
         <v>44063</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J440" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K440" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L440" s="2"/>
       <c r="M440" s="2">
@@ -21971,7 +22018,7 @@
         <v>14</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E441" s="10">
         <v>44063</v>
@@ -21980,19 +22027,19 @@
         <v>44063</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H441" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I441" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="I441" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="J441" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K441" s="2" t="s">
-        <v>509</v>
+        <v>181</v>
       </c>
       <c r="L441" s="2"/>
       <c r="M441" s="2">
@@ -22032,7 +22079,7 @@
         <v>132</v>
       </c>
       <c r="J442" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
@@ -22040,7 +22087,7 @@
         <v>0</v>
       </c>
       <c r="N442" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O442" s="2"/>
     </row>
@@ -22064,16 +22111,16 @@
         <v>44063</v>
       </c>
       <c r="G443" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H443" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H443" s="2" t="s">
+      <c r="I443" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="I443" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="J443" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
@@ -22103,7 +22150,7 @@
         <v>44063</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H444" s="2" t="s">
         <v>129</v>
@@ -22112,10 +22159,10 @@
         <v>76</v>
       </c>
       <c r="J444" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K444" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L444" s="2"/>
       <c r="M444" s="2">
@@ -22153,7 +22200,7 @@
         <v>104</v>
       </c>
       <c r="J445" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
@@ -22183,7 +22230,7 @@
         <v>44063</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H446" s="2" t="s">
         <v>130</v>
@@ -22217,7 +22264,7 @@
         <v>14</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E447" s="10">
         <v>44064</v>
@@ -22226,13 +22273,13 @@
         <v>44064</v>
       </c>
       <c r="G447" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H447" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H447" s="2" t="s">
+      <c r="I447" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="I447" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="J447" s="3" t="s">
         <v>37</v>
@@ -22269,13 +22316,13 @@
         <v>44064</v>
       </c>
       <c r="G448" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H448" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="H448" s="2" t="s">
+      <c r="I448" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="I448" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="J448" s="3" t="s">
         <v>248</v>
@@ -22310,7 +22357,7 @@
         <v>44064</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H449" s="2" t="s">
         <v>123</v>
@@ -22351,7 +22398,7 @@
         <v>44064</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H450" s="2" t="s">
         <v>124</v>
@@ -22360,7 +22407,7 @@
         <v>104</v>
       </c>
       <c r="J450" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K450" s="2" t="s">
         <v>103</v>
@@ -22394,16 +22441,16 @@
         <v>44064</v>
       </c>
       <c r="G451" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H451" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="H451" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="I451" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J451" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K451" s="2" t="s">
         <v>103</v>
@@ -22437,26 +22484,24 @@
         <v>44064</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J452" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="K452" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="K452" s="2"/>
       <c r="L452" s="2"/>
       <c r="M452" s="2">
         <v>0</v>
       </c>
       <c r="N452" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O452" s="2"/>
     </row>
@@ -22480,16 +22525,16 @@
         <v>44064</v>
       </c>
       <c r="G453" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H453" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H453" s="2" t="s">
+      <c r="I453" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I453" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="J453" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K453" s="2" t="s">
         <v>103</v>
@@ -22523,16 +22568,16 @@
         <v>44064</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H454" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J454" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K454" s="2" t="s">
         <v>103</v>
@@ -22566,16 +22611,16 @@
         <v>44064</v>
       </c>
       <c r="G455" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H455" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="H455" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="I455" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J455" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K455" s="2" t="s">
         <v>181</v>
@@ -22609,16 +22654,16 @@
         <v>44064</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H456" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J456" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K456" s="2" t="s">
         <v>181</v>
@@ -22650,19 +22695,19 @@
         <v>44064</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H457" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J457" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K457" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L457" s="2"/>
       <c r="M457" s="2">
@@ -22691,16 +22736,16 @@
         <v>44064</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J458" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K458" s="2" t="s">
         <v>103</v>
@@ -22732,16 +22777,16 @@
         <v>44064</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H459" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J459" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K459" s="2" t="s">
         <v>103</v>
@@ -22773,16 +22818,16 @@
         <v>44064</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H460" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J460" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K460" s="2" t="s">
         <v>144</v>
@@ -22814,16 +22859,16 @@
         <v>44064</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J461" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K461" s="2" t="s">
         <v>144</v>
@@ -22855,16 +22900,16 @@
         <v>44064</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H462" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J462" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K462" s="2" t="s">
         <v>103</v>
@@ -22896,13 +22941,13 @@
         <v>44064</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J463" s="3" t="s">
         <v>179</v>
@@ -22939,16 +22984,16 @@
         <v>44065</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J464" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K464" s="2" t="s">
         <v>103</v>
@@ -22982,16 +23027,16 @@
         <v>44065</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H465" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J465" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K465" s="2" t="s">
         <v>103</v>
@@ -23025,16 +23070,16 @@
         <v>44065</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H466" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I466" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="I466" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="J466" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K466" s="2" t="s">
         <v>103</v>
@@ -23068,20 +23113,18 @@
         <v>44065</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H467" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J467" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="K467" s="2" t="s">
-        <v>509</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="K467" s="2"/>
       <c r="L467" s="2"/>
       <c r="M467" s="2">
         <v>0</v>
@@ -23109,7 +23152,7 @@
         <v>44065</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H468" s="2" t="s">
         <v>122</v>
@@ -23118,7 +23161,7 @@
         <v>104</v>
       </c>
       <c r="J468" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K468" s="2" t="s">
         <v>103</v>
@@ -23152,26 +23195,24 @@
         <v>44066</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H469" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I469" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J469" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="K469" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="K469" s="2"/>
       <c r="L469" s="2"/>
       <c r="M469" s="2">
         <v>0</v>
       </c>
       <c r="N469" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O469" s="2"/>
     </row>
@@ -23195,7 +23236,7 @@
         <v>44066</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H470" s="2" t="s">
         <v>123</v>
@@ -23204,7 +23245,7 @@
         <v>76</v>
       </c>
       <c r="J470" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K470" s="2" t="s">
         <v>103</v>
@@ -23238,7 +23279,7 @@
         <v>44066</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H471" s="2" t="s">
         <v>123</v>
@@ -23247,10 +23288,10 @@
         <v>76</v>
       </c>
       <c r="J471" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K471" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L471" s="2"/>
       <c r="M471" s="2">
@@ -23281,7 +23322,7 @@
         <v>44066</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H472" s="2" t="s">
         <v>121</v>
@@ -23290,11 +23331,9 @@
         <v>104</v>
       </c>
       <c r="J472" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="K472" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="K472" s="2"/>
       <c r="L472" s="2"/>
       <c r="M472" s="2">
         <v>0</v>
@@ -23322,19 +23361,19 @@
         <v>44066</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H473" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I473" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J473" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K473" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L473" s="2"/>
       <c r="M473" s="2">
@@ -23363,19 +23402,19 @@
         <v>44066</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H474" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I474" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J474" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K474" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L474" s="2"/>
       <c r="M474" s="2">
@@ -23404,19 +23443,19 @@
         <v>44066</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H475" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I475" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J475" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K475" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L475" s="2"/>
       <c r="M475" s="2">
@@ -23447,16 +23486,16 @@
         <v>44067</v>
       </c>
       <c r="G476" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H476" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="H476" s="2" t="s">
+      <c r="I476" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="I476" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="J476" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K476" s="2" t="s">
         <v>103</v>
@@ -23490,7 +23529,7 @@
         <v>44068</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H477" s="2" t="s">
         <v>121</v>
@@ -23533,7 +23572,7 @@
         <v>44068</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H478" s="2" t="s">
         <v>121</v>
@@ -23576,7 +23615,7 @@
         <v>44068</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H479" s="2" t="s">
         <v>123</v>
@@ -23622,15 +23661,17 @@
         <v>158</v>
       </c>
       <c r="H480" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I480" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J480" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="K480" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="K480" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L480" s="2"/>
       <c r="M480" s="2">
         <v>0</v>
@@ -23669,7 +23710,7 @@
         <v>104</v>
       </c>
       <c r="J481" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K481" s="2" t="s">
         <v>103</v>
@@ -23701,7 +23742,7 @@
         <v>44068</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H482" s="2" t="s">
         <v>123</v>
@@ -23710,7 +23751,7 @@
         <v>104</v>
       </c>
       <c r="J482" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K482" s="2" t="s">
         <v>103</v>
@@ -23744,7 +23785,7 @@
         <v>44069</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H483" s="2" t="s">
         <v>127</v>
@@ -23753,7 +23794,9 @@
         <v>104</v>
       </c>
       <c r="J483" s="3"/>
-      <c r="K483" s="2"/>
+      <c r="K483" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L483" s="2"/>
       <c r="M483" s="2">
         <v>0</v>
@@ -23763,8 +23806,371 @@
       </c>
       <c r="O483" s="2"/>
     </row>
+    <row r="484" spans="1:15">
+      <c r="A484" s="2">
+        <v>483</v>
+      </c>
+      <c r="B484" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E484" s="10">
+        <v>44069</v>
+      </c>
+      <c r="F484" s="10">
+        <v>44069</v>
+      </c>
+      <c r="G484" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H484" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I484" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J484" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="K484" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L484" s="2"/>
+      <c r="M484" s="2">
+        <v>0</v>
+      </c>
+      <c r="N484" s="2">
+        <v>0</v>
+      </c>
+      <c r="O484" s="2"/>
+    </row>
+    <row r="485" spans="1:15">
+      <c r="A485" s="2">
+        <v>484</v>
+      </c>
+      <c r="B485" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E485" s="10">
+        <v>44069</v>
+      </c>
+      <c r="F485" s="10">
+        <v>44069</v>
+      </c>
+      <c r="G485" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H485" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I485" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J485" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K485" s="2"/>
+      <c r="L485" s="2"/>
+      <c r="M485" s="2">
+        <v>0</v>
+      </c>
+      <c r="N485" s="2">
+        <v>0</v>
+      </c>
+      <c r="O485" s="2"/>
+    </row>
+    <row r="486" spans="1:15">
+      <c r="A486" s="2">
+        <v>485</v>
+      </c>
+      <c r="B486" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E486" s="10">
+        <v>44069</v>
+      </c>
+      <c r="F486" s="10">
+        <v>44069</v>
+      </c>
+      <c r="G486" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H486" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I486" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J486" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K486" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="L486" s="2"/>
+      <c r="M486" s="2">
+        <v>0</v>
+      </c>
+      <c r="N486" s="2">
+        <v>0</v>
+      </c>
+      <c r="O486" s="2"/>
+    </row>
+    <row r="487" spans="1:15">
+      <c r="A487" s="2">
+        <v>486</v>
+      </c>
+      <c r="B487" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D487" s="2"/>
+      <c r="E487" s="10">
+        <v>44070</v>
+      </c>
+      <c r="F487" s="10">
+        <v>44069</v>
+      </c>
+      <c r="G487" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H487" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I487" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J487" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K487" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="L487" s="2"/>
+      <c r="M487" s="2">
+        <v>0</v>
+      </c>
+      <c r="N487" s="2">
+        <v>0</v>
+      </c>
+      <c r="O487" s="2"/>
+    </row>
+    <row r="488" spans="1:15">
+      <c r="A488" s="2">
+        <v>487</v>
+      </c>
+      <c r="B488" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E488" s="10">
+        <v>44070</v>
+      </c>
+      <c r="F488" s="10">
+        <v>44070</v>
+      </c>
+      <c r="G488" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H488" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I488" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J488" s="3"/>
+      <c r="K488" s="2"/>
+      <c r="L488" s="2"/>
+      <c r="M488" s="2">
+        <v>0</v>
+      </c>
+      <c r="N488" s="2">
+        <v>0</v>
+      </c>
+      <c r="O488" s="2"/>
+    </row>
+    <row r="489" spans="1:15">
+      <c r="A489" s="2">
+        <v>488</v>
+      </c>
+      <c r="B489" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E489" s="10">
+        <v>44070</v>
+      </c>
+      <c r="F489" s="10">
+        <v>44070</v>
+      </c>
+      <c r="G489" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H489" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I489" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J489" s="3"/>
+      <c r="K489" s="2"/>
+      <c r="L489" s="2"/>
+      <c r="M489" s="2">
+        <v>0</v>
+      </c>
+      <c r="N489" s="2">
+        <v>0</v>
+      </c>
+      <c r="O489" s="2"/>
+    </row>
+    <row r="490" spans="1:15">
+      <c r="A490" s="2">
+        <v>489</v>
+      </c>
+      <c r="B490" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E490" s="10">
+        <v>44070</v>
+      </c>
+      <c r="F490" s="10">
+        <v>44070</v>
+      </c>
+      <c r="G490" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H490" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I490" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J490" s="3"/>
+      <c r="K490" s="2"/>
+      <c r="L490" s="2"/>
+      <c r="M490" s="2">
+        <v>0</v>
+      </c>
+      <c r="N490" s="2">
+        <v>0</v>
+      </c>
+      <c r="O490" s="2"/>
+    </row>
+    <row r="491" spans="1:15">
+      <c r="A491" s="2">
+        <v>490</v>
+      </c>
+      <c r="B491" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E491" s="10">
+        <v>44070</v>
+      </c>
+      <c r="F491" s="10">
+        <v>44070</v>
+      </c>
+      <c r="G491" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H491" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I491" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J491" s="3"/>
+      <c r="K491" s="2"/>
+      <c r="L491" s="2"/>
+      <c r="M491" s="2">
+        <v>0</v>
+      </c>
+      <c r="N491" s="2">
+        <v>0</v>
+      </c>
+      <c r="O491" s="2"/>
+    </row>
+    <row r="492" spans="1:15">
+      <c r="A492" s="2">
+        <v>491</v>
+      </c>
+      <c r="B492" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E492" s="10">
+        <v>44070</v>
+      </c>
+      <c r="F492" s="10">
+        <v>44070</v>
+      </c>
+      <c r="G492" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H492" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I492" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J492" s="3"/>
+      <c r="K492" s="2"/>
+      <c r="L492" s="2"/>
+      <c r="M492" s="2">
+        <v>0</v>
+      </c>
+      <c r="N492" s="2">
+        <v>0</v>
+      </c>
+      <c r="O492" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O483"/>
+  <autoFilter ref="A1:O492"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$521</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$529</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="589">
   <si>
     <t>No</t>
   </si>
@@ -4276,6 +4276,126 @@
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自衛隊員</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パート従業員</t>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自衛隊員</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4331,7 +4451,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4341,12 +4461,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4430,7 +4544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4452,15 +4566,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4475,6 +4580,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4489,6 +4595,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4777,13 +4884,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O521"/>
+  <dimension ref="A1:O529"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B481" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B514" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B501" sqref="B501"/>
+      <selection pane="bottomRight" activeCell="C532" sqref="C532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -4850,936 +4957,936 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43883</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>43882</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11">
-        <v>0</v>
-      </c>
-      <c r="N2" s="11">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
         <v>1</v>
       </c>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="11">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43883</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>43882</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>1</v>
       </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="11">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13">
+      <c r="B4" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="16">
         <v>43883</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="16">
         <v>43883</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>1</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="11">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>43886</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <v>43885</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>1</v>
       </c>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="11">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="16">
         <v>43886</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="16">
         <v>43886</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>1</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="11">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13">
+      <c r="B7" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="16">
         <v>43894</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="16">
         <v>43894</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>1</v>
       </c>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="11">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="16">
         <v>43909</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="16">
         <v>43909</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11">
-        <v>1</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
         <v>1</v>
       </c>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="11">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="16">
         <v>43915</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="16">
         <v>43915</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>1</v>
       </c>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="11">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="16">
         <v>43917</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="16">
         <v>43917</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>1</v>
       </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="16">
         <v>43917</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="16">
         <v>43917</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>1</v>
       </c>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="11">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="16">
         <v>43918</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="16">
         <v>43918</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>1</v>
       </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="11">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="16">
         <v>43919</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="16">
         <v>43919</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>1</v>
       </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="11">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="16">
         <v>43920</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="16">
         <v>43920</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
         <v>1</v>
       </c>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="16">
         <v>43920</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="16">
         <v>43920</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
         <v>1</v>
       </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="11">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="16">
         <v>43922</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="16">
         <v>43922</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
         <v>1</v>
       </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="11">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="B17" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="16">
         <v>43924</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="16">
         <v>43924</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
         <v>1</v>
       </c>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="11">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="B18" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="16">
         <v>43924</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="16">
         <v>43924</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
         <v>1</v>
       </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="11">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="16">
         <v>43924</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="16">
         <v>43924</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
         <v>1</v>
       </c>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="11">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13">
+      <c r="B20" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="16">
         <v>43926</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="16">
         <v>43926</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="11">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
+      <c r="K20" s="1"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
         <v>1</v>
       </c>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="11">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13">
+      <c r="B21" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="16">
         <v>43927</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="16">
         <v>43927</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
+      <c r="K21" s="1"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
         <v>1</v>
       </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="11">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="16">
         <v>43928</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="16">
         <v>43928</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
         <v>1</v>
       </c>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="11">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13">
+      <c r="B23" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="16">
         <v>43929</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="16">
         <v>43929</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-      <c r="N23" s="11">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
         <v>1</v>
       </c>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="11">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="16">
         <v>43930</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="16">
         <v>43930</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
         <v>1</v>
       </c>
       <c r="O24" s="1"/>
@@ -5797,10 +5904,10 @@
       <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="16">
         <v>43931</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="16">
         <v>43931</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -5838,10 +5945,10 @@
       <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="16">
         <v>43932</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="16">
         <v>43932</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -5881,10 +5988,10 @@
       <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="16">
         <v>43933</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="16">
         <v>43933</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -5920,10 +6027,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="21">
+      <c r="E28" s="16">
         <v>43933</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="16">
         <v>43933</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -5961,10 +6068,10 @@
       <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="16">
         <v>43934</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="16">
         <v>43934</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -6002,10 +6109,10 @@
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="16">
         <v>43935</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="16">
         <v>43935</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -6043,10 +6150,10 @@
       <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="16">
         <v>43935</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="16">
         <v>43935</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -6082,10 +6189,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="21">
+      <c r="E32" s="16">
         <v>43935</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="16">
         <v>43935</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -6123,10 +6230,10 @@
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="16">
         <v>43936</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="16">
         <v>43936</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -6164,10 +6271,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="21">
+      <c r="E34" s="16">
         <v>43936</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="16">
         <v>43936</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -6205,10 +6312,10 @@
       <c r="D35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="16">
         <v>43938</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="16">
         <v>43938</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -6246,10 +6353,10 @@
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="16">
         <v>43938</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="16">
         <v>43938</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -6287,10 +6394,10 @@
       <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="16">
         <v>43939</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="16">
         <v>43939</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -6328,10 +6435,10 @@
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="16">
         <v>43939</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="16">
         <v>43939</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -6369,10 +6476,10 @@
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="16">
         <v>43940</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="16">
         <v>43940</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -6410,10 +6517,10 @@
       <c r="D40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="16">
         <v>43940</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="16">
         <v>43940</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -6451,10 +6558,10 @@
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="16">
         <v>43940</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="16">
         <v>43940</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -6492,10 +6599,10 @@
       <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="16">
         <v>43941</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="16">
         <v>43941</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -6533,10 +6640,10 @@
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="18">
         <v>43942</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="16">
         <v>43942</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -6548,11 +6655,11 @@
       <c r="I43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="19" t="s">
         <v>60</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="17"/>
+      <c r="L43" s="12"/>
       <c r="M43" s="2">
         <v>0</v>
       </c>
@@ -6574,10 +6681,10 @@
       <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="16">
         <v>43943</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="16">
         <v>43943</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -6615,10 +6722,10 @@
       <c r="D45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="16">
         <v>43944</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="16">
         <v>43944</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6656,10 +6763,10 @@
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="16">
         <v>43945</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="16">
         <v>43945</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -6697,10 +6804,10 @@
       <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="16">
         <v>43947</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="16">
         <v>43947</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -6716,7 +6823,7 @@
         <v>92</v>
       </c>
       <c r="K47" s="1"/>
-      <c r="L47" s="24"/>
+      <c r="L47" s="20"/>
       <c r="M47" s="1">
         <v>0</v>
       </c>
@@ -6738,10 +6845,10 @@
       <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="16">
         <v>43947</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="16">
         <v>43947</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -6767,13 +6874,13 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="16">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C49" s="16" t="s">
+      <c r="B49" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -6794,7 +6901,7 @@
       <c r="I49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="25" t="s">
+      <c r="J49" s="21" t="s">
         <v>87</v>
       </c>
       <c r="K49" s="1"/>
@@ -6808,13 +6915,13 @@
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="16">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C50" s="16" t="s">
+      <c r="B50" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="4"/>
@@ -6847,13 +6954,13 @@
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="16">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C51" s="16" t="s">
+      <c r="B51" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="4"/>
@@ -6886,13 +6993,13 @@
       <c r="O51" s="4"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="16">
+      <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C52" s="16" t="s">
+      <c r="B52" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -6927,13 +7034,13 @@
       <c r="O52" s="4"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="16">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C53" s="16" t="s">
+      <c r="B53" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -6968,13 +7075,13 @@
       <c r="O53" s="4"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="16">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C54" s="16" t="s">
+      <c r="B54" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -6989,10 +7096,10 @@
       <c r="G54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I54" s="26" t="s">
+      <c r="I54" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J54" s="9" t="s">
@@ -7009,13 +7116,13 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="16">
+      <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C55" s="16" t="s">
+      <c r="B55" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="1"/>
@@ -7028,10 +7135,10 @@
       <c r="G55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="I55" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J55" s="9" t="s">
@@ -7048,13 +7155,13 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="16">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C56" s="16" t="s">
+      <c r="B56" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="1"/>
@@ -7067,10 +7174,10 @@
       <c r="G56" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I56" s="26" t="s">
+      <c r="I56" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J56" s="9" t="s">
@@ -7087,13 +7194,13 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="16">
+      <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C57" s="16" t="s">
+      <c r="B57" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -7108,10 +7215,10 @@
       <c r="G57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I57" s="26" t="s">
+      <c r="I57" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J57" s="9" t="s">
@@ -7128,13 +7235,13 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="16">
+      <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C58" s="16" t="s">
+      <c r="B58" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -7149,10 +7256,10 @@
       <c r="G58" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I58" s="26" t="s">
+      <c r="I58" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J58" s="9" t="s">
@@ -7169,13 +7276,13 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="16">
+      <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C59" s="16" t="s">
+      <c r="B59" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="1"/>
@@ -7188,10 +7295,10 @@
       <c r="G59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H59" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I59" s="26" t="s">
+      <c r="I59" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J59" s="9" t="s">
@@ -7208,13 +7315,13 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="16">
+      <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C60" s="16" t="s">
+      <c r="B60" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -7229,16 +7336,16 @@
       <c r="G60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H60" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I60" s="26" t="s">
+      <c r="I60" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K60" s="27"/>
+      <c r="K60" s="23"/>
       <c r="L60" s="1"/>
       <c r="M60" s="4">
         <v>0</v>
@@ -7249,13 +7356,13 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="16">
+      <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C61" s="16" t="s">
+      <c r="B61" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="1"/>
@@ -7268,10 +7375,10 @@
       <c r="G61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="26" t="s">
+      <c r="H61" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I61" s="26" t="s">
+      <c r="I61" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J61" s="9" t="s">
@@ -7288,13 +7395,13 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="16">
+      <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C62" s="16" t="s">
+      <c r="B62" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -7309,10 +7416,10 @@
       <c r="G62" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I62" s="26" t="s">
+      <c r="I62" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J62" s="9" t="s">
@@ -7329,13 +7436,13 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="16">
+      <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C63" s="16" t="s">
+      <c r="B63" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="1"/>
@@ -7348,10 +7455,10 @@
       <c r="G63" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H63" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I63" s="26" t="s">
+      <c r="I63" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J63" s="9" t="s">
@@ -7368,13 +7475,13 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="16">
+      <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C64" s="16" t="s">
+      <c r="B64" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -7389,10 +7496,10 @@
       <c r="G64" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I64" s="26" t="s">
+      <c r="I64" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J64" s="9" t="s">
@@ -7409,13 +7516,13 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="16">
+      <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C65" s="16" t="s">
+      <c r="B65" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1"/>
@@ -7428,10 +7535,10 @@
       <c r="G65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I65" s="26" t="s">
+      <c r="I65" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J65" s="9" t="s">
@@ -7448,13 +7555,13 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="16">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C66" s="16" t="s">
+      <c r="B66" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="1"/>
@@ -7467,10 +7574,10 @@
       <c r="G66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="H66" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I66" s="26" t="s">
+      <c r="I66" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J66" s="9" t="s">
@@ -7487,13 +7594,13 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="16">
+      <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C67" s="16" t="s">
+      <c r="B67" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="1"/>
@@ -7506,10 +7613,10 @@
       <c r="G67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H67" s="26" t="s">
+      <c r="H67" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I67" s="26" t="s">
+      <c r="I67" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J67" s="9" t="s">
@@ -7526,13 +7633,13 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="16">
+      <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C68" s="16" t="s">
+      <c r="B68" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="1"/>
@@ -7545,10 +7652,10 @@
       <c r="G68" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H68" s="26" t="s">
+      <c r="H68" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I68" s="26" t="s">
+      <c r="I68" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J68" s="9" t="s">
@@ -7565,13 +7672,13 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="16">
+      <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C69" s="16" t="s">
+      <c r="B69" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="1"/>
@@ -7584,10 +7691,10 @@
       <c r="G69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="26" t="s">
+      <c r="H69" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I69" s="26" t="s">
+      <c r="I69" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J69" s="9" t="s">
@@ -7604,13 +7711,13 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="16">
+      <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C70" s="16" t="s">
+      <c r="B70" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="1"/>
@@ -7623,10 +7730,10 @@
       <c r="G70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H70" s="26" t="s">
+      <c r="H70" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I70" s="26" t="s">
+      <c r="I70" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J70" s="9" t="s">
@@ -7643,13 +7750,13 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="16">
+      <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C71" s="16" t="s">
+      <c r="B71" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="1"/>
@@ -7662,10 +7769,10 @@
       <c r="G71" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H71" s="26" t="s">
+      <c r="H71" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I71" s="26" t="s">
+      <c r="I71" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J71" s="9" t="s">
@@ -7682,13 +7789,13 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="16">
+      <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="B72" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C72" s="16" t="s">
+      <c r="B72" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="1"/>
@@ -7701,10 +7808,10 @@
       <c r="G72" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I72" s="26" t="s">
+      <c r="I72" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J72" s="9" t="s">
@@ -7721,13 +7828,13 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="16">
+      <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C73" s="16" t="s">
+      <c r="B73" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -7742,10 +7849,10 @@
       <c r="G73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H73" s="26" t="s">
+      <c r="H73" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I73" s="26" t="s">
+      <c r="I73" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J73" s="9" t="s">
@@ -7762,13 +7869,13 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="16">
+      <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B74" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C74" s="16" t="s">
+      <c r="B74" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -7783,10 +7890,10 @@
       <c r="G74" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H74" s="26" t="s">
+      <c r="H74" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I74" s="26" t="s">
+      <c r="I74" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J74" s="9" t="s">
@@ -7803,13 +7910,13 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="16">
+      <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B75" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C75" s="16" t="s">
+      <c r="B75" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="1"/>
@@ -7822,10 +7929,10 @@
       <c r="G75" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H75" s="26" t="s">
+      <c r="H75" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I75" s="26" t="s">
+      <c r="I75" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J75" s="9" t="s">
@@ -7842,13 +7949,13 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="16">
+      <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B76" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C76" s="16" t="s">
+      <c r="B76" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="1"/>
@@ -7861,10 +7968,10 @@
       <c r="G76" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H76" s="26" t="s">
+      <c r="H76" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I76" s="26" t="s">
+      <c r="I76" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J76" s="9" t="s">
@@ -7881,13 +7988,13 @@
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="16">
+      <c r="A77" s="11">
         <v>76</v>
       </c>
-      <c r="B77" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C77" s="16" t="s">
+      <c r="B77" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="1"/>
@@ -7900,10 +8007,10 @@
       <c r="G77" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H77" s="26" t="s">
+      <c r="H77" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I77" s="26" t="s">
+      <c r="I77" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J77" s="9" t="s">
@@ -7920,13 +8027,13 @@
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="16">
+      <c r="A78" s="11">
         <v>77</v>
       </c>
-      <c r="B78" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C78" s="16" t="s">
+      <c r="B78" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="1"/>
@@ -7939,10 +8046,10 @@
       <c r="G78" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H78" s="26" t="s">
+      <c r="H78" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I78" s="26" t="s">
+      <c r="I78" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J78" s="9" t="s">
@@ -7959,13 +8066,13 @@
       <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="16">
+      <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B79" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C79" s="16" t="s">
+      <c r="B79" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="1"/>
@@ -7978,10 +8085,10 @@
       <c r="G79" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H79" s="26" t="s">
+      <c r="H79" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I79" s="26" t="s">
+      <c r="I79" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J79" s="9" t="s">
@@ -7998,13 +8105,13 @@
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="16">
+      <c r="A80" s="11">
         <v>79</v>
       </c>
-      <c r="B80" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C80" s="16" t="s">
+      <c r="B80" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="1"/>
@@ -8017,10 +8124,10 @@
       <c r="G80" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H80" s="26" t="s">
+      <c r="H80" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I80" s="26" t="s">
+      <c r="I80" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J80" s="9" t="s">
@@ -8037,13 +8144,13 @@
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="16">
+      <c r="A81" s="11">
         <v>80</v>
       </c>
-      <c r="B81" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C81" s="16" t="s">
+      <c r="B81" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="1"/>
@@ -8056,10 +8163,10 @@
       <c r="G81" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H81" s="26" t="s">
+      <c r="H81" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I81" s="26" t="s">
+      <c r="I81" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J81" s="9" t="s">
@@ -8076,13 +8183,13 @@
       <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="16">
+      <c r="A82" s="11">
         <v>81</v>
       </c>
-      <c r="B82" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C82" s="16" t="s">
+      <c r="B82" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -8097,10 +8204,10 @@
       <c r="G82" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H82" s="26" t="s">
+      <c r="H82" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I82" s="26" t="s">
+      <c r="I82" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J82" s="9" t="s">
@@ -8117,13 +8224,13 @@
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="16">
+      <c r="A83" s="11">
         <v>82</v>
       </c>
-      <c r="B83" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C83" s="16" t="s">
+      <c r="B83" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="1"/>
@@ -8136,10 +8243,10 @@
       <c r="G83" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H83" s="26" t="s">
+      <c r="H83" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I83" s="26" t="s">
+      <c r="I83" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J83" s="9" t="s">
@@ -8156,13 +8263,13 @@
       <c r="O83" s="1"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="16">
+      <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="B84" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C84" s="16" t="s">
+      <c r="B84" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="1"/>
@@ -8175,10 +8282,10 @@
       <c r="G84" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H84" s="26" t="s">
+      <c r="H84" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I84" s="26" t="s">
+      <c r="I84" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J84" s="9" t="s">
@@ -8195,13 +8302,13 @@
       <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="16">
+      <c r="A85" s="11">
         <v>84</v>
       </c>
-      <c r="B85" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C85" s="16" t="s">
+      <c r="B85" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="1"/>
@@ -8214,10 +8321,10 @@
       <c r="G85" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H85" s="26" t="s">
+      <c r="H85" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I85" s="26" t="s">
+      <c r="I85" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J85" s="9" t="s">
@@ -8234,13 +8341,13 @@
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="16">
+      <c r="A86" s="11">
         <v>85</v>
       </c>
-      <c r="B86" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C86" s="16" t="s">
+      <c r="B86" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="1"/>
@@ -8253,10 +8360,10 @@
       <c r="G86" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H86" s="26" t="s">
+      <c r="H86" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I86" s="26" t="s">
+      <c r="I86" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J86" s="9" t="s">
@@ -8273,13 +8380,13 @@
       <c r="O86" s="1"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="16">
+      <c r="A87" s="11">
         <v>86</v>
       </c>
-      <c r="B87" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C87" s="16" t="s">
+      <c r="B87" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -8294,10 +8401,10 @@
       <c r="G87" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H87" s="26" t="s">
+      <c r="H87" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I87" s="26" t="s">
+      <c r="I87" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J87" s="9" t="s">
@@ -8314,13 +8421,13 @@
       <c r="O87" s="1"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="16">
+      <c r="A88" s="11">
         <v>87</v>
       </c>
-      <c r="B88" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C88" s="16" t="s">
+      <c r="B88" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="1"/>
@@ -8333,10 +8440,10 @@
       <c r="G88" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H88" s="26" t="s">
+      <c r="H88" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I88" s="26" t="s">
+      <c r="I88" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J88" s="9" t="s">
@@ -8353,13 +8460,13 @@
       <c r="O88" s="1"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="16">
+      <c r="A89" s="11">
         <v>88</v>
       </c>
-      <c r="B89" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C89" s="16" t="s">
+      <c r="B89" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="1"/>
@@ -8372,10 +8479,10 @@
       <c r="G89" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H89" s="26" t="s">
+      <c r="H89" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I89" s="26" t="s">
+      <c r="I89" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J89" s="9" t="s">
@@ -8392,13 +8499,13 @@
       <c r="O89" s="1"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="16">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
-      <c r="B90" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C90" s="16" t="s">
+      <c r="B90" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="1"/>
@@ -8411,10 +8518,10 @@
       <c r="G90" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H90" s="26" t="s">
+      <c r="H90" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I90" s="26" t="s">
+      <c r="I90" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J90" s="9" t="s">
@@ -8431,13 +8538,13 @@
       <c r="O90" s="1"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="16">
+      <c r="A91" s="11">
         <v>90</v>
       </c>
-      <c r="B91" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C91" s="16" t="s">
+      <c r="B91" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="1"/>
@@ -8450,35 +8557,33 @@
       <c r="G91" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H91" s="26" t="s">
+      <c r="H91" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I91" s="26" t="s">
+      <c r="I91" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="4">
         <v>0</v>
       </c>
       <c r="N91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" s="1"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="16">
+      <c r="A92" s="11">
         <v>91</v>
       </c>
-      <c r="B92" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C92" s="16" t="s">
+      <c r="B92" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -8493,10 +8598,10 @@
       <c r="G92" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H92" s="26" t="s">
+      <c r="H92" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I92" s="26" t="s">
+      <c r="I92" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J92" s="9" t="s">
@@ -8513,13 +8618,13 @@
       <c r="O92" s="1"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="16">
+      <c r="A93" s="11">
         <v>92</v>
       </c>
-      <c r="B93" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C93" s="16" t="s">
+      <c r="B93" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="1"/>
@@ -8532,10 +8637,10 @@
       <c r="G93" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H93" s="26" t="s">
+      <c r="H93" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I93" s="26" t="s">
+      <c r="I93" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J93" s="9" t="s">
@@ -8552,13 +8657,13 @@
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="16">
+      <c r="A94" s="11">
         <v>93</v>
       </c>
-      <c r="B94" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C94" s="16" t="s">
+      <c r="B94" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="1"/>
@@ -8571,10 +8676,10 @@
       <c r="G94" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H94" s="26" t="s">
+      <c r="H94" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I94" s="26" t="s">
+      <c r="I94" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J94" s="9" t="s">
@@ -8591,13 +8696,13 @@
       <c r="O94" s="1"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="16">
+      <c r="A95" s="11">
         <v>94</v>
       </c>
-      <c r="B95" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C95" s="16" t="s">
+      <c r="B95" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="1"/>
@@ -8610,10 +8715,10 @@
       <c r="G95" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H95" s="26" t="s">
+      <c r="H95" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I95" s="26" t="s">
+      <c r="I95" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J95" s="9" t="s">
@@ -8630,13 +8735,13 @@
       <c r="O95" s="1"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="16">
+      <c r="A96" s="11">
         <v>95</v>
       </c>
-      <c r="B96" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C96" s="16" t="s">
+      <c r="B96" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="1"/>
@@ -8649,10 +8754,10 @@
       <c r="G96" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H96" s="26" t="s">
+      <c r="H96" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I96" s="26" t="s">
+      <c r="I96" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J96" s="9" t="s">
@@ -8669,13 +8774,13 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="16">
+      <c r="A97" s="11">
         <v>96</v>
       </c>
-      <c r="B97" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C97" s="16" t="s">
+      <c r="B97" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -8690,10 +8795,10 @@
       <c r="G97" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H97" s="26" t="s">
+      <c r="H97" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I97" s="26" t="s">
+      <c r="I97" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J97" s="9" t="s">
@@ -8710,13 +8815,13 @@
       <c r="O97" s="1"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="16">
+      <c r="A98" s="11">
         <v>97</v>
       </c>
-      <c r="B98" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C98" s="16" t="s">
+      <c r="B98" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -8731,10 +8836,10 @@
       <c r="G98" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H98" s="26" t="s">
+      <c r="H98" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I98" s="26" t="s">
+      <c r="I98" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J98" s="9" t="s">
@@ -8751,13 +8856,13 @@
       <c r="O98" s="1"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="16">
+      <c r="A99" s="11">
         <v>98</v>
       </c>
-      <c r="B99" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C99" s="16" t="s">
+      <c r="B99" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="4" t="s">
@@ -8772,10 +8877,10 @@
       <c r="G99" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H99" s="26" t="s">
+      <c r="H99" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I99" s="26" t="s">
+      <c r="I99" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J99" s="9" t="s">
@@ -8792,13 +8897,13 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="16">
+      <c r="A100" s="11">
         <v>99</v>
       </c>
-      <c r="B100" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C100" s="16" t="s">
+      <c r="B100" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -8813,10 +8918,10 @@
       <c r="G100" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H100" s="26" t="s">
+      <c r="H100" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I100" s="26" t="s">
+      <c r="I100" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J100" s="9" t="s">
@@ -8833,13 +8938,13 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="16">
+      <c r="A101" s="11">
         <v>100</v>
       </c>
-      <c r="B101" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C101" s="16" t="s">
+      <c r="B101" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -8854,10 +8959,10 @@
       <c r="G101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H101" s="26" t="s">
+      <c r="H101" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I101" s="26" t="s">
+      <c r="I101" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J101" s="9" t="s">
@@ -8874,13 +8979,13 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="16">
+      <c r="A102" s="11">
         <v>101</v>
       </c>
-      <c r="B102" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C102" s="16" t="s">
+      <c r="B102" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="1"/>
@@ -8893,10 +8998,10 @@
       <c r="G102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H102" s="26" t="s">
+      <c r="H102" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I102" s="26" t="s">
+      <c r="I102" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J102" s="9" t="s">
@@ -8915,13 +9020,13 @@
       <c r="O102" s="1"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="16">
+      <c r="A103" s="11">
         <v>102</v>
       </c>
-      <c r="B103" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C103" s="16" t="s">
+      <c r="B103" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="1"/>
@@ -8934,10 +9039,10 @@
       <c r="G103" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H103" s="26" t="s">
+      <c r="H103" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I103" s="26" t="s">
+      <c r="I103" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J103" s="9" t="s">
@@ -8954,13 +9059,13 @@
       <c r="O103" s="1"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="16">
+      <c r="A104" s="11">
         <v>103</v>
       </c>
-      <c r="B104" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C104" s="16" t="s">
+      <c r="B104" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C104" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="1"/>
@@ -8973,10 +9078,10 @@
       <c r="G104" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H104" s="26" t="s">
+      <c r="H104" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I104" s="26" t="s">
+      <c r="I104" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J104" s="9" t="s">
@@ -8993,13 +9098,13 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="16">
+      <c r="A105" s="11">
         <v>104</v>
       </c>
-      <c r="B105" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C105" s="16" t="s">
+      <c r="B105" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C105" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="1"/>
@@ -9012,10 +9117,10 @@
       <c r="G105" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H105" s="26" t="s">
+      <c r="H105" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I105" s="26" t="s">
+      <c r="I105" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J105" s="9" t="s">
@@ -9032,13 +9137,13 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A106" s="16">
+      <c r="A106" s="11">
         <v>105</v>
       </c>
-      <c r="B106" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C106" s="16" t="s">
+      <c r="B106" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C106" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="1"/>
@@ -9051,10 +9156,10 @@
       <c r="G106" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H106" s="26" t="s">
+      <c r="H106" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I106" s="26" t="s">
+      <c r="I106" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J106" s="9" t="s">
@@ -9073,13 +9178,13 @@
       <c r="O106" s="1"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="16">
+      <c r="A107" s="11">
         <v>106</v>
       </c>
-      <c r="B107" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C107" s="16" t="s">
+      <c r="B107" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="1"/>
@@ -9092,10 +9197,10 @@
       <c r="G107" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H107" s="26" t="s">
+      <c r="H107" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I107" s="26" t="s">
+      <c r="I107" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J107" s="9" t="s">
@@ -9112,13 +9217,13 @@
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="16">
+      <c r="A108" s="11">
         <v>107</v>
       </c>
-      <c r="B108" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C108" s="16" t="s">
+      <c r="B108" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="1"/>
@@ -9131,10 +9236,10 @@
       <c r="G108" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H108" s="26" t="s">
+      <c r="H108" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I108" s="26" t="s">
+      <c r="I108" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J108" s="9" t="s">
@@ -9151,13 +9256,13 @@
       <c r="O108" s="1"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="16">
+      <c r="A109" s="11">
         <v>108</v>
       </c>
-      <c r="B109" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C109" s="16" t="s">
+      <c r="B109" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C109" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="1"/>
@@ -9170,10 +9275,10 @@
       <c r="G109" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H109" s="26" t="s">
+      <c r="H109" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I109" s="26" t="s">
+      <c r="I109" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J109" s="9" t="s">
@@ -9190,13 +9295,13 @@
       <c r="O109" s="1"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="16">
+      <c r="A110" s="11">
         <v>109</v>
       </c>
-      <c r="B110" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C110" s="16" t="s">
+      <c r="B110" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C110" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="1"/>
@@ -9209,10 +9314,10 @@
       <c r="G110" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H110" s="26" t="s">
+      <c r="H110" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I110" s="26" t="s">
+      <c r="I110" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J110" s="9" t="s">
@@ -9229,13 +9334,13 @@
       <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="16">
+      <c r="A111" s="11">
         <v>110</v>
       </c>
-      <c r="B111" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C111" s="16" t="s">
+      <c r="B111" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="1"/>
@@ -9248,10 +9353,10 @@
       <c r="G111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H111" s="26" t="s">
+      <c r="H111" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I111" s="26" t="s">
+      <c r="I111" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J111" s="9" t="s">
@@ -9268,13 +9373,13 @@
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="16">
+      <c r="A112" s="11">
         <v>111</v>
       </c>
-      <c r="B112" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C112" s="16" t="s">
+      <c r="B112" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1"/>
@@ -9287,10 +9392,10 @@
       <c r="G112" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H112" s="26" t="s">
+      <c r="H112" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I112" s="26" t="s">
+      <c r="I112" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J112" s="9" t="s">
@@ -9307,13 +9412,13 @@
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="16">
+      <c r="A113" s="11">
         <v>112</v>
       </c>
-      <c r="B113" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C113" s="16" t="s">
+      <c r="B113" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="1"/>
@@ -9326,10 +9431,10 @@
       <c r="G113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H113" s="26" t="s">
+      <c r="H113" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I113" s="26" t="s">
+      <c r="I113" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J113" s="9" t="s">
@@ -9346,13 +9451,13 @@
       <c r="O113" s="1"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="16">
+      <c r="A114" s="11">
         <v>113</v>
       </c>
-      <c r="B114" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C114" s="16" t="s">
+      <c r="B114" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C114" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="1"/>
@@ -9365,10 +9470,10 @@
       <c r="G114" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H114" s="26" t="s">
+      <c r="H114" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I114" s="26" t="s">
+      <c r="I114" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J114" s="9" t="s">
@@ -9385,13 +9490,13 @@
       <c r="O114" s="1"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="16">
+      <c r="A115" s="11">
         <v>114</v>
       </c>
-      <c r="B115" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C115" s="16" t="s">
+      <c r="B115" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="1"/>
@@ -9404,10 +9509,10 @@
       <c r="G115" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H115" s="26" t="s">
+      <c r="H115" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I115" s="26" t="s">
+      <c r="I115" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J115" s="9" t="s">
@@ -9424,13 +9529,13 @@
       <c r="O115" s="1"/>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="16">
+      <c r="A116" s="11">
         <v>115</v>
       </c>
-      <c r="B116" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C116" s="16" t="s">
+      <c r="B116" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="1"/>
@@ -9443,10 +9548,10 @@
       <c r="G116" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H116" s="26" t="s">
+      <c r="H116" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I116" s="26" t="s">
+      <c r="I116" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J116" s="9" t="s">
@@ -9463,13 +9568,13 @@
       <c r="O116" s="1"/>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="16">
+      <c r="A117" s="11">
         <v>116</v>
       </c>
-      <c r="B117" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C117" s="16" t="s">
+      <c r="B117" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="1"/>
@@ -9482,10 +9587,10 @@
       <c r="G117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H117" s="26" t="s">
+      <c r="H117" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I117" s="26" t="s">
+      <c r="I117" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J117" s="9" t="s">
@@ -9502,13 +9607,13 @@
       <c r="O117" s="1"/>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="16">
+      <c r="A118" s="11">
         <v>117</v>
       </c>
-      <c r="B118" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C118" s="16" t="s">
+      <c r="B118" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C118" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="1"/>
@@ -9521,10 +9626,10 @@
       <c r="G118" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H118" s="26" t="s">
+      <c r="H118" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I118" s="26" t="s">
+      <c r="I118" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J118" s="9" t="s">
@@ -9543,13 +9648,13 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="16">
+      <c r="A119" s="11">
         <v>118</v>
       </c>
-      <c r="B119" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C119" s="16" t="s">
+      <c r="B119" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C119" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="1"/>
@@ -9562,10 +9667,10 @@
       <c r="G119" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H119" s="26" t="s">
+      <c r="H119" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I119" s="26" t="s">
+      <c r="I119" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J119" s="9" t="s">
@@ -9582,13 +9687,13 @@
       <c r="O119" s="1"/>
     </row>
     <row r="120" spans="1:15">
-      <c r="A120" s="16">
+      <c r="A120" s="11">
         <v>119</v>
       </c>
-      <c r="B120" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C120" s="16" t="s">
+      <c r="B120" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="1"/>
@@ -9601,10 +9706,10 @@
       <c r="G120" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H120" s="26" t="s">
+      <c r="H120" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I120" s="26" t="s">
+      <c r="I120" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J120" s="9" t="s">
@@ -9621,13 +9726,13 @@
       <c r="O120" s="1"/>
     </row>
     <row r="121" spans="1:15">
-      <c r="A121" s="16">
+      <c r="A121" s="11">
         <v>120</v>
       </c>
-      <c r="B121" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C121" s="16" t="s">
+      <c r="B121" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="1"/>
@@ -9640,10 +9745,10 @@
       <c r="G121" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H121" s="26" t="s">
+      <c r="H121" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I121" s="26" t="s">
+      <c r="I121" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J121" s="9" t="s">
@@ -9660,13 +9765,13 @@
       <c r="O121" s="1"/>
     </row>
     <row r="122" spans="1:15">
-      <c r="A122" s="16">
+      <c r="A122" s="11">
         <v>121</v>
       </c>
-      <c r="B122" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C122" s="16" t="s">
+      <c r="B122" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="1"/>
@@ -9679,10 +9784,10 @@
       <c r="G122" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H122" s="26" t="s">
+      <c r="H122" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I122" s="26" t="s">
+      <c r="I122" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J122" s="9" t="s">
@@ -9699,13 +9804,13 @@
       <c r="O122" s="1"/>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="16">
+      <c r="A123" s="11">
         <v>122</v>
       </c>
-      <c r="B123" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C123" s="16" t="s">
+      <c r="B123" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="1"/>
@@ -9718,10 +9823,10 @@
       <c r="G123" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H123" s="26" t="s">
+      <c r="H123" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I123" s="26" t="s">
+      <c r="I123" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J123" s="9" t="s">
@@ -9738,13 +9843,13 @@
       <c r="O123" s="1"/>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="16">
+      <c r="A124" s="11">
         <v>123</v>
       </c>
-      <c r="B124" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C124" s="16" t="s">
+      <c r="B124" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="1"/>
@@ -9757,10 +9862,10 @@
       <c r="G124" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H124" s="26" t="s">
+      <c r="H124" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I124" s="26" t="s">
+      <c r="I124" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J124" s="9" t="s">
@@ -9777,13 +9882,13 @@
       <c r="O124" s="1"/>
     </row>
     <row r="125" spans="1:15">
-      <c r="A125" s="16">
+      <c r="A125" s="11">
         <v>124</v>
       </c>
-      <c r="B125" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C125" s="16" t="s">
+      <c r="B125" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C125" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="1"/>
@@ -9796,10 +9901,10 @@
       <c r="G125" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H125" s="26" t="s">
+      <c r="H125" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I125" s="26" t="s">
+      <c r="I125" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J125" s="9" t="s">
@@ -9816,13 +9921,13 @@
       <c r="O125" s="1"/>
     </row>
     <row r="126" spans="1:15">
-      <c r="A126" s="16">
+      <c r="A126" s="11">
         <v>125</v>
       </c>
-      <c r="B126" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C126" s="16" t="s">
+      <c r="B126" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C126" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="4" t="s">
@@ -9837,10 +9942,10 @@
       <c r="G126" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H126" s="26" t="s">
+      <c r="H126" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="I126" s="26" t="s">
+      <c r="I126" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J126" s="9" t="s">
@@ -9857,13 +9962,13 @@
       <c r="O126" s="1"/>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" s="16">
+      <c r="A127" s="11">
         <v>126</v>
       </c>
-      <c r="B127" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C127" s="16" t="s">
+      <c r="B127" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C127" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -9878,10 +9983,10 @@
       <c r="G127" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H127" s="26" t="s">
+      <c r="H127" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I127" s="26" t="s">
+      <c r="I127" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J127" s="9" t="s">
@@ -9898,13 +10003,13 @@
       <c r="O127" s="1"/>
     </row>
     <row r="128" spans="1:15">
-      <c r="A128" s="16">
+      <c r="A128" s="11">
         <v>127</v>
       </c>
-      <c r="B128" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C128" s="16" t="s">
+      <c r="B128" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C128" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="1"/>
@@ -9917,10 +10022,10 @@
       <c r="G128" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H128" s="26" t="s">
+      <c r="H128" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I128" s="26" t="s">
+      <c r="I128" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J128" s="9" t="s">
@@ -9937,13 +10042,13 @@
       <c r="O128" s="1"/>
     </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="16">
+      <c r="A129" s="11">
         <v>128</v>
       </c>
-      <c r="B129" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C129" s="16" t="s">
+      <c r="B129" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C129" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="1"/>
@@ -9956,10 +10061,10 @@
       <c r="G129" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H129" s="26" t="s">
+      <c r="H129" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I129" s="26" t="s">
+      <c r="I129" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J129" s="9" t="s">
@@ -9976,13 +10081,13 @@
       <c r="O129" s="1"/>
     </row>
     <row r="130" spans="1:15">
-      <c r="A130" s="16">
+      <c r="A130" s="11">
         <v>129</v>
       </c>
-      <c r="B130" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C130" s="16" t="s">
+      <c r="B130" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="1"/>
@@ -9995,10 +10100,10 @@
       <c r="G130" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H130" s="26" t="s">
+      <c r="H130" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I130" s="26" t="s">
+      <c r="I130" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J130" s="9" t="s">
@@ -10015,13 +10120,13 @@
       <c r="O130" s="1"/>
     </row>
     <row r="131" spans="1:15">
-      <c r="A131" s="16">
+      <c r="A131" s="11">
         <v>130</v>
       </c>
-      <c r="B131" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C131" s="16" t="s">
+      <c r="B131" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C131" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="1"/>
@@ -10034,10 +10139,10 @@
       <c r="G131" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H131" s="26" t="s">
+      <c r="H131" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I131" s="26" t="s">
+      <c r="I131" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J131" s="9" t="s">
@@ -10054,13 +10159,13 @@
       <c r="O131" s="1"/>
     </row>
     <row r="132" spans="1:15">
-      <c r="A132" s="16">
+      <c r="A132" s="11">
         <v>131</v>
       </c>
-      <c r="B132" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C132" s="16" t="s">
+      <c r="B132" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C132" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="4" t="s">
@@ -10075,10 +10180,10 @@
       <c r="G132" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H132" s="26" t="s">
+      <c r="H132" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I132" s="26" t="s">
+      <c r="I132" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J132" s="9" t="s">
@@ -10095,13 +10200,13 @@
       <c r="O132" s="1"/>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="16">
+      <c r="A133" s="11">
         <v>132</v>
       </c>
-      <c r="B133" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C133" s="16" t="s">
+      <c r="B133" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C133" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="4" t="s">
@@ -10116,10 +10221,10 @@
       <c r="G133" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H133" s="26" t="s">
+      <c r="H133" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I133" s="26" t="s">
+      <c r="I133" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J133" s="9" t="s">
@@ -10136,13 +10241,13 @@
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="16">
+      <c r="A134" s="11">
         <v>133</v>
       </c>
-      <c r="B134" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C134" s="16" t="s">
+      <c r="B134" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C134" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="4" t="s">
@@ -10157,10 +10262,10 @@
       <c r="G134" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H134" s="26" t="s">
+      <c r="H134" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I134" s="26" t="s">
+      <c r="I134" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J134" s="9" t="s">
@@ -10177,13 +10282,13 @@
       <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="16">
+      <c r="A135" s="11">
         <v>134</v>
       </c>
-      <c r="B135" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C135" s="16" t="s">
+      <c r="B135" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C135" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="4" t="s">
@@ -10198,10 +10303,10 @@
       <c r="G135" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H135" s="26" t="s">
+      <c r="H135" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I135" s="26" t="s">
+      <c r="I135" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J135" s="9" t="s">
@@ -10218,13 +10323,13 @@
       <c r="O135" s="1"/>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="16">
+      <c r="A136" s="11">
         <v>135</v>
       </c>
-      <c r="B136" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C136" s="16" t="s">
+      <c r="B136" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="1"/>
@@ -10237,10 +10342,10 @@
       <c r="G136" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H136" s="26" t="s">
+      <c r="H136" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I136" s="26" t="s">
+      <c r="I136" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J136" s="9" t="s">
@@ -10257,13 +10362,13 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="16">
+      <c r="A137" s="11">
         <v>136</v>
       </c>
-      <c r="B137" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C137" s="16" t="s">
+      <c r="B137" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C137" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="1"/>
@@ -10276,10 +10381,10 @@
       <c r="G137" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H137" s="26" t="s">
+      <c r="H137" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I137" s="26" t="s">
+      <c r="I137" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J137" s="9" t="s">
@@ -10296,13 +10401,13 @@
       <c r="O137" s="1"/>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="16">
+      <c r="A138" s="11">
         <v>137</v>
       </c>
-      <c r="B138" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C138" s="16" t="s">
+      <c r="B138" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C138" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="1"/>
@@ -10315,10 +10420,10 @@
       <c r="G138" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H138" s="26" t="s">
+      <c r="H138" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I138" s="26" t="s">
+      <c r="I138" s="22" t="s">
         <v>76</v>
       </c>
       <c r="J138" s="9" t="s">
@@ -10335,13 +10440,13 @@
       <c r="O138" s="1"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="16">
+      <c r="A139" s="11">
         <v>138</v>
       </c>
-      <c r="B139" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C139" s="16" t="s">
+      <c r="B139" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C139" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="1"/>
@@ -10354,10 +10459,10 @@
       <c r="G139" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H139" s="26" t="s">
+      <c r="H139" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I139" s="26" t="s">
+      <c r="I139" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J139" s="9" t="s">
@@ -10376,13 +10481,13 @@
       <c r="O139" s="1"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="16">
+      <c r="A140" s="11">
         <v>139</v>
       </c>
-      <c r="B140" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C140" s="16" t="s">
+      <c r="B140" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C140" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="1"/>
@@ -10395,10 +10500,10 @@
       <c r="G140" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H140" s="26" t="s">
+      <c r="H140" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I140" s="26" t="s">
+      <c r="I140" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J140" s="9" t="s">
@@ -10415,13 +10520,13 @@
       <c r="O140" s="1"/>
     </row>
     <row r="141" spans="1:15">
-      <c r="A141" s="16">
+      <c r="A141" s="11">
         <v>140</v>
       </c>
-      <c r="B141" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C141" s="16" t="s">
+      <c r="B141" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C141" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="4" t="s">
@@ -10456,13 +10561,13 @@
       <c r="O141" s="1"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="16">
+      <c r="A142" s="11">
         <v>141</v>
       </c>
-      <c r="B142" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C142" s="16" t="s">
+      <c r="B142" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C142" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="1"/>
@@ -10495,13 +10600,13 @@
       <c r="O142" s="1"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="16">
+      <c r="A143" s="11">
         <v>142</v>
       </c>
-      <c r="B143" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C143" s="16" t="s">
+      <c r="B143" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="1"/>
@@ -10534,13 +10639,13 @@
       <c r="O143" s="1"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="16">
+      <c r="A144" s="11">
         <v>143</v>
       </c>
-      <c r="B144" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C144" s="16" t="s">
+      <c r="B144" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="1"/>
@@ -10573,13 +10678,13 @@
       <c r="O144" s="1"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="16">
+      <c r="A145" s="11">
         <v>144</v>
       </c>
-      <c r="B145" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C145" s="16" t="s">
+      <c r="B145" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="1"/>
@@ -10612,13 +10717,13 @@
       <c r="O145" s="1"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="16">
+      <c r="A146" s="11">
         <v>145</v>
       </c>
-      <c r="B146" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C146" s="16" t="s">
+      <c r="B146" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="1"/>
@@ -10651,13 +10756,13 @@
       <c r="O146" s="1"/>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="16">
+      <c r="A147" s="11">
         <v>146</v>
       </c>
-      <c r="B147" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C147" s="16" t="s">
+      <c r="B147" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="1"/>
@@ -10690,13 +10795,13 @@
       <c r="O147" s="1"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="16">
+      <c r="A148" s="11">
         <v>147</v>
       </c>
-      <c r="B148" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C148" s="16" t="s">
+      <c r="B148" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="1"/>
@@ -10729,13 +10834,13 @@
       <c r="O148" s="1"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="16">
+      <c r="A149" s="11">
         <v>148</v>
       </c>
-      <c r="B149" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C149" s="16" t="s">
+      <c r="B149" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C149" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="1"/>
@@ -10768,13 +10873,13 @@
       <c r="O149" s="1"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="16">
+      <c r="A150" s="11">
         <v>149</v>
       </c>
-      <c r="B150" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C150" s="16" t="s">
+      <c r="B150" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="1"/>
@@ -10807,13 +10912,13 @@
       <c r="O150" s="1"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="16">
+      <c r="A151" s="11">
         <v>150</v>
       </c>
-      <c r="B151" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C151" s="16" t="s">
+      <c r="B151" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="1"/>
@@ -10846,13 +10951,13 @@
       <c r="O151" s="1"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="16">
+      <c r="A152" s="11">
         <v>151</v>
       </c>
-      <c r="B152" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C152" s="16" t="s">
+      <c r="B152" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="1"/>
@@ -10885,13 +10990,13 @@
       <c r="O152" s="1"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="16">
+      <c r="A153" s="11">
         <v>152</v>
       </c>
-      <c r="B153" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C153" s="16" t="s">
+      <c r="B153" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="4" t="s">
@@ -10926,13 +11031,13 @@
       <c r="O153" s="1"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="16">
+      <c r="A154" s="11">
         <v>153</v>
       </c>
-      <c r="B154" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C154" s="16" t="s">
+      <c r="B154" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="1"/>
@@ -10965,13 +11070,13 @@
       <c r="O154" s="1"/>
     </row>
     <row r="155" spans="1:15">
-      <c r="A155" s="16">
+      <c r="A155" s="11">
         <v>154</v>
       </c>
-      <c r="B155" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C155" s="16" t="s">
+      <c r="B155" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C155" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="1"/>
@@ -11004,13 +11109,13 @@
       <c r="O155" s="1"/>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="16">
+      <c r="A156" s="11">
         <v>155</v>
       </c>
-      <c r="B156" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C156" s="16" t="s">
+      <c r="B156" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C156" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="1"/>
@@ -11043,13 +11148,13 @@
       <c r="O156" s="1"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="A157" s="16">
+      <c r="A157" s="11">
         <v>156</v>
       </c>
-      <c r="B157" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C157" s="16" t="s">
+      <c r="B157" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C157" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="4" t="s">
@@ -11084,13 +11189,13 @@
       <c r="O157" s="1"/>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="16">
+      <c r="A158" s="11">
         <v>157</v>
       </c>
-      <c r="B158" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C158" s="16" t="s">
+      <c r="B158" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C158" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="4" t="s">
@@ -11125,13 +11230,13 @@
       <c r="O158" s="1"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="16">
+      <c r="A159" s="11">
         <v>158</v>
       </c>
-      <c r="B159" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C159" s="16" t="s">
+      <c r="B159" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C159" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="1"/>
@@ -11164,13 +11269,13 @@
       <c r="O159" s="1"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="16">
+      <c r="A160" s="11">
         <v>159</v>
       </c>
-      <c r="B160" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C160" s="16" t="s">
+      <c r="B160" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C160" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D160" s="1"/>
@@ -11203,13 +11308,13 @@
       <c r="O160" s="1"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="16">
+      <c r="A161" s="11">
         <v>160</v>
       </c>
-      <c r="B161" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C161" s="16" t="s">
+      <c r="B161" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C161" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="1"/>
@@ -11245,10 +11350,10 @@
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C162" s="16" t="s">
+      <c r="B162" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C162" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="1"/>
@@ -11270,26 +11375,24 @@
       <c r="J162" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="K162" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1">
         <v>0</v>
       </c>
       <c r="N162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O162" s="1"/>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="16">
+      <c r="A163" s="11">
         <v>162</v>
       </c>
-      <c r="B163" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C163" s="16" t="s">
+      <c r="B163" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C163" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -11327,10 +11430,10 @@
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C164" s="16" t="s">
+      <c r="B164" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C164" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="1"/>
@@ -11363,13 +11466,13 @@
       <c r="O164" s="1"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="16">
+      <c r="A165" s="11">
         <v>164</v>
       </c>
-      <c r="B165" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C165" s="16" t="s">
+      <c r="B165" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C165" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D165" s="1"/>
@@ -11405,10 +11508,10 @@
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C166" s="16" t="s">
+      <c r="B166" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C166" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="1"/>
@@ -11441,13 +11544,13 @@
       <c r="O166" s="1"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="16">
+      <c r="A167" s="11">
         <v>166</v>
       </c>
-      <c r="B167" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C167" s="16" t="s">
+      <c r="B167" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C167" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="1"/>
@@ -11483,10 +11586,10 @@
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C168" s="16" t="s">
+      <c r="B168" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C168" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="1"/>
@@ -11519,13 +11622,13 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="16">
+      <c r="A169" s="11">
         <v>168</v>
       </c>
-      <c r="B169" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C169" s="16" t="s">
+      <c r="B169" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D169" s="1"/>
@@ -11561,10 +11664,10 @@
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C170" s="16" t="s">
+      <c r="B170" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C170" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D170" s="1"/>
@@ -11597,13 +11700,13 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="16">
+      <c r="A171" s="11">
         <v>170</v>
       </c>
-      <c r="B171" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C171" s="16" t="s">
+      <c r="B171" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C171" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -11641,10 +11744,10 @@
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C172" s="16" t="s">
+      <c r="B172" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C172" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -11679,13 +11782,13 @@
       <c r="O172" s="1"/>
     </row>
     <row r="173" spans="1:15">
-      <c r="A173" s="16">
+      <c r="A173" s="11">
         <v>172</v>
       </c>
-      <c r="B173" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C173" s="16" t="s">
+      <c r="B173" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -11723,10 +11826,10 @@
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C174" s="16" t="s">
+      <c r="B174" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C174" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -11761,10 +11864,10 @@
       <c r="O174" s="1"/>
     </row>
     <row r="175" spans="1:15">
-      <c r="A175" s="16">
+      <c r="A175" s="11">
         <v>174</v>
       </c>
-      <c r="B175" s="16">
+      <c r="B175" s="11">
         <v>430005</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -11803,7 +11906,7 @@
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="16">
+      <c r="B176" s="11">
         <v>430005</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -11839,10 +11942,10 @@
       <c r="O176" s="1"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="16">
+      <c r="A177" s="11">
         <v>176</v>
       </c>
-      <c r="B177" s="16">
+      <c r="B177" s="11">
         <v>430005</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -11883,7 +11986,7 @@
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="16">
+      <c r="B178" s="11">
         <v>430005</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -11919,10 +12022,10 @@
       <c r="O178" s="1"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="16">
+      <c r="A179" s="11">
         <v>178</v>
       </c>
-      <c r="B179" s="16">
+      <c r="B179" s="11">
         <v>430005</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -11961,7 +12064,7 @@
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="16">
+      <c r="B180" s="11">
         <v>430005</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -11997,10 +12100,10 @@
       <c r="O180" s="1"/>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="16">
+      <c r="A181" s="11">
         <v>180</v>
       </c>
-      <c r="B181" s="16">
+      <c r="B181" s="11">
         <v>430005</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -12039,7 +12142,7 @@
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="16">
+      <c r="B182" s="11">
         <v>430005</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -12075,10 +12178,10 @@
       <c r="O182" s="1"/>
     </row>
     <row r="183" spans="1:15">
-      <c r="A183" s="16">
+      <c r="A183" s="11">
         <v>182</v>
       </c>
-      <c r="B183" s="16">
+      <c r="B183" s="11">
         <v>430005</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -12117,7 +12220,7 @@
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="16">
+      <c r="B184" s="11">
         <v>430005</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -12153,10 +12256,10 @@
       <c r="O184" s="1"/>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="16">
+      <c r="A185" s="11">
         <v>184</v>
       </c>
-      <c r="B185" s="16">
+      <c r="B185" s="11">
         <v>430005</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -12195,7 +12298,7 @@
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="16">
+      <c r="B186" s="11">
         <v>430005</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -12231,10 +12334,10 @@
       <c r="O186" s="1"/>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="16">
+      <c r="A187" s="11">
         <v>186</v>
       </c>
-      <c r="B187" s="16">
+      <c r="B187" s="11">
         <v>430005</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -12273,7 +12376,7 @@
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="16">
+      <c r="B188" s="11">
         <v>430005</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -12309,10 +12412,10 @@
       <c r="O188" s="1"/>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="16">
+      <c r="A189" s="11">
         <v>188</v>
       </c>
-      <c r="B189" s="16">
+      <c r="B189" s="11">
         <v>430005</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -12355,7 +12458,7 @@
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="16">
+      <c r="B190" s="11">
         <v>430005</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -12393,10 +12496,10 @@
       <c r="O190" s="1"/>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="16">
+      <c r="A191" s="11">
         <v>190</v>
       </c>
-      <c r="B191" s="16">
+      <c r="B191" s="11">
         <v>430005</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -12437,7 +12540,7 @@
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="16">
+      <c r="B192" s="11">
         <v>430005</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -12475,10 +12578,10 @@
       <c r="O192" s="1"/>
     </row>
     <row r="193" spans="1:15">
-      <c r="A193" s="16">
+      <c r="A193" s="11">
         <v>192</v>
       </c>
-      <c r="B193" s="16">
+      <c r="B193" s="11">
         <v>430005</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -12517,7 +12620,7 @@
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="16">
+      <c r="B194" s="11">
         <v>430005</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -12553,10 +12656,10 @@
       <c r="O194" s="1"/>
     </row>
     <row r="195" spans="1:15">
-      <c r="A195" s="16">
+      <c r="A195" s="11">
         <v>194</v>
       </c>
-      <c r="B195" s="16">
+      <c r="B195" s="11">
         <v>430005</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -12595,7 +12698,7 @@
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="16">
+      <c r="B196" s="11">
         <v>430005</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -12633,10 +12736,10 @@
       <c r="O196" s="1"/>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="16">
+      <c r="A197" s="11">
         <v>196</v>
       </c>
-      <c r="B197" s="16">
+      <c r="B197" s="11">
         <v>430005</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -12677,7 +12780,7 @@
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="16">
+      <c r="B198" s="11">
         <v>430005</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -12715,10 +12818,10 @@
       <c r="O198" s="1"/>
     </row>
     <row r="199" spans="1:15">
-      <c r="A199" s="16">
+      <c r="A199" s="11">
         <v>198</v>
       </c>
-      <c r="B199" s="16">
+      <c r="B199" s="11">
         <v>430005</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -12757,7 +12860,7 @@
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200" s="16">
+      <c r="B200" s="11">
         <v>430005</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -12793,10 +12896,10 @@
       <c r="O200" s="1"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="16">
+      <c r="A201" s="11">
         <v>200</v>
       </c>
-      <c r="B201" s="16">
+      <c r="B201" s="11">
         <v>430005</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -12835,7 +12938,7 @@
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="16">
+      <c r="B202" s="11">
         <v>430005</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -12873,10 +12976,10 @@
       <c r="O202" s="1"/>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="16">
+      <c r="A203" s="11">
         <v>202</v>
       </c>
-      <c r="B203" s="16">
+      <c r="B203" s="11">
         <v>430005</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -12917,7 +13020,7 @@
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="16">
+      <c r="B204" s="11">
         <v>430005</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -12953,10 +13056,10 @@
       <c r="O204" s="1"/>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="16">
+      <c r="A205" s="11">
         <v>204</v>
       </c>
-      <c r="B205" s="16">
+      <c r="B205" s="11">
         <v>430005</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -12995,7 +13098,7 @@
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="16">
+      <c r="B206" s="11">
         <v>430005</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -13031,10 +13134,10 @@
       <c r="O206" s="1"/>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="16">
+      <c r="A207" s="11">
         <v>206</v>
       </c>
-      <c r="B207" s="16">
+      <c r="B207" s="11">
         <v>430005</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -13073,7 +13176,7 @@
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="16">
+      <c r="B208" s="11">
         <v>430005</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -13109,10 +13212,10 @@
       <c r="O208" s="1"/>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="16">
+      <c r="A209" s="11">
         <v>208</v>
       </c>
-      <c r="B209" s="16">
+      <c r="B209" s="11">
         <v>430005</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -13151,7 +13254,7 @@
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="16">
+      <c r="B210" s="11">
         <v>430005</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -13187,10 +13290,10 @@
       <c r="O210" s="1"/>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="16">
+      <c r="A211" s="11">
         <v>210</v>
       </c>
-      <c r="B211" s="16">
+      <c r="B211" s="11">
         <v>430005</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -13229,7 +13332,7 @@
       <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212" s="16">
+      <c r="B212" s="11">
         <v>430005</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -13265,10 +13368,10 @@
       <c r="O212" s="1"/>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="16">
+      <c r="A213" s="11">
         <v>212</v>
       </c>
-      <c r="B213" s="16">
+      <c r="B213" s="11">
         <v>430005</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -13307,7 +13410,7 @@
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="16">
+      <c r="B214" s="11">
         <v>430005</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -13343,10 +13446,10 @@
       <c r="O214" s="1"/>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="16">
+      <c r="A215" s="11">
         <v>214</v>
       </c>
-      <c r="B215" s="16">
+      <c r="B215" s="11">
         <v>430005</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -13385,7 +13488,7 @@
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="16">
+      <c r="B216" s="11">
         <v>430005</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -13423,10 +13526,10 @@
       <c r="O216" s="1"/>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="16">
+      <c r="A217" s="11">
         <v>216</v>
       </c>
-      <c r="B217" s="16">
+      <c r="B217" s="11">
         <v>430005</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -13467,7 +13570,7 @@
       <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218" s="16">
+      <c r="B218" s="11">
         <v>430005</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -13505,10 +13608,10 @@
       <c r="O218" s="1"/>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="16">
+      <c r="A219" s="11">
         <v>218</v>
       </c>
-      <c r="B219" s="16">
+      <c r="B219" s="11">
         <v>430005</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -13547,7 +13650,7 @@
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="16">
+      <c r="B220" s="11">
         <v>430005</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -13583,10 +13686,10 @@
       <c r="O220" s="1"/>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="16">
+      <c r="A221" s="11">
         <v>220</v>
       </c>
-      <c r="B221" s="16">
+      <c r="B221" s="11">
         <v>430005</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -13625,7 +13728,7 @@
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="16">
+      <c r="B222" s="11">
         <v>430005</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -13661,10 +13764,10 @@
       <c r="O222" s="1"/>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="16">
+      <c r="A223" s="11">
         <v>222</v>
       </c>
-      <c r="B223" s="16">
+      <c r="B223" s="11">
         <v>430005</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -13703,7 +13806,7 @@
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="16">
+      <c r="B224" s="11">
         <v>430005</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -13739,10 +13842,10 @@
       <c r="O224" s="1"/>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="16">
+      <c r="A225" s="11">
         <v>224</v>
       </c>
-      <c r="B225" s="16">
+      <c r="B225" s="11">
         <v>430005</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -13783,7 +13886,7 @@
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="16">
+      <c r="B226" s="11">
         <v>430005</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -13819,10 +13922,10 @@
       <c r="O226" s="1"/>
     </row>
     <row r="227" spans="1:15">
-      <c r="A227" s="16">
+      <c r="A227" s="11">
         <v>226</v>
       </c>
-      <c r="B227" s="16">
+      <c r="B227" s="11">
         <v>430005</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -13861,7 +13964,7 @@
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="16">
+      <c r="B228" s="11">
         <v>430005</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -13897,10 +14000,10 @@
       <c r="O228" s="1"/>
     </row>
     <row r="229" spans="1:15">
-      <c r="A229" s="16">
+      <c r="A229" s="11">
         <v>228</v>
       </c>
-      <c r="B229" s="16">
+      <c r="B229" s="11">
         <v>430005</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -13939,7 +14042,7 @@
       <c r="A230" s="1">
         <v>229</v>
       </c>
-      <c r="B230" s="16">
+      <c r="B230" s="11">
         <v>430005</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -13975,10 +14078,10 @@
       <c r="O230" s="1"/>
     </row>
     <row r="231" spans="1:15">
-      <c r="A231" s="16">
+      <c r="A231" s="11">
         <v>230</v>
       </c>
-      <c r="B231" s="16">
+      <c r="B231" s="11">
         <v>430005</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -14017,7 +14120,7 @@
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="16">
+      <c r="B232" s="11">
         <v>430005</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -14053,10 +14156,10 @@
       <c r="O232" s="1"/>
     </row>
     <row r="233" spans="1:15">
-      <c r="A233" s="16">
+      <c r="A233" s="11">
         <v>232</v>
       </c>
-      <c r="B233" s="16">
+      <c r="B233" s="11">
         <v>430005</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -14095,7 +14198,7 @@
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="16">
+      <c r="B234" s="11">
         <v>430005</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -14131,10 +14234,10 @@
       <c r="O234" s="1"/>
     </row>
     <row r="235" spans="1:15">
-      <c r="A235" s="16">
+      <c r="A235" s="11">
         <v>234</v>
       </c>
-      <c r="B235" s="16">
+      <c r="B235" s="11">
         <v>430005</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -14173,7 +14276,7 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="16">
+      <c r="B236" s="11">
         <v>430005</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -14209,10 +14312,10 @@
       <c r="O236" s="1"/>
     </row>
     <row r="237" spans="1:15">
-      <c r="A237" s="16">
+      <c r="A237" s="11">
         <v>236</v>
       </c>
-      <c r="B237" s="16">
+      <c r="B237" s="11">
         <v>430005</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -14251,7 +14354,7 @@
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="16">
+      <c r="B238" s="11">
         <v>430005</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -14289,10 +14392,10 @@
       <c r="O238" s="1"/>
     </row>
     <row r="239" spans="1:15">
-      <c r="A239" s="16">
+      <c r="A239" s="11">
         <v>238</v>
       </c>
-      <c r="B239" s="16">
+      <c r="B239" s="11">
         <v>430005</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -14331,7 +14434,7 @@
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="16">
+      <c r="B240" s="11">
         <v>430005</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -14367,10 +14470,10 @@
       <c r="O240" s="1"/>
     </row>
     <row r="241" spans="1:15">
-      <c r="A241" s="16">
+      <c r="A241" s="11">
         <v>240</v>
       </c>
-      <c r="B241" s="16">
+      <c r="B241" s="11">
         <v>430005</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -14409,7 +14512,7 @@
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="16">
+      <c r="B242" s="11">
         <v>430005</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -14445,10 +14548,10 @@
       <c r="O242" s="1"/>
     </row>
     <row r="243" spans="1:15">
-      <c r="A243" s="16">
+      <c r="A243" s="11">
         <v>242</v>
       </c>
-      <c r="B243" s="16">
+      <c r="B243" s="11">
         <v>430005</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -14489,7 +14592,7 @@
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="16">
+      <c r="B244" s="11">
         <v>430005</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -14527,10 +14630,10 @@
       <c r="O244" s="1"/>
     </row>
     <row r="245" spans="1:15">
-      <c r="A245" s="16">
+      <c r="A245" s="11">
         <v>244</v>
       </c>
-      <c r="B245" s="16">
+      <c r="B245" s="11">
         <v>430005</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -14569,7 +14672,7 @@
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="16">
+      <c r="B246" s="11">
         <v>430005</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -14605,10 +14708,10 @@
       <c r="O246" s="1"/>
     </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="16">
+      <c r="A247" s="11">
         <v>246</v>
       </c>
-      <c r="B247" s="16">
+      <c r="B247" s="11">
         <v>430005</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -14647,7 +14750,7 @@
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="16">
+      <c r="B248" s="11">
         <v>430005</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -14683,10 +14786,10 @@
       <c r="O248" s="1"/>
     </row>
     <row r="249" spans="1:15">
-      <c r="A249" s="16">
+      <c r="A249" s="11">
         <v>248</v>
       </c>
-      <c r="B249" s="16">
+      <c r="B249" s="11">
         <v>430005</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -14725,7 +14828,7 @@
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="16">
+      <c r="B250" s="11">
         <v>430005</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -14763,10 +14866,10 @@
       <c r="O250" s="1"/>
     </row>
     <row r="251" spans="1:15">
-      <c r="A251" s="16">
+      <c r="A251" s="11">
         <v>250</v>
       </c>
-      <c r="B251" s="16">
+      <c r="B251" s="11">
         <v>430005</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -14805,7 +14908,7 @@
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="16">
+      <c r="B252" s="11">
         <v>430005</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -14841,10 +14944,10 @@
       <c r="O252" s="1"/>
     </row>
     <row r="253" spans="1:15">
-      <c r="A253" s="16">
+      <c r="A253" s="11">
         <v>252</v>
       </c>
-      <c r="B253" s="16">
+      <c r="B253" s="11">
         <v>430005</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -14883,7 +14986,7 @@
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="16">
+      <c r="B254" s="11">
         <v>430005</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -14919,10 +15022,10 @@
       <c r="O254" s="1"/>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="16">
+      <c r="A255" s="11">
         <v>254</v>
       </c>
-      <c r="B255" s="16">
+      <c r="B255" s="11">
         <v>430005</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -14961,7 +15064,7 @@
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="16">
+      <c r="B256" s="11">
         <v>430005</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -14997,10 +15100,10 @@
       <c r="O256" s="1"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="16">
+      <c r="A257" s="11">
         <v>256</v>
       </c>
-      <c r="B257" s="16">
+      <c r="B257" s="11">
         <v>430005</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -15039,7 +15142,7 @@
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="16">
+      <c r="B258" s="11">
         <v>430005</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -15075,10 +15178,10 @@
       <c r="O258" s="1"/>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="16">
+      <c r="A259" s="11">
         <v>258</v>
       </c>
-      <c r="B259" s="16">
+      <c r="B259" s="11">
         <v>430005</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -15117,7 +15220,7 @@
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="16">
+      <c r="B260" s="11">
         <v>430005</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -15153,10 +15256,10 @@
       <c r="O260" s="1"/>
     </row>
     <row r="261" spans="1:15">
-      <c r="A261" s="16">
+      <c r="A261" s="11">
         <v>260</v>
       </c>
-      <c r="B261" s="16">
+      <c r="B261" s="11">
         <v>430005</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -15195,7 +15298,7 @@
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="16">
+      <c r="B262" s="11">
         <v>430005</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -15231,10 +15334,10 @@
       <c r="O262" s="1"/>
     </row>
     <row r="263" spans="1:15">
-      <c r="A263" s="16">
+      <c r="A263" s="11">
         <v>262</v>
       </c>
-      <c r="B263" s="16">
+      <c r="B263" s="11">
         <v>430005</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -15273,7 +15376,7 @@
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="16">
+      <c r="B264" s="11">
         <v>430005</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -15309,10 +15412,10 @@
       <c r="O264" s="1"/>
     </row>
     <row r="265" spans="1:15">
-      <c r="A265" s="16">
+      <c r="A265" s="11">
         <v>264</v>
       </c>
-      <c r="B265" s="16">
+      <c r="B265" s="11">
         <v>430005</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -15351,7 +15454,7 @@
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="16">
+      <c r="B266" s="11">
         <v>430005</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -15387,10 +15490,10 @@
       <c r="O266" s="1"/>
     </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="16">
+      <c r="A267" s="11">
         <v>266</v>
       </c>
-      <c r="B267" s="16">
+      <c r="B267" s="11">
         <v>430005</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -15429,7 +15532,7 @@
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="16">
+      <c r="B268" s="11">
         <v>430005</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -15465,10 +15568,10 @@
       <c r="O268" s="1"/>
     </row>
     <row r="269" spans="1:15">
-      <c r="A269" s="16">
+      <c r="A269" s="11">
         <v>268</v>
       </c>
-      <c r="B269" s="16">
+      <c r="B269" s="11">
         <v>430005</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -15507,7 +15610,7 @@
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="16">
+      <c r="B270" s="11">
         <v>430005</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -15546,7 +15649,7 @@
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="16">
+      <c r="B271" s="11">
         <v>430005</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -15587,7 +15690,7 @@
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="16">
+      <c r="B272" s="11">
         <v>430005</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -15626,7 +15729,7 @@
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="16">
+      <c r="B273" s="11">
         <v>430005</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -15665,7 +15768,7 @@
       <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274" s="16">
+      <c r="B274" s="11">
         <v>430005</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -15704,7 +15807,7 @@
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="16">
+      <c r="B275" s="11">
         <v>430005</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -15745,7 +15848,7 @@
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="16">
+      <c r="B276" s="11">
         <v>430005</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -15786,7 +15889,7 @@
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="16">
+      <c r="B277" s="11">
         <v>430005</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -15827,7 +15930,7 @@
       <c r="A278" s="1">
         <v>277</v>
       </c>
-      <c r="B278" s="16">
+      <c r="B278" s="11">
         <v>430005</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -15868,7 +15971,7 @@
       <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279" s="16">
+      <c r="B279" s="11">
         <v>430005</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -15909,7 +16012,7 @@
       <c r="A280" s="1">
         <v>279</v>
       </c>
-      <c r="B280" s="16">
+      <c r="B280" s="11">
         <v>430005</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -15950,7 +16053,7 @@
       <c r="A281" s="1">
         <v>280</v>
       </c>
-      <c r="B281" s="16">
+      <c r="B281" s="11">
         <v>430005</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -15991,7 +16094,7 @@
       <c r="A282" s="1">
         <v>281</v>
       </c>
-      <c r="B282" s="16">
+      <c r="B282" s="11">
         <v>430005</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -16030,7 +16133,7 @@
       <c r="A283" s="1">
         <v>282</v>
       </c>
-      <c r="B283" s="16">
+      <c r="B283" s="11">
         <v>430005</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -16069,7 +16172,7 @@
       <c r="A284" s="1">
         <v>283</v>
       </c>
-      <c r="B284" s="16">
+      <c r="B284" s="11">
         <v>430005</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -16108,7 +16211,7 @@
       <c r="A285" s="1">
         <v>284</v>
       </c>
-      <c r="B285" s="16">
+      <c r="B285" s="11">
         <v>430005</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -16147,7 +16250,7 @@
       <c r="A286" s="1">
         <v>285</v>
       </c>
-      <c r="B286" s="16">
+      <c r="B286" s="11">
         <v>430005</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -16186,7 +16289,7 @@
       <c r="A287" s="1">
         <v>286</v>
       </c>
-      <c r="B287" s="16">
+      <c r="B287" s="11">
         <v>430005</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -16225,7 +16328,7 @@
       <c r="A288" s="1">
         <v>287</v>
       </c>
-      <c r="B288" s="16">
+      <c r="B288" s="11">
         <v>430005</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -16264,7 +16367,7 @@
       <c r="A289" s="1">
         <v>288</v>
       </c>
-      <c r="B289" s="16">
+      <c r="B289" s="11">
         <v>430005</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -16303,7 +16406,7 @@
       <c r="A290" s="1">
         <v>289</v>
       </c>
-      <c r="B290" s="16">
+      <c r="B290" s="11">
         <v>430005</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -16342,7 +16445,7 @@
       <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291" s="16">
+      <c r="B291" s="11">
         <v>430005</v>
       </c>
       <c r="C291" s="1" t="s">
@@ -16383,7 +16486,7 @@
       <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292" s="16">
+      <c r="B292" s="11">
         <v>430005</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -16422,7 +16525,7 @@
       <c r="A293" s="1">
         <v>292</v>
       </c>
-      <c r="B293" s="16">
+      <c r="B293" s="11">
         <v>430005</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -16461,7 +16564,7 @@
       <c r="A294" s="1">
         <v>293</v>
       </c>
-      <c r="B294" s="16">
+      <c r="B294" s="11">
         <v>430005</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -16500,7 +16603,7 @@
       <c r="A295" s="1">
         <v>294</v>
       </c>
-      <c r="B295" s="16">
+      <c r="B295" s="11">
         <v>430005</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -16539,7 +16642,7 @@
       <c r="A296" s="1">
         <v>295</v>
       </c>
-      <c r="B296" s="16">
+      <c r="B296" s="11">
         <v>430005</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -16578,7 +16681,7 @@
       <c r="A297" s="1">
         <v>296</v>
       </c>
-      <c r="B297" s="16">
+      <c r="B297" s="11">
         <v>430005</v>
       </c>
       <c r="C297" s="1" t="s">
@@ -16617,7 +16720,7 @@
       <c r="A298" s="1">
         <v>297</v>
       </c>
-      <c r="B298" s="16">
+      <c r="B298" s="11">
         <v>430005</v>
       </c>
       <c r="C298" s="1" t="s">
@@ -16656,7 +16759,7 @@
       <c r="A299" s="1">
         <v>298</v>
       </c>
-      <c r="B299" s="16">
+      <c r="B299" s="11">
         <v>430005</v>
       </c>
       <c r="C299" s="1" t="s">
@@ -16697,7 +16800,7 @@
       <c r="A300" s="1">
         <v>299</v>
       </c>
-      <c r="B300" s="16">
+      <c r="B300" s="11">
         <v>430005</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -16736,7 +16839,7 @@
       <c r="A301" s="1">
         <v>300</v>
       </c>
-      <c r="B301" s="16">
+      <c r="B301" s="11">
         <v>430005</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -16775,7 +16878,7 @@
       <c r="A302" s="1">
         <v>301</v>
       </c>
-      <c r="B302" s="16">
+      <c r="B302" s="11">
         <v>430005</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -16814,7 +16917,7 @@
       <c r="A303" s="1">
         <v>302</v>
       </c>
-      <c r="B303" s="16">
+      <c r="B303" s="11">
         <v>430005</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -16853,7 +16956,7 @@
       <c r="A304" s="1">
         <v>303</v>
       </c>
-      <c r="B304" s="16">
+      <c r="B304" s="11">
         <v>430005</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -16892,7 +16995,7 @@
       <c r="A305" s="1">
         <v>304</v>
       </c>
-      <c r="B305" s="16">
+      <c r="B305" s="11">
         <v>430005</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -16931,7 +17034,7 @@
       <c r="A306" s="1">
         <v>305</v>
       </c>
-      <c r="B306" s="16">
+      <c r="B306" s="11">
         <v>430005</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -16970,7 +17073,7 @@
       <c r="A307" s="1">
         <v>306</v>
       </c>
-      <c r="B307" s="16">
+      <c r="B307" s="11">
         <v>430005</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -17009,7 +17112,7 @@
       <c r="A308" s="1">
         <v>307</v>
       </c>
-      <c r="B308" s="16">
+      <c r="B308" s="11">
         <v>430005</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -17048,7 +17151,7 @@
       <c r="A309" s="1">
         <v>308</v>
       </c>
-      <c r="B309" s="16">
+      <c r="B309" s="11">
         <v>430005</v>
       </c>
       <c r="C309" s="1" t="s">
@@ -17087,7 +17190,7 @@
       <c r="A310" s="1">
         <v>309</v>
       </c>
-      <c r="B310" s="16">
+      <c r="B310" s="11">
         <v>430005</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -17126,7 +17229,7 @@
       <c r="A311" s="1">
         <v>310</v>
       </c>
-      <c r="B311" s="16">
+      <c r="B311" s="11">
         <v>430005</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -17165,7 +17268,7 @@
       <c r="A312" s="1">
         <v>311</v>
       </c>
-      <c r="B312" s="16">
+      <c r="B312" s="11">
         <v>430005</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -17206,7 +17309,7 @@
       <c r="A313" s="1">
         <v>312</v>
       </c>
-      <c r="B313" s="16">
+      <c r="B313" s="11">
         <v>430005</v>
       </c>
       <c r="C313" s="1" t="s">
@@ -17245,7 +17348,7 @@
       <c r="A314" s="1">
         <v>313</v>
       </c>
-      <c r="B314" s="16">
+      <c r="B314" s="11">
         <v>430005</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -17284,7 +17387,7 @@
       <c r="A315" s="1">
         <v>314</v>
       </c>
-      <c r="B315" s="16">
+      <c r="B315" s="11">
         <v>430005</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -17325,7 +17428,7 @@
       <c r="A316" s="1">
         <v>315</v>
       </c>
-      <c r="B316" s="16">
+      <c r="B316" s="11">
         <v>430005</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -17366,7 +17469,7 @@
       <c r="A317" s="1">
         <v>316</v>
       </c>
-      <c r="B317" s="16">
+      <c r="B317" s="11">
         <v>430005</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -17407,7 +17510,7 @@
       <c r="A318" s="1">
         <v>317</v>
       </c>
-      <c r="B318" s="16">
+      <c r="B318" s="11">
         <v>430005</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -17448,7 +17551,7 @@
       <c r="A319" s="1">
         <v>318</v>
       </c>
-      <c r="B319" s="16">
+      <c r="B319" s="11">
         <v>430005</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -17489,7 +17592,7 @@
       <c r="A320" s="1">
         <v>319</v>
       </c>
-      <c r="B320" s="16">
+      <c r="B320" s="11">
         <v>430005</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -17530,7 +17633,7 @@
       <c r="A321" s="1">
         <v>320</v>
       </c>
-      <c r="B321" s="16">
+      <c r="B321" s="11">
         <v>430005</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -17571,7 +17674,7 @@
       <c r="A322" s="1">
         <v>321</v>
       </c>
-      <c r="B322" s="16">
+      <c r="B322" s="11">
         <v>430005</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -17612,7 +17715,7 @@
       <c r="A323" s="1">
         <v>322</v>
       </c>
-      <c r="B323" s="16">
+      <c r="B323" s="11">
         <v>430005</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -17653,7 +17756,7 @@
       <c r="A324" s="1">
         <v>323</v>
       </c>
-      <c r="B324" s="16">
+      <c r="B324" s="11">
         <v>430005</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -17692,7 +17795,7 @@
       <c r="A325" s="1">
         <v>324</v>
       </c>
-      <c r="B325" s="16">
+      <c r="B325" s="11">
         <v>430005</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -17731,7 +17834,7 @@
       <c r="A326" s="1">
         <v>325</v>
       </c>
-      <c r="B326" s="16">
+      <c r="B326" s="11">
         <v>430005</v>
       </c>
       <c r="C326" s="1" t="s">
@@ -17770,7 +17873,7 @@
       <c r="A327" s="1">
         <v>326</v>
       </c>
-      <c r="B327" s="16">
+      <c r="B327" s="11">
         <v>430005</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -17809,7 +17912,7 @@
       <c r="A328" s="1">
         <v>327</v>
       </c>
-      <c r="B328" s="16">
+      <c r="B328" s="11">
         <v>430005</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -17848,7 +17951,7 @@
       <c r="A329" s="1">
         <v>328</v>
       </c>
-      <c r="B329" s="16">
+      <c r="B329" s="11">
         <v>430005</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -17889,7 +17992,7 @@
       <c r="A330" s="1">
         <v>329</v>
       </c>
-      <c r="B330" s="16">
+      <c r="B330" s="11">
         <v>430005</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -17930,7 +18033,7 @@
       <c r="A331" s="1">
         <v>330</v>
       </c>
-      <c r="B331" s="16">
+      <c r="B331" s="11">
         <v>430005</v>
       </c>
       <c r="C331" s="1" t="s">
@@ -17971,7 +18074,7 @@
       <c r="A332" s="1">
         <v>331</v>
       </c>
-      <c r="B332" s="16">
+      <c r="B332" s="11">
         <v>430005</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -18012,7 +18115,7 @@
       <c r="A333" s="2">
         <v>332</v>
       </c>
-      <c r="B333" s="17">
+      <c r="B333" s="12">
         <v>430005</v>
       </c>
       <c r="C333" s="2" t="s">
@@ -18021,10 +18124,10 @@
       <c r="D333" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E333" s="18">
+      <c r="E333" s="13">
         <v>44049</v>
       </c>
-      <c r="F333" s="18">
+      <c r="F333" s="13">
         <v>44049</v>
       </c>
       <c r="G333" s="2" t="s">
@@ -18036,7 +18139,7 @@
       <c r="I333" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J333" s="19" t="s">
+      <c r="J333" s="14" t="s">
         <v>38</v>
       </c>
       <c r="K333" s="1"/>
@@ -18053,14 +18156,14 @@
       <c r="A334" s="1">
         <v>333</v>
       </c>
-      <c r="B334" s="17">
+      <c r="B334" s="12">
         <v>430005</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D334" s="1"/>
-      <c r="E334" s="18">
+      <c r="E334" s="13">
         <v>44050</v>
       </c>
       <c r="F334" s="10">
@@ -18092,17 +18195,17 @@
       <c r="A335" s="1">
         <v>334</v>
       </c>
-      <c r="B335" s="17">
+      <c r="B335" s="12">
         <v>430005</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D335" s="1"/>
-      <c r="E335" s="18">
+      <c r="E335" s="13">
         <v>44050</v>
       </c>
-      <c r="F335" s="18">
+      <c r="F335" s="13">
         <v>44049</v>
       </c>
       <c r="G335" s="1" t="s">
@@ -18131,14 +18234,14 @@
       <c r="A336" s="1">
         <v>335</v>
       </c>
-      <c r="B336" s="17">
+      <c r="B336" s="12">
         <v>430005</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D336" s="1"/>
-      <c r="E336" s="18">
+      <c r="E336" s="13">
         <v>44050</v>
       </c>
       <c r="F336" s="10">
@@ -18170,17 +18273,17 @@
       <c r="A337" s="1">
         <v>336</v>
       </c>
-      <c r="B337" s="17">
+      <c r="B337" s="12">
         <v>430005</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D337" s="1"/>
-      <c r="E337" s="18">
+      <c r="E337" s="13">
         <v>44050</v>
       </c>
-      <c r="F337" s="18">
+      <c r="F337" s="13">
         <v>44049</v>
       </c>
       <c r="G337" s="1" t="s">
@@ -18209,14 +18312,14 @@
       <c r="A338" s="1">
         <v>337</v>
       </c>
-      <c r="B338" s="17">
+      <c r="B338" s="12">
         <v>430005</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D338" s="1"/>
-      <c r="E338" s="18">
+      <c r="E338" s="13">
         <v>44050</v>
       </c>
       <c r="F338" s="10">
@@ -18248,14 +18351,14 @@
       <c r="A339" s="1">
         <v>338</v>
       </c>
-      <c r="B339" s="17">
+      <c r="B339" s="12">
         <v>430005</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D339" s="1"/>
-      <c r="E339" s="18">
+      <c r="E339" s="13">
         <v>44050</v>
       </c>
       <c r="F339" s="10">
@@ -18287,14 +18390,14 @@
       <c r="A340" s="1">
         <v>339</v>
       </c>
-      <c r="B340" s="17">
+      <c r="B340" s="12">
         <v>430005</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D340" s="1"/>
-      <c r="E340" s="18">
+      <c r="E340" s="13">
         <v>44050</v>
       </c>
       <c r="F340" s="10">
@@ -18326,7 +18429,7 @@
       <c r="A341" s="1">
         <v>340</v>
       </c>
-      <c r="B341" s="16">
+      <c r="B341" s="11">
         <v>430005</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -18365,7 +18468,7 @@
       <c r="A342" s="1">
         <v>341</v>
       </c>
-      <c r="B342" s="17">
+      <c r="B342" s="12">
         <v>430005</v>
       </c>
       <c r="C342" s="2" t="s">
@@ -18404,7 +18507,7 @@
       <c r="A343" s="1">
         <v>342</v>
       </c>
-      <c r="B343" s="16">
+      <c r="B343" s="11">
         <v>430005</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -18443,7 +18546,7 @@
       <c r="A344" s="1">
         <v>343</v>
       </c>
-      <c r="B344" s="17">
+      <c r="B344" s="12">
         <v>430005</v>
       </c>
       <c r="C344" s="2" t="s">
@@ -18482,7 +18585,7 @@
       <c r="A345" s="1">
         <v>344</v>
       </c>
-      <c r="B345" s="16">
+      <c r="B345" s="11">
         <v>430005</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -18521,7 +18624,7 @@
       <c r="A346" s="1">
         <v>345</v>
       </c>
-      <c r="B346" s="17">
+      <c r="B346" s="12">
         <v>430005</v>
       </c>
       <c r="C346" s="2" t="s">
@@ -18560,7 +18663,7 @@
       <c r="A347" s="1">
         <v>346</v>
       </c>
-      <c r="B347" s="16">
+      <c r="B347" s="11">
         <v>430005</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -18599,7 +18702,7 @@
       <c r="A348" s="1">
         <v>347</v>
       </c>
-      <c r="B348" s="17">
+      <c r="B348" s="12">
         <v>430005</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -18638,7 +18741,7 @@
       <c r="A349" s="1">
         <v>348</v>
       </c>
-      <c r="B349" s="16">
+      <c r="B349" s="11">
         <v>430005</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -18677,7 +18780,7 @@
       <c r="A350" s="1">
         <v>349</v>
       </c>
-      <c r="B350" s="16">
+      <c r="B350" s="11">
         <v>430005</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -18716,7 +18819,7 @@
       <c r="A351" s="1">
         <v>350</v>
       </c>
-      <c r="B351" s="16">
+      <c r="B351" s="11">
         <v>430005</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -18757,7 +18860,7 @@
       <c r="A352" s="1">
         <v>351</v>
       </c>
-      <c r="B352" s="16">
+      <c r="B352" s="11">
         <v>430005</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -18798,7 +18901,7 @@
       <c r="A353" s="1">
         <v>352</v>
       </c>
-      <c r="B353" s="16">
+      <c r="B353" s="11">
         <v>430005</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -18837,7 +18940,7 @@
       <c r="A354" s="1">
         <v>353</v>
       </c>
-      <c r="B354" s="16">
+      <c r="B354" s="11">
         <v>430005</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -18876,7 +18979,7 @@
       <c r="A355" s="1">
         <v>354</v>
       </c>
-      <c r="B355" s="16">
+      <c r="B355" s="11">
         <v>430005</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -18917,7 +19020,7 @@
       <c r="A356" s="1">
         <v>355</v>
       </c>
-      <c r="B356" s="16">
+      <c r="B356" s="11">
         <v>430005</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -18927,7 +19030,7 @@
       <c r="E356" s="10">
         <v>44053</v>
       </c>
-      <c r="F356" s="20">
+      <c r="F356" s="15">
         <v>44052</v>
       </c>
       <c r="G356" s="1" t="s">
@@ -18956,7 +19059,7 @@
       <c r="A357" s="1">
         <v>356</v>
       </c>
-      <c r="B357" s="16">
+      <c r="B357" s="11">
         <v>430005</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -18966,7 +19069,7 @@
       <c r="E357" s="10">
         <v>44053</v>
       </c>
-      <c r="F357" s="20">
+      <c r="F357" s="15">
         <v>44052</v>
       </c>
       <c r="G357" s="1" t="s">
@@ -18995,7 +19098,7 @@
       <c r="A358" s="1">
         <v>357</v>
       </c>
-      <c r="B358" s="16">
+      <c r="B358" s="11">
         <v>430005</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -19005,7 +19108,7 @@
       <c r="E358" s="10">
         <v>44053</v>
       </c>
-      <c r="F358" s="20">
+      <c r="F358" s="15">
         <v>44052</v>
       </c>
       <c r="G358" s="1" t="s">
@@ -19034,17 +19137,17 @@
       <c r="A359" s="1">
         <v>358</v>
       </c>
-      <c r="B359" s="16">
+      <c r="B359" s="11">
         <v>430005</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D359" s="1"/>
-      <c r="E359" s="20">
+      <c r="E359" s="15">
         <v>44054</v>
       </c>
-      <c r="F359" s="20">
+      <c r="F359" s="15">
         <v>44053</v>
       </c>
       <c r="G359" s="1" t="s">
@@ -19073,7 +19176,7 @@
       <c r="A360" s="1">
         <v>359</v>
       </c>
-      <c r="B360" s="16">
+      <c r="B360" s="11">
         <v>430005</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -19082,10 +19185,10 @@
       <c r="D360" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E360" s="20">
+      <c r="E360" s="15">
         <v>44054</v>
       </c>
-      <c r="F360" s="20">
+      <c r="F360" s="15">
         <v>44054</v>
       </c>
       <c r="G360" s="1" t="s">
@@ -19114,7 +19217,7 @@
       <c r="A361" s="1">
         <v>360</v>
       </c>
-      <c r="B361" s="16">
+      <c r="B361" s="11">
         <v>430005</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -19123,10 +19226,10 @@
       <c r="D361" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E361" s="20">
+      <c r="E361" s="15">
         <v>44054</v>
       </c>
-      <c r="F361" s="20">
+      <c r="F361" s="15">
         <v>44054</v>
       </c>
       <c r="G361" s="1" t="s">
@@ -19155,7 +19258,7 @@
       <c r="A362" s="1">
         <v>361</v>
       </c>
-      <c r="B362" s="16">
+      <c r="B362" s="11">
         <v>430005</v>
       </c>
       <c r="C362" s="1" t="s">
@@ -19164,10 +19267,10 @@
       <c r="D362" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E362" s="20">
+      <c r="E362" s="15">
         <v>44054</v>
       </c>
-      <c r="F362" s="20">
+      <c r="F362" s="15">
         <v>44054</v>
       </c>
       <c r="G362" s="1" t="s">
@@ -19196,17 +19299,17 @@
       <c r="A363" s="1">
         <v>362</v>
       </c>
-      <c r="B363" s="16">
+      <c r="B363" s="11">
         <v>430005</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D363" s="1"/>
-      <c r="E363" s="20">
+      <c r="E363" s="15">
         <v>44055</v>
       </c>
-      <c r="F363" s="20">
+      <c r="F363" s="15">
         <v>44054</v>
       </c>
       <c r="G363" s="1" t="s">
@@ -19235,17 +19338,17 @@
       <c r="A364" s="1">
         <v>363</v>
       </c>
-      <c r="B364" s="16">
+      <c r="B364" s="11">
         <v>430005</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D364" s="1"/>
-      <c r="E364" s="20">
+      <c r="E364" s="15">
         <v>44055</v>
       </c>
-      <c r="F364" s="20">
+      <c r="F364" s="15">
         <v>44054</v>
       </c>
       <c r="G364" s="1" t="s">
@@ -19274,17 +19377,17 @@
       <c r="A365" s="1">
         <v>364</v>
       </c>
-      <c r="B365" s="16">
+      <c r="B365" s="11">
         <v>430005</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D365" s="1"/>
-      <c r="E365" s="20">
+      <c r="E365" s="15">
         <v>44055</v>
       </c>
-      <c r="F365" s="20">
+      <c r="F365" s="15">
         <v>44054</v>
       </c>
       <c r="G365" s="1" t="s">
@@ -19313,17 +19416,17 @@
       <c r="A366" s="1">
         <v>365</v>
       </c>
-      <c r="B366" s="16">
+      <c r="B366" s="11">
         <v>430005</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D366" s="1"/>
-      <c r="E366" s="20">
+      <c r="E366" s="15">
         <v>44055</v>
       </c>
-      <c r="F366" s="20">
+      <c r="F366" s="15">
         <v>44054</v>
       </c>
       <c r="G366" s="1" t="s">
@@ -19352,7 +19455,7 @@
       <c r="A367" s="1">
         <v>366</v>
       </c>
-      <c r="B367" s="16">
+      <c r="B367" s="11">
         <v>430005</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -19393,7 +19496,7 @@
       <c r="A368" s="1">
         <v>367</v>
       </c>
-      <c r="B368" s="16">
+      <c r="B368" s="11">
         <v>430005</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -19434,7 +19537,7 @@
       <c r="A369" s="1">
         <v>368</v>
       </c>
-      <c r="B369" s="16">
+      <c r="B369" s="11">
         <v>430005</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -19475,7 +19578,7 @@
       <c r="A370" s="1">
         <v>369</v>
       </c>
-      <c r="B370" s="16">
+      <c r="B370" s="11">
         <v>430005</v>
       </c>
       <c r="C370" s="1" t="s">
@@ -19518,7 +19621,7 @@
       <c r="A371" s="1">
         <v>370</v>
       </c>
-      <c r="B371" s="16">
+      <c r="B371" s="11">
         <v>430005</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -19559,7 +19662,7 @@
       <c r="A372" s="1">
         <v>371</v>
       </c>
-      <c r="B372" s="16">
+      <c r="B372" s="11">
         <v>430005</v>
       </c>
       <c r="C372" s="1" t="s">
@@ -19602,7 +19705,7 @@
       <c r="A373" s="1">
         <v>372</v>
       </c>
-      <c r="B373" s="16">
+      <c r="B373" s="11">
         <v>430005</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -19641,7 +19744,7 @@
       <c r="A374" s="1">
         <v>373</v>
       </c>
-      <c r="B374" s="16">
+      <c r="B374" s="11">
         <v>430005</v>
       </c>
       <c r="C374" s="1" t="s">
@@ -19680,7 +19783,7 @@
       <c r="A375" s="1">
         <v>374</v>
       </c>
-      <c r="B375" s="16">
+      <c r="B375" s="11">
         <v>430005</v>
       </c>
       <c r="C375" s="1" t="s">
@@ -19721,7 +19824,7 @@
       <c r="A376" s="1">
         <v>375</v>
       </c>
-      <c r="B376" s="16">
+      <c r="B376" s="11">
         <v>430005</v>
       </c>
       <c r="C376" s="1" t="s">
@@ -19760,7 +19863,7 @@
       <c r="A377" s="1">
         <v>376</v>
       </c>
-      <c r="B377" s="16">
+      <c r="B377" s="11">
         <v>430005</v>
       </c>
       <c r="C377" s="1" t="s">
@@ -19801,7 +19904,7 @@
       <c r="A378" s="1">
         <v>377</v>
       </c>
-      <c r="B378" s="16">
+      <c r="B378" s="11">
         <v>430005</v>
       </c>
       <c r="C378" s="1" t="s">
@@ -19842,7 +19945,7 @@
       <c r="A379" s="1">
         <v>378</v>
       </c>
-      <c r="B379" s="16">
+      <c r="B379" s="11">
         <v>430005</v>
       </c>
       <c r="C379" s="1" t="s">
@@ -19883,7 +19986,7 @@
       <c r="A380" s="1">
         <v>379</v>
       </c>
-      <c r="B380" s="16">
+      <c r="B380" s="11">
         <v>430005</v>
       </c>
       <c r="C380" s="1" t="s">
@@ -19924,7 +20027,7 @@
       <c r="A381" s="1">
         <v>380</v>
       </c>
-      <c r="B381" s="16">
+      <c r="B381" s="11">
         <v>430005</v>
       </c>
       <c r="C381" s="1" t="s">
@@ -19965,7 +20068,7 @@
       <c r="A382" s="1">
         <v>381</v>
       </c>
-      <c r="B382" s="16">
+      <c r="B382" s="11">
         <v>430005</v>
       </c>
       <c r="C382" s="1" t="s">
@@ -20006,7 +20109,7 @@
       <c r="A383" s="1">
         <v>382</v>
       </c>
-      <c r="B383" s="16">
+      <c r="B383" s="11">
         <v>430005</v>
       </c>
       <c r="C383" s="1" t="s">
@@ -20047,7 +20150,7 @@
       <c r="A384" s="1">
         <v>383</v>
       </c>
-      <c r="B384" s="16">
+      <c r="B384" s="11">
         <v>430005</v>
       </c>
       <c r="C384" s="1" t="s">
@@ -20086,7 +20189,7 @@
       <c r="A385" s="1">
         <v>384</v>
       </c>
-      <c r="B385" s="16">
+      <c r="B385" s="11">
         <v>430005</v>
       </c>
       <c r="C385" s="1" t="s">
@@ -20125,7 +20228,7 @@
       <c r="A386" s="1">
         <v>385</v>
       </c>
-      <c r="B386" s="16">
+      <c r="B386" s="11">
         <v>430005</v>
       </c>
       <c r="C386" s="1" t="s">
@@ -20164,7 +20267,7 @@
       <c r="A387" s="1">
         <v>386</v>
       </c>
-      <c r="B387" s="16">
+      <c r="B387" s="11">
         <v>430005</v>
       </c>
       <c r="C387" s="1" t="s">
@@ -20203,7 +20306,7 @@
       <c r="A388" s="1">
         <v>387</v>
       </c>
-      <c r="B388" s="16">
+      <c r="B388" s="11">
         <v>430005</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -20244,7 +20347,7 @@
       <c r="A389" s="1">
         <v>388</v>
       </c>
-      <c r="B389" s="16">
+      <c r="B389" s="11">
         <v>430005</v>
       </c>
       <c r="C389" s="1" t="s">
@@ -20285,7 +20388,7 @@
       <c r="A390" s="1">
         <v>389</v>
       </c>
-      <c r="B390" s="16">
+      <c r="B390" s="11">
         <v>430005</v>
       </c>
       <c r="C390" s="1" t="s">
@@ -20326,7 +20429,7 @@
       <c r="A391" s="1">
         <v>390</v>
       </c>
-      <c r="B391" s="16">
+      <c r="B391" s="11">
         <v>430005</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -20367,7 +20470,7 @@
       <c r="A392" s="1">
         <v>391</v>
       </c>
-      <c r="B392" s="16">
+      <c r="B392" s="11">
         <v>430005</v>
       </c>
       <c r="C392" s="1" t="s">
@@ -20408,7 +20511,7 @@
       <c r="A393" s="1">
         <v>392</v>
       </c>
-      <c r="B393" s="16">
+      <c r="B393" s="11">
         <v>430005</v>
       </c>
       <c r="C393" s="1" t="s">
@@ -20449,7 +20552,7 @@
       <c r="A394" s="1">
         <v>393</v>
       </c>
-      <c r="B394" s="16">
+      <c r="B394" s="11">
         <v>430005</v>
       </c>
       <c r="C394" s="1" t="s">
@@ -20488,7 +20591,7 @@
       <c r="A395" s="1">
         <v>394</v>
       </c>
-      <c r="B395" s="16">
+      <c r="B395" s="11">
         <v>430005</v>
       </c>
       <c r="C395" s="1" t="s">
@@ -20527,7 +20630,7 @@
       <c r="A396" s="1">
         <v>395</v>
       </c>
-      <c r="B396" s="16">
+      <c r="B396" s="11">
         <v>430005</v>
       </c>
       <c r="C396" s="1" t="s">
@@ -20568,7 +20671,7 @@
       <c r="A397" s="1">
         <v>396</v>
       </c>
-      <c r="B397" s="16">
+      <c r="B397" s="11">
         <v>430005</v>
       </c>
       <c r="C397" s="1" t="s">
@@ -20609,7 +20712,7 @@
       <c r="A398" s="1">
         <v>397</v>
       </c>
-      <c r="B398" s="16">
+      <c r="B398" s="11">
         <v>430005</v>
       </c>
       <c r="C398" s="1" t="s">
@@ -20650,7 +20753,7 @@
       <c r="A399" s="1">
         <v>398</v>
       </c>
-      <c r="B399" s="16">
+      <c r="B399" s="11">
         <v>430005</v>
       </c>
       <c r="C399" s="1" t="s">
@@ -20662,7 +20765,7 @@
       <c r="E399" s="10">
         <v>44058</v>
       </c>
-      <c r="F399" s="20">
+      <c r="F399" s="15">
         <v>44058</v>
       </c>
       <c r="G399" s="1" t="s">
@@ -20691,7 +20794,7 @@
       <c r="A400" s="1">
         <v>399</v>
       </c>
-      <c r="B400" s="16">
+      <c r="B400" s="11">
         <v>430005</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -20703,7 +20806,7 @@
       <c r="E400" s="10">
         <v>44058</v>
       </c>
-      <c r="F400" s="20">
+      <c r="F400" s="15">
         <v>44058</v>
       </c>
       <c r="G400" s="1" t="s">
@@ -20732,7 +20835,7 @@
       <c r="A401" s="1">
         <v>400</v>
       </c>
-      <c r="B401" s="16">
+      <c r="B401" s="11">
         <v>430005</v>
       </c>
       <c r="C401" s="1" t="s">
@@ -20744,7 +20847,7 @@
       <c r="E401" s="10">
         <v>44058</v>
       </c>
-      <c r="F401" s="20">
+      <c r="F401" s="15">
         <v>44058</v>
       </c>
       <c r="G401" s="1" t="s">
@@ -20773,7 +20876,7 @@
       <c r="A402" s="1">
         <v>401</v>
       </c>
-      <c r="B402" s="16">
+      <c r="B402" s="11">
         <v>430005</v>
       </c>
       <c r="C402" s="1" t="s">
@@ -20785,7 +20888,7 @@
       <c r="E402" s="10">
         <v>44058</v>
       </c>
-      <c r="F402" s="20">
+      <c r="F402" s="15">
         <v>44058</v>
       </c>
       <c r="G402" s="1" t="s">
@@ -20814,7 +20917,7 @@
       <c r="A403" s="1">
         <v>402</v>
       </c>
-      <c r="B403" s="16">
+      <c r="B403" s="11">
         <v>430005</v>
       </c>
       <c r="C403" s="1" t="s">
@@ -20826,7 +20929,7 @@
       <c r="E403" s="10">
         <v>44058</v>
       </c>
-      <c r="F403" s="20">
+      <c r="F403" s="15">
         <v>44058</v>
       </c>
       <c r="G403" s="1" t="s">
@@ -20855,7 +20958,7 @@
       <c r="A404" s="1">
         <v>403</v>
       </c>
-      <c r="B404" s="16">
+      <c r="B404" s="11">
         <v>430005</v>
       </c>
       <c r="C404" s="1" t="s">
@@ -20867,7 +20970,7 @@
       <c r="E404" s="10">
         <v>44058</v>
       </c>
-      <c r="F404" s="20">
+      <c r="F404" s="15">
         <v>44058</v>
       </c>
       <c r="G404" s="1" t="s">
@@ -20896,7 +20999,7 @@
       <c r="A405" s="1">
         <v>404</v>
       </c>
-      <c r="B405" s="16">
+      <c r="B405" s="11">
         <v>430005</v>
       </c>
       <c r="C405" s="1" t="s">
@@ -20906,7 +21009,7 @@
       <c r="E405" s="10">
         <v>44059</v>
       </c>
-      <c r="F405" s="20">
+      <c r="F405" s="15">
         <v>44058</v>
       </c>
       <c r="G405" s="1" t="s">
@@ -20935,7 +21038,7 @@
       <c r="A406" s="1">
         <v>405</v>
       </c>
-      <c r="B406" s="16">
+      <c r="B406" s="11">
         <v>430005</v>
       </c>
       <c r="C406" s="1" t="s">
@@ -20945,7 +21048,7 @@
       <c r="E406" s="10">
         <v>44059</v>
       </c>
-      <c r="F406" s="20">
+      <c r="F406" s="15">
         <v>44058</v>
       </c>
       <c r="G406" s="1" t="s">
@@ -20974,7 +21077,7 @@
       <c r="A407" s="1">
         <v>406</v>
       </c>
-      <c r="B407" s="16">
+      <c r="B407" s="11">
         <v>430005</v>
       </c>
       <c r="C407" s="1" t="s">
@@ -20984,7 +21087,7 @@
       <c r="E407" s="10">
         <v>44059</v>
       </c>
-      <c r="F407" s="20">
+      <c r="F407" s="15">
         <v>44058</v>
       </c>
       <c r="G407" s="1" t="s">
@@ -21013,7 +21116,7 @@
       <c r="A408" s="1">
         <v>407</v>
       </c>
-      <c r="B408" s="16">
+      <c r="B408" s="11">
         <v>430005</v>
       </c>
       <c r="C408" s="1" t="s">
@@ -21054,7 +21157,7 @@
       <c r="A409" s="1">
         <v>408</v>
       </c>
-      <c r="B409" s="16">
+      <c r="B409" s="11">
         <v>430005</v>
       </c>
       <c r="C409" s="1" t="s">
@@ -21093,7 +21196,7 @@
       <c r="A410" s="1">
         <v>409</v>
       </c>
-      <c r="B410" s="16">
+      <c r="B410" s="11">
         <v>430005</v>
       </c>
       <c r="C410" s="1" t="s">
@@ -21132,7 +21235,7 @@
       <c r="A411" s="1">
         <v>410</v>
       </c>
-      <c r="B411" s="16">
+      <c r="B411" s="11">
         <v>430005</v>
       </c>
       <c r="C411" s="1" t="s">
@@ -21175,7 +21278,7 @@
       <c r="A412" s="1">
         <v>411</v>
       </c>
-      <c r="B412" s="16">
+      <c r="B412" s="11">
         <v>430005</v>
       </c>
       <c r="C412" s="1" t="s">
@@ -21218,7 +21321,7 @@
       <c r="A413" s="1">
         <v>412</v>
       </c>
-      <c r="B413" s="16">
+      <c r="B413" s="11">
         <v>430005</v>
       </c>
       <c r="C413" s="1" t="s">
@@ -21259,7 +21362,7 @@
       <c r="A414" s="1">
         <v>413</v>
       </c>
-      <c r="B414" s="16">
+      <c r="B414" s="11">
         <v>430005</v>
       </c>
       <c r="C414" s="1" t="s">
@@ -21300,7 +21403,7 @@
       <c r="A415" s="1">
         <v>414</v>
       </c>
-      <c r="B415" s="16">
+      <c r="B415" s="11">
         <v>430005</v>
       </c>
       <c r="C415" s="1" t="s">
@@ -21341,7 +21444,7 @@
       <c r="A416" s="1">
         <v>415</v>
       </c>
-      <c r="B416" s="16">
+      <c r="B416" s="11">
         <v>430005</v>
       </c>
       <c r="C416" s="1" t="s">
@@ -21382,7 +21485,7 @@
       <c r="A417" s="1">
         <v>416</v>
       </c>
-      <c r="B417" s="16">
+      <c r="B417" s="11">
         <v>430005</v>
       </c>
       <c r="C417" s="1" t="s">
@@ -21423,7 +21526,7 @@
       <c r="A418" s="1">
         <v>417</v>
       </c>
-      <c r="B418" s="16">
+      <c r="B418" s="11">
         <v>430005</v>
       </c>
       <c r="C418" s="1" t="s">
@@ -21464,7 +21567,7 @@
       <c r="A419" s="1">
         <v>418</v>
       </c>
-      <c r="B419" s="16">
+      <c r="B419" s="11">
         <v>430005</v>
       </c>
       <c r="C419" s="1" t="s">
@@ -21503,7 +21606,7 @@
       <c r="A420" s="1">
         <v>419</v>
       </c>
-      <c r="B420" s="16">
+      <c r="B420" s="11">
         <v>430005</v>
       </c>
       <c r="C420" s="1" t="s">
@@ -21544,7 +21647,7 @@
       <c r="A421" s="1">
         <v>420</v>
       </c>
-      <c r="B421" s="16">
+      <c r="B421" s="11">
         <v>430005</v>
       </c>
       <c r="C421" s="1" t="s">
@@ -21585,7 +21688,7 @@
       <c r="A422" s="1">
         <v>421</v>
       </c>
-      <c r="B422" s="16">
+      <c r="B422" s="11">
         <v>430005</v>
       </c>
       <c r="C422" s="1" t="s">
@@ -21626,7 +21729,7 @@
       <c r="A423" s="1">
         <v>422</v>
       </c>
-      <c r="B423" s="16">
+      <c r="B423" s="11">
         <v>430005</v>
       </c>
       <c r="C423" s="1" t="s">
@@ -21667,7 +21770,7 @@
       <c r="A424" s="1">
         <v>423</v>
       </c>
-      <c r="B424" s="16">
+      <c r="B424" s="11">
         <v>430005</v>
       </c>
       <c r="C424" s="1" t="s">
@@ -21708,7 +21811,7 @@
       <c r="A425" s="1">
         <v>424</v>
       </c>
-      <c r="B425" s="16">
+      <c r="B425" s="11">
         <v>430005</v>
       </c>
       <c r="C425" s="1" t="s">
@@ -21751,7 +21854,7 @@
       <c r="A426" s="1">
         <v>425</v>
       </c>
-      <c r="B426" s="16">
+      <c r="B426" s="11">
         <v>430005</v>
       </c>
       <c r="C426" s="1" t="s">
@@ -21792,7 +21895,7 @@
       <c r="A427" s="1">
         <v>426</v>
       </c>
-      <c r="B427" s="16">
+      <c r="B427" s="11">
         <v>430005</v>
       </c>
       <c r="C427" s="1" t="s">
@@ -21833,7 +21936,7 @@
       <c r="A428" s="1">
         <v>427</v>
       </c>
-      <c r="B428" s="16">
+      <c r="B428" s="11">
         <v>430005</v>
       </c>
       <c r="C428" s="1" t="s">
@@ -21874,7 +21977,7 @@
       <c r="A429" s="1">
         <v>428</v>
       </c>
-      <c r="B429" s="16">
+      <c r="B429" s="11">
         <v>430005</v>
       </c>
       <c r="C429" s="1" t="s">
@@ -21913,7 +22016,7 @@
       <c r="A430" s="1">
         <v>429</v>
       </c>
-      <c r="B430" s="16">
+      <c r="B430" s="11">
         <v>430005</v>
       </c>
       <c r="C430" s="1" t="s">
@@ -21938,15 +22041,13 @@
       <c r="J430" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="K430" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K430" s="1"/>
       <c r="L430" s="1"/>
       <c r="M430" s="1">
         <v>0</v>
       </c>
       <c r="N430" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O430" s="1"/>
     </row>
@@ -21954,7 +22055,7 @@
       <c r="A431" s="1">
         <v>430</v>
       </c>
-      <c r="B431" s="16">
+      <c r="B431" s="11">
         <v>430005</v>
       </c>
       <c r="C431" s="1" t="s">
@@ -21993,7 +22094,7 @@
       <c r="A432" s="1">
         <v>431</v>
       </c>
-      <c r="B432" s="16">
+      <c r="B432" s="11">
         <v>430005</v>
       </c>
       <c r="C432" s="1" t="s">
@@ -22034,7 +22135,7 @@
       <c r="A433" s="1">
         <v>432</v>
       </c>
-      <c r="B433" s="16">
+      <c r="B433" s="11">
         <v>430005</v>
       </c>
       <c r="C433" s="1" t="s">
@@ -22075,7 +22176,7 @@
       <c r="A434" s="1">
         <v>433</v>
       </c>
-      <c r="B434" s="16">
+      <c r="B434" s="11">
         <v>430005</v>
       </c>
       <c r="C434" s="1" t="s">
@@ -22116,7 +22217,7 @@
       <c r="A435" s="1">
         <v>434</v>
       </c>
-      <c r="B435" s="16">
+      <c r="B435" s="11">
         <v>430005</v>
       </c>
       <c r="C435" s="1" t="s">
@@ -22157,7 +22258,7 @@
       <c r="A436" s="1">
         <v>435</v>
       </c>
-      <c r="B436" s="16">
+      <c r="B436" s="11">
         <v>430005</v>
       </c>
       <c r="C436" s="1" t="s">
@@ -22196,7 +22297,7 @@
       <c r="A437" s="1">
         <v>436</v>
       </c>
-      <c r="B437" s="16">
+      <c r="B437" s="11">
         <v>430005</v>
       </c>
       <c r="C437" s="1" t="s">
@@ -22237,7 +22338,7 @@
       <c r="A438" s="1">
         <v>437</v>
       </c>
-      <c r="B438" s="16">
+      <c r="B438" s="11">
         <v>430005</v>
       </c>
       <c r="C438" s="1" t="s">
@@ -22278,7 +22379,7 @@
       <c r="A439" s="1">
         <v>438</v>
       </c>
-      <c r="B439" s="16">
+      <c r="B439" s="11">
         <v>430005</v>
       </c>
       <c r="C439" s="1" t="s">
@@ -22319,7 +22420,7 @@
       <c r="A440" s="1">
         <v>439</v>
       </c>
-      <c r="B440" s="16">
+      <c r="B440" s="11">
         <v>430005</v>
       </c>
       <c r="C440" s="1" t="s">
@@ -22362,7 +22463,7 @@
       <c r="A441" s="1">
         <v>440</v>
       </c>
-      <c r="B441" s="16">
+      <c r="B441" s="11">
         <v>430005</v>
       </c>
       <c r="C441" s="1" t="s">
@@ -22403,7 +22504,7 @@
       <c r="A442" s="1">
         <v>441</v>
       </c>
-      <c r="B442" s="16">
+      <c r="B442" s="11">
         <v>430005</v>
       </c>
       <c r="C442" s="1" t="s">
@@ -22444,7 +22545,7 @@
       <c r="A443" s="1">
         <v>442</v>
       </c>
-      <c r="B443" s="16">
+      <c r="B443" s="11">
         <v>430005</v>
       </c>
       <c r="C443" s="1" t="s">
@@ -22485,7 +22586,7 @@
       <c r="A444" s="1">
         <v>443</v>
       </c>
-      <c r="B444" s="16">
+      <c r="B444" s="11">
         <v>430005</v>
       </c>
       <c r="C444" s="1" t="s">
@@ -22510,15 +22611,13 @@
       <c r="J444" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="K444" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K444" s="1"/>
       <c r="L444" s="1"/>
       <c r="M444" s="1">
         <v>0</v>
       </c>
       <c r="N444" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O444" s="1"/>
     </row>
@@ -22526,7 +22625,7 @@
       <c r="A445" s="1">
         <v>444</v>
       </c>
-      <c r="B445" s="16">
+      <c r="B445" s="11">
         <v>430005</v>
       </c>
       <c r="C445" s="1" t="s">
@@ -22565,7 +22664,7 @@
       <c r="A446" s="1">
         <v>445</v>
       </c>
-      <c r="B446" s="16">
+      <c r="B446" s="11">
         <v>430005</v>
       </c>
       <c r="C446" s="1" t="s">
@@ -22590,15 +22689,13 @@
       <c r="J446" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K446" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K446" s="1"/>
       <c r="L446" s="1"/>
       <c r="M446" s="1">
         <v>0</v>
       </c>
       <c r="N446" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O446" s="1"/>
     </row>
@@ -22606,7 +22703,7 @@
       <c r="A447" s="1">
         <v>446</v>
       </c>
-      <c r="B447" s="16">
+      <c r="B447" s="11">
         <v>430005</v>
       </c>
       <c r="C447" s="1" t="s">
@@ -22633,15 +22730,13 @@
       <c r="J447" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K447" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K447" s="1"/>
       <c r="L447" s="1"/>
       <c r="M447" s="1">
         <v>0</v>
       </c>
       <c r="N447" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O447" s="1"/>
     </row>
@@ -22649,7 +22744,7 @@
       <c r="A448" s="1">
         <v>447</v>
       </c>
-      <c r="B448" s="16">
+      <c r="B448" s="11">
         <v>430005</v>
       </c>
       <c r="C448" s="1" t="s">
@@ -22676,15 +22771,13 @@
       <c r="J448" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="K448" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="K448" s="1"/>
       <c r="L448" s="1"/>
       <c r="M448" s="1">
         <v>0</v>
       </c>
       <c r="N448" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O448" s="1"/>
     </row>
@@ -22692,7 +22785,7 @@
       <c r="A449" s="1">
         <v>448</v>
       </c>
-      <c r="B449" s="16">
+      <c r="B449" s="11">
         <v>430005</v>
       </c>
       <c r="C449" s="1" t="s">
@@ -22733,7 +22826,7 @@
       <c r="A450" s="1">
         <v>449</v>
       </c>
-      <c r="B450" s="16">
+      <c r="B450" s="11">
         <v>430005</v>
       </c>
       <c r="C450" s="1" t="s">
@@ -22758,15 +22851,13 @@
       <c r="J450" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="K450" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K450" s="1"/>
       <c r="L450" s="1"/>
       <c r="M450" s="1">
         <v>0</v>
       </c>
       <c r="N450" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O450" s="1"/>
     </row>
@@ -22774,7 +22865,7 @@
       <c r="A451" s="1">
         <v>450</v>
       </c>
-      <c r="B451" s="16">
+      <c r="B451" s="11">
         <v>430005</v>
       </c>
       <c r="C451" s="1" t="s">
@@ -22801,15 +22892,13 @@
       <c r="J451" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="K451" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K451" s="1"/>
       <c r="L451" s="1"/>
       <c r="M451" s="1">
         <v>0</v>
       </c>
       <c r="N451" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O451" s="1"/>
     </row>
@@ -22817,7 +22906,7 @@
       <c r="A452" s="1">
         <v>451</v>
       </c>
-      <c r="B452" s="16">
+      <c r="B452" s="11">
         <v>430005</v>
       </c>
       <c r="C452" s="1" t="s">
@@ -22858,7 +22947,7 @@
       <c r="A453" s="1">
         <v>452</v>
       </c>
-      <c r="B453" s="16">
+      <c r="B453" s="11">
         <v>430005</v>
       </c>
       <c r="C453" s="1" t="s">
@@ -22885,15 +22974,13 @@
       <c r="J453" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="K453" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K453" s="1"/>
       <c r="L453" s="1"/>
       <c r="M453" s="1">
         <v>0</v>
       </c>
       <c r="N453" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O453" s="1"/>
     </row>
@@ -22901,7 +22988,7 @@
       <c r="A454" s="1">
         <v>453</v>
       </c>
-      <c r="B454" s="16">
+      <c r="B454" s="11">
         <v>430005</v>
       </c>
       <c r="C454" s="1" t="s">
@@ -22942,7 +23029,7 @@
       <c r="A455" s="1">
         <v>454</v>
       </c>
-      <c r="B455" s="16">
+      <c r="B455" s="11">
         <v>430005</v>
       </c>
       <c r="C455" s="1" t="s">
@@ -22983,7 +23070,7 @@
       <c r="A456" s="1">
         <v>455</v>
       </c>
-      <c r="B456" s="16">
+      <c r="B456" s="11">
         <v>430005</v>
       </c>
       <c r="C456" s="1" t="s">
@@ -23010,15 +23097,13 @@
       <c r="J456" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="K456" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="K456" s="1"/>
       <c r="L456" s="1"/>
       <c r="M456" s="1">
         <v>0</v>
       </c>
       <c r="N456" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O456" s="1"/>
     </row>
@@ -23026,7 +23111,7 @@
       <c r="A457" s="1">
         <v>456</v>
       </c>
-      <c r="B457" s="16">
+      <c r="B457" s="11">
         <v>430005</v>
       </c>
       <c r="C457" s="1" t="s">
@@ -23051,15 +23136,13 @@
       <c r="J457" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="K457" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="K457" s="1"/>
       <c r="L457" s="1"/>
       <c r="M457" s="1">
         <v>0</v>
       </c>
       <c r="N457" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O457" s="1"/>
     </row>
@@ -23067,7 +23150,7 @@
       <c r="A458" s="1">
         <v>457</v>
       </c>
-      <c r="B458" s="16">
+      <c r="B458" s="11">
         <v>430005</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -23106,7 +23189,7 @@
       <c r="A459" s="1">
         <v>458</v>
       </c>
-      <c r="B459" s="16">
+      <c r="B459" s="11">
         <v>430005</v>
       </c>
       <c r="C459" s="1" t="s">
@@ -23147,7 +23230,7 @@
       <c r="A460" s="1">
         <v>459</v>
       </c>
-      <c r="B460" s="16">
+      <c r="B460" s="11">
         <v>430005</v>
       </c>
       <c r="C460" s="1" t="s">
@@ -23188,7 +23271,7 @@
       <c r="A461" s="1">
         <v>460</v>
       </c>
-      <c r="B461" s="16">
+      <c r="B461" s="11">
         <v>430005</v>
       </c>
       <c r="C461" s="1" t="s">
@@ -23229,7 +23312,7 @@
       <c r="A462" s="1">
         <v>461</v>
       </c>
-      <c r="B462" s="16">
+      <c r="B462" s="11">
         <v>430005</v>
       </c>
       <c r="C462" s="1" t="s">
@@ -23268,7 +23351,7 @@
       <c r="A463" s="1">
         <v>462</v>
       </c>
-      <c r="B463" s="16">
+      <c r="B463" s="11">
         <v>430005</v>
       </c>
       <c r="C463" s="1" t="s">
@@ -23309,7 +23392,7 @@
       <c r="A464" s="1">
         <v>463</v>
       </c>
-      <c r="B464" s="16">
+      <c r="B464" s="11">
         <v>430005</v>
       </c>
       <c r="C464" s="1" t="s">
@@ -23352,7 +23435,7 @@
       <c r="A465" s="1">
         <v>464</v>
       </c>
-      <c r="B465" s="16">
+      <c r="B465" s="11">
         <v>430005</v>
       </c>
       <c r="C465" s="1" t="s">
@@ -23395,7 +23478,7 @@
       <c r="A466" s="1">
         <v>465</v>
       </c>
-      <c r="B466" s="16">
+      <c r="B466" s="11">
         <v>430005</v>
       </c>
       <c r="C466" s="1" t="s">
@@ -23422,15 +23505,13 @@
       <c r="J466" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="K466" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K466" s="1"/>
       <c r="L466" s="1"/>
       <c r="M466" s="1">
         <v>0</v>
       </c>
       <c r="N466" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O466" s="1"/>
     </row>
@@ -23438,7 +23519,7 @@
       <c r="A467" s="1">
         <v>466</v>
       </c>
-      <c r="B467" s="16">
+      <c r="B467" s="11">
         <v>430005</v>
       </c>
       <c r="C467" s="1" t="s">
@@ -23471,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="N467" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O467" s="1"/>
     </row>
@@ -23479,7 +23560,7 @@
       <c r="A468" s="1">
         <v>467</v>
       </c>
-      <c r="B468" s="16">
+      <c r="B468" s="11">
         <v>430005</v>
       </c>
       <c r="C468" s="1" t="s">
@@ -23520,7 +23601,7 @@
       <c r="A469" s="1">
         <v>468</v>
       </c>
-      <c r="B469" s="16">
+      <c r="B469" s="11">
         <v>430005</v>
       </c>
       <c r="C469" s="1" t="s">
@@ -23561,7 +23642,7 @@
       <c r="A470" s="1">
         <v>469</v>
       </c>
-      <c r="B470" s="16">
+      <c r="B470" s="11">
         <v>430005</v>
       </c>
       <c r="C470" s="1" t="s">
@@ -23594,7 +23675,7 @@
         <v>0</v>
       </c>
       <c r="N470" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O470" s="1"/>
     </row>
@@ -23602,7 +23683,7 @@
       <c r="A471" s="1">
         <v>470</v>
       </c>
-      <c r="B471" s="16">
+      <c r="B471" s="11">
         <v>430005</v>
       </c>
       <c r="C471" s="1" t="s">
@@ -23645,7 +23726,7 @@
       <c r="A472" s="1">
         <v>471</v>
       </c>
-      <c r="B472" s="16">
+      <c r="B472" s="11">
         <v>430005</v>
       </c>
       <c r="C472" s="1" t="s">
@@ -23686,7 +23767,7 @@
       <c r="A473" s="1">
         <v>472</v>
       </c>
-      <c r="B473" s="16">
+      <c r="B473" s="11">
         <v>430005</v>
       </c>
       <c r="C473" s="1" t="s">
@@ -23727,7 +23808,7 @@
       <c r="A474" s="1">
         <v>473</v>
       </c>
-      <c r="B474" s="16">
+      <c r="B474" s="11">
         <v>430005</v>
       </c>
       <c r="C474" s="1" t="s">
@@ -23768,7 +23849,7 @@
       <c r="A475" s="1">
         <v>474</v>
       </c>
-      <c r="B475" s="16">
+      <c r="B475" s="11">
         <v>430005</v>
       </c>
       <c r="C475" s="1" t="s">
@@ -23793,15 +23874,13 @@
       <c r="J475" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="K475" s="1" t="s">
-        <v>505</v>
-      </c>
+      <c r="K475" s="1"/>
       <c r="L475" s="1"/>
       <c r="M475" s="1">
         <v>0</v>
       </c>
       <c r="N475" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O475" s="1"/>
     </row>
@@ -23809,7 +23888,7 @@
       <c r="A476" s="1">
         <v>475</v>
       </c>
-      <c r="B476" s="16">
+      <c r="B476" s="11">
         <v>430005</v>
       </c>
       <c r="C476" s="1" t="s">
@@ -23850,7 +23929,7 @@
       <c r="A477" s="1">
         <v>476</v>
       </c>
-      <c r="B477" s="16">
+      <c r="B477" s="11">
         <v>430005</v>
       </c>
       <c r="C477" s="1" t="s">
@@ -23891,7 +23970,7 @@
       <c r="A478" s="1">
         <v>477</v>
       </c>
-      <c r="B478" s="16">
+      <c r="B478" s="11">
         <v>430005</v>
       </c>
       <c r="C478" s="1" t="s">
@@ -23934,7 +24013,7 @@
       <c r="A479" s="1">
         <v>478</v>
       </c>
-      <c r="B479" s="16">
+      <c r="B479" s="11">
         <v>430005</v>
       </c>
       <c r="C479" s="1" t="s">
@@ -23977,7 +24056,7 @@
       <c r="A480" s="1">
         <v>479</v>
       </c>
-      <c r="B480" s="16">
+      <c r="B480" s="11">
         <v>430005</v>
       </c>
       <c r="C480" s="1" t="s">
@@ -24004,15 +24083,13 @@
       <c r="J480" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="K480" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="K480" s="1"/>
       <c r="L480" s="1"/>
       <c r="M480" s="1">
         <v>0</v>
       </c>
       <c r="N480" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O480" s="1"/>
     </row>
@@ -24020,7 +24097,7 @@
       <c r="A481" s="1">
         <v>480</v>
       </c>
-      <c r="B481" s="16">
+      <c r="B481" s="11">
         <v>430005</v>
       </c>
       <c r="C481" s="1" t="s">
@@ -24047,7 +24124,9 @@
       <c r="J481" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="K481" s="1"/>
+      <c r="K481" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L481" s="1"/>
       <c r="M481" s="1">
         <v>0</v>
@@ -24061,7 +24140,7 @@
       <c r="A482" s="1">
         <v>481</v>
       </c>
-      <c r="B482" s="16">
+      <c r="B482" s="11">
         <v>430005</v>
       </c>
       <c r="C482" s="1" t="s">
@@ -24102,7 +24181,7 @@
       <c r="A483" s="1">
         <v>482</v>
       </c>
-      <c r="B483" s="16">
+      <c r="B483" s="11">
         <v>430005</v>
       </c>
       <c r="C483" s="1" t="s">
@@ -24130,7 +24209,7 @@
         <v>536</v>
       </c>
       <c r="K483" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L483" s="1"/>
       <c r="M483" s="1">
@@ -24145,7 +24224,7 @@
       <c r="A484" s="1">
         <v>483</v>
       </c>
-      <c r="B484" s="16">
+      <c r="B484" s="11">
         <v>430005</v>
       </c>
       <c r="C484" s="1" t="s">
@@ -24186,7 +24265,7 @@
       <c r="A485" s="1">
         <v>484</v>
       </c>
-      <c r="B485" s="16">
+      <c r="B485" s="11">
         <v>430005</v>
       </c>
       <c r="C485" s="1" t="s">
@@ -24213,15 +24292,13 @@
       <c r="J485" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="K485" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="K485" s="1"/>
       <c r="L485" s="1"/>
       <c r="M485" s="1">
         <v>0</v>
       </c>
       <c r="N485" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O485" s="1"/>
     </row>
@@ -24229,7 +24306,7 @@
       <c r="A486" s="1">
         <v>485</v>
       </c>
-      <c r="B486" s="16">
+      <c r="B486" s="11">
         <v>430005</v>
       </c>
       <c r="C486" s="1" t="s">
@@ -24272,7 +24349,7 @@
       <c r="A487" s="1">
         <v>486</v>
       </c>
-      <c r="B487" s="16">
+      <c r="B487" s="11">
         <v>430005</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -24313,7 +24390,7 @@
       <c r="A488" s="1">
         <v>487</v>
       </c>
-      <c r="B488" s="16">
+      <c r="B488" s="11">
         <v>430005</v>
       </c>
       <c r="C488" s="1" t="s">
@@ -24354,7 +24431,7 @@
       <c r="A489" s="1">
         <v>488</v>
       </c>
-      <c r="B489" s="16">
+      <c r="B489" s="11">
         <v>430005</v>
       </c>
       <c r="C489" s="1" t="s">
@@ -24395,7 +24472,7 @@
       <c r="A490" s="1">
         <v>489</v>
       </c>
-      <c r="B490" s="16">
+      <c r="B490" s="11">
         <v>430005</v>
       </c>
       <c r="C490" s="1" t="s">
@@ -24436,7 +24513,7 @@
       <c r="A491" s="1">
         <v>490</v>
       </c>
-      <c r="B491" s="16">
+      <c r="B491" s="11">
         <v>430005</v>
       </c>
       <c r="C491" s="1" t="s">
@@ -24463,9 +24540,7 @@
       <c r="J491" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="K491" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="K491" s="1"/>
       <c r="L491" s="1"/>
       <c r="M491" s="1">
         <v>0</v>
@@ -24479,7 +24554,7 @@
       <c r="A492" s="1">
         <v>491</v>
       </c>
-      <c r="B492" s="16">
+      <c r="B492" s="11">
         <v>430005</v>
       </c>
       <c r="C492" s="1" t="s">
@@ -24632,7 +24707,7 @@
         <v>541</v>
       </c>
       <c r="K495" s="1" t="s">
-        <v>554</v>
+        <v>181</v>
       </c>
       <c r="L495" s="1"/>
       <c r="M495" s="1">
@@ -24804,7 +24879,7 @@
         <v>255</v>
       </c>
       <c r="K499" s="1" t="s">
-        <v>554</v>
+        <v>181</v>
       </c>
       <c r="L499" s="1"/>
       <c r="M499" s="1">
@@ -24887,9 +24962,7 @@
       <c r="J501" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="K501" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K501" s="1"/>
       <c r="L501" s="1"/>
       <c r="M501" s="1">
         <v>0</v>
@@ -24973,15 +25046,13 @@
       <c r="J503" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="K503" s="1" t="s">
-        <v>554</v>
-      </c>
+      <c r="K503" s="1"/>
       <c r="L503" s="1"/>
       <c r="M503" s="1">
         <v>0</v>
       </c>
       <c r="N503" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O503" s="1"/>
     </row>
@@ -25016,9 +25087,7 @@
       <c r="J504" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="K504" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K504" s="1"/>
       <c r="L504" s="1"/>
       <c r="M504" s="1">
         <v>0</v>
@@ -25059,9 +25128,7 @@
       <c r="J505" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K505" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K505" s="1"/>
       <c r="L505" s="1"/>
       <c r="M505" s="1">
         <v>0</v>
@@ -25146,7 +25213,7 @@
         <v>160</v>
       </c>
       <c r="K507" s="1" t="s">
-        <v>554</v>
+        <v>103</v>
       </c>
       <c r="L507" s="1"/>
       <c r="M507" s="1">
@@ -25231,9 +25298,7 @@
       <c r="J509" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="K509" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K509" s="1"/>
       <c r="L509" s="1"/>
       <c r="M509" s="1">
         <v>0</v>
@@ -25399,7 +25464,9 @@
       <c r="J513" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="K513" s="1"/>
+      <c r="K513" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L513" s="1"/>
       <c r="M513" s="1">
         <v>0</v>
@@ -25438,7 +25505,9 @@
       <c r="J514" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="K514" s="1"/>
+      <c r="K514" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L514" s="1"/>
       <c r="M514" s="1">
         <v>0</v>
@@ -25476,8 +25545,12 @@
       <c r="I515" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J515" s="9"/>
-      <c r="K515" s="1"/>
+      <c r="J515" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="K515" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L515" s="1"/>
       <c r="M515" s="1">
         <v>0</v>
@@ -25515,8 +25588,12 @@
       <c r="I516" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J516" s="9"/>
-      <c r="K516" s="1"/>
+      <c r="J516" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="K516" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L516" s="1"/>
       <c r="M516" s="1">
         <v>0</v>
@@ -25554,8 +25631,12 @@
       <c r="I517" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J517" s="9"/>
-      <c r="K517" s="1"/>
+      <c r="J517" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="K517" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L517" s="1"/>
       <c r="M517" s="1">
         <v>0</v>
@@ -25593,8 +25674,12 @@
       <c r="I518" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J518" s="9"/>
-      <c r="K518" s="1"/>
+      <c r="J518" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="K518" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L518" s="1"/>
       <c r="M518" s="1">
         <v>0</v>
@@ -25632,8 +25717,12 @@
       <c r="I519" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J519" s="9"/>
-      <c r="K519" s="1"/>
+      <c r="J519" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="K519" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L519" s="1"/>
       <c r="M519" s="1">
         <v>0</v>
@@ -25671,8 +25760,12 @@
       <c r="I520" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J520" s="9"/>
-      <c r="K520" s="1"/>
+      <c r="J520" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="K520" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L520" s="1"/>
       <c r="M520" s="1">
         <v>0</v>
@@ -25710,8 +25803,12 @@
       <c r="I521" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J521" s="9"/>
-      <c r="K521" s="1"/>
+      <c r="J521" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="K521" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L521" s="1"/>
       <c r="M521" s="1">
         <v>0</v>
@@ -25721,8 +25818,340 @@
       </c>
       <c r="O521" s="1"/>
     </row>
+    <row r="522" spans="1:15">
+      <c r="A522" s="1">
+        <v>521</v>
+      </c>
+      <c r="B522" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D522" s="1"/>
+      <c r="E522" s="10">
+        <v>44075</v>
+      </c>
+      <c r="F522" s="10">
+        <v>44074</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J522" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="K522" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L522" s="1"/>
+      <c r="M522" s="1">
+        <v>0</v>
+      </c>
+      <c r="N522" s="1">
+        <v>0</v>
+      </c>
+      <c r="O522" s="1"/>
+    </row>
+    <row r="523" spans="1:15">
+      <c r="A523" s="1">
+        <v>522</v>
+      </c>
+      <c r="B523" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E523" s="10">
+        <v>44075</v>
+      </c>
+      <c r="F523" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J523" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="K523" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L523" s="1"/>
+      <c r="M523" s="1">
+        <v>0</v>
+      </c>
+      <c r="N523" s="1">
+        <v>0</v>
+      </c>
+      <c r="O523" s="1"/>
+    </row>
+    <row r="524" spans="1:15">
+      <c r="A524" s="1">
+        <v>523</v>
+      </c>
+      <c r="B524" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E524" s="10">
+        <v>44075</v>
+      </c>
+      <c r="F524" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J524" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="K524" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L524" s="1"/>
+      <c r="M524" s="1">
+        <v>0</v>
+      </c>
+      <c r="N524" s="1">
+        <v>0</v>
+      </c>
+      <c r="O524" s="1"/>
+    </row>
+    <row r="525" spans="1:15">
+      <c r="A525" s="1">
+        <v>524</v>
+      </c>
+      <c r="B525" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E525" s="10">
+        <v>44075</v>
+      </c>
+      <c r="F525" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J525" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="K525" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L525" s="1"/>
+      <c r="M525" s="1">
+        <v>0</v>
+      </c>
+      <c r="N525" s="1">
+        <v>0</v>
+      </c>
+      <c r="O525" s="1"/>
+    </row>
+    <row r="526" spans="1:15">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D526" s="1"/>
+      <c r="E526" s="10">
+        <v>44076</v>
+      </c>
+      <c r="F526" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J526" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="K526" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L526" s="1"/>
+      <c r="M526" s="1">
+        <v>0</v>
+      </c>
+      <c r="N526" s="1">
+        <v>0</v>
+      </c>
+      <c r="O526" s="1"/>
+    </row>
+    <row r="527" spans="1:15">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="B527" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D527" s="1"/>
+      <c r="E527" s="10">
+        <v>44076</v>
+      </c>
+      <c r="F527" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J527" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K527" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L527" s="1"/>
+      <c r="M527" s="1">
+        <v>0</v>
+      </c>
+      <c r="N527" s="1">
+        <v>0</v>
+      </c>
+      <c r="O527" s="1"/>
+    </row>
+    <row r="528" spans="1:15">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="B528" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D528" s="1"/>
+      <c r="E528" s="10">
+        <v>44076</v>
+      </c>
+      <c r="F528" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J528" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K528" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L528" s="1"/>
+      <c r="M528" s="1">
+        <v>0</v>
+      </c>
+      <c r="N528" s="1">
+        <v>0</v>
+      </c>
+      <c r="O528" s="1"/>
+    </row>
+    <row r="529" spans="1:15">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="B529" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D529" s="1"/>
+      <c r="E529" s="10">
+        <v>44076</v>
+      </c>
+      <c r="F529" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J529" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="K529" s="1"/>
+      <c r="L529" s="1"/>
+      <c r="M529" s="1">
+        <v>0</v>
+      </c>
+      <c r="N529" s="1">
+        <v>0</v>
+      </c>
+      <c r="O529" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O521"/>
+  <autoFilter ref="A1:O529"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="607">
   <si>
     <t>No</t>
   </si>
@@ -3832,13 +3832,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>熊本市中央区</t>
     <rPh sb="0" eb="2">
       <t>クマモト</t>
@@ -4128,13 +4121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>50代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -4396,6 +4382,167 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>天草市</t>
+    <rPh sb="0" eb="3">
+      <t>アマクサシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>自衛官</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天草市職員</t>
+    <rPh sb="0" eb="2">
+      <t>アマクサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4884,13 +5031,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O529"/>
+  <dimension ref="A1:O538"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B514" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B520" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C532" sqref="C532"/>
+      <selection pane="bottomRight" activeCell="A538" sqref="A538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -9008,7 +9155,7 @@
         <v>141</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="4">
@@ -10468,15 +10615,13 @@
       <c r="J139" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K139" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="4">
         <v>0</v>
       </c>
       <c r="N139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" s="1"/>
     </row>
@@ -12764,15 +12909,13 @@
       <c r="J197" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K197" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1">
         <v>0</v>
       </c>
       <c r="N197" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O197" s="1"/>
     </row>
@@ -12806,7 +12949,7 @@
         <v>242</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>144</v>
+        <v>601</v>
       </c>
       <c r="L198" s="1"/>
       <c r="M198" s="1">
@@ -19606,7 +19749,7 @@
         <v>38</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L370" s="1"/>
       <c r="M370" s="1">
@@ -19690,7 +19833,7 @@
         <v>40</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L372" s="1"/>
       <c r="M372" s="1">
@@ -19809,7 +19952,7 @@
         <v>38</v>
       </c>
       <c r="K375" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L375" s="1"/>
       <c r="M375" s="1">
@@ -21305,15 +21448,13 @@
       <c r="J412" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="K412" s="9" t="s">
-        <v>144</v>
-      </c>
+      <c r="K412" s="9"/>
       <c r="L412" s="1"/>
       <c r="M412" s="1">
         <v>0</v>
       </c>
       <c r="N412" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O412" s="1"/>
     </row>
@@ -22160,15 +22301,13 @@
       <c r="J433" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="K433" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K433" s="1"/>
       <c r="L433" s="1"/>
       <c r="M433" s="1">
         <v>0</v>
       </c>
       <c r="N433" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O433" s="1"/>
     </row>
@@ -22201,15 +22340,13 @@
       <c r="J434" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K434" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K434" s="1"/>
       <c r="L434" s="1"/>
       <c r="M434" s="1">
         <v>0</v>
       </c>
       <c r="N434" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O434" s="1"/>
     </row>
@@ -22810,15 +22947,13 @@
       <c r="J449" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="K449" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K449" s="1"/>
       <c r="L449" s="1"/>
       <c r="M449" s="1">
         <v>0</v>
       </c>
       <c r="N449" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O449" s="1"/>
     </row>
@@ -23255,15 +23390,13 @@
       <c r="J460" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="K460" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="K460" s="1"/>
       <c r="L460" s="1"/>
       <c r="M460" s="1">
         <v>0</v>
       </c>
       <c r="N460" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O460" s="1"/>
     </row>
@@ -23376,15 +23509,13 @@
       <c r="J463" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K463" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K463" s="1"/>
       <c r="L463" s="1"/>
       <c r="M463" s="1">
         <v>0</v>
       </c>
       <c r="N463" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O463" s="1"/>
     </row>
@@ -23419,15 +23550,13 @@
       <c r="J464" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="K464" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K464" s="1"/>
       <c r="L464" s="1"/>
       <c r="M464" s="1">
         <v>0</v>
       </c>
       <c r="N464" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O464" s="1"/>
     </row>
@@ -23462,15 +23591,13 @@
       <c r="J465" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="K465" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K465" s="1"/>
       <c r="L465" s="1"/>
       <c r="M465" s="1">
         <v>0</v>
       </c>
       <c r="N465" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O465" s="1"/>
     </row>
@@ -24041,7 +24168,7 @@
         <v>38</v>
       </c>
       <c r="K479" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L479" s="1"/>
       <c r="M479" s="1">
@@ -24165,15 +24292,13 @@
       <c r="J482" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="K482" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K482" s="1"/>
       <c r="L482" s="1"/>
       <c r="M482" s="1">
         <v>0</v>
       </c>
       <c r="N482" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O482" s="1"/>
     </row>
@@ -24206,7 +24331,7 @@
         <v>104</v>
       </c>
       <c r="J483" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K483" s="1" t="s">
         <v>103</v>
@@ -24240,7 +24365,7 @@
         <v>44069</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H484" s="1" t="s">
         <v>123</v>
@@ -24249,7 +24374,7 @@
         <v>76</v>
       </c>
       <c r="J484" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K484" s="1"/>
       <c r="L484" s="1"/>
@@ -24257,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="N484" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O484" s="1"/>
     </row>
@@ -24281,7 +24406,7 @@
         <v>44069</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H485" s="1" t="s">
         <v>121</v>
@@ -24290,7 +24415,7 @@
         <v>104</v>
       </c>
       <c r="J485" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K485" s="1"/>
       <c r="L485" s="1"/>
@@ -24322,16 +24447,16 @@
         <v>44069</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I486" s="1" t="s">
         <v>76</v>
       </c>
       <c r="J486" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K486" s="1" t="s">
         <v>515</v>
@@ -24366,23 +24491,21 @@
         <v>395</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I487" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J487" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="K487" s="1" t="s">
-        <v>516</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="K487" s="1"/>
       <c r="L487" s="1"/>
       <c r="M487" s="1">
         <v>0</v>
       </c>
       <c r="N487" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O487" s="1"/>
     </row>
@@ -24415,7 +24538,7 @@
         <v>104</v>
       </c>
       <c r="J488" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K488" s="1"/>
       <c r="L488" s="1"/>
@@ -24456,7 +24579,7 @@
         <v>132</v>
       </c>
       <c r="J489" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K489" s="1"/>
       <c r="L489" s="1"/>
@@ -24498,7 +24621,7 @@
       </c>
       <c r="J490" s="9"/>
       <c r="K490" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L490" s="1"/>
       <c r="M490" s="1">
@@ -24538,7 +24661,7 @@
         <v>104</v>
       </c>
       <c r="J491" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K491" s="1"/>
       <c r="L491" s="1"/>
@@ -24579,7 +24702,7 @@
         <v>104</v>
       </c>
       <c r="J492" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K492" s="1"/>
       <c r="L492" s="1"/>
@@ -24587,7 +24710,7 @@
         <v>0</v>
       </c>
       <c r="N492" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O492" s="1"/>
     </row>
@@ -24611,13 +24734,13 @@
         <v>44071</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H493" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J493" s="9"/>
       <c r="K493" s="1" t="s">
@@ -24652,19 +24775,19 @@
         <v>44071</v>
       </c>
       <c r="G494" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H494" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H494" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="I494" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J494" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K494" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L494" s="1"/>
       <c r="M494" s="1">
@@ -24695,19 +24818,19 @@
         <v>44071</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H495" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J495" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K495" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L495" s="1"/>
       <c r="M495" s="1">
@@ -24738,19 +24861,19 @@
         <v>44071</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H496" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I496" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J496" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K496" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L496" s="1"/>
       <c r="M496" s="1">
@@ -24781,16 +24904,16 @@
         <v>44071</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H497" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I497" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J497" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K497" s="1" t="s">
         <v>103</v>
@@ -24824,16 +24947,16 @@
         <v>44071</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H498" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I498" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J498" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K498" s="1" t="s">
         <v>181</v>
@@ -24867,10 +24990,10 @@
         <v>44071</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H499" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I499" s="1" t="s">
         <v>104</v>
@@ -24917,10 +25040,10 @@
         <v>132</v>
       </c>
       <c r="J500" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K500" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L500" s="1"/>
       <c r="M500" s="1">
@@ -24960,7 +25083,7 @@
         <v>132</v>
       </c>
       <c r="J501" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
@@ -24992,7 +25115,7 @@
         <v>44072</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H502" s="1" t="s">
         <v>122</v>
@@ -25001,10 +25124,10 @@
         <v>132</v>
       </c>
       <c r="J502" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K502" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L502" s="1"/>
       <c r="M502" s="1">
@@ -25044,7 +25167,7 @@
         <v>132</v>
       </c>
       <c r="J503" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
@@ -25085,7 +25208,7 @@
         <v>132</v>
       </c>
       <c r="J504" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
@@ -25134,7 +25257,7 @@
         <v>0</v>
       </c>
       <c r="N505" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O505" s="1"/>
     </row>
@@ -25158,26 +25281,24 @@
         <v>44072</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J506" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="K506" s="1" t="s">
-        <v>554</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="K506" s="1"/>
       <c r="L506" s="1"/>
       <c r="M506" s="1">
         <v>0</v>
       </c>
       <c r="N506" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O506" s="1"/>
     </row>
@@ -25201,10 +25322,10 @@
         <v>44072</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I507" s="1" t="s">
         <v>132</v>
@@ -25212,15 +25333,13 @@
       <c r="J507" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="K507" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K507" s="1"/>
       <c r="L507" s="1"/>
       <c r="M507" s="1">
         <v>0</v>
       </c>
       <c r="N507" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O507" s="1"/>
     </row>
@@ -25244,26 +25363,24 @@
         <v>44072</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J508" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="K508" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="K508" s="1"/>
       <c r="L508" s="1"/>
       <c r="M508" s="1">
         <v>0</v>
       </c>
       <c r="N508" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O508" s="1"/>
     </row>
@@ -25287,16 +25404,16 @@
         <v>44072</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I509" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J509" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
@@ -25328,16 +25445,16 @@
         <v>44072</v>
       </c>
       <c r="G510" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H510" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="H510" s="1" t="s">
+      <c r="I510" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I510" s="1" t="s">
+      <c r="J510" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="J510" s="9" t="s">
-        <v>553</v>
       </c>
       <c r="K510" s="1" t="s">
         <v>103</v>
@@ -25372,13 +25489,13 @@
         <v>198</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I511" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J511" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K511" s="1" t="s">
         <v>144</v>
@@ -25412,19 +25529,19 @@
         <v>44073</v>
       </c>
       <c r="G512" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H512" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="H512" s="1" t="s">
+      <c r="I512" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="I512" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="J512" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K512" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L512" s="1"/>
       <c r="M512" s="1">
@@ -25453,7 +25570,7 @@
         <v>44073</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H513" s="1" t="s">
         <v>130</v>
@@ -25462,7 +25579,7 @@
         <v>76</v>
       </c>
       <c r="J513" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K513" s="1" t="s">
         <v>103</v>
@@ -25494,7 +25611,7 @@
         <v>44073</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H514" s="1" t="s">
         <v>123</v>
@@ -25503,7 +25620,7 @@
         <v>104</v>
       </c>
       <c r="J514" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K514" s="1" t="s">
         <v>103</v>
@@ -25537,16 +25654,16 @@
         <v>44074</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H515" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I515" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J515" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K515" s="1" t="s">
         <v>103</v>
@@ -25580,26 +25697,24 @@
         <v>44074</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I516" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J516" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="K516" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="K516" s="1"/>
       <c r="L516" s="1"/>
       <c r="M516" s="1">
         <v>0</v>
       </c>
       <c r="N516" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O516" s="1"/>
     </row>
@@ -25623,16 +25738,16 @@
         <v>44074</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I517" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J517" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K517" s="1" t="s">
         <v>103</v>
@@ -25666,16 +25781,16 @@
         <v>44074</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I518" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J518" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K518" s="1" t="s">
         <v>103</v>
@@ -25709,16 +25824,16 @@
         <v>44074</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I519" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J519" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K519" s="1" t="s">
         <v>103</v>
@@ -25752,16 +25867,16 @@
         <v>44074</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I520" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J520" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K520" s="1" t="s">
         <v>103</v>
@@ -25795,16 +25910,16 @@
         <v>44074</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I521" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J521" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K521" s="1" t="s">
         <v>103</v>
@@ -25836,7 +25951,7 @@
         <v>44074</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H522" s="1" t="s">
         <v>123</v>
@@ -25845,7 +25960,7 @@
         <v>104</v>
       </c>
       <c r="J522" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K522" s="1" t="s">
         <v>103</v>
@@ -25888,7 +26003,7 @@
         <v>76</v>
       </c>
       <c r="J523" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K523" s="1" t="s">
         <v>103</v>
@@ -25922,16 +26037,16 @@
         <v>44075</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H524" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I524" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J524" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K524" s="1" t="s">
         <v>103</v>
@@ -25965,16 +26080,16 @@
         <v>44075</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H525" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I525" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J525" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K525" s="1" t="s">
         <v>103</v>
@@ -26006,16 +26121,16 @@
         <v>44075</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I526" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J526" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K526" s="1" t="s">
         <v>103</v>
@@ -26047,10 +26162,10 @@
         <v>44075</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H527" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I527" s="1" t="s">
         <v>132</v>
@@ -26088,7 +26203,7 @@
         <v>44075</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H528" s="1" t="s">
         <v>171</v>
@@ -26132,15 +26247,17 @@
         <v>189</v>
       </c>
       <c r="H529" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I529" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J529" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="K529" s="1"/>
+        <v>586</v>
+      </c>
+      <c r="K529" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L529" s="1"/>
       <c r="M529" s="1">
         <v>0</v>
@@ -26149,6 +26266,377 @@
         <v>0</v>
       </c>
       <c r="O529" s="1"/>
+    </row>
+    <row r="530" spans="1:15">
+      <c r="A530" s="1">
+        <v>529</v>
+      </c>
+      <c r="B530" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E530" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F530" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J530" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="K530" s="1"/>
+      <c r="L530" s="1"/>
+      <c r="M530" s="1">
+        <v>0</v>
+      </c>
+      <c r="N530" s="1">
+        <v>0</v>
+      </c>
+      <c r="O530" s="1"/>
+    </row>
+    <row r="531" spans="1:15">
+      <c r="A531" s="1">
+        <v>530</v>
+      </c>
+      <c r="B531" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E531" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F531" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J531" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="K531" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L531" s="1"/>
+      <c r="M531" s="1">
+        <v>0</v>
+      </c>
+      <c r="N531" s="1">
+        <v>0</v>
+      </c>
+      <c r="O531" s="1"/>
+    </row>
+    <row r="532" spans="1:15">
+      <c r="A532" s="1">
+        <v>531</v>
+      </c>
+      <c r="B532" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E532" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F532" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J532" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K532" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L532" s="1"/>
+      <c r="M532" s="1">
+        <v>0</v>
+      </c>
+      <c r="N532" s="1">
+        <v>0</v>
+      </c>
+      <c r="O532" s="1"/>
+    </row>
+    <row r="533" spans="1:15">
+      <c r="A533" s="1">
+        <v>532</v>
+      </c>
+      <c r="B533" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D533" s="1"/>
+      <c r="E533" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F533" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J533" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="K533" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L533" s="1"/>
+      <c r="M533" s="1">
+        <v>0</v>
+      </c>
+      <c r="N533" s="1">
+        <v>0</v>
+      </c>
+      <c r="O533" s="1"/>
+    </row>
+    <row r="534" spans="1:15">
+      <c r="A534" s="1">
+        <v>533</v>
+      </c>
+      <c r="B534" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E534" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F534" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J534" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="K534" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L534" s="1"/>
+      <c r="M534" s="1">
+        <v>0</v>
+      </c>
+      <c r="N534" s="1">
+        <v>0</v>
+      </c>
+      <c r="O534" s="1"/>
+    </row>
+    <row r="535" spans="1:15">
+      <c r="A535" s="1">
+        <v>534</v>
+      </c>
+      <c r="B535" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E535" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F535" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J535" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="K535" s="1"/>
+      <c r="L535" s="1"/>
+      <c r="M535" s="1">
+        <v>0</v>
+      </c>
+      <c r="N535" s="1">
+        <v>0</v>
+      </c>
+      <c r="O535" s="1"/>
+    </row>
+    <row r="536" spans="1:15">
+      <c r="A536" s="1">
+        <v>535</v>
+      </c>
+      <c r="B536" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E536" s="10">
+        <v>44078</v>
+      </c>
+      <c r="F536" s="10">
+        <v>44078</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J536" s="9"/>
+      <c r="K536" s="1"/>
+      <c r="L536" s="1"/>
+      <c r="M536" s="1">
+        <v>0</v>
+      </c>
+      <c r="N536" s="1">
+        <v>0</v>
+      </c>
+      <c r="O536" s="1"/>
+    </row>
+    <row r="537" spans="1:15">
+      <c r="A537" s="1">
+        <v>536</v>
+      </c>
+      <c r="B537" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E537" s="10">
+        <v>44078</v>
+      </c>
+      <c r="F537" s="10">
+        <v>44078</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J537" s="9"/>
+      <c r="K537" s="1"/>
+      <c r="L537" s="1"/>
+      <c r="M537" s="1">
+        <v>0</v>
+      </c>
+      <c r="N537" s="1">
+        <v>0</v>
+      </c>
+      <c r="O537" s="1"/>
+    </row>
+    <row r="538" spans="1:15">
+      <c r="A538" s="1">
+        <v>537</v>
+      </c>
+      <c r="B538" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E538" s="10">
+        <v>44078</v>
+      </c>
+      <c r="F538" s="10">
+        <v>44078</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J538" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K538" s="1"/>
+      <c r="L538" s="1"/>
+      <c r="M538" s="1">
+        <v>0</v>
+      </c>
+      <c r="N538" s="1">
+        <v>0</v>
+      </c>
+      <c r="O538" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O529"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -10,7 +10,7 @@
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$529</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$541</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="606">
   <si>
     <t>No</t>
   </si>
@@ -3821,13 +3821,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4598,7 +4591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4608,6 +4601,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4691,7 +4690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4743,6 +4742,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5031,13 +5038,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O538"/>
+  <dimension ref="A1:O545"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B520" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B529" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A538" sqref="A538"/>
+      <selection pane="bottomRight" activeCell="I541" sqref="I541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -9155,7 +9162,7 @@
         <v>141</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="4">
@@ -12949,7 +12956,7 @@
         <v>242</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L198" s="1"/>
       <c r="M198" s="1">
@@ -19718,47 +19725,45 @@
       <c r="O369" s="1"/>
     </row>
     <row r="370" spans="1:15">
-      <c r="A370" s="1">
+      <c r="A370" s="25">
         <v>369</v>
       </c>
-      <c r="B370" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D370" s="1" t="s">
+      <c r="B370" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C370" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D370" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E370" s="10">
+      <c r="E370" s="27">
         <v>44055</v>
       </c>
-      <c r="F370" s="10">
+      <c r="F370" s="27">
         <v>44055</v>
       </c>
-      <c r="G370" s="1" t="s">
+      <c r="G370" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="H370" s="1" t="s">
+      <c r="H370" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="I370" s="1" t="s">
+      <c r="I370" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="J370" s="9" t="s">
+      <c r="J370" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K370" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L370" s="1"/>
-      <c r="M370" s="1">
-        <v>0</v>
-      </c>
-      <c r="N370" s="1">
-        <v>0</v>
-      </c>
-      <c r="O370" s="1"/>
+      <c r="K370" s="25"/>
+      <c r="L370" s="25"/>
+      <c r="M370" s="25">
+        <v>0</v>
+      </c>
+      <c r="N370" s="25">
+        <v>1</v>
+      </c>
+      <c r="O370" s="25"/>
     </row>
     <row r="371" spans="1:15">
       <c r="A371" s="1">
@@ -19833,7 +19838,7 @@
         <v>40</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L372" s="1"/>
       <c r="M372" s="1">
@@ -22232,45 +22237,43 @@
       <c r="O431" s="1"/>
     </row>
     <row r="432" spans="1:15">
-      <c r="A432" s="1">
+      <c r="A432" s="25">
         <v>431</v>
       </c>
-      <c r="B432" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D432" s="1"/>
-      <c r="E432" s="10">
+      <c r="B432" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C432" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D432" s="25"/>
+      <c r="E432" s="27">
         <v>44063</v>
       </c>
-      <c r="F432" s="10">
+      <c r="F432" s="27">
         <v>44062</v>
       </c>
-      <c r="G432" s="1" t="s">
+      <c r="G432" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="H432" s="1" t="s">
+      <c r="H432" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="I432" s="1" t="s">
+      <c r="I432" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="J432" s="9" t="s">
+      <c r="J432" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="K432" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L432" s="1"/>
-      <c r="M432" s="1">
-        <v>0</v>
-      </c>
-      <c r="N432" s="1">
-        <v>0</v>
-      </c>
-      <c r="O432" s="1"/>
+      <c r="K432" s="25"/>
+      <c r="L432" s="25"/>
+      <c r="M432" s="25">
+        <v>0</v>
+      </c>
+      <c r="N432" s="25">
+        <v>1</v>
+      </c>
+      <c r="O432" s="25"/>
     </row>
     <row r="433" spans="1:15">
       <c r="A433" s="1">
@@ -22351,45 +22354,43 @@
       <c r="O434" s="1"/>
     </row>
     <row r="435" spans="1:15">
-      <c r="A435" s="1">
+      <c r="A435" s="25">
         <v>434</v>
       </c>
-      <c r="B435" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D435" s="1"/>
-      <c r="E435" s="10">
+      <c r="B435" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C435" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D435" s="25"/>
+      <c r="E435" s="27">
         <v>44063</v>
       </c>
-      <c r="F435" s="10">
+      <c r="F435" s="27">
         <v>44062</v>
       </c>
-      <c r="G435" s="1" t="s">
+      <c r="G435" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="H435" s="1" t="s">
+      <c r="H435" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="I435" s="1" t="s">
+      <c r="I435" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="J435" s="9" t="s">
+      <c r="J435" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="K435" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L435" s="1"/>
-      <c r="M435" s="1">
-        <v>0</v>
-      </c>
-      <c r="N435" s="1">
-        <v>0</v>
-      </c>
-      <c r="O435" s="1"/>
+      <c r="K435" s="25"/>
+      <c r="L435" s="25"/>
+      <c r="M435" s="25">
+        <v>0</v>
+      </c>
+      <c r="N435" s="25">
+        <v>1</v>
+      </c>
+      <c r="O435" s="25"/>
     </row>
     <row r="436" spans="1:15">
       <c r="A436" s="1">
@@ -22554,47 +22555,45 @@
       <c r="O439" s="1"/>
     </row>
     <row r="440" spans="1:15">
-      <c r="A440" s="1">
+      <c r="A440" s="25">
         <v>439</v>
       </c>
-      <c r="B440" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D440" s="1" t="s">
+      <c r="B440" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C440" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D440" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="E440" s="10">
+      <c r="E440" s="27">
         <v>44063</v>
       </c>
-      <c r="F440" s="10">
+      <c r="F440" s="27">
         <v>44063</v>
       </c>
-      <c r="G440" s="1" t="s">
+      <c r="G440" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="H440" s="1" t="s">
+      <c r="H440" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="I440" s="1" t="s">
+      <c r="I440" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="J440" s="9" t="s">
+      <c r="J440" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K440" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L440" s="1"/>
-      <c r="M440" s="1">
-        <v>0</v>
-      </c>
-      <c r="N440" s="1">
-        <v>0</v>
-      </c>
-      <c r="O440" s="1"/>
+      <c r="K440" s="25"/>
+      <c r="L440" s="25"/>
+      <c r="M440" s="25">
+        <v>0</v>
+      </c>
+      <c r="N440" s="25">
+        <v>1</v>
+      </c>
+      <c r="O440" s="25"/>
     </row>
     <row r="441" spans="1:15">
       <c r="A441" s="1">
@@ -24137,47 +24136,45 @@
       <c r="O478" s="1"/>
     </row>
     <row r="479" spans="1:15">
-      <c r="A479" s="1">
+      <c r="A479" s="25">
         <v>478</v>
       </c>
-      <c r="B479" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D479" s="1" t="s">
+      <c r="B479" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C479" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D479" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E479" s="10">
+      <c r="E479" s="27">
         <v>44068</v>
       </c>
-      <c r="F479" s="10">
+      <c r="F479" s="27">
         <v>44068</v>
       </c>
-      <c r="G479" s="1" t="s">
+      <c r="G479" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="H479" s="1" t="s">
+      <c r="H479" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I479" s="1" t="s">
+      <c r="I479" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="J479" s="9" t="s">
+      <c r="J479" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K479" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L479" s="1"/>
-      <c r="M479" s="1">
-        <v>0</v>
-      </c>
-      <c r="N479" s="1">
-        <v>0</v>
-      </c>
-      <c r="O479" s="1"/>
+      <c r="K479" s="25"/>
+      <c r="L479" s="25"/>
+      <c r="M479" s="25">
+        <v>0</v>
+      </c>
+      <c r="N479" s="25">
+        <v>1</v>
+      </c>
+      <c r="O479" s="25"/>
     </row>
     <row r="480" spans="1:15">
       <c r="A480" s="1">
@@ -24331,7 +24328,7 @@
         <v>104</v>
       </c>
       <c r="J483" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K483" s="1" t="s">
         <v>103</v>
@@ -24365,7 +24362,7 @@
         <v>44069</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H484" s="1" t="s">
         <v>123</v>
@@ -24374,7 +24371,7 @@
         <v>76</v>
       </c>
       <c r="J484" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K484" s="1"/>
       <c r="L484" s="1"/>
@@ -24406,7 +24403,7 @@
         <v>44069</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H485" s="1" t="s">
         <v>121</v>
@@ -24415,7 +24412,7 @@
         <v>104</v>
       </c>
       <c r="J485" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K485" s="1"/>
       <c r="L485" s="1"/>
@@ -24428,47 +24425,45 @@
       <c r="O485" s="1"/>
     </row>
     <row r="486" spans="1:15">
-      <c r="A486" s="1">
+      <c r="A486" s="25">
         <v>485</v>
       </c>
-      <c r="B486" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D486" s="1" t="s">
+      <c r="B486" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C486" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D486" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E486" s="10">
+      <c r="E486" s="27">
         <v>44069</v>
       </c>
-      <c r="F486" s="10">
+      <c r="F486" s="27">
         <v>44069</v>
       </c>
-      <c r="G486" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H486" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I486" s="1" t="s">
+      <c r="G486" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="H486" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="I486" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="J486" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="K486" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="L486" s="1"/>
-      <c r="M486" s="1">
-        <v>0</v>
-      </c>
-      <c r="N486" s="1">
-        <v>0</v>
-      </c>
-      <c r="O486" s="1"/>
+      <c r="J486" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="K486" s="25"/>
+      <c r="L486" s="25"/>
+      <c r="M486" s="25">
+        <v>0</v>
+      </c>
+      <c r="N486" s="25">
+        <v>1</v>
+      </c>
+      <c r="O486" s="25"/>
     </row>
     <row r="487" spans="1:15">
       <c r="A487" s="1">
@@ -24491,13 +24486,13 @@
         <v>395</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I487" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J487" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K487" s="1"/>
       <c r="L487" s="1"/>
@@ -24510,45 +24505,45 @@
       <c r="O487" s="1"/>
     </row>
     <row r="488" spans="1:15">
-      <c r="A488" s="1">
+      <c r="A488" s="25">
         <v>487</v>
       </c>
-      <c r="B488" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D488" s="1" t="s">
+      <c r="B488" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C488" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D488" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E488" s="10">
+      <c r="E488" s="27">
         <v>44070</v>
       </c>
-      <c r="F488" s="10">
+      <c r="F488" s="27">
         <v>44070</v>
       </c>
-      <c r="G488" s="1" t="s">
+      <c r="G488" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H488" s="1" t="s">
+      <c r="H488" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="I488" s="1" t="s">
+      <c r="I488" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="J488" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="K488" s="1"/>
-      <c r="L488" s="1"/>
-      <c r="M488" s="1">
-        <v>0</v>
-      </c>
-      <c r="N488" s="1">
-        <v>0</v>
-      </c>
-      <c r="O488" s="1"/>
+      <c r="J488" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="K488" s="25"/>
+      <c r="L488" s="25"/>
+      <c r="M488" s="25">
+        <v>0</v>
+      </c>
+      <c r="N488" s="25">
+        <v>1</v>
+      </c>
+      <c r="O488" s="25"/>
     </row>
     <row r="489" spans="1:15">
       <c r="A489" s="1">
@@ -24579,7 +24574,7 @@
         <v>132</v>
       </c>
       <c r="J489" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K489" s="1"/>
       <c r="L489" s="1"/>
@@ -24621,7 +24616,7 @@
       </c>
       <c r="J490" s="9"/>
       <c r="K490" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L490" s="1"/>
       <c r="M490" s="1">
@@ -24661,7 +24656,7 @@
         <v>104</v>
       </c>
       <c r="J491" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K491" s="1"/>
       <c r="L491" s="1"/>
@@ -24702,7 +24697,7 @@
         <v>104</v>
       </c>
       <c r="J492" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K492" s="1"/>
       <c r="L492" s="1"/>
@@ -24734,13 +24729,13 @@
         <v>44071</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H493" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J493" s="9"/>
       <c r="K493" s="1" t="s">
@@ -24775,16 +24770,16 @@
         <v>44071</v>
       </c>
       <c r="G494" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H494" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="H494" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="I494" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J494" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K494" s="1" t="s">
         <v>144</v>
@@ -24799,47 +24794,45 @@
       <c r="O494" s="1"/>
     </row>
     <row r="495" spans="1:15">
-      <c r="A495" s="1">
+      <c r="A495" s="25">
         <v>494</v>
       </c>
-      <c r="B495" s="1">
-        <v>430005</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D495" s="1" t="s">
+      <c r="B495" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C495" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D495" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E495" s="10">
+      <c r="E495" s="27">
         <v>44071</v>
       </c>
-      <c r="F495" s="10">
+      <c r="F495" s="27">
         <v>44071</v>
       </c>
-      <c r="G495" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H495" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I495" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="J495" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="K495" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L495" s="1"/>
-      <c r="M495" s="1">
-        <v>0</v>
-      </c>
-      <c r="N495" s="1">
-        <v>0</v>
-      </c>
-      <c r="O495" s="1"/>
+      <c r="G495" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="H495" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="I495" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="J495" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="K495" s="25"/>
+      <c r="L495" s="25"/>
+      <c r="M495" s="25">
+        <v>0</v>
+      </c>
+      <c r="N495" s="25">
+        <v>1</v>
+      </c>
+      <c r="O495" s="25"/>
     </row>
     <row r="496" spans="1:15">
       <c r="A496" s="1">
@@ -24861,19 +24854,19 @@
         <v>44071</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H496" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I496" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J496" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K496" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L496" s="1"/>
       <c r="M496" s="1">
@@ -24904,16 +24897,16 @@
         <v>44071</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H497" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I497" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J497" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K497" s="1" t="s">
         <v>103</v>
@@ -24947,16 +24940,16 @@
         <v>44071</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H498" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I498" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J498" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K498" s="1" t="s">
         <v>181</v>
@@ -24990,10 +24983,10 @@
         <v>44071</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H499" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I499" s="1" t="s">
         <v>104</v>
@@ -25040,10 +25033,10 @@
         <v>132</v>
       </c>
       <c r="J500" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K500" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L500" s="1"/>
       <c r="M500" s="1">
@@ -25083,7 +25076,7 @@
         <v>132</v>
       </c>
       <c r="J501" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
@@ -25115,7 +25108,7 @@
         <v>44072</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H502" s="1" t="s">
         <v>122</v>
@@ -25124,10 +25117,10 @@
         <v>132</v>
       </c>
       <c r="J502" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K502" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L502" s="1"/>
       <c r="M502" s="1">
@@ -25167,7 +25160,7 @@
         <v>132</v>
       </c>
       <c r="J503" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
@@ -25208,7 +25201,7 @@
         <v>132</v>
       </c>
       <c r="J504" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
@@ -25281,16 +25274,16 @@
         <v>44072</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J506" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K506" s="1"/>
       <c r="L506" s="1"/>
@@ -25322,10 +25315,10 @@
         <v>44072</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I507" s="1" t="s">
         <v>132</v>
@@ -25363,16 +25356,16 @@
         <v>44072</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J508" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K508" s="1"/>
       <c r="L508" s="1"/>
@@ -25404,16 +25397,16 @@
         <v>44072</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I509" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J509" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
@@ -25445,16 +25438,16 @@
         <v>44072</v>
       </c>
       <c r="G510" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H510" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H510" s="1" t="s">
+      <c r="I510" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="I510" s="1" t="s">
+      <c r="J510" s="9" t="s">
         <v>551</v>
-      </c>
-      <c r="J510" s="9" t="s">
-        <v>552</v>
       </c>
       <c r="K510" s="1" t="s">
         <v>103</v>
@@ -25489,13 +25482,13 @@
         <v>198</v>
       </c>
       <c r="H511" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J511" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="I511" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="J511" s="9" t="s">
-        <v>556</v>
       </c>
       <c r="K511" s="1" t="s">
         <v>144</v>
@@ -25510,47 +25503,47 @@
       <c r="O511" s="1"/>
     </row>
     <row r="512" spans="1:15">
-      <c r="A512" s="1">
+      <c r="A512" s="25">
         <v>511</v>
       </c>
-      <c r="B512" s="1">
-        <v>430005</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D512" s="1" t="s">
+      <c r="B512" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C512" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D512" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E512" s="10">
+      <c r="E512" s="27">
         <v>44073</v>
       </c>
-      <c r="F512" s="10">
+      <c r="F512" s="27">
         <v>44073</v>
       </c>
-      <c r="G512" s="1" t="s">
+      <c r="G512" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="H512" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="H512" s="1" t="s">
+      <c r="I512" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="I512" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="J512" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="K512" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L512" s="1"/>
-      <c r="M512" s="1">
-        <v>0</v>
-      </c>
-      <c r="N512" s="1">
-        <v>0</v>
-      </c>
-      <c r="O512" s="1"/>
+      <c r="J512" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="K512" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L512" s="25"/>
+      <c r="M512" s="25">
+        <v>0</v>
+      </c>
+      <c r="N512" s="25">
+        <v>0</v>
+      </c>
+      <c r="O512" s="25"/>
     </row>
     <row r="513" spans="1:15">
       <c r="A513" s="1">
@@ -25570,7 +25563,7 @@
         <v>44073</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H513" s="1" t="s">
         <v>130</v>
@@ -25579,7 +25572,7 @@
         <v>76</v>
       </c>
       <c r="J513" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K513" s="1" t="s">
         <v>103</v>
@@ -25611,7 +25604,7 @@
         <v>44073</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H514" s="1" t="s">
         <v>123</v>
@@ -25620,7 +25613,7 @@
         <v>104</v>
       </c>
       <c r="J514" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K514" s="1" t="s">
         <v>103</v>
@@ -25654,16 +25647,16 @@
         <v>44074</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H515" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I515" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="I515" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="J515" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K515" s="1" t="s">
         <v>103</v>
@@ -25697,16 +25690,16 @@
         <v>44074</v>
       </c>
       <c r="G516" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H516" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="H516" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="I516" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J516" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K516" s="1"/>
       <c r="L516" s="1"/>
@@ -25738,16 +25731,16 @@
         <v>44074</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I517" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J517" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K517" s="1" t="s">
         <v>103</v>
@@ -25781,16 +25774,16 @@
         <v>44074</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I518" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J518" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K518" s="1" t="s">
         <v>103</v>
@@ -25824,16 +25817,16 @@
         <v>44074</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I519" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J519" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K519" s="1" t="s">
         <v>103</v>
@@ -25867,16 +25860,16 @@
         <v>44074</v>
       </c>
       <c r="G520" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H520" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="H520" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="I520" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J520" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K520" s="1" t="s">
         <v>103</v>
@@ -25910,16 +25903,16 @@
         <v>44074</v>
       </c>
       <c r="G521" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H521" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="H521" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="I521" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J521" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K521" s="1" t="s">
         <v>103</v>
@@ -25951,7 +25944,7 @@
         <v>44074</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H522" s="1" t="s">
         <v>123</v>
@@ -25960,7 +25953,7 @@
         <v>104</v>
       </c>
       <c r="J522" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K522" s="1" t="s">
         <v>103</v>
@@ -26003,7 +25996,7 @@
         <v>76</v>
       </c>
       <c r="J523" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K523" s="1" t="s">
         <v>103</v>
@@ -26018,47 +26011,47 @@
       <c r="O523" s="1"/>
     </row>
     <row r="524" spans="1:15">
-      <c r="A524" s="1">
+      <c r="A524" s="25">
         <v>523</v>
       </c>
-      <c r="B524" s="1">
-        <v>430005</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D524" s="1" t="s">
+      <c r="B524" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C524" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D524" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E524" s="10">
+      <c r="E524" s="27">
         <v>44075</v>
       </c>
-      <c r="F524" s="10">
+      <c r="F524" s="27">
         <v>44075</v>
       </c>
-      <c r="G524" s="1" t="s">
+      <c r="G524" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="H524" s="25" t="s">
         <v>578</v>
       </c>
-      <c r="H524" s="1" t="s">
+      <c r="I524" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J524" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="I524" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J524" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="K524" s="1" t="s">
+      <c r="K524" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L524" s="1"/>
-      <c r="M524" s="1">
-        <v>0</v>
-      </c>
-      <c r="N524" s="1">
-        <v>0</v>
-      </c>
-      <c r="O524" s="1"/>
+      <c r="L524" s="25"/>
+      <c r="M524" s="25">
+        <v>0</v>
+      </c>
+      <c r="N524" s="25">
+        <v>0</v>
+      </c>
+      <c r="O524" s="25"/>
     </row>
     <row r="525" spans="1:15">
       <c r="A525" s="1">
@@ -26080,16 +26073,16 @@
         <v>44075</v>
       </c>
       <c r="G525" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H525" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="H525" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="I525" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J525" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K525" s="1" t="s">
         <v>103</v>
@@ -26121,16 +26114,16 @@
         <v>44075</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I526" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J526" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K526" s="1" t="s">
         <v>103</v>
@@ -26162,10 +26155,10 @@
         <v>44075</v>
       </c>
       <c r="G527" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H527" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="H527" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="I527" s="1" t="s">
         <v>132</v>
@@ -26203,7 +26196,7 @@
         <v>44075</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H528" s="1" t="s">
         <v>171</v>
@@ -26247,13 +26240,13 @@
         <v>189</v>
       </c>
       <c r="H529" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I529" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J529" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K529" s="1" t="s">
         <v>103</v>
@@ -26268,45 +26261,47 @@
       <c r="O529" s="1"/>
     </row>
     <row r="530" spans="1:15">
-      <c r="A530" s="1">
+      <c r="A530" s="25">
         <v>529</v>
       </c>
-      <c r="B530" s="1">
-        <v>430005</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D530" s="1" t="s">
+      <c r="B530" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C530" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D530" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E530" s="10">
+      <c r="E530" s="27">
         <v>44077</v>
       </c>
-      <c r="F530" s="10">
+      <c r="F530" s="27">
         <v>44077</v>
       </c>
-      <c r="G530" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H530" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I530" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="J530" s="9" t="s">
+      <c r="G530" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="H530" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="I530" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="J530" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="K530" s="1"/>
-      <c r="L530" s="1"/>
-      <c r="M530" s="1">
-        <v>0</v>
-      </c>
-      <c r="N530" s="1">
-        <v>0</v>
-      </c>
-      <c r="O530" s="1"/>
+      <c r="K530" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L530" s="25"/>
+      <c r="M530" s="25">
+        <v>0</v>
+      </c>
+      <c r="N530" s="25">
+        <v>0</v>
+      </c>
+      <c r="O530" s="25"/>
     </row>
     <row r="531" spans="1:15">
       <c r="A531" s="1">
@@ -26328,16 +26323,16 @@
         <v>44077</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H531" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I531" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J531" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K531" s="1" t="s">
         <v>103</v>
@@ -26371,13 +26366,13 @@
         <v>44077</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H532" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I532" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="I532" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="J532" s="9" t="s">
         <v>43</v>
@@ -26412,16 +26407,16 @@
         <v>44077</v>
       </c>
       <c r="G533" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H533" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="H533" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="I533" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J533" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K533" s="1" t="s">
         <v>144</v>
@@ -26455,7 +26450,7 @@
         <v>44077</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H534" s="1" t="s">
         <v>122</v>
@@ -26464,7 +26459,7 @@
         <v>132</v>
       </c>
       <c r="J534" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K534" s="1" t="s">
         <v>144</v>
@@ -26479,45 +26474,47 @@
       <c r="O534" s="1"/>
     </row>
     <row r="535" spans="1:15">
-      <c r="A535" s="1">
+      <c r="A535" s="25">
         <v>534</v>
       </c>
-      <c r="B535" s="1">
-        <v>430005</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D535" s="1" t="s">
+      <c r="B535" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C535" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D535" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E535" s="10">
+      <c r="E535" s="27">
         <v>44077</v>
       </c>
-      <c r="F535" s="10">
+      <c r="F535" s="27">
         <v>44077</v>
       </c>
-      <c r="G535" s="1" t="s">
+      <c r="G535" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="H535" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="H535" s="1" t="s">
+      <c r="I535" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="I535" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="J535" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="K535" s="1"/>
-      <c r="L535" s="1"/>
-      <c r="M535" s="1">
-        <v>0</v>
-      </c>
-      <c r="N535" s="1">
-        <v>0</v>
-      </c>
-      <c r="O535" s="1"/>
+      <c r="J535" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="K535" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L535" s="25"/>
+      <c r="M535" s="25">
+        <v>0</v>
+      </c>
+      <c r="N535" s="25">
+        <v>0</v>
+      </c>
+      <c r="O535" s="25"/>
     </row>
     <row r="536" spans="1:15">
       <c r="A536" s="1">
@@ -26539,7 +26536,7 @@
         <v>44078</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H536" s="1" t="s">
         <v>124</v>
@@ -26559,87 +26556,272 @@
       <c r="O536" s="1"/>
     </row>
     <row r="537" spans="1:15">
-      <c r="A537" s="1">
+      <c r="A537" s="25">
         <v>536</v>
       </c>
-      <c r="B537" s="1">
-        <v>430005</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D537" s="1" t="s">
+      <c r="B537" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C537" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D537" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E537" s="10">
+      <c r="E537" s="27">
         <v>44078</v>
       </c>
-      <c r="F537" s="10">
+      <c r="F537" s="27">
         <v>44078</v>
       </c>
-      <c r="G537" s="1" t="s">
+      <c r="G537" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="H537" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="I537" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="J537" s="28"/>
+      <c r="K537" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L537" s="25"/>
+      <c r="M537" s="25">
+        <v>0</v>
+      </c>
+      <c r="N537" s="25">
+        <v>0</v>
+      </c>
+      <c r="O537" s="25"/>
+    </row>
+    <row r="538" spans="1:15">
+      <c r="A538" s="25">
+        <v>537</v>
+      </c>
+      <c r="B538" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C538" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D538" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E538" s="27">
+        <v>44078</v>
+      </c>
+      <c r="F538" s="27">
+        <v>44078</v>
+      </c>
+      <c r="G538" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="H538" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I538" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="J538" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K538" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="L538" s="25"/>
+      <c r="M538" s="25">
+        <v>0</v>
+      </c>
+      <c r="N538" s="25">
+        <v>0</v>
+      </c>
+      <c r="O538" s="25"/>
+    </row>
+    <row r="539" spans="1:15">
+      <c r="A539" s="25">
+        <v>538</v>
+      </c>
+      <c r="B539" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C539" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D539" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E539" s="27">
+        <v>44079</v>
+      </c>
+      <c r="F539" s="27">
+        <v>44078</v>
+      </c>
+      <c r="G539" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="H539" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I539" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J539" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K539" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L539" s="25"/>
+      <c r="M539" s="25">
+        <v>0</v>
+      </c>
+      <c r="N539" s="25">
+        <v>0</v>
+      </c>
+      <c r="O539" s="25"/>
+    </row>
+    <row r="540" spans="1:15">
+      <c r="A540" s="1">
+        <v>539</v>
+      </c>
+      <c r="B540" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E540" s="10">
+        <v>44079</v>
+      </c>
+      <c r="F540" s="10">
+        <v>44079</v>
+      </c>
+      <c r="G540" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="H537" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="I537" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="J537" s="9"/>
-      <c r="K537" s="1"/>
-      <c r="L537" s="1"/>
-      <c r="M537" s="1">
-        <v>0</v>
-      </c>
-      <c r="N537" s="1">
-        <v>0</v>
-      </c>
-      <c r="O537" s="1"/>
-    </row>
-    <row r="538" spans="1:15">
-      <c r="A538" s="1">
-        <v>537</v>
-      </c>
-      <c r="B538" s="1">
-        <v>430005</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D538" s="1" t="s">
+      <c r="H540" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J540" s="9"/>
+      <c r="K540" s="1"/>
+      <c r="L540" s="1"/>
+      <c r="M540" s="1"/>
+      <c r="N540" s="1"/>
+      <c r="O540" s="1"/>
+    </row>
+    <row r="541" spans="1:15">
+      <c r="A541" s="1">
+        <v>540</v>
+      </c>
+      <c r="B541" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D541" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E538" s="10">
-        <v>44078</v>
-      </c>
-      <c r="F538" s="10">
-        <v>44078</v>
-      </c>
-      <c r="G538" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H538" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I538" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="J538" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K538" s="1"/>
-      <c r="L538" s="1"/>
-      <c r="M538" s="1">
-        <v>0</v>
-      </c>
-      <c r="N538" s="1">
-        <v>0</v>
-      </c>
-      <c r="O538" s="1"/>
+      <c r="E541" s="10">
+        <v>44079</v>
+      </c>
+      <c r="F541" s="10">
+        <v>44079</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J541" s="9"/>
+      <c r="K541" s="1"/>
+      <c r="L541" s="1"/>
+      <c r="M541" s="1"/>
+      <c r="N541" s="1"/>
+      <c r="O541" s="1"/>
+    </row>
+    <row r="542" spans="1:15">
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
+      <c r="D542" s="1"/>
+      <c r="E542" s="10"/>
+      <c r="F542" s="10"/>
+      <c r="G542" s="1"/>
+      <c r="H542" s="1"/>
+      <c r="I542" s="1"/>
+      <c r="J542" s="9"/>
+      <c r="K542" s="1"/>
+      <c r="L542" s="1"/>
+      <c r="M542" s="1"/>
+      <c r="N542" s="1"/>
+      <c r="O542" s="1"/>
+    </row>
+    <row r="543" spans="1:15">
+      <c r="A543" s="1"/>
+      <c r="B543" s="1"/>
+      <c r="C543" s="1"/>
+      <c r="D543" s="1"/>
+      <c r="E543" s="10"/>
+      <c r="F543" s="10"/>
+      <c r="G543" s="1"/>
+      <c r="H543" s="1"/>
+      <c r="I543" s="1"/>
+      <c r="J543" s="9"/>
+      <c r="K543" s="1"/>
+      <c r="L543" s="1"/>
+      <c r="M543" s="1"/>
+      <c r="N543" s="1"/>
+      <c r="O543" s="1"/>
+    </row>
+    <row r="544" spans="1:15">
+      <c r="A544" s="1"/>
+      <c r="B544" s="1"/>
+      <c r="C544" s="1"/>
+      <c r="D544" s="1"/>
+      <c r="E544" s="10"/>
+      <c r="F544" s="10"/>
+      <c r="G544" s="1"/>
+      <c r="H544" s="1"/>
+      <c r="I544" s="1"/>
+      <c r="J544" s="9"/>
+      <c r="K544" s="1"/>
+      <c r="L544" s="1"/>
+      <c r="M544" s="1"/>
+      <c r="N544" s="1"/>
+      <c r="O544" s="1"/>
+    </row>
+    <row r="545" spans="1:15">
+      <c r="A545" s="1"/>
+      <c r="B545" s="1"/>
+      <c r="C545" s="1"/>
+      <c r="D545" s="1"/>
+      <c r="E545" s="10"/>
+      <c r="F545" s="10"/>
+      <c r="G545" s="1"/>
+      <c r="H545" s="1"/>
+      <c r="I545" s="1"/>
+      <c r="J545" s="9"/>
+      <c r="K545" s="1"/>
+      <c r="L545" s="1"/>
+      <c r="M545" s="1"/>
+      <c r="N545" s="1"/>
+      <c r="O545" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O529"/>
+  <autoFilter ref="A1:O541"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$541</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$544</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="608">
   <si>
     <t>No</t>
   </si>
@@ -3960,13 +3960,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自営業</t>
     <rPh sb="0" eb="3">
       <t>ジエイギョウ</t>
@@ -4498,13 +4491,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自営業</t>
     <rPh sb="0" eb="3">
       <t>ジエイギョウ</t>
@@ -4536,6 +4522,46 @@
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4591,7 +4617,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4601,12 +4627,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4690,7 +4710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4742,14 +4762,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5038,13 +5050,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O545"/>
+  <dimension ref="A1:O544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B529" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B528" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I541" sqref="I541"/>
+      <selection pane="bottomRight" activeCell="F547" sqref="F547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -9162,7 +9174,7 @@
         <v>141</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="4">
@@ -12956,14 +12968,14 @@
         <v>242</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>600</v>
+        <v>36</v>
       </c>
       <c r="L198" s="1"/>
       <c r="M198" s="1">
         <v>0</v>
       </c>
       <c r="N198" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O198" s="1"/>
     </row>
@@ -19725,45 +19737,45 @@
       <c r="O369" s="1"/>
     </row>
     <row r="370" spans="1:15">
-      <c r="A370" s="25">
+      <c r="A370" s="1">
         <v>369</v>
       </c>
-      <c r="B370" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C370" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D370" s="25" t="s">
+      <c r="B370" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D370" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E370" s="27">
+      <c r="E370" s="10">
         <v>44055</v>
       </c>
-      <c r="F370" s="27">
+      <c r="F370" s="10">
         <v>44055</v>
       </c>
-      <c r="G370" s="25" t="s">
+      <c r="G370" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H370" s="25" t="s">
+      <c r="H370" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I370" s="25" t="s">
+      <c r="I370" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J370" s="28" t="s">
+      <c r="J370" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K370" s="25"/>
-      <c r="L370" s="25"/>
-      <c r="M370" s="25">
-        <v>0</v>
-      </c>
-      <c r="N370" s="25">
-        <v>1</v>
-      </c>
-      <c r="O370" s="25"/>
+      <c r="K370" s="1"/>
+      <c r="L370" s="1"/>
+      <c r="M370" s="1">
+        <v>0</v>
+      </c>
+      <c r="N370" s="1">
+        <v>1</v>
+      </c>
+      <c r="O370" s="1"/>
     </row>
     <row r="371" spans="1:15">
       <c r="A371" s="1">
@@ -19838,7 +19850,7 @@
         <v>40</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L372" s="1"/>
       <c r="M372" s="1">
@@ -22237,43 +22249,43 @@
       <c r="O431" s="1"/>
     </row>
     <row r="432" spans="1:15">
-      <c r="A432" s="25">
+      <c r="A432" s="1">
         <v>431</v>
       </c>
-      <c r="B432" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C432" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D432" s="25"/>
-      <c r="E432" s="27">
+      <c r="B432" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D432" s="1"/>
+      <c r="E432" s="10">
         <v>44063</v>
       </c>
-      <c r="F432" s="27">
+      <c r="F432" s="10">
         <v>44062</v>
       </c>
-      <c r="G432" s="25" t="s">
+      <c r="G432" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H432" s="25" t="s">
+      <c r="H432" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="I432" s="25" t="s">
+      <c r="I432" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J432" s="28" t="s">
+      <c r="J432" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="K432" s="25"/>
-      <c r="L432" s="25"/>
-      <c r="M432" s="25">
-        <v>0</v>
-      </c>
-      <c r="N432" s="25">
-        <v>1</v>
-      </c>
-      <c r="O432" s="25"/>
+      <c r="K432" s="1"/>
+      <c r="L432" s="1"/>
+      <c r="M432" s="1">
+        <v>0</v>
+      </c>
+      <c r="N432" s="1">
+        <v>1</v>
+      </c>
+      <c r="O432" s="1"/>
     </row>
     <row r="433" spans="1:15">
       <c r="A433" s="1">
@@ -22354,43 +22366,43 @@
       <c r="O434" s="1"/>
     </row>
     <row r="435" spans="1:15">
-      <c r="A435" s="25">
+      <c r="A435" s="1">
         <v>434</v>
       </c>
-      <c r="B435" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C435" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D435" s="25"/>
-      <c r="E435" s="27">
+      <c r="B435" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D435" s="1"/>
+      <c r="E435" s="10">
         <v>44063</v>
       </c>
-      <c r="F435" s="27">
+      <c r="F435" s="10">
         <v>44062</v>
       </c>
-      <c r="G435" s="25" t="s">
+      <c r="G435" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H435" s="25" t="s">
+      <c r="H435" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I435" s="25" t="s">
+      <c r="I435" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J435" s="28" t="s">
+      <c r="J435" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="K435" s="25"/>
-      <c r="L435" s="25"/>
-      <c r="M435" s="25">
-        <v>0</v>
-      </c>
-      <c r="N435" s="25">
-        <v>1</v>
-      </c>
-      <c r="O435" s="25"/>
+      <c r="K435" s="1"/>
+      <c r="L435" s="1"/>
+      <c r="M435" s="1">
+        <v>0</v>
+      </c>
+      <c r="N435" s="1">
+        <v>1</v>
+      </c>
+      <c r="O435" s="1"/>
     </row>
     <row r="436" spans="1:15">
       <c r="A436" s="1">
@@ -22555,45 +22567,45 @@
       <c r="O439" s="1"/>
     </row>
     <row r="440" spans="1:15">
-      <c r="A440" s="25">
+      <c r="A440" s="1">
         <v>439</v>
       </c>
-      <c r="B440" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C440" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D440" s="25" t="s">
+      <c r="B440" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D440" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E440" s="27">
+      <c r="E440" s="10">
         <v>44063</v>
       </c>
-      <c r="F440" s="27">
+      <c r="F440" s="10">
         <v>44063</v>
       </c>
-      <c r="G440" s="25" t="s">
+      <c r="G440" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H440" s="25" t="s">
+      <c r="H440" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="I440" s="25" t="s">
+      <c r="I440" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J440" s="28" t="s">
+      <c r="J440" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K440" s="25"/>
-      <c r="L440" s="25"/>
-      <c r="M440" s="25">
-        <v>0</v>
-      </c>
-      <c r="N440" s="25">
-        <v>1</v>
-      </c>
-      <c r="O440" s="25"/>
+      <c r="K440" s="1"/>
+      <c r="L440" s="1"/>
+      <c r="M440" s="1">
+        <v>0</v>
+      </c>
+      <c r="N440" s="1">
+        <v>1</v>
+      </c>
+      <c r="O440" s="1"/>
     </row>
     <row r="441" spans="1:15">
       <c r="A441" s="1">
@@ -24136,45 +24148,45 @@
       <c r="O478" s="1"/>
     </row>
     <row r="479" spans="1:15">
-      <c r="A479" s="25">
+      <c r="A479" s="1">
         <v>478</v>
       </c>
-      <c r="B479" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C479" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D479" s="25" t="s">
+      <c r="B479" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D479" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E479" s="27">
+      <c r="E479" s="10">
         <v>44068</v>
       </c>
-      <c r="F479" s="27">
+      <c r="F479" s="10">
         <v>44068</v>
       </c>
-      <c r="G479" s="25" t="s">
+      <c r="G479" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H479" s="25" t="s">
+      <c r="H479" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I479" s="25" t="s">
+      <c r="I479" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J479" s="28" t="s">
+      <c r="J479" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K479" s="25"/>
-      <c r="L479" s="25"/>
-      <c r="M479" s="25">
-        <v>0</v>
-      </c>
-      <c r="N479" s="25">
-        <v>1</v>
-      </c>
-      <c r="O479" s="25"/>
+      <c r="K479" s="1"/>
+      <c r="L479" s="1"/>
+      <c r="M479" s="1">
+        <v>0</v>
+      </c>
+      <c r="N479" s="1">
+        <v>1</v>
+      </c>
+      <c r="O479" s="1"/>
     </row>
     <row r="480" spans="1:15">
       <c r="A480" s="1">
@@ -24328,7 +24340,7 @@
         <v>104</v>
       </c>
       <c r="J483" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K483" s="1" t="s">
         <v>103</v>
@@ -24425,45 +24437,45 @@
       <c r="O485" s="1"/>
     </row>
     <row r="486" spans="1:15">
-      <c r="A486" s="25">
+      <c r="A486" s="1">
         <v>485</v>
       </c>
-      <c r="B486" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C486" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D486" s="25" t="s">
+      <c r="B486" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D486" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E486" s="27">
+      <c r="E486" s="10">
         <v>44069</v>
       </c>
-      <c r="F486" s="27">
+      <c r="F486" s="10">
         <v>44069</v>
       </c>
-      <c r="G486" s="25" t="s">
+      <c r="G486" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H486" s="25" t="s">
+      <c r="H486" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="I486" s="25" t="s">
+      <c r="I486" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J486" s="25" t="s">
+      <c r="J486" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="K486" s="25"/>
-      <c r="L486" s="25"/>
-      <c r="M486" s="25">
-        <v>0</v>
-      </c>
-      <c r="N486" s="25">
-        <v>1</v>
-      </c>
-      <c r="O486" s="25"/>
+      <c r="K486" s="1"/>
+      <c r="L486" s="1"/>
+      <c r="M486" s="1">
+        <v>0</v>
+      </c>
+      <c r="N486" s="1">
+        <v>1</v>
+      </c>
+      <c r="O486" s="1"/>
     </row>
     <row r="487" spans="1:15">
       <c r="A487" s="1">
@@ -24505,45 +24517,45 @@
       <c r="O487" s="1"/>
     </row>
     <row r="488" spans="1:15">
-      <c r="A488" s="25">
+      <c r="A488" s="1">
         <v>487</v>
       </c>
-      <c r="B488" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C488" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D488" s="25" t="s">
+      <c r="B488" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D488" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E488" s="27">
+      <c r="E488" s="10">
         <v>44070</v>
       </c>
-      <c r="F488" s="27">
+      <c r="F488" s="10">
         <v>44070</v>
       </c>
-      <c r="G488" s="25" t="s">
+      <c r="G488" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H488" s="25" t="s">
+      <c r="H488" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I488" s="25" t="s">
+      <c r="I488" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J488" s="28" t="s">
+      <c r="J488" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="K488" s="25"/>
-      <c r="L488" s="25"/>
-      <c r="M488" s="25">
-        <v>0</v>
-      </c>
-      <c r="N488" s="25">
-        <v>1</v>
-      </c>
-      <c r="O488" s="25"/>
+      <c r="K488" s="1"/>
+      <c r="L488" s="1"/>
+      <c r="M488" s="1">
+        <v>0</v>
+      </c>
+      <c r="N488" s="1">
+        <v>1</v>
+      </c>
+      <c r="O488" s="1"/>
     </row>
     <row r="489" spans="1:15">
       <c r="A489" s="1">
@@ -24582,7 +24594,7 @@
         <v>0</v>
       </c>
       <c r="N489" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O489" s="1"/>
     </row>
@@ -24615,15 +24627,13 @@
         <v>104</v>
       </c>
       <c r="J490" s="9"/>
-      <c r="K490" s="1" t="s">
-        <v>533</v>
-      </c>
+      <c r="K490" s="1"/>
       <c r="L490" s="1"/>
       <c r="M490" s="1">
         <v>0</v>
       </c>
       <c r="N490" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O490" s="1"/>
     </row>
@@ -24664,7 +24674,7 @@
         <v>0</v>
       </c>
       <c r="N491" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O491" s="1"/>
     </row>
@@ -24738,15 +24748,13 @@
         <v>527</v>
       </c>
       <c r="J493" s="9"/>
-      <c r="K493" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="K493" s="1"/>
       <c r="L493" s="1"/>
       <c r="M493" s="1">
         <v>0</v>
       </c>
       <c r="N493" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O493" s="1"/>
     </row>
@@ -24779,7 +24787,7 @@
         <v>528</v>
       </c>
       <c r="J494" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K494" s="1" t="s">
         <v>144</v>
@@ -24794,45 +24802,45 @@
       <c r="O494" s="1"/>
     </row>
     <row r="495" spans="1:15">
-      <c r="A495" s="25">
+      <c r="A495" s="1">
         <v>494</v>
       </c>
-      <c r="B495" s="25">
-        <v>430005</v>
-      </c>
-      <c r="C495" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D495" s="25" t="s">
+      <c r="B495" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D495" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E495" s="27">
+      <c r="E495" s="10">
         <v>44071</v>
       </c>
-      <c r="F495" s="27">
+      <c r="F495" s="10">
         <v>44071</v>
       </c>
-      <c r="G495" s="25" t="s">
+      <c r="G495" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="H495" s="25" t="s">
+      <c r="H495" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I495" s="25" t="s">
+      <c r="I495" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="J495" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="K495" s="25"/>
-      <c r="L495" s="25"/>
-      <c r="M495" s="25">
-        <v>0</v>
-      </c>
-      <c r="N495" s="25">
-        <v>1</v>
-      </c>
-      <c r="O495" s="25"/>
+      <c r="J495" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="K495" s="1"/>
+      <c r="L495" s="1"/>
+      <c r="M495" s="1">
+        <v>0</v>
+      </c>
+      <c r="N495" s="1">
+        <v>1</v>
+      </c>
+      <c r="O495" s="1"/>
     </row>
     <row r="496" spans="1:15">
       <c r="A496" s="1">
@@ -24863,17 +24871,15 @@
         <v>132</v>
       </c>
       <c r="J496" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="K496" s="1" t="s">
-        <v>537</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="K496" s="1"/>
       <c r="L496" s="1"/>
       <c r="M496" s="1">
         <v>0</v>
       </c>
       <c r="N496" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O496" s="1"/>
     </row>
@@ -24906,7 +24912,7 @@
         <v>132</v>
       </c>
       <c r="J497" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K497" s="1" t="s">
         <v>103</v>
@@ -24949,7 +24955,7 @@
         <v>132</v>
       </c>
       <c r="J498" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K498" s="1" t="s">
         <v>181</v>
@@ -25033,10 +25039,10 @@
         <v>132</v>
       </c>
       <c r="J500" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K500" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L500" s="1"/>
       <c r="M500" s="1">
@@ -25076,7 +25082,7 @@
         <v>132</v>
       </c>
       <c r="J501" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
@@ -25108,7 +25114,7 @@
         <v>44072</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H502" s="1" t="s">
         <v>122</v>
@@ -25117,10 +25123,10 @@
         <v>132</v>
       </c>
       <c r="J502" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K502" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L502" s="1"/>
       <c r="M502" s="1">
@@ -25160,7 +25166,7 @@
         <v>132</v>
       </c>
       <c r="J503" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
@@ -25201,7 +25207,7 @@
         <v>132</v>
       </c>
       <c r="J504" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
@@ -25274,16 +25280,16 @@
         <v>44072</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J506" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K506" s="1"/>
       <c r="L506" s="1"/>
@@ -25315,10 +25321,10 @@
         <v>44072</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I507" s="1" t="s">
         <v>132</v>
@@ -25356,16 +25362,16 @@
         <v>44072</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J508" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K508" s="1"/>
       <c r="L508" s="1"/>
@@ -25397,16 +25403,16 @@
         <v>44072</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I509" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J509" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
@@ -25414,7 +25420,7 @@
         <v>0</v>
       </c>
       <c r="N509" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O509" s="1"/>
     </row>
@@ -25438,16 +25444,16 @@
         <v>44072</v>
       </c>
       <c r="G510" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H510" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="H510" s="1" t="s">
+      <c r="I510" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="I510" s="1" t="s">
+      <c r="J510" s="9" t="s">
         <v>550</v>
-      </c>
-      <c r="J510" s="9" t="s">
-        <v>551</v>
       </c>
       <c r="K510" s="1" t="s">
         <v>103</v>
@@ -25482,13 +25488,13 @@
         <v>198</v>
       </c>
       <c r="H511" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J511" s="9" t="s">
         <v>554</v>
-      </c>
-      <c r="I511" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="J511" s="9" t="s">
-        <v>555</v>
       </c>
       <c r="K511" s="1" t="s">
         <v>144</v>
@@ -25503,47 +25509,47 @@
       <c r="O511" s="1"/>
     </row>
     <row r="512" spans="1:15">
-      <c r="A512" s="25">
+      <c r="A512" s="1">
         <v>511</v>
       </c>
-      <c r="B512" s="25">
-        <v>430005</v>
-      </c>
-      <c r="C512" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D512" s="25" t="s">
+      <c r="B512" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D512" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E512" s="27">
+      <c r="E512" s="10">
         <v>44073</v>
       </c>
-      <c r="F512" s="27">
+      <c r="F512" s="10">
         <v>44073</v>
       </c>
-      <c r="G512" s="25" t="s">
+      <c r="G512" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H512" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H512" s="25" t="s">
+      <c r="I512" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="I512" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="J512" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="K512" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L512" s="25"/>
-      <c r="M512" s="25">
-        <v>0</v>
-      </c>
-      <c r="N512" s="25">
-        <v>0</v>
-      </c>
-      <c r="O512" s="25"/>
+      <c r="J512" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K512" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L512" s="1"/>
+      <c r="M512" s="1">
+        <v>0</v>
+      </c>
+      <c r="N512" s="1">
+        <v>0</v>
+      </c>
+      <c r="O512" s="1"/>
     </row>
     <row r="513" spans="1:15">
       <c r="A513" s="1">
@@ -25563,7 +25569,7 @@
         <v>44073</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H513" s="1" t="s">
         <v>130</v>
@@ -25572,7 +25578,7 @@
         <v>76</v>
       </c>
       <c r="J513" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K513" s="1" t="s">
         <v>103</v>
@@ -25604,7 +25610,7 @@
         <v>44073</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H514" s="1" t="s">
         <v>123</v>
@@ -25613,7 +25619,7 @@
         <v>104</v>
       </c>
       <c r="J514" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K514" s="1" t="s">
         <v>103</v>
@@ -25647,16 +25653,16 @@
         <v>44074</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H515" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I515" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="I515" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="J515" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K515" s="1" t="s">
         <v>103</v>
@@ -25690,16 +25696,16 @@
         <v>44074</v>
       </c>
       <c r="G516" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H516" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="H516" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="I516" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J516" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K516" s="1"/>
       <c r="L516" s="1"/>
@@ -25731,16 +25737,16 @@
         <v>44074</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I517" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J517" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K517" s="1" t="s">
         <v>103</v>
@@ -25774,16 +25780,16 @@
         <v>44074</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I518" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J518" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K518" s="1" t="s">
         <v>103</v>
@@ -25817,16 +25823,16 @@
         <v>44074</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I519" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J519" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K519" s="1" t="s">
         <v>103</v>
@@ -25860,16 +25866,16 @@
         <v>44074</v>
       </c>
       <c r="G520" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H520" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="H520" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="I520" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J520" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K520" s="1" t="s">
         <v>103</v>
@@ -25903,16 +25909,16 @@
         <v>44074</v>
       </c>
       <c r="G521" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H521" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="H521" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="I521" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J521" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K521" s="1" t="s">
         <v>103</v>
@@ -25944,7 +25950,7 @@
         <v>44074</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H522" s="1" t="s">
         <v>123</v>
@@ -25953,7 +25959,7 @@
         <v>104</v>
       </c>
       <c r="J522" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K522" s="1" t="s">
         <v>103</v>
@@ -25996,7 +26002,7 @@
         <v>76</v>
       </c>
       <c r="J523" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K523" s="1" t="s">
         <v>103</v>
@@ -26011,47 +26017,47 @@
       <c r="O523" s="1"/>
     </row>
     <row r="524" spans="1:15">
-      <c r="A524" s="25">
+      <c r="A524" s="1">
         <v>523</v>
       </c>
-      <c r="B524" s="25">
-        <v>430005</v>
-      </c>
-      <c r="C524" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D524" s="25" t="s">
+      <c r="B524" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D524" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E524" s="27">
+      <c r="E524" s="10">
         <v>44075</v>
       </c>
-      <c r="F524" s="27">
+      <c r="F524" s="10">
         <v>44075</v>
       </c>
-      <c r="G524" s="25" t="s">
+      <c r="G524" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="H524" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="H524" s="25" t="s">
+      <c r="I524" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J524" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="I524" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J524" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="K524" s="25" t="s">
+      <c r="K524" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L524" s="25"/>
-      <c r="M524" s="25">
-        <v>0</v>
-      </c>
-      <c r="N524" s="25">
-        <v>0</v>
-      </c>
-      <c r="O524" s="25"/>
+      <c r="L524" s="1"/>
+      <c r="M524" s="1">
+        <v>0</v>
+      </c>
+      <c r="N524" s="1">
+        <v>0</v>
+      </c>
+      <c r="O524" s="1"/>
     </row>
     <row r="525" spans="1:15">
       <c r="A525" s="1">
@@ -26073,16 +26079,16 @@
         <v>44075</v>
       </c>
       <c r="G525" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H525" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="H525" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="I525" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J525" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K525" s="1" t="s">
         <v>103</v>
@@ -26114,16 +26120,16 @@
         <v>44075</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I526" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J526" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K526" s="1" t="s">
         <v>103</v>
@@ -26155,10 +26161,10 @@
         <v>44075</v>
       </c>
       <c r="G527" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H527" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="H527" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="I527" s="1" t="s">
         <v>132</v>
@@ -26196,7 +26202,7 @@
         <v>44075</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H528" s="1" t="s">
         <v>171</v>
@@ -26240,13 +26246,13 @@
         <v>189</v>
       </c>
       <c r="H529" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I529" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J529" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K529" s="1" t="s">
         <v>103</v>
@@ -26261,47 +26267,47 @@
       <c r="O529" s="1"/>
     </row>
     <row r="530" spans="1:15">
-      <c r="A530" s="25">
+      <c r="A530" s="1">
         <v>529</v>
       </c>
-      <c r="B530" s="25">
-        <v>430005</v>
-      </c>
-      <c r="C530" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D530" s="25" t="s">
+      <c r="B530" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D530" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E530" s="27">
+      <c r="E530" s="10">
         <v>44077</v>
       </c>
-      <c r="F530" s="27">
+      <c r="F530" s="10">
         <v>44077</v>
       </c>
-      <c r="G530" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="H530" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="I530" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="J530" s="28" t="s">
+      <c r="G530" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J530" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="K530" s="25" t="s">
+      <c r="K530" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L530" s="25"/>
-      <c r="M530" s="25">
-        <v>0</v>
-      </c>
-      <c r="N530" s="25">
-        <v>0</v>
-      </c>
-      <c r="O530" s="25"/>
+      <c r="L530" s="1"/>
+      <c r="M530" s="1">
+        <v>0</v>
+      </c>
+      <c r="N530" s="1">
+        <v>0</v>
+      </c>
+      <c r="O530" s="1"/>
     </row>
     <row r="531" spans="1:15">
       <c r="A531" s="1">
@@ -26323,16 +26329,16 @@
         <v>44077</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H531" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I531" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J531" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K531" s="1" t="s">
         <v>103</v>
@@ -26366,13 +26372,13 @@
         <v>44077</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H532" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I532" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="I532" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="J532" s="9" t="s">
         <v>43</v>
@@ -26407,16 +26413,16 @@
         <v>44077</v>
       </c>
       <c r="G533" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H533" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="H533" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="I533" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J533" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K533" s="1" t="s">
         <v>144</v>
@@ -26450,7 +26456,7 @@
         <v>44077</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H534" s="1" t="s">
         <v>122</v>
@@ -26459,7 +26465,7 @@
         <v>132</v>
       </c>
       <c r="J534" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K534" s="1" t="s">
         <v>144</v>
@@ -26474,47 +26480,47 @@
       <c r="O534" s="1"/>
     </row>
     <row r="535" spans="1:15">
-      <c r="A535" s="25">
+      <c r="A535" s="1">
         <v>534</v>
       </c>
-      <c r="B535" s="25">
-        <v>430005</v>
-      </c>
-      <c r="C535" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D535" s="25" t="s">
+      <c r="B535" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D535" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E535" s="27">
+      <c r="E535" s="10">
         <v>44077</v>
       </c>
-      <c r="F535" s="27">
+      <c r="F535" s="10">
         <v>44077</v>
       </c>
-      <c r="G535" s="25" t="s">
+      <c r="G535" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H535" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="H535" s="25" t="s">
+      <c r="I535" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="I535" s="25" t="s">
-        <v>598</v>
-      </c>
-      <c r="J535" s="28" t="s">
-        <v>602</v>
-      </c>
-      <c r="K535" s="25" t="s">
+      <c r="J535" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="K535" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L535" s="25"/>
-      <c r="M535" s="25">
-        <v>0</v>
-      </c>
-      <c r="N535" s="25">
-        <v>0</v>
-      </c>
-      <c r="O535" s="25"/>
+      <c r="L535" s="1"/>
+      <c r="M535" s="1">
+        <v>0</v>
+      </c>
+      <c r="N535" s="1">
+        <v>0</v>
+      </c>
+      <c r="O535" s="1"/>
     </row>
     <row r="536" spans="1:15">
       <c r="A536" s="1">
@@ -26536,7 +26542,7 @@
         <v>44078</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H536" s="1" t="s">
         <v>124</v>
@@ -26556,131 +26562,131 @@
       <c r="O536" s="1"/>
     </row>
     <row r="537" spans="1:15">
-      <c r="A537" s="25">
+      <c r="A537" s="1">
         <v>536</v>
       </c>
-      <c r="B537" s="25">
-        <v>430005</v>
-      </c>
-      <c r="C537" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D537" s="25" t="s">
+      <c r="B537" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D537" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E537" s="27">
+      <c r="E537" s="10">
         <v>44078</v>
       </c>
-      <c r="F537" s="27">
+      <c r="F537" s="10">
         <v>44078</v>
       </c>
-      <c r="G537" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="H537" s="25" t="s">
+      <c r="G537" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="J537" s="9"/>
+      <c r="K537" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L537" s="1"/>
+      <c r="M537" s="1">
+        <v>0</v>
+      </c>
+      <c r="N537" s="1">
+        <v>0</v>
+      </c>
+      <c r="O537" s="1"/>
+    </row>
+    <row r="538" spans="1:15">
+      <c r="A538" s="1">
+        <v>537</v>
+      </c>
+      <c r="B538" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E538" s="10">
+        <v>44078</v>
+      </c>
+      <c r="F538" s="10">
+        <v>44078</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I538" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="I537" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="J537" s="28"/>
-      <c r="K537" s="25" t="s">
+      <c r="J538" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K538" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L538" s="1"/>
+      <c r="M538" s="1">
+        <v>0</v>
+      </c>
+      <c r="N538" s="1">
+        <v>0</v>
+      </c>
+      <c r="O538" s="1"/>
+    </row>
+    <row r="539" spans="1:15">
+      <c r="A539" s="1">
+        <v>538</v>
+      </c>
+      <c r="B539" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E539" s="10">
+        <v>44079</v>
+      </c>
+      <c r="F539" s="10">
+        <v>44078</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J539" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K539" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L537" s="25"/>
-      <c r="M537" s="25">
-        <v>0</v>
-      </c>
-      <c r="N537" s="25">
-        <v>0</v>
-      </c>
-      <c r="O537" s="25"/>
-    </row>
-    <row r="538" spans="1:15">
-      <c r="A538" s="25">
-        <v>537</v>
-      </c>
-      <c r="B538" s="25">
-        <v>430005</v>
-      </c>
-      <c r="C538" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D538" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E538" s="27">
-        <v>44078</v>
-      </c>
-      <c r="F538" s="27">
-        <v>44078</v>
-      </c>
-      <c r="G538" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="H538" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="I538" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="J538" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K538" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="L538" s="25"/>
-      <c r="M538" s="25">
-        <v>0</v>
-      </c>
-      <c r="N538" s="25">
-        <v>0</v>
-      </c>
-      <c r="O538" s="25"/>
-    </row>
-    <row r="539" spans="1:15">
-      <c r="A539" s="25">
-        <v>538</v>
-      </c>
-      <c r="B539" s="25">
-        <v>430005</v>
-      </c>
-      <c r="C539" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D539" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E539" s="27">
-        <v>44079</v>
-      </c>
-      <c r="F539" s="27">
-        <v>44078</v>
-      </c>
-      <c r="G539" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="H539" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I539" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J539" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K539" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L539" s="25"/>
-      <c r="M539" s="25">
-        <v>0</v>
-      </c>
-      <c r="N539" s="25">
-        <v>0</v>
-      </c>
-      <c r="O539" s="25"/>
+      <c r="L539" s="1"/>
+      <c r="M539" s="1">
+        <v>0</v>
+      </c>
+      <c r="N539" s="1">
+        <v>0</v>
+      </c>
+      <c r="O539" s="1"/>
     </row>
     <row r="540" spans="1:15">
       <c r="A540" s="1">
@@ -26702,7 +26708,7 @@
         <v>44079</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H540" s="1" t="s">
         <v>123</v>
@@ -26713,8 +26719,12 @@
       <c r="J540" s="9"/>
       <c r="K540" s="1"/>
       <c r="L540" s="1"/>
-      <c r="M540" s="1"/>
-      <c r="N540" s="1"/>
+      <c r="M540" s="1">
+        <v>0</v>
+      </c>
+      <c r="N540" s="1">
+        <v>0</v>
+      </c>
       <c r="O540" s="1"/>
     </row>
     <row r="541" spans="1:15">
@@ -26737,10 +26747,10 @@
         <v>44079</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I541" s="1" t="s">
         <v>104</v>
@@ -26748,80 +26758,133 @@
       <c r="J541" s="9"/>
       <c r="K541" s="1"/>
       <c r="L541" s="1"/>
-      <c r="M541" s="1"/>
-      <c r="N541" s="1"/>
+      <c r="M541" s="1">
+        <v>0</v>
+      </c>
+      <c r="N541" s="1">
+        <v>0</v>
+      </c>
       <c r="O541" s="1"/>
     </row>
     <row r="542" spans="1:15">
-      <c r="A542" s="1"/>
-      <c r="B542" s="1"/>
-      <c r="C542" s="1"/>
-      <c r="D542" s="1"/>
-      <c r="E542" s="10"/>
-      <c r="F542" s="10"/>
-      <c r="G542" s="1"/>
-      <c r="H542" s="1"/>
-      <c r="I542" s="1"/>
+      <c r="A542" s="1">
+        <v>541</v>
+      </c>
+      <c r="B542" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E542" s="10">
+        <v>44079</v>
+      </c>
+      <c r="F542" s="10">
+        <v>44079</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="J542" s="9"/>
       <c r="K542" s="1"/>
       <c r="L542" s="1"/>
-      <c r="M542" s="1"/>
-      <c r="N542" s="1"/>
+      <c r="M542" s="1">
+        <v>0</v>
+      </c>
+      <c r="N542" s="1">
+        <v>0</v>
+      </c>
       <c r="O542" s="1"/>
     </row>
     <row r="543" spans="1:15">
-      <c r="A543" s="1"/>
-      <c r="B543" s="1"/>
-      <c r="C543" s="1"/>
-      <c r="D543" s="1"/>
-      <c r="E543" s="10"/>
-      <c r="F543" s="10"/>
-      <c r="G543" s="1"/>
-      <c r="H543" s="1"/>
-      <c r="I543" s="1"/>
+      <c r="A543" s="1">
+        <v>542</v>
+      </c>
+      <c r="B543" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E543" s="10">
+        <v>44079</v>
+      </c>
+      <c r="F543" s="10">
+        <v>44079</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="J543" s="9"/>
       <c r="K543" s="1"/>
       <c r="L543" s="1"/>
-      <c r="M543" s="1"/>
-      <c r="N543" s="1"/>
+      <c r="M543" s="1">
+        <v>0</v>
+      </c>
+      <c r="N543" s="1">
+        <v>0</v>
+      </c>
       <c r="O543" s="1"/>
     </row>
     <row r="544" spans="1:15">
-      <c r="A544" s="1"/>
-      <c r="B544" s="1"/>
-      <c r="C544" s="1"/>
-      <c r="D544" s="1"/>
-      <c r="E544" s="10"/>
-      <c r="F544" s="10"/>
-      <c r="G544" s="1"/>
-      <c r="H544" s="1"/>
-      <c r="I544" s="1"/>
+      <c r="A544" s="1">
+        <v>543</v>
+      </c>
+      <c r="B544" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E544" s="10">
+        <v>44079</v>
+      </c>
+      <c r="F544" s="10">
+        <v>44079</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="J544" s="9"/>
       <c r="K544" s="1"/>
       <c r="L544" s="1"/>
-      <c r="M544" s="1"/>
-      <c r="N544" s="1"/>
+      <c r="M544" s="1">
+        <v>0</v>
+      </c>
+      <c r="N544" s="1">
+        <v>0</v>
+      </c>
       <c r="O544" s="1"/>
     </row>
-    <row r="545" spans="1:15">
-      <c r="A545" s="1"/>
-      <c r="B545" s="1"/>
-      <c r="C545" s="1"/>
-      <c r="D545" s="1"/>
-      <c r="E545" s="10"/>
-      <c r="F545" s="10"/>
-      <c r="G545" s="1"/>
-      <c r="H545" s="1"/>
-      <c r="I545" s="1"/>
-      <c r="J545" s="9"/>
-      <c r="K545" s="1"/>
-      <c r="L545" s="1"/>
-      <c r="M545" s="1"/>
-      <c r="N545" s="1"/>
-      <c r="O545" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O541"/>
+  <autoFilter ref="A1:O544"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -10,7 +10,7 @@
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$571</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$572</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="638">
   <si>
     <t>No</t>
   </si>
@@ -4759,6 +4759,44 @@
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4907,7 +4945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4947,6 +4985,10 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5236,13 +5278,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O571"/>
+  <dimension ref="A1:O572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B560" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B556" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A571" sqref="A571"/>
+      <selection pane="bottomRight" activeCell="A572" sqref="A572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -5308,7 +5350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1">
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5349,7 +5391,7 @@
       </c>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1">
+    <row r="3" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5390,7 +5432,7 @@
       </c>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1">
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -5429,7 +5471,7 @@
       </c>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1">
+    <row r="5" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5470,7 +5512,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" s="9" customFormat="1">
+    <row r="6" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -5511,7 +5553,7 @@
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" s="9" customFormat="1">
+    <row r="7" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5550,7 +5592,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" s="9" customFormat="1">
+    <row r="8" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -5591,7 +5633,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" s="9" customFormat="1">
+    <row r="9" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5634,7 +5676,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" s="9" customFormat="1">
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5675,7 +5717,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" s="9" customFormat="1">
+    <row r="11" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5716,7 +5758,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" s="9" customFormat="1">
+    <row r="12" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5757,7 +5799,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" s="9" customFormat="1">
+    <row r="13" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5798,7 +5840,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" s="9" customFormat="1">
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5839,7 +5881,7 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:15" s="9" customFormat="1">
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5880,7 +5922,7 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15" s="9" customFormat="1">
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5921,7 +5963,7 @@
       </c>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" s="9" customFormat="1">
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5962,7 +6004,7 @@
       </c>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" s="9" customFormat="1">
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -6003,7 +6045,7 @@
       </c>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" s="9" customFormat="1">
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -6044,7 +6086,7 @@
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" s="9" customFormat="1">
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -6083,7 +6125,7 @@
       </c>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" s="9" customFormat="1">
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6122,7 +6164,7 @@
       </c>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" s="9" customFormat="1">
+    <row r="22" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -6163,7 +6205,7 @@
       </c>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" s="9" customFormat="1">
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -6202,7 +6244,7 @@
       </c>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" s="9" customFormat="1">
+    <row r="24" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -6243,7 +6285,7 @@
       </c>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" s="9" customFormat="1">
+    <row r="25" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -6284,7 +6326,7 @@
       </c>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15" s="9" customFormat="1">
+    <row r="26" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -6327,7 +6369,7 @@
       </c>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15" s="9" customFormat="1">
+    <row r="27" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -6368,7 +6410,7 @@
       </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15" s="9" customFormat="1">
+    <row r="28" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -6407,7 +6449,7 @@
       </c>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15" s="9" customFormat="1">
+    <row r="29" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -6448,7 +6490,7 @@
       </c>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" s="9" customFormat="1">
+    <row r="30" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -6489,7 +6531,7 @@
       </c>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" s="9" customFormat="1">
+    <row r="31" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -6530,7 +6572,7 @@
       </c>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15" s="9" customFormat="1">
+    <row r="32" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -6569,7 +6611,7 @@
       </c>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15" s="9" customFormat="1">
+    <row r="33" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -6612,7 +6654,7 @@
       </c>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15" s="9" customFormat="1">
+    <row r="34" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -6651,7 +6693,7 @@
       </c>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15" s="9" customFormat="1">
+    <row r="35" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -6692,7 +6734,7 @@
       </c>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15" s="9" customFormat="1">
+    <row r="36" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -6733,7 +6775,7 @@
       </c>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15" s="9" customFormat="1">
+    <row r="37" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -6774,7 +6816,7 @@
       </c>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15" s="9" customFormat="1">
+    <row r="38" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -6815,7 +6857,7 @@
       </c>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15" s="9" customFormat="1">
+    <row r="39" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -6856,7 +6898,7 @@
       </c>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15" s="9" customFormat="1">
+    <row r="40" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -6897,7 +6939,7 @@
       </c>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" s="9" customFormat="1">
+    <row r="41" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -6938,7 +6980,7 @@
       </c>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15" s="9" customFormat="1">
+    <row r="42" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -6979,7 +7021,7 @@
       </c>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15" s="9" customFormat="1">
+    <row r="43" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7020,7 +7062,7 @@
       </c>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" spans="1:15" s="9" customFormat="1">
+    <row r="44" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -7061,7 +7103,7 @@
       </c>
       <c r="O44" s="15"/>
     </row>
-    <row r="45" spans="1:15" s="9" customFormat="1">
+    <row r="45" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -7102,7 +7144,7 @@
       </c>
       <c r="O45" s="15"/>
     </row>
-    <row r="46" spans="1:15" s="9" customFormat="1">
+    <row r="46" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -7143,7 +7185,7 @@
       </c>
       <c r="O46" s="15"/>
     </row>
-    <row r="47" spans="1:15" s="9" customFormat="1">
+    <row r="47" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -7184,7 +7226,7 @@
       </c>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15" s="9" customFormat="1">
+    <row r="48" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -7225,7 +7267,7 @@
       </c>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15" s="9" customFormat="1">
+    <row r="49" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -7266,7 +7308,7 @@
       </c>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" s="9" customFormat="1">
+    <row r="50" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -7305,7 +7347,7 @@
       </c>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" s="9" customFormat="1">
+    <row r="51" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -7344,7 +7386,7 @@
       </c>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" s="9" customFormat="1">
+    <row r="52" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -7385,7 +7427,7 @@
       </c>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" s="9" customFormat="1">
+    <row r="53" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -7426,7 +7468,7 @@
       </c>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" s="9" customFormat="1">
+    <row r="54" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -7467,7 +7509,7 @@
       </c>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="1:15" s="9" customFormat="1">
+    <row r="55" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -7506,7 +7548,7 @@
       </c>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:15" s="9" customFormat="1">
+    <row r="56" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -7545,7 +7587,7 @@
       </c>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="1:15" s="9" customFormat="1">
+    <row r="57" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -7586,7 +7628,7 @@
       </c>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:15" s="9" customFormat="1">
+    <row r="58" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -7627,7 +7669,7 @@
       </c>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="1:15" s="9" customFormat="1">
+    <row r="59" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -7666,7 +7708,7 @@
       </c>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="1:15" s="9" customFormat="1">
+    <row r="60" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -7707,7 +7749,7 @@
       </c>
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="1:15" s="9" customFormat="1">
+    <row r="61" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -7746,7 +7788,7 @@
       </c>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="1:15" s="9" customFormat="1">
+    <row r="62" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -7787,7 +7829,7 @@
       </c>
       <c r="O62" s="5"/>
     </row>
-    <row r="63" spans="1:15" s="9" customFormat="1">
+    <row r="63" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -7826,7 +7868,7 @@
       </c>
       <c r="O63" s="5"/>
     </row>
-    <row r="64" spans="1:15" s="9" customFormat="1">
+    <row r="64" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -7867,7 +7909,7 @@
       </c>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:15" s="9" customFormat="1">
+    <row r="65" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -7906,7 +7948,7 @@
       </c>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="1:15" s="9" customFormat="1">
+    <row r="66" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -7945,7 +7987,7 @@
       </c>
       <c r="O66" s="5"/>
     </row>
-    <row r="67" spans="1:15" s="9" customFormat="1">
+    <row r="67" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -7984,7 +8026,7 @@
       </c>
       <c r="O67" s="5"/>
     </row>
-    <row r="68" spans="1:15" s="9" customFormat="1">
+    <row r="68" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -8023,7 +8065,7 @@
       </c>
       <c r="O68" s="5"/>
     </row>
-    <row r="69" spans="1:15" s="9" customFormat="1">
+    <row r="69" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -8062,7 +8104,7 @@
       </c>
       <c r="O69" s="5"/>
     </row>
-    <row r="70" spans="1:15" s="9" customFormat="1">
+    <row r="70" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -8101,7 +8143,7 @@
       </c>
       <c r="O70" s="5"/>
     </row>
-    <row r="71" spans="1:15" s="9" customFormat="1">
+    <row r="71" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -8140,7 +8182,7 @@
       </c>
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="1:15" s="9" customFormat="1">
+    <row r="72" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -8179,7 +8221,7 @@
       </c>
       <c r="O72" s="5"/>
     </row>
-    <row r="73" spans="1:15" s="9" customFormat="1">
+    <row r="73" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -8220,7 +8262,7 @@
       </c>
       <c r="O73" s="5"/>
     </row>
-    <row r="74" spans="1:15" s="9" customFormat="1">
+    <row r="74" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -8261,7 +8303,7 @@
       </c>
       <c r="O74" s="5"/>
     </row>
-    <row r="75" spans="1:15" s="9" customFormat="1">
+    <row r="75" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -8300,7 +8342,7 @@
       </c>
       <c r="O75" s="5"/>
     </row>
-    <row r="76" spans="1:15" s="9" customFormat="1">
+    <row r="76" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -8339,7 +8381,7 @@
       </c>
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="1:15" s="9" customFormat="1">
+    <row r="77" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -8378,7 +8420,7 @@
       </c>
       <c r="O77" s="5"/>
     </row>
-    <row r="78" spans="1:15" s="9" customFormat="1">
+    <row r="78" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -8417,7 +8459,7 @@
       </c>
       <c r="O78" s="5"/>
     </row>
-    <row r="79" spans="1:15" s="9" customFormat="1">
+    <row r="79" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -8456,7 +8498,7 @@
       </c>
       <c r="O79" s="5"/>
     </row>
-    <row r="80" spans="1:15" s="9" customFormat="1">
+    <row r="80" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -8495,7 +8537,7 @@
       </c>
       <c r="O80" s="5"/>
     </row>
-    <row r="81" spans="1:15" s="9" customFormat="1">
+    <row r="81" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -8534,7 +8576,7 @@
       </c>
       <c r="O81" s="5"/>
     </row>
-    <row r="82" spans="1:15" s="9" customFormat="1">
+    <row r="82" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -8575,7 +8617,7 @@
       </c>
       <c r="O82" s="5"/>
     </row>
-    <row r="83" spans="1:15" s="9" customFormat="1">
+    <row r="83" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -8614,7 +8656,7 @@
       </c>
       <c r="O83" s="5"/>
     </row>
-    <row r="84" spans="1:15" s="9" customFormat="1">
+    <row r="84" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -8653,7 +8695,7 @@
       </c>
       <c r="O84" s="5"/>
     </row>
-    <row r="85" spans="1:15" s="9" customFormat="1">
+    <row r="85" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -8692,7 +8734,7 @@
       </c>
       <c r="O85" s="5"/>
     </row>
-    <row r="86" spans="1:15" s="9" customFormat="1">
+    <row r="86" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -8731,7 +8773,7 @@
       </c>
       <c r="O86" s="5"/>
     </row>
-    <row r="87" spans="1:15" s="9" customFormat="1">
+    <row r="87" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -8772,7 +8814,7 @@
       </c>
       <c r="O87" s="5"/>
     </row>
-    <row r="88" spans="1:15" s="9" customFormat="1">
+    <row r="88" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -8811,7 +8853,7 @@
       </c>
       <c r="O88" s="5"/>
     </row>
-    <row r="89" spans="1:15" s="9" customFormat="1">
+    <row r="89" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -8850,7 +8892,7 @@
       </c>
       <c r="O89" s="5"/>
     </row>
-    <row r="90" spans="1:15" s="9" customFormat="1">
+    <row r="90" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -8889,7 +8931,7 @@
       </c>
       <c r="O90" s="5"/>
     </row>
-    <row r="91" spans="1:15" s="9" customFormat="1">
+    <row r="91" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -8928,7 +8970,7 @@
       </c>
       <c r="O91" s="5"/>
     </row>
-    <row r="92" spans="1:15" s="9" customFormat="1">
+    <row r="92" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -8969,7 +9011,7 @@
       </c>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" spans="1:15" s="9" customFormat="1">
+    <row r="93" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -9008,7 +9050,7 @@
       </c>
       <c r="O93" s="5"/>
     </row>
-    <row r="94" spans="1:15" s="9" customFormat="1">
+    <row r="94" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -9047,7 +9089,7 @@
       </c>
       <c r="O94" s="5"/>
     </row>
-    <row r="95" spans="1:15" s="9" customFormat="1">
+    <row r="95" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -9086,7 +9128,7 @@
       </c>
       <c r="O95" s="5"/>
     </row>
-    <row r="96" spans="1:15" s="9" customFormat="1">
+    <row r="96" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -9125,7 +9167,7 @@
       </c>
       <c r="O96" s="5"/>
     </row>
-    <row r="97" spans="1:15" s="9" customFormat="1">
+    <row r="97" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -9166,7 +9208,7 @@
       </c>
       <c r="O97" s="5"/>
     </row>
-    <row r="98" spans="1:15" s="9" customFormat="1">
+    <row r="98" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -9207,7 +9249,7 @@
       </c>
       <c r="O98" s="5"/>
     </row>
-    <row r="99" spans="1:15" s="9" customFormat="1">
+    <row r="99" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -9248,7 +9290,7 @@
       </c>
       <c r="O99" s="5"/>
     </row>
-    <row r="100" spans="1:15" s="9" customFormat="1">
+    <row r="100" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -9289,7 +9331,7 @@
       </c>
       <c r="O100" s="5"/>
     </row>
-    <row r="101" spans="1:15" s="9" customFormat="1">
+    <row r="101" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -9330,7 +9372,7 @@
       </c>
       <c r="O101" s="5"/>
     </row>
-    <row r="102" spans="1:15" s="9" customFormat="1">
+    <row r="102" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -9369,7 +9411,7 @@
       </c>
       <c r="O102" s="5"/>
     </row>
-    <row r="103" spans="1:15" s="9" customFormat="1">
+    <row r="103" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -9408,7 +9450,7 @@
       </c>
       <c r="O103" s="5"/>
     </row>
-    <row r="104" spans="1:15" s="9" customFormat="1">
+    <row r="104" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -9447,7 +9489,7 @@
       </c>
       <c r="O104" s="5"/>
     </row>
-    <row r="105" spans="1:15" s="9" customFormat="1">
+    <row r="105" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -9527,7 +9569,7 @@
       </c>
       <c r="O106" s="5"/>
     </row>
-    <row r="107" spans="1:15" s="9" customFormat="1">
+    <row r="107" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -9566,7 +9608,7 @@
       </c>
       <c r="O107" s="5"/>
     </row>
-    <row r="108" spans="1:15" s="9" customFormat="1">
+    <row r="108" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -9605,7 +9647,7 @@
       </c>
       <c r="O108" s="5"/>
     </row>
-    <row r="109" spans="1:15" s="9" customFormat="1">
+    <row r="109" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -9644,7 +9686,7 @@
       </c>
       <c r="O109" s="5"/>
     </row>
-    <row r="110" spans="1:15" s="9" customFormat="1">
+    <row r="110" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -9683,7 +9725,7 @@
       </c>
       <c r="O110" s="5"/>
     </row>
-    <row r="111" spans="1:15" s="9" customFormat="1">
+    <row r="111" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -9722,7 +9764,7 @@
       </c>
       <c r="O111" s="5"/>
     </row>
-    <row r="112" spans="1:15" s="9" customFormat="1">
+    <row r="112" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -9761,7 +9803,7 @@
       </c>
       <c r="O112" s="5"/>
     </row>
-    <row r="113" spans="1:15" s="9" customFormat="1">
+    <row r="113" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -9800,7 +9842,7 @@
       </c>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" spans="1:15" s="9" customFormat="1">
+    <row r="114" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -9839,7 +9881,7 @@
       </c>
       <c r="O114" s="5"/>
     </row>
-    <row r="115" spans="1:15" s="9" customFormat="1">
+    <row r="115" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -9878,7 +9920,7 @@
       </c>
       <c r="O115" s="5"/>
     </row>
-    <row r="116" spans="1:15" s="9" customFormat="1">
+    <row r="116" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -9917,7 +9959,7 @@
       </c>
       <c r="O116" s="5"/>
     </row>
-    <row r="117" spans="1:15" s="9" customFormat="1">
+    <row r="117" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -9956,7 +9998,7 @@
       </c>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" spans="1:15" s="9" customFormat="1">
+    <row r="118" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -9995,7 +10037,7 @@
       </c>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" spans="1:15" s="9" customFormat="1">
+    <row r="119" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -10034,7 +10076,7 @@
       </c>
       <c r="O119" s="5"/>
     </row>
-    <row r="120" spans="1:15" s="9" customFormat="1">
+    <row r="120" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -10073,7 +10115,7 @@
       </c>
       <c r="O120" s="5"/>
     </row>
-    <row r="121" spans="1:15" s="9" customFormat="1">
+    <row r="121" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -10112,7 +10154,7 @@
       </c>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" spans="1:15" s="9" customFormat="1">
+    <row r="122" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -10151,7 +10193,7 @@
       </c>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" spans="1:15" s="9" customFormat="1">
+    <row r="123" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -10190,7 +10232,7 @@
       </c>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" spans="1:15" s="9" customFormat="1">
+    <row r="124" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -10229,7 +10271,7 @@
       </c>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" spans="1:15" s="9" customFormat="1">
+    <row r="125" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -10268,7 +10310,7 @@
       </c>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" spans="1:15" s="9" customFormat="1">
+    <row r="126" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -10309,7 +10351,7 @@
       </c>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" spans="1:15" s="9" customFormat="1">
+    <row r="127" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -10350,7 +10392,7 @@
       </c>
       <c r="O127" s="5"/>
     </row>
-    <row r="128" spans="1:15" s="9" customFormat="1">
+    <row r="128" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -10389,7 +10431,7 @@
       </c>
       <c r="O128" s="5"/>
     </row>
-    <row r="129" spans="1:15" s="9" customFormat="1">
+    <row r="129" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -10428,7 +10470,7 @@
       </c>
       <c r="O129" s="5"/>
     </row>
-    <row r="130" spans="1:15" s="9" customFormat="1">
+    <row r="130" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -10467,7 +10509,7 @@
       </c>
       <c r="O130" s="5"/>
     </row>
-    <row r="131" spans="1:15" s="9" customFormat="1">
+    <row r="131" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -10506,7 +10548,7 @@
       </c>
       <c r="O131" s="5"/>
     </row>
-    <row r="132" spans="1:15" s="9" customFormat="1">
+    <row r="132" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -10547,7 +10589,7 @@
       </c>
       <c r="O132" s="5"/>
     </row>
-    <row r="133" spans="1:15" s="9" customFormat="1">
+    <row r="133" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -10588,7 +10630,7 @@
       </c>
       <c r="O133" s="5"/>
     </row>
-    <row r="134" spans="1:15" s="9" customFormat="1">
+    <row r="134" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -10629,7 +10671,7 @@
       </c>
       <c r="O134" s="5"/>
     </row>
-    <row r="135" spans="1:15" s="9" customFormat="1">
+    <row r="135" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -10670,7 +10712,7 @@
       </c>
       <c r="O135" s="5"/>
     </row>
-    <row r="136" spans="1:15" s="9" customFormat="1">
+    <row r="136" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -10709,7 +10751,7 @@
       </c>
       <c r="O136" s="5"/>
     </row>
-    <row r="137" spans="1:15" s="9" customFormat="1">
+    <row r="137" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -10748,7 +10790,7 @@
       </c>
       <c r="O137" s="5"/>
     </row>
-    <row r="138" spans="1:15" s="9" customFormat="1">
+    <row r="138" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -10787,7 +10829,7 @@
       </c>
       <c r="O138" s="5"/>
     </row>
-    <row r="139" spans="1:15" s="9" customFormat="1">
+    <row r="139" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -10826,7 +10868,7 @@
       </c>
       <c r="O139" s="5"/>
     </row>
-    <row r="140" spans="1:15" s="9" customFormat="1">
+    <row r="140" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -10865,7 +10907,7 @@
       </c>
       <c r="O140" s="5"/>
     </row>
-    <row r="141" spans="1:15" s="9" customFormat="1">
+    <row r="141" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -10906,7 +10948,7 @@
       </c>
       <c r="O141" s="5"/>
     </row>
-    <row r="142" spans="1:15" s="9" customFormat="1">
+    <row r="142" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -10945,7 +10987,7 @@
       </c>
       <c r="O142" s="5"/>
     </row>
-    <row r="143" spans="1:15" s="9" customFormat="1">
+    <row r="143" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -10984,7 +11026,7 @@
       </c>
       <c r="O143" s="5"/>
     </row>
-    <row r="144" spans="1:15" s="9" customFormat="1">
+    <row r="144" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -11023,7 +11065,7 @@
       </c>
       <c r="O144" s="5"/>
     </row>
-    <row r="145" spans="1:15" s="9" customFormat="1">
+    <row r="145" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -11062,7 +11104,7 @@
       </c>
       <c r="O145" s="5"/>
     </row>
-    <row r="146" spans="1:15" s="9" customFormat="1">
+    <row r="146" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -11101,7 +11143,7 @@
       </c>
       <c r="O146" s="5"/>
     </row>
-    <row r="147" spans="1:15" s="9" customFormat="1">
+    <row r="147" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -11140,7 +11182,7 @@
       </c>
       <c r="O147" s="5"/>
     </row>
-    <row r="148" spans="1:15" s="9" customFormat="1">
+    <row r="148" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -11179,7 +11221,7 @@
       </c>
       <c r="O148" s="5"/>
     </row>
-    <row r="149" spans="1:15" s="9" customFormat="1">
+    <row r="149" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -11218,7 +11260,7 @@
       </c>
       <c r="O149" s="5"/>
     </row>
-    <row r="150" spans="1:15" s="9" customFormat="1">
+    <row r="150" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -11257,7 +11299,7 @@
       </c>
       <c r="O150" s="5"/>
     </row>
-    <row r="151" spans="1:15" s="9" customFormat="1">
+    <row r="151" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -11296,7 +11338,7 @@
       </c>
       <c r="O151" s="5"/>
     </row>
-    <row r="152" spans="1:15" s="9" customFormat="1">
+    <row r="152" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -11335,7 +11377,7 @@
       </c>
       <c r="O152" s="6"/>
     </row>
-    <row r="153" spans="1:15" s="9" customFormat="1">
+    <row r="153" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -11376,7 +11418,7 @@
       </c>
       <c r="O153" s="6"/>
     </row>
-    <row r="154" spans="1:15" s="9" customFormat="1">
+    <row r="154" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -11415,7 +11457,7 @@
       </c>
       <c r="O154" s="6"/>
     </row>
-    <row r="155" spans="1:15" s="9" customFormat="1">
+    <row r="155" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -11454,7 +11496,7 @@
       </c>
       <c r="O155" s="6"/>
     </row>
-    <row r="156" spans="1:15" s="9" customFormat="1">
+    <row r="156" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -11493,7 +11535,7 @@
       </c>
       <c r="O156" s="6"/>
     </row>
-    <row r="157" spans="1:15" s="9" customFormat="1">
+    <row r="157" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -11534,7 +11576,7 @@
       </c>
       <c r="O157" s="6"/>
     </row>
-    <row r="158" spans="1:15" s="9" customFormat="1">
+    <row r="158" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -11575,7 +11617,7 @@
       </c>
       <c r="O158" s="6"/>
     </row>
-    <row r="159" spans="1:15" s="9" customFormat="1">
+    <row r="159" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -11614,7 +11656,7 @@
       </c>
       <c r="O159" s="6"/>
     </row>
-    <row r="160" spans="1:15" s="9" customFormat="1">
+    <row r="160" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -11653,7 +11695,7 @@
       </c>
       <c r="O160" s="6"/>
     </row>
-    <row r="161" spans="1:15" s="9" customFormat="1">
+    <row r="161" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -11692,7 +11734,7 @@
       </c>
       <c r="O161" s="6"/>
     </row>
-    <row r="162" spans="1:15" s="9" customFormat="1">
+    <row r="162" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -11731,7 +11773,7 @@
       </c>
       <c r="O162" s="6"/>
     </row>
-    <row r="163" spans="1:15" s="9" customFormat="1">
+    <row r="163" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -11772,7 +11814,7 @@
       </c>
       <c r="O163" s="6"/>
     </row>
-    <row r="164" spans="1:15" s="9" customFormat="1">
+    <row r="164" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -11811,7 +11853,7 @@
       </c>
       <c r="O164" s="6"/>
     </row>
-    <row r="165" spans="1:15" s="9" customFormat="1">
+    <row r="165" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -11850,7 +11892,7 @@
       </c>
       <c r="O165" s="6"/>
     </row>
-    <row r="166" spans="1:15" s="9" customFormat="1">
+    <row r="166" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -11889,7 +11931,7 @@
       </c>
       <c r="O166" s="6"/>
     </row>
-    <row r="167" spans="1:15" s="9" customFormat="1">
+    <row r="167" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -11928,7 +11970,7 @@
       </c>
       <c r="O167" s="6"/>
     </row>
-    <row r="168" spans="1:15" s="9" customFormat="1">
+    <row r="168" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -11967,7 +12009,7 @@
       </c>
       <c r="O168" s="6"/>
     </row>
-    <row r="169" spans="1:15" s="9" customFormat="1">
+    <row r="169" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -12006,7 +12048,7 @@
       </c>
       <c r="O169" s="6"/>
     </row>
-    <row r="170" spans="1:15" s="9" customFormat="1">
+    <row r="170" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -12045,7 +12087,7 @@
       </c>
       <c r="O170" s="6"/>
     </row>
-    <row r="171" spans="1:15" s="9" customFormat="1">
+    <row r="171" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -12086,7 +12128,7 @@
       </c>
       <c r="O171" s="6"/>
     </row>
-    <row r="172" spans="1:15" s="9" customFormat="1">
+    <row r="172" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -12127,7 +12169,7 @@
       </c>
       <c r="O172" s="6"/>
     </row>
-    <row r="173" spans="1:15" s="9" customFormat="1">
+    <row r="173" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -12168,7 +12210,7 @@
       </c>
       <c r="O173" s="6"/>
     </row>
-    <row r="174" spans="1:15" s="9" customFormat="1">
+    <row r="174" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -12209,7 +12251,7 @@
       </c>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="1:15" s="9" customFormat="1">
+    <row r="175" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A175" s="6">
         <v>174</v>
       </c>
@@ -12248,7 +12290,7 @@
       </c>
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="1:15" s="9" customFormat="1">
+    <row r="176" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -12287,7 +12329,7 @@
       </c>
       <c r="O176" s="6"/>
     </row>
-    <row r="177" spans="1:15" s="9" customFormat="1">
+    <row r="177" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -12328,7 +12370,7 @@
       </c>
       <c r="O177" s="6"/>
     </row>
-    <row r="178" spans="1:15" s="9" customFormat="1">
+    <row r="178" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -12367,7 +12409,7 @@
       </c>
       <c r="O178" s="6"/>
     </row>
-    <row r="179" spans="1:15" s="9" customFormat="1">
+    <row r="179" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A179" s="6">
         <v>178</v>
       </c>
@@ -12406,7 +12448,7 @@
       </c>
       <c r="O179" s="6"/>
     </row>
-    <row r="180" spans="1:15" s="9" customFormat="1">
+    <row r="180" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -12445,7 +12487,7 @@
       </c>
       <c r="O180" s="6"/>
     </row>
-    <row r="181" spans="1:15" s="9" customFormat="1">
+    <row r="181" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A181" s="6">
         <v>180</v>
       </c>
@@ -12484,7 +12526,7 @@
       </c>
       <c r="O181" s="6"/>
     </row>
-    <row r="182" spans="1:15" s="9" customFormat="1">
+    <row r="182" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -12523,7 +12565,7 @@
       </c>
       <c r="O182" s="6"/>
     </row>
-    <row r="183" spans="1:15" s="9" customFormat="1">
+    <row r="183" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A183" s="6">
         <v>182</v>
       </c>
@@ -12562,7 +12604,7 @@
       </c>
       <c r="O183" s="6"/>
     </row>
-    <row r="184" spans="1:15" s="9" customFormat="1">
+    <row r="184" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -12601,7 +12643,7 @@
       </c>
       <c r="O184" s="6"/>
     </row>
-    <row r="185" spans="1:15" s="9" customFormat="1">
+    <row r="185" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -12640,7 +12682,7 @@
       </c>
       <c r="O185" s="6"/>
     </row>
-    <row r="186" spans="1:15" s="9" customFormat="1">
+    <row r="186" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A186" s="6">
         <v>185</v>
       </c>
@@ -12679,7 +12721,7 @@
       </c>
       <c r="O186" s="6"/>
     </row>
-    <row r="187" spans="1:15" s="9" customFormat="1">
+    <row r="187" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A187" s="6">
         <v>186</v>
       </c>
@@ -12718,7 +12760,7 @@
       </c>
       <c r="O187" s="6"/>
     </row>
-    <row r="188" spans="1:15" s="9" customFormat="1">
+    <row r="188" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A188" s="6">
         <v>187</v>
       </c>
@@ -12800,7 +12842,7 @@
       </c>
       <c r="O189" s="6"/>
     </row>
-    <row r="190" spans="1:15" s="9" customFormat="1">
+    <row r="190" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -12841,7 +12883,7 @@
       </c>
       <c r="O190" s="6"/>
     </row>
-    <row r="191" spans="1:15" s="9" customFormat="1">
+    <row r="191" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A191" s="6">
         <v>190</v>
       </c>
@@ -12882,7 +12924,7 @@
       </c>
       <c r="O191" s="6"/>
     </row>
-    <row r="192" spans="1:15" s="9" customFormat="1">
+    <row r="192" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -12923,7 +12965,7 @@
       </c>
       <c r="O192" s="6"/>
     </row>
-    <row r="193" spans="1:15" s="9" customFormat="1">
+    <row r="193" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A193" s="6">
         <v>192</v>
       </c>
@@ -12962,7 +13004,7 @@
       </c>
       <c r="O193" s="6"/>
     </row>
-    <row r="194" spans="1:15" s="9" customFormat="1">
+    <row r="194" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A194" s="6">
         <v>193</v>
       </c>
@@ -13001,7 +13043,7 @@
       </c>
       <c r="O194" s="6"/>
     </row>
-    <row r="195" spans="1:15" s="9" customFormat="1">
+    <row r="195" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A195" s="6">
         <v>194</v>
       </c>
@@ -13040,7 +13082,7 @@
       </c>
       <c r="O195" s="6"/>
     </row>
-    <row r="196" spans="1:15" s="9" customFormat="1">
+    <row r="196" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -13081,7 +13123,7 @@
       </c>
       <c r="O196" s="6"/>
     </row>
-    <row r="197" spans="1:15" s="9" customFormat="1">
+    <row r="197" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A197" s="6">
         <v>196</v>
       </c>
@@ -13120,7 +13162,7 @@
       </c>
       <c r="O197" s="6"/>
     </row>
-    <row r="198" spans="1:15" s="9" customFormat="1">
+    <row r="198" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A198" s="6">
         <v>197</v>
       </c>
@@ -13161,7 +13203,7 @@
       </c>
       <c r="O198" s="6"/>
     </row>
-    <row r="199" spans="1:15" s="9" customFormat="1">
+    <row r="199" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A199" s="6">
         <v>198</v>
       </c>
@@ -13200,7 +13242,7 @@
       </c>
       <c r="O199" s="6"/>
     </row>
-    <row r="200" spans="1:15" s="9" customFormat="1">
+    <row r="200" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -13239,7 +13281,7 @@
       </c>
       <c r="O200" s="6"/>
     </row>
-    <row r="201" spans="1:15" s="9" customFormat="1">
+    <row r="201" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A201" s="6">
         <v>200</v>
       </c>
@@ -13278,7 +13320,7 @@
       </c>
       <c r="O201" s="6"/>
     </row>
-    <row r="202" spans="1:15" s="9" customFormat="1">
+    <row r="202" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A202" s="6">
         <v>201</v>
       </c>
@@ -13319,7 +13361,7 @@
       </c>
       <c r="O202" s="6"/>
     </row>
-    <row r="203" spans="1:15" s="9" customFormat="1">
+    <row r="203" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A203" s="6">
         <v>202</v>
       </c>
@@ -13360,7 +13402,7 @@
       </c>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="1:15" s="9" customFormat="1">
+    <row r="204" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A204" s="6">
         <v>203</v>
       </c>
@@ -13399,7 +13441,7 @@
       </c>
       <c r="O204" s="6"/>
     </row>
-    <row r="205" spans="1:15" s="9" customFormat="1">
+    <row r="205" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A205" s="6">
         <v>204</v>
       </c>
@@ -13438,7 +13480,7 @@
       </c>
       <c r="O205" s="6"/>
     </row>
-    <row r="206" spans="1:15" s="9" customFormat="1">
+    <row r="206" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A206" s="6">
         <v>205</v>
       </c>
@@ -13477,7 +13519,7 @@
       </c>
       <c r="O206" s="6"/>
     </row>
-    <row r="207" spans="1:15" s="9" customFormat="1">
+    <row r="207" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A207" s="6">
         <v>206</v>
       </c>
@@ -13516,7 +13558,7 @@
       </c>
       <c r="O207" s="6"/>
     </row>
-    <row r="208" spans="1:15" s="9" customFormat="1">
+    <row r="208" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A208" s="6">
         <v>207</v>
       </c>
@@ -13555,7 +13597,7 @@
       </c>
       <c r="O208" s="6"/>
     </row>
-    <row r="209" spans="1:15" s="9" customFormat="1">
+    <row r="209" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A209" s="6">
         <v>208</v>
       </c>
@@ -13594,7 +13636,7 @@
       </c>
       <c r="O209" s="6"/>
     </row>
-    <row r="210" spans="1:15" s="9" customFormat="1">
+    <row r="210" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A210" s="6">
         <v>209</v>
       </c>
@@ -13633,7 +13675,7 @@
       </c>
       <c r="O210" s="6"/>
     </row>
-    <row r="211" spans="1:15" s="9" customFormat="1">
+    <row r="211" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A211" s="6">
         <v>210</v>
       </c>
@@ -13672,7 +13714,7 @@
       </c>
       <c r="O211" s="6"/>
     </row>
-    <row r="212" spans="1:15" s="9" customFormat="1">
+    <row r="212" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A212" s="6">
         <v>211</v>
       </c>
@@ -13711,7 +13753,7 @@
       </c>
       <c r="O212" s="6"/>
     </row>
-    <row r="213" spans="1:15" s="9" customFormat="1">
+    <row r="213" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A213" s="6">
         <v>212</v>
       </c>
@@ -13750,7 +13792,7 @@
       </c>
       <c r="O213" s="6"/>
     </row>
-    <row r="214" spans="1:15" s="9" customFormat="1">
+    <row r="214" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A214" s="6">
         <v>213</v>
       </c>
@@ -13789,7 +13831,7 @@
       </c>
       <c r="O214" s="6"/>
     </row>
-    <row r="215" spans="1:15" s="9" customFormat="1">
+    <row r="215" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A215" s="6">
         <v>214</v>
       </c>
@@ -13828,7 +13870,7 @@
       </c>
       <c r="O215" s="6"/>
     </row>
-    <row r="216" spans="1:15" s="9" customFormat="1">
+    <row r="216" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A216" s="6">
         <v>215</v>
       </c>
@@ -13869,7 +13911,7 @@
       </c>
       <c r="O216" s="6"/>
     </row>
-    <row r="217" spans="1:15" s="9" customFormat="1">
+    <row r="217" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A217" s="6">
         <v>216</v>
       </c>
@@ -13910,7 +13952,7 @@
       </c>
       <c r="O217" s="6"/>
     </row>
-    <row r="218" spans="1:15" s="9" customFormat="1">
+    <row r="218" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A218" s="6">
         <v>217</v>
       </c>
@@ -13951,7 +13993,7 @@
       </c>
       <c r="O218" s="6"/>
     </row>
-    <row r="219" spans="1:15" s="9" customFormat="1">
+    <row r="219" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A219" s="6">
         <v>218</v>
       </c>
@@ -13990,7 +14032,7 @@
       </c>
       <c r="O219" s="6"/>
     </row>
-    <row r="220" spans="1:15" s="9" customFormat="1">
+    <row r="220" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A220" s="6">
         <v>219</v>
       </c>
@@ -14029,7 +14071,7 @@
       </c>
       <c r="O220" s="6"/>
     </row>
-    <row r="221" spans="1:15" s="9" customFormat="1">
+    <row r="221" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A221" s="6">
         <v>220</v>
       </c>
@@ -14068,7 +14110,7 @@
       </c>
       <c r="O221" s="6"/>
     </row>
-    <row r="222" spans="1:15" s="9" customFormat="1">
+    <row r="222" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A222" s="6">
         <v>221</v>
       </c>
@@ -14107,7 +14149,7 @@
       </c>
       <c r="O222" s="6"/>
     </row>
-    <row r="223" spans="1:15" s="9" customFormat="1">
+    <row r="223" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A223" s="6">
         <v>222</v>
       </c>
@@ -14146,7 +14188,7 @@
       </c>
       <c r="O223" s="6"/>
     </row>
-    <row r="224" spans="1:15" s="9" customFormat="1">
+    <row r="224" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A224" s="6">
         <v>223</v>
       </c>
@@ -14185,7 +14227,7 @@
       </c>
       <c r="O224" s="6"/>
     </row>
-    <row r="225" spans="1:15" s="9" customFormat="1">
+    <row r="225" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A225" s="6">
         <v>224</v>
       </c>
@@ -14226,7 +14268,7 @@
       </c>
       <c r="O225" s="6"/>
     </row>
-    <row r="226" spans="1:15" s="9" customFormat="1">
+    <row r="226" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A226" s="6">
         <v>225</v>
       </c>
@@ -14265,7 +14307,7 @@
       </c>
       <c r="O226" s="6"/>
     </row>
-    <row r="227" spans="1:15" s="9" customFormat="1">
+    <row r="227" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A227" s="6">
         <v>226</v>
       </c>
@@ -14304,7 +14346,7 @@
       </c>
       <c r="O227" s="6"/>
     </row>
-    <row r="228" spans="1:15" s="9" customFormat="1">
+    <row r="228" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A228" s="6">
         <v>227</v>
       </c>
@@ -14343,7 +14385,7 @@
       </c>
       <c r="O228" s="6"/>
     </row>
-    <row r="229" spans="1:15" s="9" customFormat="1">
+    <row r="229" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A229" s="6">
         <v>228</v>
       </c>
@@ -14382,7 +14424,7 @@
       </c>
       <c r="O229" s="6"/>
     </row>
-    <row r="230" spans="1:15" s="9" customFormat="1">
+    <row r="230" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A230" s="6">
         <v>229</v>
       </c>
@@ -14421,7 +14463,7 @@
       </c>
       <c r="O230" s="6"/>
     </row>
-    <row r="231" spans="1:15" s="9" customFormat="1">
+    <row r="231" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A231" s="6">
         <v>230</v>
       </c>
@@ -14460,7 +14502,7 @@
       </c>
       <c r="O231" s="6"/>
     </row>
-    <row r="232" spans="1:15" s="9" customFormat="1">
+    <row r="232" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A232" s="6">
         <v>231</v>
       </c>
@@ -14499,7 +14541,7 @@
       </c>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="1:15" s="9" customFormat="1">
+    <row r="233" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A233" s="6">
         <v>232</v>
       </c>
@@ -14538,7 +14580,7 @@
       </c>
       <c r="O233" s="6"/>
     </row>
-    <row r="234" spans="1:15" s="9" customFormat="1">
+    <row r="234" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A234" s="6">
         <v>233</v>
       </c>
@@ -14577,7 +14619,7 @@
       </c>
       <c r="O234" s="6"/>
     </row>
-    <row r="235" spans="1:15" s="9" customFormat="1">
+    <row r="235" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A235" s="6">
         <v>234</v>
       </c>
@@ -14616,7 +14658,7 @@
       </c>
       <c r="O235" s="6"/>
     </row>
-    <row r="236" spans="1:15" s="9" customFormat="1">
+    <row r="236" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A236" s="6">
         <v>235</v>
       </c>
@@ -14655,7 +14697,7 @@
       </c>
       <c r="O236" s="6"/>
     </row>
-    <row r="237" spans="1:15" s="9" customFormat="1">
+    <row r="237" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A237" s="6">
         <v>236</v>
       </c>
@@ -14694,7 +14736,7 @@
       </c>
       <c r="O237" s="6"/>
     </row>
-    <row r="238" spans="1:15" s="9" customFormat="1">
+    <row r="238" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A238" s="6">
         <v>237</v>
       </c>
@@ -14735,7 +14777,7 @@
       </c>
       <c r="O238" s="6"/>
     </row>
-    <row r="239" spans="1:15" s="9" customFormat="1">
+    <row r="239" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A239" s="6">
         <v>238</v>
       </c>
@@ -14774,7 +14816,7 @@
       </c>
       <c r="O239" s="6"/>
     </row>
-    <row r="240" spans="1:15" s="9" customFormat="1">
+    <row r="240" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A240" s="6">
         <v>239</v>
       </c>
@@ -14813,7 +14855,7 @@
       </c>
       <c r="O240" s="6"/>
     </row>
-    <row r="241" spans="1:15" s="9" customFormat="1">
+    <row r="241" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A241" s="6">
         <v>240</v>
       </c>
@@ -14852,7 +14894,7 @@
       </c>
       <c r="O241" s="6"/>
     </row>
-    <row r="242" spans="1:15" s="9" customFormat="1">
+    <row r="242" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A242" s="6">
         <v>241</v>
       </c>
@@ -14891,7 +14933,7 @@
       </c>
       <c r="O242" s="6"/>
     </row>
-    <row r="243" spans="1:15" s="9" customFormat="1">
+    <row r="243" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A243" s="6">
         <v>242</v>
       </c>
@@ -14932,7 +14974,7 @@
       </c>
       <c r="O243" s="6"/>
     </row>
-    <row r="244" spans="1:15" s="9" customFormat="1">
+    <row r="244" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A244" s="6">
         <v>243</v>
       </c>
@@ -14973,7 +15015,7 @@
       </c>
       <c r="O244" s="6"/>
     </row>
-    <row r="245" spans="1:15" s="9" customFormat="1">
+    <row r="245" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A245" s="6">
         <v>244</v>
       </c>
@@ -15012,7 +15054,7 @@
       </c>
       <c r="O245" s="6"/>
     </row>
-    <row r="246" spans="1:15" s="9" customFormat="1">
+    <row r="246" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A246" s="6">
         <v>245</v>
       </c>
@@ -15051,7 +15093,7 @@
       </c>
       <c r="O246" s="6"/>
     </row>
-    <row r="247" spans="1:15" s="9" customFormat="1">
+    <row r="247" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A247" s="6">
         <v>246</v>
       </c>
@@ -15090,7 +15132,7 @@
       </c>
       <c r="O247" s="6"/>
     </row>
-    <row r="248" spans="1:15" s="9" customFormat="1">
+    <row r="248" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A248" s="6">
         <v>247</v>
       </c>
@@ -15129,7 +15171,7 @@
       </c>
       <c r="O248" s="6"/>
     </row>
-    <row r="249" spans="1:15" s="9" customFormat="1">
+    <row r="249" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A249" s="6">
         <v>248</v>
       </c>
@@ -15209,7 +15251,7 @@
       </c>
       <c r="O250" s="6"/>
     </row>
-    <row r="251" spans="1:15" s="9" customFormat="1">
+    <row r="251" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A251" s="6">
         <v>250</v>
       </c>
@@ -15248,7 +15290,7 @@
       </c>
       <c r="O251" s="6"/>
     </row>
-    <row r="252" spans="1:15" s="9" customFormat="1">
+    <row r="252" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A252" s="6">
         <v>251</v>
       </c>
@@ -15287,7 +15329,7 @@
       </c>
       <c r="O252" s="6"/>
     </row>
-    <row r="253" spans="1:15" s="9" customFormat="1">
+    <row r="253" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A253" s="6">
         <v>252</v>
       </c>
@@ -15326,7 +15368,7 @@
       </c>
       <c r="O253" s="6"/>
     </row>
-    <row r="254" spans="1:15" s="9" customFormat="1">
+    <row r="254" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A254" s="6">
         <v>253</v>
       </c>
@@ -15365,7 +15407,7 @@
       </c>
       <c r="O254" s="6"/>
     </row>
-    <row r="255" spans="1:15" s="9" customFormat="1">
+    <row r="255" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A255" s="6">
         <v>254</v>
       </c>
@@ -15404,7 +15446,7 @@
       </c>
       <c r="O255" s="6"/>
     </row>
-    <row r="256" spans="1:15" s="9" customFormat="1">
+    <row r="256" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A256" s="6">
         <v>255</v>
       </c>
@@ -15443,7 +15485,7 @@
       </c>
       <c r="O256" s="6"/>
     </row>
-    <row r="257" spans="1:15" s="9" customFormat="1">
+    <row r="257" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A257" s="6">
         <v>256</v>
       </c>
@@ -15482,7 +15524,7 @@
       </c>
       <c r="O257" s="6"/>
     </row>
-    <row r="258" spans="1:15" s="9" customFormat="1">
+    <row r="258" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A258" s="6">
         <v>257</v>
       </c>
@@ -15521,7 +15563,7 @@
       </c>
       <c r="O258" s="6"/>
     </row>
-    <row r="259" spans="1:15" s="9" customFormat="1">
+    <row r="259" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A259" s="6">
         <v>258</v>
       </c>
@@ -15560,7 +15602,7 @@
       </c>
       <c r="O259" s="6"/>
     </row>
-    <row r="260" spans="1:15" s="9" customFormat="1">
+    <row r="260" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A260" s="6">
         <v>259</v>
       </c>
@@ -15599,7 +15641,7 @@
       </c>
       <c r="O260" s="6"/>
     </row>
-    <row r="261" spans="1:15" s="9" customFormat="1">
+    <row r="261" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A261" s="6">
         <v>260</v>
       </c>
@@ -15638,7 +15680,7 @@
       </c>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="1:15" s="9" customFormat="1">
+    <row r="262" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A262" s="6">
         <v>261</v>
       </c>
@@ -15677,7 +15719,7 @@
       </c>
       <c r="O262" s="6"/>
     </row>
-    <row r="263" spans="1:15" s="9" customFormat="1">
+    <row r="263" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A263" s="6">
         <v>262</v>
       </c>
@@ -15716,7 +15758,7 @@
       </c>
       <c r="O263" s="6"/>
     </row>
-    <row r="264" spans="1:15" s="9" customFormat="1">
+    <row r="264" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A264" s="6">
         <v>263</v>
       </c>
@@ -15755,7 +15797,7 @@
       </c>
       <c r="O264" s="6"/>
     </row>
-    <row r="265" spans="1:15" s="9" customFormat="1">
+    <row r="265" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A265" s="6">
         <v>264</v>
       </c>
@@ -15794,7 +15836,7 @@
       </c>
       <c r="O265" s="6"/>
     </row>
-    <row r="266" spans="1:15" s="9" customFormat="1">
+    <row r="266" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A266" s="6">
         <v>265</v>
       </c>
@@ -15833,7 +15875,7 @@
       </c>
       <c r="O266" s="6"/>
     </row>
-    <row r="267" spans="1:15" s="9" customFormat="1">
+    <row r="267" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A267" s="6">
         <v>266</v>
       </c>
@@ -15872,7 +15914,7 @@
       </c>
       <c r="O267" s="6"/>
     </row>
-    <row r="268" spans="1:15" s="9" customFormat="1">
+    <row r="268" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A268" s="6">
         <v>267</v>
       </c>
@@ -15911,7 +15953,7 @@
       </c>
       <c r="O268" s="6"/>
     </row>
-    <row r="269" spans="1:15" s="9" customFormat="1">
+    <row r="269" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A269" s="6">
         <v>268</v>
       </c>
@@ -15950,7 +15992,7 @@
       </c>
       <c r="O269" s="6"/>
     </row>
-    <row r="270" spans="1:15" s="9" customFormat="1">
+    <row r="270" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A270" s="6">
         <v>269</v>
       </c>
@@ -15989,7 +16031,7 @@
       </c>
       <c r="O270" s="6"/>
     </row>
-    <row r="271" spans="1:15" s="9" customFormat="1">
+    <row r="271" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A271" s="6">
         <v>270</v>
       </c>
@@ -16030,7 +16072,7 @@
       </c>
       <c r="O271" s="6"/>
     </row>
-    <row r="272" spans="1:15" s="9" customFormat="1">
+    <row r="272" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A272" s="6">
         <v>271</v>
       </c>
@@ -16069,7 +16111,7 @@
       </c>
       <c r="O272" s="6"/>
     </row>
-    <row r="273" spans="1:15" s="9" customFormat="1">
+    <row r="273" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A273" s="6">
         <v>272</v>
       </c>
@@ -16108,7 +16150,7 @@
       </c>
       <c r="O273" s="6"/>
     </row>
-    <row r="274" spans="1:15" s="9" customFormat="1">
+    <row r="274" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -16147,7 +16189,7 @@
       </c>
       <c r="O274" s="6"/>
     </row>
-    <row r="275" spans="1:15" s="9" customFormat="1">
+    <row r="275" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A275" s="6">
         <v>274</v>
       </c>
@@ -16188,7 +16230,7 @@
       </c>
       <c r="O275" s="6"/>
     </row>
-    <row r="276" spans="1:15" s="9" customFormat="1">
+    <row r="276" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A276" s="6">
         <v>275</v>
       </c>
@@ -16229,7 +16271,7 @@
       </c>
       <c r="O276" s="6"/>
     </row>
-    <row r="277" spans="1:15" s="9" customFormat="1">
+    <row r="277" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A277" s="6">
         <v>276</v>
       </c>
@@ -16270,7 +16312,7 @@
       </c>
       <c r="O277" s="6"/>
     </row>
-    <row r="278" spans="1:15" s="9" customFormat="1">
+    <row r="278" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A278" s="6">
         <v>277</v>
       </c>
@@ -16311,7 +16353,7 @@
       </c>
       <c r="O278" s="6"/>
     </row>
-    <row r="279" spans="1:15" s="9" customFormat="1">
+    <row r="279" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A279" s="6">
         <v>278</v>
       </c>
@@ -16352,7 +16394,7 @@
       </c>
       <c r="O279" s="6"/>
     </row>
-    <row r="280" spans="1:15" s="9" customFormat="1">
+    <row r="280" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A280" s="6">
         <v>279</v>
       </c>
@@ -16393,7 +16435,7 @@
       </c>
       <c r="O280" s="6"/>
     </row>
-    <row r="281" spans="1:15" s="9" customFormat="1">
+    <row r="281" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A281" s="6">
         <v>280</v>
       </c>
@@ -16434,7 +16476,7 @@
       </c>
       <c r="O281" s="6"/>
     </row>
-    <row r="282" spans="1:15" s="9" customFormat="1">
+    <row r="282" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A282" s="6">
         <v>281</v>
       </c>
@@ -16473,7 +16515,7 @@
       </c>
       <c r="O282" s="6"/>
     </row>
-    <row r="283" spans="1:15" s="9" customFormat="1">
+    <row r="283" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A283" s="6">
         <v>282</v>
       </c>
@@ -16512,7 +16554,7 @@
       </c>
       <c r="O283" s="6"/>
     </row>
-    <row r="284" spans="1:15" s="9" customFormat="1">
+    <row r="284" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A284" s="6">
         <v>283</v>
       </c>
@@ -16551,7 +16593,7 @@
       </c>
       <c r="O284" s="6"/>
     </row>
-    <row r="285" spans="1:15" s="9" customFormat="1">
+    <row r="285" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A285" s="6">
         <v>284</v>
       </c>
@@ -16590,7 +16632,7 @@
       </c>
       <c r="O285" s="6"/>
     </row>
-    <row r="286" spans="1:15" s="9" customFormat="1">
+    <row r="286" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A286" s="6">
         <v>285</v>
       </c>
@@ -16629,7 +16671,7 @@
       </c>
       <c r="O286" s="6"/>
     </row>
-    <row r="287" spans="1:15" s="9" customFormat="1">
+    <row r="287" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A287" s="6">
         <v>286</v>
       </c>
@@ -16668,7 +16710,7 @@
       </c>
       <c r="O287" s="6"/>
     </row>
-    <row r="288" spans="1:15" s="9" customFormat="1">
+    <row r="288" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A288" s="6">
         <v>287</v>
       </c>
@@ -16707,7 +16749,7 @@
       </c>
       <c r="O288" s="6"/>
     </row>
-    <row r="289" spans="1:15" s="9" customFormat="1">
+    <row r="289" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A289" s="6">
         <v>288</v>
       </c>
@@ -16746,7 +16788,7 @@
       </c>
       <c r="O289" s="6"/>
     </row>
-    <row r="290" spans="1:15" s="9" customFormat="1">
+    <row r="290" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A290" s="6">
         <v>289</v>
       </c>
@@ -16785,7 +16827,7 @@
       </c>
       <c r="O290" s="6"/>
     </row>
-    <row r="291" spans="1:15" s="9" customFormat="1">
+    <row r="291" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A291" s="6">
         <v>290</v>
       </c>
@@ -16826,7 +16868,7 @@
       </c>
       <c r="O291" s="6"/>
     </row>
-    <row r="292" spans="1:15" s="9" customFormat="1">
+    <row r="292" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A292" s="6">
         <v>291</v>
       </c>
@@ -16865,7 +16907,7 @@
       </c>
       <c r="O292" s="6"/>
     </row>
-    <row r="293" spans="1:15" s="9" customFormat="1">
+    <row r="293" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A293" s="6">
         <v>292</v>
       </c>
@@ -16904,7 +16946,7 @@
       </c>
       <c r="O293" s="6"/>
     </row>
-    <row r="294" spans="1:15" s="9" customFormat="1">
+    <row r="294" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A294" s="6">
         <v>293</v>
       </c>
@@ -16943,7 +16985,7 @@
       </c>
       <c r="O294" s="6"/>
     </row>
-    <row r="295" spans="1:15" s="9" customFormat="1">
+    <row r="295" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A295" s="6">
         <v>294</v>
       </c>
@@ -16982,7 +17024,7 @@
       </c>
       <c r="O295" s="6"/>
     </row>
-    <row r="296" spans="1:15" s="9" customFormat="1">
+    <row r="296" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A296" s="6">
         <v>295</v>
       </c>
@@ -17021,7 +17063,7 @@
       </c>
       <c r="O296" s="6"/>
     </row>
-    <row r="297" spans="1:15" s="9" customFormat="1">
+    <row r="297" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A297" s="6">
         <v>296</v>
       </c>
@@ -17060,7 +17102,7 @@
       </c>
       <c r="O297" s="6"/>
     </row>
-    <row r="298" spans="1:15" s="9" customFormat="1">
+    <row r="298" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A298" s="6">
         <v>297</v>
       </c>
@@ -17099,7 +17141,7 @@
       </c>
       <c r="O298" s="6"/>
     </row>
-    <row r="299" spans="1:15" s="9" customFormat="1">
+    <row r="299" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A299" s="6">
         <v>298</v>
       </c>
@@ -17138,7 +17180,7 @@
       </c>
       <c r="O299" s="6"/>
     </row>
-    <row r="300" spans="1:15" s="9" customFormat="1">
+    <row r="300" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A300" s="6">
         <v>299</v>
       </c>
@@ -17177,7 +17219,7 @@
       </c>
       <c r="O300" s="6"/>
     </row>
-    <row r="301" spans="1:15" s="9" customFormat="1">
+    <row r="301" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A301" s="6">
         <v>300</v>
       </c>
@@ -17216,7 +17258,7 @@
       </c>
       <c r="O301" s="6"/>
     </row>
-    <row r="302" spans="1:15" s="9" customFormat="1">
+    <row r="302" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A302" s="6">
         <v>301</v>
       </c>
@@ -17255,7 +17297,7 @@
       </c>
       <c r="O302" s="6"/>
     </row>
-    <row r="303" spans="1:15" s="9" customFormat="1">
+    <row r="303" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A303" s="6">
         <v>302</v>
       </c>
@@ -17294,7 +17336,7 @@
       </c>
       <c r="O303" s="6"/>
     </row>
-    <row r="304" spans="1:15" s="9" customFormat="1">
+    <row r="304" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A304" s="6">
         <v>303</v>
       </c>
@@ -17333,7 +17375,7 @@
       </c>
       <c r="O304" s="6"/>
     </row>
-    <row r="305" spans="1:15" s="9" customFormat="1">
+    <row r="305" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A305" s="6">
         <v>304</v>
       </c>
@@ -17372,7 +17414,7 @@
       </c>
       <c r="O305" s="6"/>
     </row>
-    <row r="306" spans="1:15" s="9" customFormat="1">
+    <row r="306" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A306" s="6">
         <v>305</v>
       </c>
@@ -17411,7 +17453,7 @@
       </c>
       <c r="O306" s="6"/>
     </row>
-    <row r="307" spans="1:15" s="9" customFormat="1">
+    <row r="307" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A307" s="6">
         <v>306</v>
       </c>
@@ -17450,7 +17492,7 @@
       </c>
       <c r="O307" s="6"/>
     </row>
-    <row r="308" spans="1:15" s="9" customFormat="1">
+    <row r="308" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A308" s="6">
         <v>307</v>
       </c>
@@ -17489,7 +17531,7 @@
       </c>
       <c r="O308" s="6"/>
     </row>
-    <row r="309" spans="1:15" s="9" customFormat="1">
+    <row r="309" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A309" s="6">
         <v>308</v>
       </c>
@@ -17528,7 +17570,7 @@
       </c>
       <c r="O309" s="6"/>
     </row>
-    <row r="310" spans="1:15" s="9" customFormat="1">
+    <row r="310" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A310" s="6">
         <v>309</v>
       </c>
@@ -17567,7 +17609,7 @@
       </c>
       <c r="O310" s="6"/>
     </row>
-    <row r="311" spans="1:15" s="9" customFormat="1">
+    <row r="311" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A311" s="6">
         <v>310</v>
       </c>
@@ -17606,7 +17648,7 @@
       </c>
       <c r="O311" s="6"/>
     </row>
-    <row r="312" spans="1:15" s="9" customFormat="1">
+    <row r="312" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A312" s="6">
         <v>311</v>
       </c>
@@ -17647,7 +17689,7 @@
       </c>
       <c r="O312" s="6"/>
     </row>
-    <row r="313" spans="1:15" s="9" customFormat="1">
+    <row r="313" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A313" s="6">
         <v>312</v>
       </c>
@@ -17686,7 +17728,7 @@
       </c>
       <c r="O313" s="6"/>
     </row>
-    <row r="314" spans="1:15" s="9" customFormat="1">
+    <row r="314" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A314" s="6">
         <v>313</v>
       </c>
@@ -17725,7 +17767,7 @@
       </c>
       <c r="O314" s="6"/>
     </row>
-    <row r="315" spans="1:15" s="9" customFormat="1">
+    <row r="315" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A315" s="6">
         <v>314</v>
       </c>
@@ -17766,7 +17808,7 @@
       </c>
       <c r="O315" s="6"/>
     </row>
-    <row r="316" spans="1:15" s="9" customFormat="1">
+    <row r="316" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A316" s="6">
         <v>315</v>
       </c>
@@ -17807,7 +17849,7 @@
       </c>
       <c r="O316" s="6"/>
     </row>
-    <row r="317" spans="1:15" s="9" customFormat="1">
+    <row r="317" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A317" s="6">
         <v>316</v>
       </c>
@@ -17848,7 +17890,7 @@
       </c>
       <c r="O317" s="6"/>
     </row>
-    <row r="318" spans="1:15" s="9" customFormat="1">
+    <row r="318" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A318" s="6">
         <v>317</v>
       </c>
@@ -17889,7 +17931,7 @@
       </c>
       <c r="O318" s="6"/>
     </row>
-    <row r="319" spans="1:15" s="9" customFormat="1">
+    <row r="319" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A319" s="6">
         <v>318</v>
       </c>
@@ -17930,7 +17972,7 @@
       </c>
       <c r="O319" s="6"/>
     </row>
-    <row r="320" spans="1:15" s="9" customFormat="1">
+    <row r="320" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A320" s="6">
         <v>319</v>
       </c>
@@ -17971,7 +18013,7 @@
       </c>
       <c r="O320" s="6"/>
     </row>
-    <row r="321" spans="1:15" s="9" customFormat="1">
+    <row r="321" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A321" s="6">
         <v>320</v>
       </c>
@@ -18012,7 +18054,7 @@
       </c>
       <c r="O321" s="6"/>
     </row>
-    <row r="322" spans="1:15" s="9" customFormat="1">
+    <row r="322" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A322" s="6">
         <v>321</v>
       </c>
@@ -18053,7 +18095,7 @@
       </c>
       <c r="O322" s="6"/>
     </row>
-    <row r="323" spans="1:15" s="9" customFormat="1">
+    <row r="323" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A323" s="6">
         <v>322</v>
       </c>
@@ -18094,7 +18136,7 @@
       </c>
       <c r="O323" s="6"/>
     </row>
-    <row r="324" spans="1:15" s="9" customFormat="1">
+    <row r="324" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A324" s="6">
         <v>323</v>
       </c>
@@ -18133,7 +18175,7 @@
       </c>
       <c r="O324" s="6"/>
     </row>
-    <row r="325" spans="1:15" s="9" customFormat="1">
+    <row r="325" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A325" s="6">
         <v>324</v>
       </c>
@@ -18172,7 +18214,7 @@
       </c>
       <c r="O325" s="6"/>
     </row>
-    <row r="326" spans="1:15" s="9" customFormat="1">
+    <row r="326" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A326" s="6">
         <v>325</v>
       </c>
@@ -18211,7 +18253,7 @@
       </c>
       <c r="O326" s="6"/>
     </row>
-    <row r="327" spans="1:15" s="9" customFormat="1">
+    <row r="327" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A327" s="6">
         <v>326</v>
       </c>
@@ -18250,7 +18292,7 @@
       </c>
       <c r="O327" s="6"/>
     </row>
-    <row r="328" spans="1:15" s="9" customFormat="1">
+    <row r="328" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A328" s="6">
         <v>327</v>
       </c>
@@ -18289,7 +18331,7 @@
       </c>
       <c r="O328" s="6"/>
     </row>
-    <row r="329" spans="1:15" s="9" customFormat="1">
+    <row r="329" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A329" s="6">
         <v>328</v>
       </c>
@@ -18330,7 +18372,7 @@
       </c>
       <c r="O329" s="6"/>
     </row>
-    <row r="330" spans="1:15" s="9" customFormat="1">
+    <row r="330" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A330" s="6">
         <v>329</v>
       </c>
@@ -18371,7 +18413,7 @@
       </c>
       <c r="O330" s="6"/>
     </row>
-    <row r="331" spans="1:15" s="9" customFormat="1">
+    <row r="331" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A331" s="6">
         <v>330</v>
       </c>
@@ -18412,7 +18454,7 @@
       </c>
       <c r="O331" s="6"/>
     </row>
-    <row r="332" spans="1:15" s="9" customFormat="1">
+    <row r="332" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A332" s="6">
         <v>331</v>
       </c>
@@ -18453,7 +18495,7 @@
       </c>
       <c r="O332" s="6"/>
     </row>
-    <row r="333" spans="1:15" s="9" customFormat="1">
+    <row r="333" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A333" s="12">
         <v>332</v>
       </c>
@@ -18494,7 +18536,7 @@
       </c>
       <c r="O333" s="12"/>
     </row>
-    <row r="334" spans="1:15" s="9" customFormat="1">
+    <row r="334" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A334" s="6">
         <v>333</v>
       </c>
@@ -18533,7 +18575,7 @@
       </c>
       <c r="O334" s="6"/>
     </row>
-    <row r="335" spans="1:15" s="9" customFormat="1">
+    <row r="335" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A335" s="6">
         <v>334</v>
       </c>
@@ -18572,7 +18614,7 @@
       </c>
       <c r="O335" s="6"/>
     </row>
-    <row r="336" spans="1:15" s="9" customFormat="1">
+    <row r="336" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A336" s="6">
         <v>335</v>
       </c>
@@ -18611,7 +18653,7 @@
       </c>
       <c r="O336" s="6"/>
     </row>
-    <row r="337" spans="1:15" s="9" customFormat="1">
+    <row r="337" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A337" s="6">
         <v>336</v>
       </c>
@@ -18650,7 +18692,7 @@
       </c>
       <c r="O337" s="6"/>
     </row>
-    <row r="338" spans="1:15" s="9" customFormat="1">
+    <row r="338" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A338" s="6">
         <v>337</v>
       </c>
@@ -18689,7 +18731,7 @@
       </c>
       <c r="O338" s="6"/>
     </row>
-    <row r="339" spans="1:15" s="9" customFormat="1">
+    <row r="339" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A339" s="6">
         <v>338</v>
       </c>
@@ -18728,7 +18770,7 @@
       </c>
       <c r="O339" s="6"/>
     </row>
-    <row r="340" spans="1:15" s="9" customFormat="1">
+    <row r="340" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A340" s="6">
         <v>339</v>
       </c>
@@ -18767,7 +18809,7 @@
       </c>
       <c r="O340" s="6"/>
     </row>
-    <row r="341" spans="1:15" s="9" customFormat="1">
+    <row r="341" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A341" s="6">
         <v>340</v>
       </c>
@@ -18806,7 +18848,7 @@
       </c>
       <c r="O341" s="6"/>
     </row>
-    <row r="342" spans="1:15" s="9" customFormat="1">
+    <row r="342" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A342" s="6">
         <v>341</v>
       </c>
@@ -18847,7 +18889,7 @@
       </c>
       <c r="O342" s="6"/>
     </row>
-    <row r="343" spans="1:15" s="9" customFormat="1">
+    <row r="343" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A343" s="6">
         <v>342</v>
       </c>
@@ -18886,7 +18928,7 @@
       </c>
       <c r="O343" s="6"/>
     </row>
-    <row r="344" spans="1:15" s="9" customFormat="1">
+    <row r="344" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A344" s="6">
         <v>343</v>
       </c>
@@ -18925,7 +18967,7 @@
       </c>
       <c r="O344" s="6"/>
     </row>
-    <row r="345" spans="1:15" s="9" customFormat="1">
+    <row r="345" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A345" s="6">
         <v>344</v>
       </c>
@@ -18964,7 +19006,7 @@
       </c>
       <c r="O345" s="6"/>
     </row>
-    <row r="346" spans="1:15" s="9" customFormat="1">
+    <row r="346" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A346" s="6">
         <v>345</v>
       </c>
@@ -19003,7 +19045,7 @@
       </c>
       <c r="O346" s="6"/>
     </row>
-    <row r="347" spans="1:15" s="9" customFormat="1">
+    <row r="347" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A347" s="6">
         <v>346</v>
       </c>
@@ -19042,7 +19084,7 @@
       </c>
       <c r="O347" s="6"/>
     </row>
-    <row r="348" spans="1:15" s="9" customFormat="1">
+    <row r="348" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A348" s="6">
         <v>347</v>
       </c>
@@ -19081,7 +19123,7 @@
       </c>
       <c r="O348" s="6"/>
     </row>
-    <row r="349" spans="1:15" s="9" customFormat="1">
+    <row r="349" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A349" s="6">
         <v>348</v>
       </c>
@@ -19120,7 +19162,7 @@
       </c>
       <c r="O349" s="6"/>
     </row>
-    <row r="350" spans="1:15" s="9" customFormat="1">
+    <row r="350" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A350" s="6">
         <v>349</v>
       </c>
@@ -19159,7 +19201,7 @@
       </c>
       <c r="O350" s="6"/>
     </row>
-    <row r="351" spans="1:15" s="9" customFormat="1">
+    <row r="351" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A351" s="6">
         <v>350</v>
       </c>
@@ -19200,7 +19242,7 @@
       </c>
       <c r="O351" s="6"/>
     </row>
-    <row r="352" spans="1:15" s="9" customFormat="1">
+    <row r="352" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A352" s="6">
         <v>351</v>
       </c>
@@ -19241,7 +19283,7 @@
       </c>
       <c r="O352" s="6"/>
     </row>
-    <row r="353" spans="1:15" s="9" customFormat="1">
+    <row r="353" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A353" s="6">
         <v>352</v>
       </c>
@@ -19280,7 +19322,7 @@
       </c>
       <c r="O353" s="6"/>
     </row>
-    <row r="354" spans="1:15" s="9" customFormat="1">
+    <row r="354" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A354" s="6">
         <v>353</v>
       </c>
@@ -19319,7 +19361,7 @@
       </c>
       <c r="O354" s="6"/>
     </row>
-    <row r="355" spans="1:15" s="9" customFormat="1">
+    <row r="355" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A355" s="6">
         <v>354</v>
       </c>
@@ -19360,7 +19402,7 @@
       </c>
       <c r="O355" s="6"/>
     </row>
-    <row r="356" spans="1:15" s="9" customFormat="1">
+    <row r="356" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A356" s="6">
         <v>355</v>
       </c>
@@ -19399,7 +19441,7 @@
       </c>
       <c r="O356" s="6"/>
     </row>
-    <row r="357" spans="1:15" s="9" customFormat="1">
+    <row r="357" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A357" s="6">
         <v>356</v>
       </c>
@@ -19438,7 +19480,7 @@
       </c>
       <c r="O357" s="6"/>
     </row>
-    <row r="358" spans="1:15" s="9" customFormat="1">
+    <row r="358" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A358" s="6">
         <v>357</v>
       </c>
@@ -19477,7 +19519,7 @@
       </c>
       <c r="O358" s="6"/>
     </row>
-    <row r="359" spans="1:15" s="9" customFormat="1">
+    <row r="359" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A359" s="6">
         <v>358</v>
       </c>
@@ -19516,7 +19558,7 @@
       </c>
       <c r="O359" s="6"/>
     </row>
-    <row r="360" spans="1:15" s="9" customFormat="1">
+    <row r="360" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A360" s="6">
         <v>359</v>
       </c>
@@ -19557,7 +19599,7 @@
       </c>
       <c r="O360" s="6"/>
     </row>
-    <row r="361" spans="1:15" s="9" customFormat="1">
+    <row r="361" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A361" s="6">
         <v>360</v>
       </c>
@@ -19598,7 +19640,7 @@
       </c>
       <c r="O361" s="6"/>
     </row>
-    <row r="362" spans="1:15" s="9" customFormat="1">
+    <row r="362" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A362" s="6">
         <v>361</v>
       </c>
@@ -19639,7 +19681,7 @@
       </c>
       <c r="O362" s="6"/>
     </row>
-    <row r="363" spans="1:15" s="9" customFormat="1">
+    <row r="363" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A363" s="6">
         <v>362</v>
       </c>
@@ -19678,7 +19720,7 @@
       </c>
       <c r="O363" s="6"/>
     </row>
-    <row r="364" spans="1:15" s="9" customFormat="1">
+    <row r="364" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A364" s="6">
         <v>363</v>
       </c>
@@ -19717,7 +19759,7 @@
       </c>
       <c r="O364" s="6"/>
     </row>
-    <row r="365" spans="1:15" s="9" customFormat="1">
+    <row r="365" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A365" s="6">
         <v>364</v>
       </c>
@@ -19756,7 +19798,7 @@
       </c>
       <c r="O365" s="6"/>
     </row>
-    <row r="366" spans="1:15" s="9" customFormat="1">
+    <row r="366" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A366" s="6">
         <v>365</v>
       </c>
@@ -19795,7 +19837,7 @@
       </c>
       <c r="O366" s="6"/>
     </row>
-    <row r="367" spans="1:15" s="9" customFormat="1">
+    <row r="367" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A367" s="6">
         <v>366</v>
       </c>
@@ -19836,7 +19878,7 @@
       </c>
       <c r="O367" s="6"/>
     </row>
-    <row r="368" spans="1:15" s="9" customFormat="1">
+    <row r="368" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A368" s="6">
         <v>367</v>
       </c>
@@ -19877,7 +19919,7 @@
       </c>
       <c r="O368" s="6"/>
     </row>
-    <row r="369" spans="1:15" s="9" customFormat="1">
+    <row r="369" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A369" s="6">
         <v>368</v>
       </c>
@@ -19918,7 +19960,7 @@
       </c>
       <c r="O369" s="6"/>
     </row>
-    <row r="370" spans="1:15" s="9" customFormat="1">
+    <row r="370" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A370" s="6">
         <v>369</v>
       </c>
@@ -19959,7 +20001,7 @@
       </c>
       <c r="O370" s="6"/>
     </row>
-    <row r="371" spans="1:15" s="9" customFormat="1">
+    <row r="371" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A371" s="6">
         <v>370</v>
       </c>
@@ -20043,7 +20085,7 @@
       </c>
       <c r="O372" s="6"/>
     </row>
-    <row r="373" spans="1:15" s="9" customFormat="1">
+    <row r="373" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A373" s="6">
         <v>372</v>
       </c>
@@ -20082,7 +20124,7 @@
       </c>
       <c r="O373" s="6"/>
     </row>
-    <row r="374" spans="1:15" s="9" customFormat="1">
+    <row r="374" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A374" s="6">
         <v>373</v>
       </c>
@@ -20121,7 +20163,7 @@
       </c>
       <c r="O374" s="6"/>
     </row>
-    <row r="375" spans="1:15" s="9" customFormat="1">
+    <row r="375" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A375" s="6">
         <v>374</v>
       </c>
@@ -20160,7 +20202,7 @@
       </c>
       <c r="O375" s="6"/>
     </row>
-    <row r="376" spans="1:15" s="9" customFormat="1">
+    <row r="376" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A376" s="6">
         <v>375</v>
       </c>
@@ -20199,7 +20241,7 @@
       </c>
       <c r="O376" s="6"/>
     </row>
-    <row r="377" spans="1:15" s="9" customFormat="1">
+    <row r="377" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A377" s="6">
         <v>376</v>
       </c>
@@ -20240,7 +20282,7 @@
       </c>
       <c r="O377" s="6"/>
     </row>
-    <row r="378" spans="1:15" s="9" customFormat="1">
+    <row r="378" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A378" s="6">
         <v>377</v>
       </c>
@@ -20281,7 +20323,7 @@
       </c>
       <c r="O378" s="6"/>
     </row>
-    <row r="379" spans="1:15" s="9" customFormat="1">
+    <row r="379" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A379" s="6">
         <v>378</v>
       </c>
@@ -20322,7 +20364,7 @@
       </c>
       <c r="O379" s="6"/>
     </row>
-    <row r="380" spans="1:15" s="9" customFormat="1">
+    <row r="380" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A380" s="6">
         <v>379</v>
       </c>
@@ -20363,7 +20405,7 @@
       </c>
       <c r="O380" s="6"/>
     </row>
-    <row r="381" spans="1:15" s="9" customFormat="1">
+    <row r="381" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A381" s="6">
         <v>380</v>
       </c>
@@ -20404,7 +20446,7 @@
       </c>
       <c r="O381" s="6"/>
     </row>
-    <row r="382" spans="1:15" s="9" customFormat="1">
+    <row r="382" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A382" s="6">
         <v>381</v>
       </c>
@@ -20445,7 +20487,7 @@
       </c>
       <c r="O382" s="6"/>
     </row>
-    <row r="383" spans="1:15" s="9" customFormat="1">
+    <row r="383" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A383" s="6">
         <v>382</v>
       </c>
@@ -20486,7 +20528,7 @@
       </c>
       <c r="O383" s="6"/>
     </row>
-    <row r="384" spans="1:15" s="9" customFormat="1">
+    <row r="384" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A384" s="6">
         <v>383</v>
       </c>
@@ -20525,7 +20567,7 @@
       </c>
       <c r="O384" s="6"/>
     </row>
-    <row r="385" spans="1:15" s="9" customFormat="1">
+    <row r="385" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A385" s="6">
         <v>384</v>
       </c>
@@ -20564,7 +20606,7 @@
       </c>
       <c r="O385" s="6"/>
     </row>
-    <row r="386" spans="1:15" s="9" customFormat="1">
+    <row r="386" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A386" s="6">
         <v>385</v>
       </c>
@@ -20603,7 +20645,7 @@
       </c>
       <c r="O386" s="6"/>
     </row>
-    <row r="387" spans="1:15" s="9" customFormat="1">
+    <row r="387" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A387" s="6">
         <v>386</v>
       </c>
@@ -20642,7 +20684,7 @@
       </c>
       <c r="O387" s="6"/>
     </row>
-    <row r="388" spans="1:15" s="9" customFormat="1">
+    <row r="388" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A388" s="6">
         <v>387</v>
       </c>
@@ -20683,7 +20725,7 @@
       </c>
       <c r="O388" s="6"/>
     </row>
-    <row r="389" spans="1:15" s="9" customFormat="1">
+    <row r="389" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A389" s="6">
         <v>388</v>
       </c>
@@ -20724,7 +20766,7 @@
       </c>
       <c r="O389" s="6"/>
     </row>
-    <row r="390" spans="1:15" s="9" customFormat="1">
+    <row r="390" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A390" s="6">
         <v>389</v>
       </c>
@@ -20765,7 +20807,7 @@
       </c>
       <c r="O390" s="6"/>
     </row>
-    <row r="391" spans="1:15" s="9" customFormat="1">
+    <row r="391" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A391" s="6">
         <v>390</v>
       </c>
@@ -20806,7 +20848,7 @@
       </c>
       <c r="O391" s="6"/>
     </row>
-    <row r="392" spans="1:15" s="9" customFormat="1">
+    <row r="392" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A392" s="6">
         <v>391</v>
       </c>
@@ -20847,7 +20889,7 @@
       </c>
       <c r="O392" s="6"/>
     </row>
-    <row r="393" spans="1:15" s="9" customFormat="1">
+    <row r="393" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A393" s="6">
         <v>392</v>
       </c>
@@ -20888,7 +20930,7 @@
       </c>
       <c r="O393" s="6"/>
     </row>
-    <row r="394" spans="1:15" s="9" customFormat="1">
+    <row r="394" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A394" s="6">
         <v>393</v>
       </c>
@@ -20927,7 +20969,7 @@
       </c>
       <c r="O394" s="6"/>
     </row>
-    <row r="395" spans="1:15" s="9" customFormat="1">
+    <row r="395" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A395" s="6">
         <v>394</v>
       </c>
@@ -20966,7 +21008,7 @@
       </c>
       <c r="O395" s="6"/>
     </row>
-    <row r="396" spans="1:15" s="9" customFormat="1">
+    <row r="396" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A396" s="6">
         <v>395</v>
       </c>
@@ -21007,7 +21049,7 @@
       </c>
       <c r="O396" s="6"/>
     </row>
-    <row r="397" spans="1:15" s="9" customFormat="1">
+    <row r="397" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A397" s="6">
         <v>396</v>
       </c>
@@ -21048,7 +21090,7 @@
       </c>
       <c r="O397" s="6"/>
     </row>
-    <row r="398" spans="1:15" s="9" customFormat="1">
+    <row r="398" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A398" s="6">
         <v>397</v>
       </c>
@@ -21089,7 +21131,7 @@
       </c>
       <c r="O398" s="12"/>
     </row>
-    <row r="399" spans="1:15" s="9" customFormat="1">
+    <row r="399" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A399" s="6">
         <v>398</v>
       </c>
@@ -21130,7 +21172,7 @@
       </c>
       <c r="O399" s="6"/>
     </row>
-    <row r="400" spans="1:15" s="9" customFormat="1">
+    <row r="400" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A400" s="6">
         <v>399</v>
       </c>
@@ -21171,7 +21213,7 @@
       </c>
       <c r="O400" s="6"/>
     </row>
-    <row r="401" spans="1:15" s="9" customFormat="1">
+    <row r="401" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A401" s="6">
         <v>400</v>
       </c>
@@ -21212,7 +21254,7 @@
       </c>
       <c r="O401" s="6"/>
     </row>
-    <row r="402" spans="1:15" s="9" customFormat="1">
+    <row r="402" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A402" s="6">
         <v>401</v>
       </c>
@@ -21253,7 +21295,7 @@
       </c>
       <c r="O402" s="6"/>
     </row>
-    <row r="403" spans="1:15" s="9" customFormat="1">
+    <row r="403" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A403" s="6">
         <v>402</v>
       </c>
@@ -21294,7 +21336,7 @@
       </c>
       <c r="O403" s="6"/>
     </row>
-    <row r="404" spans="1:15" s="9" customFormat="1">
+    <row r="404" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A404" s="6">
         <v>403</v>
       </c>
@@ -21335,7 +21377,7 @@
       </c>
       <c r="O404" s="6"/>
     </row>
-    <row r="405" spans="1:15" s="9" customFormat="1">
+    <row r="405" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A405" s="6">
         <v>404</v>
       </c>
@@ -21374,7 +21416,7 @@
       </c>
       <c r="O405" s="6"/>
     </row>
-    <row r="406" spans="1:15" s="9" customFormat="1">
+    <row r="406" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A406" s="6">
         <v>405</v>
       </c>
@@ -21413,7 +21455,7 @@
       </c>
       <c r="O406" s="6"/>
     </row>
-    <row r="407" spans="1:15" s="9" customFormat="1">
+    <row r="407" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A407" s="6">
         <v>406</v>
       </c>
@@ -21452,7 +21494,7 @@
       </c>
       <c r="O407" s="6"/>
     </row>
-    <row r="408" spans="1:15" s="9" customFormat="1">
+    <row r="408" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A408" s="6">
         <v>407</v>
       </c>
@@ -21493,7 +21535,7 @@
       </c>
       <c r="O408" s="6"/>
     </row>
-    <row r="409" spans="1:15" s="9" customFormat="1">
+    <row r="409" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A409" s="6">
         <v>408</v>
       </c>
@@ -21532,7 +21574,7 @@
       </c>
       <c r="O409" s="6"/>
     </row>
-    <row r="410" spans="1:15" s="9" customFormat="1">
+    <row r="410" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A410" s="6">
         <v>409</v>
       </c>
@@ -21571,7 +21613,7 @@
       </c>
       <c r="O410" s="6"/>
     </row>
-    <row r="411" spans="1:15" s="9" customFormat="1">
+    <row r="411" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A411" s="6">
         <v>410</v>
       </c>
@@ -21612,7 +21654,7 @@
       </c>
       <c r="O411" s="6"/>
     </row>
-    <row r="412" spans="1:15" s="9" customFormat="1">
+    <row r="412" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A412" s="6">
         <v>411</v>
       </c>
@@ -21653,7 +21695,7 @@
       </c>
       <c r="O412" s="6"/>
     </row>
-    <row r="413" spans="1:15" s="9" customFormat="1">
+    <row r="413" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A413" s="6">
         <v>412</v>
       </c>
@@ -21694,7 +21736,7 @@
       </c>
       <c r="O413" s="6"/>
     </row>
-    <row r="414" spans="1:15" s="9" customFormat="1">
+    <row r="414" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A414" s="6">
         <v>413</v>
       </c>
@@ -21735,7 +21777,7 @@
       </c>
       <c r="O414" s="6"/>
     </row>
-    <row r="415" spans="1:15" s="9" customFormat="1">
+    <row r="415" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -21776,7 +21818,7 @@
       </c>
       <c r="O415" s="6"/>
     </row>
-    <row r="416" spans="1:15" s="9" customFormat="1">
+    <row r="416" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -21817,7 +21859,7 @@
       </c>
       <c r="O416" s="6"/>
     </row>
-    <row r="417" spans="1:15" s="9" customFormat="1">
+    <row r="417" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A417" s="6">
         <v>416</v>
       </c>
@@ -21858,7 +21900,7 @@
       </c>
       <c r="O417" s="6"/>
     </row>
-    <row r="418" spans="1:15" s="9" customFormat="1">
+    <row r="418" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A418" s="6">
         <v>417</v>
       </c>
@@ -21899,7 +21941,7 @@
       </c>
       <c r="O418" s="6"/>
     </row>
-    <row r="419" spans="1:15" s="9" customFormat="1">
+    <row r="419" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -21938,7 +21980,7 @@
       </c>
       <c r="O419" s="6"/>
     </row>
-    <row r="420" spans="1:15" s="9" customFormat="1">
+    <row r="420" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -21977,7 +22019,7 @@
       </c>
       <c r="O420" s="6"/>
     </row>
-    <row r="421" spans="1:15" s="9" customFormat="1">
+    <row r="421" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A421" s="6">
         <v>420</v>
       </c>
@@ -22018,7 +22060,7 @@
       </c>
       <c r="O421" s="6"/>
     </row>
-    <row r="422" spans="1:15" s="9" customFormat="1">
+    <row r="422" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A422" s="6">
         <v>421</v>
       </c>
@@ -22059,7 +22101,7 @@
       </c>
       <c r="O422" s="6"/>
     </row>
-    <row r="423" spans="1:15" s="9" customFormat="1">
+    <row r="423" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A423" s="6">
         <v>422</v>
       </c>
@@ -22100,7 +22142,7 @@
       </c>
       <c r="O423" s="6"/>
     </row>
-    <row r="424" spans="1:15" s="9" customFormat="1">
+    <row r="424" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A424" s="6">
         <v>423</v>
       </c>
@@ -22141,7 +22183,7 @@
       </c>
       <c r="O424" s="6"/>
     </row>
-    <row r="425" spans="1:15" s="9" customFormat="1">
+    <row r="425" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -22182,7 +22224,7 @@
       </c>
       <c r="O425" s="6"/>
     </row>
-    <row r="426" spans="1:15" s="9" customFormat="1">
+    <row r="426" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -22223,7 +22265,7 @@
       </c>
       <c r="O426" s="6"/>
     </row>
-    <row r="427" spans="1:15" s="9" customFormat="1">
+    <row r="427" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -22264,7 +22306,7 @@
       </c>
       <c r="O427" s="6"/>
     </row>
-    <row r="428" spans="1:15" s="9" customFormat="1">
+    <row r="428" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -22305,7 +22347,7 @@
       </c>
       <c r="O428" s="6"/>
     </row>
-    <row r="429" spans="1:15" s="9" customFormat="1">
+    <row r="429" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -22344,7 +22386,7 @@
       </c>
       <c r="O429" s="6"/>
     </row>
-    <row r="430" spans="1:15" s="9" customFormat="1">
+    <row r="430" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -22383,7 +22425,7 @@
       </c>
       <c r="O430" s="6"/>
     </row>
-    <row r="431" spans="1:15" s="9" customFormat="1">
+    <row r="431" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -22422,7 +22464,7 @@
       </c>
       <c r="O431" s="6"/>
     </row>
-    <row r="432" spans="1:15" s="9" customFormat="1">
+    <row r="432" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -22461,7 +22503,7 @@
       </c>
       <c r="O432" s="6"/>
     </row>
-    <row r="433" spans="1:15" s="9" customFormat="1">
+    <row r="433" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -22500,7 +22542,7 @@
       </c>
       <c r="O433" s="6"/>
     </row>
-    <row r="434" spans="1:15" s="9" customFormat="1">
+    <row r="434" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A434" s="6">
         <v>433</v>
       </c>
@@ -22539,7 +22581,7 @@
       </c>
       <c r="O434" s="6"/>
     </row>
-    <row r="435" spans="1:15" s="9" customFormat="1">
+    <row r="435" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A435" s="6">
         <v>434</v>
       </c>
@@ -22578,7 +22620,7 @@
       </c>
       <c r="O435" s="6"/>
     </row>
-    <row r="436" spans="1:15" s="9" customFormat="1">
+    <row r="436" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A436" s="6">
         <v>435</v>
       </c>
@@ -22617,7 +22659,7 @@
       </c>
       <c r="O436" s="6"/>
     </row>
-    <row r="437" spans="1:15" s="9" customFormat="1">
+    <row r="437" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A437" s="6">
         <v>436</v>
       </c>
@@ -22658,7 +22700,7 @@
       </c>
       <c r="O437" s="6"/>
     </row>
-    <row r="438" spans="1:15" s="9" customFormat="1">
+    <row r="438" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A438" s="6">
         <v>437</v>
       </c>
@@ -22699,7 +22741,7 @@
       </c>
       <c r="O438" s="6"/>
     </row>
-    <row r="439" spans="1:15" s="9" customFormat="1">
+    <row r="439" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A439" s="6">
         <v>438</v>
       </c>
@@ -22740,7 +22782,7 @@
       </c>
       <c r="O439" s="6"/>
     </row>
-    <row r="440" spans="1:15" s="9" customFormat="1">
+    <row r="440" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A440" s="6">
         <v>439</v>
       </c>
@@ -22781,7 +22823,7 @@
       </c>
       <c r="O440" s="6"/>
     </row>
-    <row r="441" spans="1:15" s="9" customFormat="1">
+    <row r="441" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A441" s="6">
         <v>440</v>
       </c>
@@ -22822,7 +22864,7 @@
       </c>
       <c r="O441" s="6"/>
     </row>
-    <row r="442" spans="1:15" s="9" customFormat="1">
+    <row r="442" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A442" s="6">
         <v>441</v>
       </c>
@@ -22863,7 +22905,7 @@
       </c>
       <c r="O442" s="6"/>
     </row>
-    <row r="443" spans="1:15" s="9" customFormat="1">
+    <row r="443" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A443" s="6">
         <v>442</v>
       </c>
@@ -22904,7 +22946,7 @@
       </c>
       <c r="O443" s="6"/>
     </row>
-    <row r="444" spans="1:15" s="9" customFormat="1">
+    <row r="444" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A444" s="6">
         <v>443</v>
       </c>
@@ -22943,7 +22985,7 @@
       </c>
       <c r="O444" s="6"/>
     </row>
-    <row r="445" spans="1:15" s="9" customFormat="1">
+    <row r="445" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A445" s="6">
         <v>444</v>
       </c>
@@ -22982,7 +23024,7 @@
       </c>
       <c r="O445" s="6"/>
     </row>
-    <row r="446" spans="1:15" s="9" customFormat="1">
+    <row r="446" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A446" s="6">
         <v>445</v>
       </c>
@@ -23021,7 +23063,7 @@
       </c>
       <c r="O446" s="6"/>
     </row>
-    <row r="447" spans="1:15" s="9" customFormat="1">
+    <row r="447" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A447" s="6">
         <v>446</v>
       </c>
@@ -23062,7 +23104,7 @@
       </c>
       <c r="O447" s="6"/>
     </row>
-    <row r="448" spans="1:15" s="9" customFormat="1">
+    <row r="448" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A448" s="6">
         <v>447</v>
       </c>
@@ -23103,7 +23145,7 @@
       </c>
       <c r="O448" s="6"/>
     </row>
-    <row r="449" spans="1:15" s="9" customFormat="1">
+    <row r="449" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A449" s="6">
         <v>448</v>
       </c>
@@ -23142,7 +23184,7 @@
       </c>
       <c r="O449" s="6"/>
     </row>
-    <row r="450" spans="1:15" s="9" customFormat="1">
+    <row r="450" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A450" s="6">
         <v>449</v>
       </c>
@@ -23181,7 +23223,7 @@
       </c>
       <c r="O450" s="6"/>
     </row>
-    <row r="451" spans="1:15" s="9" customFormat="1">
+    <row r="451" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A451" s="6">
         <v>450</v>
       </c>
@@ -23222,7 +23264,7 @@
       </c>
       <c r="O451" s="6"/>
     </row>
-    <row r="452" spans="1:15" s="9" customFormat="1">
+    <row r="452" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A452" s="6">
         <v>451</v>
       </c>
@@ -23263,7 +23305,7 @@
       </c>
       <c r="O452" s="6"/>
     </row>
-    <row r="453" spans="1:15" s="9" customFormat="1">
+    <row r="453" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A453" s="6">
         <v>452</v>
       </c>
@@ -23304,7 +23346,7 @@
       </c>
       <c r="O453" s="6"/>
     </row>
-    <row r="454" spans="1:15" s="9" customFormat="1">
+    <row r="454" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A454" s="6">
         <v>453</v>
       </c>
@@ -23345,7 +23387,7 @@
       </c>
       <c r="O454" s="6"/>
     </row>
-    <row r="455" spans="1:15" s="9" customFormat="1">
+    <row r="455" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A455" s="6">
         <v>454</v>
       </c>
@@ -23386,7 +23428,7 @@
       </c>
       <c r="O455" s="6"/>
     </row>
-    <row r="456" spans="1:15" s="9" customFormat="1">
+    <row r="456" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A456" s="6">
         <v>455</v>
       </c>
@@ -23427,7 +23469,7 @@
       </c>
       <c r="O456" s="6"/>
     </row>
-    <row r="457" spans="1:15" s="9" customFormat="1">
+    <row r="457" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A457" s="6">
         <v>456</v>
       </c>
@@ -23466,7 +23508,7 @@
       </c>
       <c r="O457" s="6"/>
     </row>
-    <row r="458" spans="1:15" s="9" customFormat="1">
+    <row r="458" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A458" s="6">
         <v>457</v>
       </c>
@@ -23505,7 +23547,7 @@
       </c>
       <c r="O458" s="6"/>
     </row>
-    <row r="459" spans="1:15" s="9" customFormat="1">
+    <row r="459" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A459" s="6">
         <v>458</v>
       </c>
@@ -23544,7 +23586,7 @@
       </c>
       <c r="O459" s="6"/>
     </row>
-    <row r="460" spans="1:15" s="9" customFormat="1">
+    <row r="460" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A460" s="6">
         <v>459</v>
       </c>
@@ -23583,7 +23625,7 @@
       </c>
       <c r="O460" s="6"/>
     </row>
-    <row r="461" spans="1:15" s="9" customFormat="1">
+    <row r="461" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A461" s="6">
         <v>460</v>
       </c>
@@ -23622,7 +23664,7 @@
       </c>
       <c r="O461" s="6"/>
     </row>
-    <row r="462" spans="1:15" s="9" customFormat="1">
+    <row r="462" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A462" s="6">
         <v>461</v>
       </c>
@@ -23661,7 +23703,7 @@
       </c>
       <c r="O462" s="6"/>
     </row>
-    <row r="463" spans="1:15" s="9" customFormat="1">
+    <row r="463" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A463" s="6">
         <v>462</v>
       </c>
@@ -23700,7 +23742,7 @@
       </c>
       <c r="O463" s="6"/>
     </row>
-    <row r="464" spans="1:15" s="9" customFormat="1">
+    <row r="464" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A464" s="6">
         <v>463</v>
       </c>
@@ -23741,7 +23783,7 @@
       </c>
       <c r="O464" s="6"/>
     </row>
-    <row r="465" spans="1:15" s="9" customFormat="1">
+    <row r="465" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A465" s="6">
         <v>464</v>
       </c>
@@ -23782,7 +23824,7 @@
       </c>
       <c r="O465" s="6"/>
     </row>
-    <row r="466" spans="1:15" s="9" customFormat="1">
+    <row r="466" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A466" s="6">
         <v>465</v>
       </c>
@@ -23823,7 +23865,7 @@
       </c>
       <c r="O466" s="6"/>
     </row>
-    <row r="467" spans="1:15" s="9" customFormat="1">
+    <row r="467" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A467" s="6">
         <v>466</v>
       </c>
@@ -23864,7 +23906,7 @@
       </c>
       <c r="O467" s="6"/>
     </row>
-    <row r="468" spans="1:15" s="9" customFormat="1">
+    <row r="468" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A468" s="6">
         <v>467</v>
       </c>
@@ -23903,7 +23945,7 @@
       </c>
       <c r="O468" s="6"/>
     </row>
-    <row r="469" spans="1:15" s="9" customFormat="1">
+    <row r="469" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A469" s="6">
         <v>468</v>
       </c>
@@ -23944,7 +23986,7 @@
       </c>
       <c r="O469" s="6"/>
     </row>
-    <row r="470" spans="1:15" s="9" customFormat="1">
+    <row r="470" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A470" s="6">
         <v>469</v>
       </c>
@@ -23985,7 +24027,7 @@
       </c>
       <c r="O470" s="6"/>
     </row>
-    <row r="471" spans="1:15" s="9" customFormat="1">
+    <row r="471" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A471" s="6">
         <v>470</v>
       </c>
@@ -24026,7 +24068,7 @@
       </c>
       <c r="O471" s="6"/>
     </row>
-    <row r="472" spans="1:15" s="9" customFormat="1">
+    <row r="472" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A472" s="6">
         <v>471</v>
       </c>
@@ -24067,7 +24109,7 @@
       </c>
       <c r="O472" s="6"/>
     </row>
-    <row r="473" spans="1:15" s="9" customFormat="1">
+    <row r="473" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A473" s="6">
         <v>472</v>
       </c>
@@ -24106,7 +24148,7 @@
       </c>
       <c r="O473" s="6"/>
     </row>
-    <row r="474" spans="1:15" s="9" customFormat="1">
+    <row r="474" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A474" s="6">
         <v>473</v>
       </c>
@@ -24145,7 +24187,7 @@
       </c>
       <c r="O474" s="6"/>
     </row>
-    <row r="475" spans="1:15" s="9" customFormat="1">
+    <row r="475" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A475" s="6">
         <v>474</v>
       </c>
@@ -24184,7 +24226,7 @@
       </c>
       <c r="O475" s="6"/>
     </row>
-    <row r="476" spans="1:15" s="9" customFormat="1">
+    <row r="476" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A476" s="6">
         <v>475</v>
       </c>
@@ -24225,7 +24267,7 @@
       </c>
       <c r="O476" s="6"/>
     </row>
-    <row r="477" spans="1:15" s="9" customFormat="1">
+    <row r="477" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A477" s="6">
         <v>476</v>
       </c>
@@ -24266,7 +24308,7 @@
       </c>
       <c r="O477" s="6"/>
     </row>
-    <row r="478" spans="1:15" s="9" customFormat="1">
+    <row r="478" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A478" s="6">
         <v>477</v>
       </c>
@@ -24307,7 +24349,7 @@
       </c>
       <c r="O478" s="6"/>
     </row>
-    <row r="479" spans="1:15" s="9" customFormat="1">
+    <row r="479" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A479" s="6">
         <v>478</v>
       </c>
@@ -24348,7 +24390,7 @@
       </c>
       <c r="O479" s="6"/>
     </row>
-    <row r="480" spans="1:15" s="9" customFormat="1">
+    <row r="480" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A480" s="6">
         <v>479</v>
       </c>
@@ -24389,7 +24431,7 @@
       </c>
       <c r="O480" s="6"/>
     </row>
-    <row r="481" spans="1:15" s="9" customFormat="1">
+    <row r="481" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A481" s="6">
         <v>480</v>
       </c>
@@ -24430,7 +24472,7 @@
       </c>
       <c r="O481" s="6"/>
     </row>
-    <row r="482" spans="1:15" s="9" customFormat="1">
+    <row r="482" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A482" s="6">
         <v>481</v>
       </c>
@@ -24512,7 +24554,7 @@
       </c>
       <c r="O483" s="6"/>
     </row>
-    <row r="484" spans="1:15" s="9" customFormat="1">
+    <row r="484" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A484" s="6">
         <v>483</v>
       </c>
@@ -24553,7 +24595,7 @@
       </c>
       <c r="O484" s="6"/>
     </row>
-    <row r="485" spans="1:15" s="9" customFormat="1">
+    <row r="485" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A485" s="6">
         <v>484</v>
       </c>
@@ -24594,7 +24636,7 @@
       </c>
       <c r="O485" s="6"/>
     </row>
-    <row r="486" spans="1:15" s="9" customFormat="1">
+    <row r="486" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A486" s="6">
         <v>485</v>
       </c>
@@ -24635,7 +24677,7 @@
       </c>
       <c r="O486" s="6"/>
     </row>
-    <row r="487" spans="1:15" s="9" customFormat="1">
+    <row r="487" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A487" s="6">
         <v>486</v>
       </c>
@@ -24674,7 +24716,7 @@
       </c>
       <c r="O487" s="6"/>
     </row>
-    <row r="488" spans="1:15" s="9" customFormat="1">
+    <row r="488" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A488" s="6">
         <v>487</v>
       </c>
@@ -24715,7 +24757,7 @@
       </c>
       <c r="O488" s="6"/>
     </row>
-    <row r="489" spans="1:15" s="9" customFormat="1">
+    <row r="489" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A489" s="6">
         <v>488</v>
       </c>
@@ -24756,7 +24798,7 @@
       </c>
       <c r="O489" s="6"/>
     </row>
-    <row r="490" spans="1:15" s="9" customFormat="1">
+    <row r="490" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A490" s="6">
         <v>489</v>
       </c>
@@ -24795,7 +24837,7 @@
       </c>
       <c r="O490" s="6"/>
     </row>
-    <row r="491" spans="1:15" s="9" customFormat="1">
+    <row r="491" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A491" s="6">
         <v>490</v>
       </c>
@@ -24836,7 +24878,7 @@
       </c>
       <c r="O491" s="6"/>
     </row>
-    <row r="492" spans="1:15" s="9" customFormat="1">
+    <row r="492" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A492" s="6">
         <v>491</v>
       </c>
@@ -24877,7 +24919,7 @@
       </c>
       <c r="O492" s="6"/>
     </row>
-    <row r="493" spans="1:15" s="9" customFormat="1">
+    <row r="493" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A493" s="6">
         <v>492</v>
       </c>
@@ -24959,7 +25001,7 @@
       </c>
       <c r="O494" s="6"/>
     </row>
-    <row r="495" spans="1:15" s="9" customFormat="1">
+    <row r="495" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A495" s="6">
         <v>494</v>
       </c>
@@ -25000,7 +25042,7 @@
       </c>
       <c r="O495" s="6"/>
     </row>
-    <row r="496" spans="1:15" s="9" customFormat="1">
+    <row r="496" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A496" s="6">
         <v>495</v>
       </c>
@@ -25041,7 +25083,7 @@
       </c>
       <c r="O496" s="6"/>
     </row>
-    <row r="497" spans="1:15" s="9" customFormat="1">
+    <row r="497" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A497" s="6">
         <v>496</v>
       </c>
@@ -25082,7 +25124,7 @@
       </c>
       <c r="O497" s="6"/>
     </row>
-    <row r="498" spans="1:15" s="9" customFormat="1">
+    <row r="498" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A498" s="6">
         <v>497</v>
       </c>
@@ -25123,7 +25165,7 @@
       </c>
       <c r="O498" s="6"/>
     </row>
-    <row r="499" spans="1:15" s="9" customFormat="1">
+    <row r="499" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A499" s="6">
         <v>498</v>
       </c>
@@ -25164,7 +25206,7 @@
       </c>
       <c r="O499" s="6"/>
     </row>
-    <row r="500" spans="1:15" s="9" customFormat="1">
+    <row r="500" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A500" s="6">
         <v>499</v>
       </c>
@@ -25203,7 +25245,7 @@
       </c>
       <c r="O500" s="6"/>
     </row>
-    <row r="501" spans="1:15" s="9" customFormat="1">
+    <row r="501" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A501" s="6">
         <v>500</v>
       </c>
@@ -25244,7 +25286,7 @@
       </c>
       <c r="O501" s="6"/>
     </row>
-    <row r="502" spans="1:15" s="9" customFormat="1">
+    <row r="502" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A502" s="6">
         <v>501</v>
       </c>
@@ -25285,7 +25327,7 @@
       </c>
       <c r="O502" s="6"/>
     </row>
-    <row r="503" spans="1:15" s="9" customFormat="1">
+    <row r="503" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A503" s="6">
         <v>502</v>
       </c>
@@ -25326,7 +25368,7 @@
       </c>
       <c r="O503" s="6"/>
     </row>
-    <row r="504" spans="1:15" s="9" customFormat="1">
+    <row r="504" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A504" s="6">
         <v>503</v>
       </c>
@@ -25367,7 +25409,7 @@
       </c>
       <c r="O504" s="6"/>
     </row>
-    <row r="505" spans="1:15" s="9" customFormat="1">
+    <row r="505" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A505" s="6">
         <v>504</v>
       </c>
@@ -25408,7 +25450,7 @@
       </c>
       <c r="O505" s="6"/>
     </row>
-    <row r="506" spans="1:15" s="9" customFormat="1">
+    <row r="506" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A506" s="6">
         <v>505</v>
       </c>
@@ -25449,7 +25491,7 @@
       </c>
       <c r="O506" s="6"/>
     </row>
-    <row r="507" spans="1:15" s="9" customFormat="1">
+    <row r="507" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A507" s="6">
         <v>506</v>
       </c>
@@ -25490,7 +25532,7 @@
       </c>
       <c r="O507" s="6"/>
     </row>
-    <row r="508" spans="1:15" s="9" customFormat="1">
+    <row r="508" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A508" s="6">
         <v>507</v>
       </c>
@@ -25531,7 +25573,7 @@
       </c>
       <c r="O508" s="6"/>
     </row>
-    <row r="509" spans="1:15" s="9" customFormat="1">
+    <row r="509" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A509" s="6">
         <v>508</v>
       </c>
@@ -25615,7 +25657,7 @@
       </c>
       <c r="O510" s="6"/>
     </row>
-    <row r="511" spans="1:15" s="9" customFormat="1">
+    <row r="511" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A511" s="6">
         <v>510</v>
       </c>
@@ -25654,7 +25696,7 @@
       </c>
       <c r="O511" s="6"/>
     </row>
-    <row r="512" spans="1:15" s="9" customFormat="1">
+    <row r="512" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A512" s="6">
         <v>511</v>
       </c>
@@ -25766,7 +25808,7 @@
         <v>563</v>
       </c>
       <c r="K514" s="6" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L514" s="6"/>
       <c r="M514" s="6">
@@ -25777,7 +25819,7 @@
       </c>
       <c r="O514" s="6"/>
     </row>
-    <row r="515" spans="1:15" s="9" customFormat="1">
+    <row r="515" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A515" s="6">
         <v>514</v>
       </c>
@@ -25818,7 +25860,7 @@
       </c>
       <c r="O515" s="6"/>
     </row>
-    <row r="516" spans="1:15" s="9" customFormat="1">
+    <row r="516" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A516" s="6">
         <v>515</v>
       </c>
@@ -25859,7 +25901,7 @@
       </c>
       <c r="O516" s="6"/>
     </row>
-    <row r="517" spans="1:15" s="9" customFormat="1">
+    <row r="517" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A517" s="6">
         <v>516</v>
       </c>
@@ -25900,7 +25942,7 @@
       </c>
       <c r="O517" s="6"/>
     </row>
-    <row r="518" spans="1:15" s="9" customFormat="1">
+    <row r="518" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A518" s="6">
         <v>517</v>
       </c>
@@ -25941,7 +25983,7 @@
       </c>
       <c r="O518" s="6"/>
     </row>
-    <row r="519" spans="1:15" s="9" customFormat="1">
+    <row r="519" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A519" s="6">
         <v>518</v>
       </c>
@@ -25982,7 +26024,7 @@
       </c>
       <c r="O519" s="6"/>
     </row>
-    <row r="520" spans="1:15" s="9" customFormat="1">
+    <row r="520" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A520" s="6">
         <v>519</v>
       </c>
@@ -26023,7 +26065,7 @@
       </c>
       <c r="O520" s="6"/>
     </row>
-    <row r="521" spans="1:15" s="9" customFormat="1">
+    <row r="521" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A521" s="6">
         <v>520</v>
       </c>
@@ -26064,7 +26106,7 @@
       </c>
       <c r="O521" s="6"/>
     </row>
-    <row r="522" spans="1:15" s="9" customFormat="1">
+    <row r="522" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A522" s="6">
         <v>521</v>
       </c>
@@ -26103,7 +26145,7 @@
       </c>
       <c r="O522" s="6"/>
     </row>
-    <row r="523" spans="1:15" s="9" customFormat="1">
+    <row r="523" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A523" s="6">
         <v>522</v>
       </c>
@@ -26144,7 +26186,7 @@
       </c>
       <c r="O523" s="6"/>
     </row>
-    <row r="524" spans="1:15" s="9" customFormat="1">
+    <row r="524" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A524" s="6">
         <v>523</v>
       </c>
@@ -26185,7 +26227,7 @@
       </c>
       <c r="O524" s="6"/>
     </row>
-    <row r="525" spans="1:15" s="9" customFormat="1">
+    <row r="525" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A525" s="6">
         <v>524</v>
       </c>
@@ -26226,7 +26268,7 @@
       </c>
       <c r="O525" s="6"/>
     </row>
-    <row r="526" spans="1:15" s="9" customFormat="1">
+    <row r="526" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A526" s="6">
         <v>525</v>
       </c>
@@ -26265,7 +26307,7 @@
       </c>
       <c r="O526" s="6"/>
     </row>
-    <row r="527" spans="1:15" s="9" customFormat="1">
+    <row r="527" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A527" s="6">
         <v>526</v>
       </c>
@@ -26304,7 +26346,7 @@
       </c>
       <c r="O527" s="6"/>
     </row>
-    <row r="528" spans="1:15" s="9" customFormat="1">
+    <row r="528" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A528" s="6">
         <v>527</v>
       </c>
@@ -26343,7 +26385,7 @@
       </c>
       <c r="O528" s="6"/>
     </row>
-    <row r="529" spans="1:15" s="9" customFormat="1">
+    <row r="529" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A529" s="6">
         <v>528</v>
       </c>
@@ -26382,7 +26424,7 @@
       </c>
       <c r="O529" s="6"/>
     </row>
-    <row r="530" spans="1:15" s="9" customFormat="1">
+    <row r="530" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A530" s="6">
         <v>529</v>
       </c>
@@ -26423,7 +26465,7 @@
       </c>
       <c r="O530" s="6"/>
     </row>
-    <row r="531" spans="1:15" s="9" customFormat="1">
+    <row r="531" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A531" s="6">
         <v>530</v>
       </c>
@@ -26591,7 +26633,7 @@
       </c>
       <c r="O534" s="6"/>
     </row>
-    <row r="535" spans="1:15" s="9" customFormat="1">
+    <row r="535" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A535" s="6">
         <v>534</v>
       </c>
@@ -26673,7 +26715,7 @@
       </c>
       <c r="O536" s="6"/>
     </row>
-    <row r="537" spans="1:15" s="9" customFormat="1">
+    <row r="537" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A537" s="6">
         <v>536</v>
       </c>
@@ -26714,7 +26756,7 @@
       </c>
       <c r="O537" s="6"/>
     </row>
-    <row r="538" spans="1:15" s="9" customFormat="1">
+    <row r="538" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A538" s="6">
         <v>537</v>
       </c>
@@ -26745,15 +26787,13 @@
       <c r="J538" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K538" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="K538" s="6"/>
       <c r="L538" s="6"/>
       <c r="M538" s="6">
         <v>0</v>
       </c>
       <c r="N538" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O538" s="6"/>
     </row>
@@ -26789,7 +26829,7 @@
         <v>43</v>
       </c>
       <c r="K539" s="6" t="s">
-        <v>609</v>
+        <v>103</v>
       </c>
       <c r="L539" s="6"/>
       <c r="M539" s="6">
@@ -26800,7 +26840,7 @@
       </c>
       <c r="O539" s="6"/>
     </row>
-    <row r="540" spans="1:15" s="9" customFormat="1">
+    <row r="540" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A540" s="6">
         <v>539</v>
       </c>
@@ -26841,7 +26881,7 @@
       </c>
       <c r="O540" s="6"/>
     </row>
-    <row r="541" spans="1:15" s="9" customFormat="1">
+    <row r="541" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A541" s="6">
         <v>540</v>
       </c>
@@ -26872,15 +26912,13 @@
       <c r="J541" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="K541" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="K541" s="6"/>
       <c r="L541" s="6"/>
       <c r="M541" s="6">
         <v>0</v>
       </c>
       <c r="N541" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O541" s="6"/>
     </row>
@@ -26927,7 +26965,7 @@
       </c>
       <c r="O542" s="6"/>
     </row>
-    <row r="543" spans="1:15" s="9" customFormat="1">
+    <row r="543" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A543" s="6">
         <v>542</v>
       </c>
@@ -27097,7 +27135,7 @@
       </c>
       <c r="O546" s="6"/>
     </row>
-    <row r="547" spans="1:15" s="9" customFormat="1">
+    <row r="547" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A547" s="5">
         <v>546</v>
       </c>
@@ -27177,7 +27215,7 @@
       </c>
       <c r="O548" s="5"/>
     </row>
-    <row r="549" spans="1:15" s="9" customFormat="1">
+    <row r="549" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A549" s="5">
         <v>548</v>
       </c>
@@ -27228,7 +27266,7 @@
         <v>615</v>
       </c>
       <c r="K550" s="5" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L550" s="5"/>
       <c r="M550" s="5">
@@ -27271,7 +27309,7 @@
         <v>614</v>
       </c>
       <c r="K551" s="5" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L551" s="5"/>
       <c r="M551" s="5">
@@ -27409,7 +27447,7 @@
       </c>
       <c r="O554" s="5"/>
     </row>
-    <row r="555" spans="1:15" s="9" customFormat="1">
+    <row r="555" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A555" s="5">
         <v>554</v>
       </c>
@@ -27450,7 +27488,7 @@
       </c>
       <c r="O555" s="5"/>
     </row>
-    <row r="556" spans="1:15" s="9" customFormat="1">
+    <row r="556" spans="1:15" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A556" s="5">
         <v>555</v>
       </c>
@@ -27765,7 +27803,7 @@
         <v>179</v>
       </c>
       <c r="K563" s="6" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L563" s="5"/>
       <c r="M563" s="5">
@@ -27981,7 +28019,9 @@
       <c r="C569" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D569" s="5"/>
+      <c r="D569" s="5" t="s">
+        <v>637</v>
+      </c>
       <c r="E569" s="7">
         <v>44086</v>
       </c>
@@ -28020,7 +28060,9 @@
       <c r="C570" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D570" s="5"/>
+      <c r="D570" s="5" t="s">
+        <v>637</v>
+      </c>
       <c r="E570" s="7">
         <v>44086</v>
       </c>
@@ -28090,8 +28132,43 @@
       </c>
       <c r="O571" s="5"/>
     </row>
+    <row r="572" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A572" s="20">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D572" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="E572" s="7">
+        <v>44089</v>
+      </c>
+      <c r="F572" s="7">
+        <v>44089</v>
+      </c>
+      <c r="G572" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="H572" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="I572" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="J572" s="21"/>
+      <c r="K572" s="20"/>
+      <c r="L572" s="20"/>
+      <c r="M572" s="20"/>
+      <c r="N572" s="20"/>
+      <c r="O572" s="20"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O571"/>
+  <autoFilter ref="A1:O572"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -10,7 +10,7 @@
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$572</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$573</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="645">
   <si>
     <t>No</t>
   </si>
@@ -4830,6 +4830,17 @@
     <rPh sb="3" eb="6">
       <t>ジュウギョウイン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天草市</t>
+    <rPh sb="0" eb="3">
+      <t>アマクサシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4840,7 +4851,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4872,14 +4883,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4985,7 +4988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5027,7 +5030,6 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5316,13 +5318,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O572"/>
+  <dimension ref="A1:O573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B556" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A572" sqref="A572"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -24583,7 +24585,7 @@
       <c r="M483" s="5">
         <v>0</v>
       </c>
-      <c r="N483" s="21">
+      <c r="N483" s="5">
         <v>1</v>
       </c>
       <c r="O483" s="5"/>
@@ -26983,15 +26985,13 @@
       <c r="J542" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="K542" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="K542" s="5"/>
       <c r="L542" s="5"/>
       <c r="M542" s="5">
         <v>0</v>
       </c>
       <c r="N542" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O542" s="5"/>
     </row>
@@ -27233,15 +27233,13 @@
         <v>132</v>
       </c>
       <c r="J548" s="7"/>
-      <c r="K548" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="K548" s="9"/>
       <c r="L548" s="9"/>
       <c r="M548" s="9">
         <v>0</v>
       </c>
       <c r="N548" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O548" s="9"/>
     </row>
@@ -27418,15 +27416,13 @@
       <c r="J553" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="K553" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="K553" s="9"/>
       <c r="L553" s="9"/>
       <c r="M553" s="9">
         <v>0</v>
       </c>
       <c r="N553" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O553" s="9"/>
     </row>
@@ -27461,15 +27457,13 @@
       <c r="J554" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="K554" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="K554" s="9"/>
       <c r="L554" s="9"/>
       <c r="M554" s="9">
         <v>0</v>
       </c>
       <c r="N554" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O554" s="9"/>
     </row>
@@ -27949,15 +27943,13 @@
       <c r="J566" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="K566" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="K566" s="9"/>
       <c r="L566" s="9"/>
       <c r="M566" s="9">
         <v>0</v>
       </c>
       <c r="N566" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O566" s="9"/>
     </row>
@@ -28213,8 +28205,43 @@
       </c>
       <c r="O572" s="11"/>
     </row>
+    <row r="573" spans="1:15">
+      <c r="A573" s="11">
+        <v>572</v>
+      </c>
+      <c r="B573" s="9">
+        <v>430005</v>
+      </c>
+      <c r="C573" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D573" s="11"/>
+      <c r="E573" s="6">
+        <v>44092</v>
+      </c>
+      <c r="F573" s="6">
+        <v>44091</v>
+      </c>
+      <c r="G573" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="H573" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I573" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J573" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="K573" s="11"/>
+      <c r="L573" s="11"/>
+      <c r="M573" s="9"/>
+      <c r="N573" s="9"/>
+      <c r="O573" s="11"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O572"/>
+  <autoFilter ref="A1:O573"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="646">
   <si>
     <t>No</t>
   </si>
@@ -4841,6 +4841,13 @@
   </si>
   <si>
     <t>無職</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5321,10 +5328,10 @@
   <dimension ref="A1:O573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B558" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A573" sqref="A573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -15279,15 +15286,13 @@
       <c r="J250" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K250" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="K250" s="5"/>
       <c r="L250" s="5"/>
       <c r="M250" s="5">
         <v>0</v>
       </c>
       <c r="N250" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O250" s="5"/>
     </row>
@@ -27067,15 +27072,13 @@
       <c r="J544" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="K544" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="K544" s="5"/>
       <c r="L544" s="5"/>
       <c r="M544" s="5">
         <v>0</v>
       </c>
       <c r="N544" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O544" s="5"/>
     </row>
@@ -28234,10 +28237,16 @@
       <c r="J573" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="K573" s="11"/>
+      <c r="K573" s="11" t="s">
+        <v>645</v>
+      </c>
       <c r="L573" s="11"/>
-      <c r="M573" s="9"/>
-      <c r="N573" s="9"/>
+      <c r="M573" s="9">
+        <v>0</v>
+      </c>
+      <c r="N573" s="9">
+        <v>0</v>
+      </c>
       <c r="O573" s="11"/>
     </row>
   </sheetData>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="646">
   <si>
     <t>No</t>
   </si>
@@ -5328,7 +5328,7 @@
   <dimension ref="A1:O573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B558" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A573" sqref="A573"/>
@@ -27156,15 +27156,13 @@
       <c r="J546" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="K546" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="K546" s="5"/>
       <c r="L546" s="5"/>
       <c r="M546" s="5">
         <v>0</v>
       </c>
       <c r="N546" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O546" s="5"/>
     </row>
@@ -27741,15 +27739,13 @@
       <c r="J561" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K561" s="9" t="s">
-        <v>631</v>
-      </c>
+      <c r="K561" s="9"/>
       <c r="L561" s="9"/>
       <c r="M561" s="9">
         <v>0</v>
       </c>
       <c r="N561" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O561" s="9"/>
     </row>
@@ -27782,15 +27778,13 @@
       <c r="J562" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K562" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="K562" s="5"/>
       <c r="L562" s="9"/>
       <c r="M562" s="9">
         <v>0</v>
       </c>
       <c r="N562" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O562" s="9"/>
     </row>
@@ -27823,15 +27817,13 @@
       <c r="J563" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K563" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="K563" s="5"/>
       <c r="L563" s="9"/>
       <c r="M563" s="9">
         <v>0</v>
       </c>
       <c r="N563" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O563" s="9"/>
     </row>
@@ -28069,15 +28061,13 @@
       <c r="J569" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="K569" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="K569" s="9"/>
       <c r="L569" s="9"/>
       <c r="M569" s="9">
         <v>0</v>
       </c>
       <c r="N569" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O569" s="9"/>
     </row>
@@ -28112,15 +28102,13 @@
       <c r="J570" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="K570" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="K570" s="9"/>
       <c r="L570" s="9"/>
       <c r="M570" s="9">
         <v>0</v>
       </c>
       <c r="N570" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O570" s="9"/>
     </row>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="645">
   <si>
     <t>No</t>
   </si>
@@ -1172,13 +1172,6 @@
     <t>無職</t>
     <rPh sb="0" eb="2">
       <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5321,16 +5314,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B563" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B559" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A574" sqref="A574"/>
+      <selection pane="bottomRight" activeCell="A572" sqref="A572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -8798,7 +8791,7 @@
         <v>44039</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H86" s="16" t="s">
         <v>126</v>
@@ -9828,7 +9821,7 @@
         <v>44039</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H112" s="16" t="s">
         <v>127</v>
@@ -10101,7 +10094,7 @@
         <v>44039</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>122</v>
@@ -10140,7 +10133,7 @@
         <v>44039</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>123</v>
@@ -10815,7 +10808,7 @@
         <v>44040</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H137" s="16" t="s">
         <v>122</v>
@@ -11681,7 +11674,7 @@
         <v>44041</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H159" s="15" t="s">
         <v>153</v>
@@ -11720,7 +11713,7 @@
         <v>44041</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H160" s="15" t="s">
         <v>150</v>
@@ -11759,7 +11752,7 @@
         <v>44041</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H161" s="15" t="s">
         <v>159</v>
@@ -11798,7 +11791,7 @@
         <v>44041</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H162" s="15" t="s">
         <v>159</v>
@@ -12244,7 +12237,7 @@
         <v>176</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K173" s="15"/>
       <c r="L173" s="15"/>
@@ -12276,7 +12269,7 @@
         <v>44042</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H174" s="15" t="s">
         <v>169</v>
@@ -12318,13 +12311,13 @@
         <v>166</v>
       </c>
       <c r="H175" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I175" s="15" t="s">
         <v>132</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K175" s="15"/>
       <c r="L175" s="15"/>
@@ -12354,7 +12347,7 @@
         <v>44043</v>
       </c>
       <c r="G176" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H176" s="15" t="s">
         <v>121</v>
@@ -12363,7 +12356,7 @@
         <v>132</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K176" s="15"/>
       <c r="L176" s="15"/>
@@ -12395,7 +12388,7 @@
         <v>44043</v>
       </c>
       <c r="G177" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H177" s="15" t="s">
         <v>121</v>
@@ -12404,7 +12397,7 @@
         <v>104</v>
       </c>
       <c r="J177" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K177" s="15"/>
       <c r="L177" s="15"/>
@@ -12443,7 +12436,7 @@
         <v>76</v>
       </c>
       <c r="J178" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K178" s="15"/>
       <c r="L178" s="15"/>
@@ -12482,7 +12475,7 @@
         <v>104</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K179" s="15"/>
       <c r="L179" s="15"/>
@@ -12521,7 +12514,7 @@
         <v>104</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K180" s="15"/>
       <c r="L180" s="15"/>
@@ -12551,16 +12544,16 @@
         <v>44043</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H181" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I181" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K181" s="15"/>
       <c r="L181" s="15"/>
@@ -12590,16 +12583,16 @@
         <v>44043</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H182" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I182" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K182" s="15"/>
       <c r="L182" s="15"/>
@@ -12629,10 +12622,10 @@
         <v>44043</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H183" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I183" s="15" t="s">
         <v>76</v>
@@ -12668,10 +12661,10 @@
         <v>44043</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H184" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I184" s="15" t="s">
         <v>76</v>
@@ -12707,10 +12700,10 @@
         <v>44043</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I185" s="15" t="s">
         <v>76</v>
@@ -12746,10 +12739,10 @@
         <v>44043</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H186" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I186" s="15" t="s">
         <v>76</v>
@@ -12785,10 +12778,10 @@
         <v>44043</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I187" s="15" t="s">
         <v>76</v>
@@ -12824,10 +12817,10 @@
         <v>44043</v>
       </c>
       <c r="G188" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I188" s="15" t="s">
         <v>76</v>
@@ -12845,7 +12838,7 @@
       </c>
       <c r="O188" s="15"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" hidden="1">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -12865,16 +12858,16 @@
         <v>44043</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H189" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I189" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J189" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K189" s="15" t="s">
         <v>144</v>
@@ -12908,16 +12901,16 @@
         <v>44043</v>
       </c>
       <c r="G190" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H190" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I190" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K190" s="15"/>
       <c r="L190" s="15"/>
@@ -12949,7 +12942,7 @@
         <v>44043</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H191" s="15" t="s">
         <v>121</v>
@@ -12958,7 +12951,7 @@
         <v>104</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K191" s="15"/>
       <c r="L191" s="15"/>
@@ -12990,16 +12983,16 @@
         <v>44043</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H192" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I192" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K192" s="15"/>
       <c r="L192" s="15"/>
@@ -13029,10 +13022,10 @@
         <v>44043</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H193" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I193" s="15" t="s">
         <v>76</v>
@@ -13071,7 +13064,7 @@
         <v>165</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I194" s="15" t="s">
         <v>104</v>
@@ -13107,7 +13100,7 @@
         <v>44043</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H195" s="15" t="s">
         <v>127</v>
@@ -13116,7 +13109,7 @@
         <v>76</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K195" s="15"/>
       <c r="L195" s="15"/>
@@ -13146,7 +13139,7 @@
         <v>44043</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H196" s="15" t="s">
         <v>128</v>
@@ -13155,10 +13148,10 @@
         <v>104</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K196" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L196" s="15"/>
       <c r="M196" s="15">
@@ -13187,7 +13180,7 @@
         <v>44043</v>
       </c>
       <c r="G197" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H197" s="15" t="s">
         <v>129</v>
@@ -13196,7 +13189,7 @@
         <v>104</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K197" s="15"/>
       <c r="L197" s="15"/>
@@ -13226,7 +13219,7 @@
         <v>44043</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H198" s="15" t="s">
         <v>129</v>
@@ -13235,7 +13228,7 @@
         <v>104</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K198" s="15" t="s">
         <v>36</v>
@@ -13267,7 +13260,7 @@
         <v>44043</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H199" s="15" t="s">
         <v>128</v>
@@ -13276,7 +13269,7 @@
         <v>104</v>
       </c>
       <c r="J199" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K199" s="15"/>
       <c r="L199" s="15"/>
@@ -13306,7 +13299,7 @@
         <v>44043</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H200" s="15" t="s">
         <v>129</v>
@@ -13315,7 +13308,7 @@
         <v>104</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K200" s="15"/>
       <c r="L200" s="15"/>
@@ -13345,10 +13338,10 @@
         <v>44043</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I201" s="15" t="s">
         <v>76</v>
@@ -13386,16 +13379,16 @@
         <v>44044</v>
       </c>
       <c r="G202" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H202" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="H202" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="I202" s="15" t="s">
         <v>132</v>
       </c>
       <c r="J202" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K202" s="15"/>
       <c r="L202" s="15"/>
@@ -13427,10 +13420,10 @@
         <v>44044</v>
       </c>
       <c r="G203" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H203" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="H203" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="I203" s="15" t="s">
         <v>104</v>
@@ -13466,16 +13459,16 @@
         <v>44044</v>
       </c>
       <c r="G204" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H204" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I204" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J204" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K204" s="15"/>
       <c r="L204" s="15"/>
@@ -13505,16 +13498,16 @@
         <v>44044</v>
       </c>
       <c r="G205" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H205" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I205" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J205" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K205" s="15"/>
       <c r="L205" s="15"/>
@@ -13544,16 +13537,16 @@
         <v>44044</v>
       </c>
       <c r="G206" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H206" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I206" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J206" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K206" s="15"/>
       <c r="L206" s="15"/>
@@ -13583,16 +13576,16 @@
         <v>44044</v>
       </c>
       <c r="G207" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H207" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I207" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J207" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K207" s="15"/>
       <c r="L207" s="15"/>
@@ -13622,16 +13615,16 @@
         <v>44044</v>
       </c>
       <c r="G208" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H208" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I208" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J208" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K208" s="15"/>
       <c r="L208" s="15"/>
@@ -13661,16 +13654,16 @@
         <v>44044</v>
       </c>
       <c r="G209" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I209" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J209" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K209" s="15"/>
       <c r="L209" s="15"/>
@@ -13700,16 +13693,16 @@
         <v>44044</v>
       </c>
       <c r="G210" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H210" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I210" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J210" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K210" s="15"/>
       <c r="L210" s="15"/>
@@ -13739,16 +13732,16 @@
         <v>44044</v>
       </c>
       <c r="G211" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H211" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I211" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J211" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K211" s="15"/>
       <c r="L211" s="15"/>
@@ -13778,16 +13771,16 @@
         <v>44044</v>
       </c>
       <c r="G212" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H212" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I212" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J212" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K212" s="15"/>
       <c r="L212" s="15"/>
@@ -13817,16 +13810,16 @@
         <v>44044</v>
       </c>
       <c r="G213" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H213" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I213" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J213" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K213" s="15"/>
       <c r="L213" s="15"/>
@@ -13856,16 +13849,16 @@
         <v>44044</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H214" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I214" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J214" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K214" s="15"/>
       <c r="L214" s="15"/>
@@ -13895,16 +13888,16 @@
         <v>44044</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H215" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I215" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J215" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K215" s="15"/>
       <c r="L215" s="15"/>
@@ -13936,7 +13929,7 @@
         <v>44044</v>
       </c>
       <c r="G216" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H216" s="15" t="s">
         <v>121</v>
@@ -13945,7 +13938,7 @@
         <v>76</v>
       </c>
       <c r="J216" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K216" s="15"/>
       <c r="L216" s="15"/>
@@ -13977,7 +13970,7 @@
         <v>44044</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H217" s="15" t="s">
         <v>121</v>
@@ -14018,7 +14011,7 @@
         <v>44044</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H218" s="15" t="s">
         <v>129</v>
@@ -14027,7 +14020,7 @@
         <v>104</v>
       </c>
       <c r="J218" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K218" s="15"/>
       <c r="L218" s="15"/>
@@ -14057,10 +14050,10 @@
         <v>44044</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H219" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I219" s="15" t="s">
         <v>76</v>
@@ -14096,10 +14089,10 @@
         <v>44044</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H220" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I220" s="15" t="s">
         <v>76</v>
@@ -14135,10 +14128,10 @@
         <v>44044</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H221" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I221" s="15" t="s">
         <v>76</v>
@@ -14174,10 +14167,10 @@
         <v>44044</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H222" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I222" s="15" t="s">
         <v>76</v>
@@ -14213,10 +14206,10 @@
         <v>44044</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H223" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I223" s="15" t="s">
         <v>104</v>
@@ -14252,16 +14245,16 @@
         <v>44044</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H224" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I224" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J224" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K224" s="15"/>
       <c r="L224" s="15"/>
@@ -14291,19 +14284,19 @@
         <v>44044</v>
       </c>
       <c r="G225" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H225" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I225" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J225" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K225" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L225" s="15"/>
       <c r="M225" s="15">
@@ -14332,16 +14325,16 @@
         <v>44044</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H226" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I226" s="15" t="s">
         <v>104</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K226" s="15"/>
       <c r="L226" s="15"/>
@@ -14371,7 +14364,7 @@
         <v>44044</v>
       </c>
       <c r="G227" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H227" s="15" t="s">
         <v>129</v>
@@ -14380,7 +14373,7 @@
         <v>76</v>
       </c>
       <c r="J227" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K227" s="15"/>
       <c r="L227" s="15"/>
@@ -14410,16 +14403,16 @@
         <v>44044</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H228" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I228" s="15" t="s">
         <v>104</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K228" s="15"/>
       <c r="L228" s="15"/>
@@ -14449,16 +14442,16 @@
         <v>44044</v>
       </c>
       <c r="G229" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H229" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I229" s="15" t="s">
         <v>104</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K229" s="15"/>
       <c r="L229" s="15"/>
@@ -14488,7 +14481,7 @@
         <v>44045</v>
       </c>
       <c r="G230" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H230" s="15" t="s">
         <v>121</v>
@@ -14527,10 +14520,10 @@
         <v>44045</v>
       </c>
       <c r="G231" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H231" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I231" s="15" t="s">
         <v>76</v>
@@ -14569,7 +14562,7 @@
         <v>166</v>
       </c>
       <c r="H232" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I232" s="15" t="s">
         <v>76</v>
@@ -14605,16 +14598,16 @@
         <v>44045</v>
       </c>
       <c r="G233" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H233" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I233" s="15" t="s">
         <v>104</v>
       </c>
       <c r="J233" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K233" s="15"/>
       <c r="L233" s="15"/>
@@ -14644,16 +14637,16 @@
         <v>44045</v>
       </c>
       <c r="G234" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H234" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I234" s="15" t="s">
         <v>104</v>
       </c>
       <c r="J234" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K234" s="15"/>
       <c r="L234" s="15"/>
@@ -14686,13 +14679,13 @@
         <v>166</v>
       </c>
       <c r="H235" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I235" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J235" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K235" s="15"/>
       <c r="L235" s="15"/>
@@ -14722,16 +14715,16 @@
         <v>44045</v>
       </c>
       <c r="G236" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H236" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I236" s="15" t="s">
         <v>104</v>
       </c>
       <c r="J236" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K236" s="15"/>
       <c r="L236" s="15"/>
@@ -14761,16 +14754,16 @@
         <v>44045</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H237" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I237" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J237" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K237" s="15"/>
       <c r="L237" s="15"/>
@@ -14805,7 +14798,7 @@
         <v>112</v>
       </c>
       <c r="H238" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I238" s="15" t="s">
         <v>132</v>
@@ -14841,16 +14834,16 @@
         <v>44045</v>
       </c>
       <c r="G239" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H239" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I239" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J239" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K239" s="15"/>
       <c r="L239" s="15"/>
@@ -14880,7 +14873,7 @@
         <v>44045</v>
       </c>
       <c r="G240" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H240" s="15" t="s">
         <v>129</v>
@@ -14889,7 +14882,7 @@
         <v>104</v>
       </c>
       <c r="J240" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K240" s="15"/>
       <c r="L240" s="15"/>
@@ -14919,7 +14912,7 @@
         <v>44045</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H241" s="15" t="s">
         <v>122</v>
@@ -14928,7 +14921,7 @@
         <v>104</v>
       </c>
       <c r="J241" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K241" s="15"/>
       <c r="L241" s="15"/>
@@ -14958,7 +14951,7 @@
         <v>44046</v>
       </c>
       <c r="G242" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H242" s="15" t="s">
         <v>122</v>
@@ -14967,7 +14960,7 @@
         <v>76</v>
       </c>
       <c r="J242" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K242" s="15"/>
       <c r="L242" s="15"/>
@@ -14999,7 +14992,7 @@
         <v>44046</v>
       </c>
       <c r="G243" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H243" s="15" t="s">
         <v>121</v>
@@ -15008,7 +15001,7 @@
         <v>104</v>
       </c>
       <c r="J243" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K243" s="15"/>
       <c r="L243" s="15"/>
@@ -15040,16 +15033,16 @@
         <v>44046</v>
       </c>
       <c r="G244" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H244" s="15" t="s">
-        <v>205</v>
+        <v>204<